--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -4,26 +4,233 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="По задачам" sheetId="1" r:id="rId1"/>
+    <sheet name="Дневник по дням" sheetId="2" r:id="rId2"/>
+    <sheet name="Ресурсы" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Certified Windows</author>
+  </authors>
+  <commentList>
+    <comment ref="A5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Certified Windows:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+1. Браузеры
+Chrome, Canary
+Браузеры и движки
+https://ru.wikipedia.org/wiki/%D0%A1%...
+rtc
+https://caniuse.com
+Статистика
+https://gs.statcounter.com/
+2. .PSD
+https://psdetch.com/
+3. .sketch
+на маках встроено в систему
+https://www.figma.com/
+4. w3c + whatwg
+https://www.w3.org/TR/html53/
+https://html.spec.whatwg.org/
+5. VS Code
+полезные навыки
+https://code.visualstudio.com/docs/ge...
+f1 - command palette
+ctrl + ~ - терминал
+ctrl + up / down - перемотка экрана
+ctrl + R + click - второе окно
+alt + up / down - перенос строки
+alt + up / down - перенос строки
+ctrl + D - дубляж курсора
+аббревиатура emmet
+топ 10 расширений
+https://x-team.com/blog/14-vscode-ext...
+settings sync
+live server
+Bracket Pair Colorizer
+Auto Rename Tag
+Color Highlight
+CSS Peek
+Code Spell Checker
+vscode-icons
+Auto Close Tag
+Better Comments
+EditorConfig for VS Code</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Таблица 1</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="45">
+  <si>
+    <t>Дата начала</t>
+  </si>
+  <si>
+    <t>Дата окончания</t>
+  </si>
+  <si>
+    <t>Задача</t>
+  </si>
+  <si>
+    <t>Счёт</t>
+  </si>
+  <si>
+    <t>Ссылка на ресурс</t>
+  </si>
+  <si>
+    <t>Описание</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Что делал</t>
+  </si>
+  <si>
+    <t>День недели</t>
+  </si>
+  <si>
+    <t>вс</t>
+  </si>
+  <si>
+    <t>пн</t>
+  </si>
+  <si>
+    <t>вт</t>
+  </si>
+  <si>
+    <t>ср</t>
+  </si>
+  <si>
+    <t>чт</t>
+  </si>
+  <si>
+    <t>пт</t>
+  </si>
+  <si>
+    <t>сб</t>
+  </si>
+  <si>
+    <t>Среда разработки</t>
+  </si>
+  <si>
+    <t>Установил Visual Studio Code и расширения</t>
+  </si>
+  <si>
+    <t>HTML + CSS basics courses</t>
+  </si>
+  <si>
+    <t>HTML and CSS Basics</t>
+  </si>
+  <si>
+    <t>htmlacademy.ru - глава 6</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1ric9J-iYGM</t>
+  </si>
+  <si>
+    <t>The Rolling Scopes School JS/FE 2020Q1 Intro</t>
+  </si>
+  <si>
+    <t>Youtube live - Course overview</t>
+  </si>
+  <si>
+    <t>Git &amp; Markdown</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=R1d7EFsAMjU</t>
+  </si>
+  <si>
+    <t>Youtube live - Stage#1 Intro</t>
+  </si>
+  <si>
+    <t>Stage #1 intro</t>
+  </si>
+  <si>
+    <t>Посмотрел видео, Stage #1 intro</t>
+  </si>
+  <si>
+    <t>Посмотрел видео, Course overview</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nd2VYxOsOwY&amp;t=</t>
+  </si>
+  <si>
+    <t>Webinar 11.09.2019 Browsers. IDEs. Web Technologies</t>
+  </si>
+  <si>
+    <t>Посмотрел видео 2/3 Browsers. IDEs. Web Technologies</t>
+  </si>
+  <si>
+    <t>Досмотрел видео 1/3 Browsers. IDEs. Web Technologies</t>
+  </si>
+  <si>
+    <t>htmlacademy.ru - глава 1</t>
+  </si>
+  <si>
+    <t>htmlacademy.ru - глава 2</t>
+  </si>
+  <si>
+    <t>htmlacademy.ru - глава 3</t>
+  </si>
+  <si>
+    <t>htmlacademy.ru - глава 4</t>
+  </si>
+  <si>
+    <t>htmlacademy.ru - глава 5</t>
+  </si>
+  <si>
+    <t>Self education - Browsers and IDEs</t>
+  </si>
+  <si>
+    <t>Videos</t>
+  </si>
+  <si>
+    <t>Guides</t>
+  </si>
+  <si>
+    <t>Installs</t>
+  </si>
+  <si>
+    <t>https://code.visualstudio.com/</t>
+  </si>
+  <si>
+    <t>Visual Studio Code</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -32,13 +239,49 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -50,13 +293,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -349,20 +602,517 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="50.140625" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>43863</v>
+      </c>
+      <c r="B2" s="1">
+        <v>43863</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>43863</v>
+      </c>
+      <c r="B3" s="1">
+        <v>43863</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>43866</v>
+      </c>
+      <c r="B4" s="1">
+        <v>43866</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>43867</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43868</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>43864</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" customWidth="1"/>
+    <col min="3" max="3" width="51.7109375" customWidth="1"/>
+    <col min="4" max="4" width="95.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>43863</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>43864</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>43865</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>43866</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="C6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>43867</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>43868</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1"/>
+      <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>43869</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1"/>
+      <c r="C12" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1"/>
+      <c r="C13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>43870</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>43871</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>43872</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1">
+        <v>43873</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1">
+        <v>43874</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1">
+        <v>43875</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1">
+        <v>43876</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1">
+        <v>43877</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1">
+        <v>43878</v>
+      </c>
+      <c r="B22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1">
+        <v>43879</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1">
+        <v>43880</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1">
+        <v>43881</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1">
+        <v>43882</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1">
+        <v>43885</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1">
+        <v>43886</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1">
+        <v>43887</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1">
+        <v>43888</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1">
+        <v>43889</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C12" r:id="rId1" display="https://www.google.com/url?q=https://github.com/rolling-scopes-school/tasks/blob/master/tasks/stage-1/HTML-CSS-self-ru.md&amp;sa=D&amp;ust=1581156070193000&amp;usg=AFQjCNGScH2bT6OIUmYI_neez800PS8Kag"/>
+    <hyperlink ref="C13" r:id="rId2" display="https://www.google.com/url?q=https://youtu.be/2iCgf03rx1I&amp;sa=D&amp;ust=1581156070195000&amp;usg=AFQjCNG-BJa9Wxr8zj6zjQX6byHuMjjevQ"/>
+    <hyperlink ref="C2" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C7" r:id="rId5"/>
+    <hyperlink ref="C9" r:id="rId6"/>
+    <hyperlink ref="C3" r:id="rId7" display="https://www.google.com/url?q=https://youtu.be/2iCgf03rx1I&amp;sa=D&amp;ust=1581156070195000&amp;usg=AFQjCNG-BJa9Wxr8zj6zjQX6byHuMjjevQ"/>
+    <hyperlink ref="C4" r:id="rId8" display="https://www.google.com/url?q=https://youtu.be/2iCgf03rx1I&amp;sa=D&amp;ust=1581156070195000&amp;usg=AFQjCNG-BJa9Wxr8zj6zjQX6byHuMjjevQ"/>
+    <hyperlink ref="C6" r:id="rId9" display="https://www.google.com/url?q=https://youtu.be/2iCgf03rx1I&amp;sa=D&amp;ust=1581156070195000&amp;usg=AFQjCNG-BJa9Wxr8zj6zjQX6byHuMjjevQ"/>
+    <hyperlink ref="C8" r:id="rId10" display="https://www.google.com/url?q=https://youtu.be/2iCgf03rx1I&amp;sa=D&amp;ust=1581156070195000&amp;usg=AFQjCNG-BJa9Wxr8zj6zjQX6byHuMjjevQ"/>
+    <hyperlink ref="C10" r:id="rId11" display="https://www.google.com/url?q=https://youtu.be/2iCgf03rx1I&amp;sa=D&amp;ust=1581156070195000&amp;usg=AFQjCNG-BJa9Wxr8zj6zjQX6byHuMjjevQ"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="55.28515625" customWidth="1"/>
+    <col min="2" max="2" width="77" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="3" customFormat="1">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="4" customFormat="1">
+      <c r="A2" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" s="4" customFormat="1">
+      <c r="A15" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" s="4" customFormat="1">
+      <c r="A25" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A26" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
 </file>
--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -84,12 +84,72 @@
         </r>
       </text>
     </comment>
+    <comment ref="A6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Certified Windows:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+1. Характеристики браузера
+https://www.whatismybrowser.com/
+2. Файлы
+xml, jsx, blob to html
+css, sass, less to css
+ts, coffee to js
+3. Голый HTML
+Откройте магазин дополнений гугл хрома: https://chrome.google.com/webstore/ca..., 
+в окне поиска введите Web Developer
+Откройте страничку расширения Web Developer и нажмите "Установить"
+Перейдите на веб-страницу, на которой вы хотите выключить css-оформление в Хроме
+После установки в правом верхнем углу появится значок, похожий на шестерёнку, на него нужно нажать
+В появившемся окошке щёлкаем по вкладке "css", а затем нажимаем на "Disable All Styles" ("Отключить все стили")
+4. теги
+форма записи,
+одиночные / двойные,
+логотип epam
+атрибуты: пробелы   &amp;#x20;   pre, кавычки одиночные и двойные  &amp;quot;   &amp;#x22;    &amp;#34;
+атрибуты составные / не составные
+5. категории
+парные / одиночные
+блочные / строчные
+теги логического типа 
+теги физического типа 
+теги комбинированного типа 
+https://developer.mozilla.org/en-US/
+семантика - https://www.euronews.com/
+6. поток
+7. селекторы
+https://code.tutsplus.com/tutorials/t...
+8. Величины
+div text 1 to div text 2 to p text 3 em, rem, %. - px, pt.
+9. Позиционирование
+10. box-model 
+11. сервисы онлайн кодинга
+jsfiddle,
+codepen.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="50">
   <si>
     <t>Дата начала</t>
   </si>
@@ -148,9 +208,6 @@
     <t>HTML + CSS basics courses</t>
   </si>
   <si>
-    <t>HTML and CSS Basics</t>
-  </si>
-  <si>
     <t>htmlacademy.ru - глава 6</t>
   </si>
   <si>
@@ -187,12 +244,6 @@
     <t>Webinar 11.09.2019 Browsers. IDEs. Web Technologies</t>
   </si>
   <si>
-    <t>Посмотрел видео 2/3 Browsers. IDEs. Web Technologies</t>
-  </si>
-  <si>
-    <t>Досмотрел видео 1/3 Browsers. IDEs. Web Technologies</t>
-  </si>
-  <si>
     <t>htmlacademy.ru - глава 1</t>
   </si>
   <si>
@@ -224,6 +275,30 @@
   </si>
   <si>
     <t>Visual Studio Code</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2iCgf03rx1I</t>
+  </si>
+  <si>
+    <t>Webinar 13.09.2019 HTML5 and CSS3 Tips + FAQ</t>
+  </si>
+  <si>
+    <t>Self education - HTML and CSS Basics</t>
+  </si>
+  <si>
+    <t>https://chrome.google.com/webstore/category/extensions?hl=ru</t>
+  </si>
+  <si>
+    <t>Web developer extention for chrome</t>
+  </si>
+  <si>
+    <t>Посмотрел видео - HTML5 and CSS3 Tips + FAQ</t>
+  </si>
+  <si>
+    <t>Досмотрел видео 1/3 - Browsers. IDEs. Web Technologies</t>
+  </si>
+  <si>
+    <t>Посмотрел видео 2/3 - Browsers. IDEs. Web Technologies</t>
   </si>
 </sst>
 </file>
@@ -602,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -638,7 +713,7 @@
         <v>43863</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -649,7 +724,7 @@
         <v>43863</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3">
         <v>100</v>
@@ -663,7 +738,7 @@
         <v>43866</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -674,7 +749,7 @@
         <v>43868</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -683,6 +758,17 @@
       </c>
       <c r="C6" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>43869</v>
+      </c>
+      <c r="B7" s="1">
+        <v>43869</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -695,13 +781,13 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" customWidth="1"/>
     <col min="3" max="3" width="51.7109375" customWidth="1"/>
     <col min="4" max="4" width="95.7109375" customWidth="1"/>
   </cols>
@@ -728,10 +814,10 @@
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -742,10 +828,10 @@
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -756,10 +842,10 @@
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -770,19 +856,19 @@
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -793,19 +879,19 @@
         <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -816,19 +902,19 @@
         <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="C10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -847,17 +933,20 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
-      <c r="C12" s="2" t="s">
-        <v>18</v>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="C13" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -867,6 +956,12 @@
       <c r="B14" t="s">
         <v>9</v>
       </c>
+      <c r="C14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1">
@@ -1022,17 +1117,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C12" r:id="rId1" display="https://www.google.com/url?q=https://github.com/rolling-scopes-school/tasks/blob/master/tasks/stage-1/HTML-CSS-self-ru.md&amp;sa=D&amp;ust=1581156070193000&amp;usg=AFQjCNGScH2bT6OIUmYI_neez800PS8Kag"/>
-    <hyperlink ref="C13" r:id="rId2" display="https://www.google.com/url?q=https://youtu.be/2iCgf03rx1I&amp;sa=D&amp;ust=1581156070195000&amp;usg=AFQjCNG-BJa9Wxr8zj6zjQX6byHuMjjevQ"/>
-    <hyperlink ref="C2" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C7" r:id="rId5"/>
-    <hyperlink ref="C9" r:id="rId6"/>
-    <hyperlink ref="C3" r:id="rId7" display="https://www.google.com/url?q=https://youtu.be/2iCgf03rx1I&amp;sa=D&amp;ust=1581156070195000&amp;usg=AFQjCNG-BJa9Wxr8zj6zjQX6byHuMjjevQ"/>
-    <hyperlink ref="C4" r:id="rId8" display="https://www.google.com/url?q=https://youtu.be/2iCgf03rx1I&amp;sa=D&amp;ust=1581156070195000&amp;usg=AFQjCNG-BJa9Wxr8zj6zjQX6byHuMjjevQ"/>
-    <hyperlink ref="C6" r:id="rId9" display="https://www.google.com/url?q=https://youtu.be/2iCgf03rx1I&amp;sa=D&amp;ust=1581156070195000&amp;usg=AFQjCNG-BJa9Wxr8zj6zjQX6byHuMjjevQ"/>
-    <hyperlink ref="C8" r:id="rId10" display="https://www.google.com/url?q=https://youtu.be/2iCgf03rx1I&amp;sa=D&amp;ust=1581156070195000&amp;usg=AFQjCNG-BJa9Wxr8zj6zjQX6byHuMjjevQ"/>
-    <hyperlink ref="C10" r:id="rId11" display="https://www.google.com/url?q=https://youtu.be/2iCgf03rx1I&amp;sa=D&amp;ust=1581156070195000&amp;usg=AFQjCNG-BJa9Wxr8zj6zjQX6byHuMjjevQ"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C5" r:id="rId2"/>
+    <hyperlink ref="C7" r:id="rId3"/>
+    <hyperlink ref="C9" r:id="rId4"/>
+    <hyperlink ref="C3" r:id="rId5" display="https://www.google.com/url?q=https://github.com/rolling-scopes-school/tasks/blob/master/tasks/stage-1/HTML-CSS-self-ru.md&amp;sa=D&amp;ust=1581174668693000&amp;usg=AFQjCNHR3nMKKnoa1u5i91_-rYEChyfmLA"/>
+    <hyperlink ref="C4" r:id="rId6" display="https://www.google.com/url?q=https://github.com/rolling-scopes-school/tasks/blob/master/tasks/stage-1/HTML-CSS-self-ru.md&amp;sa=D&amp;ust=1581174668693000&amp;usg=AFQjCNHR3nMKKnoa1u5i91_-rYEChyfmLA"/>
+    <hyperlink ref="C6" r:id="rId7" display="https://www.google.com/url?q=https://github.com/rolling-scopes-school/tasks/blob/master/tasks/stage-1/HTML-CSS-self-ru.md&amp;sa=D&amp;ust=1581174668693000&amp;usg=AFQjCNHR3nMKKnoa1u5i91_-rYEChyfmLA"/>
+    <hyperlink ref="C8" r:id="rId8" display="https://www.google.com/url?q=https://github.com/rolling-scopes-school/tasks/blob/master/tasks/stage-1/HTML-CSS-self-ru.md&amp;sa=D&amp;ust=1581174668693000&amp;usg=AFQjCNHR3nMKKnoa1u5i91_-rYEChyfmLA"/>
+    <hyperlink ref="C10" r:id="rId9" display="https://www.google.com/url?q=https://github.com/rolling-scopes-school/tasks/blob/master/tasks/stage-1/HTML-CSS-self-ru.md&amp;sa=D&amp;ust=1581174668693000&amp;usg=AFQjCNHR3nMKKnoa1u5i91_-rYEChyfmLA"/>
+    <hyperlink ref="C14" r:id="rId10" display="https://www.google.com/url?q=https://github.com/rolling-scopes-school/tasks/blob/master/tasks/stage-1/HTML-CSS-self-ru.md&amp;sa=D&amp;ust=1581174668693000&amp;usg=AFQjCNHR3nMKKnoa1u5i91_-rYEChyfmLA"/>
+    <hyperlink ref="C13" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1040,10 +1135,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1062,57 +1157,75 @@
     </row>
     <row r="2" spans="1:2" s="4" customFormat="1">
       <c r="A2" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
         <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
         <v>30</v>
       </c>
-      <c r="B5" t="s">
-        <v>31</v>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:2" s="4" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:2" s="4" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A26" r:id="rId1"/>
+    <hyperlink ref="A6" r:id="rId2"/>
+    <hyperlink ref="A27" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>
--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="По задачам" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="61">
   <si>
     <t>Дата начала</t>
   </si>
@@ -208,97 +208,130 @@
     <t>HTML + CSS basics courses</t>
   </si>
   <si>
+    <t>https://www.youtube.com/watch?v=1ric9J-iYGM</t>
+  </si>
+  <si>
+    <t>The Rolling Scopes School JS/FE 2020Q1 Intro</t>
+  </si>
+  <si>
+    <t>Youtube live - Course overview</t>
+  </si>
+  <si>
+    <t>Git &amp; Markdown</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=R1d7EFsAMjU</t>
+  </si>
+  <si>
+    <t>Youtube live - Stage#1 Intro</t>
+  </si>
+  <si>
+    <t>Stage #1 intro</t>
+  </si>
+  <si>
+    <t>Посмотрел видео, Stage #1 intro</t>
+  </si>
+  <si>
+    <t>Посмотрел видео, Course overview</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nd2VYxOsOwY&amp;t=</t>
+  </si>
+  <si>
+    <t>Webinar 11.09.2019 Browsers. IDEs. Web Technologies</t>
+  </si>
+  <si>
+    <t>htmlacademy.ru - глава 1</t>
+  </si>
+  <si>
+    <t>htmlacademy.ru - глава 2</t>
+  </si>
+  <si>
+    <t>htmlacademy.ru - глава 3</t>
+  </si>
+  <si>
+    <t>htmlacademy.ru - глава 4</t>
+  </si>
+  <si>
+    <t>htmlacademy.ru - глава 5</t>
+  </si>
+  <si>
+    <t>Videos</t>
+  </si>
+  <si>
+    <t>Guides</t>
+  </si>
+  <si>
+    <t>Installs</t>
+  </si>
+  <si>
+    <t>https://code.visualstudio.com/</t>
+  </si>
+  <si>
+    <t>Visual Studio Code</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2iCgf03rx1I</t>
+  </si>
+  <si>
+    <t>Webinar 13.09.2019 HTML5 and CSS3 Tips + FAQ</t>
+  </si>
+  <si>
+    <t>https://chrome.google.com/webstore/category/extensions?hl=ru</t>
+  </si>
+  <si>
+    <t>Web developer extention for chrome</t>
+  </si>
+  <si>
+    <t>Посмотрел видео - HTML5 and CSS3 Tips + FAQ</t>
+  </si>
+  <si>
+    <t>Досмотрел видео 1/3 - Browsers. IDEs. Web Technologies</t>
+  </si>
+  <si>
+    <t>Посмотрел видео 2/3 - Browsers. IDEs. Web Technologies</t>
+  </si>
+  <si>
+    <t>https://git-scm.com</t>
+  </si>
+  <si>
+    <t>Установка GIT</t>
+  </si>
+  <si>
+    <t>https://desktop.github.com/</t>
+  </si>
+  <si>
+    <t>Установка GIT hub for windows</t>
+  </si>
+  <si>
+    <t>Self education - Browsers and IDEs (video)</t>
+  </si>
+  <si>
+    <t>Self education - HTML and CSS Basics (video)</t>
+  </si>
+  <si>
+    <t>Self education - https://learn.javascript.ru/screencast/git (screencast)</t>
+  </si>
+  <si>
+    <t>https://learn.javascript.ru/screencast/git</t>
+  </si>
+  <si>
+    <t>Установил GIT</t>
+  </si>
+  <si>
+    <t>скринкаст по GIT</t>
+  </si>
+  <si>
+    <t>Посмотрел скринкаст по Гиту до 2_03</t>
+  </si>
+  <si>
     <t>htmlacademy.ru - глава 6</t>
   </si>
   <si>
-    <t>https://www.youtube.com/watch?v=1ric9J-iYGM</t>
-  </si>
-  <si>
-    <t>The Rolling Scopes School JS/FE 2020Q1 Intro</t>
-  </si>
-  <si>
-    <t>Youtube live - Course overview</t>
-  </si>
-  <si>
-    <t>Git &amp; Markdown</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=R1d7EFsAMjU</t>
-  </si>
-  <si>
-    <t>Youtube live - Stage#1 Intro</t>
-  </si>
-  <si>
-    <t>Stage #1 intro</t>
-  </si>
-  <si>
-    <t>Посмотрел видео, Stage #1 intro</t>
-  </si>
-  <si>
-    <t>Посмотрел видео, Course overview</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=nd2VYxOsOwY&amp;t=</t>
-  </si>
-  <si>
-    <t>Webinar 11.09.2019 Browsers. IDEs. Web Technologies</t>
-  </si>
-  <si>
-    <t>htmlacademy.ru - глава 1</t>
-  </si>
-  <si>
-    <t>htmlacademy.ru - глава 2</t>
-  </si>
-  <si>
-    <t>htmlacademy.ru - глава 3</t>
-  </si>
-  <si>
-    <t>htmlacademy.ru - глава 4</t>
-  </si>
-  <si>
-    <t>htmlacademy.ru - глава 5</t>
-  </si>
-  <si>
-    <t>Self education - Browsers and IDEs</t>
-  </si>
-  <si>
-    <t>Videos</t>
-  </si>
-  <si>
-    <t>Guides</t>
-  </si>
-  <si>
-    <t>Installs</t>
-  </si>
-  <si>
-    <t>https://code.visualstudio.com/</t>
-  </si>
-  <si>
-    <t>Visual Studio Code</t>
-  </si>
-  <si>
-    <t>https://www.youtube.com/watch?v=2iCgf03rx1I</t>
-  </si>
-  <si>
-    <t>Webinar 13.09.2019 HTML5 and CSS3 Tips + FAQ</t>
-  </si>
-  <si>
-    <t>Self education - HTML and CSS Basics</t>
-  </si>
-  <si>
-    <t>https://chrome.google.com/webstore/category/extensions?hl=ru</t>
-  </si>
-  <si>
-    <t>Web developer extention for chrome</t>
-  </si>
-  <si>
-    <t>Посмотрел видео - HTML5 and CSS3 Tips + FAQ</t>
-  </si>
-  <si>
-    <t>Досмотрел видео 1/3 - Browsers. IDEs. Web Technologies</t>
-  </si>
-  <si>
-    <t>Посмотрел видео 2/3 - Browsers. IDEs. Web Technologies</t>
+    <t>https://visualstudio.microsoft.com</t>
+  </si>
+  <si>
+    <t>Установка Visual Studio - версия Community</t>
   </si>
 </sst>
 </file>
@@ -677,17 +710,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="50.140625" customWidth="1"/>
+    <col min="3" max="3" width="70.85546875" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -713,7 +746,7 @@
         <v>43863</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -724,7 +757,7 @@
         <v>43863</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3">
         <v>100</v>
@@ -738,7 +771,7 @@
         <v>43866</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -749,7 +782,7 @@
         <v>43868</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -768,7 +801,15 @@
         <v>43869</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>43870</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -778,10 +819,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -814,10 +855,10 @@
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -831,7 +872,7 @@
         <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -845,7 +886,7 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -856,10 +897,10 @@
         <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -868,7 +909,7 @@
         <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -879,10 +920,10 @@
         <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -891,7 +932,7 @@
         <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -902,10 +943,10 @@
         <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -914,7 +955,7 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -937,16 +978,16 @@
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="C13" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -957,161 +998,179 @@
         <v>9</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1"/>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1"/>
+      <c r="C16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1">
-        <v>43871</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1">
-        <v>43872</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
+      <c r="D16" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1">
-        <v>43873</v>
+        <v>43871</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1">
-        <v>43874</v>
+        <v>43872</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1">
-        <v>43875</v>
+        <v>43873</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1">
-        <v>43876</v>
+        <v>43874</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1">
-        <v>43877</v>
+        <v>43875</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1">
-        <v>43878</v>
+        <v>43876</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1">
-        <v>43879</v>
+        <v>43877</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1">
-        <v>43880</v>
+        <v>43878</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1">
-        <v>43881</v>
+        <v>43879</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1">
-        <v>43882</v>
+        <v>43880</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1">
-        <v>43883</v>
+        <v>43881</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1">
-        <v>43884</v>
+        <v>43882</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1">
-        <v>43885</v>
+        <v>43883</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1">
-        <v>43886</v>
+        <v>43884</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1">
-        <v>43887</v>
+        <v>43885</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1">
-        <v>43888</v>
+        <v>43886</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1">
+        <v>43887</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1">
+        <v>43888</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1">
         <v>43889</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B35" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1126,8 +1185,9 @@
     <hyperlink ref="C6" r:id="rId7" display="https://www.google.com/url?q=https://github.com/rolling-scopes-school/tasks/blob/master/tasks/stage-1/HTML-CSS-self-ru.md&amp;sa=D&amp;ust=1581174668693000&amp;usg=AFQjCNHR3nMKKnoa1u5i91_-rYEChyfmLA"/>
     <hyperlink ref="C8" r:id="rId8" display="https://www.google.com/url?q=https://github.com/rolling-scopes-school/tasks/blob/master/tasks/stage-1/HTML-CSS-self-ru.md&amp;sa=D&amp;ust=1581174668693000&amp;usg=AFQjCNHR3nMKKnoa1u5i91_-rYEChyfmLA"/>
     <hyperlink ref="C10" r:id="rId9" display="https://www.google.com/url?q=https://github.com/rolling-scopes-school/tasks/blob/master/tasks/stage-1/HTML-CSS-self-ru.md&amp;sa=D&amp;ust=1581174668693000&amp;usg=AFQjCNHR3nMKKnoa1u5i91_-rYEChyfmLA"/>
-    <hyperlink ref="C14" r:id="rId10" display="https://www.google.com/url?q=https://github.com/rolling-scopes-school/tasks/blob/master/tasks/stage-1/HTML-CSS-self-ru.md&amp;sa=D&amp;ust=1581174668693000&amp;usg=AFQjCNHR3nMKKnoa1u5i91_-rYEChyfmLA"/>
-    <hyperlink ref="C13" r:id="rId11"/>
+    <hyperlink ref="C13" r:id="rId10"/>
+    <hyperlink ref="C14" r:id="rId11"/>
+    <hyperlink ref="C16" r:id="rId12" display="https://www.google.com/url?q=https://github.com/rolling-scopes-school/tasks/blob/master/tasks/stage-1/HTML-CSS-self-ru.md&amp;sa=D&amp;ust=1581174668693000&amp;usg=AFQjCNHR3nMKKnoa1u5i91_-rYEChyfmLA"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1135,10 +1195,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1157,65 +1217,97 @@
     </row>
     <row r="2" spans="1:2" s="4" customFormat="1">
       <c r="A2" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
         <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
         <v>29</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:2" s="4" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:2" s="4" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1223,9 +1315,11 @@
     <hyperlink ref="A26" r:id="rId1"/>
     <hyperlink ref="A6" r:id="rId2"/>
     <hyperlink ref="A27" r:id="rId3"/>
+    <hyperlink ref="A7" r:id="rId4"/>
+    <hyperlink ref="A30" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-  <legacyDrawing r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <legacyDrawing r:id="rId7"/>
 </worksheet>
 </file>
--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440"/>
   </bookViews>
   <sheets>
     <sheet name="По задачам" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="69">
   <si>
     <t>Дата начала</t>
   </si>
@@ -332,6 +332,30 @@
   </si>
   <si>
     <t>Установка Visual Studio - версия Community</t>
+  </si>
+  <si>
+    <t>Установил Visual Studio - версия Community</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=B0RuI1L5r9Q</t>
+  </si>
+  <si>
+    <t>Webinar 16.09.2019 HTML &amp; CSS - Building first simple app</t>
+  </si>
+  <si>
+    <t>Self education - HTML &amp; CSS - Building first simple page</t>
+  </si>
+  <si>
+    <t>htmlacademy.ru - введение в таблицы</t>
+  </si>
+  <si>
+    <t>Посмотрел видео (43мин) HTML &amp; CSS - Building first simple page</t>
+  </si>
+  <si>
+    <t>htmlacademy.ru - формы</t>
+  </si>
+  <si>
+    <t>htmlacademy.ru - селекторы</t>
   </si>
 </sst>
 </file>
@@ -710,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -812,6 +836,14 @@
         <v>53</v>
       </c>
     </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>43872</v>
+      </c>
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -819,7 +851,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
@@ -1015,162 +1047,201 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
-      <c r="C16" s="2" t="s">
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1"/>
+      <c r="C17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1">
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
         <v>43871</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1">
+      <c r="C18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
         <v>43872</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="1">
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1"/>
+      <c r="C20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1"/>
+      <c r="C21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
         <v>43873</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="1">
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
         <v>43874</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1">
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
         <v>43875</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B24" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1">
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
         <v>43876</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B25" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1">
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
         <v>43877</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B26" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="1">
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
         <v>43878</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B27" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="1">
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
         <v>43879</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B28" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="1">
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
         <v>43880</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1">
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
         <v>43881</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B30" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="1">
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
         <v>43882</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B31" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="1">
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
         <v>43883</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B32" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="1">
-        <v>43884</v>
-      </c>
-      <c r="B30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="1">
-        <v>43885</v>
-      </c>
-      <c r="B31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="1">
-        <v>43886</v>
-      </c>
-      <c r="B32" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1">
-        <v>43887</v>
+        <v>43884</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1">
-        <v>43888</v>
+        <v>43885</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1">
+        <v>43886</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1">
+        <v>43887</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1">
+        <v>43888</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1">
         <v>43889</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B38" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1187,9 +1258,13 @@
     <hyperlink ref="C10" r:id="rId9" display="https://www.google.com/url?q=https://github.com/rolling-scopes-school/tasks/blob/master/tasks/stage-1/HTML-CSS-self-ru.md&amp;sa=D&amp;ust=1581174668693000&amp;usg=AFQjCNHR3nMKKnoa1u5i91_-rYEChyfmLA"/>
     <hyperlink ref="C13" r:id="rId10"/>
     <hyperlink ref="C14" r:id="rId11"/>
-    <hyperlink ref="C16" r:id="rId12" display="https://www.google.com/url?q=https://github.com/rolling-scopes-school/tasks/blob/master/tasks/stage-1/HTML-CSS-self-ru.md&amp;sa=D&amp;ust=1581174668693000&amp;usg=AFQjCNHR3nMKKnoa1u5i91_-rYEChyfmLA"/>
+    <hyperlink ref="C17" r:id="rId12" display="https://www.google.com/url?q=https://github.com/rolling-scopes-school/tasks/blob/master/tasks/stage-1/HTML-CSS-self-ru.md&amp;sa=D&amp;ust=1581174668693000&amp;usg=AFQjCNHR3nMKKnoa1u5i91_-rYEChyfmLA"/>
+    <hyperlink ref="C18" r:id="rId13" display="https://www.google.com/url?q=https://github.com/rolling-scopes-school/tasks/blob/master/tasks/stage-1/HTML-CSS-self-ru.md&amp;sa=D&amp;ust=1581174668693000&amp;usg=AFQjCNHR3nMKKnoa1u5i91_-rYEChyfmLA"/>
+    <hyperlink ref="C20" r:id="rId14" display="https://www.google.com/url?q=https://github.com/rolling-scopes-school/tasks/blob/master/tasks/stage-1/HTML-CSS-self-ru.md&amp;sa=D&amp;ust=1581174668693000&amp;usg=AFQjCNHR3nMKKnoa1u5i91_-rYEChyfmLA"/>
+    <hyperlink ref="C21" r:id="rId15" display="https://www.google.com/url?q=https://github.com/rolling-scopes-school/tasks/blob/master/tasks/stage-1/HTML-CSS-self-ru.md&amp;sa=D&amp;ust=1581174668693000&amp;usg=AFQjCNHR3nMKKnoa1u5i91_-rYEChyfmLA"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
 
@@ -1197,8 +1272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1258,6 +1333,14 @@
       </c>
       <c r="B7" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:2" s="4" customFormat="1">

--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="73">
   <si>
     <t>Дата начала</t>
   </si>
@@ -356,6 +356,18 @@
   </si>
   <si>
     <t>htmlacademy.ru - селекторы</t>
+  </si>
+  <si>
+    <t>Youtube live - FAQ: HTML and CSS Basics</t>
+  </si>
+  <si>
+    <t>FAQ: HTML and CSS Basics</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UQavTWiTpnA</t>
+  </si>
+  <si>
+    <t>htmlacademy.ru - доделал до конца</t>
   </si>
 </sst>
 </file>
@@ -734,10 +746,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -813,6 +825,9 @@
       <c r="A6" s="1">
         <v>43864</v>
       </c>
+      <c r="B6" s="1">
+        <v>43873</v>
+      </c>
       <c r="C6" t="s">
         <v>18</v>
       </c>
@@ -842,6 +857,17 @@
       </c>
       <c r="C9" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>43873</v>
+      </c>
+      <c r="B10" s="1">
+        <v>43873</v>
+      </c>
+      <c r="C10" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -851,10 +877,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1116,132 +1142,147 @@
       <c r="B22" t="s">
         <v>12</v>
       </c>
+      <c r="C22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="1">
-        <v>43874</v>
-      </c>
-      <c r="B23" t="s">
-        <v>13</v>
+      <c r="A23" s="1"/>
+      <c r="C23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1">
-        <v>43875</v>
+        <v>43874</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1">
-        <v>43876</v>
+        <v>43875</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1">
-        <v>43877</v>
+        <v>43876</v>
       </c>
       <c r="B26" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1">
-        <v>43878</v>
+        <v>43877</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1">
-        <v>43879</v>
+        <v>43878</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1">
-        <v>43880</v>
+        <v>43879</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1">
-        <v>43881</v>
+        <v>43880</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1">
-        <v>43882</v>
+        <v>43881</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1">
-        <v>43883</v>
+        <v>43882</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1">
-        <v>43884</v>
+        <v>43883</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1">
-        <v>43885</v>
+        <v>43884</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1">
-        <v>43886</v>
+        <v>43885</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1">
-        <v>43887</v>
+        <v>43886</v>
       </c>
       <c r="B36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1">
-        <v>43888</v>
+        <v>43887</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1">
+        <v>43888</v>
+      </c>
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1">
         <v>43889</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1262,9 +1303,11 @@
     <hyperlink ref="C18" r:id="rId13" display="https://www.google.com/url?q=https://github.com/rolling-scopes-school/tasks/blob/master/tasks/stage-1/HTML-CSS-self-ru.md&amp;sa=D&amp;ust=1581174668693000&amp;usg=AFQjCNHR3nMKKnoa1u5i91_-rYEChyfmLA"/>
     <hyperlink ref="C20" r:id="rId14" display="https://www.google.com/url?q=https://github.com/rolling-scopes-school/tasks/blob/master/tasks/stage-1/HTML-CSS-self-ru.md&amp;sa=D&amp;ust=1581174668693000&amp;usg=AFQjCNHR3nMKKnoa1u5i91_-rYEChyfmLA"/>
     <hyperlink ref="C21" r:id="rId15" display="https://www.google.com/url?q=https://github.com/rolling-scopes-school/tasks/blob/master/tasks/stage-1/HTML-CSS-self-ru.md&amp;sa=D&amp;ust=1581174668693000&amp;usg=AFQjCNHR3nMKKnoa1u5i91_-rYEChyfmLA"/>
+    <hyperlink ref="C22" r:id="rId16" display="https://www.google.com/url?q=https://github.com/rolling-scopes-school/tasks/blob/master/tasks/stage-1/HTML-CSS-self-ru.md&amp;sa=D&amp;ust=1581174668693000&amp;usg=AFQjCNHR3nMKKnoa1u5i91_-rYEChyfmLA"/>
+    <hyperlink ref="C23" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
 
@@ -1273,7 +1316,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1343,6 +1386,14 @@
         <v>63</v>
       </c>
     </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+    </row>
     <row r="15" spans="1:2" s="4" customFormat="1">
       <c r="A15" s="5" t="s">
         <v>36</v>
@@ -1400,9 +1451,10 @@
     <hyperlink ref="A27" r:id="rId3"/>
     <hyperlink ref="A7" r:id="rId4"/>
     <hyperlink ref="A30" r:id="rId5"/>
+    <hyperlink ref="A9" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
-  <legacyDrawing r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <legacyDrawing r:id="rId8"/>
 </worksheet>
 </file>
--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="По задачам" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="79">
   <si>
     <t>Дата начала</t>
   </si>
@@ -368,6 +368,24 @@
   </si>
   <si>
     <t>htmlacademy.ru - доделал до конца</t>
+  </si>
+  <si>
+    <t>Git &amp; HTML &amp; CSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Codewars stage#1</t>
+  </si>
+  <si>
+    <t>Codewars stage#1</t>
+  </si>
+  <si>
+    <t>Сделал задачу за час где-то</t>
+  </si>
+  <si>
+    <t>За целый день сделал 16 задач из 22х</t>
+  </si>
+  <si>
+    <t>Доделал оставшиеся 6 задач</t>
   </si>
 </sst>
 </file>
@@ -746,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -870,6 +888,34 @@
         <v>69</v>
       </c>
     </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>43875</v>
+      </c>
+      <c r="B11" s="1">
+        <v>43875</v>
+      </c>
+      <c r="C11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>43876</v>
+      </c>
+      <c r="B12" s="1">
+        <v>43877</v>
+      </c>
+      <c r="C12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -879,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1173,6 +1219,12 @@
       <c r="B25" t="s">
         <v>14</v>
       </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1">
@@ -1181,6 +1233,12 @@
       <c r="B26" t="s">
         <v>15</v>
       </c>
+      <c r="C26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1">
@@ -1188,6 +1246,12 @@
       </c>
       <c r="B27" t="s">
         <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1316,7 +1380,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440"/>
   </bookViews>
   <sheets>
     <sheet name="По задачам" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="85">
   <si>
     <t>Дата начала</t>
   </si>
@@ -386,6 +386,24 @@
   </si>
   <si>
     <t>Доделал оставшиеся 6 задач</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9XEMnVakz-A</t>
+  </si>
+  <si>
+    <t>Self education - Photoshop and Figma for web developers</t>
+  </si>
+  <si>
+    <t>Singolo part 1</t>
+  </si>
+  <si>
+    <t>https://www.photopea.com/</t>
+  </si>
+  <si>
+    <t>Аналог фотошопа</t>
+  </si>
+  <si>
+    <t>https://www.figma.com/</t>
   </si>
 </sst>
 </file>
@@ -764,10 +782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -916,6 +934,22 @@
         <v>60</v>
       </c>
     </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>43879</v>
+      </c>
+      <c r="C13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>43879</v>
+      </c>
+      <c r="C14" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -923,10 +957,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1261,6 +1295,7 @@
       <c r="B28" t="s">
         <v>10</v>
       </c>
+      <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1">
@@ -1269,84 +1304,96 @@
       <c r="B29" t="s">
         <v>11</v>
       </c>
+      <c r="C29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="1">
-        <v>43880</v>
-      </c>
-      <c r="B30" t="s">
-        <v>12</v>
+      <c r="A30" s="1"/>
+      <c r="C30" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1">
-        <v>43881</v>
+        <v>43880</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1">
-        <v>43882</v>
+        <v>43881</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1">
-        <v>43883</v>
+        <v>43882</v>
       </c>
       <c r="B33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1">
-        <v>43884</v>
+        <v>43883</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1">
-        <v>43885</v>
+        <v>43884</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1">
-        <v>43886</v>
+        <v>43885</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1">
-        <v>43887</v>
+        <v>43886</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1">
-        <v>43888</v>
+        <v>43887</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1">
+        <v>43888</v>
+      </c>
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1">
         <v>43889</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1369,18 +1416,19 @@
     <hyperlink ref="C21" r:id="rId15" display="https://www.google.com/url?q=https://github.com/rolling-scopes-school/tasks/blob/master/tasks/stage-1/HTML-CSS-self-ru.md&amp;sa=D&amp;ust=1581174668693000&amp;usg=AFQjCNHR3nMKKnoa1u5i91_-rYEChyfmLA"/>
     <hyperlink ref="C22" r:id="rId16" display="https://www.google.com/url?q=https://github.com/rolling-scopes-school/tasks/blob/master/tasks/stage-1/HTML-CSS-self-ru.md&amp;sa=D&amp;ust=1581174668693000&amp;usg=AFQjCNHR3nMKKnoa1u5i91_-rYEChyfmLA"/>
     <hyperlink ref="C23" r:id="rId17"/>
+    <hyperlink ref="C29" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1458,67 +1506,93 @@
         <v>70</v>
       </c>
     </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" t="s">
+        <v>80</v>
+      </c>
+    </row>
     <row r="15" spans="1:2" s="4" customFormat="1">
       <c r="A15" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:2" s="4" customFormat="1">
-      <c r="A25" s="5" t="s">
+    <row r="20" spans="1:2" s="4" customFormat="1">
+      <c r="A20" s="5" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="2" t="s">
-        <v>42</v>
+      <c r="A27" t="s">
+        <v>84</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>47</v>
-      </c>
-      <c r="B28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A26" r:id="rId1"/>
+    <hyperlink ref="A21" r:id="rId1"/>
     <hyperlink ref="A6" r:id="rId2"/>
-    <hyperlink ref="A27" r:id="rId3"/>
+    <hyperlink ref="A22" r:id="rId3"/>
     <hyperlink ref="A7" r:id="rId4"/>
-    <hyperlink ref="A30" r:id="rId5"/>
+    <hyperlink ref="A25" r:id="rId5"/>
     <hyperlink ref="A9" r:id="rId6"/>
+    <hyperlink ref="A10" r:id="rId7"/>
+    <hyperlink ref="A26" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
-  <legacyDrawing r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <legacyDrawing r:id="rId10"/>
 </worksheet>
 </file>
--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="90">
   <si>
     <t>Дата начала</t>
   </si>
@@ -404,6 +404,21 @@
   </si>
   <si>
     <t>https://www.figma.com/</t>
+  </si>
+  <si>
+    <t>https://nodejs.org/en/download/</t>
+  </si>
+  <si>
+    <t>node js</t>
+  </si>
+  <si>
+    <t>начал</t>
+  </si>
+  <si>
+    <t>Basic JS</t>
+  </si>
+  <si>
+    <t>Basic JS начал</t>
   </si>
 </sst>
 </file>
@@ -782,10 +797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -950,6 +965,17 @@
         <v>81</v>
       </c>
     </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>43879</v>
+      </c>
+      <c r="C15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -957,10 +983,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1316,84 +1342,96 @@
       <c r="C30" t="s">
         <v>81</v>
       </c>
+      <c r="D30" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="1">
-        <v>43880</v>
-      </c>
-      <c r="B31" t="s">
-        <v>12</v>
+      <c r="A31" s="1"/>
+      <c r="C31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1">
-        <v>43881</v>
+        <v>43880</v>
       </c>
       <c r="B32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1">
-        <v>43882</v>
+        <v>43881</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1">
-        <v>43883</v>
+        <v>43882</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1">
-        <v>43884</v>
+        <v>43883</v>
       </c>
       <c r="B35" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1">
-        <v>43885</v>
+        <v>43884</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1">
-        <v>43886</v>
+        <v>43885</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1">
-        <v>43887</v>
+        <v>43886</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1">
-        <v>43888</v>
+        <v>43887</v>
       </c>
       <c r="B39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1">
+        <v>43888</v>
+      </c>
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1">
         <v>43889</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1425,10 +1463,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1580,6 +1618,14 @@
         <v>83</v>
       </c>
     </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A21" r:id="rId1"/>
@@ -1590,9 +1636,10 @@
     <hyperlink ref="A9" r:id="rId6"/>
     <hyperlink ref="A10" r:id="rId7"/>
     <hyperlink ref="A26" r:id="rId8"/>
+    <hyperlink ref="A28" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
-  <legacyDrawing r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <legacyDrawing r:id="rId11"/>
 </worksheet>
 </file>
--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="94">
   <si>
     <t>Дата начала</t>
   </si>
@@ -419,6 +419,18 @@
   </si>
   <si>
     <t>Basic JS начал</t>
+  </si>
+  <si>
+    <t>Self education - Evening Talk: Git Basics. FAQ</t>
+  </si>
+  <si>
+    <t>Посмотрел</t>
+  </si>
+  <si>
+    <t>Git History</t>
+  </si>
+  <si>
+    <t>Расширение для VS Code</t>
   </si>
 </sst>
 </file>
@@ -800,7 +812,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -953,6 +965,9 @@
       <c r="A13" s="1">
         <v>43879</v>
       </c>
+      <c r="B13" s="1">
+        <v>43880</v>
+      </c>
       <c r="C13" t="s">
         <v>80</v>
       </c>
@@ -974,7 +989,15 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1">
+        <v>43880</v>
+      </c>
+      <c r="B16" s="1">
+        <v>43880</v>
+      </c>
+      <c r="C16" t="s">
+        <v>90</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -986,7 +1009,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1361,6 +1384,12 @@
       </c>
       <c r="B32" t="s">
         <v>12</v>
+      </c>
+      <c r="C32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1463,10 +1492,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1624,6 +1653,14 @@
       </c>
       <c r="B28" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="По задачам" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="99">
   <si>
     <t>Дата начала</t>
   </si>
@@ -431,6 +431,21 @@
   </si>
   <si>
     <t>Расширение для VS Code</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HAycH-eN6fI</t>
+  </si>
+  <si>
+    <t>Git Workshop</t>
+  </si>
+  <si>
+    <t>Посмотрел видео  - Git Workshop</t>
+  </si>
+  <si>
+    <t>https://slides.com/anton_bely/saturday-talk#/2</t>
+  </si>
+  <si>
+    <t>Презентация по Gity</t>
   </si>
 </sst>
 </file>
@@ -809,10 +824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -987,6 +1002,9 @@
       <c r="C15" t="s">
         <v>89</v>
       </c>
+      <c r="D15">
+        <v>40</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1">
@@ -997,6 +1015,17 @@
       </c>
       <c r="C16" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>43881</v>
+      </c>
+      <c r="B17" s="1">
+        <v>43881</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1009,7 +1038,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1392,15 +1421,21 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>43881</v>
       </c>
       <c r="B33" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>43882</v>
       </c>
@@ -1408,7 +1443,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>43883</v>
       </c>
@@ -1416,7 +1451,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:4">
       <c r="A36" s="1">
         <v>43884</v>
       </c>
@@ -1424,7 +1459,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>43885</v>
       </c>
@@ -1432,7 +1467,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:4">
       <c r="A38" s="1">
         <v>43886</v>
       </c>
@@ -1440,7 +1475,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:4">
       <c r="A39" s="1">
         <v>43887</v>
       </c>
@@ -1448,7 +1483,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:4">
       <c r="A40" s="1">
         <v>43888</v>
       </c>
@@ -1456,7 +1491,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:4">
       <c r="A41" s="1">
         <v>43889</v>
       </c>
@@ -1484,9 +1519,10 @@
     <hyperlink ref="C22" r:id="rId16" display="https://www.google.com/url?q=https://github.com/rolling-scopes-school/tasks/blob/master/tasks/stage-1/HTML-CSS-self-ru.md&amp;sa=D&amp;ust=1581174668693000&amp;usg=AFQjCNHR3nMKKnoa1u5i91_-rYEChyfmLA"/>
     <hyperlink ref="C23" r:id="rId17"/>
     <hyperlink ref="C29" r:id="rId18"/>
+    <hyperlink ref="C33" r:id="rId19"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
 
@@ -1494,8 +1530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1581,9 +1617,25 @@
         <v>80</v>
       </c>
     </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" t="s">
+        <v>95</v>
+      </c>
+    </row>
     <row r="15" spans="1:2" s="4" customFormat="1">
       <c r="A15" s="5" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="4" customFormat="1">
@@ -1674,9 +1726,11 @@
     <hyperlink ref="A10" r:id="rId7"/>
     <hyperlink ref="A26" r:id="rId8"/>
     <hyperlink ref="A28" r:id="rId9"/>
+    <hyperlink ref="A11" r:id="rId10"/>
+    <hyperlink ref="A16" r:id="rId11" location="/2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
-  <legacyDrawing r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <legacyDrawing r:id="rId13"/>
 </worksheet>
 </file>
--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="104">
   <si>
     <t>Дата начала</t>
   </si>
@@ -446,6 +446,21 @@
   </si>
   <si>
     <t>Презентация по Gity</t>
+  </si>
+  <si>
+    <t>Reverse Int</t>
+  </si>
+  <si>
+    <t>Поставил ; после } и три часа искал ошибку</t>
+  </si>
+  <si>
+    <t>Typical Arrays Problems</t>
+  </si>
+  <si>
+    <t>Towel Sort</t>
+  </si>
+  <si>
+    <t>Human Readable Number</t>
   </si>
 </sst>
 </file>
@@ -522,13 +537,16 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -824,10 +842,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1017,7 +1035,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>43881</v>
       </c>
@@ -1026,6 +1044,62 @@
       </c>
       <c r="C17" s="2" t="s">
         <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>43881</v>
+      </c>
+      <c r="B18" s="1">
+        <v>43881</v>
+      </c>
+      <c r="C18" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>43882</v>
+      </c>
+      <c r="B19" s="1">
+        <v>43882</v>
+      </c>
+      <c r="C19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B20" s="1">
+        <v>43883</v>
+      </c>
+      <c r="C20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B21" s="1">
+        <v>43883</v>
+      </c>
+      <c r="C21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1035,10 +1109,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1436,66 +1510,96 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="1">
-        <v>43882</v>
-      </c>
-      <c r="B34" t="s">
-        <v>14</v>
+      <c r="A34" s="1"/>
+      <c r="C34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1">
-        <v>43883</v>
+        <v>43882</v>
       </c>
       <c r="B35" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="6">
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1">
-        <v>43884</v>
+        <v>43883</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" s="6">
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="1">
-        <v>43885</v>
-      </c>
-      <c r="B37" t="s">
-        <v>10</v>
+      <c r="A37" s="1"/>
+      <c r="C37" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" s="6">
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1">
-        <v>43886</v>
+        <v>43884</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1">
-        <v>43887</v>
+        <v>43885</v>
       </c>
       <c r="B39" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1">
-        <v>43888</v>
+        <v>43886</v>
       </c>
       <c r="B40" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1">
+        <v>43887</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <v>43888</v>
+      </c>
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
         <v>43889</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B43" t="s">
         <v>14</v>
       </c>
     </row>

--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="По задачам" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="106">
   <si>
     <t>Дата начала</t>
   </si>
@@ -461,6 +461,12 @@
   </si>
   <si>
     <t>Human Readable Number</t>
+  </si>
+  <si>
+    <t>https://dev.w3.org/html5/html-author/charref</t>
+  </si>
+  <si>
+    <t>Всякие символы</t>
   </si>
 </sst>
 </file>
@@ -1111,7 +1117,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
@@ -1634,8 +1640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1740,6 +1746,14 @@
       </c>
       <c r="B16" t="s">
         <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="4" customFormat="1">

--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440"/>
   </bookViews>
   <sheets>
     <sheet name="По задачам" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="120">
   <si>
     <t>Дата начала</t>
   </si>
@@ -467,6 +467,48 @@
   </si>
   <si>
     <t>Всякие символы</t>
+  </si>
+  <si>
+    <t>Тест - Как учиться в Rolling Scopes School</t>
+  </si>
+  <si>
+    <t>48 / 54</t>
+  </si>
+  <si>
+    <t>продолжил</t>
+  </si>
+  <si>
+    <t>https://codepen.io/</t>
+  </si>
+  <si>
+    <t>CodePen: Build, Test, and Discover Front-end Code.</t>
+  </si>
+  <si>
+    <t>https://tproger.ru/translations/how-css-flexbox-works/</t>
+  </si>
+  <si>
+    <t>Как работает CSS Flexbox</t>
+  </si>
+  <si>
+    <t>https://tuhub.ru/posts/css-grid-complete-guide</t>
+  </si>
+  <si>
+    <t>Полное руководство по CSS Grid</t>
+  </si>
+  <si>
+    <t>https://contentim.ru/git</t>
+  </si>
+  <si>
+    <t>Шпаргалка по Gitу</t>
+  </si>
+  <si>
+    <t>Тест по Гиту</t>
+  </si>
+  <si>
+    <t>42 / 50</t>
+  </si>
+  <si>
+    <t>закончил</t>
   </si>
 </sst>
 </file>
@@ -848,10 +890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1108,6 +1150,34 @@
         <v>100</v>
       </c>
     </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B22" s="1">
+        <v>43883</v>
+      </c>
+      <c r="C22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B23" s="1">
+        <v>43884</v>
+      </c>
+      <c r="C23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" t="s">
+        <v>118</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1115,10 +1185,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1562,50 +1632,83 @@
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="1">
-        <v>43884</v>
-      </c>
-      <c r="B38" t="s">
-        <v>9</v>
+      <c r="A38" s="1"/>
+      <c r="C38" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="1">
-        <v>43885</v>
-      </c>
-      <c r="B39" t="s">
-        <v>10</v>
+      <c r="A39" s="1"/>
+      <c r="C39" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1">
-        <v>43886</v>
+        <v>43884</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>117</v>
+      </c>
+      <c r="D40" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="1">
-        <v>43887</v>
-      </c>
-      <c r="B41" t="s">
-        <v>12</v>
+      <c r="A41" s="1"/>
+      <c r="C41" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1">
-        <v>43888</v>
+        <v>43885</v>
       </c>
       <c r="B42" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1">
+        <v>43886</v>
+      </c>
+      <c r="B43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>43887</v>
+      </c>
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>43888</v>
+      </c>
+      <c r="B45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
         <v>43889</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B46" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1638,10 +1741,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1756,99 +1859,135 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="4" customFormat="1">
-      <c r="A20" s="5" t="s">
-        <v>37</v>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" t="s">
-        <v>50</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" s="4" customFormat="1">
+      <c r="A24" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
         <v>84</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B31" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="2" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B32" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
         <v>93</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B33" t="s">
         <v>92</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A21" r:id="rId1"/>
+    <hyperlink ref="A25" r:id="rId1"/>
     <hyperlink ref="A6" r:id="rId2"/>
-    <hyperlink ref="A22" r:id="rId3"/>
+    <hyperlink ref="A26" r:id="rId3"/>
     <hyperlink ref="A7" r:id="rId4"/>
-    <hyperlink ref="A25" r:id="rId5"/>
+    <hyperlink ref="A29" r:id="rId5"/>
     <hyperlink ref="A9" r:id="rId6"/>
     <hyperlink ref="A10" r:id="rId7"/>
-    <hyperlink ref="A26" r:id="rId8"/>
-    <hyperlink ref="A28" r:id="rId9"/>
+    <hyperlink ref="A30" r:id="rId8"/>
+    <hyperlink ref="A32" r:id="rId9"/>
     <hyperlink ref="A11" r:id="rId10"/>
     <hyperlink ref="A16" r:id="rId11" location="/2"/>
+    <hyperlink ref="A18" r:id="rId12"/>
+    <hyperlink ref="A19" r:id="rId13"/>
+    <hyperlink ref="A20" r:id="rId14"/>
+    <hyperlink ref="A21" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
-  <legacyDrawing r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
+  <legacyDrawing r:id="rId17"/>
 </worksheet>
 </file>
--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="121">
   <si>
     <t>Дата начала</t>
   </si>
@@ -508,7 +508,10 @@
     <t>42 / 50</t>
   </si>
   <si>
-    <t>закончил</t>
+    <t>Вторую проблему решил )))</t>
+  </si>
+  <si>
+    <t>закончил  (эээх плоховато сделал - pixel perfect не совпадает. Надо сосредоточиться над второй частью)</t>
   </si>
 </sst>
 </file>
@@ -893,7 +896,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1196,7 +1199,7 @@
     <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="5.42578125" customWidth="1"/>
     <col min="3" max="3" width="51.7109375" customWidth="1"/>
-    <col min="4" max="4" width="95.7109375" customWidth="1"/>
+    <col min="4" max="4" width="96.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1669,7 +1672,7 @@
         <v>81</v>
       </c>
       <c r="D41" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1678,6 +1681,12 @@
       </c>
       <c r="B42" t="s">
         <v>10</v>
+      </c>
+      <c r="C42" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:4">

--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="133">
   <si>
     <t>Дата начала</t>
   </si>
@@ -512,6 +512,42 @@
   </si>
   <si>
     <t>закончил  (эээх плоховато сделал - pixel perfect не совпадает. Надо сосредоточиться над второй частью)</t>
+  </si>
+  <si>
+    <t>Третью проблему решил )))</t>
+  </si>
+  <si>
+    <t>Self education - Git basics</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=p2cwXO9Nkrc</t>
+  </si>
+  <si>
+    <t>Посмотрел видео - Git Basics</t>
+  </si>
+  <si>
+    <t>Git Basics</t>
+  </si>
+  <si>
+    <t>Responsive Web Design. Flexbox. CSS Grid Layout. (02.04.2019)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MlscLbyFbAI</t>
+  </si>
+  <si>
+    <t>Singolo part 2</t>
+  </si>
+  <si>
+    <t>https://webref.ru/course/html-content/forms</t>
+  </si>
+  <si>
+    <t>Формы</t>
+  </si>
+  <si>
+    <t>https://webref.ru/layout/learn-html-css/building-forms</t>
+  </si>
+  <si>
+    <t>скачал</t>
   </si>
 </sst>
 </file>
@@ -588,7 +624,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
@@ -597,6 +633,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -893,10 +932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1060,6 +1099,9 @@
       <c r="A14" s="1">
         <v>43879</v>
       </c>
+      <c r="B14" s="1">
+        <v>43884</v>
+      </c>
       <c r="C14" t="s">
         <v>81</v>
       </c>
@@ -1163,7 +1205,7 @@
       <c r="C22" t="s">
         <v>106</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="7" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1177,8 +1219,38 @@
       <c r="C23" t="s">
         <v>117</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="7" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>43885</v>
+      </c>
+      <c r="B24" s="1">
+        <v>43885</v>
+      </c>
+      <c r="C24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>43886</v>
+      </c>
+      <c r="B25" s="1">
+        <v>43886</v>
+      </c>
+      <c r="C25" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>43886</v>
+      </c>
+      <c r="C26" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1188,10 +1260,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D145"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1690,35 +1762,836 @@
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="1">
-        <v>43886</v>
-      </c>
-      <c r="B43" t="s">
-        <v>11</v>
+      <c r="A43" s="1"/>
+      <c r="C43" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D43" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="1">
+        <v>43886</v>
+      </c>
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1"/>
+      <c r="C45" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D45" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1"/>
+      <c r="C46" t="s">
+        <v>128</v>
+      </c>
+      <c r="D46" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
         <v>43887</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B47" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="1">
+    <row r="48" spans="1:4">
+      <c r="A48" s="1">
         <v>43888</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B48" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="1">
+    <row r="49" spans="1:2">
+      <c r="A49" s="1">
         <v>43889</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B49" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1">
+        <v>43890</v>
+      </c>
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1">
+        <v>43891</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1">
+        <v>43892</v>
+      </c>
+      <c r="B52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1">
+        <v>43893</v>
+      </c>
+      <c r="B53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1">
+        <v>43894</v>
+      </c>
+      <c r="B54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1">
+        <v>43895</v>
+      </c>
+      <c r="B55" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1">
+        <v>43896</v>
+      </c>
+      <c r="B56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1">
+        <v>43897</v>
+      </c>
+      <c r="B57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1">
+        <v>43898</v>
+      </c>
+      <c r="B58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1">
+        <v>43899</v>
+      </c>
+      <c r="B59" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1">
+        <v>43900</v>
+      </c>
+      <c r="B60" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1">
+        <v>43901</v>
+      </c>
+      <c r="B61" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1">
+        <v>43902</v>
+      </c>
+      <c r="B62" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1">
+        <v>43903</v>
+      </c>
+      <c r="B63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1">
+        <v>43904</v>
+      </c>
+      <c r="B64" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1">
+        <v>43905</v>
+      </c>
+      <c r="B65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1">
+        <v>43906</v>
+      </c>
+      <c r="B66" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1">
+        <v>43907</v>
+      </c>
+      <c r="B67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1">
+        <v>43908</v>
+      </c>
+      <c r="B68" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1">
+        <v>43909</v>
+      </c>
+      <c r="B69" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1">
+        <v>43910</v>
+      </c>
+      <c r="B70" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1">
+        <v>43911</v>
+      </c>
+      <c r="B71" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1">
+        <v>43912</v>
+      </c>
+      <c r="B72" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1">
+        <v>43913</v>
+      </c>
+      <c r="B73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1">
+        <v>43914</v>
+      </c>
+      <c r="B74" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1">
+        <v>43915</v>
+      </c>
+      <c r="B75" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="1">
+        <v>43916</v>
+      </c>
+      <c r="B76" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="1">
+        <v>43917</v>
+      </c>
+      <c r="B77" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="1">
+        <v>43918</v>
+      </c>
+      <c r="B78" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="1">
+        <v>43919</v>
+      </c>
+      <c r="B79" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="1">
+        <v>43920</v>
+      </c>
+      <c r="B80" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B81" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B82" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="1">
+        <v>43923</v>
+      </c>
+      <c r="B83" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="1">
+        <v>43924</v>
+      </c>
+      <c r="B84" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B85" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="1">
+        <v>43926</v>
+      </c>
+      <c r="B86" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B87" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B88" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B89" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B90" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B91" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B92" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B93" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B94" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B95" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B96" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B97" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B98" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B99" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B100" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B101" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B102" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="1">
+        <v>43943</v>
+      </c>
+      <c r="B103" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B104" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B105" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B106" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B107" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B108" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B109" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B110" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B111" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B112" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B113" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B114" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B115" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B116" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B117" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B118" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B119" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B120" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B121" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B122" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B123" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B124" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="1">
+        <v>43965</v>
+      </c>
+      <c r="B125" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B126" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B127" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B128" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B129" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="1">
+        <v>43970</v>
+      </c>
+      <c r="B130" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B131" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="1">
+        <v>43972</v>
+      </c>
+      <c r="B132" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="1">
+        <v>43973</v>
+      </c>
+      <c r="B133" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="1">
+        <v>43974</v>
+      </c>
+      <c r="B134" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="1">
+        <v>43975</v>
+      </c>
+      <c r="B135" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="1">
+        <v>43976</v>
+      </c>
+      <c r="B136" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B137" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="1">
+        <v>43978</v>
+      </c>
+      <c r="B138" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="1">
+        <v>43979</v>
+      </c>
+      <c r="B139" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B140" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="1">
+        <v>43981</v>
+      </c>
+      <c r="B141" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B142" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B143" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B144" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="1">
+        <v>43985</v>
+      </c>
+      <c r="B145" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1742,27 +2615,29 @@
     <hyperlink ref="C23" r:id="rId17"/>
     <hyperlink ref="C29" r:id="rId18"/>
     <hyperlink ref="C33" r:id="rId19"/>
+    <hyperlink ref="C43" r:id="rId20"/>
+    <hyperlink ref="C45" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="55.28515625" customWidth="1"/>
-    <col min="2" max="2" width="77" customWidth="1"/>
+    <col min="2" max="2" width="59" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="3" customFormat="1">
+    <row r="1" spans="1:3" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -1770,44 +2645,56 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="4" customFormat="1">
+    <row r="2" spans="1:3" s="4" customFormat="1">
       <c r="A2" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>23</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>28</v>
       </c>
       <c r="B5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
         <v>54</v>
       </c>
@@ -1815,188 +2702,251 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>62</v>
       </c>
       <c r="B8" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B9" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B10" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B11" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" s="4" customFormat="1">
-      <c r="A15" s="5" t="s">
+      <c r="C11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="19" spans="1:2" s="4" customFormat="1">
+      <c r="A19" s="5" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B19" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B20" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B21" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" s="4" customFormat="1">
-      <c r="A24" s="5" t="s">
-        <v>37</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>38</v>
+        <v>115</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B30" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>84</v>
-      </c>
-      <c r="B31" t="s">
-        <v>83</v>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" s="4" customFormat="1">
+      <c r="A31" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B39" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
         <v>93</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B40" t="s">
         <v>92</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A25" r:id="rId1"/>
+    <hyperlink ref="A32" r:id="rId1"/>
     <hyperlink ref="A6" r:id="rId2"/>
-    <hyperlink ref="A26" r:id="rId3"/>
+    <hyperlink ref="A33" r:id="rId3"/>
     <hyperlink ref="A7" r:id="rId4"/>
-    <hyperlink ref="A29" r:id="rId5"/>
+    <hyperlink ref="A36" r:id="rId5"/>
     <hyperlink ref="A9" r:id="rId6"/>
     <hyperlink ref="A10" r:id="rId7"/>
-    <hyperlink ref="A30" r:id="rId8"/>
-    <hyperlink ref="A32" r:id="rId9"/>
+    <hyperlink ref="A37" r:id="rId8"/>
+    <hyperlink ref="A39" r:id="rId9"/>
     <hyperlink ref="A11" r:id="rId10"/>
-    <hyperlink ref="A16" r:id="rId11" location="/2"/>
-    <hyperlink ref="A18" r:id="rId12"/>
-    <hyperlink ref="A19" r:id="rId13"/>
-    <hyperlink ref="A20" r:id="rId14"/>
-    <hyperlink ref="A21" r:id="rId15"/>
+    <hyperlink ref="A20" r:id="rId11" location="/2"/>
+    <hyperlink ref="A22" r:id="rId12"/>
+    <hyperlink ref="A23" r:id="rId13"/>
+    <hyperlink ref="A24" r:id="rId14"/>
+    <hyperlink ref="A25" r:id="rId15"/>
+    <hyperlink ref="A13" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
-  <legacyDrawing r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
+  <legacyDrawing r:id="rId18"/>
 </worksheet>
 </file>
--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="По задачам" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="136">
   <si>
     <t>Дата начала</t>
   </si>
@@ -548,6 +548,15 @@
   </si>
   <si>
     <t>скачал</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZAde-IJAHzo</t>
+  </si>
+  <si>
+    <t>Friday Live Coding. Part 1</t>
+  </si>
+  <si>
+    <t>Четвертую проблему решил )))</t>
   </si>
 </sst>
 </file>
@@ -932,9 +941,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -1253,17 +1262,28 @@
         <v>128</v>
       </c>
     </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>43887</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C27" r:id="rId1" display="https://www.youtube.com/watch?v=ZAde-IJAHzo"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D145"/>
+  <dimension ref="A1:D146"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1809,788 +1829,803 @@
       <c r="B47" t="s">
         <v>12</v>
       </c>
+      <c r="C47" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="1">
-        <v>43888</v>
-      </c>
-      <c r="B48" t="s">
-        <v>13</v>
+      <c r="A48" s="1"/>
+      <c r="C48" t="s">
+        <v>88</v>
+      </c>
+      <c r="D48" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1">
-        <v>43889</v>
+        <v>43888</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1">
-        <v>43890</v>
+        <v>43889</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1">
-        <v>43891</v>
+        <v>43890</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1">
-        <v>43892</v>
+        <v>43891</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1">
-        <v>43893</v>
+        <v>43892</v>
       </c>
       <c r="B53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1">
-        <v>43894</v>
+        <v>43893</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1">
-        <v>43895</v>
+        <v>43894</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1">
-        <v>43896</v>
+        <v>43895</v>
       </c>
       <c r="B56" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1">
-        <v>43897</v>
+        <v>43896</v>
       </c>
       <c r="B57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1">
-        <v>43898</v>
+        <v>43897</v>
       </c>
       <c r="B58" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1">
-        <v>43899</v>
+        <v>43898</v>
       </c>
       <c r="B59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1">
-        <v>43900</v>
+        <v>43899</v>
       </c>
       <c r="B60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1">
-        <v>43901</v>
+        <v>43900</v>
       </c>
       <c r="B61" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1">
-        <v>43902</v>
+        <v>43901</v>
       </c>
       <c r="B62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1">
-        <v>43903</v>
+        <v>43902</v>
       </c>
       <c r="B63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1">
-        <v>43904</v>
+        <v>43903</v>
       </c>
       <c r="B64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1">
-        <v>43905</v>
+        <v>43904</v>
       </c>
       <c r="B65" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1">
-        <v>43906</v>
+        <v>43905</v>
       </c>
       <c r="B66" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1">
-        <v>43907</v>
+        <v>43906</v>
       </c>
       <c r="B67" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1">
-        <v>43908</v>
+        <v>43907</v>
       </c>
       <c r="B68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1">
-        <v>43909</v>
+        <v>43908</v>
       </c>
       <c r="B69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="B70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="B71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1">
-        <v>43912</v>
+        <v>43911</v>
       </c>
       <c r="B72" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1">
-        <v>43913</v>
+        <v>43912</v>
       </c>
       <c r="B73" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1">
-        <v>43914</v>
+        <v>43913</v>
       </c>
       <c r="B74" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1">
-        <v>43915</v>
+        <v>43914</v>
       </c>
       <c r="B75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1">
-        <v>43916</v>
+        <v>43915</v>
       </c>
       <c r="B76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="1">
-        <v>43917</v>
+        <v>43916</v>
       </c>
       <c r="B77" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="B78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1">
-        <v>43919</v>
+        <v>43918</v>
       </c>
       <c r="B79" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1">
-        <v>43920</v>
+        <v>43919</v>
       </c>
       <c r="B80" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="B81" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1">
-        <v>43922</v>
+        <v>43921</v>
       </c>
       <c r="B82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1">
-        <v>43923</v>
+        <v>43922</v>
       </c>
       <c r="B83" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="1">
-        <v>43924</v>
+        <v>43923</v>
       </c>
       <c r="B84" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="1">
-        <v>43925</v>
+        <v>43924</v>
       </c>
       <c r="B85" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1">
-        <v>43926</v>
+        <v>43925</v>
       </c>
       <c r="B86" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1">
-        <v>43927</v>
+        <v>43926</v>
       </c>
       <c r="B87" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1">
-        <v>43928</v>
+        <v>43927</v>
       </c>
       <c r="B88" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1">
-        <v>43929</v>
+        <v>43928</v>
       </c>
       <c r="B89" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1">
-        <v>43930</v>
+        <v>43929</v>
       </c>
       <c r="B90" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="1">
-        <v>43931</v>
+        <v>43930</v>
       </c>
       <c r="B91" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="1">
-        <v>43932</v>
+        <v>43931</v>
       </c>
       <c r="B92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="1">
-        <v>43933</v>
+        <v>43932</v>
       </c>
       <c r="B93" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="1">
-        <v>43934</v>
+        <v>43933</v>
       </c>
       <c r="B94" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="1">
-        <v>43935</v>
+        <v>43934</v>
       </c>
       <c r="B95" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="1">
-        <v>43936</v>
+        <v>43935</v>
       </c>
       <c r="B96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="1">
-        <v>43937</v>
+        <v>43936</v>
       </c>
       <c r="B97" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="1">
-        <v>43938</v>
+        <v>43937</v>
       </c>
       <c r="B98" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="1">
-        <v>43939</v>
+        <v>43938</v>
       </c>
       <c r="B99" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1">
-        <v>43940</v>
+        <v>43939</v>
       </c>
       <c r="B100" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="1">
-        <v>43941</v>
+        <v>43940</v>
       </c>
       <c r="B101" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="1">
-        <v>43942</v>
+        <v>43941</v>
       </c>
       <c r="B102" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="1">
-        <v>43943</v>
+        <v>43942</v>
       </c>
       <c r="B103" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="1">
-        <v>43944</v>
+        <v>43943</v>
       </c>
       <c r="B104" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1">
-        <v>43945</v>
+        <v>43944</v>
       </c>
       <c r="B105" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1">
-        <v>43946</v>
+        <v>43945</v>
       </c>
       <c r="B106" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="1">
-        <v>43947</v>
+        <v>43946</v>
       </c>
       <c r="B107" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1">
-        <v>43948</v>
+        <v>43947</v>
       </c>
       <c r="B108" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1">
-        <v>43949</v>
+        <v>43948</v>
       </c>
       <c r="B109" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="1">
-        <v>43950</v>
+        <v>43949</v>
       </c>
       <c r="B110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="1">
-        <v>43951</v>
+        <v>43950</v>
       </c>
       <c r="B111" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="1">
-        <v>43952</v>
+        <v>43951</v>
       </c>
       <c r="B112" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1">
-        <v>43953</v>
+        <v>43952</v>
       </c>
       <c r="B113" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="1">
-        <v>43954</v>
+        <v>43953</v>
       </c>
       <c r="B114" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="1">
-        <v>43955</v>
+        <v>43954</v>
       </c>
       <c r="B115" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="1">
-        <v>43956</v>
+        <v>43955</v>
       </c>
       <c r="B116" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="1">
-        <v>43957</v>
+        <v>43956</v>
       </c>
       <c r="B117" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="1">
-        <v>43958</v>
+        <v>43957</v>
       </c>
       <c r="B118" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="1">
-        <v>43959</v>
+        <v>43958</v>
       </c>
       <c r="B119" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="1">
-        <v>43960</v>
+        <v>43959</v>
       </c>
       <c r="B120" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="1">
-        <v>43961</v>
+        <v>43960</v>
       </c>
       <c r="B121" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="1">
-        <v>43962</v>
+        <v>43961</v>
       </c>
       <c r="B122" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="1">
-        <v>43963</v>
+        <v>43962</v>
       </c>
       <c r="B123" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="1">
-        <v>43964</v>
+        <v>43963</v>
       </c>
       <c r="B124" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="1">
-        <v>43965</v>
+        <v>43964</v>
       </c>
       <c r="B125" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="1">
-        <v>43966</v>
+        <v>43965</v>
       </c>
       <c r="B126" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="1">
-        <v>43967</v>
+        <v>43966</v>
       </c>
       <c r="B127" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="1">
-        <v>43968</v>
+        <v>43967</v>
       </c>
       <c r="B128" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="1">
-        <v>43969</v>
+        <v>43968</v>
       </c>
       <c r="B129" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="1">
-        <v>43970</v>
+        <v>43969</v>
       </c>
       <c r="B130" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="1">
-        <v>43971</v>
+        <v>43970</v>
       </c>
       <c r="B131" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="1">
-        <v>43972</v>
+        <v>43971</v>
       </c>
       <c r="B132" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="1">
-        <v>43973</v>
+        <v>43972</v>
       </c>
       <c r="B133" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="1">
-        <v>43974</v>
+        <v>43973</v>
       </c>
       <c r="B134" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="1">
-        <v>43975</v>
+        <v>43974</v>
       </c>
       <c r="B135" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="1">
-        <v>43976</v>
+        <v>43975</v>
       </c>
       <c r="B136" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="1">
-        <v>43977</v>
+        <v>43976</v>
       </c>
       <c r="B137" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="1">
-        <v>43978</v>
+        <v>43977</v>
       </c>
       <c r="B138" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="1">
-        <v>43979</v>
+        <v>43978</v>
       </c>
       <c r="B139" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="1">
-        <v>43980</v>
+        <v>43979</v>
       </c>
       <c r="B140" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="1">
-        <v>43981</v>
+        <v>43980</v>
       </c>
       <c r="B141" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="1">
-        <v>43982</v>
+        <v>43981</v>
       </c>
       <c r="B142" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="1">
-        <v>43983</v>
+        <v>43982</v>
       </c>
       <c r="B143" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="1">
-        <v>43984</v>
+        <v>43983</v>
       </c>
       <c r="B144" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B145" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="1">
         <v>43985</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B146" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2617,9 +2652,11 @@
     <hyperlink ref="C33" r:id="rId19"/>
     <hyperlink ref="C43" r:id="rId20"/>
     <hyperlink ref="C45" r:id="rId21"/>
+    <hyperlink ref="D47" r:id="rId22" display="https://www.youtube.com/watch?v=ZAde-IJAHzo"/>
+    <hyperlink ref="C47" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId24"/>
 </worksheet>
 </file>
 
@@ -2627,8 +2664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2769,7 +2806,15 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2"/>
@@ -2944,9 +2989,10 @@
     <hyperlink ref="A24" r:id="rId14"/>
     <hyperlink ref="A25" r:id="rId15"/>
     <hyperlink ref="A13" r:id="rId16"/>
+    <hyperlink ref="A14" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
-  <legacyDrawing r:id="rId18"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
+  <legacyDrawing r:id="rId19"/>
 </worksheet>
 </file>
--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440"/>
   </bookViews>
   <sheets>
     <sheet name="По задачам" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="150">
   <si>
     <t>Дата начала</t>
   </si>
@@ -557,6 +557,48 @@
   </si>
   <si>
     <t>Четвертую проблему решил )))</t>
+  </si>
+  <si>
+    <t>https://ru.bem.info/methodology/quick-start/</t>
+  </si>
+  <si>
+    <t>БЭМ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HihYQVuH64U</t>
+  </si>
+  <si>
+    <t>Методология БЭМ за 17 минут.</t>
+  </si>
+  <si>
+    <t>Preprocessors. SASS</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JO8DvVZbxDw&amp;t=385s</t>
+  </si>
+  <si>
+    <t>https://saney.ru/calculator/px-rem-calculator.php</t>
+  </si>
+  <si>
+    <t>px - rem калькулятор</t>
+  </si>
+  <si>
+    <t>http://yoksel.github.io/easy-markup/bem-rules/</t>
+  </si>
+  <si>
+    <t>https://regex101.com/</t>
+  </si>
+  <si>
+    <t>регулярные выражения</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BJENQIX2e2o</t>
+  </si>
+  <si>
+    <t>Friday Live Coding. Part 2</t>
+  </si>
+  <si>
+    <t>Friday Live Coding. Part 2    42 минуты</t>
   </si>
 </sst>
 </file>
@@ -633,7 +675,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
@@ -645,6 +687,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -941,10 +986,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1266,8 +1311,22 @@
       <c r="A27" s="1">
         <v>43887</v>
       </c>
+      <c r="B27" s="1">
+        <v>43888</v>
+      </c>
       <c r="C27" s="2" t="s">
         <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>43889</v>
+      </c>
+      <c r="B28" s="1">
+        <v>43889</v>
+      </c>
+      <c r="C28" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1283,7 +1342,7 @@
   <dimension ref="A1:D146"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1845,23 +1904,35 @@
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:4">
       <c r="A49" s="1">
         <v>43888</v>
       </c>
       <c r="B49" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1">
         <v>43889</v>
       </c>
       <c r="B50" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50" t="s">
+        <v>147</v>
+      </c>
+      <c r="D50" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1">
         <v>43890</v>
       </c>
@@ -1869,7 +1940,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:4">
       <c r="A52" s="1">
         <v>43891</v>
       </c>
@@ -1877,7 +1948,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:4">
       <c r="A53" s="1">
         <v>43892</v>
       </c>
@@ -1885,7 +1956,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:4">
       <c r="A54" s="1">
         <v>43893</v>
       </c>
@@ -1893,7 +1964,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:4">
       <c r="A55" s="1">
         <v>43894</v>
       </c>
@@ -1901,7 +1972,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:4">
       <c r="A56" s="1">
         <v>43895</v>
       </c>
@@ -1909,7 +1980,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:4">
       <c r="A57" s="1">
         <v>43896</v>
       </c>
@@ -1917,7 +1988,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:4">
       <c r="A58" s="1">
         <v>43897</v>
       </c>
@@ -1925,7 +1996,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:4">
       <c r="A59" s="1">
         <v>43898</v>
       </c>
@@ -1933,7 +2004,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:4">
       <c r="A60" s="1">
         <v>43899</v>
       </c>
@@ -1941,7 +2012,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:4">
       <c r="A61" s="1">
         <v>43900</v>
       </c>
@@ -1949,7 +2020,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:4">
       <c r="A62" s="1">
         <v>43901</v>
       </c>
@@ -1957,7 +2028,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:4">
       <c r="A63" s="1">
         <v>43902</v>
       </c>
@@ -1965,7 +2036,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:4">
       <c r="A64" s="1">
         <v>43903</v>
       </c>
@@ -2654,18 +2725,20 @@
     <hyperlink ref="C45" r:id="rId21"/>
     <hyperlink ref="D47" r:id="rId22" display="https://www.youtube.com/watch?v=ZAde-IJAHzo"/>
     <hyperlink ref="C47" r:id="rId23"/>
+    <hyperlink ref="D49" r:id="rId24" display="https://www.youtube.com/watch?v=ZAde-IJAHzo"/>
+    <hyperlink ref="C49" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId24"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId26"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2817,182 +2890,238 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B16" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="19" spans="1:2" s="4" customFormat="1">
-      <c r="A19" s="5" t="s">
+      <c r="A17" t="s">
+        <v>147</v>
+      </c>
+      <c r="B17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="4" customFormat="1">
+      <c r="A21" s="5" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B20" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B21" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B22" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B23" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B24" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B25" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B28" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
         <v>129</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B29" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="31" spans="1:2" s="4" customFormat="1">
-      <c r="A31" s="5" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B30" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>145</v>
+      </c>
+      <c r="B33" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" s="4" customFormat="1">
+      <c r="A37" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="2" t="s">
+    <row r="38" spans="1:2">
+      <c r="A38" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B38" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B37" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>84</v>
-      </c>
-      <c r="B38" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
         <v>93</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B46" t="s">
         <v>92</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A32" r:id="rId1"/>
+    <hyperlink ref="A38" r:id="rId1"/>
     <hyperlink ref="A6" r:id="rId2"/>
-    <hyperlink ref="A33" r:id="rId3"/>
+    <hyperlink ref="A39" r:id="rId3"/>
     <hyperlink ref="A7" r:id="rId4"/>
-    <hyperlink ref="A36" r:id="rId5"/>
+    <hyperlink ref="A42" r:id="rId5"/>
     <hyperlink ref="A9" r:id="rId6"/>
     <hyperlink ref="A10" r:id="rId7"/>
-    <hyperlink ref="A37" r:id="rId8"/>
-    <hyperlink ref="A39" r:id="rId9"/>
+    <hyperlink ref="A43" r:id="rId8"/>
+    <hyperlink ref="A45" r:id="rId9"/>
     <hyperlink ref="A11" r:id="rId10"/>
-    <hyperlink ref="A20" r:id="rId11" location="/2"/>
-    <hyperlink ref="A22" r:id="rId12"/>
-    <hyperlink ref="A23" r:id="rId13"/>
-    <hyperlink ref="A24" r:id="rId14"/>
-    <hyperlink ref="A25" r:id="rId15"/>
+    <hyperlink ref="A22" r:id="rId11" location="/2"/>
+    <hyperlink ref="A24" r:id="rId12"/>
+    <hyperlink ref="A25" r:id="rId13"/>
+    <hyperlink ref="A26" r:id="rId14"/>
+    <hyperlink ref="A27" r:id="rId15"/>
     <hyperlink ref="A13" r:id="rId16"/>
     <hyperlink ref="A14" r:id="rId17"/>
+    <hyperlink ref="A30" r:id="rId18"/>
+    <hyperlink ref="A15" r:id="rId19"/>
+    <hyperlink ref="A16" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId18"/>
-  <legacyDrawing r:id="rId19"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
+  <legacyDrawing r:id="rId22"/>
 </worksheet>
 </file>
--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="150">
   <si>
     <t>Дата начала</t>
   </si>
@@ -989,7 +989,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1342,7 +1342,7 @@
   <dimension ref="A1:D146"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1939,6 +1939,12 @@
       <c r="B51" t="s">
         <v>15</v>
       </c>
+      <c r="C51" t="s">
+        <v>128</v>
+      </c>
+      <c r="D51" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1">
@@ -1946,6 +1952,12 @@
       </c>
       <c r="B52" t="s">
         <v>9</v>
+      </c>
+      <c r="C52" t="s">
+        <v>128</v>
+      </c>
+      <c r="D52" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2738,7 +2750,7 @@
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="По задачам" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="152">
   <si>
     <t>Дата начала</t>
   </si>
@@ -599,6 +599,12 @@
   </si>
   <si>
     <t>Friday Live Coding. Part 2    42 минуты</t>
+  </si>
+  <si>
+    <t>закончил, подправил Singolo 1</t>
+  </si>
+  <si>
+    <t>Пятую проблему решил )))</t>
   </si>
 </sst>
 </file>
@@ -988,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1303,6 +1309,9 @@
       <c r="A26" s="1">
         <v>43886</v>
       </c>
+      <c r="B26" s="1">
+        <v>43891</v>
+      </c>
       <c r="C26" t="s">
         <v>128</v>
       </c>
@@ -1339,10 +1348,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D146"/>
+  <dimension ref="A1:D147"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1957,758 +1966,767 @@
         <v>128</v>
       </c>
       <c r="D52" t="s">
-        <v>108</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="1">
-        <v>43892</v>
-      </c>
-      <c r="B53" t="s">
-        <v>10</v>
+      <c r="A53" s="1"/>
+      <c r="C53" t="s">
+        <v>88</v>
+      </c>
+      <c r="D53" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1">
-        <v>43893</v>
+        <v>43892</v>
       </c>
       <c r="B54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1">
-        <v>43894</v>
+        <v>43893</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1">
-        <v>43895</v>
+        <v>43894</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1">
-        <v>43896</v>
+        <v>43895</v>
       </c>
       <c r="B57" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1">
-        <v>43897</v>
+        <v>43896</v>
       </c>
       <c r="B58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1">
-        <v>43898</v>
+        <v>43897</v>
       </c>
       <c r="B59" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1">
-        <v>43899</v>
+        <v>43898</v>
       </c>
       <c r="B60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1">
-        <v>43900</v>
+        <v>43899</v>
       </c>
       <c r="B61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1">
-        <v>43901</v>
+        <v>43900</v>
       </c>
       <c r="B62" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1">
-        <v>43902</v>
+        <v>43901</v>
       </c>
       <c r="B63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1">
-        <v>43903</v>
+        <v>43902</v>
       </c>
       <c r="B64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1">
-        <v>43904</v>
+        <v>43903</v>
       </c>
       <c r="B65" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1">
-        <v>43905</v>
+        <v>43904</v>
       </c>
       <c r="B66" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1">
-        <v>43906</v>
+        <v>43905</v>
       </c>
       <c r="B67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1">
-        <v>43907</v>
+        <v>43906</v>
       </c>
       <c r="B68" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1">
-        <v>43908</v>
+        <v>43907</v>
       </c>
       <c r="B69" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1">
-        <v>43909</v>
+        <v>43908</v>
       </c>
       <c r="B70" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="B71" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="B72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1">
-        <v>43912</v>
+        <v>43911</v>
       </c>
       <c r="B73" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1">
-        <v>43913</v>
+        <v>43912</v>
       </c>
       <c r="B74" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1">
-        <v>43914</v>
+        <v>43913</v>
       </c>
       <c r="B75" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1">
-        <v>43915</v>
+        <v>43914</v>
       </c>
       <c r="B76" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="1">
-        <v>43916</v>
+        <v>43915</v>
       </c>
       <c r="B77" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1">
-        <v>43917</v>
+        <v>43916</v>
       </c>
       <c r="B78" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="B79" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1">
-        <v>43919</v>
+        <v>43918</v>
       </c>
       <c r="B80" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1">
-        <v>43920</v>
+        <v>43919</v>
       </c>
       <c r="B81" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="B82" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1">
-        <v>43922</v>
+        <v>43921</v>
       </c>
       <c r="B83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="1">
-        <v>43923</v>
+        <v>43922</v>
       </c>
       <c r="B84" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="1">
-        <v>43924</v>
+        <v>43923</v>
       </c>
       <c r="B85" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1">
-        <v>43925</v>
+        <v>43924</v>
       </c>
       <c r="B86" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1">
-        <v>43926</v>
+        <v>43925</v>
       </c>
       <c r="B87" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1">
-        <v>43927</v>
+        <v>43926</v>
       </c>
       <c r="B88" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1">
-        <v>43928</v>
+        <v>43927</v>
       </c>
       <c r="B89" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1">
-        <v>43929</v>
+        <v>43928</v>
       </c>
       <c r="B90" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="1">
-        <v>43930</v>
+        <v>43929</v>
       </c>
       <c r="B91" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="1">
-        <v>43931</v>
+        <v>43930</v>
       </c>
       <c r="B92" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="1">
-        <v>43932</v>
+        <v>43931</v>
       </c>
       <c r="B93" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="1">
-        <v>43933</v>
+        <v>43932</v>
       </c>
       <c r="B94" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="1">
-        <v>43934</v>
+        <v>43933</v>
       </c>
       <c r="B95" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="1">
-        <v>43935</v>
+        <v>43934</v>
       </c>
       <c r="B96" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="1">
-        <v>43936</v>
+        <v>43935</v>
       </c>
       <c r="B97" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="1">
-        <v>43937</v>
+        <v>43936</v>
       </c>
       <c r="B98" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="1">
-        <v>43938</v>
+        <v>43937</v>
       </c>
       <c r="B99" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1">
-        <v>43939</v>
+        <v>43938</v>
       </c>
       <c r="B100" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="1">
-        <v>43940</v>
+        <v>43939</v>
       </c>
       <c r="B101" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="1">
-        <v>43941</v>
+        <v>43940</v>
       </c>
       <c r="B102" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="1">
-        <v>43942</v>
+        <v>43941</v>
       </c>
       <c r="B103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="1">
-        <v>43943</v>
+        <v>43942</v>
       </c>
       <c r="B104" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1">
-        <v>43944</v>
+        <v>43943</v>
       </c>
       <c r="B105" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1">
-        <v>43945</v>
+        <v>43944</v>
       </c>
       <c r="B106" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="1">
-        <v>43946</v>
+        <v>43945</v>
       </c>
       <c r="B107" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1">
-        <v>43947</v>
+        <v>43946</v>
       </c>
       <c r="B108" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1">
-        <v>43948</v>
+        <v>43947</v>
       </c>
       <c r="B109" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="1">
-        <v>43949</v>
+        <v>43948</v>
       </c>
       <c r="B110" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="1">
-        <v>43950</v>
+        <v>43949</v>
       </c>
       <c r="B111" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="1">
-        <v>43951</v>
+        <v>43950</v>
       </c>
       <c r="B112" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1">
-        <v>43952</v>
+        <v>43951</v>
       </c>
       <c r="B113" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="1">
-        <v>43953</v>
+        <v>43952</v>
       </c>
       <c r="B114" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="1">
-        <v>43954</v>
+        <v>43953</v>
       </c>
       <c r="B115" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="1">
-        <v>43955</v>
+        <v>43954</v>
       </c>
       <c r="B116" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="1">
-        <v>43956</v>
+        <v>43955</v>
       </c>
       <c r="B117" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="1">
-        <v>43957</v>
+        <v>43956</v>
       </c>
       <c r="B118" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="1">
-        <v>43958</v>
+        <v>43957</v>
       </c>
       <c r="B119" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="1">
-        <v>43959</v>
+        <v>43958</v>
       </c>
       <c r="B120" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="1">
-        <v>43960</v>
+        <v>43959</v>
       </c>
       <c r="B121" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="1">
-        <v>43961</v>
+        <v>43960</v>
       </c>
       <c r="B122" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="1">
-        <v>43962</v>
+        <v>43961</v>
       </c>
       <c r="B123" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="1">
-        <v>43963</v>
+        <v>43962</v>
       </c>
       <c r="B124" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="1">
-        <v>43964</v>
+        <v>43963</v>
       </c>
       <c r="B125" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="1">
-        <v>43965</v>
+        <v>43964</v>
       </c>
       <c r="B126" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="1">
-        <v>43966</v>
+        <v>43965</v>
       </c>
       <c r="B127" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="1">
-        <v>43967</v>
+        <v>43966</v>
       </c>
       <c r="B128" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="1">
-        <v>43968</v>
+        <v>43967</v>
       </c>
       <c r="B129" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="1">
-        <v>43969</v>
+        <v>43968</v>
       </c>
       <c r="B130" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="1">
-        <v>43970</v>
+        <v>43969</v>
       </c>
       <c r="B131" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="1">
-        <v>43971</v>
+        <v>43970</v>
       </c>
       <c r="B132" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="1">
-        <v>43972</v>
+        <v>43971</v>
       </c>
       <c r="B133" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="1">
-        <v>43973</v>
+        <v>43972</v>
       </c>
       <c r="B134" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="1">
-        <v>43974</v>
+        <v>43973</v>
       </c>
       <c r="B135" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="1">
-        <v>43975</v>
+        <v>43974</v>
       </c>
       <c r="B136" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="1">
-        <v>43976</v>
+        <v>43975</v>
       </c>
       <c r="B137" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="1">
-        <v>43977</v>
+        <v>43976</v>
       </c>
       <c r="B138" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="1">
-        <v>43978</v>
+        <v>43977</v>
       </c>
       <c r="B139" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="1">
-        <v>43979</v>
+        <v>43978</v>
       </c>
       <c r="B140" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="1">
-        <v>43980</v>
+        <v>43979</v>
       </c>
       <c r="B141" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="1">
-        <v>43981</v>
+        <v>43980</v>
       </c>
       <c r="B142" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="1">
-        <v>43982</v>
+        <v>43981</v>
       </c>
       <c r="B143" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="1">
-        <v>43983</v>
+        <v>43982</v>
       </c>
       <c r="B144" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="1">
-        <v>43984</v>
+        <v>43983</v>
       </c>
       <c r="B145" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B146" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="1">
         <v>43985</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B147" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2750,7 +2768,7 @@
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2923,20 +2941,23 @@
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>147</v>
       </c>
       <c r="B17" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" s="4" customFormat="1">
+      <c r="C17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" s="4" customFormat="1">
       <c r="A21" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
         <v>97</v>
       </c>
@@ -2944,7 +2965,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
         <v>104</v>
       </c>
@@ -2952,7 +2973,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
         <v>109</v>
       </c>
@@ -2960,7 +2981,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
         <v>111</v>
       </c>
@@ -2968,7 +2989,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
         <v>113</v>
       </c>
@@ -2976,7 +2997,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
         <v>115</v>
       </c>
@@ -2984,7 +3005,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
         <v>131</v>
       </c>
@@ -2992,7 +3013,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>129</v>
       </c>
@@ -3000,7 +3021,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
         <v>136</v>
       </c>
@@ -3008,7 +3029,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
         <v>144</v>
       </c>
@@ -3016,7 +3037,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>142</v>
       </c>

--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440"/>
   </bookViews>
   <sheets>
     <sheet name="По задачам" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="154">
   <si>
     <t>Дата начала</t>
   </si>
@@ -605,6 +605,12 @@
   </si>
   <si>
     <t>Пятую проблему решил )))</t>
+  </si>
+  <si>
+    <t>Шестую проблему решил )))</t>
+  </si>
+  <si>
+    <t>Friday Live Coding. Part 2    1:46</t>
   </si>
 </sst>
 </file>
@@ -994,7 +1000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -1348,10 +1354,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D147"/>
+  <dimension ref="A1:D148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1985,748 +1991,763 @@
       <c r="B54" t="s">
         <v>10</v>
       </c>
+      <c r="C54" t="s">
+        <v>88</v>
+      </c>
+      <c r="D54" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="1">
-        <v>43893</v>
-      </c>
-      <c r="B55" t="s">
-        <v>11</v>
+      <c r="A55" s="1"/>
+      <c r="C55" t="s">
+        <v>147</v>
+      </c>
+      <c r="D55" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1">
-        <v>43894</v>
+        <v>43893</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1">
-        <v>43895</v>
+        <v>43894</v>
       </c>
       <c r="B57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1">
-        <v>43896</v>
+        <v>43895</v>
       </c>
       <c r="B58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1">
-        <v>43897</v>
+        <v>43896</v>
       </c>
       <c r="B59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1">
-        <v>43898</v>
+        <v>43897</v>
       </c>
       <c r="B60" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1">
-        <v>43899</v>
+        <v>43898</v>
       </c>
       <c r="B61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1">
-        <v>43900</v>
+        <v>43899</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1">
-        <v>43901</v>
+        <v>43900</v>
       </c>
       <c r="B63" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1">
-        <v>43902</v>
+        <v>43901</v>
       </c>
       <c r="B64" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1">
-        <v>43903</v>
+        <v>43902</v>
       </c>
       <c r="B65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1">
-        <v>43904</v>
+        <v>43903</v>
       </c>
       <c r="B66" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1">
-        <v>43905</v>
+        <v>43904</v>
       </c>
       <c r="B67" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1">
-        <v>43906</v>
+        <v>43905</v>
       </c>
       <c r="B68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1">
-        <v>43907</v>
+        <v>43906</v>
       </c>
       <c r="B69" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1">
-        <v>43908</v>
+        <v>43907</v>
       </c>
       <c r="B70" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1">
-        <v>43909</v>
+        <v>43908</v>
       </c>
       <c r="B71" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="B72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="B73" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1">
-        <v>43912</v>
+        <v>43911</v>
       </c>
       <c r="B74" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1">
-        <v>43913</v>
+        <v>43912</v>
       </c>
       <c r="B75" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1">
-        <v>43914</v>
+        <v>43913</v>
       </c>
       <c r="B76" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="1">
-        <v>43915</v>
+        <v>43914</v>
       </c>
       <c r="B77" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1">
-        <v>43916</v>
+        <v>43915</v>
       </c>
       <c r="B78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1">
-        <v>43917</v>
+        <v>43916</v>
       </c>
       <c r="B79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="B80" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1">
-        <v>43919</v>
+        <v>43918</v>
       </c>
       <c r="B81" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1">
-        <v>43920</v>
+        <v>43919</v>
       </c>
       <c r="B82" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="B83" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="1">
-        <v>43922</v>
+        <v>43921</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="1">
-        <v>43923</v>
+        <v>43922</v>
       </c>
       <c r="B85" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1">
-        <v>43924</v>
+        <v>43923</v>
       </c>
       <c r="B86" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1">
-        <v>43925</v>
+        <v>43924</v>
       </c>
       <c r="B87" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1">
-        <v>43926</v>
+        <v>43925</v>
       </c>
       <c r="B88" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1">
-        <v>43927</v>
+        <v>43926</v>
       </c>
       <c r="B89" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1">
-        <v>43928</v>
+        <v>43927</v>
       </c>
       <c r="B90" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="1">
-        <v>43929</v>
+        <v>43928</v>
       </c>
       <c r="B91" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="1">
-        <v>43930</v>
+        <v>43929</v>
       </c>
       <c r="B92" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="1">
-        <v>43931</v>
+        <v>43930</v>
       </c>
       <c r="B93" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="1">
-        <v>43932</v>
+        <v>43931</v>
       </c>
       <c r="B94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="1">
-        <v>43933</v>
+        <v>43932</v>
       </c>
       <c r="B95" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="1">
-        <v>43934</v>
+        <v>43933</v>
       </c>
       <c r="B96" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="1">
-        <v>43935</v>
+        <v>43934</v>
       </c>
       <c r="B97" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="1">
-        <v>43936</v>
+        <v>43935</v>
       </c>
       <c r="B98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="1">
-        <v>43937</v>
+        <v>43936</v>
       </c>
       <c r="B99" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1">
-        <v>43938</v>
+        <v>43937</v>
       </c>
       <c r="B100" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="1">
-        <v>43939</v>
+        <v>43938</v>
       </c>
       <c r="B101" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="1">
-        <v>43940</v>
+        <v>43939</v>
       </c>
       <c r="B102" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="1">
-        <v>43941</v>
+        <v>43940</v>
       </c>
       <c r="B103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="1">
-        <v>43942</v>
+        <v>43941</v>
       </c>
       <c r="B104" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1">
-        <v>43943</v>
+        <v>43942</v>
       </c>
       <c r="B105" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1">
-        <v>43944</v>
+        <v>43943</v>
       </c>
       <c r="B106" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="1">
-        <v>43945</v>
+        <v>43944</v>
       </c>
       <c r="B107" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1">
-        <v>43946</v>
+        <v>43945</v>
       </c>
       <c r="B108" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1">
-        <v>43947</v>
+        <v>43946</v>
       </c>
       <c r="B109" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="1">
-        <v>43948</v>
+        <v>43947</v>
       </c>
       <c r="B110" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="1">
-        <v>43949</v>
+        <v>43948</v>
       </c>
       <c r="B111" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="1">
-        <v>43950</v>
+        <v>43949</v>
       </c>
       <c r="B112" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1">
-        <v>43951</v>
+        <v>43950</v>
       </c>
       <c r="B113" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="1">
-        <v>43952</v>
+        <v>43951</v>
       </c>
       <c r="B114" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="1">
-        <v>43953</v>
+        <v>43952</v>
       </c>
       <c r="B115" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="1">
-        <v>43954</v>
+        <v>43953</v>
       </c>
       <c r="B116" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="1">
-        <v>43955</v>
+        <v>43954</v>
       </c>
       <c r="B117" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="1">
-        <v>43956</v>
+        <v>43955</v>
       </c>
       <c r="B118" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="1">
-        <v>43957</v>
+        <v>43956</v>
       </c>
       <c r="B119" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="1">
-        <v>43958</v>
+        <v>43957</v>
       </c>
       <c r="B120" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="1">
-        <v>43959</v>
+        <v>43958</v>
       </c>
       <c r="B121" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="1">
-        <v>43960</v>
+        <v>43959</v>
       </c>
       <c r="B122" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="1">
-        <v>43961</v>
+        <v>43960</v>
       </c>
       <c r="B123" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="1">
-        <v>43962</v>
+        <v>43961</v>
       </c>
       <c r="B124" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="1">
-        <v>43963</v>
+        <v>43962</v>
       </c>
       <c r="B125" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="1">
-        <v>43964</v>
+        <v>43963</v>
       </c>
       <c r="B126" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="1">
-        <v>43965</v>
+        <v>43964</v>
       </c>
       <c r="B127" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="1">
-        <v>43966</v>
+        <v>43965</v>
       </c>
       <c r="B128" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="1">
-        <v>43967</v>
+        <v>43966</v>
       </c>
       <c r="B129" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="1">
-        <v>43968</v>
+        <v>43967</v>
       </c>
       <c r="B130" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="1">
-        <v>43969</v>
+        <v>43968</v>
       </c>
       <c r="B131" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="1">
-        <v>43970</v>
+        <v>43969</v>
       </c>
       <c r="B132" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="1">
-        <v>43971</v>
+        <v>43970</v>
       </c>
       <c r="B133" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="1">
-        <v>43972</v>
+        <v>43971</v>
       </c>
       <c r="B134" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="1">
-        <v>43973</v>
+        <v>43972</v>
       </c>
       <c r="B135" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="1">
-        <v>43974</v>
+        <v>43973</v>
       </c>
       <c r="B136" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="1">
-        <v>43975</v>
+        <v>43974</v>
       </c>
       <c r="B137" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="1">
-        <v>43976</v>
+        <v>43975</v>
       </c>
       <c r="B138" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="1">
-        <v>43977</v>
+        <v>43976</v>
       </c>
       <c r="B139" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="1">
-        <v>43978</v>
+        <v>43977</v>
       </c>
       <c r="B140" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="1">
-        <v>43979</v>
+        <v>43978</v>
       </c>
       <c r="B141" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="1">
-        <v>43980</v>
+        <v>43979</v>
       </c>
       <c r="B142" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="1">
-        <v>43981</v>
+        <v>43980</v>
       </c>
       <c r="B143" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="1">
-        <v>43982</v>
+        <v>43981</v>
       </c>
       <c r="B144" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="1">
-        <v>43983</v>
+        <v>43982</v>
       </c>
       <c r="B145" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="1">
-        <v>43984</v>
+        <v>43983</v>
       </c>
       <c r="B146" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B147" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="1">
         <v>43985</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B148" t="s">
         <v>12</v>
       </c>
     </row>

--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="По задачам" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="162">
   <si>
     <t>Дата начала</t>
   </si>
@@ -611,6 +611,30 @@
   </si>
   <si>
     <t>Friday Live Coding. Part 2    1:46</t>
+  </si>
+  <si>
+    <t>Friday Live Coding. Part 2 закончил</t>
+  </si>
+  <si>
+    <t>Седьмую проблему решил )))</t>
+  </si>
+  <si>
+    <t>https://sass-scss.ru/</t>
+  </si>
+  <si>
+    <t>Sass</t>
+  </si>
+  <si>
+    <t>npm install css-extractor</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/css-extractor</t>
+  </si>
+  <si>
+    <t>http://extractcss.com/</t>
+  </si>
+  <si>
+    <t>css экстрактор</t>
   </si>
 </sst>
 </file>
@@ -998,10 +1022,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1338,15 +1362,27 @@
         <v>43889</v>
       </c>
       <c r="B28" s="1">
-        <v>43889</v>
+        <v>43893</v>
       </c>
       <c r="C28" t="s">
         <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>43893</v>
+      </c>
+      <c r="B29" s="1">
+        <v>43893</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C27" r:id="rId1" display="https://www.youtube.com/watch?v=ZAde-IJAHzo"/>
+    <hyperlink ref="C29" r:id="rId2" display="https://www.youtube.com/watch?v=HihYQVuH64U"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1354,10 +1390,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D148"/>
+  <dimension ref="A1:D150"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2014,740 +2050,764 @@
       <c r="B56" t="s">
         <v>11</v>
       </c>
+      <c r="C56" t="s">
+        <v>147</v>
+      </c>
+      <c r="D56" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="1">
-        <v>43894</v>
-      </c>
-      <c r="B57" t="s">
-        <v>12</v>
+      <c r="A57" s="1"/>
+      <c r="C57" t="s">
+        <v>88</v>
+      </c>
+      <c r="D57" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="1">
-        <v>43895</v>
-      </c>
-      <c r="B58" t="s">
-        <v>13</v>
+      <c r="A58" s="1"/>
+      <c r="C58" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D58" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1">
-        <v>43896</v>
+        <v>43894</v>
       </c>
       <c r="B59" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1">
-        <v>43897</v>
+        <v>43895</v>
       </c>
       <c r="B60" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1">
-        <v>43898</v>
+        <v>43896</v>
       </c>
       <c r="B61" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1">
-        <v>43899</v>
+        <v>43897</v>
       </c>
       <c r="B62" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1">
-        <v>43900</v>
+        <v>43898</v>
       </c>
       <c r="B63" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1">
-        <v>43901</v>
+        <v>43899</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1">
-        <v>43902</v>
+        <v>43900</v>
       </c>
       <c r="B65" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1">
-        <v>43903</v>
+        <v>43901</v>
       </c>
       <c r="B66" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1">
-        <v>43904</v>
+        <v>43902</v>
       </c>
       <c r="B67" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1">
-        <v>43905</v>
+        <v>43903</v>
       </c>
       <c r="B68" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1">
-        <v>43906</v>
+        <v>43904</v>
       </c>
       <c r="B69" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1">
-        <v>43907</v>
+        <v>43905</v>
       </c>
       <c r="B70" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1">
-        <v>43908</v>
+        <v>43906</v>
       </c>
       <c r="B71" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1">
-        <v>43909</v>
+        <v>43907</v>
       </c>
       <c r="B72" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1">
-        <v>43910</v>
+        <v>43908</v>
       </c>
       <c r="B73" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1">
-        <v>43911</v>
+        <v>43909</v>
       </c>
       <c r="B74" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1">
-        <v>43912</v>
+        <v>43910</v>
       </c>
       <c r="B75" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1">
-        <v>43913</v>
+        <v>43911</v>
       </c>
       <c r="B76" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="1">
-        <v>43914</v>
+        <v>43912</v>
       </c>
       <c r="B77" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1">
-        <v>43915</v>
+        <v>43913</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1">
-        <v>43916</v>
+        <v>43914</v>
       </c>
       <c r="B79" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1">
-        <v>43917</v>
+        <v>43915</v>
       </c>
       <c r="B80" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1">
-        <v>43918</v>
+        <v>43916</v>
       </c>
       <c r="B81" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1">
-        <v>43919</v>
+        <v>43917</v>
       </c>
       <c r="B82" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1">
-        <v>43920</v>
+        <v>43918</v>
       </c>
       <c r="B83" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="1">
-        <v>43921</v>
+        <v>43919</v>
       </c>
       <c r="B84" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="1">
-        <v>43922</v>
+        <v>43920</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1">
-        <v>43923</v>
+        <v>43921</v>
       </c>
       <c r="B86" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1">
-        <v>43924</v>
+        <v>43922</v>
       </c>
       <c r="B87" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1">
-        <v>43925</v>
+        <v>43923</v>
       </c>
       <c r="B88" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1">
-        <v>43926</v>
+        <v>43924</v>
       </c>
       <c r="B89" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1">
-        <v>43927</v>
+        <v>43925</v>
       </c>
       <c r="B90" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="1">
-        <v>43928</v>
+        <v>43926</v>
       </c>
       <c r="B91" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="1">
-        <v>43929</v>
+        <v>43927</v>
       </c>
       <c r="B92" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="1">
-        <v>43930</v>
+        <v>43928</v>
       </c>
       <c r="B93" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="1">
-        <v>43931</v>
+        <v>43929</v>
       </c>
       <c r="B94" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="1">
-        <v>43932</v>
+        <v>43930</v>
       </c>
       <c r="B95" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="1">
-        <v>43933</v>
+        <v>43931</v>
       </c>
       <c r="B96" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="1">
-        <v>43934</v>
+        <v>43932</v>
       </c>
       <c r="B97" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="1">
-        <v>43935</v>
+        <v>43933</v>
       </c>
       <c r="B98" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="1">
-        <v>43936</v>
+        <v>43934</v>
       </c>
       <c r="B99" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1">
-        <v>43937</v>
+        <v>43935</v>
       </c>
       <c r="B100" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="1">
-        <v>43938</v>
+        <v>43936</v>
       </c>
       <c r="B101" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="1">
-        <v>43939</v>
+        <v>43937</v>
       </c>
       <c r="B102" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="1">
-        <v>43940</v>
+        <v>43938</v>
       </c>
       <c r="B103" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="1">
-        <v>43941</v>
+        <v>43939</v>
       </c>
       <c r="B104" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1">
-        <v>43942</v>
+        <v>43940</v>
       </c>
       <c r="B105" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1">
-        <v>43943</v>
+        <v>43941</v>
       </c>
       <c r="B106" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="1">
-        <v>43944</v>
+        <v>43942</v>
       </c>
       <c r="B107" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1">
-        <v>43945</v>
+        <v>43943</v>
       </c>
       <c r="B108" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1">
-        <v>43946</v>
+        <v>43944</v>
       </c>
       <c r="B109" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="1">
-        <v>43947</v>
+        <v>43945</v>
       </c>
       <c r="B110" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="1">
-        <v>43948</v>
+        <v>43946</v>
       </c>
       <c r="B111" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="1">
-        <v>43949</v>
+        <v>43947</v>
       </c>
       <c r="B112" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1">
-        <v>43950</v>
+        <v>43948</v>
       </c>
       <c r="B113" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="1">
-        <v>43951</v>
+        <v>43949</v>
       </c>
       <c r="B114" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="1">
-        <v>43952</v>
+        <v>43950</v>
       </c>
       <c r="B115" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="1">
-        <v>43953</v>
+        <v>43951</v>
       </c>
       <c r="B116" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="1">
-        <v>43954</v>
+        <v>43952</v>
       </c>
       <c r="B117" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="1">
-        <v>43955</v>
+        <v>43953</v>
       </c>
       <c r="B118" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="1">
-        <v>43956</v>
+        <v>43954</v>
       </c>
       <c r="B119" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="1">
-        <v>43957</v>
+        <v>43955</v>
       </c>
       <c r="B120" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="1">
-        <v>43958</v>
+        <v>43956</v>
       </c>
       <c r="B121" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="1">
-        <v>43959</v>
+        <v>43957</v>
       </c>
       <c r="B122" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="1">
-        <v>43960</v>
+        <v>43958</v>
       </c>
       <c r="B123" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="1">
-        <v>43961</v>
+        <v>43959</v>
       </c>
       <c r="B124" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="1">
-        <v>43962</v>
+        <v>43960</v>
       </c>
       <c r="B125" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="1">
-        <v>43963</v>
+        <v>43961</v>
       </c>
       <c r="B126" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="1">
-        <v>43964</v>
+        <v>43962</v>
       </c>
       <c r="B127" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="1">
-        <v>43965</v>
+        <v>43963</v>
       </c>
       <c r="B128" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="1">
-        <v>43966</v>
+        <v>43964</v>
       </c>
       <c r="B129" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="1">
-        <v>43967</v>
+        <v>43965</v>
       </c>
       <c r="B130" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="1">
-        <v>43968</v>
+        <v>43966</v>
       </c>
       <c r="B131" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="1">
-        <v>43969</v>
+        <v>43967</v>
       </c>
       <c r="B132" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="1">
-        <v>43970</v>
+        <v>43968</v>
       </c>
       <c r="B133" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="1">
-        <v>43971</v>
+        <v>43969</v>
       </c>
       <c r="B134" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="1">
-        <v>43972</v>
+        <v>43970</v>
       </c>
       <c r="B135" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="1">
-        <v>43973</v>
+        <v>43971</v>
       </c>
       <c r="B136" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="1">
-        <v>43974</v>
+        <v>43972</v>
       </c>
       <c r="B137" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="1">
-        <v>43975</v>
+        <v>43973</v>
       </c>
       <c r="B138" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="1">
-        <v>43976</v>
+        <v>43974</v>
       </c>
       <c r="B139" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="1">
-        <v>43977</v>
+        <v>43975</v>
       </c>
       <c r="B140" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="1">
-        <v>43978</v>
+        <v>43976</v>
       </c>
       <c r="B141" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="1">
-        <v>43979</v>
+        <v>43977</v>
       </c>
       <c r="B142" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="1">
-        <v>43980</v>
+        <v>43978</v>
       </c>
       <c r="B143" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="1">
-        <v>43981</v>
+        <v>43979</v>
       </c>
       <c r="B144" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="1">
-        <v>43982</v>
+        <v>43980</v>
       </c>
       <c r="B145" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="1">
-        <v>43983</v>
+        <v>43981</v>
       </c>
       <c r="B146" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="1">
-        <v>43984</v>
+        <v>43982</v>
       </c>
       <c r="B147" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B148" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B149" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="1">
         <v>43985</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B150" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2778,18 +2838,19 @@
     <hyperlink ref="C47" r:id="rId23"/>
     <hyperlink ref="D49" r:id="rId24" display="https://www.youtube.com/watch?v=ZAde-IJAHzo"/>
     <hyperlink ref="C49" r:id="rId25"/>
+    <hyperlink ref="C58" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId26"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2973,6 +3034,17 @@
         <v>132</v>
       </c>
     </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" t="s">
+        <v>132</v>
+      </c>
+    </row>
     <row r="21" spans="1:3" s="4" customFormat="1">
       <c r="A21" s="5" t="s">
         <v>36</v>
@@ -3149,6 +3221,30 @@
       </c>
       <c r="B46" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>156</v>
+      </c>
+      <c r="B47" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>159</v>
+      </c>
+      <c r="B48" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>160</v>
+      </c>
+      <c r="B49" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -3173,9 +3269,10 @@
     <hyperlink ref="A30" r:id="rId18"/>
     <hyperlink ref="A15" r:id="rId19"/>
     <hyperlink ref="A16" r:id="rId20"/>
+    <hyperlink ref="A18" r:id="rId21"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
-  <legacyDrawing r:id="rId22"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
+  <legacyDrawing r:id="rId23"/>
 </worksheet>
 </file>
--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="163">
   <si>
     <t>Дата начала</t>
   </si>
@@ -635,6 +635,9 @@
   </si>
   <si>
     <t>css экстрактор</t>
+  </si>
+  <si>
+    <t>Восьмую проблему решил )))</t>
   </si>
 </sst>
 </file>
@@ -1393,7 +1396,7 @@
   <dimension ref="A1:D150"/>
   <sheetViews>
     <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2081,6 +2084,12 @@
       </c>
       <c r="B59" t="s">
         <v>12</v>
+      </c>
+      <c r="C59" t="s">
+        <v>88</v>
+      </c>
+      <c r="D59" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="60" spans="1:4">

--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="По задачам" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="165">
   <si>
     <t>Дата начала</t>
   </si>
@@ -638,6 +638,12 @@
   </si>
   <si>
     <t>Восьмую проблему решил )))</t>
+  </si>
+  <si>
+    <t>Основы HTML &amp; CSS. Тест 1. Вариант 1</t>
+  </si>
+  <si>
+    <t>тест прошел</t>
   </si>
 </sst>
 </file>
@@ -1025,10 +1031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1382,6 +1388,17 @@
         <v>139</v>
       </c>
     </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>43895</v>
+      </c>
+      <c r="B30" s="1">
+        <v>43895</v>
+      </c>
+      <c r="C30" t="s">
+        <v>163</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C27" r:id="rId1" display="https://www.youtube.com/watch?v=ZAde-IJAHzo"/>
@@ -1395,8 +1412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D150"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2098,6 +2115,12 @@
       </c>
       <c r="B60" t="s">
         <v>13</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D60" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2848,9 +2871,10 @@
     <hyperlink ref="D49" r:id="rId24" display="https://www.youtube.com/watch?v=ZAde-IJAHzo"/>
     <hyperlink ref="C49" r:id="rId25"/>
     <hyperlink ref="C58" r:id="rId26"/>
+    <hyperlink ref="C60" r:id="rId27" display="https://docs.google.com/forms/d/e/1FAIpQLScHaTjoazbz8mworB6A-mP1tZf_adJLreQ_VwfYQYgOANOC-A/viewform"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
 </worksheet>
 </file>
 
@@ -2858,7 +2882,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>

--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440"/>
   </bookViews>
   <sheets>
     <sheet name="По задачам" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="169">
   <si>
     <t>Дата начала</t>
   </si>
@@ -644,6 +644,18 @@
   </si>
   <si>
     <t>тест прошел</t>
+  </si>
+  <si>
+    <t>Stream 03.03.2020</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PhRVJC0kBGE</t>
+  </si>
+  <si>
+    <t>Singolo part 3</t>
+  </si>
+  <si>
+    <t>начал Singolo 3</t>
   </si>
 </sst>
 </file>
@@ -1031,10 +1043,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1399,6 +1411,25 @@
         <v>163</v>
       </c>
     </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>43896</v>
+      </c>
+      <c r="B31" s="1">
+        <v>43897</v>
+      </c>
+      <c r="C31" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>43897</v>
+      </c>
+      <c r="C32" t="s">
+        <v>167</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C27" r:id="rId1" display="https://www.youtube.com/watch?v=ZAde-IJAHzo"/>
@@ -1410,10 +1441,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D150"/>
+  <dimension ref="A1:D151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2130,6 +2161,12 @@
       <c r="B61" t="s">
         <v>14</v>
       </c>
+      <c r="C61" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D61" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1">
@@ -2138,708 +2175,723 @@
       <c r="B62" t="s">
         <v>15</v>
       </c>
+      <c r="C62" t="s">
+        <v>166</v>
+      </c>
+      <c r="D62" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="1">
-        <v>43898</v>
-      </c>
-      <c r="B63" t="s">
-        <v>9</v>
+      <c r="A63" s="1"/>
+      <c r="C63" t="s">
+        <v>167</v>
+      </c>
+      <c r="D63" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1">
-        <v>43899</v>
+        <v>43898</v>
       </c>
       <c r="B64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1">
-        <v>43900</v>
+        <v>43899</v>
       </c>
       <c r="B65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1">
-        <v>43901</v>
+        <v>43900</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1">
-        <v>43902</v>
+        <v>43901</v>
       </c>
       <c r="B67" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1">
-        <v>43903</v>
+        <v>43902</v>
       </c>
       <c r="B68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1">
-        <v>43904</v>
+        <v>43903</v>
       </c>
       <c r="B69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1">
-        <v>43905</v>
+        <v>43904</v>
       </c>
       <c r="B70" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1">
-        <v>43906</v>
+        <v>43905</v>
       </c>
       <c r="B71" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1">
-        <v>43907</v>
+        <v>43906</v>
       </c>
       <c r="B72" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1">
-        <v>43908</v>
+        <v>43907</v>
       </c>
       <c r="B73" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1">
-        <v>43909</v>
+        <v>43908</v>
       </c>
       <c r="B74" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="B75" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="B76" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="1">
-        <v>43912</v>
+        <v>43911</v>
       </c>
       <c r="B77" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1">
-        <v>43913</v>
+        <v>43912</v>
       </c>
       <c r="B78" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1">
-        <v>43914</v>
+        <v>43913</v>
       </c>
       <c r="B79" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1">
-        <v>43915</v>
+        <v>43914</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1">
-        <v>43916</v>
+        <v>43915</v>
       </c>
       <c r="B81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1">
-        <v>43917</v>
+        <v>43916</v>
       </c>
       <c r="B82" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="B83" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="1">
-        <v>43919</v>
+        <v>43918</v>
       </c>
       <c r="B84" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="1">
-        <v>43920</v>
+        <v>43919</v>
       </c>
       <c r="B85" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="B86" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1">
-        <v>43922</v>
+        <v>43921</v>
       </c>
       <c r="B87" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1">
-        <v>43923</v>
+        <v>43922</v>
       </c>
       <c r="B88" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1">
-        <v>43924</v>
+        <v>43923</v>
       </c>
       <c r="B89" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1">
-        <v>43925</v>
+        <v>43924</v>
       </c>
       <c r="B90" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="1">
-        <v>43926</v>
+        <v>43925</v>
       </c>
       <c r="B91" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="1">
-        <v>43927</v>
+        <v>43926</v>
       </c>
       <c r="B92" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="1">
-        <v>43928</v>
+        <v>43927</v>
       </c>
       <c r="B93" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="1">
-        <v>43929</v>
+        <v>43928</v>
       </c>
       <c r="B94" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="1">
-        <v>43930</v>
+        <v>43929</v>
       </c>
       <c r="B95" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="1">
-        <v>43931</v>
+        <v>43930</v>
       </c>
       <c r="B96" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="1">
-        <v>43932</v>
+        <v>43931</v>
       </c>
       <c r="B97" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="1">
-        <v>43933</v>
+        <v>43932</v>
       </c>
       <c r="B98" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="1">
-        <v>43934</v>
+        <v>43933</v>
       </c>
       <c r="B99" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1">
-        <v>43935</v>
+        <v>43934</v>
       </c>
       <c r="B100" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="1">
-        <v>43936</v>
+        <v>43935</v>
       </c>
       <c r="B101" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="1">
-        <v>43937</v>
+        <v>43936</v>
       </c>
       <c r="B102" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="1">
-        <v>43938</v>
+        <v>43937</v>
       </c>
       <c r="B103" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="1">
-        <v>43939</v>
+        <v>43938</v>
       </c>
       <c r="B104" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1">
-        <v>43940</v>
+        <v>43939</v>
       </c>
       <c r="B105" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1">
-        <v>43941</v>
+        <v>43940</v>
       </c>
       <c r="B106" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="1">
-        <v>43942</v>
+        <v>43941</v>
       </c>
       <c r="B107" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1">
-        <v>43943</v>
+        <v>43942</v>
       </c>
       <c r="B108" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1">
-        <v>43944</v>
+        <v>43943</v>
       </c>
       <c r="B109" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="1">
-        <v>43945</v>
+        <v>43944</v>
       </c>
       <c r="B110" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="1">
-        <v>43946</v>
+        <v>43945</v>
       </c>
       <c r="B111" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="1">
-        <v>43947</v>
+        <v>43946</v>
       </c>
       <c r="B112" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1">
-        <v>43948</v>
+        <v>43947</v>
       </c>
       <c r="B113" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="1">
-        <v>43949</v>
+        <v>43948</v>
       </c>
       <c r="B114" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="1">
-        <v>43950</v>
+        <v>43949</v>
       </c>
       <c r="B115" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="1">
-        <v>43951</v>
+        <v>43950</v>
       </c>
       <c r="B116" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="1">
-        <v>43952</v>
+        <v>43951</v>
       </c>
       <c r="B117" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="1">
-        <v>43953</v>
+        <v>43952</v>
       </c>
       <c r="B118" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="1">
-        <v>43954</v>
+        <v>43953</v>
       </c>
       <c r="B119" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="1">
-        <v>43955</v>
+        <v>43954</v>
       </c>
       <c r="B120" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="1">
-        <v>43956</v>
+        <v>43955</v>
       </c>
       <c r="B121" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="1">
-        <v>43957</v>
+        <v>43956</v>
       </c>
       <c r="B122" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="1">
-        <v>43958</v>
+        <v>43957</v>
       </c>
       <c r="B123" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="1">
-        <v>43959</v>
+        <v>43958</v>
       </c>
       <c r="B124" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="1">
-        <v>43960</v>
+        <v>43959</v>
       </c>
       <c r="B125" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="1">
-        <v>43961</v>
+        <v>43960</v>
       </c>
       <c r="B126" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="1">
-        <v>43962</v>
+        <v>43961</v>
       </c>
       <c r="B127" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="1">
-        <v>43963</v>
+        <v>43962</v>
       </c>
       <c r="B128" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="1">
-        <v>43964</v>
+        <v>43963</v>
       </c>
       <c r="B129" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="1">
-        <v>43965</v>
+        <v>43964</v>
       </c>
       <c r="B130" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="1">
-        <v>43966</v>
+        <v>43965</v>
       </c>
       <c r="B131" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="1">
-        <v>43967</v>
+        <v>43966</v>
       </c>
       <c r="B132" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="1">
-        <v>43968</v>
+        <v>43967</v>
       </c>
       <c r="B133" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="1">
-        <v>43969</v>
+        <v>43968</v>
       </c>
       <c r="B134" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="1">
-        <v>43970</v>
+        <v>43969</v>
       </c>
       <c r="B135" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="1">
-        <v>43971</v>
+        <v>43970</v>
       </c>
       <c r="B136" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="1">
-        <v>43972</v>
+        <v>43971</v>
       </c>
       <c r="B137" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="1">
-        <v>43973</v>
+        <v>43972</v>
       </c>
       <c r="B138" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="1">
-        <v>43974</v>
+        <v>43973</v>
       </c>
       <c r="B139" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="1">
-        <v>43975</v>
+        <v>43974</v>
       </c>
       <c r="B140" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="1">
-        <v>43976</v>
+        <v>43975</v>
       </c>
       <c r="B141" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="1">
-        <v>43977</v>
+        <v>43976</v>
       </c>
       <c r="B142" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="1">
-        <v>43978</v>
+        <v>43977</v>
       </c>
       <c r="B143" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="1">
-        <v>43979</v>
+        <v>43978</v>
       </c>
       <c r="B144" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="1">
-        <v>43980</v>
+        <v>43979</v>
       </c>
       <c r="B145" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="1">
-        <v>43981</v>
+        <v>43980</v>
       </c>
       <c r="B146" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="1">
-        <v>43982</v>
+        <v>43981</v>
       </c>
       <c r="B147" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="1">
-        <v>43983</v>
+        <v>43982</v>
       </c>
       <c r="B148" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="1">
-        <v>43984</v>
+        <v>43983</v>
       </c>
       <c r="B149" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B150" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="1">
         <v>43985</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B151" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2872,18 +2924,19 @@
     <hyperlink ref="C49" r:id="rId25"/>
     <hyperlink ref="C58" r:id="rId26"/>
     <hyperlink ref="C60" r:id="rId27" display="https://docs.google.com/forms/d/e/1FAIpQLScHaTjoazbz8mworB6A-mP1tZf_adJLreQ_VwfYQYgOANOC-A/viewform"/>
+    <hyperlink ref="C61" r:id="rId28"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3078,234 +3131,246 @@
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="4" customFormat="1">
-      <c r="A21" s="5" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" s="4" customFormat="1">
+      <c r="A26" s="5" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B22" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B23" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B24" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B25" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B26" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="B27" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="B28" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>129</v>
+      <c r="A29" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="B29" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="B30" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>129</v>
+      </c>
+      <c r="B34" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B36" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
         <v>142</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B37" s="8" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
         <v>145</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B38" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="4" customFormat="1">
-      <c r="A37" s="5" t="s">
+    <row r="42" spans="1:2" s="4" customFormat="1">
+      <c r="A42" s="5" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>49</v>
-      </c>
-      <c r="B41" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B42" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="2" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>84</v>
+      <c r="A44" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="2" t="s">
-        <v>85</v>
+      <c r="A45" t="s">
+        <v>47</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>156</v>
+      <c r="A47" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="B47" t="s">
-        <v>157</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>159</v>
+      <c r="A48" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="B48" t="s">
-        <v>158</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>93</v>
+      </c>
+      <c r="B51" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B52" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>159</v>
+      </c>
+      <c r="B53" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
         <v>160</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B54" t="s">
         <v>161</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A38" r:id="rId1"/>
+    <hyperlink ref="A43" r:id="rId1"/>
     <hyperlink ref="A6" r:id="rId2"/>
-    <hyperlink ref="A39" r:id="rId3"/>
+    <hyperlink ref="A44" r:id="rId3"/>
     <hyperlink ref="A7" r:id="rId4"/>
-    <hyperlink ref="A42" r:id="rId5"/>
+    <hyperlink ref="A47" r:id="rId5"/>
     <hyperlink ref="A9" r:id="rId6"/>
     <hyperlink ref="A10" r:id="rId7"/>
-    <hyperlink ref="A43" r:id="rId8"/>
-    <hyperlink ref="A45" r:id="rId9"/>
+    <hyperlink ref="A48" r:id="rId8"/>
+    <hyperlink ref="A50" r:id="rId9"/>
     <hyperlink ref="A11" r:id="rId10"/>
-    <hyperlink ref="A22" r:id="rId11" location="/2"/>
-    <hyperlink ref="A24" r:id="rId12"/>
-    <hyperlink ref="A25" r:id="rId13"/>
-    <hyperlink ref="A26" r:id="rId14"/>
-    <hyperlink ref="A27" r:id="rId15"/>
+    <hyperlink ref="A27" r:id="rId11" location="/2"/>
+    <hyperlink ref="A29" r:id="rId12"/>
+    <hyperlink ref="A30" r:id="rId13"/>
+    <hyperlink ref="A31" r:id="rId14"/>
+    <hyperlink ref="A32" r:id="rId15"/>
     <hyperlink ref="A13" r:id="rId16"/>
     <hyperlink ref="A14" r:id="rId17"/>
-    <hyperlink ref="A30" r:id="rId18"/>
+    <hyperlink ref="A35" r:id="rId18"/>
     <hyperlink ref="A15" r:id="rId19"/>
     <hyperlink ref="A16" r:id="rId20"/>
     <hyperlink ref="A18" r:id="rId21"/>
+    <hyperlink ref="A19" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
-  <legacyDrawing r:id="rId23"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
+  <legacyDrawing r:id="rId24"/>
 </worksheet>
 </file>
--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -655,7 +655,7 @@
     <t>Singolo part 3</t>
   </si>
   <si>
-    <t>начал Singolo 3</t>
+    <t>сделал Singolo 3</t>
   </si>
 </sst>
 </file>
@@ -1046,7 +1046,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1424,6 +1424,9 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1">
+        <v>43897</v>
+      </c>
+      <c r="B32" s="1">
         <v>43897</v>
       </c>
       <c r="C32" t="s">
@@ -1444,7 +1447,7 @@
   <dimension ref="A1:D151"/>
   <sheetViews>
     <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="173">
   <si>
     <t>Дата начала</t>
   </si>
@@ -656,6 +656,18 @@
   </si>
   <si>
     <t>сделал Singolo 3</t>
+  </si>
+  <si>
+    <t>Основы HTML &amp; CSS. Тест 1. Вариант 2</t>
+  </si>
+  <si>
+    <t>49 / 100</t>
+  </si>
+  <si>
+    <t>Singolo part 3, объединил всё в 1 файл</t>
+  </si>
+  <si>
+    <t>второй раз тест прошел</t>
   </si>
 </sst>
 </file>
@@ -1043,10 +1055,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1410,6 +1422,9 @@
       <c r="C30" t="s">
         <v>163</v>
       </c>
+      <c r="D30" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1">
@@ -1431,6 +1446,28 @@
       </c>
       <c r="C32" t="s">
         <v>167</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>43898</v>
+      </c>
+      <c r="B33" s="1">
+        <v>43898</v>
+      </c>
+      <c r="C33" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>43898</v>
+      </c>
+      <c r="B34" s="1">
+        <v>43898</v>
+      </c>
+      <c r="C34" t="s">
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -1444,10 +1481,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D151"/>
+  <dimension ref="A1:D152"/>
   <sheetViews>
     <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2201,700 +2238,715 @@
       <c r="B64" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="1">
+      <c r="C64" t="s">
+        <v>169</v>
+      </c>
+      <c r="D64" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1"/>
+      <c r="C65" t="s">
+        <v>171</v>
+      </c>
+      <c r="D65" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1">
         <v>43899</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B66" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="1">
+    <row r="67" spans="1:4">
+      <c r="A67" s="1">
         <v>43900</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="1">
+    <row r="68" spans="1:4">
+      <c r="A68" s="1">
         <v>43901</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B68" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="1">
+    <row r="69" spans="1:4">
+      <c r="A69" s="1">
         <v>43902</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B69" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="1">
+    <row r="70" spans="1:4">
+      <c r="A70" s="1">
         <v>43903</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B70" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="1">
+    <row r="71" spans="1:4">
+      <c r="A71" s="1">
         <v>43904</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B71" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="1">
+    <row r="72" spans="1:4">
+      <c r="A72" s="1">
         <v>43905</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B72" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="1">
+    <row r="73" spans="1:4">
+      <c r="A73" s="1">
         <v>43906</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="1">
+    <row r="74" spans="1:4">
+      <c r="A74" s="1">
         <v>43907</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B74" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="1">
+    <row r="75" spans="1:4">
+      <c r="A75" s="1">
         <v>43908</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B75" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="1">
+    <row r="76" spans="1:4">
+      <c r="A76" s="1">
         <v>43909</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B76" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="1">
+    <row r="77" spans="1:4">
+      <c r="A77" s="1">
         <v>43910</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B77" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="1">
+    <row r="78" spans="1:4">
+      <c r="A78" s="1">
         <v>43911</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B78" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="1">
+    <row r="79" spans="1:4">
+      <c r="A79" s="1">
         <v>43912</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B79" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="1">
+    <row r="80" spans="1:4">
+      <c r="A80" s="1">
         <v>43913</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B80" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="1">
-        <v>43914</v>
-      </c>
-      <c r="B80" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1">
-        <v>43915</v>
+        <v>43914</v>
       </c>
       <c r="B81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1">
-        <v>43916</v>
+        <v>43915</v>
       </c>
       <c r="B82" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1">
-        <v>43917</v>
+        <v>43916</v>
       </c>
       <c r="B83" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="1">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="B84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="1">
-        <v>43919</v>
+        <v>43918</v>
       </c>
       <c r="B85" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1">
-        <v>43920</v>
+        <v>43919</v>
       </c>
       <c r="B86" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="B87" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1">
-        <v>43922</v>
+        <v>43921</v>
       </c>
       <c r="B88" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1">
-        <v>43923</v>
+        <v>43922</v>
       </c>
       <c r="B89" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1">
-        <v>43924</v>
+        <v>43923</v>
       </c>
       <c r="B90" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="1">
-        <v>43925</v>
+        <v>43924</v>
       </c>
       <c r="B91" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="1">
-        <v>43926</v>
+        <v>43925</v>
       </c>
       <c r="B92" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="1">
-        <v>43927</v>
+        <v>43926</v>
       </c>
       <c r="B93" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="1">
-        <v>43928</v>
+        <v>43927</v>
       </c>
       <c r="B94" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="1">
-        <v>43929</v>
+        <v>43928</v>
       </c>
       <c r="B95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="1">
-        <v>43930</v>
+        <v>43929</v>
       </c>
       <c r="B96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="1">
-        <v>43931</v>
+        <v>43930</v>
       </c>
       <c r="B97" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="1">
-        <v>43932</v>
+        <v>43931</v>
       </c>
       <c r="B98" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="1">
-        <v>43933</v>
+        <v>43932</v>
       </c>
       <c r="B99" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1">
-        <v>43934</v>
+        <v>43933</v>
       </c>
       <c r="B100" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="1">
-        <v>43935</v>
+        <v>43934</v>
       </c>
       <c r="B101" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="1">
-        <v>43936</v>
+        <v>43935</v>
       </c>
       <c r="B102" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="1">
-        <v>43937</v>
+        <v>43936</v>
       </c>
       <c r="B103" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="1">
-        <v>43938</v>
+        <v>43937</v>
       </c>
       <c r="B104" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1">
-        <v>43939</v>
+        <v>43938</v>
       </c>
       <c r="B105" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1">
-        <v>43940</v>
+        <v>43939</v>
       </c>
       <c r="B106" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="1">
-        <v>43941</v>
+        <v>43940</v>
       </c>
       <c r="B107" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1">
-        <v>43942</v>
+        <v>43941</v>
       </c>
       <c r="B108" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1">
-        <v>43943</v>
+        <v>43942</v>
       </c>
       <c r="B109" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="1">
-        <v>43944</v>
+        <v>43943</v>
       </c>
       <c r="B110" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="1">
-        <v>43945</v>
+        <v>43944</v>
       </c>
       <c r="B111" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="1">
-        <v>43946</v>
+        <v>43945</v>
       </c>
       <c r="B112" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1">
-        <v>43947</v>
+        <v>43946</v>
       </c>
       <c r="B113" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="1">
-        <v>43948</v>
+        <v>43947</v>
       </c>
       <c r="B114" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="1">
-        <v>43949</v>
+        <v>43948</v>
       </c>
       <c r="B115" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="1">
-        <v>43950</v>
+        <v>43949</v>
       </c>
       <c r="B116" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="1">
-        <v>43951</v>
+        <v>43950</v>
       </c>
       <c r="B117" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="1">
-        <v>43952</v>
+        <v>43951</v>
       </c>
       <c r="B118" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="1">
-        <v>43953</v>
+        <v>43952</v>
       </c>
       <c r="B119" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="1">
-        <v>43954</v>
+        <v>43953</v>
       </c>
       <c r="B120" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="1">
-        <v>43955</v>
+        <v>43954</v>
       </c>
       <c r="B121" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="1">
-        <v>43956</v>
+        <v>43955</v>
       </c>
       <c r="B122" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="1">
-        <v>43957</v>
+        <v>43956</v>
       </c>
       <c r="B123" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="1">
-        <v>43958</v>
+        <v>43957</v>
       </c>
       <c r="B124" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="1">
-        <v>43959</v>
+        <v>43958</v>
       </c>
       <c r="B125" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="1">
-        <v>43960</v>
+        <v>43959</v>
       </c>
       <c r="B126" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="1">
-        <v>43961</v>
+        <v>43960</v>
       </c>
       <c r="B127" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="1">
-        <v>43962</v>
+        <v>43961</v>
       </c>
       <c r="B128" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="1">
-        <v>43963</v>
+        <v>43962</v>
       </c>
       <c r="B129" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="1">
-        <v>43964</v>
+        <v>43963</v>
       </c>
       <c r="B130" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="1">
-        <v>43965</v>
+        <v>43964</v>
       </c>
       <c r="B131" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="1">
-        <v>43966</v>
+        <v>43965</v>
       </c>
       <c r="B132" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="1">
-        <v>43967</v>
+        <v>43966</v>
       </c>
       <c r="B133" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="1">
-        <v>43968</v>
+        <v>43967</v>
       </c>
       <c r="B134" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="1">
-        <v>43969</v>
+        <v>43968</v>
       </c>
       <c r="B135" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="1">
-        <v>43970</v>
+        <v>43969</v>
       </c>
       <c r="B136" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="1">
-        <v>43971</v>
+        <v>43970</v>
       </c>
       <c r="B137" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="1">
-        <v>43972</v>
+        <v>43971</v>
       </c>
       <c r="B138" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="1">
-        <v>43973</v>
+        <v>43972</v>
       </c>
       <c r="B139" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="1">
-        <v>43974</v>
+        <v>43973</v>
       </c>
       <c r="B140" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="1">
-        <v>43975</v>
+        <v>43974</v>
       </c>
       <c r="B141" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="1">
-        <v>43976</v>
+        <v>43975</v>
       </c>
       <c r="B142" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="1">
-        <v>43977</v>
+        <v>43976</v>
       </c>
       <c r="B143" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="1">
-        <v>43978</v>
+        <v>43977</v>
       </c>
       <c r="B144" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="1">
-        <v>43979</v>
+        <v>43978</v>
       </c>
       <c r="B145" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="1">
-        <v>43980</v>
+        <v>43979</v>
       </c>
       <c r="B146" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="1">
-        <v>43981</v>
+        <v>43980</v>
       </c>
       <c r="B147" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="1">
-        <v>43982</v>
+        <v>43981</v>
       </c>
       <c r="B148" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="1">
-        <v>43983</v>
+        <v>43982</v>
       </c>
       <c r="B149" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="1">
-        <v>43984</v>
+        <v>43983</v>
       </c>
       <c r="B150" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B151" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="1">
         <v>43985</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B152" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2939,7 +2991,7 @@
   <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="По задачам" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="178">
   <si>
     <t>Дата начала</t>
   </si>
@@ -668,6 +668,21 @@
   </si>
   <si>
     <t>второй раз тест прошел</t>
+  </si>
+  <si>
+    <t>https://chrome.google.com/webstore/detail/cssviewer/ggfgijbpiheegefliciemofobhmofgce</t>
+  </si>
+  <si>
+    <t>css viewer</t>
+  </si>
+  <si>
+    <t>Morse-decoder</t>
+  </si>
+  <si>
+    <t>Решил задачку )))</t>
+  </si>
+  <si>
+    <t>Brackets</t>
   </si>
 </sst>
 </file>
@@ -1055,10 +1070,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1422,7 +1437,7 @@
       <c r="C30" t="s">
         <v>163</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="7" t="s">
         <v>170</v>
       </c>
     </row>
@@ -1448,7 +1463,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>43898</v>
       </c>
@@ -1459,7 +1474,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>43898</v>
       </c>
@@ -1468,6 +1483,34 @@
       </c>
       <c r="C34" t="s">
         <v>171</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>43899</v>
+      </c>
+      <c r="B35" s="1">
+        <v>43899</v>
+      </c>
+      <c r="C35" t="s">
+        <v>175</v>
+      </c>
+      <c r="D35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>43899</v>
+      </c>
+      <c r="B36" s="1">
+        <v>43899</v>
+      </c>
+      <c r="C36" t="s">
+        <v>177</v>
+      </c>
+      <c r="D36">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1481,10 +1524,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D152"/>
+  <dimension ref="A1:D153"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2261,692 +2304,707 @@
       <c r="B66" t="s">
         <v>10</v>
       </c>
+      <c r="C66" t="s">
+        <v>175</v>
+      </c>
+      <c r="D66" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="1">
-        <v>43900</v>
-      </c>
-      <c r="B67" t="s">
-        <v>11</v>
+      <c r="A67" s="1"/>
+      <c r="C67" t="s">
+        <v>177</v>
+      </c>
+      <c r="D67" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="1">
-        <v>43901</v>
+        <v>43900</v>
       </c>
       <c r="B68" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="1">
-        <v>43902</v>
+        <v>43901</v>
       </c>
       <c r="B69" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="1">
-        <v>43903</v>
+        <v>43902</v>
       </c>
       <c r="B70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="1">
-        <v>43904</v>
+        <v>43903</v>
       </c>
       <c r="B71" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="1">
-        <v>43905</v>
+        <v>43904</v>
       </c>
       <c r="B72" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="1">
-        <v>43906</v>
+        <v>43905</v>
       </c>
       <c r="B73" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="1">
-        <v>43907</v>
+        <v>43906</v>
       </c>
       <c r="B74" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="1">
-        <v>43908</v>
+        <v>43907</v>
       </c>
       <c r="B75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="1">
-        <v>43909</v>
+        <v>43908</v>
       </c>
       <c r="B76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="1">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="B77" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="1">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="B78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="1">
-        <v>43912</v>
+        <v>43911</v>
       </c>
       <c r="B79" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="1">
-        <v>43913</v>
+        <v>43912</v>
       </c>
       <c r="B80" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1">
-        <v>43914</v>
+        <v>43913</v>
       </c>
       <c r="B81" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1">
-        <v>43915</v>
+        <v>43914</v>
       </c>
       <c r="B82" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1">
-        <v>43916</v>
+        <v>43915</v>
       </c>
       <c r="B83" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="1">
-        <v>43917</v>
+        <v>43916</v>
       </c>
       <c r="B84" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="1">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="B85" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1">
-        <v>43919</v>
+        <v>43918</v>
       </c>
       <c r="B86" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1">
-        <v>43920</v>
+        <v>43919</v>
       </c>
       <c r="B87" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="B88" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1">
-        <v>43922</v>
+        <v>43921</v>
       </c>
       <c r="B89" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1">
-        <v>43923</v>
+        <v>43922</v>
       </c>
       <c r="B90" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="1">
-        <v>43924</v>
+        <v>43923</v>
       </c>
       <c r="B91" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="1">
-        <v>43925</v>
+        <v>43924</v>
       </c>
       <c r="B92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="1">
-        <v>43926</v>
+        <v>43925</v>
       </c>
       <c r="B93" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="1">
-        <v>43927</v>
+        <v>43926</v>
       </c>
       <c r="B94" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="1">
-        <v>43928</v>
+        <v>43927</v>
       </c>
       <c r="B95" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="1">
-        <v>43929</v>
+        <v>43928</v>
       </c>
       <c r="B96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="1">
-        <v>43930</v>
+        <v>43929</v>
       </c>
       <c r="B97" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="1">
-        <v>43931</v>
+        <v>43930</v>
       </c>
       <c r="B98" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="1">
-        <v>43932</v>
+        <v>43931</v>
       </c>
       <c r="B99" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1">
-        <v>43933</v>
+        <v>43932</v>
       </c>
       <c r="B100" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="1">
-        <v>43934</v>
+        <v>43933</v>
       </c>
       <c r="B101" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="1">
-        <v>43935</v>
+        <v>43934</v>
       </c>
       <c r="B102" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="1">
-        <v>43936</v>
+        <v>43935</v>
       </c>
       <c r="B103" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="1">
-        <v>43937</v>
+        <v>43936</v>
       </c>
       <c r="B104" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1">
-        <v>43938</v>
+        <v>43937</v>
       </c>
       <c r="B105" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1">
-        <v>43939</v>
+        <v>43938</v>
       </c>
       <c r="B106" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="1">
-        <v>43940</v>
+        <v>43939</v>
       </c>
       <c r="B107" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1">
-        <v>43941</v>
+        <v>43940</v>
       </c>
       <c r="B108" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1">
-        <v>43942</v>
+        <v>43941</v>
       </c>
       <c r="B109" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="1">
-        <v>43943</v>
+        <v>43942</v>
       </c>
       <c r="B110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="1">
-        <v>43944</v>
+        <v>43943</v>
       </c>
       <c r="B111" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="1">
-        <v>43945</v>
+        <v>43944</v>
       </c>
       <c r="B112" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1">
-        <v>43946</v>
+        <v>43945</v>
       </c>
       <c r="B113" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="1">
-        <v>43947</v>
+        <v>43946</v>
       </c>
       <c r="B114" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="1">
-        <v>43948</v>
+        <v>43947</v>
       </c>
       <c r="B115" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="1">
-        <v>43949</v>
+        <v>43948</v>
       </c>
       <c r="B116" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="1">
-        <v>43950</v>
+        <v>43949</v>
       </c>
       <c r="B117" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="1">
-        <v>43951</v>
+        <v>43950</v>
       </c>
       <c r="B118" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="1">
-        <v>43952</v>
+        <v>43951</v>
       </c>
       <c r="B119" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="1">
-        <v>43953</v>
+        <v>43952</v>
       </c>
       <c r="B120" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="1">
-        <v>43954</v>
+        <v>43953</v>
       </c>
       <c r="B121" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="1">
-        <v>43955</v>
+        <v>43954</v>
       </c>
       <c r="B122" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="1">
-        <v>43956</v>
+        <v>43955</v>
       </c>
       <c r="B123" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="1">
-        <v>43957</v>
+        <v>43956</v>
       </c>
       <c r="B124" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="1">
-        <v>43958</v>
+        <v>43957</v>
       </c>
       <c r="B125" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="1">
-        <v>43959</v>
+        <v>43958</v>
       </c>
       <c r="B126" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="1">
-        <v>43960</v>
+        <v>43959</v>
       </c>
       <c r="B127" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="1">
-        <v>43961</v>
+        <v>43960</v>
       </c>
       <c r="B128" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="1">
-        <v>43962</v>
+        <v>43961</v>
       </c>
       <c r="B129" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="1">
-        <v>43963</v>
+        <v>43962</v>
       </c>
       <c r="B130" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="1">
-        <v>43964</v>
+        <v>43963</v>
       </c>
       <c r="B131" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="1">
-        <v>43965</v>
+        <v>43964</v>
       </c>
       <c r="B132" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="1">
-        <v>43966</v>
+        <v>43965</v>
       </c>
       <c r="B133" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="1">
-        <v>43967</v>
+        <v>43966</v>
       </c>
       <c r="B134" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="1">
-        <v>43968</v>
+        <v>43967</v>
       </c>
       <c r="B135" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="1">
-        <v>43969</v>
+        <v>43968</v>
       </c>
       <c r="B136" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="1">
-        <v>43970</v>
+        <v>43969</v>
       </c>
       <c r="B137" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="1">
-        <v>43971</v>
+        <v>43970</v>
       </c>
       <c r="B138" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="1">
-        <v>43972</v>
+        <v>43971</v>
       </c>
       <c r="B139" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="1">
-        <v>43973</v>
+        <v>43972</v>
       </c>
       <c r="B140" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="1">
-        <v>43974</v>
+        <v>43973</v>
       </c>
       <c r="B141" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="1">
-        <v>43975</v>
+        <v>43974</v>
       </c>
       <c r="B142" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="1">
-        <v>43976</v>
+        <v>43975</v>
       </c>
       <c r="B143" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="1">
-        <v>43977</v>
+        <v>43976</v>
       </c>
       <c r="B144" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="1">
-        <v>43978</v>
+        <v>43977</v>
       </c>
       <c r="B145" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="1">
-        <v>43979</v>
+        <v>43978</v>
       </c>
       <c r="B146" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="1">
-        <v>43980</v>
+        <v>43979</v>
       </c>
       <c r="B147" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="1">
-        <v>43981</v>
+        <v>43980</v>
       </c>
       <c r="B148" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="1">
-        <v>43982</v>
+        <v>43981</v>
       </c>
       <c r="B149" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="1">
-        <v>43983</v>
+        <v>43982</v>
       </c>
       <c r="B150" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="1">
-        <v>43984</v>
+        <v>43983</v>
       </c>
       <c r="B151" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B152" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="1">
         <v>43985</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B153" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2988,10 +3046,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3397,6 +3455,14 @@
       </c>
       <c r="B54" t="s">
         <v>161</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B55" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3423,9 +3489,10 @@
     <hyperlink ref="A16" r:id="rId20"/>
     <hyperlink ref="A18" r:id="rId21"/>
     <hyperlink ref="A19" r:id="rId22"/>
+    <hyperlink ref="A55" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
-  <legacyDrawing r:id="rId24"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId24"/>
+  <legacyDrawing r:id="rId25"/>
 </worksheet>
 </file>
--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="По задачам" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="187">
   <si>
     <t>Дата начала</t>
   </si>
@@ -683,6 +683,33 @@
   </si>
   <si>
     <t>Brackets</t>
+  </si>
+  <si>
+    <t>Девятую проблему решил )))</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fooyYgIuZe8</t>
+  </si>
+  <si>
+    <t>Friday Live Coding. Part 3   45 минут</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_5f0kznOM_A</t>
+  </si>
+  <si>
+    <t>Stream 10.03.2020</t>
+  </si>
+  <si>
+    <t>Stream 10.03.2020 - 26 минут</t>
+  </si>
+  <si>
+    <t>Singolo cross-check (по 2 работы - два дня проверял)</t>
+  </si>
+  <si>
+    <t>2 работы проверил</t>
+  </si>
+  <si>
+    <t>Десятую проблему решил )))</t>
   </si>
 </sst>
 </file>
@@ -1070,10 +1097,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1248,11 +1275,14 @@
       <c r="A15" s="1">
         <v>43879</v>
       </c>
+      <c r="B15" s="1">
+        <v>43904</v>
+      </c>
       <c r="C15" t="s">
         <v>89</v>
       </c>
       <c r="D15">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1511,12 +1541,40 @@
       </c>
       <c r="D36">
         <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>43900</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>43901</v>
+      </c>
+      <c r="C38" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>43903</v>
+      </c>
+      <c r="B39" s="1">
+        <v>43904</v>
+      </c>
+      <c r="C39" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C27" r:id="rId1" display="https://www.youtube.com/watch?v=ZAde-IJAHzo"/>
     <hyperlink ref="C29" r:id="rId2" display="https://www.youtube.com/watch?v=HihYQVuH64U"/>
+    <hyperlink ref="C37" r:id="rId3" display="https://www.youtube.com/watch?v=ZAde-IJAHzo"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1524,10 +1582,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D153"/>
+  <dimension ref="A1:D155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2327,684 +2385,726 @@
       <c r="B68" t="s">
         <v>11</v>
       </c>
+      <c r="C68" t="s">
+        <v>88</v>
+      </c>
+      <c r="D68" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="1">
-        <v>43901</v>
-      </c>
-      <c r="B69" t="s">
-        <v>12</v>
+      <c r="A69" s="1"/>
+      <c r="C69" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="1">
-        <v>43902</v>
+        <v>43901</v>
       </c>
       <c r="B70" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D70" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="1">
-        <v>43903</v>
+        <v>43902</v>
       </c>
       <c r="B71" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="1">
-        <v>43904</v>
+        <v>43903</v>
       </c>
       <c r="B72" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C72" t="s">
+        <v>184</v>
+      </c>
+      <c r="D72" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="1">
-        <v>43905</v>
+        <v>43904</v>
       </c>
       <c r="B73" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="C73" t="s">
+        <v>184</v>
+      </c>
+      <c r="D73" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="1">
-        <v>43906</v>
-      </c>
-      <c r="B74" t="s">
-        <v>10</v>
+      <c r="A74" s="1"/>
+      <c r="C74" t="s">
+        <v>88</v>
+      </c>
+      <c r="D74" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="1">
-        <v>43907</v>
+        <v>43905</v>
       </c>
       <c r="B75" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="1">
-        <v>43908</v>
+        <v>43906</v>
       </c>
       <c r="B76" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="1">
-        <v>43909</v>
+        <v>43907</v>
       </c>
       <c r="B77" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="1">
-        <v>43910</v>
+        <v>43908</v>
       </c>
       <c r="B78" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="1">
-        <v>43911</v>
+        <v>43909</v>
       </c>
       <c r="B79" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="1">
-        <v>43912</v>
+        <v>43910</v>
       </c>
       <c r="B80" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1">
-        <v>43913</v>
+        <v>43911</v>
       </c>
       <c r="B81" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1">
-        <v>43914</v>
+        <v>43912</v>
       </c>
       <c r="B82" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1">
-        <v>43915</v>
+        <v>43913</v>
       </c>
       <c r="B83" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="1">
-        <v>43916</v>
+        <v>43914</v>
       </c>
       <c r="B84" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="1">
-        <v>43917</v>
+        <v>43915</v>
       </c>
       <c r="B85" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1">
-        <v>43918</v>
+        <v>43916</v>
       </c>
       <c r="B86" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1">
-        <v>43919</v>
+        <v>43917</v>
       </c>
       <c r="B87" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1">
-        <v>43920</v>
+        <v>43918</v>
       </c>
       <c r="B88" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1">
-        <v>43921</v>
+        <v>43919</v>
       </c>
       <c r="B89" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1">
-        <v>43922</v>
+        <v>43920</v>
       </c>
       <c r="B90" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="1">
-        <v>43923</v>
+        <v>43921</v>
       </c>
       <c r="B91" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="1">
-        <v>43924</v>
+        <v>43922</v>
       </c>
       <c r="B92" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="1">
-        <v>43925</v>
+        <v>43923</v>
       </c>
       <c r="B93" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="1">
-        <v>43926</v>
+        <v>43924</v>
       </c>
       <c r="B94" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="1">
-        <v>43927</v>
+        <v>43925</v>
       </c>
       <c r="B95" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="1">
-        <v>43928</v>
+        <v>43926</v>
       </c>
       <c r="B96" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="1">
-        <v>43929</v>
+        <v>43927</v>
       </c>
       <c r="B97" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="1">
-        <v>43930</v>
+        <v>43928</v>
       </c>
       <c r="B98" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="1">
-        <v>43931</v>
+        <v>43929</v>
       </c>
       <c r="B99" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1">
-        <v>43932</v>
+        <v>43930</v>
       </c>
       <c r="B100" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="1">
-        <v>43933</v>
+        <v>43931</v>
       </c>
       <c r="B101" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="1">
-        <v>43934</v>
+        <v>43932</v>
       </c>
       <c r="B102" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="1">
-        <v>43935</v>
+        <v>43933</v>
       </c>
       <c r="B103" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="1">
-        <v>43936</v>
+        <v>43934</v>
       </c>
       <c r="B104" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1">
-        <v>43937</v>
+        <v>43935</v>
       </c>
       <c r="B105" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1">
-        <v>43938</v>
+        <v>43936</v>
       </c>
       <c r="B106" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="1">
-        <v>43939</v>
+        <v>43937</v>
       </c>
       <c r="B107" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1">
-        <v>43940</v>
+        <v>43938</v>
       </c>
       <c r="B108" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1">
-        <v>43941</v>
+        <v>43939</v>
       </c>
       <c r="B109" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="1">
-        <v>43942</v>
+        <v>43940</v>
       </c>
       <c r="B110" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="1">
-        <v>43943</v>
+        <v>43941</v>
       </c>
       <c r="B111" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="1">
-        <v>43944</v>
+        <v>43942</v>
       </c>
       <c r="B112" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1">
-        <v>43945</v>
+        <v>43943</v>
       </c>
       <c r="B113" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="1">
-        <v>43946</v>
+        <v>43944</v>
       </c>
       <c r="B114" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="1">
-        <v>43947</v>
+        <v>43945</v>
       </c>
       <c r="B115" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="1">
-        <v>43948</v>
+        <v>43946</v>
       </c>
       <c r="B116" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="1">
-        <v>43949</v>
+        <v>43947</v>
       </c>
       <c r="B117" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="1">
-        <v>43950</v>
+        <v>43948</v>
       </c>
       <c r="B118" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="1">
-        <v>43951</v>
+        <v>43949</v>
       </c>
       <c r="B119" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="1">
-        <v>43952</v>
+        <v>43950</v>
       </c>
       <c r="B120" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="1">
-        <v>43953</v>
+        <v>43951</v>
       </c>
       <c r="B121" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="1">
-        <v>43954</v>
+        <v>43952</v>
       </c>
       <c r="B122" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="1">
-        <v>43955</v>
+        <v>43953</v>
       </c>
       <c r="B123" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="1">
-        <v>43956</v>
+        <v>43954</v>
       </c>
       <c r="B124" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="1">
-        <v>43957</v>
+        <v>43955</v>
       </c>
       <c r="B125" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="1">
-        <v>43958</v>
+        <v>43956</v>
       </c>
       <c r="B126" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="1">
-        <v>43959</v>
+        <v>43957</v>
       </c>
       <c r="B127" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="1">
-        <v>43960</v>
+        <v>43958</v>
       </c>
       <c r="B128" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="1">
-        <v>43961</v>
+        <v>43959</v>
       </c>
       <c r="B129" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="1">
-        <v>43962</v>
+        <v>43960</v>
       </c>
       <c r="B130" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="1">
-        <v>43963</v>
+        <v>43961</v>
       </c>
       <c r="B131" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="1">
-        <v>43964</v>
+        <v>43962</v>
       </c>
       <c r="B132" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="1">
-        <v>43965</v>
+        <v>43963</v>
       </c>
       <c r="B133" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="1">
-        <v>43966</v>
+        <v>43964</v>
       </c>
       <c r="B134" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="1">
-        <v>43967</v>
+        <v>43965</v>
       </c>
       <c r="B135" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="1">
-        <v>43968</v>
+        <v>43966</v>
       </c>
       <c r="B136" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="1">
-        <v>43969</v>
+        <v>43967</v>
       </c>
       <c r="B137" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="1">
-        <v>43970</v>
+        <v>43968</v>
       </c>
       <c r="B138" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="1">
-        <v>43971</v>
+        <v>43969</v>
       </c>
       <c r="B139" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="1">
-        <v>43972</v>
+        <v>43970</v>
       </c>
       <c r="B140" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="1">
-        <v>43973</v>
+        <v>43971</v>
       </c>
       <c r="B141" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="1">
-        <v>43974</v>
+        <v>43972</v>
       </c>
       <c r="B142" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="1">
-        <v>43975</v>
+        <v>43973</v>
       </c>
       <c r="B143" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="1">
-        <v>43976</v>
+        <v>43974</v>
       </c>
       <c r="B144" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="1">
-        <v>43977</v>
+        <v>43975</v>
       </c>
       <c r="B145" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="1">
-        <v>43978</v>
+        <v>43976</v>
       </c>
       <c r="B146" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="1">
-        <v>43979</v>
+        <v>43977</v>
       </c>
       <c r="B147" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="1">
-        <v>43980</v>
+        <v>43978</v>
       </c>
       <c r="B148" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="1">
-        <v>43981</v>
+        <v>43979</v>
       </c>
       <c r="B149" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="1">
-        <v>43982</v>
+        <v>43980</v>
       </c>
       <c r="B150" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="1">
-        <v>43983</v>
+        <v>43981</v>
       </c>
       <c r="B151" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="1">
-        <v>43984</v>
+        <v>43982</v>
       </c>
       <c r="B152" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B153" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B154" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="1">
         <v>43985</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B155" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3038,9 +3138,12 @@
     <hyperlink ref="C58" r:id="rId26"/>
     <hyperlink ref="C60" r:id="rId27" display="https://docs.google.com/forms/d/e/1FAIpQLScHaTjoazbz8mworB6A-mP1tZf_adJLreQ_VwfYQYgOANOC-A/viewform"/>
     <hyperlink ref="C61" r:id="rId28"/>
+    <hyperlink ref="C69" r:id="rId29"/>
+    <hyperlink ref="D69" r:id="rId30" display="https://www.youtube.com/watch?v=ZAde-IJAHzo"/>
+    <hyperlink ref="C70" r:id="rId31"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId32"/>
 </worksheet>
 </file>
 
@@ -3048,8 +3151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3252,6 +3355,28 @@
         <v>165</v>
       </c>
       <c r="C19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>181</v>
+      </c>
+      <c r="B21" t="s">
+        <v>182</v>
+      </c>
+      <c r="C21" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3490,9 +3615,11 @@
     <hyperlink ref="A18" r:id="rId21"/>
     <hyperlink ref="A19" r:id="rId22"/>
     <hyperlink ref="A55" r:id="rId23"/>
+    <hyperlink ref="A20" r:id="rId24"/>
+    <hyperlink ref="B20" r:id="rId25" display="https://www.youtube.com/watch?v=ZAde-IJAHzo"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId24"/>
-  <legacyDrawing r:id="rId25"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId26"/>
+  <legacyDrawing r:id="rId27"/>
 </worksheet>
 </file>
--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="По задачам" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="190">
   <si>
     <t>Дата начала</t>
   </si>
@@ -710,6 +710,15 @@
   </si>
   <si>
     <t>Десятую проблему решил )))</t>
+  </si>
+  <si>
+    <t>Singolo DOM</t>
+  </si>
+  <si>
+    <t>работаю над этой задачей</t>
+  </si>
+  <si>
+    <t>Expression calculator</t>
   </si>
 </sst>
 </file>
@@ -1097,10 +1106,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1570,6 +1579,29 @@
         <v>184</v>
       </c>
     </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>43905</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <v>43906</v>
+      </c>
+      <c r="B41" s="1">
+        <v>43908</v>
+      </c>
+      <c r="C41" t="s">
+        <v>189</v>
+      </c>
+      <c r="D41">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C27" r:id="rId1" display="https://www.youtube.com/watch?v=ZAde-IJAHzo"/>
@@ -1582,10 +1614,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D155"/>
+  <dimension ref="A1:D156"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2467,6 +2499,12 @@
       <c r="B75" t="s">
         <v>9</v>
       </c>
+      <c r="C75" t="s">
+        <v>187</v>
+      </c>
+      <c r="D75" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="1">
@@ -2475,636 +2513,663 @@
       <c r="B76" t="s">
         <v>10</v>
       </c>
+      <c r="C76" t="s">
+        <v>187</v>
+      </c>
+      <c r="D76" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="1">
-        <v>43907</v>
-      </c>
-      <c r="B77" t="s">
-        <v>11</v>
+      <c r="A77" s="1"/>
+      <c r="C77" t="s">
+        <v>189</v>
+      </c>
+      <c r="D77" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="1">
-        <v>43908</v>
+        <v>43907</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C78" t="s">
+        <v>189</v>
+      </c>
+      <c r="D78" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="1">
-        <v>43909</v>
+        <v>43908</v>
       </c>
       <c r="B79" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="C79" t="s">
+        <v>189</v>
+      </c>
+      <c r="D79" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="1">
-        <v>43910</v>
+        <v>43909</v>
       </c>
       <c r="B80" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1">
-        <v>43911</v>
+        <v>43910</v>
       </c>
       <c r="B81" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1">
-        <v>43912</v>
+        <v>43911</v>
       </c>
       <c r="B82" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1">
-        <v>43913</v>
+        <v>43912</v>
       </c>
       <c r="B83" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="1">
-        <v>43914</v>
+        <v>43913</v>
       </c>
       <c r="B84" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="1">
-        <v>43915</v>
+        <v>43914</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="1">
-        <v>43916</v>
+        <v>43915</v>
       </c>
       <c r="B86" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1">
-        <v>43917</v>
+        <v>43916</v>
       </c>
       <c r="B87" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="B88" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1">
-        <v>43919</v>
+        <v>43918</v>
       </c>
       <c r="B89" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="1">
-        <v>43920</v>
+        <v>43919</v>
       </c>
       <c r="B90" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="1">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="B91" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="1">
-        <v>43922</v>
+        <v>43921</v>
       </c>
       <c r="B92" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="1">
-        <v>43923</v>
+        <v>43922</v>
       </c>
       <c r="B93" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="1">
-        <v>43924</v>
+        <v>43923</v>
       </c>
       <c r="B94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="1">
-        <v>43925</v>
+        <v>43924</v>
       </c>
       <c r="B95" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="1">
-        <v>43926</v>
+        <v>43925</v>
       </c>
       <c r="B96" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="1">
-        <v>43927</v>
+        <v>43926</v>
       </c>
       <c r="B97" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="1">
-        <v>43928</v>
+        <v>43927</v>
       </c>
       <c r="B98" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="1">
-        <v>43929</v>
+        <v>43928</v>
       </c>
       <c r="B99" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1">
-        <v>43930</v>
+        <v>43929</v>
       </c>
       <c r="B100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="1">
-        <v>43931</v>
+        <v>43930</v>
       </c>
       <c r="B101" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="1">
-        <v>43932</v>
+        <v>43931</v>
       </c>
       <c r="B102" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="1">
-        <v>43933</v>
+        <v>43932</v>
       </c>
       <c r="B103" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="1">
-        <v>43934</v>
+        <v>43933</v>
       </c>
       <c r="B104" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1">
-        <v>43935</v>
+        <v>43934</v>
       </c>
       <c r="B105" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1">
-        <v>43936</v>
+        <v>43935</v>
       </c>
       <c r="B106" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="1">
-        <v>43937</v>
+        <v>43936</v>
       </c>
       <c r="B107" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1">
-        <v>43938</v>
+        <v>43937</v>
       </c>
       <c r="B108" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1">
-        <v>43939</v>
+        <v>43938</v>
       </c>
       <c r="B109" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="1">
-        <v>43940</v>
+        <v>43939</v>
       </c>
       <c r="B110" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="1">
-        <v>43941</v>
+        <v>43940</v>
       </c>
       <c r="B111" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="1">
-        <v>43942</v>
+        <v>43941</v>
       </c>
       <c r="B112" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1">
-        <v>43943</v>
+        <v>43942</v>
       </c>
       <c r="B113" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="1">
-        <v>43944</v>
+        <v>43943</v>
       </c>
       <c r="B114" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="1">
-        <v>43945</v>
+        <v>43944</v>
       </c>
       <c r="B115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="1">
-        <v>43946</v>
+        <v>43945</v>
       </c>
       <c r="B116" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="1">
-        <v>43947</v>
+        <v>43946</v>
       </c>
       <c r="B117" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="1">
-        <v>43948</v>
+        <v>43947</v>
       </c>
       <c r="B118" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="1">
-        <v>43949</v>
+        <v>43948</v>
       </c>
       <c r="B119" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="1">
-        <v>43950</v>
+        <v>43949</v>
       </c>
       <c r="B120" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="1">
-        <v>43951</v>
+        <v>43950</v>
       </c>
       <c r="B121" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="1">
-        <v>43952</v>
+        <v>43951</v>
       </c>
       <c r="B122" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="1">
-        <v>43953</v>
+        <v>43952</v>
       </c>
       <c r="B123" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="1">
-        <v>43954</v>
+        <v>43953</v>
       </c>
       <c r="B124" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="1">
-        <v>43955</v>
+        <v>43954</v>
       </c>
       <c r="B125" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="1">
-        <v>43956</v>
+        <v>43955</v>
       </c>
       <c r="B126" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="1">
-        <v>43957</v>
+        <v>43956</v>
       </c>
       <c r="B127" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="1">
-        <v>43958</v>
+        <v>43957</v>
       </c>
       <c r="B128" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="1">
-        <v>43959</v>
+        <v>43958</v>
       </c>
       <c r="B129" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="1">
-        <v>43960</v>
+        <v>43959</v>
       </c>
       <c r="B130" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="1">
-        <v>43961</v>
+        <v>43960</v>
       </c>
       <c r="B131" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="1">
-        <v>43962</v>
+        <v>43961</v>
       </c>
       <c r="B132" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="1">
-        <v>43963</v>
+        <v>43962</v>
       </c>
       <c r="B133" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="1">
-        <v>43964</v>
+        <v>43963</v>
       </c>
       <c r="B134" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="1">
-        <v>43965</v>
+        <v>43964</v>
       </c>
       <c r="B135" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="1">
-        <v>43966</v>
+        <v>43965</v>
       </c>
       <c r="B136" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="1">
-        <v>43967</v>
+        <v>43966</v>
       </c>
       <c r="B137" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="1">
-        <v>43968</v>
+        <v>43967</v>
       </c>
       <c r="B138" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="1">
-        <v>43969</v>
+        <v>43968</v>
       </c>
       <c r="B139" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="1">
-        <v>43970</v>
+        <v>43969</v>
       </c>
       <c r="B140" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="1">
-        <v>43971</v>
+        <v>43970</v>
       </c>
       <c r="B141" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="1">
-        <v>43972</v>
+        <v>43971</v>
       </c>
       <c r="B142" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="1">
-        <v>43973</v>
+        <v>43972</v>
       </c>
       <c r="B143" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="1">
-        <v>43974</v>
+        <v>43973</v>
       </c>
       <c r="B144" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="1">
-        <v>43975</v>
+        <v>43974</v>
       </c>
       <c r="B145" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="1">
-        <v>43976</v>
+        <v>43975</v>
       </c>
       <c r="B146" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="1">
-        <v>43977</v>
+        <v>43976</v>
       </c>
       <c r="B147" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="1">
-        <v>43978</v>
+        <v>43977</v>
       </c>
       <c r="B148" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="1">
-        <v>43979</v>
+        <v>43978</v>
       </c>
       <c r="B149" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="1">
-        <v>43980</v>
+        <v>43979</v>
       </c>
       <c r="B150" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="1">
-        <v>43981</v>
+        <v>43980</v>
       </c>
       <c r="B151" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="1">
-        <v>43982</v>
+        <v>43981</v>
       </c>
       <c r="B152" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="1">
-        <v>43983</v>
+        <v>43982</v>
       </c>
       <c r="B153" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="1">
-        <v>43984</v>
+        <v>43983</v>
       </c>
       <c r="B154" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B155" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="1">
         <v>43985</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B156" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3151,7 +3216,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>

--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="По задачам" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="196">
   <si>
     <t>Дата начала</t>
   </si>
@@ -719,6 +719,24 @@
   </si>
   <si>
     <t>Expression calculator</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Qk2UGlFNKPE</t>
+  </si>
+  <si>
+    <t>Friday Live Coding. Part 4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ouZnGUefneQ</t>
+  </si>
+  <si>
+    <t>Friday Live Coding. Part 5</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0M9Rz-wXYas</t>
+  </si>
+  <si>
+    <t>Stream 17.03.2020</t>
   </si>
 </sst>
 </file>
@@ -1108,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1556,6 +1574,9 @@
       <c r="A37" s="1">
         <v>43900</v>
       </c>
+      <c r="B37" s="1">
+        <v>43910</v>
+      </c>
       <c r="C37" s="2" t="s">
         <v>180</v>
       </c>
@@ -1583,7 +1604,9 @@
       <c r="A40" s="1">
         <v>43905</v>
       </c>
-      <c r="B40" s="1"/>
+      <c r="B40" s="1">
+        <v>43911</v>
+      </c>
       <c r="C40" t="s">
         <v>187</v>
       </c>
@@ -1616,8 +1639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2564,24 +2587,42 @@
       <c r="B80" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
+      <c r="C80" t="s">
+        <v>187</v>
+      </c>
+      <c r="D80" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1">
         <v>43910</v>
       </c>
       <c r="B81" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="82" spans="1:2">
+      <c r="C81" t="s">
+        <v>187</v>
+      </c>
+      <c r="D81" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1">
         <v>43911</v>
       </c>
       <c r="B82" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
+      <c r="C82" t="s">
+        <v>187</v>
+      </c>
+      <c r="D82" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1">
         <v>43912</v>
       </c>
@@ -2589,7 +2630,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
+    <row r="84" spans="1:4">
       <c r="A84" s="1">
         <v>43913</v>
       </c>
@@ -2597,7 +2638,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:4">
       <c r="A85" s="1">
         <v>43914</v>
       </c>
@@ -2605,7 +2646,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:4">
       <c r="A86" s="1">
         <v>43915</v>
       </c>
@@ -2613,7 +2654,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:4">
       <c r="A87" s="1">
         <v>43916</v>
       </c>
@@ -2621,7 +2662,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:4">
       <c r="A88" s="1">
         <v>43917</v>
       </c>
@@ -2629,7 +2670,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:4">
       <c r="A89" s="1">
         <v>43918</v>
       </c>
@@ -2637,7 +2678,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
+    <row r="90" spans="1:4">
       <c r="A90" s="1">
         <v>43919</v>
       </c>
@@ -2645,7 +2686,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:4">
       <c r="A91" s="1">
         <v>43920</v>
       </c>
@@ -2653,7 +2694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:4">
       <c r="A92" s="1">
         <v>43921</v>
       </c>
@@ -2661,7 +2702,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
+    <row r="93" spans="1:4">
       <c r="A93" s="1">
         <v>43922</v>
       </c>
@@ -2669,7 +2710,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
+    <row r="94" spans="1:4">
       <c r="A94" s="1">
         <v>43923</v>
       </c>
@@ -2677,7 +2718,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:4">
       <c r="A95" s="1">
         <v>43924</v>
       </c>
@@ -2685,7 +2726,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:4">
       <c r="A96" s="1">
         <v>43925</v>
       </c>
@@ -3214,10 +3255,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3445,246 +3486,281 @@
         <v>132</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="4" customFormat="1">
-      <c r="A26" s="5" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>190</v>
+      </c>
+      <c r="B22" t="s">
+        <v>191</v>
+      </c>
+      <c r="C22" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B23" t="s">
+        <v>193</v>
+      </c>
+      <c r="C23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B24" t="s">
+        <v>195</v>
+      </c>
+      <c r="C24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" s="4" customFormat="1">
+      <c r="A32" s="5" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B27" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B28" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B29" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B30" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B31" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B32" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="B33" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>129</v>
+      <c r="A34" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="B34" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="B35" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B39" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>129</v>
+      </c>
+      <c r="B40" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B41" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B42" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
         <v>142</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B43" s="8" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
         <v>145</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B44" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="42" spans="1:2" s="4" customFormat="1">
-      <c r="A42" s="5" t="s">
+    <row r="48" spans="1:2" s="4" customFormat="1">
+      <c r="A48" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="2" t="s">
+    <row r="49" spans="1:2">
+      <c r="A49" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B49" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>49</v>
-      </c>
-      <c r="B46" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B48" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>84</v>
-      </c>
-      <c r="B49" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2" t="s">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="B50" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="B51" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>84</v>
+      </c>
+      <c r="B55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>93</v>
+      </c>
+      <c r="B57" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
         <v>156</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B58" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
         <v>159</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B59" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
         <v>160</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B60" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="2" t="s">
+    <row r="61" spans="1:2">
+      <c r="A61" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B61" t="s">
         <v>174</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A43" r:id="rId1"/>
+    <hyperlink ref="A49" r:id="rId1"/>
     <hyperlink ref="A6" r:id="rId2"/>
-    <hyperlink ref="A44" r:id="rId3"/>
+    <hyperlink ref="A50" r:id="rId3"/>
     <hyperlink ref="A7" r:id="rId4"/>
-    <hyperlink ref="A47" r:id="rId5"/>
+    <hyperlink ref="A53" r:id="rId5"/>
     <hyperlink ref="A9" r:id="rId6"/>
     <hyperlink ref="A10" r:id="rId7"/>
-    <hyperlink ref="A48" r:id="rId8"/>
-    <hyperlink ref="A50" r:id="rId9"/>
+    <hyperlink ref="A54" r:id="rId8"/>
+    <hyperlink ref="A56" r:id="rId9"/>
     <hyperlink ref="A11" r:id="rId10"/>
-    <hyperlink ref="A27" r:id="rId11" location="/2"/>
-    <hyperlink ref="A29" r:id="rId12"/>
-    <hyperlink ref="A30" r:id="rId13"/>
-    <hyperlink ref="A31" r:id="rId14"/>
-    <hyperlink ref="A32" r:id="rId15"/>
+    <hyperlink ref="A33" r:id="rId11" location="/2"/>
+    <hyperlink ref="A35" r:id="rId12"/>
+    <hyperlink ref="A36" r:id="rId13"/>
+    <hyperlink ref="A37" r:id="rId14"/>
+    <hyperlink ref="A38" r:id="rId15"/>
     <hyperlink ref="A13" r:id="rId16"/>
     <hyperlink ref="A14" r:id="rId17"/>
-    <hyperlink ref="A35" r:id="rId18"/>
+    <hyperlink ref="A41" r:id="rId18"/>
     <hyperlink ref="A15" r:id="rId19"/>
     <hyperlink ref="A16" r:id="rId20"/>
     <hyperlink ref="A18" r:id="rId21"/>
     <hyperlink ref="A19" r:id="rId22"/>
-    <hyperlink ref="A55" r:id="rId23"/>
+    <hyperlink ref="A61" r:id="rId23"/>
     <hyperlink ref="A20" r:id="rId24"/>
     <hyperlink ref="B20" r:id="rId25" display="https://www.youtube.com/watch?v=ZAde-IJAHzo"/>
+    <hyperlink ref="A23" r:id="rId26"/>
+    <hyperlink ref="A24" r:id="rId27"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId26"/>
-  <legacyDrawing r:id="rId27"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
+  <legacyDrawing r:id="rId29"/>
 </worksheet>
 </file>
--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="203">
   <si>
     <t>Дата начала</t>
   </si>
@@ -737,6 +737,27 @@
   </si>
   <si>
     <t>Stream 17.03.2020</t>
+  </si>
+  <si>
+    <t>Препроцессор SASS/SCSS за 38 минут. Что такое SASS, SCSS. Установка уроки обучение.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Mrq2ora_p0o</t>
+  </si>
+  <si>
+    <t>Адаптивная вёрстка сайтов за 37 минут + макет. Тебе не нужен Bootstrap!</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XbnAKjjlgc4</t>
+  </si>
+  <si>
+    <t>Виртуальная клавиатура</t>
+  </si>
+  <si>
+    <t>начал работать над этой задачей</t>
+  </si>
+  <si>
+    <t>Singolo. Responsive</t>
   </si>
 </sst>
 </file>
@@ -1124,10 +1145,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1625,6 +1646,44 @@
         <v>100</v>
       </c>
     </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <v>43914</v>
+      </c>
+      <c r="B42" s="1">
+        <v>43914</v>
+      </c>
+      <c r="C42" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>43914</v>
+      </c>
+      <c r="B43" s="1">
+        <v>43914</v>
+      </c>
+      <c r="C43" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>43915</v>
+      </c>
+      <c r="C44" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>43915</v>
+      </c>
+      <c r="C45" t="s">
+        <v>202</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C27" r:id="rId1" display="https://www.youtube.com/watch?v=ZAde-IJAHzo"/>
@@ -1637,10 +1696,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D156"/>
+  <dimension ref="A1:D158"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2645,572 +2704,602 @@
       <c r="B85" t="s">
         <v>11</v>
       </c>
+      <c r="C85" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D85" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="1">
-        <v>43915</v>
-      </c>
-      <c r="B86" t="s">
-        <v>12</v>
+      <c r="A86" s="1"/>
+      <c r="C86" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D86" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="1">
-        <v>43916</v>
+        <v>43915</v>
       </c>
       <c r="B87" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="C87" t="s">
+        <v>200</v>
+      </c>
+      <c r="D87" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="1">
-        <v>43917</v>
-      </c>
-      <c r="B88" t="s">
-        <v>14</v>
+      <c r="A88" s="1"/>
+      <c r="C88" t="s">
+        <v>202</v>
+      </c>
+      <c r="D88" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="1">
-        <v>43918</v>
+        <v>43916</v>
       </c>
       <c r="B89" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="1">
-        <v>43919</v>
+        <v>43917</v>
       </c>
       <c r="B90" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="1">
-        <v>43920</v>
+        <v>43918</v>
       </c>
       <c r="B91" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="1">
-        <v>43921</v>
+        <v>43919</v>
       </c>
       <c r="B92" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="1">
-        <v>43922</v>
+        <v>43920</v>
       </c>
       <c r="B93" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="1">
-        <v>43923</v>
+        <v>43921</v>
       </c>
       <c r="B94" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="1">
-        <v>43924</v>
+        <v>43922</v>
       </c>
       <c r="B95" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="1">
-        <v>43925</v>
+        <v>43923</v>
       </c>
       <c r="B96" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="1">
-        <v>43926</v>
+        <v>43924</v>
       </c>
       <c r="B97" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="1">
-        <v>43927</v>
+        <v>43925</v>
       </c>
       <c r="B98" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="1">
-        <v>43928</v>
+        <v>43926</v>
       </c>
       <c r="B99" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1">
-        <v>43929</v>
+        <v>43927</v>
       </c>
       <c r="B100" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="1">
-        <v>43930</v>
+        <v>43928</v>
       </c>
       <c r="B101" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="1">
-        <v>43931</v>
+        <v>43929</v>
       </c>
       <c r="B102" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="1">
-        <v>43932</v>
+        <v>43930</v>
       </c>
       <c r="B103" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="1">
-        <v>43933</v>
+        <v>43931</v>
       </c>
       <c r="B104" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1">
-        <v>43934</v>
+        <v>43932</v>
       </c>
       <c r="B105" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1">
-        <v>43935</v>
+        <v>43933</v>
       </c>
       <c r="B106" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="1">
-        <v>43936</v>
+        <v>43934</v>
       </c>
       <c r="B107" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1">
-        <v>43937</v>
+        <v>43935</v>
       </c>
       <c r="B108" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1">
-        <v>43938</v>
+        <v>43936</v>
       </c>
       <c r="B109" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="1">
-        <v>43939</v>
+        <v>43937</v>
       </c>
       <c r="B110" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="1">
-        <v>43940</v>
+        <v>43938</v>
       </c>
       <c r="B111" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="1">
-        <v>43941</v>
+        <v>43939</v>
       </c>
       <c r="B112" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1">
-        <v>43942</v>
+        <v>43940</v>
       </c>
       <c r="B113" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="1">
-        <v>43943</v>
+        <v>43941</v>
       </c>
       <c r="B114" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="1">
-        <v>43944</v>
+        <v>43942</v>
       </c>
       <c r="B115" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="1">
-        <v>43945</v>
+        <v>43943</v>
       </c>
       <c r="B116" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="1">
-        <v>43946</v>
+        <v>43944</v>
       </c>
       <c r="B117" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="1">
-        <v>43947</v>
+        <v>43945</v>
       </c>
       <c r="B118" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="1">
-        <v>43948</v>
+        <v>43946</v>
       </c>
       <c r="B119" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="1">
-        <v>43949</v>
+        <v>43947</v>
       </c>
       <c r="B120" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="1">
-        <v>43950</v>
+        <v>43948</v>
       </c>
       <c r="B121" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="1">
-        <v>43951</v>
+        <v>43949</v>
       </c>
       <c r="B122" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="1">
-        <v>43952</v>
+        <v>43950</v>
       </c>
       <c r="B123" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="1">
-        <v>43953</v>
+        <v>43951</v>
       </c>
       <c r="B124" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="1">
-        <v>43954</v>
+        <v>43952</v>
       </c>
       <c r="B125" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="1">
-        <v>43955</v>
+        <v>43953</v>
       </c>
       <c r="B126" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="1">
-        <v>43956</v>
+        <v>43954</v>
       </c>
       <c r="B127" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="1">
-        <v>43957</v>
+        <v>43955</v>
       </c>
       <c r="B128" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="1">
-        <v>43958</v>
+        <v>43956</v>
       </c>
       <c r="B129" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="1">
-        <v>43959</v>
+        <v>43957</v>
       </c>
       <c r="B130" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="1">
-        <v>43960</v>
+        <v>43958</v>
       </c>
       <c r="B131" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="1">
-        <v>43961</v>
+        <v>43959</v>
       </c>
       <c r="B132" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="1">
-        <v>43962</v>
+        <v>43960</v>
       </c>
       <c r="B133" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="1">
-        <v>43963</v>
+        <v>43961</v>
       </c>
       <c r="B134" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="1">
-        <v>43964</v>
+        <v>43962</v>
       </c>
       <c r="B135" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="1">
-        <v>43965</v>
+        <v>43963</v>
       </c>
       <c r="B136" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="1">
-        <v>43966</v>
+        <v>43964</v>
       </c>
       <c r="B137" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="1">
-        <v>43967</v>
+        <v>43965</v>
       </c>
       <c r="B138" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="1">
-        <v>43968</v>
+        <v>43966</v>
       </c>
       <c r="B139" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="1">
-        <v>43969</v>
+        <v>43967</v>
       </c>
       <c r="B140" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="1">
-        <v>43970</v>
+        <v>43968</v>
       </c>
       <c r="B141" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="1">
-        <v>43971</v>
+        <v>43969</v>
       </c>
       <c r="B142" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="1">
-        <v>43972</v>
+        <v>43970</v>
       </c>
       <c r="B143" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="1">
-        <v>43973</v>
+        <v>43971</v>
       </c>
       <c r="B144" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="1">
-        <v>43974</v>
+        <v>43972</v>
       </c>
       <c r="B145" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="1">
-        <v>43975</v>
+        <v>43973</v>
       </c>
       <c r="B146" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="1">
-        <v>43976</v>
+        <v>43974</v>
       </c>
       <c r="B147" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="1">
-        <v>43977</v>
+        <v>43975</v>
       </c>
       <c r="B148" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="1">
-        <v>43978</v>
+        <v>43976</v>
       </c>
       <c r="B149" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="1">
-        <v>43979</v>
+        <v>43977</v>
       </c>
       <c r="B150" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="1">
-        <v>43980</v>
+        <v>43978</v>
       </c>
       <c r="B151" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="1">
-        <v>43981</v>
+        <v>43979</v>
       </c>
       <c r="B152" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="1">
-        <v>43982</v>
+        <v>43980</v>
       </c>
       <c r="B153" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="1">
-        <v>43983</v>
+        <v>43981</v>
       </c>
       <c r="B154" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="1">
-        <v>43984</v>
+        <v>43982</v>
       </c>
       <c r="B155" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B156" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B157" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="1">
         <v>43985</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B158" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3247,9 +3336,11 @@
     <hyperlink ref="C69" r:id="rId29"/>
     <hyperlink ref="D69" r:id="rId30" display="https://www.youtube.com/watch?v=ZAde-IJAHzo"/>
     <hyperlink ref="C70" r:id="rId31"/>
+    <hyperlink ref="C85" r:id="rId32"/>
+    <hyperlink ref="C86" r:id="rId33"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId32"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
 </worksheet>
 </file>
 
@@ -3258,7 +3349,7 @@
   <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:C24"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3516,6 +3607,28 @@
         <v>195</v>
       </c>
       <c r="C24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B25" t="s">
+        <v>196</v>
+      </c>
+      <c r="C25" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B26" t="s">
+        <v>198</v>
+      </c>
+      <c r="C26" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3758,9 +3871,11 @@
     <hyperlink ref="B20" r:id="rId25" display="https://www.youtube.com/watch?v=ZAde-IJAHzo"/>
     <hyperlink ref="A23" r:id="rId26"/>
     <hyperlink ref="A24" r:id="rId27"/>
+    <hyperlink ref="A25" r:id="rId28"/>
+    <hyperlink ref="A26" r:id="rId29"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
-  <legacyDrawing r:id="rId29"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId30"/>
+  <legacyDrawing r:id="rId31"/>
 </worksheet>
 </file>
--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="211">
   <si>
     <t>Дата начала</t>
   </si>
@@ -758,6 +758,30 @@
   </si>
   <si>
     <t>Singolo. Responsive</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Evt0k4xnvXY</t>
+  </si>
+  <si>
+    <t>RS School 2020Q1 Stage#2 Intro &amp; FAQ.</t>
+  </si>
+  <si>
+    <t>RS School 2020Q1 Stage#2 Intro &amp; FAQ. Посмотрел</t>
+  </si>
+  <si>
+    <t>RS School 2020Q1 Stage#2 Intro &amp; FAQ.  - посмотрел</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Codewars stage#2 </t>
+  </si>
+  <si>
+    <t>начал ))) решил 1, 2, 3, 4, 5</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fFDw7AH2OXo</t>
+  </si>
+  <si>
+    <t>Stream 26.03.2020</t>
   </si>
 </sst>
 </file>
@@ -1145,10 +1169,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1684,11 +1708,39 @@
         <v>202</v>
       </c>
     </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <v>43916</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
+        <v>43916</v>
+      </c>
+      <c r="C47" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1">
+        <v>43917</v>
+      </c>
+      <c r="B48" s="1">
+        <v>43917</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C27" r:id="rId1" display="https://www.youtube.com/watch?v=ZAde-IJAHzo"/>
     <hyperlink ref="C29" r:id="rId2" display="https://www.youtube.com/watch?v=HihYQVuH64U"/>
     <hyperlink ref="C37" r:id="rId3" display="https://www.youtube.com/watch?v=ZAde-IJAHzo"/>
+    <hyperlink ref="C46" r:id="rId4" display="https://www.youtube.com/watch?v=Evt0k4xnvXY"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1696,10 +1748,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D158"/>
+  <dimension ref="A1:D159"/>
   <sheetViews>
     <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+      <selection activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2750,556 +2802,577 @@
       <c r="B89" t="s">
         <v>13</v>
       </c>
+      <c r="C89" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D89" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="1">
-        <v>43917</v>
-      </c>
-      <c r="B90" t="s">
-        <v>14</v>
+      <c r="A90" s="1"/>
+      <c r="C90" t="s">
+        <v>207</v>
+      </c>
+      <c r="D90" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="1">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="B91" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="1">
-        <v>43919</v>
+        <v>43918</v>
       </c>
       <c r="B92" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="1">
-        <v>43920</v>
+        <v>43919</v>
       </c>
       <c r="B93" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="1">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="B94" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="1">
-        <v>43922</v>
+        <v>43921</v>
       </c>
       <c r="B95" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="1">
-        <v>43923</v>
+        <v>43922</v>
       </c>
       <c r="B96" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="1">
-        <v>43924</v>
+        <v>43923</v>
       </c>
       <c r="B97" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="1">
-        <v>43925</v>
+        <v>43924</v>
       </c>
       <c r="B98" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="1">
-        <v>43926</v>
+        <v>43925</v>
       </c>
       <c r="B99" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1">
-        <v>43927</v>
+        <v>43926</v>
       </c>
       <c r="B100" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="1">
-        <v>43928</v>
+        <v>43927</v>
       </c>
       <c r="B101" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="1">
-        <v>43929</v>
+        <v>43928</v>
       </c>
       <c r="B102" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="1">
-        <v>43930</v>
+        <v>43929</v>
       </c>
       <c r="B103" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="1">
-        <v>43931</v>
+        <v>43930</v>
       </c>
       <c r="B104" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1">
-        <v>43932</v>
+        <v>43931</v>
       </c>
       <c r="B105" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1">
-        <v>43933</v>
+        <v>43932</v>
       </c>
       <c r="B106" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="1">
-        <v>43934</v>
+        <v>43933</v>
       </c>
       <c r="B107" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1">
-        <v>43935</v>
+        <v>43934</v>
       </c>
       <c r="B108" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1">
-        <v>43936</v>
+        <v>43935</v>
       </c>
       <c r="B109" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="1">
-        <v>43937</v>
+        <v>43936</v>
       </c>
       <c r="B110" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="1">
-        <v>43938</v>
+        <v>43937</v>
       </c>
       <c r="B111" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="1">
-        <v>43939</v>
+        <v>43938</v>
       </c>
       <c r="B112" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1">
-        <v>43940</v>
+        <v>43939</v>
       </c>
       <c r="B113" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="1">
-        <v>43941</v>
+        <v>43940</v>
       </c>
       <c r="B114" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="1">
-        <v>43942</v>
+        <v>43941</v>
       </c>
       <c r="B115" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="1">
-        <v>43943</v>
+        <v>43942</v>
       </c>
       <c r="B116" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="1">
-        <v>43944</v>
+        <v>43943</v>
       </c>
       <c r="B117" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="1">
-        <v>43945</v>
+        <v>43944</v>
       </c>
       <c r="B118" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="1">
-        <v>43946</v>
+        <v>43945</v>
       </c>
       <c r="B119" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="1">
-        <v>43947</v>
+        <v>43946</v>
       </c>
       <c r="B120" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="1">
-        <v>43948</v>
+        <v>43947</v>
       </c>
       <c r="B121" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="1">
-        <v>43949</v>
+        <v>43948</v>
       </c>
       <c r="B122" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="1">
-        <v>43950</v>
+        <v>43949</v>
       </c>
       <c r="B123" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="1">
-        <v>43951</v>
+        <v>43950</v>
       </c>
       <c r="B124" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="1">
-        <v>43952</v>
+        <v>43951</v>
       </c>
       <c r="B125" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="1">
-        <v>43953</v>
+        <v>43952</v>
       </c>
       <c r="B126" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="1">
-        <v>43954</v>
+        <v>43953</v>
       </c>
       <c r="B127" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="1">
-        <v>43955</v>
+        <v>43954</v>
       </c>
       <c r="B128" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="1">
-        <v>43956</v>
+        <v>43955</v>
       </c>
       <c r="B129" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="1">
-        <v>43957</v>
+        <v>43956</v>
       </c>
       <c r="B130" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="1">
-        <v>43958</v>
+        <v>43957</v>
       </c>
       <c r="B131" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="1">
-        <v>43959</v>
+        <v>43958</v>
       </c>
       <c r="B132" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="1">
-        <v>43960</v>
+        <v>43959</v>
       </c>
       <c r="B133" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="1">
-        <v>43961</v>
+        <v>43960</v>
       </c>
       <c r="B134" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="1">
-        <v>43962</v>
+        <v>43961</v>
       </c>
       <c r="B135" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="1">
-        <v>43963</v>
+        <v>43962</v>
       </c>
       <c r="B136" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="1">
-        <v>43964</v>
+        <v>43963</v>
       </c>
       <c r="B137" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="1">
-        <v>43965</v>
+        <v>43964</v>
       </c>
       <c r="B138" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="1">
-        <v>43966</v>
+        <v>43965</v>
       </c>
       <c r="B139" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="1">
-        <v>43967</v>
+        <v>43966</v>
       </c>
       <c r="B140" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="1">
-        <v>43968</v>
+        <v>43967</v>
       </c>
       <c r="B141" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="1">
-        <v>43969</v>
+        <v>43968</v>
       </c>
       <c r="B142" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="1">
-        <v>43970</v>
+        <v>43969</v>
       </c>
       <c r="B143" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="1">
-        <v>43971</v>
+        <v>43970</v>
       </c>
       <c r="B144" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="1">
-        <v>43972</v>
+        <v>43971</v>
       </c>
       <c r="B145" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="1">
-        <v>43973</v>
+        <v>43972</v>
       </c>
       <c r="B146" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="1">
-        <v>43974</v>
+        <v>43973</v>
       </c>
       <c r="B147" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="1">
-        <v>43975</v>
+        <v>43974</v>
       </c>
       <c r="B148" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="1">
-        <v>43976</v>
+        <v>43975</v>
       </c>
       <c r="B149" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="1">
-        <v>43977</v>
+        <v>43976</v>
       </c>
       <c r="B150" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="1">
-        <v>43978</v>
+        <v>43977</v>
       </c>
       <c r="B151" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="1">
-        <v>43979</v>
+        <v>43978</v>
       </c>
       <c r="B152" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="1">
-        <v>43980</v>
+        <v>43979</v>
       </c>
       <c r="B153" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="1">
-        <v>43981</v>
+        <v>43980</v>
       </c>
       <c r="B154" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="1">
-        <v>43982</v>
+        <v>43981</v>
       </c>
       <c r="B155" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="1">
-        <v>43983</v>
+        <v>43982</v>
       </c>
       <c r="B156" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="1">
-        <v>43984</v>
+        <v>43983</v>
       </c>
       <c r="B157" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B158" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="1">
         <v>43985</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B159" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3338,9 +3411,11 @@
     <hyperlink ref="C70" r:id="rId31"/>
     <hyperlink ref="C85" r:id="rId32"/>
     <hyperlink ref="C86" r:id="rId33"/>
+    <hyperlink ref="C89" r:id="rId34"/>
+    <hyperlink ref="C91" r:id="rId35"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId36"/>
 </worksheet>
 </file>
 
@@ -3348,8 +3423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3629,6 +3704,28 @@
         <v>198</v>
       </c>
       <c r="C26" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>203</v>
+      </c>
+      <c r="B27" t="s">
+        <v>204</v>
+      </c>
+      <c r="C27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C28" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3873,9 +3970,10 @@
     <hyperlink ref="A24" r:id="rId27"/>
     <hyperlink ref="A25" r:id="rId28"/>
     <hyperlink ref="A26" r:id="rId29"/>
+    <hyperlink ref="A28" r:id="rId30"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId30"/>
-  <legacyDrawing r:id="rId31"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId31"/>
+  <legacyDrawing r:id="rId32"/>
 </worksheet>
 </file>
--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="По задачам" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="216">
   <si>
     <t>Дата начала</t>
   </si>
@@ -782,6 +782,21 @@
   </si>
   <si>
     <t>Stream 26.03.2020</t>
+  </si>
+  <si>
+    <t>решил 8</t>
+  </si>
+  <si>
+    <t>Singolo DOM; Singolo. Responsive</t>
+  </si>
+  <si>
+    <t>работаю над этими задачами</t>
+  </si>
+  <si>
+    <t>https://htmldom.dev/</t>
+  </si>
+  <si>
+    <t>how to manage HTML DOM with vanilla JavaScript only?</t>
   </si>
 </sst>
 </file>
@@ -1171,8 +1186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1712,6 +1727,9 @@
       <c r="A46" s="1">
         <v>43916</v>
       </c>
+      <c r="B46" s="1">
+        <v>43916</v>
+      </c>
       <c r="C46" s="2" t="s">
         <v>206</v>
       </c>
@@ -1748,10 +1766,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D159"/>
+  <dimension ref="A1:D160"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="D91" sqref="D91"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94:D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2839,540 +2857,561 @@
       <c r="B92" t="s">
         <v>15</v>
       </c>
+      <c r="C92" t="s">
+        <v>207</v>
+      </c>
+      <c r="D92" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="1">
-        <v>43919</v>
-      </c>
-      <c r="B93" t="s">
-        <v>9</v>
+      <c r="A93" s="1"/>
+      <c r="C93" t="s">
+        <v>212</v>
+      </c>
+      <c r="D93" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="1">
-        <v>43920</v>
+        <v>43919</v>
       </c>
       <c r="B94" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="C94" t="s">
+        <v>212</v>
+      </c>
+      <c r="D94" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="1">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="B95" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="1">
-        <v>43922</v>
+        <v>43921</v>
       </c>
       <c r="B96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="1">
-        <v>43923</v>
+        <v>43922</v>
       </c>
       <c r="B97" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="1">
-        <v>43924</v>
+        <v>43923</v>
       </c>
       <c r="B98" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="1">
-        <v>43925</v>
+        <v>43924</v>
       </c>
       <c r="B99" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1">
-        <v>43926</v>
+        <v>43925</v>
       </c>
       <c r="B100" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="1">
-        <v>43927</v>
+        <v>43926</v>
       </c>
       <c r="B101" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="1">
-        <v>43928</v>
+        <v>43927</v>
       </c>
       <c r="B102" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="1">
-        <v>43929</v>
+        <v>43928</v>
       </c>
       <c r="B103" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" s="1">
-        <v>43930</v>
+        <v>43929</v>
       </c>
       <c r="B104" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1">
-        <v>43931</v>
+        <v>43930</v>
       </c>
       <c r="B105" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1">
-        <v>43932</v>
+        <v>43931</v>
       </c>
       <c r="B106" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="1">
-        <v>43933</v>
+        <v>43932</v>
       </c>
       <c r="B107" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1">
-        <v>43934</v>
+        <v>43933</v>
       </c>
       <c r="B108" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1">
-        <v>43935</v>
+        <v>43934</v>
       </c>
       <c r="B109" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="1">
-        <v>43936</v>
+        <v>43935</v>
       </c>
       <c r="B110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="1">
-        <v>43937</v>
+        <v>43936</v>
       </c>
       <c r="B111" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="1">
-        <v>43938</v>
+        <v>43937</v>
       </c>
       <c r="B112" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1">
-        <v>43939</v>
+        <v>43938</v>
       </c>
       <c r="B113" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="1">
-        <v>43940</v>
+        <v>43939</v>
       </c>
       <c r="B114" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="1">
-        <v>43941</v>
+        <v>43940</v>
       </c>
       <c r="B115" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="1">
-        <v>43942</v>
+        <v>43941</v>
       </c>
       <c r="B116" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="1">
-        <v>43943</v>
+        <v>43942</v>
       </c>
       <c r="B117" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="1">
-        <v>43944</v>
+        <v>43943</v>
       </c>
       <c r="B118" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="1">
-        <v>43945</v>
+        <v>43944</v>
       </c>
       <c r="B119" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="1">
-        <v>43946</v>
+        <v>43945</v>
       </c>
       <c r="B120" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="1">
-        <v>43947</v>
+        <v>43946</v>
       </c>
       <c r="B121" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="1">
-        <v>43948</v>
+        <v>43947</v>
       </c>
       <c r="B122" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="1">
-        <v>43949</v>
+        <v>43948</v>
       </c>
       <c r="B123" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="1">
-        <v>43950</v>
+        <v>43949</v>
       </c>
       <c r="B124" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="1">
-        <v>43951</v>
+        <v>43950</v>
       </c>
       <c r="B125" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="1">
-        <v>43952</v>
+        <v>43951</v>
       </c>
       <c r="B126" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="1">
-        <v>43953</v>
+        <v>43952</v>
       </c>
       <c r="B127" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="1">
-        <v>43954</v>
+        <v>43953</v>
       </c>
       <c r="B128" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="1">
-        <v>43955</v>
+        <v>43954</v>
       </c>
       <c r="B129" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="1">
-        <v>43956</v>
+        <v>43955</v>
       </c>
       <c r="B130" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="1">
-        <v>43957</v>
+        <v>43956</v>
       </c>
       <c r="B131" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="1">
-        <v>43958</v>
+        <v>43957</v>
       </c>
       <c r="B132" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="1">
-        <v>43959</v>
+        <v>43958</v>
       </c>
       <c r="B133" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="1">
-        <v>43960</v>
+        <v>43959</v>
       </c>
       <c r="B134" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="1">
-        <v>43961</v>
+        <v>43960</v>
       </c>
       <c r="B135" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="1">
-        <v>43962</v>
+        <v>43961</v>
       </c>
       <c r="B136" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="1">
-        <v>43963</v>
+        <v>43962</v>
       </c>
       <c r="B137" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="1">
-        <v>43964</v>
+        <v>43963</v>
       </c>
       <c r="B138" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="1">
-        <v>43965</v>
+        <v>43964</v>
       </c>
       <c r="B139" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="1">
-        <v>43966</v>
+        <v>43965</v>
       </c>
       <c r="B140" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="1">
-        <v>43967</v>
+        <v>43966</v>
       </c>
       <c r="B141" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="1">
-        <v>43968</v>
+        <v>43967</v>
       </c>
       <c r="B142" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="1">
-        <v>43969</v>
+        <v>43968</v>
       </c>
       <c r="B143" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="1">
-        <v>43970</v>
+        <v>43969</v>
       </c>
       <c r="B144" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="1">
-        <v>43971</v>
+        <v>43970</v>
       </c>
       <c r="B145" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="1">
-        <v>43972</v>
+        <v>43971</v>
       </c>
       <c r="B146" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="1">
-        <v>43973</v>
+        <v>43972</v>
       </c>
       <c r="B147" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="1">
-        <v>43974</v>
+        <v>43973</v>
       </c>
       <c r="B148" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="1">
-        <v>43975</v>
+        <v>43974</v>
       </c>
       <c r="B149" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="1">
-        <v>43976</v>
+        <v>43975</v>
       </c>
       <c r="B150" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="1">
-        <v>43977</v>
+        <v>43976</v>
       </c>
       <c r="B151" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="1">
-        <v>43978</v>
+        <v>43977</v>
       </c>
       <c r="B152" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="1">
-        <v>43979</v>
+        <v>43978</v>
       </c>
       <c r="B153" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="1">
-        <v>43980</v>
+        <v>43979</v>
       </c>
       <c r="B154" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="1">
-        <v>43981</v>
+        <v>43980</v>
       </c>
       <c r="B155" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="1">
-        <v>43982</v>
+        <v>43981</v>
       </c>
       <c r="B156" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="1">
-        <v>43983</v>
+        <v>43982</v>
       </c>
       <c r="B157" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="1">
-        <v>43984</v>
+        <v>43983</v>
       </c>
       <c r="B158" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B159" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="1">
         <v>43985</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B160" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3423,8 +3462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A43" sqref="A42:A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3828,6 +3867,14 @@
       </c>
       <c r="B44" t="s">
         <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>214</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="48" spans="1:2" s="4" customFormat="1">

--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="218">
   <si>
     <t>Дата начала</t>
   </si>
@@ -797,6 +797,12 @@
   </si>
   <si>
     <t>how to manage HTML DOM with vanilla JavaScript only?</t>
+  </si>
+  <si>
+    <t>Кросс-чек</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Singolo DOM; Singolo. Responsive - кросс-чек </t>
   </si>
 </sst>
 </file>
@@ -1184,10 +1190,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D48"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1719,6 +1725,9 @@
       <c r="A45" s="1">
         <v>43915</v>
       </c>
+      <c r="B45" s="1">
+        <v>43919</v>
+      </c>
       <c r="C45" t="s">
         <v>202</v>
       </c>
@@ -1751,6 +1760,17 @@
       </c>
       <c r="C48" s="8" t="s">
         <v>210</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B49" s="1">
+        <v>43921</v>
+      </c>
+      <c r="C49" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -1769,7 +1789,7 @@
   <dimension ref="A1:D160"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94:D94"/>
+      <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2901,6 +2921,12 @@
       </c>
       <c r="B96" t="s">
         <v>11</v>
+      </c>
+      <c r="C96" t="s">
+        <v>212</v>
+      </c>
+      <c r="D96" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="97" spans="1:2">

--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="По задачам" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="219">
   <si>
     <t>Дата начала</t>
   </si>
@@ -799,10 +799,13 @@
     <t>how to manage HTML DOM with vanilla JavaScript only?</t>
   </si>
   <si>
-    <t>Кросс-чек</t>
-  </si>
-  <si>
     <t xml:space="preserve">Singolo DOM; Singolo. Responsive - кросс-чек </t>
+  </si>
+  <si>
+    <t>Кросс-чек сделал ревью 4х работ</t>
+  </si>
+  <si>
+    <t>тружусь над этой задачей</t>
   </si>
 </sst>
 </file>
@@ -1193,7 +1196,7 @@
   <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1770,7 +1773,7 @@
         <v>43921</v>
       </c>
       <c r="C49" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -1788,8 +1791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="C96" sqref="C96"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2926,18 +2929,24 @@
         <v>212</v>
       </c>
       <c r="D96" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1">
         <v>43922</v>
       </c>
       <c r="B97" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="98" spans="1:2">
+      <c r="C97" t="s">
+        <v>200</v>
+      </c>
+      <c r="D97" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1">
         <v>43923</v>
       </c>
@@ -2945,7 +2954,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
+    <row r="99" spans="1:4">
       <c r="A99" s="1">
         <v>43924</v>
       </c>
@@ -2953,7 +2962,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:4">
       <c r="A100" s="1">
         <v>43925</v>
       </c>
@@ -2961,7 +2970,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:4">
       <c r="A101" s="1">
         <v>43926</v>
       </c>
@@ -2969,7 +2978,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:4">
       <c r="A102" s="1">
         <v>43927</v>
       </c>
@@ -2977,7 +2986,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:4">
       <c r="A103" s="1">
         <v>43928</v>
       </c>
@@ -2985,7 +2994,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:4">
       <c r="A104" s="1">
         <v>43929</v>
       </c>
@@ -2993,7 +3002,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:4">
       <c r="A105" s="1">
         <v>43930</v>
       </c>
@@ -3001,7 +3010,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:4">
       <c r="A106" s="1">
         <v>43931</v>
       </c>
@@ -3009,7 +3018,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:4">
       <c r="A107" s="1">
         <v>43932</v>
       </c>
@@ -3017,7 +3026,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:4">
       <c r="A108" s="1">
         <v>43933</v>
       </c>
@@ -3025,7 +3034,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:4">
       <c r="A109" s="1">
         <v>43934</v>
       </c>
@@ -3033,7 +3042,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:4">
       <c r="A110" s="1">
         <v>43935</v>
       </c>
@@ -3041,7 +3050,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:4">
       <c r="A111" s="1">
         <v>43936</v>
       </c>
@@ -3049,7 +3058,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:4">
       <c r="A112" s="1">
         <v>43937</v>
       </c>
@@ -3488,7 +3497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A43" sqref="A42:A43"/>
     </sheetView>
   </sheetViews>

--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="219">
   <si>
     <t>Дата начала</t>
   </si>
@@ -1792,7 +1792,7 @@
   <dimension ref="A1:D160"/>
   <sheetViews>
     <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+      <selection activeCell="C98" sqref="C98:D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2952,6 +2952,12 @@
       </c>
       <c r="B98" t="s">
         <v>13</v>
+      </c>
+      <c r="C98" t="s">
+        <v>200</v>
+      </c>
+      <c r="D98" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="99" spans="1:4">

--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440"/>
   </bookViews>
   <sheets>
     <sheet name="По задачам" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="221">
   <si>
     <t>Дата начала</t>
   </si>
@@ -806,6 +806,12 @@
   </si>
   <si>
     <t>тружусь над этой задачей</t>
+  </si>
+  <si>
+    <t>Тест - Продвинутый HTML &amp; CSS. Вариант 1</t>
+  </si>
+  <si>
+    <t>сделал тест</t>
   </si>
 </sst>
 </file>
@@ -1193,10 +1199,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1776,6 +1782,17 @@
         <v>216</v>
       </c>
     </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>43924</v>
+      </c>
+      <c r="B50" s="1">
+        <v>43924</v>
+      </c>
+      <c r="C50" t="s">
+        <v>219</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C27" r:id="rId1" display="https://www.youtube.com/watch?v=ZAde-IJAHzo"/>
@@ -1789,10 +1806,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D160"/>
+  <dimension ref="A1:D161"/>
   <sheetViews>
     <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="C98" sqref="C98:D98"/>
+      <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2967,492 +2984,507 @@
       <c r="B99" t="s">
         <v>14</v>
       </c>
+      <c r="C99" t="s">
+        <v>200</v>
+      </c>
+      <c r="D99" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="1">
-        <v>43925</v>
-      </c>
-      <c r="B100" t="s">
-        <v>15</v>
+      <c r="A100" s="1"/>
+      <c r="C100" t="s">
+        <v>219</v>
+      </c>
+      <c r="D100" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="1">
-        <v>43926</v>
+        <v>43925</v>
       </c>
       <c r="B101" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="1">
-        <v>43927</v>
+        <v>43926</v>
       </c>
       <c r="B102" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="1">
-        <v>43928</v>
+        <v>43927</v>
       </c>
       <c r="B103" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="1">
-        <v>43929</v>
+        <v>43928</v>
       </c>
       <c r="B104" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="1">
-        <v>43930</v>
+        <v>43929</v>
       </c>
       <c r="B105" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="1">
-        <v>43931</v>
+        <v>43930</v>
       </c>
       <c r="B106" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="1">
-        <v>43932</v>
+        <v>43931</v>
       </c>
       <c r="B107" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="1">
-        <v>43933</v>
+        <v>43932</v>
       </c>
       <c r="B108" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="1">
-        <v>43934</v>
+        <v>43933</v>
       </c>
       <c r="B109" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="1">
-        <v>43935</v>
+        <v>43934</v>
       </c>
       <c r="B110" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="1">
-        <v>43936</v>
+        <v>43935</v>
       </c>
       <c r="B111" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="1">
-        <v>43937</v>
+        <v>43936</v>
       </c>
       <c r="B112" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1">
-        <v>43938</v>
+        <v>43937</v>
       </c>
       <c r="B113" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="1">
-        <v>43939</v>
+        <v>43938</v>
       </c>
       <c r="B114" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="1">
-        <v>43940</v>
+        <v>43939</v>
       </c>
       <c r="B115" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="1">
-        <v>43941</v>
+        <v>43940</v>
       </c>
       <c r="B116" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="1">
-        <v>43942</v>
+        <v>43941</v>
       </c>
       <c r="B117" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="1">
-        <v>43943</v>
+        <v>43942</v>
       </c>
       <c r="B118" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="1">
-        <v>43944</v>
+        <v>43943</v>
       </c>
       <c r="B119" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="1">
-        <v>43945</v>
+        <v>43944</v>
       </c>
       <c r="B120" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="1">
-        <v>43946</v>
+        <v>43945</v>
       </c>
       <c r="B121" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="1">
-        <v>43947</v>
+        <v>43946</v>
       </c>
       <c r="B122" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="1">
-        <v>43948</v>
+        <v>43947</v>
       </c>
       <c r="B123" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="1">
-        <v>43949</v>
+        <v>43948</v>
       </c>
       <c r="B124" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="1">
-        <v>43950</v>
+        <v>43949</v>
       </c>
       <c r="B125" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="1">
-        <v>43951</v>
+        <v>43950</v>
       </c>
       <c r="B126" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="1">
-        <v>43952</v>
+        <v>43951</v>
       </c>
       <c r="B127" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="1">
-        <v>43953</v>
+        <v>43952</v>
       </c>
       <c r="B128" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="1">
-        <v>43954</v>
+        <v>43953</v>
       </c>
       <c r="B129" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="1">
-        <v>43955</v>
+        <v>43954</v>
       </c>
       <c r="B130" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="1">
-        <v>43956</v>
+        <v>43955</v>
       </c>
       <c r="B131" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="1">
-        <v>43957</v>
+        <v>43956</v>
       </c>
       <c r="B132" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="1">
-        <v>43958</v>
+        <v>43957</v>
       </c>
       <c r="B133" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="1">
-        <v>43959</v>
+        <v>43958</v>
       </c>
       <c r="B134" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="1">
-        <v>43960</v>
+        <v>43959</v>
       </c>
       <c r="B135" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="1">
-        <v>43961</v>
+        <v>43960</v>
       </c>
       <c r="B136" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="1">
-        <v>43962</v>
+        <v>43961</v>
       </c>
       <c r="B137" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="1">
-        <v>43963</v>
+        <v>43962</v>
       </c>
       <c r="B138" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="1">
-        <v>43964</v>
+        <v>43963</v>
       </c>
       <c r="B139" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="1">
-        <v>43965</v>
+        <v>43964</v>
       </c>
       <c r="B140" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="1">
-        <v>43966</v>
+        <v>43965</v>
       </c>
       <c r="B141" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="1">
-        <v>43967</v>
+        <v>43966</v>
       </c>
       <c r="B142" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="1">
-        <v>43968</v>
+        <v>43967</v>
       </c>
       <c r="B143" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="1">
-        <v>43969</v>
+        <v>43968</v>
       </c>
       <c r="B144" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="1">
-        <v>43970</v>
+        <v>43969</v>
       </c>
       <c r="B145" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="1">
-        <v>43971</v>
+        <v>43970</v>
       </c>
       <c r="B146" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="1">
-        <v>43972</v>
+        <v>43971</v>
       </c>
       <c r="B147" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="1">
-        <v>43973</v>
+        <v>43972</v>
       </c>
       <c r="B148" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="1">
-        <v>43974</v>
+        <v>43973</v>
       </c>
       <c r="B149" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="1">
-        <v>43975</v>
+        <v>43974</v>
       </c>
       <c r="B150" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="1">
-        <v>43976</v>
+        <v>43975</v>
       </c>
       <c r="B151" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="1">
-        <v>43977</v>
+        <v>43976</v>
       </c>
       <c r="B152" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="1">
-        <v>43978</v>
+        <v>43977</v>
       </c>
       <c r="B153" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="1">
-        <v>43979</v>
+        <v>43978</v>
       </c>
       <c r="B154" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="1">
-        <v>43980</v>
+        <v>43979</v>
       </c>
       <c r="B155" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="1">
-        <v>43981</v>
+        <v>43980</v>
       </c>
       <c r="B156" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="1">
-        <v>43982</v>
+        <v>43981</v>
       </c>
       <c r="B157" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="1">
-        <v>43983</v>
+        <v>43982</v>
       </c>
       <c r="B158" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="1">
-        <v>43984</v>
+        <v>43983</v>
       </c>
       <c r="B159" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B160" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="1">
         <v>43985</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B161" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3503,7 +3535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A43" sqref="A42:A43"/>
     </sheetView>
   </sheetViews>

--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="По задачам" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="222">
   <si>
     <t>Дата начала</t>
   </si>
@@ -812,6 +812,9 @@
   </si>
   <si>
     <t>сделал тест</t>
+  </si>
+  <si>
+    <t>Закончил эту задачу</t>
   </si>
 </sst>
 </file>
@@ -1201,8 +1204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1771,7 +1774,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:4">
       <c r="A49" s="1">
         <v>43921</v>
       </c>
@@ -1782,7 +1785,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:4">
       <c r="A50" s="1">
         <v>43924</v>
       </c>
@@ -1791,6 +1794,9 @@
       </c>
       <c r="C50" t="s">
         <v>219</v>
+      </c>
+      <c r="D50">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1808,8 +1814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D161"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3006,6 +3012,12 @@
       </c>
       <c r="B101" t="s">
         <v>15</v>
+      </c>
+      <c r="C101" t="s">
+        <v>200</v>
+      </c>
+      <c r="D101" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="102" spans="1:4">

--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="222">
   <si>
     <t>Дата начала</t>
   </si>
@@ -814,7 +814,7 @@
     <t>сделал тест</t>
   </si>
   <si>
-    <t>Закончил эту задачу</t>
+    <t>решил 7</t>
   </si>
 </sst>
 </file>
@@ -1812,10 +1812,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D161"/>
+  <dimension ref="A1:D162"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99"/>
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3017,486 +3017,495 @@
         <v>200</v>
       </c>
       <c r="D101" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1"/>
+      <c r="C102" t="s">
+        <v>207</v>
+      </c>
+      <c r="D102" t="s">
         <v>221</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="1">
-        <v>43926</v>
-      </c>
-      <c r="B102" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="1">
-        <v>43927</v>
+        <v>43926</v>
       </c>
       <c r="B103" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="1">
-        <v>43928</v>
+        <v>43927</v>
       </c>
       <c r="B104" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="1">
-        <v>43929</v>
+        <v>43928</v>
       </c>
       <c r="B105" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="1">
-        <v>43930</v>
+        <v>43929</v>
       </c>
       <c r="B106" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="1">
-        <v>43931</v>
+        <v>43930</v>
       </c>
       <c r="B107" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="1">
-        <v>43932</v>
+        <v>43931</v>
       </c>
       <c r="B108" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="1">
-        <v>43933</v>
+        <v>43932</v>
       </c>
       <c r="B109" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="1">
-        <v>43934</v>
+        <v>43933</v>
       </c>
       <c r="B110" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="1">
-        <v>43935</v>
+        <v>43934</v>
       </c>
       <c r="B111" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="1">
-        <v>43936</v>
+        <v>43935</v>
       </c>
       <c r="B112" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1">
-        <v>43937</v>
+        <v>43936</v>
       </c>
       <c r="B113" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="1">
-        <v>43938</v>
+        <v>43937</v>
       </c>
       <c r="B114" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="1">
-        <v>43939</v>
+        <v>43938</v>
       </c>
       <c r="B115" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="1">
-        <v>43940</v>
+        <v>43939</v>
       </c>
       <c r="B116" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="1">
-        <v>43941</v>
+        <v>43940</v>
       </c>
       <c r="B117" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="1">
-        <v>43942</v>
+        <v>43941</v>
       </c>
       <c r="B118" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="1">
-        <v>43943</v>
+        <v>43942</v>
       </c>
       <c r="B119" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="1">
-        <v>43944</v>
+        <v>43943</v>
       </c>
       <c r="B120" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="1">
-        <v>43945</v>
+        <v>43944</v>
       </c>
       <c r="B121" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="1">
-        <v>43946</v>
+        <v>43945</v>
       </c>
       <c r="B122" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="1">
-        <v>43947</v>
+        <v>43946</v>
       </c>
       <c r="B123" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="1">
-        <v>43948</v>
+        <v>43947</v>
       </c>
       <c r="B124" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="1">
-        <v>43949</v>
+        <v>43948</v>
       </c>
       <c r="B125" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="1">
-        <v>43950</v>
+        <v>43949</v>
       </c>
       <c r="B126" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="1">
-        <v>43951</v>
+        <v>43950</v>
       </c>
       <c r="B127" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="1">
-        <v>43952</v>
+        <v>43951</v>
       </c>
       <c r="B128" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="1">
-        <v>43953</v>
+        <v>43952</v>
       </c>
       <c r="B129" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="1">
-        <v>43954</v>
+        <v>43953</v>
       </c>
       <c r="B130" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="1">
-        <v>43955</v>
+        <v>43954</v>
       </c>
       <c r="B131" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="1">
-        <v>43956</v>
+        <v>43955</v>
       </c>
       <c r="B132" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="1">
-        <v>43957</v>
+        <v>43956</v>
       </c>
       <c r="B133" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="1">
-        <v>43958</v>
+        <v>43957</v>
       </c>
       <c r="B134" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="1">
-        <v>43959</v>
+        <v>43958</v>
       </c>
       <c r="B135" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="1">
-        <v>43960</v>
+        <v>43959</v>
       </c>
       <c r="B136" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="1">
-        <v>43961</v>
+        <v>43960</v>
       </c>
       <c r="B137" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="1">
-        <v>43962</v>
+        <v>43961</v>
       </c>
       <c r="B138" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="1">
-        <v>43963</v>
+        <v>43962</v>
       </c>
       <c r="B139" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="1">
-        <v>43964</v>
+        <v>43963</v>
       </c>
       <c r="B140" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="1">
-        <v>43965</v>
+        <v>43964</v>
       </c>
       <c r="B141" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="1">
-        <v>43966</v>
+        <v>43965</v>
       </c>
       <c r="B142" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="1">
-        <v>43967</v>
+        <v>43966</v>
       </c>
       <c r="B143" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="1">
-        <v>43968</v>
+        <v>43967</v>
       </c>
       <c r="B144" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="1">
-        <v>43969</v>
+        <v>43968</v>
       </c>
       <c r="B145" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="1">
-        <v>43970</v>
+        <v>43969</v>
       </c>
       <c r="B146" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="1">
-        <v>43971</v>
+        <v>43970</v>
       </c>
       <c r="B147" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="1">
-        <v>43972</v>
+        <v>43971</v>
       </c>
       <c r="B148" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="1">
-        <v>43973</v>
+        <v>43972</v>
       </c>
       <c r="B149" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="1">
-        <v>43974</v>
+        <v>43973</v>
       </c>
       <c r="B150" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="1">
-        <v>43975</v>
+        <v>43974</v>
       </c>
       <c r="B151" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="1">
-        <v>43976</v>
+        <v>43975</v>
       </c>
       <c r="B152" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="1">
-        <v>43977</v>
+        <v>43976</v>
       </c>
       <c r="B153" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="1">
-        <v>43978</v>
+        <v>43977</v>
       </c>
       <c r="B154" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="1">
-        <v>43979</v>
+        <v>43978</v>
       </c>
       <c r="B155" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="1">
-        <v>43980</v>
+        <v>43979</v>
       </c>
       <c r="B156" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="1">
-        <v>43981</v>
+        <v>43980</v>
       </c>
       <c r="B157" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="1">
-        <v>43982</v>
+        <v>43981</v>
       </c>
       <c r="B158" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="1">
-        <v>43983</v>
+        <v>43982</v>
       </c>
       <c r="B159" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="1">
-        <v>43984</v>
+        <v>43983</v>
       </c>
       <c r="B160" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B161" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="1">
         <v>43985</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B162" t="s">
         <v>12</v>
       </c>
     </row>

--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="222">
   <si>
     <t>Дата начала</t>
   </si>
@@ -1815,7 +1815,7 @@
   <dimension ref="A1:D162"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="D102" sqref="D102"/>
+      <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3036,6 +3036,12 @@
       <c r="B103" t="s">
         <v>9</v>
       </c>
+      <c r="C103" t="s">
+        <v>200</v>
+      </c>
+      <c r="D103" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="1">
@@ -3043,6 +3049,12 @@
       </c>
       <c r="B104" t="s">
         <v>10</v>
+      </c>
+      <c r="C104" t="s">
+        <v>200</v>
+      </c>
+      <c r="D104" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="105" spans="1:4">

--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="По задачам" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="223">
   <si>
     <t>Дата начала</t>
   </si>
@@ -815,6 +815,9 @@
   </si>
   <si>
     <t>решил 7</t>
+  </si>
+  <si>
+    <t>Закончил эту задачу</t>
   </si>
 </sst>
 </file>
@@ -1205,7 +1208,7 @@
   <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1728,6 +1731,9 @@
     <row r="44" spans="1:4">
       <c r="A44" s="1">
         <v>43915</v>
+      </c>
+      <c r="B44" s="1">
+        <v>774413</v>
       </c>
       <c r="C44" t="s">
         <v>200</v>
@@ -1814,8 +1820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3063,6 +3069,12 @@
       </c>
       <c r="B105" t="s">
         <v>11</v>
+      </c>
+      <c r="C105" t="s">
+        <v>200</v>
+      </c>
+      <c r="D105" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -3568,7 +3580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A43" sqref="A42:A43"/>
     </sheetView>
   </sheetViews>

--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="230">
   <si>
     <t>Дата начала</t>
   </si>
@@ -818,6 +818,27 @@
   </si>
   <si>
     <t>Закончил эту задачу</t>
+  </si>
+  <si>
+    <t>Code runner</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xXBce4ZLcCQ</t>
+  </si>
+  <si>
+    <t>English for kids. Task overview</t>
+  </si>
+  <si>
+    <t>Кросс-чек виртуальной клавиатуры сделал</t>
+  </si>
+  <si>
+    <t>Виртуальная клавиатура, кросс-чек</t>
+  </si>
+  <si>
+    <t>решил 25</t>
+  </si>
+  <si>
+    <t>Коммиты после ментора</t>
   </si>
 </sst>
 </file>
@@ -1205,10 +1226,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1805,6 +1826,28 @@
         <v>90</v>
       </c>
     </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B51" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C51" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B52" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C52" t="s">
+        <v>226</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C27" r:id="rId1" display="https://www.youtube.com/watch?v=ZAde-IJAHzo"/>
@@ -1818,10 +1861,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D162"/>
+  <dimension ref="A1:D165"/>
   <sheetViews>
     <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="D106" sqref="D106"/>
+      <selection activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3084,452 +3127,485 @@
       <c r="B106" t="s">
         <v>12</v>
       </c>
+      <c r="C106" t="s">
+        <v>207</v>
+      </c>
+      <c r="D106" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="1">
-        <v>43930</v>
-      </c>
-      <c r="B107" t="s">
-        <v>13</v>
+      <c r="A107" s="1"/>
+      <c r="C107" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D107" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="1">
-        <v>43931</v>
-      </c>
-      <c r="B108" t="s">
-        <v>14</v>
+      <c r="A108" s="1"/>
+      <c r="C108" t="s">
+        <v>227</v>
+      </c>
+      <c r="D108" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="109" spans="1:4">
-      <c r="A109" s="1">
-        <v>43932</v>
-      </c>
-      <c r="B109" t="s">
-        <v>15</v>
+      <c r="A109" s="1"/>
+      <c r="C109" t="s">
+        <v>200</v>
+      </c>
+      <c r="D109" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="1">
-        <v>43933</v>
+        <v>43930</v>
       </c>
       <c r="B110" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="1">
-        <v>43934</v>
+        <v>43931</v>
       </c>
       <c r="B111" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="1">
-        <v>43935</v>
+        <v>43932</v>
       </c>
       <c r="B112" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1">
-        <v>43936</v>
+        <v>43933</v>
       </c>
       <c r="B113" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="1">
-        <v>43937</v>
+        <v>43934</v>
       </c>
       <c r="B114" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="1">
-        <v>43938</v>
+        <v>43935</v>
       </c>
       <c r="B115" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="1">
-        <v>43939</v>
+        <v>43936</v>
       </c>
       <c r="B116" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="1">
-        <v>43940</v>
+        <v>43937</v>
       </c>
       <c r="B117" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="1">
-        <v>43941</v>
+        <v>43938</v>
       </c>
       <c r="B118" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="1">
-        <v>43942</v>
+        <v>43939</v>
       </c>
       <c r="B119" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="1">
-        <v>43943</v>
+        <v>43940</v>
       </c>
       <c r="B120" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="1">
-        <v>43944</v>
+        <v>43941</v>
       </c>
       <c r="B121" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="1">
-        <v>43945</v>
+        <v>43942</v>
       </c>
       <c r="B122" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="1">
-        <v>43946</v>
+        <v>43943</v>
       </c>
       <c r="B123" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="1">
-        <v>43947</v>
+        <v>43944</v>
       </c>
       <c r="B124" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="1">
-        <v>43948</v>
+        <v>43945</v>
       </c>
       <c r="B125" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="1">
-        <v>43949</v>
+        <v>43946</v>
       </c>
       <c r="B126" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="1">
-        <v>43950</v>
+        <v>43947</v>
       </c>
       <c r="B127" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="1">
-        <v>43951</v>
+        <v>43948</v>
       </c>
       <c r="B128" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="1">
-        <v>43952</v>
+        <v>43949</v>
       </c>
       <c r="B129" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="1">
-        <v>43953</v>
+        <v>43950</v>
       </c>
       <c r="B130" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="1">
-        <v>43954</v>
+        <v>43951</v>
       </c>
       <c r="B131" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="1">
-        <v>43955</v>
+        <v>43952</v>
       </c>
       <c r="B132" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="1">
-        <v>43956</v>
+        <v>43953</v>
       </c>
       <c r="B133" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="1">
-        <v>43957</v>
+        <v>43954</v>
       </c>
       <c r="B134" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="1">
-        <v>43958</v>
+        <v>43955</v>
       </c>
       <c r="B135" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="1">
-        <v>43959</v>
+        <v>43956</v>
       </c>
       <c r="B136" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="1">
-        <v>43960</v>
+        <v>43957</v>
       </c>
       <c r="B137" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="1">
-        <v>43961</v>
+        <v>43958</v>
       </c>
       <c r="B138" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="1">
-        <v>43962</v>
+        <v>43959</v>
       </c>
       <c r="B139" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="1">
-        <v>43963</v>
+        <v>43960</v>
       </c>
       <c r="B140" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="1">
-        <v>43964</v>
+        <v>43961</v>
       </c>
       <c r="B141" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="1">
-        <v>43965</v>
+        <v>43962</v>
       </c>
       <c r="B142" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="1">
-        <v>43966</v>
+        <v>43963</v>
       </c>
       <c r="B143" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="1">
-        <v>43967</v>
+        <v>43964</v>
       </c>
       <c r="B144" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="1">
-        <v>43968</v>
+        <v>43965</v>
       </c>
       <c r="B145" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="1">
-        <v>43969</v>
+        <v>43966</v>
       </c>
       <c r="B146" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="1">
-        <v>43970</v>
+        <v>43967</v>
       </c>
       <c r="B147" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="1">
-        <v>43971</v>
+        <v>43968</v>
       </c>
       <c r="B148" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="1">
-        <v>43972</v>
+        <v>43969</v>
       </c>
       <c r="B149" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="1">
-        <v>43973</v>
+        <v>43970</v>
       </c>
       <c r="B150" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="1">
-        <v>43974</v>
+        <v>43971</v>
       </c>
       <c r="B151" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="1">
-        <v>43975</v>
+        <v>43972</v>
       </c>
       <c r="B152" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="1">
-        <v>43976</v>
+        <v>43973</v>
       </c>
       <c r="B153" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="1">
-        <v>43977</v>
+        <v>43974</v>
       </c>
       <c r="B154" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="1">
-        <v>43978</v>
+        <v>43975</v>
       </c>
       <c r="B155" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="1">
-        <v>43979</v>
+        <v>43976</v>
       </c>
       <c r="B156" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="1">
-        <v>43980</v>
+        <v>43977</v>
       </c>
       <c r="B157" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="1">
-        <v>43981</v>
+        <v>43978</v>
       </c>
       <c r="B158" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="1">
-        <v>43982</v>
+        <v>43979</v>
       </c>
       <c r="B159" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="1">
-        <v>43983</v>
+        <v>43980</v>
       </c>
       <c r="B160" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="1">
-        <v>43984</v>
+        <v>43981</v>
       </c>
       <c r="B161" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B162" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B163" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B164" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="1">
         <v>43985</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B165" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3570,18 +3646,19 @@
     <hyperlink ref="C86" r:id="rId33"/>
     <hyperlink ref="C89" r:id="rId34"/>
     <hyperlink ref="C91" r:id="rId35"/>
+    <hyperlink ref="C107" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId36"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A43" sqref="A42:A43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3886,6 +3963,17 @@
         <v>132</v>
       </c>
     </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>224</v>
+      </c>
+      <c r="B29" t="s">
+        <v>225</v>
+      </c>
+      <c r="C29" t="s">
+        <v>132</v>
+      </c>
+    </row>
     <row r="32" spans="1:3" s="4" customFormat="1">
       <c r="A32" s="5" t="s">
         <v>36</v>
@@ -4102,6 +4190,14 @@
       </c>
       <c r="B61" t="s">
         <v>174</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>93</v>
+      </c>
+      <c r="B62" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="По задачам" sheetId="1" r:id="rId1"/>
@@ -838,7 +838,7 @@
     <t>решил 25</t>
   </si>
   <si>
-    <t>Коммиты после ментора</t>
+    <t>Коммиты после замечаний ментора</t>
   </si>
 </sst>
 </file>
@@ -1863,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D165"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="D110" sqref="D110"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3657,7 +3657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>

--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -835,10 +835,10 @@
     <t>Виртуальная клавиатура, кросс-чек</t>
   </si>
   <si>
-    <t>решил 25</t>
-  </si>
-  <si>
     <t>Коммиты после замечаний ментора</t>
+  </si>
+  <si>
+    <t>решил 25, 9, 11</t>
   </si>
 </sst>
 </file>
@@ -1864,7 +1864,7 @@
   <dimension ref="A1:D165"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+      <selection activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3131,7 +3131,7 @@
         <v>207</v>
       </c>
       <c r="D106" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3158,7 +3158,7 @@
         <v>200</v>
       </c>
       <c r="D109" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="110" spans="1:4">

--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="240">
   <si>
     <t>Дата начала</t>
   </si>
@@ -839,6 +839,36 @@
   </si>
   <si>
     <t>решил 25, 9, 11</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=hJ-iN2NARX8</t>
+  </si>
+  <si>
+    <t>Node.JS 2020Q1 Lecture Logging &amp; Error Handling</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cP08joG36F0</t>
+  </si>
+  <si>
+    <t>Webinar 07.10.2019 JavaScript Intro</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AztaCnsgxKc</t>
+  </si>
+  <si>
+    <t>Evening Talk: Algorithms bootstrap</t>
+  </si>
+  <si>
+    <t>https://devdocs.io/</t>
+  </si>
+  <si>
+    <t>Инфа про все команды и операторы</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9xlASUb9tyo</t>
+  </si>
+  <si>
+    <t>2020Q1 Virtual keyboard. Task review</t>
   </si>
 </sst>
 </file>
@@ -1226,10 +1256,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D52"/>
+  <sheetPr codeName="Лист1"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+      <selection activeCell="B54" sqref="B54:B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1848,12 +1879,46 @@
         <v>226</v>
       </c>
     </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B53" s="1">
+        <v>43930</v>
+      </c>
+      <c r="C53" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B54" s="1">
+        <v>43930</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B55" s="1">
+        <v>43931</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C27" r:id="rId1" display="https://www.youtube.com/watch?v=ZAde-IJAHzo"/>
     <hyperlink ref="C29" r:id="rId2" display="https://www.youtube.com/watch?v=HihYQVuH64U"/>
     <hyperlink ref="C37" r:id="rId3" display="https://www.youtube.com/watch?v=ZAde-IJAHzo"/>
     <hyperlink ref="C46" r:id="rId4" display="https://www.youtube.com/watch?v=Evt0k4xnvXY"/>
+    <hyperlink ref="C55" r:id="rId5" display="https://www.youtube.com/watch?v=9xlASUb9tyo"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1861,10 +1926,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D165"/>
+  <dimension ref="A1:D166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="D107" sqref="D107"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="D113" sqref="D113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3168,444 +3233,465 @@
       <c r="B110" t="s">
         <v>13</v>
       </c>
+      <c r="C110" t="s">
+        <v>232</v>
+      </c>
+      <c r="D110" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="1">
-        <v>43931</v>
-      </c>
-      <c r="B111" t="s">
-        <v>14</v>
+      <c r="A111" s="1"/>
+      <c r="C111" t="s">
+        <v>234</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="1">
-        <v>43932</v>
+        <v>43931</v>
       </c>
       <c r="B112" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D112" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1">
-        <v>43933</v>
+        <v>43932</v>
       </c>
       <c r="B113" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="1">
-        <v>43934</v>
+        <v>43933</v>
       </c>
       <c r="B114" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="1">
-        <v>43935</v>
+        <v>43934</v>
       </c>
       <c r="B115" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="1">
-        <v>43936</v>
+        <v>43935</v>
       </c>
       <c r="B116" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="1">
-        <v>43937</v>
+        <v>43936</v>
       </c>
       <c r="B117" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="1">
-        <v>43938</v>
+        <v>43937</v>
       </c>
       <c r="B118" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="1">
-        <v>43939</v>
+        <v>43938</v>
       </c>
       <c r="B119" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="1">
-        <v>43940</v>
+        <v>43939</v>
       </c>
       <c r="B120" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="1">
-        <v>43941</v>
+        <v>43940</v>
       </c>
       <c r="B121" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="1">
-        <v>43942</v>
+        <v>43941</v>
       </c>
       <c r="B122" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="1">
-        <v>43943</v>
+        <v>43942</v>
       </c>
       <c r="B123" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" s="1">
-        <v>43944</v>
+        <v>43943</v>
       </c>
       <c r="B124" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="1">
-        <v>43945</v>
+        <v>43944</v>
       </c>
       <c r="B125" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="1">
-        <v>43946</v>
+        <v>43945</v>
       </c>
       <c r="B126" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="1">
-        <v>43947</v>
+        <v>43946</v>
       </c>
       <c r="B127" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="1">
-        <v>43948</v>
+        <v>43947</v>
       </c>
       <c r="B128" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="1">
-        <v>43949</v>
+        <v>43948</v>
       </c>
       <c r="B129" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="1">
-        <v>43950</v>
+        <v>43949</v>
       </c>
       <c r="B130" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="1">
-        <v>43951</v>
+        <v>43950</v>
       </c>
       <c r="B131" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="1">
-        <v>43952</v>
+        <v>43951</v>
       </c>
       <c r="B132" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="1">
-        <v>43953</v>
+        <v>43952</v>
       </c>
       <c r="B133" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="1">
-        <v>43954</v>
+        <v>43953</v>
       </c>
       <c r="B134" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="1">
-        <v>43955</v>
+        <v>43954</v>
       </c>
       <c r="B135" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="1">
-        <v>43956</v>
+        <v>43955</v>
       </c>
       <c r="B136" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="1">
-        <v>43957</v>
+        <v>43956</v>
       </c>
       <c r="B137" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="1">
-        <v>43958</v>
+        <v>43957</v>
       </c>
       <c r="B138" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="1">
-        <v>43959</v>
+        <v>43958</v>
       </c>
       <c r="B139" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="1">
-        <v>43960</v>
+        <v>43959</v>
       </c>
       <c r="B140" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="1">
-        <v>43961</v>
+        <v>43960</v>
       </c>
       <c r="B141" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="1">
-        <v>43962</v>
+        <v>43961</v>
       </c>
       <c r="B142" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="1">
-        <v>43963</v>
+        <v>43962</v>
       </c>
       <c r="B143" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="1">
-        <v>43964</v>
+        <v>43963</v>
       </c>
       <c r="B144" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="1">
-        <v>43965</v>
+        <v>43964</v>
       </c>
       <c r="B145" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="1">
-        <v>43966</v>
+        <v>43965</v>
       </c>
       <c r="B146" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="1">
-        <v>43967</v>
+        <v>43966</v>
       </c>
       <c r="B147" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="1">
-        <v>43968</v>
+        <v>43967</v>
       </c>
       <c r="B148" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="1">
-        <v>43969</v>
+        <v>43968</v>
       </c>
       <c r="B149" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="1">
-        <v>43970</v>
+        <v>43969</v>
       </c>
       <c r="B150" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="1">
-        <v>43971</v>
+        <v>43970</v>
       </c>
       <c r="B151" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="1">
-        <v>43972</v>
+        <v>43971</v>
       </c>
       <c r="B152" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="1">
-        <v>43973</v>
+        <v>43972</v>
       </c>
       <c r="B153" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="1">
-        <v>43974</v>
+        <v>43973</v>
       </c>
       <c r="B154" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="1">
-        <v>43975</v>
+        <v>43974</v>
       </c>
       <c r="B155" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="1">
-        <v>43976</v>
+        <v>43975</v>
       </c>
       <c r="B156" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="1">
-        <v>43977</v>
+        <v>43976</v>
       </c>
       <c r="B157" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="1">
-        <v>43978</v>
+        <v>43977</v>
       </c>
       <c r="B158" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="1">
-        <v>43979</v>
+        <v>43978</v>
       </c>
       <c r="B159" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="1">
-        <v>43980</v>
+        <v>43979</v>
       </c>
       <c r="B160" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="1">
-        <v>43981</v>
+        <v>43980</v>
       </c>
       <c r="B161" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="1">
-        <v>43982</v>
+        <v>43981</v>
       </c>
       <c r="B162" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="1">
-        <v>43983</v>
+        <v>43982</v>
       </c>
       <c r="B163" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="1">
-        <v>43984</v>
+        <v>43983</v>
       </c>
       <c r="B164" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B165" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="1">
         <v>43985</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B166" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3647,18 +3733,19 @@
     <hyperlink ref="C89" r:id="rId34"/>
     <hyperlink ref="C91" r:id="rId35"/>
     <hyperlink ref="C107" r:id="rId36"/>
+    <hyperlink ref="C112" r:id="rId37"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId38"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3974,257 +4061,309 @@
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="4" customFormat="1">
-      <c r="A32" s="5" t="s">
+    <row r="30" spans="1:3">
+      <c r="A30" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B30" t="s">
+        <v>231</v>
+      </c>
+      <c r="C30" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>232</v>
+      </c>
+      <c r="B31" t="s">
+        <v>233</v>
+      </c>
+      <c r="C31" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>234</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C32" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B33" t="s">
+        <v>239</v>
+      </c>
+      <c r="C33" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" s="4" customFormat="1">
+      <c r="A45" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="2" t="s">
+    <row r="46" spans="1:3">
+      <c r="A46" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B46" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="2" t="s">
+    <row r="47" spans="1:3">
+      <c r="A47" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B47" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="2" t="s">
+    <row r="48" spans="1:3">
+      <c r="A48" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B48" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B36" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B37" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B38" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B39" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>129</v>
-      </c>
-      <c r="B40" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B41" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B42" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>142</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>145</v>
-      </c>
-      <c r="B44" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>214</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" s="4" customFormat="1">
-      <c r="A48" s="5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="2" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="B49" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="2" t="s">
-        <v>42</v>
+        <v>113</v>
       </c>
       <c r="B50" t="s">
-        <v>43</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>47</v>
+      <c r="A51" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="B51" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>49</v>
+      <c r="A52" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="2" t="s">
-        <v>59</v>
+      <c r="A53" t="s">
+        <v>129</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="2" t="s">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="B54" t="s">
-        <v>83</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>84</v>
+      <c r="A55" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="B55" t="s">
-        <v>83</v>
+        <v>137</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B56" t="s">
-        <v>86</v>
+      <c r="A56" t="s">
+        <v>142</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="B57" t="s">
-        <v>92</v>
+        <v>146</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>156</v>
-      </c>
-      <c r="B58" t="s">
-        <v>157</v>
+        <v>214</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
+        <v>236</v>
+      </c>
+      <c r="B59" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" s="4" customFormat="1">
+      <c r="A63" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B64" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B65" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>47</v>
+      </c>
+      <c r="B66" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>49</v>
+      </c>
+      <c r="B67" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B68" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B69" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>84</v>
+      </c>
+      <c r="B70" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B71" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>93</v>
+      </c>
+      <c r="B72" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>156</v>
+      </c>
+      <c r="B73" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
         <v>159</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B74" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
         <v>160</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B75" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="2" t="s">
+    <row r="76" spans="1:2">
+      <c r="A76" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B76" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
         <v>93</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B77" t="s">
         <v>223</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A49" r:id="rId1"/>
+    <hyperlink ref="A64" r:id="rId1"/>
     <hyperlink ref="A6" r:id="rId2"/>
-    <hyperlink ref="A50" r:id="rId3"/>
+    <hyperlink ref="A65" r:id="rId3"/>
     <hyperlink ref="A7" r:id="rId4"/>
-    <hyperlink ref="A53" r:id="rId5"/>
+    <hyperlink ref="A68" r:id="rId5"/>
     <hyperlink ref="A9" r:id="rId6"/>
     <hyperlink ref="A10" r:id="rId7"/>
-    <hyperlink ref="A54" r:id="rId8"/>
-    <hyperlink ref="A56" r:id="rId9"/>
+    <hyperlink ref="A69" r:id="rId8"/>
+    <hyperlink ref="A71" r:id="rId9"/>
     <hyperlink ref="A11" r:id="rId10"/>
-    <hyperlink ref="A33" r:id="rId11" location="/2"/>
-    <hyperlink ref="A35" r:id="rId12"/>
-    <hyperlink ref="A36" r:id="rId13"/>
-    <hyperlink ref="A37" r:id="rId14"/>
-    <hyperlink ref="A38" r:id="rId15"/>
+    <hyperlink ref="A46" r:id="rId11" location="/2"/>
+    <hyperlink ref="A48" r:id="rId12"/>
+    <hyperlink ref="A49" r:id="rId13"/>
+    <hyperlink ref="A50" r:id="rId14"/>
+    <hyperlink ref="A51" r:id="rId15"/>
     <hyperlink ref="A13" r:id="rId16"/>
     <hyperlink ref="A14" r:id="rId17"/>
-    <hyperlink ref="A41" r:id="rId18"/>
+    <hyperlink ref="A54" r:id="rId18"/>
     <hyperlink ref="A15" r:id="rId19"/>
     <hyperlink ref="A16" r:id="rId20"/>
     <hyperlink ref="A18" r:id="rId21"/>
     <hyperlink ref="A19" r:id="rId22"/>
-    <hyperlink ref="A61" r:id="rId23"/>
+    <hyperlink ref="A76" r:id="rId23"/>
     <hyperlink ref="A20" r:id="rId24"/>
     <hyperlink ref="B20" r:id="rId25" display="https://www.youtube.com/watch?v=ZAde-IJAHzo"/>
     <hyperlink ref="A23" r:id="rId26"/>
@@ -4232,9 +4371,11 @@
     <hyperlink ref="A25" r:id="rId28"/>
     <hyperlink ref="A26" r:id="rId29"/>
     <hyperlink ref="A28" r:id="rId30"/>
+    <hyperlink ref="A30" r:id="rId31"/>
+    <hyperlink ref="A33" r:id="rId32"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId31"/>
-  <legacyDrawing r:id="rId32"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId33"/>
+  <legacyDrawing r:id="rId34"/>
 </worksheet>
 </file>
--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="247">
   <si>
     <t>Дата начала</t>
   </si>
@@ -869,6 +869,27 @@
   </si>
   <si>
     <t>2020Q1 Virtual keyboard. Task review</t>
+  </si>
+  <si>
+    <t>Закончил эту задачу )))))</t>
+  </si>
+  <si>
+    <t>English for kids. Q &amp; A</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ctpBIPygV4k</t>
+  </si>
+  <si>
+    <t>решил 12, 31</t>
+  </si>
+  <si>
+    <t>решил 32, 15</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=bJjmepEDEoM</t>
+  </si>
+  <si>
+    <t>Rolling Scopes School. JS Intro. JS Data Types (18.03.2019)</t>
   </si>
 </sst>
 </file>
@@ -1257,10 +1278,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54:B55"/>
+      <selection activeCell="B56" sqref="B56:B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1785,7 +1806,7 @@
         <v>43915</v>
       </c>
       <c r="B44" s="1">
-        <v>774413</v>
+        <v>774416</v>
       </c>
       <c r="C44" t="s">
         <v>200</v>
@@ -1910,6 +1931,28 @@
       </c>
       <c r="C55" s="2" t="s">
         <v>239</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B56" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C56" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B57" s="1">
+        <v>43933</v>
+      </c>
+      <c r="C57" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -1926,10 +1969,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D166"/>
+  <dimension ref="A1:D169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="D113" sqref="D113"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="D116" sqref="D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3263,435 +3306,474 @@
         <v>239</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="1">
+    <row r="113" spans="1:4">
+      <c r="A113" s="1"/>
+      <c r="C113" t="s">
+        <v>200</v>
+      </c>
+      <c r="D113" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1">
         <v>43932</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B114" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="1">
+      <c r="C114" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D114" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1"/>
+      <c r="C115" t="s">
+        <v>207</v>
+      </c>
+      <c r="D115" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1">
         <v>43933</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B116" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="1">
+      <c r="C116" t="s">
+        <v>207</v>
+      </c>
+      <c r="D116" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1"/>
+      <c r="C117" t="s">
+        <v>245</v>
+      </c>
+      <c r="D117" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1">
         <v>43934</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B118" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
-      <c r="A116" s="1">
+    <row r="119" spans="1:4">
+      <c r="A119" s="1">
         <v>43935</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B119" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="1">
+    <row r="120" spans="1:4">
+      <c r="A120" s="1">
         <v>43936</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B120" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="1">
+    <row r="121" spans="1:4">
+      <c r="A121" s="1">
         <v>43937</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B121" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
-      <c r="A119" s="1">
+    <row r="122" spans="1:4">
+      <c r="A122" s="1">
         <v>43938</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B122" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
-      <c r="A120" s="1">
+    <row r="123" spans="1:4">
+      <c r="A123" s="1">
         <v>43939</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B123" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
-      <c r="A121" s="1">
+    <row r="124" spans="1:4">
+      <c r="A124" s="1">
         <v>43940</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B124" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="1">
+    <row r="125" spans="1:4">
+      <c r="A125" s="1">
         <v>43941</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B125" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="1">
+    <row r="126" spans="1:4">
+      <c r="A126" s="1">
         <v>43942</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B126" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="1">
+    <row r="127" spans="1:4">
+      <c r="A127" s="1">
         <v>43943</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B127" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="1">
+    <row r="128" spans="1:4">
+      <c r="A128" s="1">
         <v>43944</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B128" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="1">
-        <v>43945</v>
-      </c>
-      <c r="B126" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="1">
-        <v>43946</v>
-      </c>
-      <c r="B127" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="1">
-        <v>43947</v>
-      </c>
-      <c r="B128" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="1">
-        <v>43948</v>
+        <v>43945</v>
       </c>
       <c r="B129" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="1">
-        <v>43949</v>
+        <v>43946</v>
       </c>
       <c r="B130" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="1">
-        <v>43950</v>
+        <v>43947</v>
       </c>
       <c r="B131" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="1">
-        <v>43951</v>
+        <v>43948</v>
       </c>
       <c r="B132" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="1">
-        <v>43952</v>
+        <v>43949</v>
       </c>
       <c r="B133" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="1">
-        <v>43953</v>
+        <v>43950</v>
       </c>
       <c r="B134" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="1">
-        <v>43954</v>
+        <v>43951</v>
       </c>
       <c r="B135" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="1">
-        <v>43955</v>
+        <v>43952</v>
       </c>
       <c r="B136" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="1">
-        <v>43956</v>
+        <v>43953</v>
       </c>
       <c r="B137" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="1">
-        <v>43957</v>
+        <v>43954</v>
       </c>
       <c r="B138" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="1">
-        <v>43958</v>
+        <v>43955</v>
       </c>
       <c r="B139" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="1">
-        <v>43959</v>
+        <v>43956</v>
       </c>
       <c r="B140" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="1">
-        <v>43960</v>
+        <v>43957</v>
       </c>
       <c r="B141" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="1">
-        <v>43961</v>
+        <v>43958</v>
       </c>
       <c r="B142" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="1">
-        <v>43962</v>
+        <v>43959</v>
       </c>
       <c r="B143" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="1">
-        <v>43963</v>
+        <v>43960</v>
       </c>
       <c r="B144" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="1">
-        <v>43964</v>
+        <v>43961</v>
       </c>
       <c r="B145" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="1">
-        <v>43965</v>
+        <v>43962</v>
       </c>
       <c r="B146" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="1">
-        <v>43966</v>
+        <v>43963</v>
       </c>
       <c r="B147" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="1">
-        <v>43967</v>
+        <v>43964</v>
       </c>
       <c r="B148" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="1">
-        <v>43968</v>
+        <v>43965</v>
       </c>
       <c r="B149" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="1">
-        <v>43969</v>
+        <v>43966</v>
       </c>
       <c r="B150" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="1">
-        <v>43970</v>
+        <v>43967</v>
       </c>
       <c r="B151" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="1">
-        <v>43971</v>
+        <v>43968</v>
       </c>
       <c r="B152" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="1">
-        <v>43972</v>
+        <v>43969</v>
       </c>
       <c r="B153" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="1">
-        <v>43973</v>
+        <v>43970</v>
       </c>
       <c r="B154" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="1">
-        <v>43974</v>
+        <v>43971</v>
       </c>
       <c r="B155" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="1">
-        <v>43975</v>
+        <v>43972</v>
       </c>
       <c r="B156" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="1">
-        <v>43976</v>
+        <v>43973</v>
       </c>
       <c r="B157" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="1">
-        <v>43977</v>
+        <v>43974</v>
       </c>
       <c r="B158" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="1">
-        <v>43978</v>
+        <v>43975</v>
       </c>
       <c r="B159" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="1">
-        <v>43979</v>
+        <v>43976</v>
       </c>
       <c r="B160" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="1">
-        <v>43980</v>
+        <v>43977</v>
       </c>
       <c r="B161" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="1">
-        <v>43981</v>
+        <v>43978</v>
       </c>
       <c r="B162" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="1">
-        <v>43982</v>
+        <v>43979</v>
       </c>
       <c r="B163" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="1">
-        <v>43983</v>
+        <v>43980</v>
       </c>
       <c r="B164" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="1">
-        <v>43984</v>
+        <v>43981</v>
       </c>
       <c r="B165" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B166" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B167" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B168" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="1">
         <v>43985</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B169" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3734,9 +3816,10 @@
     <hyperlink ref="C91" r:id="rId35"/>
     <hyperlink ref="C107" r:id="rId36"/>
     <hyperlink ref="C112" r:id="rId37"/>
+    <hyperlink ref="C114" r:id="rId38"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId38"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId39"/>
 </worksheet>
 </file>
 
@@ -3745,7 +3828,7 @@
   <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32:C33"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4102,6 +4185,28 @@
         <v>239</v>
       </c>
       <c r="C33" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B34" t="s">
+        <v>241</v>
+      </c>
+      <c r="C34" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>245</v>
+      </c>
+      <c r="B35" t="s">
+        <v>246</v>
+      </c>
+      <c r="C35" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4373,9 +4478,10 @@
     <hyperlink ref="A28" r:id="rId30"/>
     <hyperlink ref="A30" r:id="rId31"/>
     <hyperlink ref="A33" r:id="rId32"/>
+    <hyperlink ref="A34" r:id="rId33"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId33"/>
-  <legacyDrawing r:id="rId34"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
+  <legacyDrawing r:id="rId35"/>
 </worksheet>
 </file>
--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="По задачам" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="249">
   <si>
     <t>Дата начала</t>
   </si>
@@ -883,13 +883,19 @@
     <t>решил 12, 31</t>
   </si>
   <si>
-    <t>решил 32, 15</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=bJjmepEDEoM</t>
   </si>
   <si>
     <t>Rolling Scopes School. JS Intro. JS Data Types (18.03.2019)</t>
+  </si>
+  <si>
+    <t>решил 32, 15, 10, 14</t>
+  </si>
+  <si>
+    <t>English for kids.</t>
+  </si>
+  <si>
+    <t>Начал делать эту задачу, сбор материала</t>
   </si>
 </sst>
 </file>
@@ -1278,10 +1284,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56:B57"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1941,7 +1947,7 @@
         <v>43932</v>
       </c>
       <c r="C56" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1952,7 +1958,15 @@
         <v>43933</v>
       </c>
       <c r="C57" t="s">
-        <v>246</v>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C58" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -1971,8 +1985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="D116" sqref="D116"/>
+    <sheetView topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3349,16 +3363,16 @@
         <v>207</v>
       </c>
       <c r="D116" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="1"/>
       <c r="C117" t="s">
+        <v>244</v>
+      </c>
+      <c r="D117" t="s">
         <v>245</v>
-      </c>
-      <c r="D117" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -3367,6 +3381,12 @@
       </c>
       <c r="B118" t="s">
         <v>10</v>
+      </c>
+      <c r="C118" t="s">
+        <v>247</v>
+      </c>
+      <c r="D118" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -3827,14 +3847,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="55.28515625" customWidth="1"/>
-    <col min="2" max="2" width="59" customWidth="1"/>
+    <col min="2" max="2" width="64.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="3" customFormat="1">
@@ -4201,10 +4221,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
+        <v>244</v>
+      </c>
+      <c r="B35" t="s">
         <v>245</v>
-      </c>
-      <c r="B35" t="s">
-        <v>246</v>
       </c>
       <c r="C35" t="s">
         <v>132</v>

--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="252">
   <si>
     <t>Дата начала</t>
   </si>
@@ -896,6 +896,15 @@
   </si>
   <si>
     <t>Начал делать эту задачу, сбор материала</t>
+  </si>
+  <si>
+    <t>JS Arrays</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9G0UxbpuSnE</t>
+  </si>
+  <si>
+    <t>Приватный репозиторий от школы. Бургер меню</t>
   </si>
 </sst>
 </file>
@@ -1284,10 +1293,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1955,7 +1964,7 @@
         <v>43933</v>
       </c>
       <c r="B57" s="1">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="C57" t="s">
         <v>245</v>
@@ -1967,6 +1976,17 @@
       </c>
       <c r="C58" t="s">
         <v>247</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B59" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C59" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -1983,10 +2003,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D169"/>
+  <dimension ref="A1:D170"/>
   <sheetViews>
     <sheetView topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="D119" sqref="D119"/>
+      <selection activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3390,410 +3410,425 @@
       </c>
     </row>
     <row r="119" spans="1:4">
-      <c r="A119" s="1">
-        <v>43935</v>
-      </c>
-      <c r="B119" t="s">
-        <v>11</v>
+      <c r="A119" s="1"/>
+      <c r="C119" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D119" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="1">
-        <v>43936</v>
+        <v>43935</v>
       </c>
       <c r="B120" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C120" t="s">
+        <v>247</v>
+      </c>
+      <c r="D120" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="1">
-        <v>43937</v>
+        <v>43936</v>
       </c>
       <c r="B121" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="1">
-        <v>43938</v>
+        <v>43937</v>
       </c>
       <c r="B122" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="1">
-        <v>43939</v>
+        <v>43938</v>
       </c>
       <c r="B123" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="1">
-        <v>43940</v>
+        <v>43939</v>
       </c>
       <c r="B124" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="1">
-        <v>43941</v>
+        <v>43940</v>
       </c>
       <c r="B125" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="1">
-        <v>43942</v>
+        <v>43941</v>
       </c>
       <c r="B126" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="1">
-        <v>43943</v>
+        <v>43942</v>
       </c>
       <c r="B127" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="1">
-        <v>43944</v>
+        <v>43943</v>
       </c>
       <c r="B128" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="1">
-        <v>43945</v>
+        <v>43944</v>
       </c>
       <c r="B129" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="1">
-        <v>43946</v>
+        <v>43945</v>
       </c>
       <c r="B130" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="1">
-        <v>43947</v>
+        <v>43946</v>
       </c>
       <c r="B131" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="1">
-        <v>43948</v>
+        <v>43947</v>
       </c>
       <c r="B132" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="1">
-        <v>43949</v>
+        <v>43948</v>
       </c>
       <c r="B133" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="1">
-        <v>43950</v>
+        <v>43949</v>
       </c>
       <c r="B134" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="1">
-        <v>43951</v>
+        <v>43950</v>
       </c>
       <c r="B135" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="1">
-        <v>43952</v>
+        <v>43951</v>
       </c>
       <c r="B136" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="1">
-        <v>43953</v>
+        <v>43952</v>
       </c>
       <c r="B137" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="1">
-        <v>43954</v>
+        <v>43953</v>
       </c>
       <c r="B138" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="1">
-        <v>43955</v>
+        <v>43954</v>
       </c>
       <c r="B139" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="1">
-        <v>43956</v>
+        <v>43955</v>
       </c>
       <c r="B140" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="1">
-        <v>43957</v>
+        <v>43956</v>
       </c>
       <c r="B141" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="1">
-        <v>43958</v>
+        <v>43957</v>
       </c>
       <c r="B142" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="1">
-        <v>43959</v>
+        <v>43958</v>
       </c>
       <c r="B143" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="1">
-        <v>43960</v>
+        <v>43959</v>
       </c>
       <c r="B144" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="1">
-        <v>43961</v>
+        <v>43960</v>
       </c>
       <c r="B145" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="1">
-        <v>43962</v>
+        <v>43961</v>
       </c>
       <c r="B146" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="1">
-        <v>43963</v>
+        <v>43962</v>
       </c>
       <c r="B147" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="1">
-        <v>43964</v>
+        <v>43963</v>
       </c>
       <c r="B148" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="1">
-        <v>43965</v>
+        <v>43964</v>
       </c>
       <c r="B149" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="1">
-        <v>43966</v>
+        <v>43965</v>
       </c>
       <c r="B150" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="1">
-        <v>43967</v>
+        <v>43966</v>
       </c>
       <c r="B151" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="1">
-        <v>43968</v>
+        <v>43967</v>
       </c>
       <c r="B152" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="1">
-        <v>43969</v>
+        <v>43968</v>
       </c>
       <c r="B153" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="1">
-        <v>43970</v>
+        <v>43969</v>
       </c>
       <c r="B154" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="1">
-        <v>43971</v>
+        <v>43970</v>
       </c>
       <c r="B155" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="1">
-        <v>43972</v>
+        <v>43971</v>
       </c>
       <c r="B156" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="1">
-        <v>43973</v>
+        <v>43972</v>
       </c>
       <c r="B157" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="1">
-        <v>43974</v>
+        <v>43973</v>
       </c>
       <c r="B158" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="1">
-        <v>43975</v>
+        <v>43974</v>
       </c>
       <c r="B159" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="1">
-        <v>43976</v>
+        <v>43975</v>
       </c>
       <c r="B160" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="1">
-        <v>43977</v>
+        <v>43976</v>
       </c>
       <c r="B161" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="1">
-        <v>43978</v>
+        <v>43977</v>
       </c>
       <c r="B162" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="1">
-        <v>43979</v>
+        <v>43978</v>
       </c>
       <c r="B163" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="1">
-        <v>43980</v>
+        <v>43979</v>
       </c>
       <c r="B164" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="1">
-        <v>43981</v>
+        <v>43980</v>
       </c>
       <c r="B165" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="1">
-        <v>43982</v>
+        <v>43981</v>
       </c>
       <c r="B166" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="1">
-        <v>43983</v>
+        <v>43982</v>
       </c>
       <c r="B167" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="1">
-        <v>43984</v>
+        <v>43983</v>
       </c>
       <c r="B168" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B169" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="1">
         <v>43985</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B170" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3837,9 +3872,10 @@
     <hyperlink ref="C107" r:id="rId36"/>
     <hyperlink ref="C112" r:id="rId37"/>
     <hyperlink ref="C114" r:id="rId38"/>
+    <hyperlink ref="C119" r:id="rId39"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId39"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId40"/>
 </worksheet>
 </file>
 
@@ -3847,8 +3883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4227,6 +4263,17 @@
         <v>245</v>
       </c>
       <c r="C35" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B36" t="s">
+        <v>249</v>
+      </c>
+      <c r="C36" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4499,9 +4546,10 @@
     <hyperlink ref="A30" r:id="rId31"/>
     <hyperlink ref="A33" r:id="rId32"/>
     <hyperlink ref="A34" r:id="rId33"/>
+    <hyperlink ref="A36" r:id="rId34"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
-  <legacyDrawing r:id="rId35"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId35"/>
+  <legacyDrawing r:id="rId36"/>
 </worksheet>
 </file>
--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="255">
   <si>
     <t>Дата начала</t>
   </si>
@@ -905,6 +905,15 @@
   </si>
   <si>
     <t>Приватный репозиторий от школы. Бургер меню</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=BChnzvaM4fU</t>
+  </si>
+  <si>
+    <t>RS 2020Q2 Chrome DevTools</t>
+  </si>
+  <si>
+    <t>Делаю задачу</t>
   </si>
 </sst>
 </file>
@@ -1293,10 +1302,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1987,6 +1996,17 @@
       </c>
       <c r="C59" t="s">
         <v>249</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B60" s="1">
+        <v>43936</v>
+      </c>
+      <c r="C60" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -2003,10 +2023,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D170"/>
+  <dimension ref="A1:D171"/>
   <sheetViews>
     <sheetView topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="C121" sqref="C121"/>
+      <selection activeCell="C123" sqref="C123:D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3439,396 +3459,417 @@
       <c r="B121" t="s">
         <v>12</v>
       </c>
+      <c r="C121" t="s">
+        <v>247</v>
+      </c>
+      <c r="D121" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="122" spans="1:4">
-      <c r="A122" s="1">
-        <v>43937</v>
-      </c>
-      <c r="B122" t="s">
-        <v>13</v>
+      <c r="A122" s="1"/>
+      <c r="C122" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D122" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="1">
-        <v>43938</v>
+        <v>43937</v>
       </c>
       <c r="B123" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="C123" t="s">
+        <v>247</v>
+      </c>
+      <c r="D123" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="1">
-        <v>43939</v>
+        <v>43938</v>
       </c>
       <c r="B124" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="1">
-        <v>43940</v>
+        <v>43939</v>
       </c>
       <c r="B125" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="1">
-        <v>43941</v>
+        <v>43940</v>
       </c>
       <c r="B126" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="1">
-        <v>43942</v>
+        <v>43941</v>
       </c>
       <c r="B127" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="1">
-        <v>43943</v>
+        <v>43942</v>
       </c>
       <c r="B128" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="1">
-        <v>43944</v>
+        <v>43943</v>
       </c>
       <c r="B129" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="1">
-        <v>43945</v>
+        <v>43944</v>
       </c>
       <c r="B130" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="1">
-        <v>43946</v>
+        <v>43945</v>
       </c>
       <c r="B131" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="1">
-        <v>43947</v>
+        <v>43946</v>
       </c>
       <c r="B132" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="1">
-        <v>43948</v>
+        <v>43947</v>
       </c>
       <c r="B133" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="1">
-        <v>43949</v>
+        <v>43948</v>
       </c>
       <c r="B134" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="1">
-        <v>43950</v>
+        <v>43949</v>
       </c>
       <c r="B135" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="1">
-        <v>43951</v>
+        <v>43950</v>
       </c>
       <c r="B136" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="1">
-        <v>43952</v>
+        <v>43951</v>
       </c>
       <c r="B137" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="1">
-        <v>43953</v>
+        <v>43952</v>
       </c>
       <c r="B138" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="1">
-        <v>43954</v>
+        <v>43953</v>
       </c>
       <c r="B139" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="1">
-        <v>43955</v>
+        <v>43954</v>
       </c>
       <c r="B140" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="1">
-        <v>43956</v>
+        <v>43955</v>
       </c>
       <c r="B141" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="1">
-        <v>43957</v>
+        <v>43956</v>
       </c>
       <c r="B142" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="1">
-        <v>43958</v>
+        <v>43957</v>
       </c>
       <c r="B143" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="1">
-        <v>43959</v>
+        <v>43958</v>
       </c>
       <c r="B144" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="1">
-        <v>43960</v>
+        <v>43959</v>
       </c>
       <c r="B145" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="1">
-        <v>43961</v>
+        <v>43960</v>
       </c>
       <c r="B146" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="1">
-        <v>43962</v>
+        <v>43961</v>
       </c>
       <c r="B147" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="1">
-        <v>43963</v>
+        <v>43962</v>
       </c>
       <c r="B148" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="1">
-        <v>43964</v>
+        <v>43963</v>
       </c>
       <c r="B149" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="1">
-        <v>43965</v>
+        <v>43964</v>
       </c>
       <c r="B150" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="1">
-        <v>43966</v>
+        <v>43965</v>
       </c>
       <c r="B151" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="1">
-        <v>43967</v>
+        <v>43966</v>
       </c>
       <c r="B152" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="1">
-        <v>43968</v>
+        <v>43967</v>
       </c>
       <c r="B153" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="1">
-        <v>43969</v>
+        <v>43968</v>
       </c>
       <c r="B154" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="1">
-        <v>43970</v>
+        <v>43969</v>
       </c>
       <c r="B155" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="1">
-        <v>43971</v>
+        <v>43970</v>
       </c>
       <c r="B156" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="1">
-        <v>43972</v>
+        <v>43971</v>
       </c>
       <c r="B157" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="1">
-        <v>43973</v>
+        <v>43972</v>
       </c>
       <c r="B158" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="1">
-        <v>43974</v>
+        <v>43973</v>
       </c>
       <c r="B159" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="1">
-        <v>43975</v>
+        <v>43974</v>
       </c>
       <c r="B160" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="1">
-        <v>43976</v>
+        <v>43975</v>
       </c>
       <c r="B161" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="1">
-        <v>43977</v>
+        <v>43976</v>
       </c>
       <c r="B162" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="1">
-        <v>43978</v>
+        <v>43977</v>
       </c>
       <c r="B163" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="1">
-        <v>43979</v>
+        <v>43978</v>
       </c>
       <c r="B164" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="1">
-        <v>43980</v>
+        <v>43979</v>
       </c>
       <c r="B165" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="1">
-        <v>43981</v>
+        <v>43980</v>
       </c>
       <c r="B166" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="1">
-        <v>43982</v>
+        <v>43981</v>
       </c>
       <c r="B167" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="1">
-        <v>43983</v>
+        <v>43982</v>
       </c>
       <c r="B168" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="1">
-        <v>43984</v>
+        <v>43983</v>
       </c>
       <c r="B169" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B170" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="1">
         <v>43985</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B171" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3873,9 +3914,10 @@
     <hyperlink ref="C112" r:id="rId37"/>
     <hyperlink ref="C114" r:id="rId38"/>
     <hyperlink ref="C119" r:id="rId39"/>
+    <hyperlink ref="C122" r:id="rId40"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId40"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId41"/>
 </worksheet>
 </file>
 
@@ -3883,8 +3925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4274,6 +4316,17 @@
         <v>249</v>
       </c>
       <c r="C36" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B37" t="s">
+        <v>253</v>
+      </c>
+      <c r="C37" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4547,9 +4600,10 @@
     <hyperlink ref="A33" r:id="rId32"/>
     <hyperlink ref="A34" r:id="rId33"/>
     <hyperlink ref="A36" r:id="rId34"/>
+    <hyperlink ref="A37" r:id="rId35"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId35"/>
-  <legacyDrawing r:id="rId36"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId36"/>
+  <legacyDrawing r:id="rId37"/>
 </worksheet>
 </file>
--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="259">
   <si>
     <t>Дата начала</t>
   </si>
@@ -914,6 +914,18 @@
   </si>
   <si>
     <t>Делаю задачу</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nuQW_cBLR6Q</t>
+  </si>
+  <si>
+    <t>2020Q1 Live Coding for task Virtual Keyboard</t>
+  </si>
+  <si>
+    <t>Учебный тест по js basics. 48h</t>
+  </si>
+  <si>
+    <t>165 / 205</t>
   </si>
 </sst>
 </file>
@@ -1302,10 +1314,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2008,6 +2020,23 @@
       <c r="C60" t="s">
         <v>253</v>
       </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B61" s="1">
+        <v>43938</v>
+      </c>
+      <c r="C61" t="s">
+        <v>257</v>
+      </c>
+      <c r="D61" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2023,10 +2052,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D171"/>
+  <dimension ref="A1:D172"/>
   <sheetViews>
     <sheetView topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="C123" sqref="C123:D123"/>
+      <selection activeCell="C126" sqref="C126:D126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3496,380 +3525,401 @@
       <c r="B124" t="s">
         <v>14</v>
       </c>
+      <c r="C124" t="s">
+        <v>247</v>
+      </c>
+      <c r="D124" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="1">
-        <v>43939</v>
-      </c>
-      <c r="B125" t="s">
-        <v>15</v>
+      <c r="A125" s="1"/>
+      <c r="C125" t="s">
+        <v>257</v>
+      </c>
+      <c r="D125" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="1">
-        <v>43940</v>
+        <v>43939</v>
       </c>
       <c r="B126" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="C126" t="s">
+        <v>247</v>
+      </c>
+      <c r="D126" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="1">
-        <v>43941</v>
+        <v>43940</v>
       </c>
       <c r="B127" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="1">
-        <v>43942</v>
+        <v>43941</v>
       </c>
       <c r="B128" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" s="1">
-        <v>43943</v>
+        <v>43942</v>
       </c>
       <c r="B129" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="130" spans="1:2">
       <c r="A130" s="1">
-        <v>43944</v>
+        <v>43943</v>
       </c>
       <c r="B130" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="1">
-        <v>43945</v>
+        <v>43944</v>
       </c>
       <c r="B131" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="132" spans="1:2">
       <c r="A132" s="1">
-        <v>43946</v>
+        <v>43945</v>
       </c>
       <c r="B132" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="1">
-        <v>43947</v>
+        <v>43946</v>
       </c>
       <c r="B133" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="1">
-        <v>43948</v>
+        <v>43947</v>
       </c>
       <c r="B134" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="1">
-        <v>43949</v>
+        <v>43948</v>
       </c>
       <c r="B135" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="1">
-        <v>43950</v>
+        <v>43949</v>
       </c>
       <c r="B136" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="1">
-        <v>43951</v>
+        <v>43950</v>
       </c>
       <c r="B137" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="1">
-        <v>43952</v>
+        <v>43951</v>
       </c>
       <c r="B138" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="1">
-        <v>43953</v>
+        <v>43952</v>
       </c>
       <c r="B139" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="1">
-        <v>43954</v>
+        <v>43953</v>
       </c>
       <c r="B140" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="1">
-        <v>43955</v>
+        <v>43954</v>
       </c>
       <c r="B141" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="1">
-        <v>43956</v>
+        <v>43955</v>
       </c>
       <c r="B142" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="1">
-        <v>43957</v>
+        <v>43956</v>
       </c>
       <c r="B143" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="1">
-        <v>43958</v>
+        <v>43957</v>
       </c>
       <c r="B144" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="1">
-        <v>43959</v>
+        <v>43958</v>
       </c>
       <c r="B145" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="1">
-        <v>43960</v>
+        <v>43959</v>
       </c>
       <c r="B146" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="1">
-        <v>43961</v>
+        <v>43960</v>
       </c>
       <c r="B147" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="1">
-        <v>43962</v>
+        <v>43961</v>
       </c>
       <c r="B148" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="1">
-        <v>43963</v>
+        <v>43962</v>
       </c>
       <c r="B149" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="1">
-        <v>43964</v>
+        <v>43963</v>
       </c>
       <c r="B150" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="1">
-        <v>43965</v>
+        <v>43964</v>
       </c>
       <c r="B151" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="1">
-        <v>43966</v>
+        <v>43965</v>
       </c>
       <c r="B152" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="1">
-        <v>43967</v>
+        <v>43966</v>
       </c>
       <c r="B153" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="1">
-        <v>43968</v>
+        <v>43967</v>
       </c>
       <c r="B154" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="1">
-        <v>43969</v>
+        <v>43968</v>
       </c>
       <c r="B155" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="1">
-        <v>43970</v>
+        <v>43969</v>
       </c>
       <c r="B156" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="1">
-        <v>43971</v>
+        <v>43970</v>
       </c>
       <c r="B157" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="1">
-        <v>43972</v>
+        <v>43971</v>
       </c>
       <c r="B158" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="1">
-        <v>43973</v>
+        <v>43972</v>
       </c>
       <c r="B159" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="1">
-        <v>43974</v>
+        <v>43973</v>
       </c>
       <c r="B160" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="1">
-        <v>43975</v>
+        <v>43974</v>
       </c>
       <c r="B161" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="1">
-        <v>43976</v>
+        <v>43975</v>
       </c>
       <c r="B162" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="1">
-        <v>43977</v>
+        <v>43976</v>
       </c>
       <c r="B163" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="1">
-        <v>43978</v>
+        <v>43977</v>
       </c>
       <c r="B164" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="1">
-        <v>43979</v>
+        <v>43978</v>
       </c>
       <c r="B165" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="1">
-        <v>43980</v>
+        <v>43979</v>
       </c>
       <c r="B166" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="1">
-        <v>43981</v>
+        <v>43980</v>
       </c>
       <c r="B167" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="1">
-        <v>43982</v>
+        <v>43981</v>
       </c>
       <c r="B168" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="1">
-        <v>43983</v>
+        <v>43982</v>
       </c>
       <c r="B169" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="1">
-        <v>43984</v>
+        <v>43983</v>
       </c>
       <c r="B170" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B171" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="1">
         <v>43985</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B172" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3926,7 +3976,7 @@
   <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4327,6 +4377,17 @@
         <v>253</v>
       </c>
       <c r="C37" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B38" t="s">
+        <v>256</v>
+      </c>
+      <c r="C38" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4601,9 +4662,10 @@
     <hyperlink ref="A34" r:id="rId33"/>
     <hyperlink ref="A36" r:id="rId34"/>
     <hyperlink ref="A37" r:id="rId35"/>
+    <hyperlink ref="A38" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId36"/>
-  <legacyDrawing r:id="rId37"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>
+  <legacyDrawing r:id="rId38"/>
 </worksheet>
 </file>
--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440"/>
   </bookViews>
   <sheets>
     <sheet name="По задачам" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="263">
   <si>
     <t>Дата начала</t>
   </si>
@@ -926,6 +926,18 @@
   </si>
   <si>
     <t>165 / 205</t>
+  </si>
+  <si>
+    <t>Basic scope, advanced scope, доделываю статистику</t>
+  </si>
+  <si>
+    <t>ES6 Variables. CodeStyle</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wV3S0uw1GeQ</t>
+  </si>
+  <si>
+    <t>Refactoring код</t>
   </si>
 </sst>
 </file>
@@ -1314,10 +1326,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2036,7 +2048,21 @@
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="1"/>
+      <c r="A62" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B62" s="1">
+        <v>43941</v>
+      </c>
+      <c r="C62" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2055,7 +2081,7 @@
   <dimension ref="A1:D172"/>
   <sheetViews>
     <sheetView topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="C126" sqref="C126:D126"/>
+      <selection activeCell="D130" sqref="D130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3562,6 +3588,12 @@
       <c r="B127" t="s">
         <v>9</v>
       </c>
+      <c r="C127" t="s">
+        <v>247</v>
+      </c>
+      <c r="D127" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="1">
@@ -3570,16 +3602,28 @@
       <c r="B128" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="129" spans="1:2">
+      <c r="C128" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="D128" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
       <c r="A129" s="1">
         <v>43942</v>
       </c>
       <c r="B129" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="130" spans="1:2">
+      <c r="C129" t="s">
+        <v>247</v>
+      </c>
+      <c r="D129" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
       <c r="A130" s="1">
         <v>43943</v>
       </c>
@@ -3587,7 +3631,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:4">
       <c r="A131" s="1">
         <v>43944</v>
       </c>
@@ -3595,7 +3639,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:4">
       <c r="A132" s="1">
         <v>43945</v>
       </c>
@@ -3603,7 +3647,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:4">
       <c r="A133" s="1">
         <v>43946</v>
       </c>
@@ -3611,7 +3655,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:4">
       <c r="A134" s="1">
         <v>43947</v>
       </c>
@@ -3619,7 +3663,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:4">
       <c r="A135" s="1">
         <v>43948</v>
       </c>
@@ -3627,7 +3671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:4">
       <c r="A136" s="1">
         <v>43949</v>
       </c>
@@ -3635,7 +3679,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="137" spans="1:2">
+    <row r="137" spans="1:4">
       <c r="A137" s="1">
         <v>43950</v>
       </c>
@@ -3643,7 +3687,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="138" spans="1:2">
+    <row r="138" spans="1:4">
       <c r="A138" s="1">
         <v>43951</v>
       </c>
@@ -3651,7 +3695,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:4">
       <c r="A139" s="1">
         <v>43952</v>
       </c>
@@ -3659,7 +3703,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="140" spans="1:2">
+    <row r="140" spans="1:4">
       <c r="A140" s="1">
         <v>43953</v>
       </c>
@@ -3667,7 +3711,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:2">
+    <row r="141" spans="1:4">
       <c r="A141" s="1">
         <v>43954</v>
       </c>
@@ -3675,7 +3719,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:2">
+    <row r="142" spans="1:4">
       <c r="A142" s="1">
         <v>43955</v>
       </c>
@@ -3683,7 +3727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:4">
       <c r="A143" s="1">
         <v>43956</v>
       </c>
@@ -3691,7 +3735,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:4">
       <c r="A144" s="1">
         <v>43957</v>
       </c>
@@ -3965,9 +4009,10 @@
     <hyperlink ref="C114" r:id="rId38"/>
     <hyperlink ref="C119" r:id="rId39"/>
     <hyperlink ref="C122" r:id="rId40"/>
+    <hyperlink ref="C128" r:id="rId41"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId41"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId42"/>
 </worksheet>
 </file>
 
@@ -3975,8 +4020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4388,6 +4433,17 @@
         <v>256</v>
       </c>
       <c r="C38" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B39" t="s">
+        <v>260</v>
+      </c>
+      <c r="C39" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4663,9 +4719,10 @@
     <hyperlink ref="A36" r:id="rId34"/>
     <hyperlink ref="A37" r:id="rId35"/>
     <hyperlink ref="A38" r:id="rId36"/>
+    <hyperlink ref="A39" r:id="rId37"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>
-  <legacyDrawing r:id="rId38"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId38"/>
+  <legacyDrawing r:id="rId39"/>
 </worksheet>
 </file>
--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="По задачам" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="263">
   <si>
     <t>Дата начала</t>
   </si>
@@ -1328,7 +1328,7 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
@@ -2078,10 +2078,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D172"/>
+  <dimension ref="A1:D173"/>
   <sheetViews>
-    <sheetView topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="D130" sqref="D130"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="C130" sqref="C130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3624,346 +3624,352 @@
       </c>
     </row>
     <row r="130" spans="1:4">
-      <c r="A130" s="1">
-        <v>43943</v>
-      </c>
-      <c r="B130" t="s">
-        <v>12</v>
+      <c r="A130" s="1"/>
+      <c r="C130" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="1">
-        <v>43944</v>
+        <v>43943</v>
       </c>
       <c r="B131" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="1">
-        <v>43945</v>
+        <v>43944</v>
       </c>
       <c r="B132" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="1">
-        <v>43946</v>
+        <v>43945</v>
       </c>
       <c r="B133" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="1">
-        <v>43947</v>
+        <v>43946</v>
       </c>
       <c r="B134" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="1">
-        <v>43948</v>
+        <v>43947</v>
       </c>
       <c r="B135" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="1">
-        <v>43949</v>
+        <v>43948</v>
       </c>
       <c r="B136" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="1">
-        <v>43950</v>
+        <v>43949</v>
       </c>
       <c r="B137" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="1">
-        <v>43951</v>
+        <v>43950</v>
       </c>
       <c r="B138" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="1">
-        <v>43952</v>
+        <v>43951</v>
       </c>
       <c r="B139" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="1">
-        <v>43953</v>
+        <v>43952</v>
       </c>
       <c r="B140" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="1">
-        <v>43954</v>
+        <v>43953</v>
       </c>
       <c r="B141" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="1">
-        <v>43955</v>
+        <v>43954</v>
       </c>
       <c r="B142" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="1">
-        <v>43956</v>
+        <v>43955</v>
       </c>
       <c r="B143" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="1">
-        <v>43957</v>
+        <v>43956</v>
       </c>
       <c r="B144" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="1">
-        <v>43958</v>
+        <v>43957</v>
       </c>
       <c r="B145" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="1">
-        <v>43959</v>
+        <v>43958</v>
       </c>
       <c r="B146" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="1">
-        <v>43960</v>
+        <v>43959</v>
       </c>
       <c r="B147" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="1">
-        <v>43961</v>
+        <v>43960</v>
       </c>
       <c r="B148" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="1">
-        <v>43962</v>
+        <v>43961</v>
       </c>
       <c r="B149" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="1">
-        <v>43963</v>
+        <v>43962</v>
       </c>
       <c r="B150" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="1">
-        <v>43964</v>
+        <v>43963</v>
       </c>
       <c r="B151" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="1">
-        <v>43965</v>
+        <v>43964</v>
       </c>
       <c r="B152" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="1">
-        <v>43966</v>
+        <v>43965</v>
       </c>
       <c r="B153" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="1">
-        <v>43967</v>
+        <v>43966</v>
       </c>
       <c r="B154" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="1">
-        <v>43968</v>
+        <v>43967</v>
       </c>
       <c r="B155" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="1">
-        <v>43969</v>
+        <v>43968</v>
       </c>
       <c r="B156" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="1">
-        <v>43970</v>
+        <v>43969</v>
       </c>
       <c r="B157" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="1">
-        <v>43971</v>
+        <v>43970</v>
       </c>
       <c r="B158" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="1">
-        <v>43972</v>
+        <v>43971</v>
       </c>
       <c r="B159" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="1">
-        <v>43973</v>
+        <v>43972</v>
       </c>
       <c r="B160" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="1">
-        <v>43974</v>
+        <v>43973</v>
       </c>
       <c r="B161" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="1">
-        <v>43975</v>
+        <v>43974</v>
       </c>
       <c r="B162" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="1">
-        <v>43976</v>
+        <v>43975</v>
       </c>
       <c r="B163" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="1">
-        <v>43977</v>
+        <v>43976</v>
       </c>
       <c r="B164" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="1">
-        <v>43978</v>
+        <v>43977</v>
       </c>
       <c r="B165" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="1">
-        <v>43979</v>
+        <v>43978</v>
       </c>
       <c r="B166" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="1">
-        <v>43980</v>
+        <v>43979</v>
       </c>
       <c r="B167" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="1">
-        <v>43981</v>
+        <v>43980</v>
       </c>
       <c r="B168" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="1">
-        <v>43982</v>
+        <v>43981</v>
       </c>
       <c r="B169" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="1">
-        <v>43983</v>
+        <v>43982</v>
       </c>
       <c r="B170" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="1">
-        <v>43984</v>
+        <v>43983</v>
       </c>
       <c r="B171" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B172" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="1">
         <v>43985</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B173" t="s">
         <v>12</v>
       </c>
     </row>

--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="По задачам" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="281">
   <si>
     <t>Дата начала</t>
   </si>
@@ -938,6 +938,60 @@
   </si>
   <si>
     <t>Refactoring код</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>small_letters</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>HIGH_LETTERS</t>
+  </si>
+  <si>
+    <t>variables</t>
+  </si>
+  <si>
+    <t>let</t>
+  </si>
+  <si>
+    <t>camelCase</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>isCanRead</t>
+  </si>
+  <si>
+    <t>Decided for my self next classification of names:</t>
+  </si>
+  <si>
+    <t>1) classes in html - small_letters and underscore</t>
+  </si>
+  <si>
+    <t>2) IDs in html - HIGH_LETTERS and underscore</t>
+  </si>
+  <si>
+    <t>3) Variables - camelCase withount underscore</t>
+  </si>
+  <si>
+    <t>4) Boolean - isCanRead, hasAbilities - use "is" and "has" in first word</t>
+  </si>
+  <si>
+    <t>5) Class in JS - PascalCase without underscore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6) For Constants - UPPER_CASE_SNAKE_CASE  </t>
+  </si>
+  <si>
+    <t>ESLint - connected. Some of its proposed changes are not correct. Fixed what is correct proposals.</t>
+  </si>
+  <si>
+    <t>7) Function names - Pascal_Case with underscore</t>
   </si>
 </sst>
 </file>
@@ -2080,7 +2134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+    <sheetView topLeftCell="A105" workbookViewId="0">
       <selection activeCell="C130" sqref="C130"/>
     </sheetView>
   </sheetViews>
@@ -4024,10 +4078,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4376,7 +4430,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:5">
       <c r="A33" s="2" t="s">
         <v>238</v>
       </c>
@@ -4387,7 +4441,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
         <v>242</v>
       </c>
@@ -4398,7 +4452,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>244</v>
       </c>
@@ -4409,7 +4463,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:5">
       <c r="A36" s="2" t="s">
         <v>250</v>
       </c>
@@ -4420,7 +4474,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:5">
       <c r="A37" s="2" t="s">
         <v>252</v>
       </c>
@@ -4431,7 +4485,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:5">
       <c r="A38" s="2" t="s">
         <v>255</v>
       </c>
@@ -4442,7 +4496,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:5">
       <c r="A39" s="2" t="s">
         <v>261</v>
       </c>
@@ -4453,44 +4507,71 @@
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="4" customFormat="1">
+    <row r="45" spans="1:5" s="4" customFormat="1">
       <c r="A45" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:5">
       <c r="A46" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B46" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
+      <c r="C46" t="s">
+        <v>263</v>
+      </c>
+      <c r="D46" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B47" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
+      <c r="C47" t="s">
+        <v>265</v>
+      </c>
+      <c r="D47" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B48" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48" t="s">
+        <v>267</v>
+      </c>
+      <c r="D48" t="s">
+        <v>268</v>
+      </c>
+      <c r="E48" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B49" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49" t="s">
+        <v>270</v>
+      </c>
+      <c r="D49" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="2" t="s">
         <v>113</v>
       </c>
@@ -4498,71 +4579,95 @@
         <v>114</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:4">
       <c r="A51" s="2" t="s">
         <v>115</v>
       </c>
       <c r="B51" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="C51" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B52" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>129</v>
       </c>
       <c r="B53" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="C53" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="2" t="s">
         <v>136</v>
       </c>
       <c r="B54" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="C54" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B55" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="C55" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>142</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="C56" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>145</v>
       </c>
       <c r="B57" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>214</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="C58" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>236</v>
       </c>
@@ -4570,12 +4675,12 @@
         <v>237</v>
       </c>
     </row>
-    <row r="63" spans="1:2" s="4" customFormat="1">
+    <row r="63" spans="1:4" s="4" customFormat="1">
       <c r="A63" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:4">
       <c r="A64" s="2" t="s">
         <v>38</v>
       </c>
@@ -4685,6 +4790,51 @@
       </c>
       <c r="B77" t="s">
         <v>223</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="По задачам" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="312">
   <si>
     <t>Дата начала</t>
   </si>
@@ -992,6 +992,99 @@
   </si>
   <si>
     <t>7) Function names - Pascal_Case with underscore</t>
+  </si>
+  <si>
+    <t>решил 22, 16, 30, 28, 20</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eSaF8NXeNsA</t>
+  </si>
+  <si>
+    <t>Webpack. Полный курс 2020</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PdHjLvcOLQw</t>
+  </si>
+  <si>
+    <t>English for kids. Task review</t>
+  </si>
+  <si>
+    <t>просмотрел</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dAxI351AhCg</t>
+  </si>
+  <si>
+    <t>2020Q1 Virtual Keyboard (part 2)</t>
+  </si>
+  <si>
+    <t>TwoStones Theme</t>
+  </si>
+  <si>
+    <t>расширение vscode</t>
+  </si>
+  <si>
+    <t>Соглашения по именованию переменных</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nxCLXMBl4e4</t>
+  </si>
+  <si>
+    <t>VS Code настройка установка плагины</t>
+  </si>
+  <si>
+    <t>Node JS - Быстрый Курс за 1 час (Все Включено!)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3aGSqasVPsI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Владилен Минин</t>
+  </si>
+  <si>
+    <t>Фрилансер по жизни</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Nm8GpLCAgwk</t>
+  </si>
+  <si>
+    <t>React или Vue или Angular. Что Выбрать? (Про Каждый Отдельно)</t>
+  </si>
+  <si>
+    <t>React JS. Полный Курс 2020 (Вся Теория Включена!)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xJZa2_aldDs</t>
+  </si>
+  <si>
+    <t>REST API. Практический Курс. Пишем Fullstack приложение на JavaScript</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lzQIhjElV_g</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCg8ss4xW9jASrqWGP30jXiw/videos</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UCedskVwIKiZJsO8XdJdLKnA</t>
+  </si>
+  <si>
+    <t>Live sass compiler, SCSS IntelliSense, SCSS Formatter</t>
+  </si>
+  <si>
+    <t>Auto Complete, Tag indent-rainbow, BEM Helper</t>
+  </si>
+  <si>
+    <t>eCSStractor for VSCode, CSS Navigation, Image preview</t>
+  </si>
+  <si>
+    <t>Debugger for Chrome, Vscode Google Translate, Project Manager</t>
+  </si>
+  <si>
+    <t>Settings Sync</t>
+  </si>
+  <si>
+    <t>решил 26, 27, 21, 13, 6</t>
   </si>
 </sst>
 </file>
@@ -1382,8 +1475,8 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2132,10 +2225,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D173"/>
+  <dimension ref="A1:D174"/>
   <sheetViews>
-    <sheetView topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="C130" sqref="C130"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="D133" sqref="D133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3682,6 +3775,9 @@
       <c r="C130" t="s">
         <v>207</v>
       </c>
+      <c r="D130" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="1">
@@ -3690,340 +3786,355 @@
       <c r="B131" t="s">
         <v>12</v>
       </c>
+      <c r="C131" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D131" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="132" spans="1:4">
-      <c r="A132" s="1">
-        <v>43944</v>
-      </c>
-      <c r="B132" t="s">
-        <v>13</v>
+      <c r="A132" s="1"/>
+      <c r="C132" t="s">
+        <v>207</v>
+      </c>
+      <c r="D132" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="1">
-        <v>43945</v>
+        <v>43944</v>
       </c>
       <c r="B133" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="1">
-        <v>43946</v>
+        <v>43945</v>
       </c>
       <c r="B134" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="1">
-        <v>43947</v>
+        <v>43946</v>
       </c>
       <c r="B135" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="1">
-        <v>43948</v>
+        <v>43947</v>
       </c>
       <c r="B136" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="1">
-        <v>43949</v>
+        <v>43948</v>
       </c>
       <c r="B137" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="1">
-        <v>43950</v>
+        <v>43949</v>
       </c>
       <c r="B138" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="1">
-        <v>43951</v>
+        <v>43950</v>
       </c>
       <c r="B139" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="1">
-        <v>43952</v>
+        <v>43951</v>
       </c>
       <c r="B140" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="1">
-        <v>43953</v>
+        <v>43952</v>
       </c>
       <c r="B141" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="1">
-        <v>43954</v>
+        <v>43953</v>
       </c>
       <c r="B142" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="1">
-        <v>43955</v>
+        <v>43954</v>
       </c>
       <c r="B143" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="1">
-        <v>43956</v>
+        <v>43955</v>
       </c>
       <c r="B144" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="1">
-        <v>43957</v>
+        <v>43956</v>
       </c>
       <c r="B145" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="1">
-        <v>43958</v>
+        <v>43957</v>
       </c>
       <c r="B146" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="1">
-        <v>43959</v>
+        <v>43958</v>
       </c>
       <c r="B147" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="1">
-        <v>43960</v>
+        <v>43959</v>
       </c>
       <c r="B148" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="1">
-        <v>43961</v>
+        <v>43960</v>
       </c>
       <c r="B149" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="1">
-        <v>43962</v>
+        <v>43961</v>
       </c>
       <c r="B150" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="1">
-        <v>43963</v>
+        <v>43962</v>
       </c>
       <c r="B151" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="1">
-        <v>43964</v>
+        <v>43963</v>
       </c>
       <c r="B152" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="1">
-        <v>43965</v>
+        <v>43964</v>
       </c>
       <c r="B153" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="1">
-        <v>43966</v>
+        <v>43965</v>
       </c>
       <c r="B154" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="1">
-        <v>43967</v>
+        <v>43966</v>
       </c>
       <c r="B155" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="1">
-        <v>43968</v>
+        <v>43967</v>
       </c>
       <c r="B156" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="1">
-        <v>43969</v>
+        <v>43968</v>
       </c>
       <c r="B157" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="1">
-        <v>43970</v>
+        <v>43969</v>
       </c>
       <c r="B158" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="1">
-        <v>43971</v>
+        <v>43970</v>
       </c>
       <c r="B159" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="1">
-        <v>43972</v>
+        <v>43971</v>
       </c>
       <c r="B160" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="1">
-        <v>43973</v>
+        <v>43972</v>
       </c>
       <c r="B161" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="1">
-        <v>43974</v>
+        <v>43973</v>
       </c>
       <c r="B162" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="1">
-        <v>43975</v>
+        <v>43974</v>
       </c>
       <c r="B163" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="1">
-        <v>43976</v>
+        <v>43975</v>
       </c>
       <c r="B164" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="1">
-        <v>43977</v>
+        <v>43976</v>
       </c>
       <c r="B165" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="1">
-        <v>43978</v>
+        <v>43977</v>
       </c>
       <c r="B166" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="1">
-        <v>43979</v>
+        <v>43978</v>
       </c>
       <c r="B167" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="1">
-        <v>43980</v>
+        <v>43979</v>
       </c>
       <c r="B168" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="1">
-        <v>43981</v>
+        <v>43980</v>
       </c>
       <c r="B169" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="1">
-        <v>43982</v>
+        <v>43981</v>
       </c>
       <c r="B170" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="1">
-        <v>43983</v>
+        <v>43982</v>
       </c>
       <c r="B171" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="1">
-        <v>43984</v>
+        <v>43983</v>
       </c>
       <c r="B172" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B173" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="1">
         <v>43985</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B174" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4070,27 +4181,30 @@
     <hyperlink ref="C119" r:id="rId39"/>
     <hyperlink ref="C122" r:id="rId40"/>
     <hyperlink ref="C128" r:id="rId41"/>
+    <hyperlink ref="C131" r:id="rId42"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId42"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId43"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E90"/>
+  <dimension ref="A1:F110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="55.28515625" customWidth="1"/>
     <col min="2" max="2" width="64.85546875" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1">
+    <row r="1" spans="1:4" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -4098,12 +4212,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="4" customFormat="1">
+    <row r="2" spans="1:4" s="4" customFormat="1">
       <c r="A2" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -4113,8 +4227,11 @@
       <c r="C3" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -4124,8 +4241,11 @@
       <c r="C4" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -4135,8 +4255,11 @@
       <c r="C5" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
         <v>40</v>
       </c>
@@ -4146,16 +4269,22 @@
       <c r="C6" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B7" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -4165,8 +4294,11 @@
       <c r="C8" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
         <v>71</v>
       </c>
@@ -4176,8 +4308,11 @@
       <c r="C9" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
         <v>79</v>
       </c>
@@ -4187,8 +4322,11 @@
       <c r="C10" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
         <v>94</v>
       </c>
@@ -4198,8 +4336,11 @@
       <c r="C11" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>123</v>
       </c>
@@ -4209,8 +4350,11 @@
       <c r="C12" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
         <v>127</v>
       </c>
@@ -4221,7 +4365,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
         <v>133</v>
       </c>
@@ -4231,8 +4375,11 @@
       <c r="C14" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
         <v>138</v>
       </c>
@@ -4242,8 +4389,11 @@
       <c r="C15" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
         <v>141</v>
       </c>
@@ -4254,7 +4404,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>147</v>
       </c>
@@ -4264,8 +4414,11 @@
       <c r="C17" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
         <v>138</v>
       </c>
@@ -4275,8 +4428,11 @@
       <c r="C18" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
         <v>166</v>
       </c>
@@ -4287,7 +4443,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
         <v>179</v>
       </c>
@@ -4297,8 +4453,11 @@
       <c r="C20" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>181</v>
       </c>
@@ -4309,7 +4468,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>190</v>
       </c>
@@ -4320,7 +4479,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
         <v>192</v>
       </c>
@@ -4331,7 +4490,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
         <v>194</v>
       </c>
@@ -4342,7 +4501,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
         <v>197</v>
       </c>
@@ -4352,8 +4511,11 @@
       <c r="C25" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
         <v>199</v>
       </c>
@@ -4363,8 +4525,11 @@
       <c r="C26" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>203</v>
       </c>
@@ -4374,8 +4539,11 @@
       <c r="C27" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
         <v>209</v>
       </c>
@@ -4386,7 +4554,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>224</v>
       </c>
@@ -4396,8 +4564,11 @@
       <c r="C29" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="2" t="s">
         <v>230</v>
       </c>
@@ -4408,7 +4579,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>232</v>
       </c>
@@ -4418,8 +4589,11 @@
       <c r="C31" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>234</v>
       </c>
@@ -4429,8 +4603,11 @@
       <c r="C32" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="D32" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="2" t="s">
         <v>238</v>
       </c>
@@ -4441,7 +4618,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:6">
       <c r="A34" s="2" t="s">
         <v>242</v>
       </c>
@@ -4451,8 +4628,11 @@
       <c r="C34" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="D34" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>244</v>
       </c>
@@ -4462,8 +4642,11 @@
       <c r="C35" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="D35" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="2" t="s">
         <v>250</v>
       </c>
@@ -4473,8 +4656,11 @@
       <c r="C36" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="D36" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="2" t="s">
         <v>252</v>
       </c>
@@ -4484,8 +4670,11 @@
       <c r="C37" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="D37" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="2" t="s">
         <v>255</v>
       </c>
@@ -4496,372 +4685,543 @@
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:6">
       <c r="A39" s="2" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="B39" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="C39" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="1:5" s="4" customFormat="1">
-      <c r="A45" s="5" t="s">
+    <row r="40" spans="1:6">
+      <c r="A40" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B40" t="s">
+        <v>260</v>
+      </c>
+      <c r="C40" t="s">
+        <v>132</v>
+      </c>
+      <c r="D40" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B41" t="s">
+        <v>283</v>
+      </c>
+      <c r="C41" t="s">
+        <v>132</v>
+      </c>
+      <c r="E41" t="s">
+        <v>296</v>
+      </c>
+      <c r="F41" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B42" t="s">
+        <v>294</v>
+      </c>
+      <c r="C42" t="s">
+        <v>132</v>
+      </c>
+      <c r="E42" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C43" t="s">
+        <v>132</v>
+      </c>
+      <c r="E43" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B44" t="s">
+        <v>300</v>
+      </c>
+      <c r="C44" t="s">
+        <v>132</v>
+      </c>
+      <c r="E44" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B45" t="s">
+        <v>302</v>
+      </c>
+      <c r="C45" t="s">
+        <v>132</v>
+      </c>
+      <c r="E45" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C46" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15" customHeight="1">
+      <c r="A47" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B47" t="s">
+        <v>293</v>
+      </c>
+      <c r="C47" t="s">
+        <v>132</v>
+      </c>
+      <c r="D47" t="s">
+        <v>286</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="F47" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="4" customFormat="1">
+      <c r="A58" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="2" t="s">
+    <row r="59" spans="1:5">
+      <c r="A59" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B59" t="s">
         <v>98</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C59" t="s">
         <v>263</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D59" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="2" t="s">
+    <row r="60" spans="1:5">
+      <c r="A60" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B60" t="s">
         <v>105</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C60" t="s">
         <v>265</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D60" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="2" t="s">
+    <row r="61" spans="1:5">
+      <c r="A61" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B61" t="s">
         <v>110</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C61" t="s">
         <v>267</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D61" t="s">
         <v>268</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E61" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="2" t="s">
+    <row r="62" spans="1:5">
+      <c r="A62" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B62" t="s">
         <v>112</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C62" t="s">
         <v>270</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D62" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="2" t="s">
+    <row r="63" spans="1:5">
+      <c r="A63" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B63" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="2" t="s">
+    <row r="64" spans="1:5">
+      <c r="A64" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B64" t="s">
         <v>116</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C64" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="2" t="s">
+    <row r="65" spans="1:3">
+      <c r="A65" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B65" t="s">
         <v>130</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C65" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="s">
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
         <v>129</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B66" t="s">
         <v>130</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C66" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="2" t="s">
+    <row r="67" spans="1:3">
+      <c r="A67" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B67" t="s">
         <v>137</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C67" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="2" t="s">
+    <row r="68" spans="1:3">
+      <c r="A68" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B68" t="s">
         <v>137</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C68" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
-      <c r="A56" t="s">
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
         <v>142</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B69" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C69" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
-      <c r="A57" t="s">
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
         <v>145</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B70" t="s">
         <v>146</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C70" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
-      <c r="A58" t="s">
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
         <v>214</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B71" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C71" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
-      <c r="A59" t="s">
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
         <v>236</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B72" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="63" spans="1:4" s="4" customFormat="1">
-      <c r="A63" s="5" t="s">
+    <row r="76" spans="1:3" s="4" customFormat="1">
+      <c r="A76" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="2" t="s">
+    <row r="77" spans="1:3">
+      <c r="A77" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B77" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="2" t="s">
+    <row r="78" spans="1:3">
+      <c r="A78" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B78" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
         <v>47</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B79" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
         <v>49</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B80" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="2" t="s">
+    <row r="81" spans="1:2">
+      <c r="A81" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B81" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="2" t="s">
+    <row r="82" spans="1:2">
+      <c r="A82" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B82" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
         <v>84</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B83" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="2" t="s">
+    <row r="84" spans="1:2">
+      <c r="A84" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B84" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
         <v>93</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B85" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
         <v>156</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B86" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
         <v>159</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B87" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
         <v>160</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B88" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="2" t="s">
+    <row r="89" spans="1:2">
+      <c r="A89" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B89" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
         <v>93</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B90" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="s">
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>289</v>
+      </c>
+      <c r="B91" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>306</v>
+      </c>
+      <c r="B92" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>307</v>
+      </c>
+      <c r="B93" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>308</v>
+      </c>
+      <c r="B94" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>309</v>
+      </c>
+      <c r="B95" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>310</v>
+      </c>
+      <c r="B96" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" s="4" customFormat="1">
+      <c r="A100" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
-      <c r="A83" t="s">
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="84" spans="1:1">
-      <c r="A84" t="s">
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="85" spans="1:1">
-      <c r="A85" t="s">
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="86" spans="1:1">
-      <c r="A86" t="s">
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
-      <c r="A87" t="s">
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="88" spans="1:1">
-      <c r="A88" t="s">
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="89" spans="1:1">
-      <c r="A89" t="s">
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="90" spans="1:1">
-      <c r="A90" t="s">
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
         <v>280</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A64" r:id="rId1"/>
+    <hyperlink ref="A77" r:id="rId1"/>
     <hyperlink ref="A6" r:id="rId2"/>
-    <hyperlink ref="A65" r:id="rId3"/>
+    <hyperlink ref="A78" r:id="rId3"/>
     <hyperlink ref="A7" r:id="rId4"/>
-    <hyperlink ref="A68" r:id="rId5"/>
+    <hyperlink ref="A81" r:id="rId5"/>
     <hyperlink ref="A9" r:id="rId6"/>
     <hyperlink ref="A10" r:id="rId7"/>
-    <hyperlink ref="A69" r:id="rId8"/>
-    <hyperlink ref="A71" r:id="rId9"/>
+    <hyperlink ref="A82" r:id="rId8"/>
+    <hyperlink ref="A84" r:id="rId9"/>
     <hyperlink ref="A11" r:id="rId10"/>
-    <hyperlink ref="A46" r:id="rId11" location="/2"/>
-    <hyperlink ref="A48" r:id="rId12"/>
-    <hyperlink ref="A49" r:id="rId13"/>
-    <hyperlink ref="A50" r:id="rId14"/>
-    <hyperlink ref="A51" r:id="rId15"/>
+    <hyperlink ref="A59" r:id="rId11" location="/2"/>
+    <hyperlink ref="A61" r:id="rId12"/>
+    <hyperlink ref="A62" r:id="rId13"/>
+    <hyperlink ref="A63" r:id="rId14"/>
+    <hyperlink ref="A64" r:id="rId15"/>
     <hyperlink ref="A13" r:id="rId16"/>
     <hyperlink ref="A14" r:id="rId17"/>
-    <hyperlink ref="A54" r:id="rId18"/>
+    <hyperlink ref="A67" r:id="rId18"/>
     <hyperlink ref="A15" r:id="rId19"/>
     <hyperlink ref="A16" r:id="rId20"/>
     <hyperlink ref="A18" r:id="rId21"/>
     <hyperlink ref="A19" r:id="rId22"/>
-    <hyperlink ref="A76" r:id="rId23"/>
+    <hyperlink ref="A89" r:id="rId23"/>
     <hyperlink ref="A20" r:id="rId24"/>
     <hyperlink ref="B20" r:id="rId25" display="https://www.youtube.com/watch?v=ZAde-IJAHzo"/>
     <hyperlink ref="A23" r:id="rId26"/>
@@ -4875,10 +5235,18 @@
     <hyperlink ref="A36" r:id="rId34"/>
     <hyperlink ref="A37" r:id="rId35"/>
     <hyperlink ref="A38" r:id="rId36"/>
-    <hyperlink ref="A39" r:id="rId37"/>
+    <hyperlink ref="A40" r:id="rId37"/>
+    <hyperlink ref="A41" r:id="rId38"/>
+    <hyperlink ref="A46" r:id="rId39"/>
+    <hyperlink ref="A39" r:id="rId40"/>
+    <hyperlink ref="A47" r:id="rId41"/>
+    <hyperlink ref="A42" r:id="rId42"/>
+    <hyperlink ref="A43" r:id="rId43"/>
+    <hyperlink ref="A44" r:id="rId44"/>
+    <hyperlink ref="A45" r:id="rId45"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId38"/>
-  <legacyDrawing r:id="rId39"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId46"/>
+  <legacyDrawing r:id="rId47"/>
 </worksheet>
 </file>
--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="315">
   <si>
     <t>Дата начала</t>
   </si>
@@ -1085,6 +1085,15 @@
   </si>
   <si>
     <t>решил 26, 27, 21, 13, 6</t>
+  </si>
+  <si>
+    <t>Кросс-чек English-for-Kids - сделал</t>
+  </si>
+  <si>
+    <t>решил 17, 18, 19, 24</t>
+  </si>
+  <si>
+    <t>Оформил табличку в статистике, сделал сортировки таблички</t>
   </si>
 </sst>
 </file>
@@ -1476,7 +1485,7 @@
   <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2206,7 +2215,15 @@
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="1"/>
+      <c r="A63" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B63" s="1">
+        <v>43944</v>
+      </c>
+      <c r="C63" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1"/>
@@ -2225,10 +2242,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D174"/>
+  <dimension ref="A1:D176"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="D133" sqref="D133"/>
+      <selection activeCell="D136" sqref="D136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3809,332 +3826,356 @@
       <c r="B133" t="s">
         <v>13</v>
       </c>
+      <c r="C133" t="s">
+        <v>247</v>
+      </c>
+      <c r="D133" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="134" spans="1:4">
-      <c r="A134" s="1">
-        <v>43945</v>
-      </c>
-      <c r="B134" t="s">
-        <v>14</v>
+      <c r="A134" s="1"/>
+      <c r="C134" t="s">
+        <v>207</v>
+      </c>
+      <c r="D134" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="135" spans="1:4">
-      <c r="A135" s="1">
-        <v>43946</v>
-      </c>
-      <c r="B135" t="s">
-        <v>15</v>
+      <c r="A135" s="1"/>
+      <c r="C135" t="s">
+        <v>247</v>
+      </c>
+      <c r="D135" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="1">
-        <v>43947</v>
+        <v>43945</v>
       </c>
       <c r="B136" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="1">
-        <v>43948</v>
+        <v>43946</v>
       </c>
       <c r="B137" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="1">
-        <v>43949</v>
+        <v>43947</v>
       </c>
       <c r="B138" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="1">
-        <v>43950</v>
+        <v>43948</v>
       </c>
       <c r="B139" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="1">
-        <v>43951</v>
+        <v>43949</v>
       </c>
       <c r="B140" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="1">
-        <v>43952</v>
+        <v>43950</v>
       </c>
       <c r="B141" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="1">
-        <v>43953</v>
+        <v>43951</v>
       </c>
       <c r="B142" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="1">
-        <v>43954</v>
+        <v>43952</v>
       </c>
       <c r="B143" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="1">
-        <v>43955</v>
+        <v>43953</v>
       </c>
       <c r="B144" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="1">
-        <v>43956</v>
+        <v>43954</v>
       </c>
       <c r="B145" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="1">
-        <v>43957</v>
+        <v>43955</v>
       </c>
       <c r="B146" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="1">
-        <v>43958</v>
+        <v>43956</v>
       </c>
       <c r="B147" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="1">
-        <v>43959</v>
+        <v>43957</v>
       </c>
       <c r="B148" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="1">
-        <v>43960</v>
+        <v>43958</v>
       </c>
       <c r="B149" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="1">
-        <v>43961</v>
+        <v>43959</v>
       </c>
       <c r="B150" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="1">
-        <v>43962</v>
+        <v>43960</v>
       </c>
       <c r="B151" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="1">
-        <v>43963</v>
+        <v>43961</v>
       </c>
       <c r="B152" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="1">
-        <v>43964</v>
+        <v>43962</v>
       </c>
       <c r="B153" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="1">
-        <v>43965</v>
+        <v>43963</v>
       </c>
       <c r="B154" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="1">
-        <v>43966</v>
+        <v>43964</v>
       </c>
       <c r="B155" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="1">
-        <v>43967</v>
+        <v>43965</v>
       </c>
       <c r="B156" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="1">
-        <v>43968</v>
+        <v>43966</v>
       </c>
       <c r="B157" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="1">
-        <v>43969</v>
+        <v>43967</v>
       </c>
       <c r="B158" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="1">
-        <v>43970</v>
+        <v>43968</v>
       </c>
       <c r="B159" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="1">
-        <v>43971</v>
+        <v>43969</v>
       </c>
       <c r="B160" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="1">
-        <v>43972</v>
+        <v>43970</v>
       </c>
       <c r="B161" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="1">
-        <v>43973</v>
+        <v>43971</v>
       </c>
       <c r="B162" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="1">
-        <v>43974</v>
+        <v>43972</v>
       </c>
       <c r="B163" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="1">
-        <v>43975</v>
+        <v>43973</v>
       </c>
       <c r="B164" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="1">
-        <v>43976</v>
+        <v>43974</v>
       </c>
       <c r="B165" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="1">
-        <v>43977</v>
+        <v>43975</v>
       </c>
       <c r="B166" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="1">
-        <v>43978</v>
+        <v>43976</v>
       </c>
       <c r="B167" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="1">
-        <v>43979</v>
+        <v>43977</v>
       </c>
       <c r="B168" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="1">
-        <v>43980</v>
+        <v>43978</v>
       </c>
       <c r="B169" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="1">
-        <v>43981</v>
+        <v>43979</v>
       </c>
       <c r="B170" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="1">
-        <v>43982</v>
+        <v>43980</v>
       </c>
       <c r="B171" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="1">
-        <v>43983</v>
+        <v>43981</v>
       </c>
       <c r="B172" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="1">
-        <v>43984</v>
+        <v>43982</v>
       </c>
       <c r="B173" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B174" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B175" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="1">
         <v>43985</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B176" t="s">
         <v>12</v>
       </c>
     </row>

--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="По задачам" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="320">
   <si>
     <t>Дата начала</t>
   </si>
@@ -1094,6 +1094,21 @@
   </si>
   <si>
     <t>Оформил табличку в статистике, сделал сортировки таблички</t>
+  </si>
+  <si>
+    <t>режим повтора трудных слов</t>
+  </si>
+  <si>
+    <t>Обзор текущего состояния разработки игр на JS</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Rl-SAwXsjog</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DyBjyTPwRus</t>
+  </si>
+  <si>
+    <t>JS -Data Types</t>
   </si>
 </sst>
 </file>
@@ -1482,10 +1497,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2226,7 +2241,23 @@
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="1"/>
+      <c r="A64" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B64" s="1">
+        <v>43946</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1">
+        <v>43946</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>319</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2242,10 +2273,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D176"/>
+  <dimension ref="A1:D177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="D136" sqref="D136"/>
+    <sheetView topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="C138" sqref="C138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3858,6 +3889,12 @@
       <c r="B136" t="s">
         <v>14</v>
       </c>
+      <c r="C136" t="s">
+        <v>247</v>
+      </c>
+      <c r="D136" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="1">
@@ -3866,316 +3903,331 @@
       <c r="B137" t="s">
         <v>15</v>
       </c>
+      <c r="C137" t="s">
+        <v>317</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="138" spans="1:4">
-      <c r="A138" s="1">
-        <v>43947</v>
-      </c>
-      <c r="B138" t="s">
-        <v>9</v>
+      <c r="A138" s="1"/>
+      <c r="C138" t="s">
+        <v>318</v>
+      </c>
+      <c r="D138" s="8" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="1">
-        <v>43948</v>
+        <v>43947</v>
       </c>
       <c r="B139" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="1">
-        <v>43949</v>
+        <v>43948</v>
       </c>
       <c r="B140" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="1">
-        <v>43950</v>
+        <v>43949</v>
       </c>
       <c r="B141" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="1">
-        <v>43951</v>
+        <v>43950</v>
       </c>
       <c r="B142" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="1">
-        <v>43952</v>
+        <v>43951</v>
       </c>
       <c r="B143" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="1">
-        <v>43953</v>
+        <v>43952</v>
       </c>
       <c r="B144" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="1">
-        <v>43954</v>
+        <v>43953</v>
       </c>
       <c r="B145" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="1">
-        <v>43955</v>
+        <v>43954</v>
       </c>
       <c r="B146" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="147" spans="1:2">
       <c r="A147" s="1">
-        <v>43956</v>
+        <v>43955</v>
       </c>
       <c r="B147" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148" spans="1:2">
       <c r="A148" s="1">
-        <v>43957</v>
+        <v>43956</v>
       </c>
       <c r="B148" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="1">
-        <v>43958</v>
+        <v>43957</v>
       </c>
       <c r="B149" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="1">
-        <v>43959</v>
+        <v>43958</v>
       </c>
       <c r="B150" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="1">
-        <v>43960</v>
+        <v>43959</v>
       </c>
       <c r="B151" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="1">
-        <v>43961</v>
+        <v>43960</v>
       </c>
       <c r="B152" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="1">
-        <v>43962</v>
+        <v>43961</v>
       </c>
       <c r="B153" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="154" spans="1:2">
       <c r="A154" s="1">
-        <v>43963</v>
+        <v>43962</v>
       </c>
       <c r="B154" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="1">
-        <v>43964</v>
+        <v>43963</v>
       </c>
       <c r="B155" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="156" spans="1:2">
       <c r="A156" s="1">
-        <v>43965</v>
+        <v>43964</v>
       </c>
       <c r="B156" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="157" spans="1:2">
       <c r="A157" s="1">
-        <v>43966</v>
+        <v>43965</v>
       </c>
       <c r="B157" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="158" spans="1:2">
       <c r="A158" s="1">
-        <v>43967</v>
+        <v>43966</v>
       </c>
       <c r="B158" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="1">
-        <v>43968</v>
+        <v>43967</v>
       </c>
       <c r="B159" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="160" spans="1:2">
       <c r="A160" s="1">
-        <v>43969</v>
+        <v>43968</v>
       </c>
       <c r="B160" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="1">
-        <v>43970</v>
+        <v>43969</v>
       </c>
       <c r="B161" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="1">
-        <v>43971</v>
+        <v>43970</v>
       </c>
       <c r="B162" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="1">
-        <v>43972</v>
+        <v>43971</v>
       </c>
       <c r="B163" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="1">
-        <v>43973</v>
+        <v>43972</v>
       </c>
       <c r="B164" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="1">
-        <v>43974</v>
+        <v>43973</v>
       </c>
       <c r="B165" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="1">
-        <v>43975</v>
+        <v>43974</v>
       </c>
       <c r="B166" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="1">
-        <v>43976</v>
+        <v>43975</v>
       </c>
       <c r="B167" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="1">
-        <v>43977</v>
+        <v>43976</v>
       </c>
       <c r="B168" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="1">
-        <v>43978</v>
+        <v>43977</v>
       </c>
       <c r="B169" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="1">
-        <v>43979</v>
+        <v>43978</v>
       </c>
       <c r="B170" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="1">
-        <v>43980</v>
+        <v>43979</v>
       </c>
       <c r="B171" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="1">
-        <v>43981</v>
+        <v>43980</v>
       </c>
       <c r="B172" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="1">
-        <v>43982</v>
+        <v>43981</v>
       </c>
       <c r="B173" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="1">
-        <v>43983</v>
+        <v>43982</v>
       </c>
       <c r="B174" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="1">
-        <v>43984</v>
+        <v>43983</v>
       </c>
       <c r="B175" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B176" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="1">
         <v>43985</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B177" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4233,8 +4285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F110"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4853,6 +4905,31 @@
       </c>
       <c r="F47" t="s">
         <v>305</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>317</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="C48" t="s">
+        <v>132</v>
+      </c>
+      <c r="D48" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>318</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="C49" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="4" customFormat="1">

--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="325">
   <si>
     <t>Дата начала</t>
   </si>
@@ -1109,6 +1109,21 @@
   </si>
   <si>
     <t>JS -Data Types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Codewars stage#2 </t>
+  </si>
+  <si>
+    <t>Webinar 11.10.2019 JS DOM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lHsQ6EEp3ms</t>
+  </si>
+  <si>
+    <t>3 optional tasks</t>
+  </si>
+  <si>
+    <t>158 / 170</t>
   </si>
 </sst>
 </file>
@@ -1497,10 +1512,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2057,8 +2072,14 @@
       <c r="A47" s="1">
         <v>43916</v>
       </c>
+      <c r="B47" s="1">
+        <v>43947</v>
+      </c>
       <c r="C47" t="s">
         <v>207</v>
+      </c>
+      <c r="D47">
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -2178,8 +2199,14 @@
       <c r="A58" s="1">
         <v>43934</v>
       </c>
+      <c r="B58" s="1">
+        <v>43947</v>
+      </c>
       <c r="C58" t="s">
         <v>247</v>
+      </c>
+      <c r="D58" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -2255,8 +2282,22 @@
       <c r="A65" s="1">
         <v>43946</v>
       </c>
+      <c r="B65" s="1">
+        <v>43947</v>
+      </c>
       <c r="C65" s="8" t="s">
         <v>319</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B66" s="1">
+        <v>43948</v>
+      </c>
+      <c r="C66" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -2275,8 +2316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D177"/>
   <sheetViews>
-    <sheetView topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="C138" sqref="C138"/>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="D140" sqref="D140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3337,7 +3378,7 @@
     <row r="90" spans="1:4">
       <c r="A90" s="1"/>
       <c r="C90" t="s">
-        <v>207</v>
+        <v>320</v>
       </c>
       <c r="D90" t="s">
         <v>208</v>
@@ -3365,7 +3406,7 @@
         <v>15</v>
       </c>
       <c r="C92" t="s">
-        <v>207</v>
+        <v>320</v>
       </c>
       <c r="D92" t="s">
         <v>211</v>
@@ -3484,7 +3525,7 @@
     <row r="102" spans="1:4">
       <c r="A102" s="1"/>
       <c r="C102" t="s">
-        <v>207</v>
+        <v>320</v>
       </c>
       <c r="D102" t="s">
         <v>221</v>
@@ -3540,7 +3581,7 @@
         <v>12</v>
       </c>
       <c r="C106" t="s">
-        <v>207</v>
+        <v>320</v>
       </c>
       <c r="D106" t="s">
         <v>229</v>
@@ -3636,7 +3677,7 @@
     <row r="115" spans="1:4">
       <c r="A115" s="1"/>
       <c r="C115" t="s">
-        <v>207</v>
+        <v>320</v>
       </c>
       <c r="D115" t="s">
         <v>243</v>
@@ -3650,7 +3691,7 @@
         <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>207</v>
+        <v>320</v>
       </c>
       <c r="D116" t="s">
         <v>246</v>
@@ -3821,7 +3862,7 @@
     <row r="130" spans="1:4">
       <c r="A130" s="1"/>
       <c r="C130" t="s">
-        <v>207</v>
+        <v>320</v>
       </c>
       <c r="D130" t="s">
         <v>281</v>
@@ -3844,7 +3885,7 @@
     <row r="132" spans="1:4">
       <c r="A132" s="1"/>
       <c r="C132" t="s">
-        <v>207</v>
+        <v>320</v>
       </c>
       <c r="D132" t="s">
         <v>311</v>
@@ -3867,7 +3908,7 @@
     <row r="134" spans="1:4">
       <c r="A134" s="1"/>
       <c r="C134" t="s">
-        <v>207</v>
+        <v>320</v>
       </c>
       <c r="D134" t="s">
         <v>313</v>
@@ -3926,6 +3967,12 @@
       <c r="B139" t="s">
         <v>9</v>
       </c>
+      <c r="C139" t="s">
+        <v>320</v>
+      </c>
+      <c r="D139" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="1">
@@ -3933,6 +3980,12 @@
       </c>
       <c r="B140" t="s">
         <v>10</v>
+      </c>
+      <c r="C140" t="s">
+        <v>322</v>
+      </c>
+      <c r="D140" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -4286,7 +4339,7 @@
   <dimension ref="A1:F110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+      <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4930,6 +4983,23 @@
       </c>
       <c r="C49" t="s">
         <v>132</v>
+      </c>
+      <c r="D49" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>322</v>
+      </c>
+      <c r="B50" t="s">
+        <v>321</v>
+      </c>
+      <c r="C50" t="s">
+        <v>132</v>
+      </c>
+      <c r="D50" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="4" customFormat="1">

--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="356">
   <si>
     <t>Дата начала</t>
   </si>
@@ -1124,6 +1124,99 @@
   </si>
   <si>
     <t>158 / 170</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=84JvgOpPY_Q</t>
+  </si>
+  <si>
+    <t>Webinar 16.10.2019 JS Events</t>
+  </si>
+  <si>
+    <t>Core-JS-101</t>
+  </si>
+  <si>
+    <t>Начал делать эту задачу</t>
+  </si>
+  <si>
+    <t>Movie-Search</t>
+  </si>
+  <si>
+    <t>RS School. JavaScript Modules</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7e-5P6iPFzY</t>
+  </si>
+  <si>
+    <t>http://kirilknysh.github.io/js-modules-talk/#/</t>
+  </si>
+  <si>
+    <t>JS Modules</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2au51vKh2M8</t>
+  </si>
+  <si>
+    <t>Dev Tools на максималках. Saratov JS</t>
+  </si>
+  <si>
+    <t>Hour of Code: проект на JS с нуля и до деплоя на сервер</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=l_BZQh9aQG8</t>
+  </si>
+  <si>
+    <t>Установки</t>
+  </si>
+  <si>
+    <t>npm install</t>
+  </si>
+  <si>
+    <t>npm install eslint --save-dev</t>
+  </si>
+  <si>
+    <t>eslint --init</t>
+  </si>
+  <si>
+    <t>npm init</t>
+  </si>
+  <si>
+    <t>npm</t>
+  </si>
+  <si>
+    <t>es lint</t>
+  </si>
+  <si>
+    <t>airbnb в том числе</t>
+  </si>
+  <si>
+    <t>webpack</t>
+  </si>
+  <si>
+    <t>scss</t>
+  </si>
+  <si>
+    <t>babel</t>
+  </si>
+  <si>
+    <t>npm install --save-dev webpack</t>
+  </si>
+  <si>
+    <t>webpack.config.js</t>
+  </si>
+  <si>
+    <t>Установил ESLint, airbnb-config, webpack</t>
+  </si>
+  <si>
+    <t>https://learn.javascript.ru/screencast/webpack</t>
+  </si>
+  <si>
+    <t>Скринкаст по вебпаку</t>
+  </si>
+  <si>
+    <t>Chrome Dev Tools</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0sDHMq3x4fA</t>
   </si>
 </sst>
 </file>
@@ -1512,10 +1605,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2298,6 +2391,45 @@
       </c>
       <c r="C66" t="s">
         <v>321</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B67" s="1">
+        <v>43948</v>
+      </c>
+      <c r="C67" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1">
+        <v>43949</v>
+      </c>
+      <c r="C69" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B70" s="1">
+        <v>43949</v>
+      </c>
+      <c r="C70" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -2314,10 +2446,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D177"/>
+  <dimension ref="A1:D393"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="D140" sqref="D140"/>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="C147" sqref="C147:D147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3989,299 +4121,2044 @@
       </c>
     </row>
     <row r="141" spans="1:4">
-      <c r="A141" s="1">
-        <v>43949</v>
-      </c>
-      <c r="B141" t="s">
-        <v>11</v>
+      <c r="A141" s="1"/>
+      <c r="C141" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D141" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B142" t="s">
+        <v>11</v>
+      </c>
+      <c r="C142" t="s">
+        <v>327</v>
+      </c>
+      <c r="D142" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1"/>
+      <c r="C143" t="s">
+        <v>329</v>
+      </c>
+      <c r="D143" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1"/>
+      <c r="C144" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D144" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1">
         <v>43950</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B145" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="A143" s="1">
+      <c r="C145" t="s">
+        <v>327</v>
+      </c>
+      <c r="D145" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1"/>
+      <c r="C146" t="s">
+        <v>329</v>
+      </c>
+      <c r="D146" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1"/>
+      <c r="C147" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D147" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1">
         <v>43951</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B148" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="1">
+    <row r="149" spans="1:4">
+      <c r="A149" s="1">
         <v>43952</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B149" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="1:2">
-      <c r="A145" s="1">
+    <row r="150" spans="1:4">
+      <c r="A150" s="1">
         <v>43953</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B150" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
-      <c r="A146" s="1">
+    <row r="151" spans="1:4">
+      <c r="A151" s="1">
         <v>43954</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B151" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
-      <c r="A147" s="1">
+    <row r="152" spans="1:4">
+      <c r="A152" s="1">
         <v>43955</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B152" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:2">
-      <c r="A148" s="1">
+    <row r="153" spans="1:4">
+      <c r="A153" s="1">
         <v>43956</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B153" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="1">
+    <row r="154" spans="1:4">
+      <c r="A154" s="1">
         <v>43957</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B154" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
-      <c r="A150" s="1">
+    <row r="155" spans="1:4">
+      <c r="A155" s="1">
         <v>43958</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B155" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
-      <c r="A151" s="1">
+    <row r="156" spans="1:4">
+      <c r="A156" s="1">
         <v>43959</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B156" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
-      <c r="A152" s="1">
+    <row r="157" spans="1:4">
+      <c r="A157" s="1">
         <v>43960</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B157" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
-      <c r="A153" s="1">
+    <row r="158" spans="1:4">
+      <c r="A158" s="1">
         <v>43961</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B158" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="154" spans="1:2">
-      <c r="A154" s="1">
+    <row r="159" spans="1:4">
+      <c r="A159" s="1">
         <v>43962</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B159" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:2">
-      <c r="A155" s="1">
+    <row r="160" spans="1:4">
+      <c r="A160" s="1">
         <v>43963</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B160" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" s="1">
-        <v>43964</v>
-      </c>
-      <c r="B156" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" s="1">
-        <v>43965</v>
-      </c>
-      <c r="B157" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" s="1">
-        <v>43966</v>
-      </c>
-      <c r="B158" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" s="1">
-        <v>43967</v>
-      </c>
-      <c r="B159" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160" s="1">
-        <v>43968</v>
-      </c>
-      <c r="B160" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="1">
-        <v>43969</v>
+        <v>43964</v>
       </c>
       <c r="B161" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="1">
-        <v>43970</v>
+        <v>43965</v>
       </c>
       <c r="B162" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="1">
-        <v>43971</v>
+        <v>43966</v>
       </c>
       <c r="B163" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="1">
-        <v>43972</v>
+        <v>43967</v>
       </c>
       <c r="B164" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="1">
-        <v>43973</v>
+        <v>43968</v>
       </c>
       <c r="B165" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="1">
-        <v>43974</v>
+        <v>43969</v>
       </c>
       <c r="B166" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="1">
-        <v>43975</v>
+        <v>43970</v>
       </c>
       <c r="B167" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="1">
-        <v>43976</v>
+        <v>43971</v>
       </c>
       <c r="B168" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="1">
-        <v>43977</v>
+        <v>43972</v>
       </c>
       <c r="B169" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="1">
-        <v>43978</v>
+        <v>43973</v>
       </c>
       <c r="B170" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="1">
-        <v>43979</v>
+        <v>43974</v>
       </c>
       <c r="B171" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="1">
-        <v>43980</v>
+        <v>43975</v>
       </c>
       <c r="B172" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="1">
-        <v>43981</v>
+        <v>43976</v>
       </c>
       <c r="B173" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="1">
-        <v>43982</v>
+        <v>43977</v>
       </c>
       <c r="B174" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="1">
-        <v>43983</v>
+        <v>43978</v>
       </c>
       <c r="B175" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="1">
-        <v>43984</v>
+        <v>43979</v>
       </c>
       <c r="B176" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B177" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="1">
+        <v>43981</v>
+      </c>
+      <c r="B178" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B179" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B180" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B181" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="1">
         <v>43985</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B182" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B183" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B184" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="1">
+        <v>43988</v>
+      </c>
+      <c r="B185" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B186" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="1">
+        <v>43990</v>
+      </c>
+      <c r="B187" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="1">
+        <v>43991</v>
+      </c>
+      <c r="B188" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="1">
+        <v>43992</v>
+      </c>
+      <c r="B189" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="1">
+        <v>43993</v>
+      </c>
+      <c r="B190" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="1">
+        <v>43994</v>
+      </c>
+      <c r="B191" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="1">
+        <v>43995</v>
+      </c>
+      <c r="B192" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="1">
+        <v>43996</v>
+      </c>
+      <c r="B193" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="1">
+        <v>43997</v>
+      </c>
+      <c r="B194" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="1">
+        <v>43998</v>
+      </c>
+      <c r="B195" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="1">
+        <v>43999</v>
+      </c>
+      <c r="B196" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="1">
+        <v>44000</v>
+      </c>
+      <c r="B197" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="1">
+        <v>44001</v>
+      </c>
+      <c r="B198" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="1">
+        <v>44002</v>
+      </c>
+      <c r="B199" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="1">
+        <v>44003</v>
+      </c>
+      <c r="B200" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="1">
+        <v>44004</v>
+      </c>
+      <c r="B201" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" s="1">
+        <v>44005</v>
+      </c>
+      <c r="B202" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="1">
+        <v>44006</v>
+      </c>
+      <c r="B203" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="1">
+        <v>44007</v>
+      </c>
+      <c r="B204" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="1">
+        <v>44008</v>
+      </c>
+      <c r="B205" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="1">
+        <v>44009</v>
+      </c>
+      <c r="B206" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="1">
+        <v>44010</v>
+      </c>
+      <c r="B207" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="1">
+        <v>44011</v>
+      </c>
+      <c r="B208" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B209" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="1">
+        <v>44013</v>
+      </c>
+      <c r="B210" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="1">
+        <v>44014</v>
+      </c>
+      <c r="B211" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="1">
+        <v>44015</v>
+      </c>
+      <c r="B212" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="1">
+        <v>44016</v>
+      </c>
+      <c r="B213" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="1">
+        <v>44017</v>
+      </c>
+      <c r="B214" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="1">
+        <v>44018</v>
+      </c>
+      <c r="B215" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="1">
+        <v>44019</v>
+      </c>
+      <c r="B216" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="1">
+        <v>44020</v>
+      </c>
+      <c r="B217" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="1">
+        <v>44021</v>
+      </c>
+      <c r="B218" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="1">
+        <v>44022</v>
+      </c>
+      <c r="B219" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="1">
+        <v>44023</v>
+      </c>
+      <c r="B220" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" s="1">
+        <v>44024</v>
+      </c>
+      <c r="B221" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" s="1">
+        <v>44025</v>
+      </c>
+      <c r="B222" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="1">
+        <v>44026</v>
+      </c>
+      <c r="B223" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="1">
+        <v>44027</v>
+      </c>
+      <c r="B224" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" s="1">
+        <v>44028</v>
+      </c>
+      <c r="B225" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="1">
+        <v>44029</v>
+      </c>
+      <c r="B226" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="1">
+        <v>44030</v>
+      </c>
+      <c r="B227" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" s="1">
+        <v>44031</v>
+      </c>
+      <c r="B228" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="1">
+        <v>44032</v>
+      </c>
+      <c r="B229" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="1">
+        <v>44033</v>
+      </c>
+      <c r="B230" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="1">
+        <v>44034</v>
+      </c>
+      <c r="B231" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="1">
+        <v>44035</v>
+      </c>
+      <c r="B232" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="1">
+        <v>44036</v>
+      </c>
+      <c r="B233" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="1">
+        <v>44037</v>
+      </c>
+      <c r="B234" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="1">
+        <v>44038</v>
+      </c>
+      <c r="B235" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="1">
+        <v>44039</v>
+      </c>
+      <c r="B236" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="1">
+        <v>44040</v>
+      </c>
+      <c r="B237" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="1">
+        <v>44041</v>
+      </c>
+      <c r="B238" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="1">
+        <v>44042</v>
+      </c>
+      <c r="B239" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="1">
+        <v>44043</v>
+      </c>
+      <c r="B240" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="1">
+        <v>44044</v>
+      </c>
+      <c r="B241" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" s="1">
+        <v>44045</v>
+      </c>
+      <c r="B242" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" s="1">
+        <v>44046</v>
+      </c>
+      <c r="B243" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" s="1">
+        <v>44047</v>
+      </c>
+      <c r="B244" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" s="1">
+        <v>44048</v>
+      </c>
+      <c r="B245" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" s="1">
+        <v>44049</v>
+      </c>
+      <c r="B246" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" s="1">
+        <v>44050</v>
+      </c>
+      <c r="B247" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" s="1">
+        <v>44051</v>
+      </c>
+      <c r="B248" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" s="1">
+        <v>44052</v>
+      </c>
+      <c r="B249" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" s="1">
+        <v>44053</v>
+      </c>
+      <c r="B250" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" s="1">
+        <v>44054</v>
+      </c>
+      <c r="B251" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" s="1">
+        <v>44055</v>
+      </c>
+      <c r="B252" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" s="1">
+        <v>44056</v>
+      </c>
+      <c r="B253" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" s="1">
+        <v>44057</v>
+      </c>
+      <c r="B254" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" s="1">
+        <v>44058</v>
+      </c>
+      <c r="B255" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" s="1">
+        <v>44059</v>
+      </c>
+      <c r="B256" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" s="1">
+        <v>44060</v>
+      </c>
+      <c r="B257" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" s="1">
+        <v>44061</v>
+      </c>
+      <c r="B258" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" s="1">
+        <v>44062</v>
+      </c>
+      <c r="B259" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" s="1">
+        <v>44063</v>
+      </c>
+      <c r="B260" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" s="1">
+        <v>44064</v>
+      </c>
+      <c r="B261" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" s="1">
+        <v>44065</v>
+      </c>
+      <c r="B262" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" s="1">
+        <v>44066</v>
+      </c>
+      <c r="B263" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" s="1">
+        <v>44067</v>
+      </c>
+      <c r="B264" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" s="1">
+        <v>44068</v>
+      </c>
+      <c r="B265" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" s="1">
+        <v>44069</v>
+      </c>
+      <c r="B266" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" s="1">
+        <v>44070</v>
+      </c>
+      <c r="B267" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" s="1">
+        <v>44071</v>
+      </c>
+      <c r="B268" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" s="1">
+        <v>44072</v>
+      </c>
+      <c r="B269" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" s="1">
+        <v>44073</v>
+      </c>
+      <c r="B270" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" s="1">
+        <v>44074</v>
+      </c>
+      <c r="B271" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B272" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="1">
+        <v>44076</v>
+      </c>
+      <c r="B273" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B274" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" s="1">
+        <v>44078</v>
+      </c>
+      <c r="B275" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="1">
+        <v>44079</v>
+      </c>
+      <c r="B276" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="1">
+        <v>44080</v>
+      </c>
+      <c r="B277" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" s="1">
+        <v>44081</v>
+      </c>
+      <c r="B278" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" s="1">
+        <v>44082</v>
+      </c>
+      <c r="B279" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" s="1">
+        <v>44083</v>
+      </c>
+      <c r="B280" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" s="1">
+        <v>44084</v>
+      </c>
+      <c r="B281" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" s="1">
+        <v>44085</v>
+      </c>
+      <c r="B282" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" s="1">
+        <v>44086</v>
+      </c>
+      <c r="B283" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
+      <c r="A284" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B284" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
+      <c r="A285" s="1">
+        <v>44088</v>
+      </c>
+      <c r="B285" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
+      <c r="A286" s="1">
+        <v>44089</v>
+      </c>
+      <c r="B286" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" s="1">
+        <v>44090</v>
+      </c>
+      <c r="B287" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
+      <c r="A288" s="1">
+        <v>44091</v>
+      </c>
+      <c r="B288" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" s="1">
+        <v>44092</v>
+      </c>
+      <c r="B289" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" s="1">
+        <v>44093</v>
+      </c>
+      <c r="B290" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" s="1">
+        <v>44094</v>
+      </c>
+      <c r="B291" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" s="1">
+        <v>44095</v>
+      </c>
+      <c r="B292" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" s="1">
+        <v>44096</v>
+      </c>
+      <c r="B293" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" s="1">
+        <v>44097</v>
+      </c>
+      <c r="B294" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
+      <c r="A295" s="1">
+        <v>44098</v>
+      </c>
+      <c r="B295" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
+      <c r="A296" s="1">
+        <v>44099</v>
+      </c>
+      <c r="B296" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" s="1">
+        <v>44100</v>
+      </c>
+      <c r="B297" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
+      <c r="A298" s="1">
+        <v>44101</v>
+      </c>
+      <c r="B298" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" s="1">
+        <v>44102</v>
+      </c>
+      <c r="B299" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" s="1">
+        <v>44103</v>
+      </c>
+      <c r="B300" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B301" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" s="1">
+        <v>44105</v>
+      </c>
+      <c r="B302" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
+      <c r="A303" s="1">
+        <v>44106</v>
+      </c>
+      <c r="B303" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" s="1">
+        <v>44107</v>
+      </c>
+      <c r="B304" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" s="1">
+        <v>44108</v>
+      </c>
+      <c r="B305" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" s="1">
+        <v>44109</v>
+      </c>
+      <c r="B306" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
+      <c r="A307" s="1">
+        <v>44110</v>
+      </c>
+      <c r="B307" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" s="1">
+        <v>44111</v>
+      </c>
+      <c r="B308" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" s="1">
+        <v>44112</v>
+      </c>
+      <c r="B309" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" s="1">
+        <v>44113</v>
+      </c>
+      <c r="B310" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" s="1">
+        <v>44114</v>
+      </c>
+      <c r="B311" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" s="1">
+        <v>44115</v>
+      </c>
+      <c r="B312" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" s="1">
+        <v>44116</v>
+      </c>
+      <c r="B313" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" s="1">
+        <v>44117</v>
+      </c>
+      <c r="B314" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" s="1">
+        <v>44118</v>
+      </c>
+      <c r="B315" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" s="1">
+        <v>44119</v>
+      </c>
+      <c r="B316" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" s="1">
+        <v>44120</v>
+      </c>
+      <c r="B317" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" s="1">
+        <v>44121</v>
+      </c>
+      <c r="B318" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" s="1">
+        <v>44122</v>
+      </c>
+      <c r="B319" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" s="1">
+        <v>44123</v>
+      </c>
+      <c r="B320" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" s="1">
+        <v>44124</v>
+      </c>
+      <c r="B321" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" s="1">
+        <v>44125</v>
+      </c>
+      <c r="B322" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" s="1">
+        <v>44126</v>
+      </c>
+      <c r="B323" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" s="1">
+        <v>44127</v>
+      </c>
+      <c r="B324" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" s="1">
+        <v>44128</v>
+      </c>
+      <c r="B325" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" s="1">
+        <v>44129</v>
+      </c>
+      <c r="B326" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" s="1">
+        <v>44130</v>
+      </c>
+      <c r="B327" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" s="1">
+        <v>44131</v>
+      </c>
+      <c r="B328" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" s="1">
+        <v>44132</v>
+      </c>
+      <c r="B329" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" s="1">
+        <v>44133</v>
+      </c>
+      <c r="B330" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" s="1">
+        <v>44134</v>
+      </c>
+      <c r="B331" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" s="1">
+        <v>44135</v>
+      </c>
+      <c r="B332" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" s="1">
+        <v>44136</v>
+      </c>
+      <c r="B333" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" s="1">
+        <v>44137</v>
+      </c>
+      <c r="B334" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" s="1">
+        <v>44138</v>
+      </c>
+      <c r="B335" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" s="1">
+        <v>44139</v>
+      </c>
+      <c r="B336" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" s="1">
+        <v>44140</v>
+      </c>
+      <c r="B337" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" s="1">
+        <v>44141</v>
+      </c>
+      <c r="B338" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" s="1">
+        <v>44142</v>
+      </c>
+      <c r="B339" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" s="1">
+        <v>44143</v>
+      </c>
+      <c r="B340" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" s="1">
+        <v>44144</v>
+      </c>
+      <c r="B341" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" s="1">
+        <v>44145</v>
+      </c>
+      <c r="B342" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" s="1">
+        <v>44146</v>
+      </c>
+      <c r="B343" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" s="1">
+        <v>44147</v>
+      </c>
+      <c r="B344" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" s="1">
+        <v>44148</v>
+      </c>
+      <c r="B345" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" s="1">
+        <v>44149</v>
+      </c>
+      <c r="B346" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" s="1">
+        <v>44150</v>
+      </c>
+      <c r="B347" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" s="1">
+        <v>44151</v>
+      </c>
+      <c r="B348" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" s="1">
+        <v>44152</v>
+      </c>
+      <c r="B349" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" s="1">
+        <v>44153</v>
+      </c>
+      <c r="B350" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2">
+      <c r="A351" s="1">
+        <v>44154</v>
+      </c>
+      <c r="B351" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" s="1">
+        <v>44155</v>
+      </c>
+      <c r="B352" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" s="1">
+        <v>44156</v>
+      </c>
+      <c r="B353" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" s="1">
+        <v>44157</v>
+      </c>
+      <c r="B354" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" s="1">
+        <v>44158</v>
+      </c>
+      <c r="B355" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" s="1">
+        <v>44159</v>
+      </c>
+      <c r="B356" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" s="1">
+        <v>44160</v>
+      </c>
+      <c r="B357" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358" s="1">
+        <v>44161</v>
+      </c>
+      <c r="B358" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359" s="1">
+        <v>44162</v>
+      </c>
+      <c r="B359" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" s="1">
+        <v>44163</v>
+      </c>
+      <c r="B360" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" s="1">
+        <v>44164</v>
+      </c>
+      <c r="B361" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" s="1">
+        <v>44165</v>
+      </c>
+      <c r="B362" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B363" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364" s="1">
+        <v>44167</v>
+      </c>
+      <c r="B364" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" s="1">
+        <v>44168</v>
+      </c>
+      <c r="B365" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" s="1">
+        <v>44169</v>
+      </c>
+      <c r="B366" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367" s="1">
+        <v>44170</v>
+      </c>
+      <c r="B367" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368" s="1">
+        <v>44171</v>
+      </c>
+      <c r="B368" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369" s="1">
+        <v>44172</v>
+      </c>
+      <c r="B369" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" s="1">
+        <v>44173</v>
+      </c>
+      <c r="B370" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371" s="1">
+        <v>44174</v>
+      </c>
+      <c r="B371" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372" s="1">
+        <v>44175</v>
+      </c>
+      <c r="B372" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373" s="1">
+        <v>44176</v>
+      </c>
+      <c r="B373" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2">
+      <c r="A374" s="1">
+        <v>44177</v>
+      </c>
+      <c r="B374" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" s="1">
+        <v>44178</v>
+      </c>
+      <c r="B375" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376" s="1">
+        <v>44179</v>
+      </c>
+      <c r="B376" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2">
+      <c r="A377" s="1">
+        <v>44180</v>
+      </c>
+      <c r="B377" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2">
+      <c r="A378" s="1">
+        <v>44181</v>
+      </c>
+      <c r="B378" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2">
+      <c r="A379" s="1">
+        <v>44182</v>
+      </c>
+      <c r="B379" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2">
+      <c r="A380" s="1">
+        <v>44183</v>
+      </c>
+      <c r="B380" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2">
+      <c r="A381" s="1">
+        <v>44184</v>
+      </c>
+      <c r="B381" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2">
+      <c r="A382" s="1">
+        <v>44185</v>
+      </c>
+      <c r="B382" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2">
+      <c r="A383" s="1">
+        <v>44186</v>
+      </c>
+      <c r="B383" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2">
+      <c r="A384" s="1">
+        <v>44187</v>
+      </c>
+      <c r="B384" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2">
+      <c r="A385" s="1">
+        <v>44188</v>
+      </c>
+      <c r="B385" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2">
+      <c r="A386" s="1">
+        <v>44189</v>
+      </c>
+      <c r="B386" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2">
+      <c r="A387" s="1">
+        <v>44190</v>
+      </c>
+      <c r="B387" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2">
+      <c r="A388" s="1">
+        <v>44191</v>
+      </c>
+      <c r="B388" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2">
+      <c r="A389" s="1">
+        <v>44192</v>
+      </c>
+      <c r="B389" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2">
+      <c r="A390" s="1">
+        <v>44193</v>
+      </c>
+      <c r="B390" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2">
+      <c r="A391" s="1">
+        <v>44194</v>
+      </c>
+      <c r="B391" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2">
+      <c r="A392" s="1">
+        <v>44195</v>
+      </c>
+      <c r="B392" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2">
+      <c r="A393" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B393" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -4328,18 +6205,21 @@
     <hyperlink ref="C122" r:id="rId40"/>
     <hyperlink ref="C128" r:id="rId41"/>
     <hyperlink ref="C131" r:id="rId42"/>
+    <hyperlink ref="C141" r:id="rId43"/>
+    <hyperlink ref="C144" r:id="rId44"/>
+    <hyperlink ref="C147" r:id="rId45"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId43"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId46"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F110"/>
+  <dimension ref="A1:F131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4974,7 +6854,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>318</v>
       </c>
@@ -4988,7 +6868,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>322</v>
       </c>
@@ -5002,414 +6882,548 @@
         <v>286</v>
       </c>
     </row>
-    <row r="58" spans="1:5" s="4" customFormat="1">
-      <c r="A58" s="5" t="s">
+    <row r="51" spans="1:4">
+      <c r="A51" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C51" t="s">
+        <v>132</v>
+      </c>
+      <c r="D51" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>331</v>
+      </c>
+      <c r="B52" t="s">
+        <v>330</v>
+      </c>
+      <c r="C52" t="s">
+        <v>132</v>
+      </c>
+      <c r="D52" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>334</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="C53" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>337</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="C54" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>355</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="C55" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" s="4" customFormat="1">
+      <c r="A69" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="2" t="s">
+    <row r="70" spans="1:5">
+      <c r="A70" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B70" t="s">
         <v>98</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C70" t="s">
         <v>263</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D70" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="2" t="s">
+    <row r="71" spans="1:5">
+      <c r="A71" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B71" t="s">
         <v>105</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C71" t="s">
         <v>265</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D71" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="2" t="s">
+    <row r="72" spans="1:5">
+      <c r="A72" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B72" t="s">
         <v>110</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C72" t="s">
         <v>267</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D72" t="s">
         <v>268</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E72" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="2" t="s">
+    <row r="73" spans="1:5">
+      <c r="A73" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B73" t="s">
         <v>112</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C73" t="s">
         <v>270</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D73" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="2" t="s">
+    <row r="74" spans="1:5">
+      <c r="A74" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B74" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="2" t="s">
+    <row r="75" spans="1:5">
+      <c r="A75" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B75" t="s">
         <v>116</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C75" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="2" t="s">
+    <row r="76" spans="1:5">
+      <c r="A76" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B76" t="s">
         <v>130</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C76" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
         <v>129</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B77" t="s">
         <v>130</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C77" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="2" t="s">
+    <row r="78" spans="1:5">
+      <c r="A78" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B78" t="s">
         <v>137</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C78" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="2" t="s">
+    <row r="79" spans="1:5">
+      <c r="A79" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B79" t="s">
         <v>137</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C79" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="s">
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
         <v>142</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B80" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C80" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
         <v>145</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B81" t="s">
         <v>146</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C81" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
         <v>214</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B82" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C82" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="s">
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
         <v>236</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B83" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="76" spans="1:3" s="4" customFormat="1">
-      <c r="A76" s="5" t="s">
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>332</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B85" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" s="4" customFormat="1">
+      <c r="A87" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="2" t="s">
+    <row r="88" spans="1:3">
+      <c r="A88" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B88" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="2" t="s">
+    <row r="89" spans="1:3">
+      <c r="A89" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B89" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
         <v>47</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B90" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
         <v>49</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B91" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="2" t="s">
+    <row r="92" spans="1:3">
+      <c r="A92" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B92" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="2" t="s">
+    <row r="93" spans="1:3">
+      <c r="A93" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B93" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
         <v>84</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B94" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="2" t="s">
+    <row r="95" spans="1:3">
+      <c r="A95" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B95" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
         <v>93</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B96" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
         <v>156</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B97" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
         <v>159</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B98" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
         <v>160</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B99" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="2" t="s">
+    <row r="100" spans="1:2">
+      <c r="A100" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B100" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
         <v>93</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B101" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
         <v>289</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B102" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
         <v>306</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B103" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
-      <c r="A93" t="s">
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
         <v>307</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B104" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
         <v>308</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B105" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="s">
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
         <v>309</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B106" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
         <v>310</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B107" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="100" spans="1:1" s="4" customFormat="1">
-      <c r="A100" s="5" t="s">
+    <row r="111" spans="1:2" s="4" customFormat="1">
+      <c r="A111" s="5" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
-      <c r="A101" t="s">
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="103" spans="1:1">
-      <c r="A103" t="s">
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="104" spans="1:1">
-      <c r="A104" t="s">
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="105" spans="1:1">
-      <c r="A105" t="s">
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="106" spans="1:1">
-      <c r="A106" t="s">
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="107" spans="1:1">
-      <c r="A107" t="s">
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="108" spans="1:1">
-      <c r="A108" t="s">
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="109" spans="1:1">
-      <c r="A109" t="s">
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="110" spans="1:1">
-      <c r="A110" t="s">
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
         <v>280</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" s="4" customFormat="1">
+      <c r="A123" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>339</v>
+      </c>
+      <c r="B124" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>340</v>
+      </c>
+      <c r="B126" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>341</v>
+      </c>
+      <c r="B127" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>349</v>
+      </c>
+      <c r="B128" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="B130" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="B131" t="s">
+        <v>348</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A77" r:id="rId1"/>
+    <hyperlink ref="A88" r:id="rId1"/>
     <hyperlink ref="A6" r:id="rId2"/>
-    <hyperlink ref="A78" r:id="rId3"/>
+    <hyperlink ref="A89" r:id="rId3"/>
     <hyperlink ref="A7" r:id="rId4"/>
-    <hyperlink ref="A81" r:id="rId5"/>
+    <hyperlink ref="A92" r:id="rId5"/>
     <hyperlink ref="A9" r:id="rId6"/>
     <hyperlink ref="A10" r:id="rId7"/>
-    <hyperlink ref="A82" r:id="rId8"/>
-    <hyperlink ref="A84" r:id="rId9"/>
+    <hyperlink ref="A93" r:id="rId8"/>
+    <hyperlink ref="A95" r:id="rId9"/>
     <hyperlink ref="A11" r:id="rId10"/>
-    <hyperlink ref="A59" r:id="rId11" location="/2"/>
-    <hyperlink ref="A61" r:id="rId12"/>
-    <hyperlink ref="A62" r:id="rId13"/>
-    <hyperlink ref="A63" r:id="rId14"/>
-    <hyperlink ref="A64" r:id="rId15"/>
+    <hyperlink ref="A70" r:id="rId11" location="/2"/>
+    <hyperlink ref="A72" r:id="rId12"/>
+    <hyperlink ref="A73" r:id="rId13"/>
+    <hyperlink ref="A74" r:id="rId14"/>
+    <hyperlink ref="A75" r:id="rId15"/>
     <hyperlink ref="A13" r:id="rId16"/>
     <hyperlink ref="A14" r:id="rId17"/>
-    <hyperlink ref="A67" r:id="rId18"/>
+    <hyperlink ref="A78" r:id="rId18"/>
     <hyperlink ref="A15" r:id="rId19"/>
     <hyperlink ref="A16" r:id="rId20"/>
     <hyperlink ref="A18" r:id="rId21"/>
     <hyperlink ref="A19" r:id="rId22"/>
-    <hyperlink ref="A89" r:id="rId23"/>
+    <hyperlink ref="A100" r:id="rId23"/>
     <hyperlink ref="A20" r:id="rId24"/>
     <hyperlink ref="B20" r:id="rId25" display="https://www.youtube.com/watch?v=ZAde-IJAHzo"/>
     <hyperlink ref="A23" r:id="rId26"/>
@@ -5432,9 +7446,11 @@
     <hyperlink ref="A43" r:id="rId43"/>
     <hyperlink ref="A44" r:id="rId44"/>
     <hyperlink ref="A45" r:id="rId45"/>
+    <hyperlink ref="A51" r:id="rId46"/>
+    <hyperlink ref="A85" r:id="rId47"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId46"/>
-  <legacyDrawing r:id="rId47"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId48"/>
+  <legacyDrawing r:id="rId49"/>
 </worksheet>
 </file>
--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="По задачам" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="358">
   <si>
     <t>Дата начала</t>
   </si>
@@ -1217,6 +1217,12 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=0sDHMq3x4fA</t>
+  </si>
+  <si>
+    <t>Webinar 17.10.2019 Swiper &amp; Slider Examples (carousel live coding)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rkz6LURkbBw</t>
   </si>
 </sst>
 </file>
@@ -1605,10 +1611,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
     <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2430,6 +2436,17 @@
       </c>
       <c r="C70" t="s">
         <v>330</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B71" s="1">
+        <v>43951</v>
+      </c>
+      <c r="C71" t="s">
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -2446,10 +2463,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D393"/>
+  <dimension ref="A1:D394"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="C147" sqref="C147:D147"/>
+    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="C149" sqref="C149:D149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4200,1964 +4217,1979 @@
       <c r="B148" t="s">
         <v>13</v>
       </c>
+      <c r="C148" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D148" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="149" spans="1:4">
-      <c r="A149" s="1">
-        <v>43952</v>
-      </c>
-      <c r="B149" t="s">
-        <v>14</v>
+      <c r="A149" s="1"/>
+      <c r="C149" t="s">
+        <v>327</v>
+      </c>
+      <c r="D149" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="1">
-        <v>43953</v>
+        <v>43952</v>
       </c>
       <c r="B150" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="1">
-        <v>43954</v>
+        <v>43953</v>
       </c>
       <c r="B151" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="1">
-        <v>43955</v>
+        <v>43954</v>
       </c>
       <c r="B152" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="1">
-        <v>43956</v>
+        <v>43955</v>
       </c>
       <c r="B153" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="1">
-        <v>43957</v>
+        <v>43956</v>
       </c>
       <c r="B154" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="1">
-        <v>43958</v>
+        <v>43957</v>
       </c>
       <c r="B155" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="1">
-        <v>43959</v>
+        <v>43958</v>
       </c>
       <c r="B156" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="1">
-        <v>43960</v>
+        <v>43959</v>
       </c>
       <c r="B157" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="1">
-        <v>43961</v>
+        <v>43960</v>
       </c>
       <c r="B158" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="1">
-        <v>43962</v>
+        <v>43961</v>
       </c>
       <c r="B159" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="1">
-        <v>43963</v>
+        <v>43962</v>
       </c>
       <c r="B160" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="1">
-        <v>43964</v>
+        <v>43963</v>
       </c>
       <c r="B161" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="1">
-        <v>43965</v>
+        <v>43964</v>
       </c>
       <c r="B162" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="1">
-        <v>43966</v>
+        <v>43965</v>
       </c>
       <c r="B163" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="1">
-        <v>43967</v>
+        <v>43966</v>
       </c>
       <c r="B164" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="1">
-        <v>43968</v>
+        <v>43967</v>
       </c>
       <c r="B165" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="1">
-        <v>43969</v>
+        <v>43968</v>
       </c>
       <c r="B166" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="1">
-        <v>43970</v>
+        <v>43969</v>
       </c>
       <c r="B167" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="1">
-        <v>43971</v>
+        <v>43970</v>
       </c>
       <c r="B168" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="1">
-        <v>43972</v>
+        <v>43971</v>
       </c>
       <c r="B169" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="1">
-        <v>43973</v>
+        <v>43972</v>
       </c>
       <c r="B170" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="1">
-        <v>43974</v>
+        <v>43973</v>
       </c>
       <c r="B171" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="1">
-        <v>43975</v>
+        <v>43974</v>
       </c>
       <c r="B172" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="1">
-        <v>43976</v>
+        <v>43975</v>
       </c>
       <c r="B173" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="1">
-        <v>43977</v>
+        <v>43976</v>
       </c>
       <c r="B174" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="1">
-        <v>43978</v>
+        <v>43977</v>
       </c>
       <c r="B175" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="1">
-        <v>43979</v>
+        <v>43978</v>
       </c>
       <c r="B176" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="1">
-        <v>43980</v>
+        <v>43979</v>
       </c>
       <c r="B177" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="1">
-        <v>43981</v>
+        <v>43980</v>
       </c>
       <c r="B178" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="1">
-        <v>43982</v>
+        <v>43981</v>
       </c>
       <c r="B179" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="1">
-        <v>43983</v>
+        <v>43982</v>
       </c>
       <c r="B180" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="1">
-        <v>43984</v>
+        <v>43983</v>
       </c>
       <c r="B181" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="1">
-        <v>43985</v>
+        <v>43984</v>
       </c>
       <c r="B182" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="1">
-        <v>43986</v>
+        <v>43985</v>
       </c>
       <c r="B183" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="1">
-        <v>43987</v>
+        <v>43986</v>
       </c>
       <c r="B184" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="1">
-        <v>43988</v>
+        <v>43987</v>
       </c>
       <c r="B185" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="1">
-        <v>43989</v>
+        <v>43988</v>
       </c>
       <c r="B186" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="1">
-        <v>43990</v>
+        <v>43989</v>
       </c>
       <c r="B187" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="1">
-        <v>43991</v>
+        <v>43990</v>
       </c>
       <c r="B188" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="1">
-        <v>43992</v>
+        <v>43991</v>
       </c>
       <c r="B189" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="1">
-        <v>43993</v>
+        <v>43992</v>
       </c>
       <c r="B190" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="1">
-        <v>43994</v>
+        <v>43993</v>
       </c>
       <c r="B191" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="1">
-        <v>43995</v>
+        <v>43994</v>
       </c>
       <c r="B192" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="1">
-        <v>43996</v>
+        <v>43995</v>
       </c>
       <c r="B193" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="1">
-        <v>43997</v>
+        <v>43996</v>
       </c>
       <c r="B194" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="1">
-        <v>43998</v>
+        <v>43997</v>
       </c>
       <c r="B195" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="1">
-        <v>43999</v>
+        <v>43998</v>
       </c>
       <c r="B196" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="1">
-        <v>44000</v>
+        <v>43999</v>
       </c>
       <c r="B197" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="1">
-        <v>44001</v>
+        <v>44000</v>
       </c>
       <c r="B198" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="1">
-        <v>44002</v>
+        <v>44001</v>
       </c>
       <c r="B199" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="1">
-        <v>44003</v>
+        <v>44002</v>
       </c>
       <c r="B200" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="1">
-        <v>44004</v>
+        <v>44003</v>
       </c>
       <c r="B201" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="1">
-        <v>44005</v>
+        <v>44004</v>
       </c>
       <c r="B202" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="1">
-        <v>44006</v>
+        <v>44005</v>
       </c>
       <c r="B203" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="1">
-        <v>44007</v>
+        <v>44006</v>
       </c>
       <c r="B204" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="1">
-        <v>44008</v>
+        <v>44007</v>
       </c>
       <c r="B205" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="1">
-        <v>44009</v>
+        <v>44008</v>
       </c>
       <c r="B206" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="1">
-        <v>44010</v>
+        <v>44009</v>
       </c>
       <c r="B207" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="1">
-        <v>44011</v>
+        <v>44010</v>
       </c>
       <c r="B208" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="1">
-        <v>44012</v>
+        <v>44011</v>
       </c>
       <c r="B209" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="1">
-        <v>44013</v>
+        <v>44012</v>
       </c>
       <c r="B210" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="1">
-        <v>44014</v>
+        <v>44013</v>
       </c>
       <c r="B211" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="1">
-        <v>44015</v>
+        <v>44014</v>
       </c>
       <c r="B212" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="1">
-        <v>44016</v>
+        <v>44015</v>
       </c>
       <c r="B213" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="1">
-        <v>44017</v>
+        <v>44016</v>
       </c>
       <c r="B214" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="1">
-        <v>44018</v>
+        <v>44017</v>
       </c>
       <c r="B215" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="1">
-        <v>44019</v>
+        <v>44018</v>
       </c>
       <c r="B216" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="1">
-        <v>44020</v>
+        <v>44019</v>
       </c>
       <c r="B217" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="1">
-        <v>44021</v>
+        <v>44020</v>
       </c>
       <c r="B218" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="1">
-        <v>44022</v>
+        <v>44021</v>
       </c>
       <c r="B219" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="1">
-        <v>44023</v>
+        <v>44022</v>
       </c>
       <c r="B220" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="1">
-        <v>44024</v>
+        <v>44023</v>
       </c>
       <c r="B221" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="1">
-        <v>44025</v>
+        <v>44024</v>
       </c>
       <c r="B222" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="1">
-        <v>44026</v>
+        <v>44025</v>
       </c>
       <c r="B223" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="1">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B224" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="1">
-        <v>44028</v>
+        <v>44027</v>
       </c>
       <c r="B225" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="1">
-        <v>44029</v>
+        <v>44028</v>
       </c>
       <c r="B226" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="1">
-        <v>44030</v>
+        <v>44029</v>
       </c>
       <c r="B227" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="1">
-        <v>44031</v>
+        <v>44030</v>
       </c>
       <c r="B228" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="1">
-        <v>44032</v>
+        <v>44031</v>
       </c>
       <c r="B229" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="1">
-        <v>44033</v>
+        <v>44032</v>
       </c>
       <c r="B230" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="1">
-        <v>44034</v>
+        <v>44033</v>
       </c>
       <c r="B231" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="1">
-        <v>44035</v>
+        <v>44034</v>
       </c>
       <c r="B232" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="1">
-        <v>44036</v>
+        <v>44035</v>
       </c>
       <c r="B233" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="1">
-        <v>44037</v>
+        <v>44036</v>
       </c>
       <c r="B234" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="1">
-        <v>44038</v>
+        <v>44037</v>
       </c>
       <c r="B235" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="1">
-        <v>44039</v>
+        <v>44038</v>
       </c>
       <c r="B236" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="1">
-        <v>44040</v>
+        <v>44039</v>
       </c>
       <c r="B237" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="1">
-        <v>44041</v>
+        <v>44040</v>
       </c>
       <c r="B238" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="1">
-        <v>44042</v>
+        <v>44041</v>
       </c>
       <c r="B239" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="1">
-        <v>44043</v>
+        <v>44042</v>
       </c>
       <c r="B240" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="1">
-        <v>44044</v>
+        <v>44043</v>
       </c>
       <c r="B241" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="1">
-        <v>44045</v>
+        <v>44044</v>
       </c>
       <c r="B242" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="1">
-        <v>44046</v>
+        <v>44045</v>
       </c>
       <c r="B243" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="1">
-        <v>44047</v>
+        <v>44046</v>
       </c>
       <c r="B244" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="1">
-        <v>44048</v>
+        <v>44047</v>
       </c>
       <c r="B245" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="1">
-        <v>44049</v>
+        <v>44048</v>
       </c>
       <c r="B246" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="1">
-        <v>44050</v>
+        <v>44049</v>
       </c>
       <c r="B247" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="1">
-        <v>44051</v>
+        <v>44050</v>
       </c>
       <c r="B248" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="1">
-        <v>44052</v>
+        <v>44051</v>
       </c>
       <c r="B249" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="1">
-        <v>44053</v>
+        <v>44052</v>
       </c>
       <c r="B250" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="1">
-        <v>44054</v>
+        <v>44053</v>
       </c>
       <c r="B251" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="1">
-        <v>44055</v>
+        <v>44054</v>
       </c>
       <c r="B252" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="1">
-        <v>44056</v>
+        <v>44055</v>
       </c>
       <c r="B253" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="1">
-        <v>44057</v>
+        <v>44056</v>
       </c>
       <c r="B254" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="1">
-        <v>44058</v>
+        <v>44057</v>
       </c>
       <c r="B255" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="1">
-        <v>44059</v>
+        <v>44058</v>
       </c>
       <c r="B256" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="1">
-        <v>44060</v>
+        <v>44059</v>
       </c>
       <c r="B257" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="1">
-        <v>44061</v>
+        <v>44060</v>
       </c>
       <c r="B258" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="1">
-        <v>44062</v>
+        <v>44061</v>
       </c>
       <c r="B259" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="1">
-        <v>44063</v>
+        <v>44062</v>
       </c>
       <c r="B260" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="1">
-        <v>44064</v>
+        <v>44063</v>
       </c>
       <c r="B261" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="1">
-        <v>44065</v>
+        <v>44064</v>
       </c>
       <c r="B262" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="1">
-        <v>44066</v>
+        <v>44065</v>
       </c>
       <c r="B263" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="1">
-        <v>44067</v>
+        <v>44066</v>
       </c>
       <c r="B264" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="1">
-        <v>44068</v>
+        <v>44067</v>
       </c>
       <c r="B265" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="1">
-        <v>44069</v>
+        <v>44068</v>
       </c>
       <c r="B266" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="1">
-        <v>44070</v>
+        <v>44069</v>
       </c>
       <c r="B267" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="1">
-        <v>44071</v>
+        <v>44070</v>
       </c>
       <c r="B268" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="1">
-        <v>44072</v>
+        <v>44071</v>
       </c>
       <c r="B269" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="1">
-        <v>44073</v>
+        <v>44072</v>
       </c>
       <c r="B270" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="1">
-        <v>44074</v>
+        <v>44073</v>
       </c>
       <c r="B271" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="1">
-        <v>44075</v>
+        <v>44074</v>
       </c>
       <c r="B272" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="1">
-        <v>44076</v>
+        <v>44075</v>
       </c>
       <c r="B273" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="1">
-        <v>44077</v>
+        <v>44076</v>
       </c>
       <c r="B274" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="1">
-        <v>44078</v>
+        <v>44077</v>
       </c>
       <c r="B275" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="1">
-        <v>44079</v>
+        <v>44078</v>
       </c>
       <c r="B276" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="1">
-        <v>44080</v>
+        <v>44079</v>
       </c>
       <c r="B277" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="1">
-        <v>44081</v>
+        <v>44080</v>
       </c>
       <c r="B278" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="1">
-        <v>44082</v>
+        <v>44081</v>
       </c>
       <c r="B279" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="1">
-        <v>44083</v>
+        <v>44082</v>
       </c>
       <c r="B280" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="1">
-        <v>44084</v>
+        <v>44083</v>
       </c>
       <c r="B281" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="1">
-        <v>44085</v>
+        <v>44084</v>
       </c>
       <c r="B282" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="1">
-        <v>44086</v>
+        <v>44085</v>
       </c>
       <c r="B283" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="1">
-        <v>44087</v>
+        <v>44086</v>
       </c>
       <c r="B284" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="1">
-        <v>44088</v>
+        <v>44087</v>
       </c>
       <c r="B285" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="1">
-        <v>44089</v>
+        <v>44088</v>
       </c>
       <c r="B286" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="1">
-        <v>44090</v>
+        <v>44089</v>
       </c>
       <c r="B287" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="1">
-        <v>44091</v>
+        <v>44090</v>
       </c>
       <c r="B288" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="1">
-        <v>44092</v>
+        <v>44091</v>
       </c>
       <c r="B289" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="1">
-        <v>44093</v>
+        <v>44092</v>
       </c>
       <c r="B290" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="1">
-        <v>44094</v>
+        <v>44093</v>
       </c>
       <c r="B291" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="1">
-        <v>44095</v>
+        <v>44094</v>
       </c>
       <c r="B292" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="1">
-        <v>44096</v>
+        <v>44095</v>
       </c>
       <c r="B293" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="1">
-        <v>44097</v>
+        <v>44096</v>
       </c>
       <c r="B294" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="1">
-        <v>44098</v>
+        <v>44097</v>
       </c>
       <c r="B295" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="1">
-        <v>44099</v>
+        <v>44098</v>
       </c>
       <c r="B296" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="1">
-        <v>44100</v>
+        <v>44099</v>
       </c>
       <c r="B297" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="1">
-        <v>44101</v>
+        <v>44100</v>
       </c>
       <c r="B298" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="1">
-        <v>44102</v>
+        <v>44101</v>
       </c>
       <c r="B299" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="1">
-        <v>44103</v>
+        <v>44102</v>
       </c>
       <c r="B300" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="1">
-        <v>44104</v>
+        <v>44103</v>
       </c>
       <c r="B301" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="1">
-        <v>44105</v>
+        <v>44104</v>
       </c>
       <c r="B302" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="1">
-        <v>44106</v>
+        <v>44105</v>
       </c>
       <c r="B303" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="1">
-        <v>44107</v>
+        <v>44106</v>
       </c>
       <c r="B304" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="1">
-        <v>44108</v>
+        <v>44107</v>
       </c>
       <c r="B305" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="1">
-        <v>44109</v>
+        <v>44108</v>
       </c>
       <c r="B306" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="1">
-        <v>44110</v>
+        <v>44109</v>
       </c>
       <c r="B307" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="1">
-        <v>44111</v>
+        <v>44110</v>
       </c>
       <c r="B308" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="1">
-        <v>44112</v>
+        <v>44111</v>
       </c>
       <c r="B309" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="1">
-        <v>44113</v>
+        <v>44112</v>
       </c>
       <c r="B310" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="1">
-        <v>44114</v>
+        <v>44113</v>
       </c>
       <c r="B311" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="1">
-        <v>44115</v>
+        <v>44114</v>
       </c>
       <c r="B312" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="1">
-        <v>44116</v>
+        <v>44115</v>
       </c>
       <c r="B313" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="1">
-        <v>44117</v>
+        <v>44116</v>
       </c>
       <c r="B314" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="1">
-        <v>44118</v>
+        <v>44117</v>
       </c>
       <c r="B315" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="1">
-        <v>44119</v>
+        <v>44118</v>
       </c>
       <c r="B316" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="1">
-        <v>44120</v>
+        <v>44119</v>
       </c>
       <c r="B317" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="1">
-        <v>44121</v>
+        <v>44120</v>
       </c>
       <c r="B318" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="1">
-        <v>44122</v>
+        <v>44121</v>
       </c>
       <c r="B319" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="1">
-        <v>44123</v>
+        <v>44122</v>
       </c>
       <c r="B320" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="1">
-        <v>44124</v>
+        <v>44123</v>
       </c>
       <c r="B321" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="1">
-        <v>44125</v>
+        <v>44124</v>
       </c>
       <c r="B322" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="1">
-        <v>44126</v>
+        <v>44125</v>
       </c>
       <c r="B323" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="1">
-        <v>44127</v>
+        <v>44126</v>
       </c>
       <c r="B324" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="1">
-        <v>44128</v>
+        <v>44127</v>
       </c>
       <c r="B325" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="1">
-        <v>44129</v>
+        <v>44128</v>
       </c>
       <c r="B326" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="1">
-        <v>44130</v>
+        <v>44129</v>
       </c>
       <c r="B327" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="1">
-        <v>44131</v>
+        <v>44130</v>
       </c>
       <c r="B328" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="1">
-        <v>44132</v>
+        <v>44131</v>
       </c>
       <c r="B329" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="1">
-        <v>44133</v>
+        <v>44132</v>
       </c>
       <c r="B330" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="1">
-        <v>44134</v>
+        <v>44133</v>
       </c>
       <c r="B331" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="1">
-        <v>44135</v>
+        <v>44134</v>
       </c>
       <c r="B332" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="1">
-        <v>44136</v>
+        <v>44135</v>
       </c>
       <c r="B333" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="1">
-        <v>44137</v>
+        <v>44136</v>
       </c>
       <c r="B334" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="1">
-        <v>44138</v>
+        <v>44137</v>
       </c>
       <c r="B335" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="1">
-        <v>44139</v>
+        <v>44138</v>
       </c>
       <c r="B336" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="1">
-        <v>44140</v>
+        <v>44139</v>
       </c>
       <c r="B337" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="1">
-        <v>44141</v>
+        <v>44140</v>
       </c>
       <c r="B338" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="1">
-        <v>44142</v>
+        <v>44141</v>
       </c>
       <c r="B339" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="1">
-        <v>44143</v>
+        <v>44142</v>
       </c>
       <c r="B340" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="1">
-        <v>44144</v>
+        <v>44143</v>
       </c>
       <c r="B341" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="1">
-        <v>44145</v>
+        <v>44144</v>
       </c>
       <c r="B342" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="1">
-        <v>44146</v>
+        <v>44145</v>
       </c>
       <c r="B343" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="1">
-        <v>44147</v>
+        <v>44146</v>
       </c>
       <c r="B344" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="1">
-        <v>44148</v>
+        <v>44147</v>
       </c>
       <c r="B345" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="1">
-        <v>44149</v>
+        <v>44148</v>
       </c>
       <c r="B346" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="1">
-        <v>44150</v>
+        <v>44149</v>
       </c>
       <c r="B347" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="1">
-        <v>44151</v>
+        <v>44150</v>
       </c>
       <c r="B348" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="1">
-        <v>44152</v>
+        <v>44151</v>
       </c>
       <c r="B349" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="1">
-        <v>44153</v>
+        <v>44152</v>
       </c>
       <c r="B350" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="1">
-        <v>44154</v>
+        <v>44153</v>
       </c>
       <c r="B351" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="1">
-        <v>44155</v>
+        <v>44154</v>
       </c>
       <c r="B352" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="1">
-        <v>44156</v>
+        <v>44155</v>
       </c>
       <c r="B353" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="1">
-        <v>44157</v>
+        <v>44156</v>
       </c>
       <c r="B354" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="1">
-        <v>44158</v>
+        <v>44157</v>
       </c>
       <c r="B355" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="1">
-        <v>44159</v>
+        <v>44158</v>
       </c>
       <c r="B356" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="1">
-        <v>44160</v>
+        <v>44159</v>
       </c>
       <c r="B357" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="1">
-        <v>44161</v>
+        <v>44160</v>
       </c>
       <c r="B358" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="1">
-        <v>44162</v>
+        <v>44161</v>
       </c>
       <c r="B359" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="1">
-        <v>44163</v>
+        <v>44162</v>
       </c>
       <c r="B360" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="1">
-        <v>44164</v>
+        <v>44163</v>
       </c>
       <c r="B361" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="1">
-        <v>44165</v>
+        <v>44164</v>
       </c>
       <c r="B362" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="1">
-        <v>44166</v>
+        <v>44165</v>
       </c>
       <c r="B363" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="1">
-        <v>44167</v>
+        <v>44166</v>
       </c>
       <c r="B364" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="1">
-        <v>44168</v>
+        <v>44167</v>
       </c>
       <c r="B365" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="1">
-        <v>44169</v>
+        <v>44168</v>
       </c>
       <c r="B366" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="1">
-        <v>44170</v>
+        <v>44169</v>
       </c>
       <c r="B367" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="1">
-        <v>44171</v>
+        <v>44170</v>
       </c>
       <c r="B368" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="1">
-        <v>44172</v>
+        <v>44171</v>
       </c>
       <c r="B369" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="1">
-        <v>44173</v>
+        <v>44172</v>
       </c>
       <c r="B370" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="1">
-        <v>44174</v>
+        <v>44173</v>
       </c>
       <c r="B371" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="1">
-        <v>44175</v>
+        <v>44174</v>
       </c>
       <c r="B372" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="1">
-        <v>44176</v>
+        <v>44175</v>
       </c>
       <c r="B373" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="1">
-        <v>44177</v>
+        <v>44176</v>
       </c>
       <c r="B374" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="1">
-        <v>44178</v>
+        <v>44177</v>
       </c>
       <c r="B375" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="1">
-        <v>44179</v>
+        <v>44178</v>
       </c>
       <c r="B376" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="1">
-        <v>44180</v>
+        <v>44179</v>
       </c>
       <c r="B377" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="1">
-        <v>44181</v>
+        <v>44180</v>
       </c>
       <c r="B378" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="1">
-        <v>44182</v>
+        <v>44181</v>
       </c>
       <c r="B379" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="1">
-        <v>44183</v>
+        <v>44182</v>
       </c>
       <c r="B380" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="1">
-        <v>44184</v>
+        <v>44183</v>
       </c>
       <c r="B381" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="1">
-        <v>44185</v>
+        <v>44184</v>
       </c>
       <c r="B382" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="1">
-        <v>44186</v>
+        <v>44185</v>
       </c>
       <c r="B383" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="1">
-        <v>44187</v>
+        <v>44186</v>
       </c>
       <c r="B384" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="1">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="B385" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="1">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="B386" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="1">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="B387" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="1">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="B388" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="1">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="B389" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="1">
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="B390" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="1">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="B391" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="1">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B392" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="1">
+        <v>44195</v>
+      </c>
+      <c r="B393" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2">
+      <c r="A394" s="1">
         <v>44196</v>
       </c>
-      <c r="B393" t="s">
+      <c r="B394" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6208,9 +6240,10 @@
     <hyperlink ref="C141" r:id="rId43"/>
     <hyperlink ref="C144" r:id="rId44"/>
     <hyperlink ref="C147" r:id="rId45"/>
+    <hyperlink ref="C148" r:id="rId46"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId46"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId47"/>
 </worksheet>
 </file>
 
@@ -6218,8 +6251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6941,6 +6974,20 @@
       </c>
       <c r="C55" t="s">
         <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>357</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="C56" t="s">
+        <v>132</v>
+      </c>
+      <c r="D56" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="69" spans="1:5" s="4" customFormat="1">

--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="По задачам" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1017" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="359">
   <si>
     <t>Дата начала</t>
   </si>
@@ -1223,6 +1223,9 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=rkz6LURkbBw</t>
+  </si>
+  <si>
+    <t>I can code</t>
   </si>
 </sst>
 </file>
@@ -1611,10 +1614,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
     <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+      <selection activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2447,6 +2450,14 @@
       </c>
       <c r="C71" t="s">
         <v>356</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="1">
+        <v>43951</v>
+      </c>
+      <c r="C72" t="s">
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -2463,10 +2474,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D394"/>
+  <dimension ref="A1:D395"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="C149" sqref="C149:D149"/>
+    <sheetView topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="C152" sqref="C152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4240,1956 +4251,1971 @@
       <c r="B150" t="s">
         <v>14</v>
       </c>
+      <c r="C150" t="s">
+        <v>327</v>
+      </c>
+      <c r="D150" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="151" spans="1:4">
-      <c r="A151" s="1">
-        <v>43953</v>
-      </c>
-      <c r="B151" t="s">
-        <v>15</v>
+      <c r="A151" s="1"/>
+      <c r="C151" t="s">
+        <v>358</v>
+      </c>
+      <c r="D151" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="1">
-        <v>43954</v>
+        <v>43953</v>
       </c>
       <c r="B152" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="1">
-        <v>43955</v>
+        <v>43954</v>
       </c>
       <c r="B153" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="1">
-        <v>43956</v>
+        <v>43955</v>
       </c>
       <c r="B154" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="1">
-        <v>43957</v>
+        <v>43956</v>
       </c>
       <c r="B155" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="1">
-        <v>43958</v>
+        <v>43957</v>
       </c>
       <c r="B156" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="1">
-        <v>43959</v>
+        <v>43958</v>
       </c>
       <c r="B157" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="1">
-        <v>43960</v>
+        <v>43959</v>
       </c>
       <c r="B158" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="1">
-        <v>43961</v>
+        <v>43960</v>
       </c>
       <c r="B159" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="1">
-        <v>43962</v>
+        <v>43961</v>
       </c>
       <c r="B160" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="1">
-        <v>43963</v>
+        <v>43962</v>
       </c>
       <c r="B161" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="1">
-        <v>43964</v>
+        <v>43963</v>
       </c>
       <c r="B162" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="1">
-        <v>43965</v>
+        <v>43964</v>
       </c>
       <c r="B163" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="1">
-        <v>43966</v>
+        <v>43965</v>
       </c>
       <c r="B164" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="1">
-        <v>43967</v>
+        <v>43966</v>
       </c>
       <c r="B165" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="1">
-        <v>43968</v>
+        <v>43967</v>
       </c>
       <c r="B166" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="1">
-        <v>43969</v>
+        <v>43968</v>
       </c>
       <c r="B167" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="1">
-        <v>43970</v>
+        <v>43969</v>
       </c>
       <c r="B168" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="1">
-        <v>43971</v>
+        <v>43970</v>
       </c>
       <c r="B169" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="1">
-        <v>43972</v>
+        <v>43971</v>
       </c>
       <c r="B170" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="1">
-        <v>43973</v>
+        <v>43972</v>
       </c>
       <c r="B171" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="1">
-        <v>43974</v>
+        <v>43973</v>
       </c>
       <c r="B172" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="1">
-        <v>43975</v>
+        <v>43974</v>
       </c>
       <c r="B173" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="1">
-        <v>43976</v>
+        <v>43975</v>
       </c>
       <c r="B174" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="1">
-        <v>43977</v>
+        <v>43976</v>
       </c>
       <c r="B175" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="1">
-        <v>43978</v>
+        <v>43977</v>
       </c>
       <c r="B176" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="1">
-        <v>43979</v>
+        <v>43978</v>
       </c>
       <c r="B177" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="1">
-        <v>43980</v>
+        <v>43979</v>
       </c>
       <c r="B178" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="1">
-        <v>43981</v>
+        <v>43980</v>
       </c>
       <c r="B179" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="1">
-        <v>43982</v>
+        <v>43981</v>
       </c>
       <c r="B180" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="1">
-        <v>43983</v>
+        <v>43982</v>
       </c>
       <c r="B181" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="1">
-        <v>43984</v>
+        <v>43983</v>
       </c>
       <c r="B182" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="1">
-        <v>43985</v>
+        <v>43984</v>
       </c>
       <c r="B183" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="1">
-        <v>43986</v>
+        <v>43985</v>
       </c>
       <c r="B184" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="1">
-        <v>43987</v>
+        <v>43986</v>
       </c>
       <c r="B185" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="1">
-        <v>43988</v>
+        <v>43987</v>
       </c>
       <c r="B186" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="1">
-        <v>43989</v>
+        <v>43988</v>
       </c>
       <c r="B187" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="1">
-        <v>43990</v>
+        <v>43989</v>
       </c>
       <c r="B188" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="1">
-        <v>43991</v>
+        <v>43990</v>
       </c>
       <c r="B189" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="1">
-        <v>43992</v>
+        <v>43991</v>
       </c>
       <c r="B190" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="1">
-        <v>43993</v>
+        <v>43992</v>
       </c>
       <c r="B191" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="1">
-        <v>43994</v>
+        <v>43993</v>
       </c>
       <c r="B192" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="1">
-        <v>43995</v>
+        <v>43994</v>
       </c>
       <c r="B193" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="1">
-        <v>43996</v>
+        <v>43995</v>
       </c>
       <c r="B194" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="1">
-        <v>43997</v>
+        <v>43996</v>
       </c>
       <c r="B195" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="1">
-        <v>43998</v>
+        <v>43997</v>
       </c>
       <c r="B196" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="1">
-        <v>43999</v>
+        <v>43998</v>
       </c>
       <c r="B197" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="1">
-        <v>44000</v>
+        <v>43999</v>
       </c>
       <c r="B198" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="1">
-        <v>44001</v>
+        <v>44000</v>
       </c>
       <c r="B199" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="1">
-        <v>44002</v>
+        <v>44001</v>
       </c>
       <c r="B200" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="1">
-        <v>44003</v>
+        <v>44002</v>
       </c>
       <c r="B201" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="1">
-        <v>44004</v>
+        <v>44003</v>
       </c>
       <c r="B202" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="1">
-        <v>44005</v>
+        <v>44004</v>
       </c>
       <c r="B203" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="1">
-        <v>44006</v>
+        <v>44005</v>
       </c>
       <c r="B204" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="1">
-        <v>44007</v>
+        <v>44006</v>
       </c>
       <c r="B205" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="1">
-        <v>44008</v>
+        <v>44007</v>
       </c>
       <c r="B206" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="1">
-        <v>44009</v>
+        <v>44008</v>
       </c>
       <c r="B207" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="1">
-        <v>44010</v>
+        <v>44009</v>
       </c>
       <c r="B208" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="1">
-        <v>44011</v>
+        <v>44010</v>
       </c>
       <c r="B209" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="1">
-        <v>44012</v>
+        <v>44011</v>
       </c>
       <c r="B210" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="1">
-        <v>44013</v>
+        <v>44012</v>
       </c>
       <c r="B211" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="1">
-        <v>44014</v>
+        <v>44013</v>
       </c>
       <c r="B212" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="1">
-        <v>44015</v>
+        <v>44014</v>
       </c>
       <c r="B213" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="1">
-        <v>44016</v>
+        <v>44015</v>
       </c>
       <c r="B214" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="1">
-        <v>44017</v>
+        <v>44016</v>
       </c>
       <c r="B215" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="1">
-        <v>44018</v>
+        <v>44017</v>
       </c>
       <c r="B216" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="1">
-        <v>44019</v>
+        <v>44018</v>
       </c>
       <c r="B217" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="1">
-        <v>44020</v>
+        <v>44019</v>
       </c>
       <c r="B218" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="1">
-        <v>44021</v>
+        <v>44020</v>
       </c>
       <c r="B219" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="1">
-        <v>44022</v>
+        <v>44021</v>
       </c>
       <c r="B220" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="1">
-        <v>44023</v>
+        <v>44022</v>
       </c>
       <c r="B221" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="1">
-        <v>44024</v>
+        <v>44023</v>
       </c>
       <c r="B222" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="1">
-        <v>44025</v>
+        <v>44024</v>
       </c>
       <c r="B223" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="1">
-        <v>44026</v>
+        <v>44025</v>
       </c>
       <c r="B224" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="1">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B225" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="1">
-        <v>44028</v>
+        <v>44027</v>
       </c>
       <c r="B226" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="1">
-        <v>44029</v>
+        <v>44028</v>
       </c>
       <c r="B227" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="1">
-        <v>44030</v>
+        <v>44029</v>
       </c>
       <c r="B228" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="1">
-        <v>44031</v>
+        <v>44030</v>
       </c>
       <c r="B229" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="1">
-        <v>44032</v>
+        <v>44031</v>
       </c>
       <c r="B230" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="1">
-        <v>44033</v>
+        <v>44032</v>
       </c>
       <c r="B231" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="1">
-        <v>44034</v>
+        <v>44033</v>
       </c>
       <c r="B232" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="1">
-        <v>44035</v>
+        <v>44034</v>
       </c>
       <c r="B233" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="1">
-        <v>44036</v>
+        <v>44035</v>
       </c>
       <c r="B234" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="1">
-        <v>44037</v>
+        <v>44036</v>
       </c>
       <c r="B235" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="1">
-        <v>44038</v>
+        <v>44037</v>
       </c>
       <c r="B236" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="1">
-        <v>44039</v>
+        <v>44038</v>
       </c>
       <c r="B237" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="1">
-        <v>44040</v>
+        <v>44039</v>
       </c>
       <c r="B238" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="1">
-        <v>44041</v>
+        <v>44040</v>
       </c>
       <c r="B239" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="1">
-        <v>44042</v>
+        <v>44041</v>
       </c>
       <c r="B240" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="1">
-        <v>44043</v>
+        <v>44042</v>
       </c>
       <c r="B241" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="1">
-        <v>44044</v>
+        <v>44043</v>
       </c>
       <c r="B242" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="1">
-        <v>44045</v>
+        <v>44044</v>
       </c>
       <c r="B243" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="1">
-        <v>44046</v>
+        <v>44045</v>
       </c>
       <c r="B244" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="1">
-        <v>44047</v>
+        <v>44046</v>
       </c>
       <c r="B245" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="1">
-        <v>44048</v>
+        <v>44047</v>
       </c>
       <c r="B246" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="1">
-        <v>44049</v>
+        <v>44048</v>
       </c>
       <c r="B247" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="1">
-        <v>44050</v>
+        <v>44049</v>
       </c>
       <c r="B248" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="1">
-        <v>44051</v>
+        <v>44050</v>
       </c>
       <c r="B249" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="1">
-        <v>44052</v>
+        <v>44051</v>
       </c>
       <c r="B250" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="1">
-        <v>44053</v>
+        <v>44052</v>
       </c>
       <c r="B251" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="1">
-        <v>44054</v>
+        <v>44053</v>
       </c>
       <c r="B252" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="1">
-        <v>44055</v>
+        <v>44054</v>
       </c>
       <c r="B253" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="1">
-        <v>44056</v>
+        <v>44055</v>
       </c>
       <c r="B254" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="1">
-        <v>44057</v>
+        <v>44056</v>
       </c>
       <c r="B255" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="1">
-        <v>44058</v>
+        <v>44057</v>
       </c>
       <c r="B256" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="1">
-        <v>44059</v>
+        <v>44058</v>
       </c>
       <c r="B257" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="1">
-        <v>44060</v>
+        <v>44059</v>
       </c>
       <c r="B258" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="1">
-        <v>44061</v>
+        <v>44060</v>
       </c>
       <c r="B259" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="1">
-        <v>44062</v>
+        <v>44061</v>
       </c>
       <c r="B260" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="1">
-        <v>44063</v>
+        <v>44062</v>
       </c>
       <c r="B261" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="1">
-        <v>44064</v>
+        <v>44063</v>
       </c>
       <c r="B262" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="1">
-        <v>44065</v>
+        <v>44064</v>
       </c>
       <c r="B263" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="1">
-        <v>44066</v>
+        <v>44065</v>
       </c>
       <c r="B264" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="1">
-        <v>44067</v>
+        <v>44066</v>
       </c>
       <c r="B265" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="1">
-        <v>44068</v>
+        <v>44067</v>
       </c>
       <c r="B266" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="1">
-        <v>44069</v>
+        <v>44068</v>
       </c>
       <c r="B267" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="1">
-        <v>44070</v>
+        <v>44069</v>
       </c>
       <c r="B268" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="1">
-        <v>44071</v>
+        <v>44070</v>
       </c>
       <c r="B269" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="1">
-        <v>44072</v>
+        <v>44071</v>
       </c>
       <c r="B270" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="1">
-        <v>44073</v>
+        <v>44072</v>
       </c>
       <c r="B271" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="1">
-        <v>44074</v>
+        <v>44073</v>
       </c>
       <c r="B272" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="1">
-        <v>44075</v>
+        <v>44074</v>
       </c>
       <c r="B273" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="1">
-        <v>44076</v>
+        <v>44075</v>
       </c>
       <c r="B274" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="1">
-        <v>44077</v>
+        <v>44076</v>
       </c>
       <c r="B275" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="1">
-        <v>44078</v>
+        <v>44077</v>
       </c>
       <c r="B276" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="1">
-        <v>44079</v>
+        <v>44078</v>
       </c>
       <c r="B277" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="1">
-        <v>44080</v>
+        <v>44079</v>
       </c>
       <c r="B278" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="1">
-        <v>44081</v>
+        <v>44080</v>
       </c>
       <c r="B279" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="1">
-        <v>44082</v>
+        <v>44081</v>
       </c>
       <c r="B280" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="1">
-        <v>44083</v>
+        <v>44082</v>
       </c>
       <c r="B281" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="1">
-        <v>44084</v>
+        <v>44083</v>
       </c>
       <c r="B282" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="1">
-        <v>44085</v>
+        <v>44084</v>
       </c>
       <c r="B283" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="1">
-        <v>44086</v>
+        <v>44085</v>
       </c>
       <c r="B284" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="1">
-        <v>44087</v>
+        <v>44086</v>
       </c>
       <c r="B285" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="1">
-        <v>44088</v>
+        <v>44087</v>
       </c>
       <c r="B286" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="1">
-        <v>44089</v>
+        <v>44088</v>
       </c>
       <c r="B287" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="1">
-        <v>44090</v>
+        <v>44089</v>
       </c>
       <c r="B288" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="1">
-        <v>44091</v>
+        <v>44090</v>
       </c>
       <c r="B289" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="1">
-        <v>44092</v>
+        <v>44091</v>
       </c>
       <c r="B290" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="1">
-        <v>44093</v>
+        <v>44092</v>
       </c>
       <c r="B291" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="1">
-        <v>44094</v>
+        <v>44093</v>
       </c>
       <c r="B292" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="1">
-        <v>44095</v>
+        <v>44094</v>
       </c>
       <c r="B293" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="1">
-        <v>44096</v>
+        <v>44095</v>
       </c>
       <c r="B294" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="1">
-        <v>44097</v>
+        <v>44096</v>
       </c>
       <c r="B295" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="1">
-        <v>44098</v>
+        <v>44097</v>
       </c>
       <c r="B296" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="1">
-        <v>44099</v>
+        <v>44098</v>
       </c>
       <c r="B297" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="1">
-        <v>44100</v>
+        <v>44099</v>
       </c>
       <c r="B298" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="1">
-        <v>44101</v>
+        <v>44100</v>
       </c>
       <c r="B299" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="1">
-        <v>44102</v>
+        <v>44101</v>
       </c>
       <c r="B300" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="1">
-        <v>44103</v>
+        <v>44102</v>
       </c>
       <c r="B301" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="1">
-        <v>44104</v>
+        <v>44103</v>
       </c>
       <c r="B302" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="1">
-        <v>44105</v>
+        <v>44104</v>
       </c>
       <c r="B303" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="1">
-        <v>44106</v>
+        <v>44105</v>
       </c>
       <c r="B304" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="1">
-        <v>44107</v>
+        <v>44106</v>
       </c>
       <c r="B305" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="1">
-        <v>44108</v>
+        <v>44107</v>
       </c>
       <c r="B306" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="1">
-        <v>44109</v>
+        <v>44108</v>
       </c>
       <c r="B307" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="1">
-        <v>44110</v>
+        <v>44109</v>
       </c>
       <c r="B308" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="1">
-        <v>44111</v>
+        <v>44110</v>
       </c>
       <c r="B309" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="1">
-        <v>44112</v>
+        <v>44111</v>
       </c>
       <c r="B310" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="1">
-        <v>44113</v>
+        <v>44112</v>
       </c>
       <c r="B311" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="1">
-        <v>44114</v>
+        <v>44113</v>
       </c>
       <c r="B312" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="1">
-        <v>44115</v>
+        <v>44114</v>
       </c>
       <c r="B313" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="1">
-        <v>44116</v>
+        <v>44115</v>
       </c>
       <c r="B314" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="1">
-        <v>44117</v>
+        <v>44116</v>
       </c>
       <c r="B315" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="1">
-        <v>44118</v>
+        <v>44117</v>
       </c>
       <c r="B316" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="1">
-        <v>44119</v>
+        <v>44118</v>
       </c>
       <c r="B317" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="1">
-        <v>44120</v>
+        <v>44119</v>
       </c>
       <c r="B318" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="1">
-        <v>44121</v>
+        <v>44120</v>
       </c>
       <c r="B319" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="1">
-        <v>44122</v>
+        <v>44121</v>
       </c>
       <c r="B320" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="1">
-        <v>44123</v>
+        <v>44122</v>
       </c>
       <c r="B321" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="1">
-        <v>44124</v>
+        <v>44123</v>
       </c>
       <c r="B322" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="1">
-        <v>44125</v>
+        <v>44124</v>
       </c>
       <c r="B323" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="1">
-        <v>44126</v>
+        <v>44125</v>
       </c>
       <c r="B324" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="1">
-        <v>44127</v>
+        <v>44126</v>
       </c>
       <c r="B325" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="1">
-        <v>44128</v>
+        <v>44127</v>
       </c>
       <c r="B326" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="1">
-        <v>44129</v>
+        <v>44128</v>
       </c>
       <c r="B327" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="1">
-        <v>44130</v>
+        <v>44129</v>
       </c>
       <c r="B328" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="1">
-        <v>44131</v>
+        <v>44130</v>
       </c>
       <c r="B329" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="1">
-        <v>44132</v>
+        <v>44131</v>
       </c>
       <c r="B330" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="1">
-        <v>44133</v>
+        <v>44132</v>
       </c>
       <c r="B331" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="1">
-        <v>44134</v>
+        <v>44133</v>
       </c>
       <c r="B332" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="1">
-        <v>44135</v>
+        <v>44134</v>
       </c>
       <c r="B333" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="1">
-        <v>44136</v>
+        <v>44135</v>
       </c>
       <c r="B334" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="1">
-        <v>44137</v>
+        <v>44136</v>
       </c>
       <c r="B335" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="1">
-        <v>44138</v>
+        <v>44137</v>
       </c>
       <c r="B336" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="1">
-        <v>44139</v>
+        <v>44138</v>
       </c>
       <c r="B337" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="1">
-        <v>44140</v>
+        <v>44139</v>
       </c>
       <c r="B338" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="1">
-        <v>44141</v>
+        <v>44140</v>
       </c>
       <c r="B339" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="1">
-        <v>44142</v>
+        <v>44141</v>
       </c>
       <c r="B340" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="1">
-        <v>44143</v>
+        <v>44142</v>
       </c>
       <c r="B341" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="1">
-        <v>44144</v>
+        <v>44143</v>
       </c>
       <c r="B342" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="1">
-        <v>44145</v>
+        <v>44144</v>
       </c>
       <c r="B343" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="1">
-        <v>44146</v>
+        <v>44145</v>
       </c>
       <c r="B344" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="1">
-        <v>44147</v>
+        <v>44146</v>
       </c>
       <c r="B345" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="1">
-        <v>44148</v>
+        <v>44147</v>
       </c>
       <c r="B346" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="1">
-        <v>44149</v>
+        <v>44148</v>
       </c>
       <c r="B347" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="1">
-        <v>44150</v>
+        <v>44149</v>
       </c>
       <c r="B348" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="1">
-        <v>44151</v>
+        <v>44150</v>
       </c>
       <c r="B349" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="1">
-        <v>44152</v>
+        <v>44151</v>
       </c>
       <c r="B350" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="1">
-        <v>44153</v>
+        <v>44152</v>
       </c>
       <c r="B351" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="1">
-        <v>44154</v>
+        <v>44153</v>
       </c>
       <c r="B352" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="1">
-        <v>44155</v>
+        <v>44154</v>
       </c>
       <c r="B353" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="1">
-        <v>44156</v>
+        <v>44155</v>
       </c>
       <c r="B354" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="1">
-        <v>44157</v>
+        <v>44156</v>
       </c>
       <c r="B355" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="1">
-        <v>44158</v>
+        <v>44157</v>
       </c>
       <c r="B356" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="1">
-        <v>44159</v>
+        <v>44158</v>
       </c>
       <c r="B357" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="1">
-        <v>44160</v>
+        <v>44159</v>
       </c>
       <c r="B358" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="1">
-        <v>44161</v>
+        <v>44160</v>
       </c>
       <c r="B359" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="1">
-        <v>44162</v>
+        <v>44161</v>
       </c>
       <c r="B360" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="1">
-        <v>44163</v>
+        <v>44162</v>
       </c>
       <c r="B361" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="1">
-        <v>44164</v>
+        <v>44163</v>
       </c>
       <c r="B362" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="1">
-        <v>44165</v>
+        <v>44164</v>
       </c>
       <c r="B363" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="1">
-        <v>44166</v>
+        <v>44165</v>
       </c>
       <c r="B364" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="1">
-        <v>44167</v>
+        <v>44166</v>
       </c>
       <c r="B365" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="1">
-        <v>44168</v>
+        <v>44167</v>
       </c>
       <c r="B366" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="1">
-        <v>44169</v>
+        <v>44168</v>
       </c>
       <c r="B367" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="1">
-        <v>44170</v>
+        <v>44169</v>
       </c>
       <c r="B368" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="1">
-        <v>44171</v>
+        <v>44170</v>
       </c>
       <c r="B369" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="1">
-        <v>44172</v>
+        <v>44171</v>
       </c>
       <c r="B370" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="1">
-        <v>44173</v>
+        <v>44172</v>
       </c>
       <c r="B371" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="1">
-        <v>44174</v>
+        <v>44173</v>
       </c>
       <c r="B372" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="1">
-        <v>44175</v>
+        <v>44174</v>
       </c>
       <c r="B373" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="1">
-        <v>44176</v>
+        <v>44175</v>
       </c>
       <c r="B374" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="1">
-        <v>44177</v>
+        <v>44176</v>
       </c>
       <c r="B375" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="1">
-        <v>44178</v>
+        <v>44177</v>
       </c>
       <c r="B376" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="1">
-        <v>44179</v>
+        <v>44178</v>
       </c>
       <c r="B377" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="1">
-        <v>44180</v>
+        <v>44179</v>
       </c>
       <c r="B378" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="1">
-        <v>44181</v>
+        <v>44180</v>
       </c>
       <c r="B379" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="1">
-        <v>44182</v>
+        <v>44181</v>
       </c>
       <c r="B380" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="1">
-        <v>44183</v>
+        <v>44182</v>
       </c>
       <c r="B381" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="1">
-        <v>44184</v>
+        <v>44183</v>
       </c>
       <c r="B382" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="1">
-        <v>44185</v>
+        <v>44184</v>
       </c>
       <c r="B383" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="1">
-        <v>44186</v>
+        <v>44185</v>
       </c>
       <c r="B384" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="1">
-        <v>44187</v>
+        <v>44186</v>
       </c>
       <c r="B385" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="1">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="B386" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="1">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="B387" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="1">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="B388" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="1">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="B389" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="1">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="B390" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="1">
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="B391" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="1">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="B392" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="1">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B393" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="1">
+        <v>44195</v>
+      </c>
+      <c r="B394" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2">
+      <c r="A395" s="1">
         <v>44196</v>
       </c>
-      <c r="B394" t="s">
+      <c r="B395" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6251,7 +6277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F131"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
       <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>

--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="По задачам" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="362">
   <si>
     <t>Дата начала</t>
   </si>
@@ -1226,6 +1226,15 @@
   </si>
   <si>
     <t>I can code</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zSg5CAjuRMY</t>
+  </si>
+  <si>
+    <t>Анимации. Event Loop</t>
+  </si>
+  <si>
+    <t>Анимации. Event Loop, посмотрел</t>
   </si>
 </sst>
 </file>
@@ -1614,10 +1623,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:D72"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="C73" sqref="C73"/>
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2458,6 +2467,17 @@
       </c>
       <c r="C72" t="s">
         <v>358</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B73" s="1">
+        <v>43954</v>
+      </c>
+      <c r="C73" t="s">
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -2474,10 +2494,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D395"/>
+  <dimension ref="A1:D400"/>
   <sheetViews>
-    <sheetView topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="C152" sqref="C152"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="C158" sqref="C158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4274,1948 +4294,2005 @@
       <c r="B152" t="s">
         <v>15</v>
       </c>
+      <c r="C152" t="s">
+        <v>358</v>
+      </c>
+      <c r="D152" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="153" spans="1:4">
-      <c r="A153" s="1">
-        <v>43954</v>
-      </c>
-      <c r="B153" t="s">
-        <v>9</v>
+      <c r="A153" s="1"/>
+      <c r="C153" t="s">
+        <v>327</v>
+      </c>
+      <c r="D153" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="154" spans="1:4">
-      <c r="A154" s="1">
-        <v>43955</v>
-      </c>
-      <c r="B154" t="s">
-        <v>10</v>
+      <c r="A154" s="1"/>
+      <c r="C154" t="s">
+        <v>329</v>
+      </c>
+      <c r="D154" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="155" spans="1:4">
-      <c r="A155" s="1">
-        <v>43956</v>
-      </c>
-      <c r="B155" t="s">
-        <v>11</v>
+      <c r="A155" s="1"/>
+      <c r="C155" t="s">
+        <v>359</v>
+      </c>
+      <c r="D155" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="1">
-        <v>43957</v>
+        <v>43954</v>
       </c>
       <c r="B156" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="C156" t="s">
+        <v>359</v>
+      </c>
+      <c r="D156" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" s="1">
-        <v>43958</v>
-      </c>
-      <c r="B157" t="s">
-        <v>13</v>
+      <c r="A157" s="1"/>
+      <c r="C157" t="s">
+        <v>358</v>
+      </c>
+      <c r="D157" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="158" spans="1:4">
-      <c r="A158" s="1">
-        <v>43959</v>
-      </c>
-      <c r="B158" t="s">
-        <v>14</v>
+      <c r="A158" s="1"/>
+      <c r="C158" t="s">
+        <v>327</v>
+      </c>
+      <c r="D158" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="1">
-        <v>43960</v>
+        <v>43955</v>
       </c>
       <c r="B159" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="1">
-        <v>43961</v>
+        <v>43956</v>
       </c>
       <c r="B160" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="161" spans="1:2">
       <c r="A161" s="1">
-        <v>43962</v>
+        <v>43957</v>
       </c>
       <c r="B161" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="162" spans="1:2">
       <c r="A162" s="1">
-        <v>43963</v>
+        <v>43958</v>
       </c>
       <c r="B162" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="1">
-        <v>43964</v>
+        <v>43959</v>
       </c>
       <c r="B163" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="1">
-        <v>43965</v>
+        <v>43960</v>
       </c>
       <c r="B164" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="165" spans="1:2">
       <c r="A165" s="1">
-        <v>43966</v>
+        <v>43961</v>
       </c>
       <c r="B165" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="1">
-        <v>43967</v>
+        <v>43962</v>
       </c>
       <c r="B166" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="1">
-        <v>43968</v>
+        <v>43963</v>
       </c>
       <c r="B167" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="168" spans="1:2">
       <c r="A168" s="1">
-        <v>43969</v>
+        <v>43964</v>
       </c>
       <c r="B168" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="1">
-        <v>43970</v>
+        <v>43965</v>
       </c>
       <c r="B169" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="1">
-        <v>43971</v>
+        <v>43966</v>
       </c>
       <c r="B170" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="1">
-        <v>43972</v>
+        <v>43967</v>
       </c>
       <c r="B171" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="172" spans="1:2">
       <c r="A172" s="1">
-        <v>43973</v>
+        <v>43968</v>
       </c>
       <c r="B172" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="173" spans="1:2">
       <c r="A173" s="1">
-        <v>43974</v>
+        <v>43969</v>
       </c>
       <c r="B173" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="1">
-        <v>43975</v>
+        <v>43970</v>
       </c>
       <c r="B174" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="175" spans="1:2">
       <c r="A175" s="1">
-        <v>43976</v>
+        <v>43971</v>
       </c>
       <c r="B175" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="1">
-        <v>43977</v>
+        <v>43972</v>
       </c>
       <c r="B176" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="1">
-        <v>43978</v>
+        <v>43973</v>
       </c>
       <c r="B177" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="1">
-        <v>43979</v>
+        <v>43974</v>
       </c>
       <c r="B178" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="1">
-        <v>43980</v>
+        <v>43975</v>
       </c>
       <c r="B179" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="1">
-        <v>43981</v>
+        <v>43976</v>
       </c>
       <c r="B180" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="1">
-        <v>43982</v>
+        <v>43977</v>
       </c>
       <c r="B181" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="1">
-        <v>43983</v>
+        <v>43978</v>
       </c>
       <c r="B182" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="1">
-        <v>43984</v>
+        <v>43979</v>
       </c>
       <c r="B183" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="1">
-        <v>43985</v>
+        <v>43980</v>
       </c>
       <c r="B184" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="1">
-        <v>43986</v>
+        <v>43981</v>
       </c>
       <c r="B185" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="1">
-        <v>43987</v>
+        <v>43982</v>
       </c>
       <c r="B186" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="1">
-        <v>43988</v>
+        <v>43983</v>
       </c>
       <c r="B187" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="1">
-        <v>43989</v>
+        <v>43984</v>
       </c>
       <c r="B188" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="1">
-        <v>43990</v>
+        <v>43985</v>
       </c>
       <c r="B189" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="1">
-        <v>43991</v>
+        <v>43986</v>
       </c>
       <c r="B190" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="1">
-        <v>43992</v>
+        <v>43987</v>
       </c>
       <c r="B191" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="1">
-        <v>43993</v>
+        <v>43988</v>
       </c>
       <c r="B192" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="1">
-        <v>43994</v>
+        <v>43989</v>
       </c>
       <c r="B193" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="1">
-        <v>43995</v>
+        <v>43990</v>
       </c>
       <c r="B194" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="1">
-        <v>43996</v>
+        <v>43991</v>
       </c>
       <c r="B195" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="1">
-        <v>43997</v>
+        <v>43992</v>
       </c>
       <c r="B196" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="1">
-        <v>43998</v>
+        <v>43993</v>
       </c>
       <c r="B197" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="1">
-        <v>43999</v>
+        <v>43994</v>
       </c>
       <c r="B198" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="1">
-        <v>44000</v>
+        <v>43995</v>
       </c>
       <c r="B199" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="1">
-        <v>44001</v>
+        <v>43996</v>
       </c>
       <c r="B200" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="1">
-        <v>44002</v>
+        <v>43997</v>
       </c>
       <c r="B201" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="1">
-        <v>44003</v>
+        <v>43998</v>
       </c>
       <c r="B202" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="1">
-        <v>44004</v>
+        <v>43999</v>
       </c>
       <c r="B203" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="1">
-        <v>44005</v>
+        <v>44000</v>
       </c>
       <c r="B204" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="1">
-        <v>44006</v>
+        <v>44001</v>
       </c>
       <c r="B205" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="1">
-        <v>44007</v>
+        <v>44002</v>
       </c>
       <c r="B206" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="1">
-        <v>44008</v>
+        <v>44003</v>
       </c>
       <c r="B207" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="1">
-        <v>44009</v>
+        <v>44004</v>
       </c>
       <c r="B208" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="1">
-        <v>44010</v>
+        <v>44005</v>
       </c>
       <c r="B209" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="1">
-        <v>44011</v>
+        <v>44006</v>
       </c>
       <c r="B210" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="1">
-        <v>44012</v>
+        <v>44007</v>
       </c>
       <c r="B211" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="1">
-        <v>44013</v>
+        <v>44008</v>
       </c>
       <c r="B212" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="1">
-        <v>44014</v>
+        <v>44009</v>
       </c>
       <c r="B213" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="1">
-        <v>44015</v>
+        <v>44010</v>
       </c>
       <c r="B214" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="1">
-        <v>44016</v>
+        <v>44011</v>
       </c>
       <c r="B215" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="1">
-        <v>44017</v>
+        <v>44012</v>
       </c>
       <c r="B216" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="1">
-        <v>44018</v>
+        <v>44013</v>
       </c>
       <c r="B217" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="1">
-        <v>44019</v>
+        <v>44014</v>
       </c>
       <c r="B218" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="1">
-        <v>44020</v>
+        <v>44015</v>
       </c>
       <c r="B219" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="1">
-        <v>44021</v>
+        <v>44016</v>
       </c>
       <c r="B220" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="1">
-        <v>44022</v>
+        <v>44017</v>
       </c>
       <c r="B221" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="1">
-        <v>44023</v>
+        <v>44018</v>
       </c>
       <c r="B222" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="1">
-        <v>44024</v>
+        <v>44019</v>
       </c>
       <c r="B223" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="1">
-        <v>44025</v>
+        <v>44020</v>
       </c>
       <c r="B224" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="1">
-        <v>44026</v>
+        <v>44021</v>
       </c>
       <c r="B225" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="1">
-        <v>44027</v>
+        <v>44022</v>
       </c>
       <c r="B226" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="1">
-        <v>44028</v>
+        <v>44023</v>
       </c>
       <c r="B227" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="1">
-        <v>44029</v>
+        <v>44024</v>
       </c>
       <c r="B228" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="1">
-        <v>44030</v>
+        <v>44025</v>
       </c>
       <c r="B229" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="1">
-        <v>44031</v>
+        <v>44026</v>
       </c>
       <c r="B230" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="1">
-        <v>44032</v>
+        <v>44027</v>
       </c>
       <c r="B231" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="1">
-        <v>44033</v>
+        <v>44028</v>
       </c>
       <c r="B232" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="1">
-        <v>44034</v>
+        <v>44029</v>
       </c>
       <c r="B233" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="1">
-        <v>44035</v>
+        <v>44030</v>
       </c>
       <c r="B234" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="1">
-        <v>44036</v>
+        <v>44031</v>
       </c>
       <c r="B235" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="1">
-        <v>44037</v>
+        <v>44032</v>
       </c>
       <c r="B236" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="1">
-        <v>44038</v>
+        <v>44033</v>
       </c>
       <c r="B237" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="1">
-        <v>44039</v>
+        <v>44034</v>
       </c>
       <c r="B238" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="1">
-        <v>44040</v>
+        <v>44035</v>
       </c>
       <c r="B239" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="1">
-        <v>44041</v>
+        <v>44036</v>
       </c>
       <c r="B240" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="1">
-        <v>44042</v>
+        <v>44037</v>
       </c>
       <c r="B241" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="1">
-        <v>44043</v>
+        <v>44038</v>
       </c>
       <c r="B242" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="1">
-        <v>44044</v>
+        <v>44039</v>
       </c>
       <c r="B243" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="1">
-        <v>44045</v>
+        <v>44040</v>
       </c>
       <c r="B244" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="1">
-        <v>44046</v>
+        <v>44041</v>
       </c>
       <c r="B245" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="1">
-        <v>44047</v>
+        <v>44042</v>
       </c>
       <c r="B246" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="1">
-        <v>44048</v>
+        <v>44043</v>
       </c>
       <c r="B247" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="1">
-        <v>44049</v>
+        <v>44044</v>
       </c>
       <c r="B248" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="1">
-        <v>44050</v>
+        <v>44045</v>
       </c>
       <c r="B249" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="1">
-        <v>44051</v>
+        <v>44046</v>
       </c>
       <c r="B250" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="1">
-        <v>44052</v>
+        <v>44047</v>
       </c>
       <c r="B251" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="1">
-        <v>44053</v>
+        <v>44048</v>
       </c>
       <c r="B252" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="1">
-        <v>44054</v>
+        <v>44049</v>
       </c>
       <c r="B253" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="1">
-        <v>44055</v>
+        <v>44050</v>
       </c>
       <c r="B254" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="1">
-        <v>44056</v>
+        <v>44051</v>
       </c>
       <c r="B255" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="1">
-        <v>44057</v>
+        <v>44052</v>
       </c>
       <c r="B256" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="1">
-        <v>44058</v>
+        <v>44053</v>
       </c>
       <c r="B257" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="1">
-        <v>44059</v>
+        <v>44054</v>
       </c>
       <c r="B258" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="1">
-        <v>44060</v>
+        <v>44055</v>
       </c>
       <c r="B259" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="1">
-        <v>44061</v>
+        <v>44056</v>
       </c>
       <c r="B260" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="1">
-        <v>44062</v>
+        <v>44057</v>
       </c>
       <c r="B261" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="1">
-        <v>44063</v>
+        <v>44058</v>
       </c>
       <c r="B262" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="1">
-        <v>44064</v>
+        <v>44059</v>
       </c>
       <c r="B263" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="1">
-        <v>44065</v>
+        <v>44060</v>
       </c>
       <c r="B264" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="1">
-        <v>44066</v>
+        <v>44061</v>
       </c>
       <c r="B265" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="1">
-        <v>44067</v>
+        <v>44062</v>
       </c>
       <c r="B266" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="1">
-        <v>44068</v>
+        <v>44063</v>
       </c>
       <c r="B267" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="1">
-        <v>44069</v>
+        <v>44064</v>
       </c>
       <c r="B268" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="1">
-        <v>44070</v>
+        <v>44065</v>
       </c>
       <c r="B269" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="1">
-        <v>44071</v>
+        <v>44066</v>
       </c>
       <c r="B270" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="1">
-        <v>44072</v>
+        <v>44067</v>
       </c>
       <c r="B271" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="1">
-        <v>44073</v>
+        <v>44068</v>
       </c>
       <c r="B272" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="1">
-        <v>44074</v>
+        <v>44069</v>
       </c>
       <c r="B273" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="1">
-        <v>44075</v>
+        <v>44070</v>
       </c>
       <c r="B274" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="1">
-        <v>44076</v>
+        <v>44071</v>
       </c>
       <c r="B275" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="1">
-        <v>44077</v>
+        <v>44072</v>
       </c>
       <c r="B276" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="1">
-        <v>44078</v>
+        <v>44073</v>
       </c>
       <c r="B277" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="1">
-        <v>44079</v>
+        <v>44074</v>
       </c>
       <c r="B278" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="1">
-        <v>44080</v>
+        <v>44075</v>
       </c>
       <c r="B279" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="1">
-        <v>44081</v>
+        <v>44076</v>
       </c>
       <c r="B280" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="1">
-        <v>44082</v>
+        <v>44077</v>
       </c>
       <c r="B281" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="1">
-        <v>44083</v>
+        <v>44078</v>
       </c>
       <c r="B282" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="1">
-        <v>44084</v>
+        <v>44079</v>
       </c>
       <c r="B283" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="1">
-        <v>44085</v>
+        <v>44080</v>
       </c>
       <c r="B284" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="1">
-        <v>44086</v>
+        <v>44081</v>
       </c>
       <c r="B285" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="1">
-        <v>44087</v>
+        <v>44082</v>
       </c>
       <c r="B286" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="1">
-        <v>44088</v>
+        <v>44083</v>
       </c>
       <c r="B287" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="1">
-        <v>44089</v>
+        <v>44084</v>
       </c>
       <c r="B288" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="1">
-        <v>44090</v>
+        <v>44085</v>
       </c>
       <c r="B289" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="1">
-        <v>44091</v>
+        <v>44086</v>
       </c>
       <c r="B290" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="1">
-        <v>44092</v>
+        <v>44087</v>
       </c>
       <c r="B291" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="1">
-        <v>44093</v>
+        <v>44088</v>
       </c>
       <c r="B292" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="1">
-        <v>44094</v>
+        <v>44089</v>
       </c>
       <c r="B293" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="1">
-        <v>44095</v>
+        <v>44090</v>
       </c>
       <c r="B294" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="1">
-        <v>44096</v>
+        <v>44091</v>
       </c>
       <c r="B295" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="1">
-        <v>44097</v>
+        <v>44092</v>
       </c>
       <c r="B296" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="1">
-        <v>44098</v>
+        <v>44093</v>
       </c>
       <c r="B297" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="1">
-        <v>44099</v>
+        <v>44094</v>
       </c>
       <c r="B298" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="1">
-        <v>44100</v>
+        <v>44095</v>
       </c>
       <c r="B299" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="1">
-        <v>44101</v>
+        <v>44096</v>
       </c>
       <c r="B300" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="1">
-        <v>44102</v>
+        <v>44097</v>
       </c>
       <c r="B301" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="1">
-        <v>44103</v>
+        <v>44098</v>
       </c>
       <c r="B302" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="1">
-        <v>44104</v>
+        <v>44099</v>
       </c>
       <c r="B303" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="1">
-        <v>44105</v>
+        <v>44100</v>
       </c>
       <c r="B304" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="1">
-        <v>44106</v>
+        <v>44101</v>
       </c>
       <c r="B305" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="1">
-        <v>44107</v>
+        <v>44102</v>
       </c>
       <c r="B306" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="1">
-        <v>44108</v>
+        <v>44103</v>
       </c>
       <c r="B307" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="1">
-        <v>44109</v>
+        <v>44104</v>
       </c>
       <c r="B308" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="1">
-        <v>44110</v>
+        <v>44105</v>
       </c>
       <c r="B309" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="1">
-        <v>44111</v>
+        <v>44106</v>
       </c>
       <c r="B310" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="1">
-        <v>44112</v>
+        <v>44107</v>
       </c>
       <c r="B311" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="1">
-        <v>44113</v>
+        <v>44108</v>
       </c>
       <c r="B312" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="1">
-        <v>44114</v>
+        <v>44109</v>
       </c>
       <c r="B313" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="1">
-        <v>44115</v>
+        <v>44110</v>
       </c>
       <c r="B314" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="1">
-        <v>44116</v>
+        <v>44111</v>
       </c>
       <c r="B315" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="1">
-        <v>44117</v>
+        <v>44112</v>
       </c>
       <c r="B316" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="1">
-        <v>44118</v>
+        <v>44113</v>
       </c>
       <c r="B317" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="1">
-        <v>44119</v>
+        <v>44114</v>
       </c>
       <c r="B318" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="1">
-        <v>44120</v>
+        <v>44115</v>
       </c>
       <c r="B319" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="1">
-        <v>44121</v>
+        <v>44116</v>
       </c>
       <c r="B320" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="1">
-        <v>44122</v>
+        <v>44117</v>
       </c>
       <c r="B321" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="1">
-        <v>44123</v>
+        <v>44118</v>
       </c>
       <c r="B322" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="1">
-        <v>44124</v>
+        <v>44119</v>
       </c>
       <c r="B323" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="1">
-        <v>44125</v>
+        <v>44120</v>
       </c>
       <c r="B324" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="1">
-        <v>44126</v>
+        <v>44121</v>
       </c>
       <c r="B325" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="1">
-        <v>44127</v>
+        <v>44122</v>
       </c>
       <c r="B326" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="1">
-        <v>44128</v>
+        <v>44123</v>
       </c>
       <c r="B327" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="1">
-        <v>44129</v>
+        <v>44124</v>
       </c>
       <c r="B328" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="1">
-        <v>44130</v>
+        <v>44125</v>
       </c>
       <c r="B329" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="1">
-        <v>44131</v>
+        <v>44126</v>
       </c>
       <c r="B330" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="1">
-        <v>44132</v>
+        <v>44127</v>
       </c>
       <c r="B331" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="1">
-        <v>44133</v>
+        <v>44128</v>
       </c>
       <c r="B332" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="1">
-        <v>44134</v>
+        <v>44129</v>
       </c>
       <c r="B333" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="1">
-        <v>44135</v>
+        <v>44130</v>
       </c>
       <c r="B334" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="1">
-        <v>44136</v>
+        <v>44131</v>
       </c>
       <c r="B335" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="1">
-        <v>44137</v>
+        <v>44132</v>
       </c>
       <c r="B336" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="1">
-        <v>44138</v>
+        <v>44133</v>
       </c>
       <c r="B337" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="1">
-        <v>44139</v>
+        <v>44134</v>
       </c>
       <c r="B338" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="1">
-        <v>44140</v>
+        <v>44135</v>
       </c>
       <c r="B339" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="1">
-        <v>44141</v>
+        <v>44136</v>
       </c>
       <c r="B340" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="1">
-        <v>44142</v>
+        <v>44137</v>
       </c>
       <c r="B341" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="1">
-        <v>44143</v>
+        <v>44138</v>
       </c>
       <c r="B342" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="1">
-        <v>44144</v>
+        <v>44139</v>
       </c>
       <c r="B343" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="1">
-        <v>44145</v>
+        <v>44140</v>
       </c>
       <c r="B344" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="1">
-        <v>44146</v>
+        <v>44141</v>
       </c>
       <c r="B345" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="1">
-        <v>44147</v>
+        <v>44142</v>
       </c>
       <c r="B346" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="1">
-        <v>44148</v>
+        <v>44143</v>
       </c>
       <c r="B347" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="1">
-        <v>44149</v>
+        <v>44144</v>
       </c>
       <c r="B348" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="1">
-        <v>44150</v>
+        <v>44145</v>
       </c>
       <c r="B349" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="1">
-        <v>44151</v>
+        <v>44146</v>
       </c>
       <c r="B350" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="1">
-        <v>44152</v>
+        <v>44147</v>
       </c>
       <c r="B351" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="1">
-        <v>44153</v>
+        <v>44148</v>
       </c>
       <c r="B352" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="1">
-        <v>44154</v>
+        <v>44149</v>
       </c>
       <c r="B353" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="1">
-        <v>44155</v>
+        <v>44150</v>
       </c>
       <c r="B354" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="1">
-        <v>44156</v>
+        <v>44151</v>
       </c>
       <c r="B355" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="1">
-        <v>44157</v>
+        <v>44152</v>
       </c>
       <c r="B356" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="1">
-        <v>44158</v>
+        <v>44153</v>
       </c>
       <c r="B357" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="1">
-        <v>44159</v>
+        <v>44154</v>
       </c>
       <c r="B358" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="1">
-        <v>44160</v>
+        <v>44155</v>
       </c>
       <c r="B359" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="1">
-        <v>44161</v>
+        <v>44156</v>
       </c>
       <c r="B360" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="1">
-        <v>44162</v>
+        <v>44157</v>
       </c>
       <c r="B361" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="1">
-        <v>44163</v>
+        <v>44158</v>
       </c>
       <c r="B362" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="1">
-        <v>44164</v>
+        <v>44159</v>
       </c>
       <c r="B363" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="1">
-        <v>44165</v>
+        <v>44160</v>
       </c>
       <c r="B364" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="1">
-        <v>44166</v>
+        <v>44161</v>
       </c>
       <c r="B365" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="1">
-        <v>44167</v>
+        <v>44162</v>
       </c>
       <c r="B366" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="1">
-        <v>44168</v>
+        <v>44163</v>
       </c>
       <c r="B367" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="1">
-        <v>44169</v>
+        <v>44164</v>
       </c>
       <c r="B368" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="1">
-        <v>44170</v>
+        <v>44165</v>
       </c>
       <c r="B369" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="1">
-        <v>44171</v>
+        <v>44166</v>
       </c>
       <c r="B370" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="1">
-        <v>44172</v>
+        <v>44167</v>
       </c>
       <c r="B371" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="1">
-        <v>44173</v>
+        <v>44168</v>
       </c>
       <c r="B372" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="1">
-        <v>44174</v>
+        <v>44169</v>
       </c>
       <c r="B373" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="1">
-        <v>44175</v>
+        <v>44170</v>
       </c>
       <c r="B374" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="1">
-        <v>44176</v>
+        <v>44171</v>
       </c>
       <c r="B375" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="1">
-        <v>44177</v>
+        <v>44172</v>
       </c>
       <c r="B376" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="1">
-        <v>44178</v>
+        <v>44173</v>
       </c>
       <c r="B377" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="1">
-        <v>44179</v>
+        <v>44174</v>
       </c>
       <c r="B378" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="1">
-        <v>44180</v>
+        <v>44175</v>
       </c>
       <c r="B379" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="1">
-        <v>44181</v>
+        <v>44176</v>
       </c>
       <c r="B380" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="1">
-        <v>44182</v>
+        <v>44177</v>
       </c>
       <c r="B381" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="1">
-        <v>44183</v>
+        <v>44178</v>
       </c>
       <c r="B382" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="1">
-        <v>44184</v>
+        <v>44179</v>
       </c>
       <c r="B383" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="1">
-        <v>44185</v>
+        <v>44180</v>
       </c>
       <c r="B384" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="1">
-        <v>44186</v>
+        <v>44181</v>
       </c>
       <c r="B385" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="1">
-        <v>44187</v>
+        <v>44182</v>
       </c>
       <c r="B386" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="1">
-        <v>44188</v>
+        <v>44183</v>
       </c>
       <c r="B387" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="1">
-        <v>44189</v>
+        <v>44184</v>
       </c>
       <c r="B388" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="1">
-        <v>44190</v>
+        <v>44185</v>
       </c>
       <c r="B389" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="1">
-        <v>44191</v>
+        <v>44186</v>
       </c>
       <c r="B390" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="1">
-        <v>44192</v>
+        <v>44187</v>
       </c>
       <c r="B391" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="1">
-        <v>44193</v>
+        <v>44188</v>
       </c>
       <c r="B392" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="1">
-        <v>44194</v>
+        <v>44189</v>
       </c>
       <c r="B393" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="1">
-        <v>44195</v>
+        <v>44190</v>
       </c>
       <c r="B394" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="1">
+        <v>44191</v>
+      </c>
+      <c r="B395" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2">
+      <c r="A396" s="1">
+        <v>44192</v>
+      </c>
+      <c r="B396" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2">
+      <c r="A397" s="1">
+        <v>44193</v>
+      </c>
+      <c r="B397" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2">
+      <c r="A398" s="1">
+        <v>44194</v>
+      </c>
+      <c r="B398" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2">
+      <c r="A399" s="1">
+        <v>44195</v>
+      </c>
+      <c r="B399" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2">
+      <c r="A400" s="1">
         <v>44196</v>
       </c>
-      <c r="B395" t="s">
+      <c r="B400" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6277,8 +6354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7013,6 +7090,20 @@
         <v>132</v>
       </c>
       <c r="D56" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>359</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="C57" t="s">
+        <v>132</v>
+      </c>
+      <c r="D57" t="s">
         <v>286</v>
       </c>
     </row>

--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="По задачам" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="364">
   <si>
     <t>Дата начала</t>
   </si>
@@ -1235,6 +1235,12 @@
   </si>
   <si>
     <t>Анимации. Event Loop, посмотрел</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_3xgx-mlr6I</t>
+  </si>
+  <si>
+    <t>Evening talk about this</t>
   </si>
 </sst>
 </file>
@@ -1623,10 +1629,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
     <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2478,6 +2484,17 @@
       </c>
       <c r="C73" t="s">
         <v>360</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B74" s="1">
+        <v>43955</v>
+      </c>
+      <c r="C74" t="s">
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -2494,10 +2511,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D400"/>
+  <dimension ref="A1:D403"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="C158" sqref="C158"/>
+    <sheetView topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="C162" sqref="C162:D163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4367,1932 +4384,1971 @@
       <c r="B159" t="s">
         <v>10</v>
       </c>
+      <c r="C159" t="s">
+        <v>327</v>
+      </c>
+      <c r="D159" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="160" spans="1:4">
-      <c r="A160" s="1">
+      <c r="A160" s="1"/>
+      <c r="C160" t="s">
+        <v>329</v>
+      </c>
+      <c r="D160" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1"/>
+      <c r="C161" t="s">
+        <v>362</v>
+      </c>
+      <c r="D161" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1">
         <v>43956</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B162" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" s="1">
+      <c r="C162" t="s">
+        <v>327</v>
+      </c>
+      <c r="D162" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="1"/>
+      <c r="C163" t="s">
+        <v>329</v>
+      </c>
+      <c r="D163" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="1">
         <v>43957</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B164" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="162" spans="1:2">
-      <c r="A162" s="1">
+    <row r="165" spans="1:4">
+      <c r="A165" s="1">
         <v>43958</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B165" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
-      <c r="A163" s="1">
+    <row r="166" spans="1:4">
+      <c r="A166" s="1">
         <v>43959</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B166" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
-      <c r="A164" s="1">
+    <row r="167" spans="1:4">
+      <c r="A167" s="1">
         <v>43960</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B167" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
-      <c r="A165" s="1">
+    <row r="168" spans="1:4">
+      <c r="A168" s="1">
         <v>43961</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B168" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
-      <c r="A166" s="1">
+    <row r="169" spans="1:4">
+      <c r="A169" s="1">
         <v>43962</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B169" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:2">
-      <c r="A167" s="1">
+    <row r="170" spans="1:4">
+      <c r="A170" s="1">
         <v>43963</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B170" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="168" spans="1:2">
-      <c r="A168" s="1">
+    <row r="171" spans="1:4">
+      <c r="A171" s="1">
         <v>43964</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B171" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="169" spans="1:2">
-      <c r="A169" s="1">
+    <row r="172" spans="1:4">
+      <c r="A172" s="1">
         <v>43965</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B172" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="1:2">
-      <c r="A170" s="1">
+    <row r="173" spans="1:4">
+      <c r="A173" s="1">
         <v>43966</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B173" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="171" spans="1:2">
-      <c r="A171" s="1">
+    <row r="174" spans="1:4">
+      <c r="A174" s="1">
         <v>43967</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B174" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:2">
-      <c r="A172" s="1">
+    <row r="175" spans="1:4">
+      <c r="A175" s="1">
         <v>43968</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B175" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:2">
-      <c r="A173" s="1">
+    <row r="176" spans="1:4">
+      <c r="A176" s="1">
         <v>43969</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B176" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2">
-      <c r="A174" s="1">
-        <v>43970</v>
-      </c>
-      <c r="B174" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2">
-      <c r="A175" s="1">
-        <v>43971</v>
-      </c>
-      <c r="B175" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2">
-      <c r="A176" s="1">
-        <v>43972</v>
-      </c>
-      <c r="B176" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="1">
-        <v>43973</v>
+        <v>43970</v>
       </c>
       <c r="B177" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="1">
-        <v>43974</v>
+        <v>43971</v>
       </c>
       <c r="B178" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="1">
-        <v>43975</v>
+        <v>43972</v>
       </c>
       <c r="B179" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="1">
-        <v>43976</v>
+        <v>43973</v>
       </c>
       <c r="B180" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="1">
-        <v>43977</v>
+        <v>43974</v>
       </c>
       <c r="B181" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="1">
-        <v>43978</v>
+        <v>43975</v>
       </c>
       <c r="B182" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="1">
-        <v>43979</v>
+        <v>43976</v>
       </c>
       <c r="B183" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="1">
-        <v>43980</v>
+        <v>43977</v>
       </c>
       <c r="B184" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="1">
-        <v>43981</v>
+        <v>43978</v>
       </c>
       <c r="B185" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="1">
-        <v>43982</v>
+        <v>43979</v>
       </c>
       <c r="B186" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="1">
-        <v>43983</v>
+        <v>43980</v>
       </c>
       <c r="B187" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="1">
-        <v>43984</v>
+        <v>43981</v>
       </c>
       <c r="B188" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="1">
-        <v>43985</v>
+        <v>43982</v>
       </c>
       <c r="B189" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="1">
-        <v>43986</v>
+        <v>43983</v>
       </c>
       <c r="B190" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="1">
-        <v>43987</v>
+        <v>43984</v>
       </c>
       <c r="B191" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="1">
-        <v>43988</v>
+        <v>43985</v>
       </c>
       <c r="B192" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="1">
-        <v>43989</v>
+        <v>43986</v>
       </c>
       <c r="B193" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="1">
-        <v>43990</v>
+        <v>43987</v>
       </c>
       <c r="B194" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="1">
-        <v>43991</v>
+        <v>43988</v>
       </c>
       <c r="B195" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="1">
-        <v>43992</v>
+        <v>43989</v>
       </c>
       <c r="B196" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="1">
-        <v>43993</v>
+        <v>43990</v>
       </c>
       <c r="B197" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="1">
-        <v>43994</v>
+        <v>43991</v>
       </c>
       <c r="B198" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="1">
-        <v>43995</v>
+        <v>43992</v>
       </c>
       <c r="B199" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="1">
-        <v>43996</v>
+        <v>43993</v>
       </c>
       <c r="B200" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="1">
-        <v>43997</v>
+        <v>43994</v>
       </c>
       <c r="B201" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="1">
-        <v>43998</v>
+        <v>43995</v>
       </c>
       <c r="B202" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="1">
-        <v>43999</v>
+        <v>43996</v>
       </c>
       <c r="B203" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="1">
-        <v>44000</v>
+        <v>43997</v>
       </c>
       <c r="B204" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="1">
-        <v>44001</v>
+        <v>43998</v>
       </c>
       <c r="B205" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="1">
-        <v>44002</v>
+        <v>43999</v>
       </c>
       <c r="B206" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="1">
-        <v>44003</v>
+        <v>44000</v>
       </c>
       <c r="B207" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="1">
-        <v>44004</v>
+        <v>44001</v>
       </c>
       <c r="B208" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="1">
-        <v>44005</v>
+        <v>44002</v>
       </c>
       <c r="B209" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="1">
-        <v>44006</v>
+        <v>44003</v>
       </c>
       <c r="B210" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="1">
-        <v>44007</v>
+        <v>44004</v>
       </c>
       <c r="B211" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="1">
-        <v>44008</v>
+        <v>44005</v>
       </c>
       <c r="B212" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="1">
-        <v>44009</v>
+        <v>44006</v>
       </c>
       <c r="B213" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="1">
-        <v>44010</v>
+        <v>44007</v>
       </c>
       <c r="B214" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="1">
-        <v>44011</v>
+        <v>44008</v>
       </c>
       <c r="B215" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="1">
-        <v>44012</v>
+        <v>44009</v>
       </c>
       <c r="B216" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="1">
-        <v>44013</v>
+        <v>44010</v>
       </c>
       <c r="B217" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="1">
-        <v>44014</v>
+        <v>44011</v>
       </c>
       <c r="B218" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="1">
-        <v>44015</v>
+        <v>44012</v>
       </c>
       <c r="B219" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="1">
-        <v>44016</v>
+        <v>44013</v>
       </c>
       <c r="B220" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="1">
-        <v>44017</v>
+        <v>44014</v>
       </c>
       <c r="B221" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="1">
-        <v>44018</v>
+        <v>44015</v>
       </c>
       <c r="B222" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="1">
-        <v>44019</v>
+        <v>44016</v>
       </c>
       <c r="B223" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="1">
-        <v>44020</v>
+        <v>44017</v>
       </c>
       <c r="B224" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="1">
-        <v>44021</v>
+        <v>44018</v>
       </c>
       <c r="B225" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="1">
-        <v>44022</v>
+        <v>44019</v>
       </c>
       <c r="B226" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="1">
-        <v>44023</v>
+        <v>44020</v>
       </c>
       <c r="B227" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="1">
-        <v>44024</v>
+        <v>44021</v>
       </c>
       <c r="B228" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="1">
-        <v>44025</v>
+        <v>44022</v>
       </c>
       <c r="B229" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="1">
-        <v>44026</v>
+        <v>44023</v>
       </c>
       <c r="B230" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="1">
-        <v>44027</v>
+        <v>44024</v>
       </c>
       <c r="B231" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="1">
-        <v>44028</v>
+        <v>44025</v>
       </c>
       <c r="B232" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="1">
-        <v>44029</v>
+        <v>44026</v>
       </c>
       <c r="B233" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="1">
-        <v>44030</v>
+        <v>44027</v>
       </c>
       <c r="B234" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="1">
-        <v>44031</v>
+        <v>44028</v>
       </c>
       <c r="B235" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="1">
-        <v>44032</v>
+        <v>44029</v>
       </c>
       <c r="B236" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="1">
-        <v>44033</v>
+        <v>44030</v>
       </c>
       <c r="B237" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="1">
-        <v>44034</v>
+        <v>44031</v>
       </c>
       <c r="B238" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="1">
-        <v>44035</v>
+        <v>44032</v>
       </c>
       <c r="B239" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="1">
-        <v>44036</v>
+        <v>44033</v>
       </c>
       <c r="B240" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="1">
-        <v>44037</v>
+        <v>44034</v>
       </c>
       <c r="B241" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="1">
-        <v>44038</v>
+        <v>44035</v>
       </c>
       <c r="B242" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="1">
-        <v>44039</v>
+        <v>44036</v>
       </c>
       <c r="B243" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="1">
-        <v>44040</v>
+        <v>44037</v>
       </c>
       <c r="B244" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="1">
-        <v>44041</v>
+        <v>44038</v>
       </c>
       <c r="B245" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="1">
-        <v>44042</v>
+        <v>44039</v>
       </c>
       <c r="B246" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="1">
-        <v>44043</v>
+        <v>44040</v>
       </c>
       <c r="B247" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="1">
-        <v>44044</v>
+        <v>44041</v>
       </c>
       <c r="B248" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="1">
-        <v>44045</v>
+        <v>44042</v>
       </c>
       <c r="B249" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="1">
-        <v>44046</v>
+        <v>44043</v>
       </c>
       <c r="B250" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="1">
-        <v>44047</v>
+        <v>44044</v>
       </c>
       <c r="B251" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="1">
-        <v>44048</v>
+        <v>44045</v>
       </c>
       <c r="B252" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="1">
-        <v>44049</v>
+        <v>44046</v>
       </c>
       <c r="B253" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="1">
-        <v>44050</v>
+        <v>44047</v>
       </c>
       <c r="B254" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="1">
-        <v>44051</v>
+        <v>44048</v>
       </c>
       <c r="B255" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="1">
-        <v>44052</v>
+        <v>44049</v>
       </c>
       <c r="B256" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="1">
-        <v>44053</v>
+        <v>44050</v>
       </c>
       <c r="B257" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="1">
-        <v>44054</v>
+        <v>44051</v>
       </c>
       <c r="B258" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="1">
-        <v>44055</v>
+        <v>44052</v>
       </c>
       <c r="B259" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="1">
-        <v>44056</v>
+        <v>44053</v>
       </c>
       <c r="B260" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="1">
-        <v>44057</v>
+        <v>44054</v>
       </c>
       <c r="B261" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="1">
-        <v>44058</v>
+        <v>44055</v>
       </c>
       <c r="B262" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="1">
-        <v>44059</v>
+        <v>44056</v>
       </c>
       <c r="B263" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="1">
-        <v>44060</v>
+        <v>44057</v>
       </c>
       <c r="B264" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="1">
-        <v>44061</v>
+        <v>44058</v>
       </c>
       <c r="B265" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="1">
-        <v>44062</v>
+        <v>44059</v>
       </c>
       <c r="B266" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="1">
-        <v>44063</v>
+        <v>44060</v>
       </c>
       <c r="B267" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="1">
-        <v>44064</v>
+        <v>44061</v>
       </c>
       <c r="B268" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="1">
-        <v>44065</v>
+        <v>44062</v>
       </c>
       <c r="B269" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="1">
-        <v>44066</v>
+        <v>44063</v>
       </c>
       <c r="B270" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="1">
-        <v>44067</v>
+        <v>44064</v>
       </c>
       <c r="B271" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="1">
-        <v>44068</v>
+        <v>44065</v>
       </c>
       <c r="B272" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="1">
-        <v>44069</v>
+        <v>44066</v>
       </c>
       <c r="B273" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="1">
-        <v>44070</v>
+        <v>44067</v>
       </c>
       <c r="B274" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="1">
-        <v>44071</v>
+        <v>44068</v>
       </c>
       <c r="B275" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="1">
-        <v>44072</v>
+        <v>44069</v>
       </c>
       <c r="B276" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="1">
-        <v>44073</v>
+        <v>44070</v>
       </c>
       <c r="B277" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="1">
-        <v>44074</v>
+        <v>44071</v>
       </c>
       <c r="B278" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="1">
-        <v>44075</v>
+        <v>44072</v>
       </c>
       <c r="B279" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="1">
-        <v>44076</v>
+        <v>44073</v>
       </c>
       <c r="B280" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="1">
-        <v>44077</v>
+        <v>44074</v>
       </c>
       <c r="B281" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="1">
-        <v>44078</v>
+        <v>44075</v>
       </c>
       <c r="B282" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="1">
-        <v>44079</v>
+        <v>44076</v>
       </c>
       <c r="B283" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="1">
-        <v>44080</v>
+        <v>44077</v>
       </c>
       <c r="B284" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="1">
-        <v>44081</v>
+        <v>44078</v>
       </c>
       <c r="B285" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="1">
-        <v>44082</v>
+        <v>44079</v>
       </c>
       <c r="B286" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="1">
-        <v>44083</v>
+        <v>44080</v>
       </c>
       <c r="B287" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="1">
-        <v>44084</v>
+        <v>44081</v>
       </c>
       <c r="B288" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="1">
-        <v>44085</v>
+        <v>44082</v>
       </c>
       <c r="B289" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="1">
-        <v>44086</v>
+        <v>44083</v>
       </c>
       <c r="B290" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="1">
-        <v>44087</v>
+        <v>44084</v>
       </c>
       <c r="B291" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="1">
-        <v>44088</v>
+        <v>44085</v>
       </c>
       <c r="B292" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="1">
-        <v>44089</v>
+        <v>44086</v>
       </c>
       <c r="B293" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="1">
-        <v>44090</v>
+        <v>44087</v>
       </c>
       <c r="B294" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="1">
-        <v>44091</v>
+        <v>44088</v>
       </c>
       <c r="B295" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="1">
-        <v>44092</v>
+        <v>44089</v>
       </c>
       <c r="B296" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="1">
-        <v>44093</v>
+        <v>44090</v>
       </c>
       <c r="B297" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="1">
-        <v>44094</v>
+        <v>44091</v>
       </c>
       <c r="B298" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="1">
-        <v>44095</v>
+        <v>44092</v>
       </c>
       <c r="B299" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="1">
-        <v>44096</v>
+        <v>44093</v>
       </c>
       <c r="B300" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="1">
-        <v>44097</v>
+        <v>44094</v>
       </c>
       <c r="B301" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="1">
-        <v>44098</v>
+        <v>44095</v>
       </c>
       <c r="B302" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="1">
-        <v>44099</v>
+        <v>44096</v>
       </c>
       <c r="B303" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="1">
-        <v>44100</v>
+        <v>44097</v>
       </c>
       <c r="B304" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="1">
-        <v>44101</v>
+        <v>44098</v>
       </c>
       <c r="B305" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="1">
-        <v>44102</v>
+        <v>44099</v>
       </c>
       <c r="B306" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="1">
-        <v>44103</v>
+        <v>44100</v>
       </c>
       <c r="B307" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="1">
-        <v>44104</v>
+        <v>44101</v>
       </c>
       <c r="B308" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="1">
-        <v>44105</v>
+        <v>44102</v>
       </c>
       <c r="B309" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="1">
-        <v>44106</v>
+        <v>44103</v>
       </c>
       <c r="B310" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="1">
-        <v>44107</v>
+        <v>44104</v>
       </c>
       <c r="B311" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="1">
-        <v>44108</v>
+        <v>44105</v>
       </c>
       <c r="B312" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="1">
-        <v>44109</v>
+        <v>44106</v>
       </c>
       <c r="B313" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="1">
-        <v>44110</v>
+        <v>44107</v>
       </c>
       <c r="B314" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="1">
-        <v>44111</v>
+        <v>44108</v>
       </c>
       <c r="B315" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="1">
-        <v>44112</v>
+        <v>44109</v>
       </c>
       <c r="B316" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="1">
-        <v>44113</v>
+        <v>44110</v>
       </c>
       <c r="B317" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="1">
-        <v>44114</v>
+        <v>44111</v>
       </c>
       <c r="B318" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="1">
-        <v>44115</v>
+        <v>44112</v>
       </c>
       <c r="B319" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="1">
-        <v>44116</v>
+        <v>44113</v>
       </c>
       <c r="B320" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="1">
-        <v>44117</v>
+        <v>44114</v>
       </c>
       <c r="B321" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="1">
-        <v>44118</v>
+        <v>44115</v>
       </c>
       <c r="B322" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="1">
-        <v>44119</v>
+        <v>44116</v>
       </c>
       <c r="B323" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="1">
-        <v>44120</v>
+        <v>44117</v>
       </c>
       <c r="B324" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="1">
-        <v>44121</v>
+        <v>44118</v>
       </c>
       <c r="B325" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="1">
-        <v>44122</v>
+        <v>44119</v>
       </c>
       <c r="B326" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="1">
-        <v>44123</v>
+        <v>44120</v>
       </c>
       <c r="B327" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="1">
-        <v>44124</v>
+        <v>44121</v>
       </c>
       <c r="B328" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="1">
-        <v>44125</v>
+        <v>44122</v>
       </c>
       <c r="B329" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="1">
-        <v>44126</v>
+        <v>44123</v>
       </c>
       <c r="B330" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="1">
-        <v>44127</v>
+        <v>44124</v>
       </c>
       <c r="B331" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="1">
-        <v>44128</v>
+        <v>44125</v>
       </c>
       <c r="B332" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="1">
-        <v>44129</v>
+        <v>44126</v>
       </c>
       <c r="B333" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="1">
-        <v>44130</v>
+        <v>44127</v>
       </c>
       <c r="B334" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="1">
-        <v>44131</v>
+        <v>44128</v>
       </c>
       <c r="B335" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="1">
-        <v>44132</v>
+        <v>44129</v>
       </c>
       <c r="B336" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="1">
-        <v>44133</v>
+        <v>44130</v>
       </c>
       <c r="B337" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="1">
-        <v>44134</v>
+        <v>44131</v>
       </c>
       <c r="B338" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="1">
-        <v>44135</v>
+        <v>44132</v>
       </c>
       <c r="B339" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="1">
-        <v>44136</v>
+        <v>44133</v>
       </c>
       <c r="B340" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="1">
-        <v>44137</v>
+        <v>44134</v>
       </c>
       <c r="B341" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="1">
-        <v>44138</v>
+        <v>44135</v>
       </c>
       <c r="B342" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="1">
-        <v>44139</v>
+        <v>44136</v>
       </c>
       <c r="B343" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="1">
-        <v>44140</v>
+        <v>44137</v>
       </c>
       <c r="B344" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="1">
-        <v>44141</v>
+        <v>44138</v>
       </c>
       <c r="B345" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="1">
-        <v>44142</v>
+        <v>44139</v>
       </c>
       <c r="B346" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="1">
-        <v>44143</v>
+        <v>44140</v>
       </c>
       <c r="B347" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="1">
-        <v>44144</v>
+        <v>44141</v>
       </c>
       <c r="B348" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="1">
-        <v>44145</v>
+        <v>44142</v>
       </c>
       <c r="B349" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="1">
-        <v>44146</v>
+        <v>44143</v>
       </c>
       <c r="B350" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="1">
-        <v>44147</v>
+        <v>44144</v>
       </c>
       <c r="B351" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="1">
-        <v>44148</v>
+        <v>44145</v>
       </c>
       <c r="B352" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="1">
-        <v>44149</v>
+        <v>44146</v>
       </c>
       <c r="B353" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="1">
-        <v>44150</v>
+        <v>44147</v>
       </c>
       <c r="B354" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="1">
-        <v>44151</v>
+        <v>44148</v>
       </c>
       <c r="B355" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="1">
-        <v>44152</v>
+        <v>44149</v>
       </c>
       <c r="B356" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="1">
-        <v>44153</v>
+        <v>44150</v>
       </c>
       <c r="B357" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="1">
-        <v>44154</v>
+        <v>44151</v>
       </c>
       <c r="B358" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="1">
-        <v>44155</v>
+        <v>44152</v>
       </c>
       <c r="B359" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="1">
-        <v>44156</v>
+        <v>44153</v>
       </c>
       <c r="B360" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="1">
-        <v>44157</v>
+        <v>44154</v>
       </c>
       <c r="B361" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="1">
-        <v>44158</v>
+        <v>44155</v>
       </c>
       <c r="B362" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="1">
-        <v>44159</v>
+        <v>44156</v>
       </c>
       <c r="B363" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="1">
-        <v>44160</v>
+        <v>44157</v>
       </c>
       <c r="B364" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="1">
-        <v>44161</v>
+        <v>44158</v>
       </c>
       <c r="B365" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="1">
-        <v>44162</v>
+        <v>44159</v>
       </c>
       <c r="B366" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="1">
-        <v>44163</v>
+        <v>44160</v>
       </c>
       <c r="B367" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="1">
-        <v>44164</v>
+        <v>44161</v>
       </c>
       <c r="B368" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="1">
-        <v>44165</v>
+        <v>44162</v>
       </c>
       <c r="B369" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="1">
-        <v>44166</v>
+        <v>44163</v>
       </c>
       <c r="B370" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="1">
-        <v>44167</v>
+        <v>44164</v>
       </c>
       <c r="B371" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="1">
-        <v>44168</v>
+        <v>44165</v>
       </c>
       <c r="B372" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="1">
-        <v>44169</v>
+        <v>44166</v>
       </c>
       <c r="B373" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="1">
-        <v>44170</v>
+        <v>44167</v>
       </c>
       <c r="B374" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="1">
-        <v>44171</v>
+        <v>44168</v>
       </c>
       <c r="B375" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="1">
-        <v>44172</v>
+        <v>44169</v>
       </c>
       <c r="B376" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="1">
-        <v>44173</v>
+        <v>44170</v>
       </c>
       <c r="B377" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="1">
-        <v>44174</v>
+        <v>44171</v>
       </c>
       <c r="B378" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="1">
-        <v>44175</v>
+        <v>44172</v>
       </c>
       <c r="B379" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="1">
-        <v>44176</v>
+        <v>44173</v>
       </c>
       <c r="B380" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="1">
-        <v>44177</v>
+        <v>44174</v>
       </c>
       <c r="B381" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="1">
-        <v>44178</v>
+        <v>44175</v>
       </c>
       <c r="B382" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="1">
-        <v>44179</v>
+        <v>44176</v>
       </c>
       <c r="B383" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="1">
-        <v>44180</v>
+        <v>44177</v>
       </c>
       <c r="B384" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="1">
-        <v>44181</v>
+        <v>44178</v>
       </c>
       <c r="B385" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="1">
-        <v>44182</v>
+        <v>44179</v>
       </c>
       <c r="B386" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="1">
-        <v>44183</v>
+        <v>44180</v>
       </c>
       <c r="B387" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="1">
-        <v>44184</v>
+        <v>44181</v>
       </c>
       <c r="B388" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="1">
-        <v>44185</v>
+        <v>44182</v>
       </c>
       <c r="B389" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="1">
-        <v>44186</v>
+        <v>44183</v>
       </c>
       <c r="B390" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="1">
-        <v>44187</v>
+        <v>44184</v>
       </c>
       <c r="B391" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="1">
-        <v>44188</v>
+        <v>44185</v>
       </c>
       <c r="B392" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="1">
-        <v>44189</v>
+        <v>44186</v>
       </c>
       <c r="B393" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="1">
-        <v>44190</v>
+        <v>44187</v>
       </c>
       <c r="B394" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="1">
-        <v>44191</v>
+        <v>44188</v>
       </c>
       <c r="B395" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="1">
-        <v>44192</v>
+        <v>44189</v>
       </c>
       <c r="B396" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="1">
-        <v>44193</v>
+        <v>44190</v>
       </c>
       <c r="B397" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="1">
-        <v>44194</v>
+        <v>44191</v>
       </c>
       <c r="B398" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="1">
-        <v>44195</v>
+        <v>44192</v>
       </c>
       <c r="B399" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="1">
+        <v>44193</v>
+      </c>
+      <c r="B400" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2">
+      <c r="A401" s="1">
+        <v>44194</v>
+      </c>
+      <c r="B401" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2">
+      <c r="A402" s="1">
+        <v>44195</v>
+      </c>
+      <c r="B402" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2">
+      <c r="A403" s="1">
         <v>44196</v>
       </c>
-      <c r="B400" t="s">
+      <c r="B403" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6354,8 +6410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F131"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7104,6 +7160,20 @@
         <v>132</v>
       </c>
       <c r="D57" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>362</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="C58" t="s">
+        <v>132</v>
+      </c>
+      <c r="D58" t="s">
         <v>286</v>
       </c>
     </row>

--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="По задачам" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="364">
   <si>
     <t>Дата начала</t>
   </si>
@@ -2511,10 +2511,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D403"/>
+  <dimension ref="A1:D404"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="C162" sqref="C162:D163"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="C166" sqref="C166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4439,1916 +4439,1931 @@
       <c r="B164" t="s">
         <v>12</v>
       </c>
+      <c r="C164" t="s">
+        <v>327</v>
+      </c>
+      <c r="D164" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="165" spans="1:4">
-      <c r="A165" s="1">
-        <v>43958</v>
-      </c>
-      <c r="B165" t="s">
-        <v>13</v>
+      <c r="A165" s="1"/>
+      <c r="C165" t="s">
+        <v>329</v>
+      </c>
+      <c r="D165" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="1">
-        <v>43959</v>
+        <v>43958</v>
       </c>
       <c r="B166" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="1">
-        <v>43960</v>
+        <v>43959</v>
       </c>
       <c r="B167" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="1">
-        <v>43961</v>
+        <v>43960</v>
       </c>
       <c r="B168" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="1">
-        <v>43962</v>
+        <v>43961</v>
       </c>
       <c r="B169" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="1">
-        <v>43963</v>
+        <v>43962</v>
       </c>
       <c r="B170" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="1">
-        <v>43964</v>
+        <v>43963</v>
       </c>
       <c r="B171" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="1">
-        <v>43965</v>
+        <v>43964</v>
       </c>
       <c r="B172" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="1">
-        <v>43966</v>
+        <v>43965</v>
       </c>
       <c r="B173" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="1">
-        <v>43967</v>
+        <v>43966</v>
       </c>
       <c r="B174" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="1">
-        <v>43968</v>
+        <v>43967</v>
       </c>
       <c r="B175" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="1">
-        <v>43969</v>
+        <v>43968</v>
       </c>
       <c r="B176" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="1">
-        <v>43970</v>
+        <v>43969</v>
       </c>
       <c r="B177" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="1">
-        <v>43971</v>
+        <v>43970</v>
       </c>
       <c r="B178" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="1">
-        <v>43972</v>
+        <v>43971</v>
       </c>
       <c r="B179" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="1">
-        <v>43973</v>
+        <v>43972</v>
       </c>
       <c r="B180" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="1">
-        <v>43974</v>
+        <v>43973</v>
       </c>
       <c r="B181" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="1">
-        <v>43975</v>
+        <v>43974</v>
       </c>
       <c r="B182" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="1">
-        <v>43976</v>
+        <v>43975</v>
       </c>
       <c r="B183" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="1">
-        <v>43977</v>
+        <v>43976</v>
       </c>
       <c r="B184" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="1">
-        <v>43978</v>
+        <v>43977</v>
       </c>
       <c r="B185" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="1">
-        <v>43979</v>
+        <v>43978</v>
       </c>
       <c r="B186" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="1">
-        <v>43980</v>
+        <v>43979</v>
       </c>
       <c r="B187" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="1">
-        <v>43981</v>
+        <v>43980</v>
       </c>
       <c r="B188" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="1">
-        <v>43982</v>
+        <v>43981</v>
       </c>
       <c r="B189" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="1">
-        <v>43983</v>
+        <v>43982</v>
       </c>
       <c r="B190" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="1">
-        <v>43984</v>
+        <v>43983</v>
       </c>
       <c r="B191" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="1">
-        <v>43985</v>
+        <v>43984</v>
       </c>
       <c r="B192" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="1">
-        <v>43986</v>
+        <v>43985</v>
       </c>
       <c r="B193" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="1">
-        <v>43987</v>
+        <v>43986</v>
       </c>
       <c r="B194" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="1">
-        <v>43988</v>
+        <v>43987</v>
       </c>
       <c r="B195" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="1">
-        <v>43989</v>
+        <v>43988</v>
       </c>
       <c r="B196" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="1">
-        <v>43990</v>
+        <v>43989</v>
       </c>
       <c r="B197" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="1">
-        <v>43991</v>
+        <v>43990</v>
       </c>
       <c r="B198" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="1">
-        <v>43992</v>
+        <v>43991</v>
       </c>
       <c r="B199" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="1">
-        <v>43993</v>
+        <v>43992</v>
       </c>
       <c r="B200" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="1">
-        <v>43994</v>
+        <v>43993</v>
       </c>
       <c r="B201" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="1">
-        <v>43995</v>
+        <v>43994</v>
       </c>
       <c r="B202" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="1">
-        <v>43996</v>
+        <v>43995</v>
       </c>
       <c r="B203" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="1">
-        <v>43997</v>
+        <v>43996</v>
       </c>
       <c r="B204" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="1">
-        <v>43998</v>
+        <v>43997</v>
       </c>
       <c r="B205" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="1">
-        <v>43999</v>
+        <v>43998</v>
       </c>
       <c r="B206" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="1">
-        <v>44000</v>
+        <v>43999</v>
       </c>
       <c r="B207" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="1">
-        <v>44001</v>
+        <v>44000</v>
       </c>
       <c r="B208" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="1">
-        <v>44002</v>
+        <v>44001</v>
       </c>
       <c r="B209" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="1">
-        <v>44003</v>
+        <v>44002</v>
       </c>
       <c r="B210" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="1">
-        <v>44004</v>
+        <v>44003</v>
       </c>
       <c r="B211" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="1">
-        <v>44005</v>
+        <v>44004</v>
       </c>
       <c r="B212" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="1">
-        <v>44006</v>
+        <v>44005</v>
       </c>
       <c r="B213" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="1">
-        <v>44007</v>
+        <v>44006</v>
       </c>
       <c r="B214" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="1">
-        <v>44008</v>
+        <v>44007</v>
       </c>
       <c r="B215" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="1">
-        <v>44009</v>
+        <v>44008</v>
       </c>
       <c r="B216" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="1">
-        <v>44010</v>
+        <v>44009</v>
       </c>
       <c r="B217" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="1">
-        <v>44011</v>
+        <v>44010</v>
       </c>
       <c r="B218" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="1">
-        <v>44012</v>
+        <v>44011</v>
       </c>
       <c r="B219" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="1">
-        <v>44013</v>
+        <v>44012</v>
       </c>
       <c r="B220" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="1">
-        <v>44014</v>
+        <v>44013</v>
       </c>
       <c r="B221" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="1">
-        <v>44015</v>
+        <v>44014</v>
       </c>
       <c r="B222" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="1">
-        <v>44016</v>
+        <v>44015</v>
       </c>
       <c r="B223" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="1">
-        <v>44017</v>
+        <v>44016</v>
       </c>
       <c r="B224" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="1">
-        <v>44018</v>
+        <v>44017</v>
       </c>
       <c r="B225" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="1">
-        <v>44019</v>
+        <v>44018</v>
       </c>
       <c r="B226" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="1">
-        <v>44020</v>
+        <v>44019</v>
       </c>
       <c r="B227" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="1">
-        <v>44021</v>
+        <v>44020</v>
       </c>
       <c r="B228" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="1">
-        <v>44022</v>
+        <v>44021</v>
       </c>
       <c r="B229" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="1">
-        <v>44023</v>
+        <v>44022</v>
       </c>
       <c r="B230" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="1">
-        <v>44024</v>
+        <v>44023</v>
       </c>
       <c r="B231" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="1">
-        <v>44025</v>
+        <v>44024</v>
       </c>
       <c r="B232" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="1">
-        <v>44026</v>
+        <v>44025</v>
       </c>
       <c r="B233" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="1">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B234" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="1">
-        <v>44028</v>
+        <v>44027</v>
       </c>
       <c r="B235" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="1">
-        <v>44029</v>
+        <v>44028</v>
       </c>
       <c r="B236" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="1">
-        <v>44030</v>
+        <v>44029</v>
       </c>
       <c r="B237" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="1">
-        <v>44031</v>
+        <v>44030</v>
       </c>
       <c r="B238" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="1">
-        <v>44032</v>
+        <v>44031</v>
       </c>
       <c r="B239" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="1">
-        <v>44033</v>
+        <v>44032</v>
       </c>
       <c r="B240" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="1">
-        <v>44034</v>
+        <v>44033</v>
       </c>
       <c r="B241" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="1">
-        <v>44035</v>
+        <v>44034</v>
       </c>
       <c r="B242" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="1">
-        <v>44036</v>
+        <v>44035</v>
       </c>
       <c r="B243" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="1">
-        <v>44037</v>
+        <v>44036</v>
       </c>
       <c r="B244" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="1">
-        <v>44038</v>
+        <v>44037</v>
       </c>
       <c r="B245" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="1">
-        <v>44039</v>
+        <v>44038</v>
       </c>
       <c r="B246" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="1">
-        <v>44040</v>
+        <v>44039</v>
       </c>
       <c r="B247" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="1">
-        <v>44041</v>
+        <v>44040</v>
       </c>
       <c r="B248" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="1">
-        <v>44042</v>
+        <v>44041</v>
       </c>
       <c r="B249" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="1">
-        <v>44043</v>
+        <v>44042</v>
       </c>
       <c r="B250" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="1">
-        <v>44044</v>
+        <v>44043</v>
       </c>
       <c r="B251" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="1">
-        <v>44045</v>
+        <v>44044</v>
       </c>
       <c r="B252" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="1">
-        <v>44046</v>
+        <v>44045</v>
       </c>
       <c r="B253" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="1">
-        <v>44047</v>
+        <v>44046</v>
       </c>
       <c r="B254" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="1">
-        <v>44048</v>
+        <v>44047</v>
       </c>
       <c r="B255" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="1">
-        <v>44049</v>
+        <v>44048</v>
       </c>
       <c r="B256" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="1">
-        <v>44050</v>
+        <v>44049</v>
       </c>
       <c r="B257" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="1">
-        <v>44051</v>
+        <v>44050</v>
       </c>
       <c r="B258" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="1">
-        <v>44052</v>
+        <v>44051</v>
       </c>
       <c r="B259" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="1">
-        <v>44053</v>
+        <v>44052</v>
       </c>
       <c r="B260" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="1">
-        <v>44054</v>
+        <v>44053</v>
       </c>
       <c r="B261" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="1">
-        <v>44055</v>
+        <v>44054</v>
       </c>
       <c r="B262" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="1">
-        <v>44056</v>
+        <v>44055</v>
       </c>
       <c r="B263" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="1">
-        <v>44057</v>
+        <v>44056</v>
       </c>
       <c r="B264" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="1">
-        <v>44058</v>
+        <v>44057</v>
       </c>
       <c r="B265" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="1">
-        <v>44059</v>
+        <v>44058</v>
       </c>
       <c r="B266" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="1">
-        <v>44060</v>
+        <v>44059</v>
       </c>
       <c r="B267" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="1">
-        <v>44061</v>
+        <v>44060</v>
       </c>
       <c r="B268" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="1">
-        <v>44062</v>
+        <v>44061</v>
       </c>
       <c r="B269" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="1">
-        <v>44063</v>
+        <v>44062</v>
       </c>
       <c r="B270" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="1">
-        <v>44064</v>
+        <v>44063</v>
       </c>
       <c r="B271" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="1">
-        <v>44065</v>
+        <v>44064</v>
       </c>
       <c r="B272" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="1">
-        <v>44066</v>
+        <v>44065</v>
       </c>
       <c r="B273" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="1">
-        <v>44067</v>
+        <v>44066</v>
       </c>
       <c r="B274" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="1">
-        <v>44068</v>
+        <v>44067</v>
       </c>
       <c r="B275" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="1">
-        <v>44069</v>
+        <v>44068</v>
       </c>
       <c r="B276" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="1">
-        <v>44070</v>
+        <v>44069</v>
       </c>
       <c r="B277" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="1">
-        <v>44071</v>
+        <v>44070</v>
       </c>
       <c r="B278" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="1">
-        <v>44072</v>
+        <v>44071</v>
       </c>
       <c r="B279" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="1">
-        <v>44073</v>
+        <v>44072</v>
       </c>
       <c r="B280" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="1">
-        <v>44074</v>
+        <v>44073</v>
       </c>
       <c r="B281" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="1">
-        <v>44075</v>
+        <v>44074</v>
       </c>
       <c r="B282" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="1">
-        <v>44076</v>
+        <v>44075</v>
       </c>
       <c r="B283" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="1">
-        <v>44077</v>
+        <v>44076</v>
       </c>
       <c r="B284" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="1">
-        <v>44078</v>
+        <v>44077</v>
       </c>
       <c r="B285" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="1">
-        <v>44079</v>
+        <v>44078</v>
       </c>
       <c r="B286" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="1">
-        <v>44080</v>
+        <v>44079</v>
       </c>
       <c r="B287" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="1">
-        <v>44081</v>
+        <v>44080</v>
       </c>
       <c r="B288" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="1">
-        <v>44082</v>
+        <v>44081</v>
       </c>
       <c r="B289" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="1">
-        <v>44083</v>
+        <v>44082</v>
       </c>
       <c r="B290" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="1">
-        <v>44084</v>
+        <v>44083</v>
       </c>
       <c r="B291" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="1">
-        <v>44085</v>
+        <v>44084</v>
       </c>
       <c r="B292" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="1">
-        <v>44086</v>
+        <v>44085</v>
       </c>
       <c r="B293" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="1">
-        <v>44087</v>
+        <v>44086</v>
       </c>
       <c r="B294" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="1">
-        <v>44088</v>
+        <v>44087</v>
       </c>
       <c r="B295" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="1">
-        <v>44089</v>
+        <v>44088</v>
       </c>
       <c r="B296" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="1">
-        <v>44090</v>
+        <v>44089</v>
       </c>
       <c r="B297" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="1">
-        <v>44091</v>
+        <v>44090</v>
       </c>
       <c r="B298" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="1">
-        <v>44092</v>
+        <v>44091</v>
       </c>
       <c r="B299" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="1">
-        <v>44093</v>
+        <v>44092</v>
       </c>
       <c r="B300" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="1">
-        <v>44094</v>
+        <v>44093</v>
       </c>
       <c r="B301" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="1">
-        <v>44095</v>
+        <v>44094</v>
       </c>
       <c r="B302" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="1">
-        <v>44096</v>
+        <v>44095</v>
       </c>
       <c r="B303" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="1">
-        <v>44097</v>
+        <v>44096</v>
       </c>
       <c r="B304" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="1">
-        <v>44098</v>
+        <v>44097</v>
       </c>
       <c r="B305" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="1">
-        <v>44099</v>
+        <v>44098</v>
       </c>
       <c r="B306" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="1">
-        <v>44100</v>
+        <v>44099</v>
       </c>
       <c r="B307" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="1">
-        <v>44101</v>
+        <v>44100</v>
       </c>
       <c r="B308" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="1">
-        <v>44102</v>
+        <v>44101</v>
       </c>
       <c r="B309" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="1">
-        <v>44103</v>
+        <v>44102</v>
       </c>
       <c r="B310" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="1">
-        <v>44104</v>
+        <v>44103</v>
       </c>
       <c r="B311" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="1">
-        <v>44105</v>
+        <v>44104</v>
       </c>
       <c r="B312" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="1">
-        <v>44106</v>
+        <v>44105</v>
       </c>
       <c r="B313" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="1">
-        <v>44107</v>
+        <v>44106</v>
       </c>
       <c r="B314" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="1">
-        <v>44108</v>
+        <v>44107</v>
       </c>
       <c r="B315" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="1">
-        <v>44109</v>
+        <v>44108</v>
       </c>
       <c r="B316" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="1">
-        <v>44110</v>
+        <v>44109</v>
       </c>
       <c r="B317" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="1">
-        <v>44111</v>
+        <v>44110</v>
       </c>
       <c r="B318" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="1">
-        <v>44112</v>
+        <v>44111</v>
       </c>
       <c r="B319" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="1">
-        <v>44113</v>
+        <v>44112</v>
       </c>
       <c r="B320" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="1">
-        <v>44114</v>
+        <v>44113</v>
       </c>
       <c r="B321" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="1">
-        <v>44115</v>
+        <v>44114</v>
       </c>
       <c r="B322" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="1">
-        <v>44116</v>
+        <v>44115</v>
       </c>
       <c r="B323" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="1">
-        <v>44117</v>
+        <v>44116</v>
       </c>
       <c r="B324" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="1">
-        <v>44118</v>
+        <v>44117</v>
       </c>
       <c r="B325" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="1">
-        <v>44119</v>
+        <v>44118</v>
       </c>
       <c r="B326" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="1">
-        <v>44120</v>
+        <v>44119</v>
       </c>
       <c r="B327" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="1">
-        <v>44121</v>
+        <v>44120</v>
       </c>
       <c r="B328" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="1">
-        <v>44122</v>
+        <v>44121</v>
       </c>
       <c r="B329" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="1">
-        <v>44123</v>
+        <v>44122</v>
       </c>
       <c r="B330" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="1">
-        <v>44124</v>
+        <v>44123</v>
       </c>
       <c r="B331" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="1">
-        <v>44125</v>
+        <v>44124</v>
       </c>
       <c r="B332" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="1">
-        <v>44126</v>
+        <v>44125</v>
       </c>
       <c r="B333" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="1">
-        <v>44127</v>
+        <v>44126</v>
       </c>
       <c r="B334" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="1">
-        <v>44128</v>
+        <v>44127</v>
       </c>
       <c r="B335" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="1">
-        <v>44129</v>
+        <v>44128</v>
       </c>
       <c r="B336" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="1">
-        <v>44130</v>
+        <v>44129</v>
       </c>
       <c r="B337" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="1">
-        <v>44131</v>
+        <v>44130</v>
       </c>
       <c r="B338" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="1">
-        <v>44132</v>
+        <v>44131</v>
       </c>
       <c r="B339" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="1">
-        <v>44133</v>
+        <v>44132</v>
       </c>
       <c r="B340" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="1">
-        <v>44134</v>
+        <v>44133</v>
       </c>
       <c r="B341" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="1">
-        <v>44135</v>
+        <v>44134</v>
       </c>
       <c r="B342" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="1">
-        <v>44136</v>
+        <v>44135</v>
       </c>
       <c r="B343" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="1">
-        <v>44137</v>
+        <v>44136</v>
       </c>
       <c r="B344" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="1">
-        <v>44138</v>
+        <v>44137</v>
       </c>
       <c r="B345" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="1">
-        <v>44139</v>
+        <v>44138</v>
       </c>
       <c r="B346" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="1">
-        <v>44140</v>
+        <v>44139</v>
       </c>
       <c r="B347" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="1">
-        <v>44141</v>
+        <v>44140</v>
       </c>
       <c r="B348" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="1">
-        <v>44142</v>
+        <v>44141</v>
       </c>
       <c r="B349" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="1">
-        <v>44143</v>
+        <v>44142</v>
       </c>
       <c r="B350" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="1">
-        <v>44144</v>
+        <v>44143</v>
       </c>
       <c r="B351" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="1">
-        <v>44145</v>
+        <v>44144</v>
       </c>
       <c r="B352" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="1">
-        <v>44146</v>
+        <v>44145</v>
       </c>
       <c r="B353" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="1">
-        <v>44147</v>
+        <v>44146</v>
       </c>
       <c r="B354" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="1">
-        <v>44148</v>
+        <v>44147</v>
       </c>
       <c r="B355" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="1">
-        <v>44149</v>
+        <v>44148</v>
       </c>
       <c r="B356" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="1">
-        <v>44150</v>
+        <v>44149</v>
       </c>
       <c r="B357" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="1">
-        <v>44151</v>
+        <v>44150</v>
       </c>
       <c r="B358" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="1">
-        <v>44152</v>
+        <v>44151</v>
       </c>
       <c r="B359" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="1">
-        <v>44153</v>
+        <v>44152</v>
       </c>
       <c r="B360" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="1">
-        <v>44154</v>
+        <v>44153</v>
       </c>
       <c r="B361" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="1">
-        <v>44155</v>
+        <v>44154</v>
       </c>
       <c r="B362" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="1">
-        <v>44156</v>
+        <v>44155</v>
       </c>
       <c r="B363" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="1">
-        <v>44157</v>
+        <v>44156</v>
       </c>
       <c r="B364" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="1">
-        <v>44158</v>
+        <v>44157</v>
       </c>
       <c r="B365" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="1">
-        <v>44159</v>
+        <v>44158</v>
       </c>
       <c r="B366" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="1">
-        <v>44160</v>
+        <v>44159</v>
       </c>
       <c r="B367" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="1">
-        <v>44161</v>
+        <v>44160</v>
       </c>
       <c r="B368" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="1">
-        <v>44162</v>
+        <v>44161</v>
       </c>
       <c r="B369" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="1">
-        <v>44163</v>
+        <v>44162</v>
       </c>
       <c r="B370" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="1">
-        <v>44164</v>
+        <v>44163</v>
       </c>
       <c r="B371" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="1">
-        <v>44165</v>
+        <v>44164</v>
       </c>
       <c r="B372" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="1">
-        <v>44166</v>
+        <v>44165</v>
       </c>
       <c r="B373" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="1">
-        <v>44167</v>
+        <v>44166</v>
       </c>
       <c r="B374" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="1">
-        <v>44168</v>
+        <v>44167</v>
       </c>
       <c r="B375" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="1">
-        <v>44169</v>
+        <v>44168</v>
       </c>
       <c r="B376" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="1">
-        <v>44170</v>
+        <v>44169</v>
       </c>
       <c r="B377" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="1">
-        <v>44171</v>
+        <v>44170</v>
       </c>
       <c r="B378" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="1">
-        <v>44172</v>
+        <v>44171</v>
       </c>
       <c r="B379" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="1">
-        <v>44173</v>
+        <v>44172</v>
       </c>
       <c r="B380" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="1">
-        <v>44174</v>
+        <v>44173</v>
       </c>
       <c r="B381" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="1">
-        <v>44175</v>
+        <v>44174</v>
       </c>
       <c r="B382" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="1">
-        <v>44176</v>
+        <v>44175</v>
       </c>
       <c r="B383" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="1">
-        <v>44177</v>
+        <v>44176</v>
       </c>
       <c r="B384" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="1">
-        <v>44178</v>
+        <v>44177</v>
       </c>
       <c r="B385" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="1">
-        <v>44179</v>
+        <v>44178</v>
       </c>
       <c r="B386" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="1">
-        <v>44180</v>
+        <v>44179</v>
       </c>
       <c r="B387" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="1">
-        <v>44181</v>
+        <v>44180</v>
       </c>
       <c r="B388" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="1">
-        <v>44182</v>
+        <v>44181</v>
       </c>
       <c r="B389" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="1">
-        <v>44183</v>
+        <v>44182</v>
       </c>
       <c r="B390" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="1">
-        <v>44184</v>
+        <v>44183</v>
       </c>
       <c r="B391" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="1">
-        <v>44185</v>
+        <v>44184</v>
       </c>
       <c r="B392" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="1">
-        <v>44186</v>
+        <v>44185</v>
       </c>
       <c r="B393" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="1">
-        <v>44187</v>
+        <v>44186</v>
       </c>
       <c r="B394" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="1">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="B395" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="1">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="B396" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="1">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="B397" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="1">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="B398" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="1">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="B399" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="1">
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="B400" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="1">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="B401" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="1">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B402" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="1">
+        <v>44195</v>
+      </c>
+      <c r="B403" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2">
+      <c r="A404" s="1">
         <v>44196</v>
       </c>
-      <c r="B403" t="s">
+      <c r="B404" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6410,7 +6425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+    <sheetView topLeftCell="A41" workbookViewId="0">
       <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>

--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="По задачам" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="366">
   <si>
     <t>Дата начала</t>
   </si>
@@ -1241,6 +1241,12 @@
   </si>
   <si>
     <t>Evening talk about this</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5kAPExqSZ1I</t>
+  </si>
+  <si>
+    <t>JavaScript - Асинхронные функции (async/await)</t>
   </si>
 </sst>
 </file>
@@ -1629,10 +1635,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2322,7 +2328,7 @@
       <c r="C58" t="s">
         <v>247</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="7" t="s">
         <v>324</v>
       </c>
     </row>
@@ -2336,6 +2342,7 @@
       <c r="C59" t="s">
         <v>249</v>
       </c>
+      <c r="D59" s="7"/>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1">
@@ -2347,6 +2354,7 @@
       <c r="C60" t="s">
         <v>253</v>
       </c>
+      <c r="D60" s="7"/>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1">
@@ -2358,7 +2366,7 @@
       <c r="C61" t="s">
         <v>257</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="7" t="s">
         <v>258</v>
       </c>
     </row>
@@ -2395,7 +2403,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:4">
       <c r="A65" s="1">
         <v>43946</v>
       </c>
@@ -2406,7 +2414,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:4">
       <c r="A66" s="1">
         <v>43948</v>
       </c>
@@ -2417,7 +2425,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:4">
       <c r="A67" s="1">
         <v>43948</v>
       </c>
@@ -2428,7 +2436,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:4">
       <c r="A68" s="1">
         <v>43949</v>
       </c>
@@ -2437,7 +2445,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:4">
       <c r="A69" s="1">
         <v>43949</v>
       </c>
@@ -2445,7 +2453,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:4">
       <c r="A70" s="1">
         <v>43949</v>
       </c>
@@ -2456,7 +2464,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:4">
       <c r="A71" s="1">
         <v>43950</v>
       </c>
@@ -2467,15 +2475,21 @@
         <v>356</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:4">
       <c r="A72" s="1">
         <v>43951</v>
       </c>
+      <c r="B72" s="1">
+        <v>43954</v>
+      </c>
       <c r="C72" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="D72">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1">
         <v>43953</v>
       </c>
@@ -2486,7 +2500,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:4">
       <c r="A74" s="1">
         <v>43955</v>
       </c>
@@ -2495,6 +2509,17 @@
       </c>
       <c r="C74" t="s">
         <v>363</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B75" s="1">
+        <v>43957</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -2511,10 +2536,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D404"/>
+  <dimension ref="A1:D406"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="C166" sqref="C166"/>
+    <sheetView topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="C167" sqref="C167:D168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4456,1914 +4481,1938 @@
       </c>
     </row>
     <row r="166" spans="1:4">
-      <c r="A166" s="1">
-        <v>43958</v>
-      </c>
-      <c r="B166" t="s">
-        <v>13</v>
+      <c r="A166" s="1"/>
+      <c r="C166" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="D166" s="8" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="1">
-        <v>43959</v>
+        <v>43958</v>
       </c>
       <c r="B167" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="C167" t="s">
+        <v>327</v>
+      </c>
+      <c r="D167" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="168" spans="1:4">
-      <c r="A168" s="1">
-        <v>43960</v>
-      </c>
-      <c r="B168" t="s">
-        <v>15</v>
+      <c r="A168" s="1"/>
+      <c r="C168" t="s">
+        <v>329</v>
+      </c>
+      <c r="D168" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="1">
-        <v>43961</v>
+        <v>43959</v>
       </c>
       <c r="B169" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="1">
-        <v>43962</v>
+        <v>43960</v>
       </c>
       <c r="B170" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="1">
-        <v>43963</v>
+        <v>43961</v>
       </c>
       <c r="B171" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="1">
-        <v>43964</v>
+        <v>43962</v>
       </c>
       <c r="B172" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="1">
-        <v>43965</v>
+        <v>43963</v>
       </c>
       <c r="B173" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="1">
-        <v>43966</v>
+        <v>43964</v>
       </c>
       <c r="B174" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="1">
-        <v>43967</v>
+        <v>43965</v>
       </c>
       <c r="B175" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="1">
-        <v>43968</v>
+        <v>43966</v>
       </c>
       <c r="B176" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="1">
-        <v>43969</v>
+        <v>43967</v>
       </c>
       <c r="B177" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="1">
-        <v>43970</v>
+        <v>43968</v>
       </c>
       <c r="B178" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="1">
-        <v>43971</v>
+        <v>43969</v>
       </c>
       <c r="B179" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="1">
-        <v>43972</v>
+        <v>43970</v>
       </c>
       <c r="B180" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="1">
-        <v>43973</v>
+        <v>43971</v>
       </c>
       <c r="B181" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="1">
-        <v>43974</v>
+        <v>43972</v>
       </c>
       <c r="B182" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="1">
-        <v>43975</v>
+        <v>43973</v>
       </c>
       <c r="B183" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="1">
-        <v>43976</v>
+        <v>43974</v>
       </c>
       <c r="B184" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="1">
-        <v>43977</v>
+        <v>43975</v>
       </c>
       <c r="B185" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="1">
-        <v>43978</v>
+        <v>43976</v>
       </c>
       <c r="B186" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="1">
-        <v>43979</v>
+        <v>43977</v>
       </c>
       <c r="B187" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="1">
-        <v>43980</v>
+        <v>43978</v>
       </c>
       <c r="B188" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="1">
-        <v>43981</v>
+        <v>43979</v>
       </c>
       <c r="B189" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="1">
-        <v>43982</v>
+        <v>43980</v>
       </c>
       <c r="B190" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="1">
-        <v>43983</v>
+        <v>43981</v>
       </c>
       <c r="B191" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="1">
-        <v>43984</v>
+        <v>43982</v>
       </c>
       <c r="B192" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="1">
-        <v>43985</v>
+        <v>43983</v>
       </c>
       <c r="B193" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="1">
-        <v>43986</v>
+        <v>43984</v>
       </c>
       <c r="B194" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="1">
-        <v>43987</v>
+        <v>43985</v>
       </c>
       <c r="B195" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="1">
-        <v>43988</v>
+        <v>43986</v>
       </c>
       <c r="B196" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="1">
-        <v>43989</v>
+        <v>43987</v>
       </c>
       <c r="B197" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="1">
-        <v>43990</v>
+        <v>43988</v>
       </c>
       <c r="B198" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="1">
-        <v>43991</v>
+        <v>43989</v>
       </c>
       <c r="B199" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="1">
-        <v>43992</v>
+        <v>43990</v>
       </c>
       <c r="B200" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="1">
-        <v>43993</v>
+        <v>43991</v>
       </c>
       <c r="B201" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="1">
-        <v>43994</v>
+        <v>43992</v>
       </c>
       <c r="B202" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="1">
-        <v>43995</v>
+        <v>43993</v>
       </c>
       <c r="B203" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="1">
-        <v>43996</v>
+        <v>43994</v>
       </c>
       <c r="B204" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="1">
-        <v>43997</v>
+        <v>43995</v>
       </c>
       <c r="B205" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="1">
-        <v>43998</v>
+        <v>43996</v>
       </c>
       <c r="B206" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="1">
-        <v>43999</v>
+        <v>43997</v>
       </c>
       <c r="B207" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="1">
-        <v>44000</v>
+        <v>43998</v>
       </c>
       <c r="B208" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="1">
-        <v>44001</v>
+        <v>43999</v>
       </c>
       <c r="B209" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="1">
-        <v>44002</v>
+        <v>44000</v>
       </c>
       <c r="B210" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="1">
-        <v>44003</v>
+        <v>44001</v>
       </c>
       <c r="B211" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="1">
-        <v>44004</v>
+        <v>44002</v>
       </c>
       <c r="B212" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="1">
-        <v>44005</v>
+        <v>44003</v>
       </c>
       <c r="B213" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="1">
-        <v>44006</v>
+        <v>44004</v>
       </c>
       <c r="B214" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="1">
-        <v>44007</v>
+        <v>44005</v>
       </c>
       <c r="B215" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="1">
-        <v>44008</v>
+        <v>44006</v>
       </c>
       <c r="B216" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="1">
-        <v>44009</v>
+        <v>44007</v>
       </c>
       <c r="B217" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="1">
-        <v>44010</v>
+        <v>44008</v>
       </c>
       <c r="B218" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="1">
-        <v>44011</v>
+        <v>44009</v>
       </c>
       <c r="B219" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="1">
-        <v>44012</v>
+        <v>44010</v>
       </c>
       <c r="B220" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="1">
-        <v>44013</v>
+        <v>44011</v>
       </c>
       <c r="B221" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="1">
-        <v>44014</v>
+        <v>44012</v>
       </c>
       <c r="B222" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="1">
-        <v>44015</v>
+        <v>44013</v>
       </c>
       <c r="B223" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="1">
-        <v>44016</v>
+        <v>44014</v>
       </c>
       <c r="B224" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="1">
-        <v>44017</v>
+        <v>44015</v>
       </c>
       <c r="B225" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="1">
-        <v>44018</v>
+        <v>44016</v>
       </c>
       <c r="B226" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="1">
-        <v>44019</v>
+        <v>44017</v>
       </c>
       <c r="B227" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="1">
-        <v>44020</v>
+        <v>44018</v>
       </c>
       <c r="B228" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="1">
-        <v>44021</v>
+        <v>44019</v>
       </c>
       <c r="B229" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="1">
-        <v>44022</v>
+        <v>44020</v>
       </c>
       <c r="B230" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="1">
-        <v>44023</v>
+        <v>44021</v>
       </c>
       <c r="B231" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="1">
-        <v>44024</v>
+        <v>44022</v>
       </c>
       <c r="B232" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="1">
-        <v>44025</v>
+        <v>44023</v>
       </c>
       <c r="B233" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="1">
-        <v>44026</v>
+        <v>44024</v>
       </c>
       <c r="B234" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="1">
-        <v>44027</v>
+        <v>44025</v>
       </c>
       <c r="B235" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="1">
-        <v>44028</v>
+        <v>44026</v>
       </c>
       <c r="B236" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="1">
-        <v>44029</v>
+        <v>44027</v>
       </c>
       <c r="B237" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="1">
-        <v>44030</v>
+        <v>44028</v>
       </c>
       <c r="B238" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="1">
-        <v>44031</v>
+        <v>44029</v>
       </c>
       <c r="B239" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="1">
-        <v>44032</v>
+        <v>44030</v>
       </c>
       <c r="B240" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="1">
-        <v>44033</v>
+        <v>44031</v>
       </c>
       <c r="B241" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="1">
-        <v>44034</v>
+        <v>44032</v>
       </c>
       <c r="B242" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="1">
-        <v>44035</v>
+        <v>44033</v>
       </c>
       <c r="B243" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="1">
-        <v>44036</v>
+        <v>44034</v>
       </c>
       <c r="B244" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="1">
-        <v>44037</v>
+        <v>44035</v>
       </c>
       <c r="B245" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="1">
-        <v>44038</v>
+        <v>44036</v>
       </c>
       <c r="B246" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="1">
-        <v>44039</v>
+        <v>44037</v>
       </c>
       <c r="B247" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="1">
-        <v>44040</v>
+        <v>44038</v>
       </c>
       <c r="B248" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="1">
-        <v>44041</v>
+        <v>44039</v>
       </c>
       <c r="B249" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="1">
-        <v>44042</v>
+        <v>44040</v>
       </c>
       <c r="B250" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="1">
-        <v>44043</v>
+        <v>44041</v>
       </c>
       <c r="B251" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="1">
-        <v>44044</v>
+        <v>44042</v>
       </c>
       <c r="B252" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="1">
-        <v>44045</v>
+        <v>44043</v>
       </c>
       <c r="B253" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="1">
-        <v>44046</v>
+        <v>44044</v>
       </c>
       <c r="B254" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="1">
-        <v>44047</v>
+        <v>44045</v>
       </c>
       <c r="B255" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="1">
-        <v>44048</v>
+        <v>44046</v>
       </c>
       <c r="B256" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="1">
-        <v>44049</v>
+        <v>44047</v>
       </c>
       <c r="B257" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="1">
-        <v>44050</v>
+        <v>44048</v>
       </c>
       <c r="B258" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="1">
-        <v>44051</v>
+        <v>44049</v>
       </c>
       <c r="B259" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="1">
-        <v>44052</v>
+        <v>44050</v>
       </c>
       <c r="B260" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="1">
-        <v>44053</v>
+        <v>44051</v>
       </c>
       <c r="B261" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="1">
-        <v>44054</v>
+        <v>44052</v>
       </c>
       <c r="B262" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="1">
-        <v>44055</v>
+        <v>44053</v>
       </c>
       <c r="B263" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="1">
-        <v>44056</v>
+        <v>44054</v>
       </c>
       <c r="B264" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="1">
-        <v>44057</v>
+        <v>44055</v>
       </c>
       <c r="B265" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="1">
-        <v>44058</v>
+        <v>44056</v>
       </c>
       <c r="B266" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="1">
-        <v>44059</v>
+        <v>44057</v>
       </c>
       <c r="B267" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="1">
-        <v>44060</v>
+        <v>44058</v>
       </c>
       <c r="B268" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="1">
-        <v>44061</v>
+        <v>44059</v>
       </c>
       <c r="B269" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="1">
-        <v>44062</v>
+        <v>44060</v>
       </c>
       <c r="B270" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="1">
-        <v>44063</v>
+        <v>44061</v>
       </c>
       <c r="B271" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="1">
-        <v>44064</v>
+        <v>44062</v>
       </c>
       <c r="B272" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="1">
-        <v>44065</v>
+        <v>44063</v>
       </c>
       <c r="B273" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="1">
-        <v>44066</v>
+        <v>44064</v>
       </c>
       <c r="B274" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="1">
-        <v>44067</v>
+        <v>44065</v>
       </c>
       <c r="B275" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="1">
-        <v>44068</v>
+        <v>44066</v>
       </c>
       <c r="B276" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="1">
-        <v>44069</v>
+        <v>44067</v>
       </c>
       <c r="B277" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="1">
-        <v>44070</v>
+        <v>44068</v>
       </c>
       <c r="B278" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="1">
-        <v>44071</v>
+        <v>44069</v>
       </c>
       <c r="B279" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="1">
-        <v>44072</v>
+        <v>44070</v>
       </c>
       <c r="B280" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="1">
-        <v>44073</v>
+        <v>44071</v>
       </c>
       <c r="B281" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="1">
-        <v>44074</v>
+        <v>44072</v>
       </c>
       <c r="B282" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="1">
-        <v>44075</v>
+        <v>44073</v>
       </c>
       <c r="B283" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="1">
-        <v>44076</v>
+        <v>44074</v>
       </c>
       <c r="B284" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="1">
-        <v>44077</v>
+        <v>44075</v>
       </c>
       <c r="B285" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="1">
-        <v>44078</v>
+        <v>44076</v>
       </c>
       <c r="B286" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="1">
-        <v>44079</v>
+        <v>44077</v>
       </c>
       <c r="B287" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="1">
-        <v>44080</v>
+        <v>44078</v>
       </c>
       <c r="B288" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="1">
-        <v>44081</v>
+        <v>44079</v>
       </c>
       <c r="B289" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="1">
-        <v>44082</v>
+        <v>44080</v>
       </c>
       <c r="B290" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="1">
-        <v>44083</v>
+        <v>44081</v>
       </c>
       <c r="B291" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="1">
-        <v>44084</v>
+        <v>44082</v>
       </c>
       <c r="B292" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="1">
-        <v>44085</v>
+        <v>44083</v>
       </c>
       <c r="B293" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="1">
-        <v>44086</v>
+        <v>44084</v>
       </c>
       <c r="B294" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="1">
-        <v>44087</v>
+        <v>44085</v>
       </c>
       <c r="B295" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="1">
-        <v>44088</v>
+        <v>44086</v>
       </c>
       <c r="B296" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="1">
-        <v>44089</v>
+        <v>44087</v>
       </c>
       <c r="B297" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="1">
-        <v>44090</v>
+        <v>44088</v>
       </c>
       <c r="B298" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="1">
-        <v>44091</v>
+        <v>44089</v>
       </c>
       <c r="B299" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="1">
-        <v>44092</v>
+        <v>44090</v>
       </c>
       <c r="B300" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="1">
-        <v>44093</v>
+        <v>44091</v>
       </c>
       <c r="B301" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="1">
-        <v>44094</v>
+        <v>44092</v>
       </c>
       <c r="B302" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="1">
-        <v>44095</v>
+        <v>44093</v>
       </c>
       <c r="B303" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="1">
-        <v>44096</v>
+        <v>44094</v>
       </c>
       <c r="B304" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="1">
-        <v>44097</v>
+        <v>44095</v>
       </c>
       <c r="B305" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="1">
-        <v>44098</v>
+        <v>44096</v>
       </c>
       <c r="B306" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="1">
-        <v>44099</v>
+        <v>44097</v>
       </c>
       <c r="B307" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="1">
-        <v>44100</v>
+        <v>44098</v>
       </c>
       <c r="B308" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="1">
-        <v>44101</v>
+        <v>44099</v>
       </c>
       <c r="B309" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="1">
-        <v>44102</v>
+        <v>44100</v>
       </c>
       <c r="B310" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="1">
-        <v>44103</v>
+        <v>44101</v>
       </c>
       <c r="B311" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="1">
-        <v>44104</v>
+        <v>44102</v>
       </c>
       <c r="B312" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="1">
-        <v>44105</v>
+        <v>44103</v>
       </c>
       <c r="B313" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="1">
-        <v>44106</v>
+        <v>44104</v>
       </c>
       <c r="B314" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="1">
-        <v>44107</v>
+        <v>44105</v>
       </c>
       <c r="B315" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="1">
-        <v>44108</v>
+        <v>44106</v>
       </c>
       <c r="B316" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="1">
-        <v>44109</v>
+        <v>44107</v>
       </c>
       <c r="B317" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="1">
-        <v>44110</v>
+        <v>44108</v>
       </c>
       <c r="B318" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="1">
-        <v>44111</v>
+        <v>44109</v>
       </c>
       <c r="B319" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="1">
-        <v>44112</v>
+        <v>44110</v>
       </c>
       <c r="B320" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="1">
-        <v>44113</v>
+        <v>44111</v>
       </c>
       <c r="B321" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="1">
-        <v>44114</v>
+        <v>44112</v>
       </c>
       <c r="B322" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="1">
-        <v>44115</v>
+        <v>44113</v>
       </c>
       <c r="B323" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="1">
-        <v>44116</v>
+        <v>44114</v>
       </c>
       <c r="B324" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="1">
-        <v>44117</v>
+        <v>44115</v>
       </c>
       <c r="B325" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="1">
-        <v>44118</v>
+        <v>44116</v>
       </c>
       <c r="B326" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="1">
-        <v>44119</v>
+        <v>44117</v>
       </c>
       <c r="B327" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="1">
-        <v>44120</v>
+        <v>44118</v>
       </c>
       <c r="B328" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="1">
-        <v>44121</v>
+        <v>44119</v>
       </c>
       <c r="B329" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="1">
-        <v>44122</v>
+        <v>44120</v>
       </c>
       <c r="B330" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="1">
-        <v>44123</v>
+        <v>44121</v>
       </c>
       <c r="B331" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="1">
-        <v>44124</v>
+        <v>44122</v>
       </c>
       <c r="B332" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="1">
-        <v>44125</v>
+        <v>44123</v>
       </c>
       <c r="B333" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="1">
-        <v>44126</v>
+        <v>44124</v>
       </c>
       <c r="B334" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="1">
-        <v>44127</v>
+        <v>44125</v>
       </c>
       <c r="B335" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="1">
-        <v>44128</v>
+        <v>44126</v>
       </c>
       <c r="B336" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="1">
-        <v>44129</v>
+        <v>44127</v>
       </c>
       <c r="B337" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="1">
-        <v>44130</v>
+        <v>44128</v>
       </c>
       <c r="B338" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="1">
-        <v>44131</v>
+        <v>44129</v>
       </c>
       <c r="B339" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="1">
-        <v>44132</v>
+        <v>44130</v>
       </c>
       <c r="B340" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="1">
-        <v>44133</v>
+        <v>44131</v>
       </c>
       <c r="B341" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="1">
-        <v>44134</v>
+        <v>44132</v>
       </c>
       <c r="B342" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="1">
-        <v>44135</v>
+        <v>44133</v>
       </c>
       <c r="B343" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="1">
-        <v>44136</v>
+        <v>44134</v>
       </c>
       <c r="B344" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="1">
-        <v>44137</v>
+        <v>44135</v>
       </c>
       <c r="B345" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="1">
-        <v>44138</v>
+        <v>44136</v>
       </c>
       <c r="B346" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="1">
-        <v>44139</v>
+        <v>44137</v>
       </c>
       <c r="B347" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="1">
-        <v>44140</v>
+        <v>44138</v>
       </c>
       <c r="B348" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="1">
-        <v>44141</v>
+        <v>44139</v>
       </c>
       <c r="B349" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="1">
-        <v>44142</v>
+        <v>44140</v>
       </c>
       <c r="B350" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="1">
-        <v>44143</v>
+        <v>44141</v>
       </c>
       <c r="B351" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="1">
-        <v>44144</v>
+        <v>44142</v>
       </c>
       <c r="B352" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="1">
-        <v>44145</v>
+        <v>44143</v>
       </c>
       <c r="B353" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="1">
-        <v>44146</v>
+        <v>44144</v>
       </c>
       <c r="B354" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="1">
-        <v>44147</v>
+        <v>44145</v>
       </c>
       <c r="B355" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="1">
-        <v>44148</v>
+        <v>44146</v>
       </c>
       <c r="B356" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="1">
-        <v>44149</v>
+        <v>44147</v>
       </c>
       <c r="B357" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="1">
-        <v>44150</v>
+        <v>44148</v>
       </c>
       <c r="B358" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="1">
-        <v>44151</v>
+        <v>44149</v>
       </c>
       <c r="B359" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="1">
-        <v>44152</v>
+        <v>44150</v>
       </c>
       <c r="B360" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="1">
-        <v>44153</v>
+        <v>44151</v>
       </c>
       <c r="B361" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="1">
-        <v>44154</v>
+        <v>44152</v>
       </c>
       <c r="B362" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="1">
-        <v>44155</v>
+        <v>44153</v>
       </c>
       <c r="B363" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="1">
-        <v>44156</v>
+        <v>44154</v>
       </c>
       <c r="B364" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="1">
-        <v>44157</v>
+        <v>44155</v>
       </c>
       <c r="B365" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="1">
-        <v>44158</v>
+        <v>44156</v>
       </c>
       <c r="B366" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="1">
-        <v>44159</v>
+        <v>44157</v>
       </c>
       <c r="B367" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="1">
-        <v>44160</v>
+        <v>44158</v>
       </c>
       <c r="B368" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="1">
-        <v>44161</v>
+        <v>44159</v>
       </c>
       <c r="B369" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="1">
-        <v>44162</v>
+        <v>44160</v>
       </c>
       <c r="B370" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="1">
-        <v>44163</v>
+        <v>44161</v>
       </c>
       <c r="B371" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="1">
-        <v>44164</v>
+        <v>44162</v>
       </c>
       <c r="B372" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="1">
-        <v>44165</v>
+        <v>44163</v>
       </c>
       <c r="B373" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="1">
-        <v>44166</v>
+        <v>44164</v>
       </c>
       <c r="B374" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="1">
-        <v>44167</v>
+        <v>44165</v>
       </c>
       <c r="B375" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="1">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="B376" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="1">
-        <v>44169</v>
+        <v>44167</v>
       </c>
       <c r="B377" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="1">
-        <v>44170</v>
+        <v>44168</v>
       </c>
       <c r="B378" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="1">
-        <v>44171</v>
+        <v>44169</v>
       </c>
       <c r="B379" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="1">
-        <v>44172</v>
+        <v>44170</v>
       </c>
       <c r="B380" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="1">
-        <v>44173</v>
+        <v>44171</v>
       </c>
       <c r="B381" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="1">
-        <v>44174</v>
+        <v>44172</v>
       </c>
       <c r="B382" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="1">
-        <v>44175</v>
+        <v>44173</v>
       </c>
       <c r="B383" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="1">
-        <v>44176</v>
+        <v>44174</v>
       </c>
       <c r="B384" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="1">
-        <v>44177</v>
+        <v>44175</v>
       </c>
       <c r="B385" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="1">
-        <v>44178</v>
+        <v>44176</v>
       </c>
       <c r="B386" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="1">
-        <v>44179</v>
+        <v>44177</v>
       </c>
       <c r="B387" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="1">
-        <v>44180</v>
+        <v>44178</v>
       </c>
       <c r="B388" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="1">
-        <v>44181</v>
+        <v>44179</v>
       </c>
       <c r="B389" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="1">
-        <v>44182</v>
+        <v>44180</v>
       </c>
       <c r="B390" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="1">
-        <v>44183</v>
+        <v>44181</v>
       </c>
       <c r="B391" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="1">
-        <v>44184</v>
+        <v>44182</v>
       </c>
       <c r="B392" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="1">
-        <v>44185</v>
+        <v>44183</v>
       </c>
       <c r="B393" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="1">
-        <v>44186</v>
+        <v>44184</v>
       </c>
       <c r="B394" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="1">
-        <v>44187</v>
+        <v>44185</v>
       </c>
       <c r="B395" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="1">
-        <v>44188</v>
+        <v>44186</v>
       </c>
       <c r="B396" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="1">
-        <v>44189</v>
+        <v>44187</v>
       </c>
       <c r="B397" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="1">
-        <v>44190</v>
+        <v>44188</v>
       </c>
       <c r="B398" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="1">
-        <v>44191</v>
+        <v>44189</v>
       </c>
       <c r="B399" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="1">
-        <v>44192</v>
+        <v>44190</v>
       </c>
       <c r="B400" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="1">
-        <v>44193</v>
+        <v>44191</v>
       </c>
       <c r="B401" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="1">
-        <v>44194</v>
+        <v>44192</v>
       </c>
       <c r="B402" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="1">
-        <v>44195</v>
+        <v>44193</v>
       </c>
       <c r="B403" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="1">
+        <v>44194</v>
+      </c>
+      <c r="B404" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2">
+      <c r="A405" s="1">
+        <v>44195</v>
+      </c>
+      <c r="B405" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2">
+      <c r="A406" s="1">
         <v>44196</v>
       </c>
-      <c r="B404" t="s">
+      <c r="B406" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6415,9 +6464,10 @@
     <hyperlink ref="C144" r:id="rId44"/>
     <hyperlink ref="C147" r:id="rId45"/>
     <hyperlink ref="C148" r:id="rId46"/>
+    <hyperlink ref="C166" r:id="rId47"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId47"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId48"/>
 </worksheet>
 </file>
 
@@ -6425,8 +6475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F131"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7189,6 +7239,20 @@
         <v>132</v>
       </c>
       <c r="D58" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>364</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="C59" t="s">
+        <v>132</v>
+      </c>
+      <c r="D59" t="s">
         <v>286</v>
       </c>
     </row>

--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="По задачам" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="368">
   <si>
     <t>Дата начала</t>
   </si>
@@ -1247,6 +1247,12 @@
   </si>
   <si>
     <t>JavaScript - Асинхронные функции (async/await)</t>
+  </si>
+  <si>
+    <t>Лучший слайдер для сайта на чистом JS! Подробный обзор плагина Swiper js</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OjVK055CTNI</t>
   </si>
 </sst>
 </file>
@@ -1635,10 +1641,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58:D61"/>
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2520,6 +2526,17 @@
       </c>
       <c r="C75" s="8" t="s">
         <v>365</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B76" s="1">
+        <v>43958</v>
+      </c>
+      <c r="C76" t="s">
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -2536,10 +2553,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D406"/>
+  <dimension ref="A1:D407"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="C167" sqref="C167:D168"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="C170" sqref="C170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4513,1906 +4530,1915 @@
       </c>
     </row>
     <row r="169" spans="1:4">
-      <c r="A169" s="1">
-        <v>43959</v>
-      </c>
-      <c r="B169" t="s">
-        <v>14</v>
+      <c r="A169" s="1"/>
+      <c r="C169" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D169" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="1">
-        <v>43960</v>
+        <v>43959</v>
       </c>
       <c r="B170" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="1">
-        <v>43961</v>
+        <v>43960</v>
       </c>
       <c r="B171" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="1">
-        <v>43962</v>
+        <v>43961</v>
       </c>
       <c r="B172" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="1">
-        <v>43963</v>
+        <v>43962</v>
       </c>
       <c r="B173" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="1">
-        <v>43964</v>
+        <v>43963</v>
       </c>
       <c r="B174" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="1">
-        <v>43965</v>
+        <v>43964</v>
       </c>
       <c r="B175" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="1">
-        <v>43966</v>
+        <v>43965</v>
       </c>
       <c r="B176" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="1">
-        <v>43967</v>
+        <v>43966</v>
       </c>
       <c r="B177" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="1">
-        <v>43968</v>
+        <v>43967</v>
       </c>
       <c r="B178" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="1">
-        <v>43969</v>
+        <v>43968</v>
       </c>
       <c r="B179" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="1">
-        <v>43970</v>
+        <v>43969</v>
       </c>
       <c r="B180" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="1">
-        <v>43971</v>
+        <v>43970</v>
       </c>
       <c r="B181" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="1">
-        <v>43972</v>
+        <v>43971</v>
       </c>
       <c r="B182" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="1">
-        <v>43973</v>
+        <v>43972</v>
       </c>
       <c r="B183" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="1">
-        <v>43974</v>
+        <v>43973</v>
       </c>
       <c r="B184" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="1">
-        <v>43975</v>
+        <v>43974</v>
       </c>
       <c r="B185" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="1">
-        <v>43976</v>
+        <v>43975</v>
       </c>
       <c r="B186" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="1">
-        <v>43977</v>
+        <v>43976</v>
       </c>
       <c r="B187" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="1">
-        <v>43978</v>
+        <v>43977</v>
       </c>
       <c r="B188" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="1">
-        <v>43979</v>
+        <v>43978</v>
       </c>
       <c r="B189" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="1">
-        <v>43980</v>
+        <v>43979</v>
       </c>
       <c r="B190" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="1">
-        <v>43981</v>
+        <v>43980</v>
       </c>
       <c r="B191" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="1">
-        <v>43982</v>
+        <v>43981</v>
       </c>
       <c r="B192" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="1">
-        <v>43983</v>
+        <v>43982</v>
       </c>
       <c r="B193" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="1">
-        <v>43984</v>
+        <v>43983</v>
       </c>
       <c r="B194" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="1">
-        <v>43985</v>
+        <v>43984</v>
       </c>
       <c r="B195" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="1">
-        <v>43986</v>
+        <v>43985</v>
       </c>
       <c r="B196" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="1">
-        <v>43987</v>
+        <v>43986</v>
       </c>
       <c r="B197" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="1">
-        <v>43988</v>
+        <v>43987</v>
       </c>
       <c r="B198" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="1">
-        <v>43989</v>
+        <v>43988</v>
       </c>
       <c r="B199" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="1">
-        <v>43990</v>
+        <v>43989</v>
       </c>
       <c r="B200" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="1">
-        <v>43991</v>
+        <v>43990</v>
       </c>
       <c r="B201" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="1">
-        <v>43992</v>
+        <v>43991</v>
       </c>
       <c r="B202" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="1">
-        <v>43993</v>
+        <v>43992</v>
       </c>
       <c r="B203" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="1">
-        <v>43994</v>
+        <v>43993</v>
       </c>
       <c r="B204" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="1">
-        <v>43995</v>
+        <v>43994</v>
       </c>
       <c r="B205" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="1">
-        <v>43996</v>
+        <v>43995</v>
       </c>
       <c r="B206" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="1">
-        <v>43997</v>
+        <v>43996</v>
       </c>
       <c r="B207" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="1">
-        <v>43998</v>
+        <v>43997</v>
       </c>
       <c r="B208" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="1">
-        <v>43999</v>
+        <v>43998</v>
       </c>
       <c r="B209" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="1">
-        <v>44000</v>
+        <v>43999</v>
       </c>
       <c r="B210" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="1">
-        <v>44001</v>
+        <v>44000</v>
       </c>
       <c r="B211" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="1">
-        <v>44002</v>
+        <v>44001</v>
       </c>
       <c r="B212" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="1">
-        <v>44003</v>
+        <v>44002</v>
       </c>
       <c r="B213" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="1">
-        <v>44004</v>
+        <v>44003</v>
       </c>
       <c r="B214" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="1">
-        <v>44005</v>
+        <v>44004</v>
       </c>
       <c r="B215" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="1">
-        <v>44006</v>
+        <v>44005</v>
       </c>
       <c r="B216" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="1">
-        <v>44007</v>
+        <v>44006</v>
       </c>
       <c r="B217" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="1">
-        <v>44008</v>
+        <v>44007</v>
       </c>
       <c r="B218" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="1">
-        <v>44009</v>
+        <v>44008</v>
       </c>
       <c r="B219" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="1">
-        <v>44010</v>
+        <v>44009</v>
       </c>
       <c r="B220" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="1">
-        <v>44011</v>
+        <v>44010</v>
       </c>
       <c r="B221" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="1">
-        <v>44012</v>
+        <v>44011</v>
       </c>
       <c r="B222" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="1">
-        <v>44013</v>
+        <v>44012</v>
       </c>
       <c r="B223" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="1">
-        <v>44014</v>
+        <v>44013</v>
       </c>
       <c r="B224" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="1">
-        <v>44015</v>
+        <v>44014</v>
       </c>
       <c r="B225" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="1">
-        <v>44016</v>
+        <v>44015</v>
       </c>
       <c r="B226" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="1">
-        <v>44017</v>
+        <v>44016</v>
       </c>
       <c r="B227" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="1">
-        <v>44018</v>
+        <v>44017</v>
       </c>
       <c r="B228" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="1">
-        <v>44019</v>
+        <v>44018</v>
       </c>
       <c r="B229" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="1">
-        <v>44020</v>
+        <v>44019</v>
       </c>
       <c r="B230" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="1">
-        <v>44021</v>
+        <v>44020</v>
       </c>
       <c r="B231" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="1">
-        <v>44022</v>
+        <v>44021</v>
       </c>
       <c r="B232" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="1">
-        <v>44023</v>
+        <v>44022</v>
       </c>
       <c r="B233" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="1">
-        <v>44024</v>
+        <v>44023</v>
       </c>
       <c r="B234" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="1">
-        <v>44025</v>
+        <v>44024</v>
       </c>
       <c r="B235" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="1">
-        <v>44026</v>
+        <v>44025</v>
       </c>
       <c r="B236" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="1">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B237" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="1">
-        <v>44028</v>
+        <v>44027</v>
       </c>
       <c r="B238" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="1">
-        <v>44029</v>
+        <v>44028</v>
       </c>
       <c r="B239" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="1">
-        <v>44030</v>
+        <v>44029</v>
       </c>
       <c r="B240" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="1">
-        <v>44031</v>
+        <v>44030</v>
       </c>
       <c r="B241" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="1">
-        <v>44032</v>
+        <v>44031</v>
       </c>
       <c r="B242" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="1">
-        <v>44033</v>
+        <v>44032</v>
       </c>
       <c r="B243" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="1">
-        <v>44034</v>
+        <v>44033</v>
       </c>
       <c r="B244" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="1">
-        <v>44035</v>
+        <v>44034</v>
       </c>
       <c r="B245" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="1">
-        <v>44036</v>
+        <v>44035</v>
       </c>
       <c r="B246" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="1">
-        <v>44037</v>
+        <v>44036</v>
       </c>
       <c r="B247" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="1">
-        <v>44038</v>
+        <v>44037</v>
       </c>
       <c r="B248" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="1">
-        <v>44039</v>
+        <v>44038</v>
       </c>
       <c r="B249" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="1">
-        <v>44040</v>
+        <v>44039</v>
       </c>
       <c r="B250" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="1">
-        <v>44041</v>
+        <v>44040</v>
       </c>
       <c r="B251" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="1">
-        <v>44042</v>
+        <v>44041</v>
       </c>
       <c r="B252" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="1">
-        <v>44043</v>
+        <v>44042</v>
       </c>
       <c r="B253" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="1">
-        <v>44044</v>
+        <v>44043</v>
       </c>
       <c r="B254" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="1">
-        <v>44045</v>
+        <v>44044</v>
       </c>
       <c r="B255" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="1">
-        <v>44046</v>
+        <v>44045</v>
       </c>
       <c r="B256" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="1">
-        <v>44047</v>
+        <v>44046</v>
       </c>
       <c r="B257" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="1">
-        <v>44048</v>
+        <v>44047</v>
       </c>
       <c r="B258" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="1">
-        <v>44049</v>
+        <v>44048</v>
       </c>
       <c r="B259" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="1">
-        <v>44050</v>
+        <v>44049</v>
       </c>
       <c r="B260" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="1">
-        <v>44051</v>
+        <v>44050</v>
       </c>
       <c r="B261" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="1">
-        <v>44052</v>
+        <v>44051</v>
       </c>
       <c r="B262" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="1">
-        <v>44053</v>
+        <v>44052</v>
       </c>
       <c r="B263" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="1">
-        <v>44054</v>
+        <v>44053</v>
       </c>
       <c r="B264" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="1">
-        <v>44055</v>
+        <v>44054</v>
       </c>
       <c r="B265" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="1">
-        <v>44056</v>
+        <v>44055</v>
       </c>
       <c r="B266" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="1">
-        <v>44057</v>
+        <v>44056</v>
       </c>
       <c r="B267" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="1">
-        <v>44058</v>
+        <v>44057</v>
       </c>
       <c r="B268" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="1">
-        <v>44059</v>
+        <v>44058</v>
       </c>
       <c r="B269" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="1">
-        <v>44060</v>
+        <v>44059</v>
       </c>
       <c r="B270" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="1">
-        <v>44061</v>
+        <v>44060</v>
       </c>
       <c r="B271" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="1">
-        <v>44062</v>
+        <v>44061</v>
       </c>
       <c r="B272" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="1">
-        <v>44063</v>
+        <v>44062</v>
       </c>
       <c r="B273" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="1">
-        <v>44064</v>
+        <v>44063</v>
       </c>
       <c r="B274" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="1">
-        <v>44065</v>
+        <v>44064</v>
       </c>
       <c r="B275" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="1">
-        <v>44066</v>
+        <v>44065</v>
       </c>
       <c r="B276" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="1">
-        <v>44067</v>
+        <v>44066</v>
       </c>
       <c r="B277" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="1">
-        <v>44068</v>
+        <v>44067</v>
       </c>
       <c r="B278" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="1">
-        <v>44069</v>
+        <v>44068</v>
       </c>
       <c r="B279" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="1">
-        <v>44070</v>
+        <v>44069</v>
       </c>
       <c r="B280" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="1">
-        <v>44071</v>
+        <v>44070</v>
       </c>
       <c r="B281" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="1">
-        <v>44072</v>
+        <v>44071</v>
       </c>
       <c r="B282" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="1">
-        <v>44073</v>
+        <v>44072</v>
       </c>
       <c r="B283" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="1">
-        <v>44074</v>
+        <v>44073</v>
       </c>
       <c r="B284" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="1">
-        <v>44075</v>
+        <v>44074</v>
       </c>
       <c r="B285" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="1">
-        <v>44076</v>
+        <v>44075</v>
       </c>
       <c r="B286" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="1">
-        <v>44077</v>
+        <v>44076</v>
       </c>
       <c r="B287" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="1">
-        <v>44078</v>
+        <v>44077</v>
       </c>
       <c r="B288" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="1">
-        <v>44079</v>
+        <v>44078</v>
       </c>
       <c r="B289" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="1">
-        <v>44080</v>
+        <v>44079</v>
       </c>
       <c r="B290" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="1">
-        <v>44081</v>
+        <v>44080</v>
       </c>
       <c r="B291" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="1">
-        <v>44082</v>
+        <v>44081</v>
       </c>
       <c r="B292" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="1">
-        <v>44083</v>
+        <v>44082</v>
       </c>
       <c r="B293" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="1">
-        <v>44084</v>
+        <v>44083</v>
       </c>
       <c r="B294" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="1">
-        <v>44085</v>
+        <v>44084</v>
       </c>
       <c r="B295" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="1">
-        <v>44086</v>
+        <v>44085</v>
       </c>
       <c r="B296" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="1">
-        <v>44087</v>
+        <v>44086</v>
       </c>
       <c r="B297" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="1">
-        <v>44088</v>
+        <v>44087</v>
       </c>
       <c r="B298" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="1">
-        <v>44089</v>
+        <v>44088</v>
       </c>
       <c r="B299" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="1">
-        <v>44090</v>
+        <v>44089</v>
       </c>
       <c r="B300" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="1">
-        <v>44091</v>
+        <v>44090</v>
       </c>
       <c r="B301" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="1">
-        <v>44092</v>
+        <v>44091</v>
       </c>
       <c r="B302" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="1">
-        <v>44093</v>
+        <v>44092</v>
       </c>
       <c r="B303" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="1">
-        <v>44094</v>
+        <v>44093</v>
       </c>
       <c r="B304" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="1">
-        <v>44095</v>
+        <v>44094</v>
       </c>
       <c r="B305" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="1">
-        <v>44096</v>
+        <v>44095</v>
       </c>
       <c r="B306" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="1">
-        <v>44097</v>
+        <v>44096</v>
       </c>
       <c r="B307" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="1">
-        <v>44098</v>
+        <v>44097</v>
       </c>
       <c r="B308" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="1">
-        <v>44099</v>
+        <v>44098</v>
       </c>
       <c r="B309" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="1">
-        <v>44100</v>
+        <v>44099</v>
       </c>
       <c r="B310" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="1">
-        <v>44101</v>
+        <v>44100</v>
       </c>
       <c r="B311" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="1">
-        <v>44102</v>
+        <v>44101</v>
       </c>
       <c r="B312" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="1">
-        <v>44103</v>
+        <v>44102</v>
       </c>
       <c r="B313" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="1">
-        <v>44104</v>
+        <v>44103</v>
       </c>
       <c r="B314" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="1">
-        <v>44105</v>
+        <v>44104</v>
       </c>
       <c r="B315" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="1">
-        <v>44106</v>
+        <v>44105</v>
       </c>
       <c r="B316" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="1">
-        <v>44107</v>
+        <v>44106</v>
       </c>
       <c r="B317" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="1">
-        <v>44108</v>
+        <v>44107</v>
       </c>
       <c r="B318" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="1">
-        <v>44109</v>
+        <v>44108</v>
       </c>
       <c r="B319" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="1">
-        <v>44110</v>
+        <v>44109</v>
       </c>
       <c r="B320" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="1">
-        <v>44111</v>
+        <v>44110</v>
       </c>
       <c r="B321" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="1">
-        <v>44112</v>
+        <v>44111</v>
       </c>
       <c r="B322" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="1">
-        <v>44113</v>
+        <v>44112</v>
       </c>
       <c r="B323" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="1">
-        <v>44114</v>
+        <v>44113</v>
       </c>
       <c r="B324" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="1">
-        <v>44115</v>
+        <v>44114</v>
       </c>
       <c r="B325" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="1">
-        <v>44116</v>
+        <v>44115</v>
       </c>
       <c r="B326" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="1">
-        <v>44117</v>
+        <v>44116</v>
       </c>
       <c r="B327" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="1">
-        <v>44118</v>
+        <v>44117</v>
       </c>
       <c r="B328" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="1">
-        <v>44119</v>
+        <v>44118</v>
       </c>
       <c r="B329" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="1">
-        <v>44120</v>
+        <v>44119</v>
       </c>
       <c r="B330" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="1">
-        <v>44121</v>
+        <v>44120</v>
       </c>
       <c r="B331" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="1">
-        <v>44122</v>
+        <v>44121</v>
       </c>
       <c r="B332" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="1">
-        <v>44123</v>
+        <v>44122</v>
       </c>
       <c r="B333" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="1">
-        <v>44124</v>
+        <v>44123</v>
       </c>
       <c r="B334" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="1">
-        <v>44125</v>
+        <v>44124</v>
       </c>
       <c r="B335" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="1">
-        <v>44126</v>
+        <v>44125</v>
       </c>
       <c r="B336" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="1">
-        <v>44127</v>
+        <v>44126</v>
       </c>
       <c r="B337" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="1">
-        <v>44128</v>
+        <v>44127</v>
       </c>
       <c r="B338" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="1">
-        <v>44129</v>
+        <v>44128</v>
       </c>
       <c r="B339" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="1">
-        <v>44130</v>
+        <v>44129</v>
       </c>
       <c r="B340" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="1">
-        <v>44131</v>
+        <v>44130</v>
       </c>
       <c r="B341" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="1">
-        <v>44132</v>
+        <v>44131</v>
       </c>
       <c r="B342" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="1">
-        <v>44133</v>
+        <v>44132</v>
       </c>
       <c r="B343" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="1">
-        <v>44134</v>
+        <v>44133</v>
       </c>
       <c r="B344" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="1">
-        <v>44135</v>
+        <v>44134</v>
       </c>
       <c r="B345" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="1">
-        <v>44136</v>
+        <v>44135</v>
       </c>
       <c r="B346" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="1">
-        <v>44137</v>
+        <v>44136</v>
       </c>
       <c r="B347" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="1">
-        <v>44138</v>
+        <v>44137</v>
       </c>
       <c r="B348" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="1">
-        <v>44139</v>
+        <v>44138</v>
       </c>
       <c r="B349" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="1">
-        <v>44140</v>
+        <v>44139</v>
       </c>
       <c r="B350" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="1">
-        <v>44141</v>
+        <v>44140</v>
       </c>
       <c r="B351" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="1">
-        <v>44142</v>
+        <v>44141</v>
       </c>
       <c r="B352" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="1">
-        <v>44143</v>
+        <v>44142</v>
       </c>
       <c r="B353" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="1">
-        <v>44144</v>
+        <v>44143</v>
       </c>
       <c r="B354" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="1">
-        <v>44145</v>
+        <v>44144</v>
       </c>
       <c r="B355" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="1">
-        <v>44146</v>
+        <v>44145</v>
       </c>
       <c r="B356" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="1">
-        <v>44147</v>
+        <v>44146</v>
       </c>
       <c r="B357" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="1">
-        <v>44148</v>
+        <v>44147</v>
       </c>
       <c r="B358" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="1">
-        <v>44149</v>
+        <v>44148</v>
       </c>
       <c r="B359" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="1">
-        <v>44150</v>
+        <v>44149</v>
       </c>
       <c r="B360" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="1">
-        <v>44151</v>
+        <v>44150</v>
       </c>
       <c r="B361" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="1">
-        <v>44152</v>
+        <v>44151</v>
       </c>
       <c r="B362" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="1">
-        <v>44153</v>
+        <v>44152</v>
       </c>
       <c r="B363" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="1">
-        <v>44154</v>
+        <v>44153</v>
       </c>
       <c r="B364" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="1">
-        <v>44155</v>
+        <v>44154</v>
       </c>
       <c r="B365" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="1">
-        <v>44156</v>
+        <v>44155</v>
       </c>
       <c r="B366" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="1">
-        <v>44157</v>
+        <v>44156</v>
       </c>
       <c r="B367" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="1">
-        <v>44158</v>
+        <v>44157</v>
       </c>
       <c r="B368" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="1">
-        <v>44159</v>
+        <v>44158</v>
       </c>
       <c r="B369" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="1">
-        <v>44160</v>
+        <v>44159</v>
       </c>
       <c r="B370" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="1">
-        <v>44161</v>
+        <v>44160</v>
       </c>
       <c r="B371" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="1">
-        <v>44162</v>
+        <v>44161</v>
       </c>
       <c r="B372" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="1">
-        <v>44163</v>
+        <v>44162</v>
       </c>
       <c r="B373" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="1">
-        <v>44164</v>
+        <v>44163</v>
       </c>
       <c r="B374" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="1">
-        <v>44165</v>
+        <v>44164</v>
       </c>
       <c r="B375" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="1">
-        <v>44166</v>
+        <v>44165</v>
       </c>
       <c r="B376" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="1">
-        <v>44167</v>
+        <v>44166</v>
       </c>
       <c r="B377" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="1">
-        <v>44168</v>
+        <v>44167</v>
       </c>
       <c r="B378" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="1">
-        <v>44169</v>
+        <v>44168</v>
       </c>
       <c r="B379" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="1">
-        <v>44170</v>
+        <v>44169</v>
       </c>
       <c r="B380" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="1">
-        <v>44171</v>
+        <v>44170</v>
       </c>
       <c r="B381" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="1">
-        <v>44172</v>
+        <v>44171</v>
       </c>
       <c r="B382" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="1">
-        <v>44173</v>
+        <v>44172</v>
       </c>
       <c r="B383" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="1">
-        <v>44174</v>
+        <v>44173</v>
       </c>
       <c r="B384" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="1">
-        <v>44175</v>
+        <v>44174</v>
       </c>
       <c r="B385" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="1">
-        <v>44176</v>
+        <v>44175</v>
       </c>
       <c r="B386" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="1">
-        <v>44177</v>
+        <v>44176</v>
       </c>
       <c r="B387" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="1">
-        <v>44178</v>
+        <v>44177</v>
       </c>
       <c r="B388" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="1">
-        <v>44179</v>
+        <v>44178</v>
       </c>
       <c r="B389" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="1">
-        <v>44180</v>
+        <v>44179</v>
       </c>
       <c r="B390" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="1">
-        <v>44181</v>
+        <v>44180</v>
       </c>
       <c r="B391" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="1">
-        <v>44182</v>
+        <v>44181</v>
       </c>
       <c r="B392" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="1">
-        <v>44183</v>
+        <v>44182</v>
       </c>
       <c r="B393" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="1">
-        <v>44184</v>
+        <v>44183</v>
       </c>
       <c r="B394" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="1">
-        <v>44185</v>
+        <v>44184</v>
       </c>
       <c r="B395" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="1">
-        <v>44186</v>
+        <v>44185</v>
       </c>
       <c r="B396" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="1">
-        <v>44187</v>
+        <v>44186</v>
       </c>
       <c r="B397" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="1">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="B398" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="1">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="B399" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="1">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="B400" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="1">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="B401" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="1">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="B402" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="1">
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="B403" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="1">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="B404" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="1">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B405" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="1">
+        <v>44195</v>
+      </c>
+      <c r="B406" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2">
+      <c r="A407" s="1">
         <v>44196</v>
       </c>
-      <c r="B406" t="s">
+      <c r="B407" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6465,9 +6491,10 @@
     <hyperlink ref="C147" r:id="rId45"/>
     <hyperlink ref="C148" r:id="rId46"/>
     <hyperlink ref="C166" r:id="rId47"/>
+    <hyperlink ref="C169" r:id="rId48"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId48"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId49"/>
 </worksheet>
 </file>
 
@@ -6475,8 +6502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7253,6 +7280,17 @@
         <v>132</v>
       </c>
       <c r="D59" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="30">
+      <c r="B60" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="C60" t="s">
+        <v>132</v>
+      </c>
+      <c r="D60" t="s">
         <v>286</v>
       </c>
     </row>

--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="По задачам" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="368">
   <si>
     <t>Дата начала</t>
   </si>
@@ -2553,10 +2553,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D407"/>
+  <dimension ref="A1:D408"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="C170" sqref="C170"/>
+    <sheetView topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="C172" sqref="C172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4545,1900 +4545,1915 @@
       <c r="B170" t="s">
         <v>14</v>
       </c>
+      <c r="C170" t="s">
+        <v>327</v>
+      </c>
+      <c r="D170" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="171" spans="1:4">
-      <c r="A171" s="1">
-        <v>43960</v>
-      </c>
-      <c r="B171" t="s">
-        <v>15</v>
+      <c r="A171" s="1"/>
+      <c r="C171" t="s">
+        <v>329</v>
+      </c>
+      <c r="D171" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="1">
-        <v>43961</v>
+        <v>43960</v>
       </c>
       <c r="B172" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="1">
-        <v>43962</v>
+        <v>43961</v>
       </c>
       <c r="B173" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="1">
-        <v>43963</v>
+        <v>43962</v>
       </c>
       <c r="B174" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="1">
-        <v>43964</v>
+        <v>43963</v>
       </c>
       <c r="B175" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="1">
-        <v>43965</v>
+        <v>43964</v>
       </c>
       <c r="B176" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="1">
-        <v>43966</v>
+        <v>43965</v>
       </c>
       <c r="B177" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="1">
-        <v>43967</v>
+        <v>43966</v>
       </c>
       <c r="B178" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="1">
-        <v>43968</v>
+        <v>43967</v>
       </c>
       <c r="B179" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="1">
-        <v>43969</v>
+        <v>43968</v>
       </c>
       <c r="B180" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="1">
-        <v>43970</v>
+        <v>43969</v>
       </c>
       <c r="B181" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="1">
-        <v>43971</v>
+        <v>43970</v>
       </c>
       <c r="B182" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="1">
-        <v>43972</v>
+        <v>43971</v>
       </c>
       <c r="B183" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="1">
-        <v>43973</v>
+        <v>43972</v>
       </c>
       <c r="B184" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="1">
-        <v>43974</v>
+        <v>43973</v>
       </c>
       <c r="B185" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="1">
-        <v>43975</v>
+        <v>43974</v>
       </c>
       <c r="B186" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="1">
-        <v>43976</v>
+        <v>43975</v>
       </c>
       <c r="B187" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="1">
-        <v>43977</v>
+        <v>43976</v>
       </c>
       <c r="B188" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="1">
-        <v>43978</v>
+        <v>43977</v>
       </c>
       <c r="B189" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="1">
-        <v>43979</v>
+        <v>43978</v>
       </c>
       <c r="B190" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="1">
-        <v>43980</v>
+        <v>43979</v>
       </c>
       <c r="B191" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="1">
-        <v>43981</v>
+        <v>43980</v>
       </c>
       <c r="B192" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="1">
-        <v>43982</v>
+        <v>43981</v>
       </c>
       <c r="B193" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="1">
-        <v>43983</v>
+        <v>43982</v>
       </c>
       <c r="B194" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="1">
-        <v>43984</v>
+        <v>43983</v>
       </c>
       <c r="B195" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="1">
-        <v>43985</v>
+        <v>43984</v>
       </c>
       <c r="B196" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="1">
-        <v>43986</v>
+        <v>43985</v>
       </c>
       <c r="B197" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="1">
-        <v>43987</v>
+        <v>43986</v>
       </c>
       <c r="B198" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="1">
-        <v>43988</v>
+        <v>43987</v>
       </c>
       <c r="B199" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="1">
-        <v>43989</v>
+        <v>43988</v>
       </c>
       <c r="B200" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="1">
-        <v>43990</v>
+        <v>43989</v>
       </c>
       <c r="B201" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="1">
-        <v>43991</v>
+        <v>43990</v>
       </c>
       <c r="B202" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="1">
-        <v>43992</v>
+        <v>43991</v>
       </c>
       <c r="B203" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="1">
-        <v>43993</v>
+        <v>43992</v>
       </c>
       <c r="B204" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="1">
-        <v>43994</v>
+        <v>43993</v>
       </c>
       <c r="B205" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="1">
-        <v>43995</v>
+        <v>43994</v>
       </c>
       <c r="B206" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="1">
-        <v>43996</v>
+        <v>43995</v>
       </c>
       <c r="B207" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="1">
-        <v>43997</v>
+        <v>43996</v>
       </c>
       <c r="B208" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="1">
-        <v>43998</v>
+        <v>43997</v>
       </c>
       <c r="B209" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="1">
-        <v>43999</v>
+        <v>43998</v>
       </c>
       <c r="B210" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="1">
-        <v>44000</v>
+        <v>43999</v>
       </c>
       <c r="B211" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="1">
-        <v>44001</v>
+        <v>44000</v>
       </c>
       <c r="B212" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="1">
-        <v>44002</v>
+        <v>44001</v>
       </c>
       <c r="B213" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="1">
-        <v>44003</v>
+        <v>44002</v>
       </c>
       <c r="B214" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="1">
-        <v>44004</v>
+        <v>44003</v>
       </c>
       <c r="B215" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="1">
-        <v>44005</v>
+        <v>44004</v>
       </c>
       <c r="B216" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="1">
-        <v>44006</v>
+        <v>44005</v>
       </c>
       <c r="B217" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="1">
-        <v>44007</v>
+        <v>44006</v>
       </c>
       <c r="B218" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="1">
-        <v>44008</v>
+        <v>44007</v>
       </c>
       <c r="B219" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="1">
-        <v>44009</v>
+        <v>44008</v>
       </c>
       <c r="B220" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="1">
-        <v>44010</v>
+        <v>44009</v>
       </c>
       <c r="B221" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="1">
-        <v>44011</v>
+        <v>44010</v>
       </c>
       <c r="B222" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="1">
-        <v>44012</v>
+        <v>44011</v>
       </c>
       <c r="B223" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="1">
-        <v>44013</v>
+        <v>44012</v>
       </c>
       <c r="B224" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="1">
-        <v>44014</v>
+        <v>44013</v>
       </c>
       <c r="B225" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="1">
-        <v>44015</v>
+        <v>44014</v>
       </c>
       <c r="B226" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="1">
-        <v>44016</v>
+        <v>44015</v>
       </c>
       <c r="B227" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="1">
-        <v>44017</v>
+        <v>44016</v>
       </c>
       <c r="B228" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="1">
-        <v>44018</v>
+        <v>44017</v>
       </c>
       <c r="B229" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="1">
-        <v>44019</v>
+        <v>44018</v>
       </c>
       <c r="B230" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="1">
-        <v>44020</v>
+        <v>44019</v>
       </c>
       <c r="B231" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="1">
-        <v>44021</v>
+        <v>44020</v>
       </c>
       <c r="B232" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="1">
-        <v>44022</v>
+        <v>44021</v>
       </c>
       <c r="B233" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="1">
-        <v>44023</v>
+        <v>44022</v>
       </c>
       <c r="B234" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="1">
-        <v>44024</v>
+        <v>44023</v>
       </c>
       <c r="B235" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="1">
-        <v>44025</v>
+        <v>44024</v>
       </c>
       <c r="B236" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="1">
-        <v>44026</v>
+        <v>44025</v>
       </c>
       <c r="B237" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="1">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B238" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="1">
-        <v>44028</v>
+        <v>44027</v>
       </c>
       <c r="B239" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="1">
-        <v>44029</v>
+        <v>44028</v>
       </c>
       <c r="B240" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="1">
-        <v>44030</v>
+        <v>44029</v>
       </c>
       <c r="B241" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="1">
-        <v>44031</v>
+        <v>44030</v>
       </c>
       <c r="B242" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="1">
-        <v>44032</v>
+        <v>44031</v>
       </c>
       <c r="B243" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="1">
-        <v>44033</v>
+        <v>44032</v>
       </c>
       <c r="B244" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="1">
-        <v>44034</v>
+        <v>44033</v>
       </c>
       <c r="B245" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="1">
-        <v>44035</v>
+        <v>44034</v>
       </c>
       <c r="B246" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="1">
-        <v>44036</v>
+        <v>44035</v>
       </c>
       <c r="B247" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="1">
-        <v>44037</v>
+        <v>44036</v>
       </c>
       <c r="B248" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="1">
-        <v>44038</v>
+        <v>44037</v>
       </c>
       <c r="B249" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="1">
-        <v>44039</v>
+        <v>44038</v>
       </c>
       <c r="B250" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="1">
-        <v>44040</v>
+        <v>44039</v>
       </c>
       <c r="B251" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="1">
-        <v>44041</v>
+        <v>44040</v>
       </c>
       <c r="B252" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="1">
-        <v>44042</v>
+        <v>44041</v>
       </c>
       <c r="B253" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="1">
-        <v>44043</v>
+        <v>44042</v>
       </c>
       <c r="B254" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="1">
-        <v>44044</v>
+        <v>44043</v>
       </c>
       <c r="B255" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="1">
-        <v>44045</v>
+        <v>44044</v>
       </c>
       <c r="B256" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="1">
-        <v>44046</v>
+        <v>44045</v>
       </c>
       <c r="B257" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="1">
-        <v>44047</v>
+        <v>44046</v>
       </c>
       <c r="B258" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="1">
-        <v>44048</v>
+        <v>44047</v>
       </c>
       <c r="B259" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="1">
-        <v>44049</v>
+        <v>44048</v>
       </c>
       <c r="B260" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="1">
-        <v>44050</v>
+        <v>44049</v>
       </c>
       <c r="B261" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="1">
-        <v>44051</v>
+        <v>44050</v>
       </c>
       <c r="B262" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="1">
-        <v>44052</v>
+        <v>44051</v>
       </c>
       <c r="B263" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="1">
-        <v>44053</v>
+        <v>44052</v>
       </c>
       <c r="B264" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="1">
-        <v>44054</v>
+        <v>44053</v>
       </c>
       <c r="B265" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="1">
-        <v>44055</v>
+        <v>44054</v>
       </c>
       <c r="B266" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="1">
-        <v>44056</v>
+        <v>44055</v>
       </c>
       <c r="B267" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="1">
-        <v>44057</v>
+        <v>44056</v>
       </c>
       <c r="B268" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="1">
-        <v>44058</v>
+        <v>44057</v>
       </c>
       <c r="B269" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="1">
-        <v>44059</v>
+        <v>44058</v>
       </c>
       <c r="B270" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="1">
-        <v>44060</v>
+        <v>44059</v>
       </c>
       <c r="B271" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="1">
-        <v>44061</v>
+        <v>44060</v>
       </c>
       <c r="B272" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="1">
-        <v>44062</v>
+        <v>44061</v>
       </c>
       <c r="B273" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="1">
-        <v>44063</v>
+        <v>44062</v>
       </c>
       <c r="B274" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="1">
-        <v>44064</v>
+        <v>44063</v>
       </c>
       <c r="B275" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="1">
-        <v>44065</v>
+        <v>44064</v>
       </c>
       <c r="B276" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="1">
-        <v>44066</v>
+        <v>44065</v>
       </c>
       <c r="B277" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="1">
-        <v>44067</v>
+        <v>44066</v>
       </c>
       <c r="B278" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="1">
-        <v>44068</v>
+        <v>44067</v>
       </c>
       <c r="B279" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="1">
-        <v>44069</v>
+        <v>44068</v>
       </c>
       <c r="B280" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="1">
-        <v>44070</v>
+        <v>44069</v>
       </c>
       <c r="B281" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="1">
-        <v>44071</v>
+        <v>44070</v>
       </c>
       <c r="B282" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="1">
-        <v>44072</v>
+        <v>44071</v>
       </c>
       <c r="B283" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="1">
-        <v>44073</v>
+        <v>44072</v>
       </c>
       <c r="B284" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="1">
-        <v>44074</v>
+        <v>44073</v>
       </c>
       <c r="B285" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="1">
-        <v>44075</v>
+        <v>44074</v>
       </c>
       <c r="B286" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="1">
-        <v>44076</v>
+        <v>44075</v>
       </c>
       <c r="B287" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="1">
-        <v>44077</v>
+        <v>44076</v>
       </c>
       <c r="B288" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="1">
-        <v>44078</v>
+        <v>44077</v>
       </c>
       <c r="B289" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="1">
-        <v>44079</v>
+        <v>44078</v>
       </c>
       <c r="B290" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="1">
-        <v>44080</v>
+        <v>44079</v>
       </c>
       <c r="B291" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="1">
-        <v>44081</v>
+        <v>44080</v>
       </c>
       <c r="B292" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="1">
-        <v>44082</v>
+        <v>44081</v>
       </c>
       <c r="B293" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="1">
-        <v>44083</v>
+        <v>44082</v>
       </c>
       <c r="B294" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="1">
-        <v>44084</v>
+        <v>44083</v>
       </c>
       <c r="B295" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="1">
-        <v>44085</v>
+        <v>44084</v>
       </c>
       <c r="B296" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="1">
-        <v>44086</v>
+        <v>44085</v>
       </c>
       <c r="B297" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="1">
-        <v>44087</v>
+        <v>44086</v>
       </c>
       <c r="B298" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="1">
-        <v>44088</v>
+        <v>44087</v>
       </c>
       <c r="B299" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="1">
-        <v>44089</v>
+        <v>44088</v>
       </c>
       <c r="B300" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="1">
-        <v>44090</v>
+        <v>44089</v>
       </c>
       <c r="B301" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="1">
-        <v>44091</v>
+        <v>44090</v>
       </c>
       <c r="B302" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="1">
-        <v>44092</v>
+        <v>44091</v>
       </c>
       <c r="B303" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="1">
-        <v>44093</v>
+        <v>44092</v>
       </c>
       <c r="B304" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="1">
-        <v>44094</v>
+        <v>44093</v>
       </c>
       <c r="B305" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="1">
-        <v>44095</v>
+        <v>44094</v>
       </c>
       <c r="B306" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="1">
-        <v>44096</v>
+        <v>44095</v>
       </c>
       <c r="B307" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="1">
-        <v>44097</v>
+        <v>44096</v>
       </c>
       <c r="B308" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="1">
-        <v>44098</v>
+        <v>44097</v>
       </c>
       <c r="B309" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="1">
-        <v>44099</v>
+        <v>44098</v>
       </c>
       <c r="B310" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="1">
-        <v>44100</v>
+        <v>44099</v>
       </c>
       <c r="B311" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="1">
-        <v>44101</v>
+        <v>44100</v>
       </c>
       <c r="B312" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="1">
-        <v>44102</v>
+        <v>44101</v>
       </c>
       <c r="B313" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="1">
-        <v>44103</v>
+        <v>44102</v>
       </c>
       <c r="B314" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="1">
-        <v>44104</v>
+        <v>44103</v>
       </c>
       <c r="B315" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="1">
-        <v>44105</v>
+        <v>44104</v>
       </c>
       <c r="B316" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="1">
-        <v>44106</v>
+        <v>44105</v>
       </c>
       <c r="B317" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="1">
-        <v>44107</v>
+        <v>44106</v>
       </c>
       <c r="B318" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="1">
-        <v>44108</v>
+        <v>44107</v>
       </c>
       <c r="B319" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="1">
-        <v>44109</v>
+        <v>44108</v>
       </c>
       <c r="B320" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="1">
-        <v>44110</v>
+        <v>44109</v>
       </c>
       <c r="B321" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="1">
-        <v>44111</v>
+        <v>44110</v>
       </c>
       <c r="B322" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="1">
-        <v>44112</v>
+        <v>44111</v>
       </c>
       <c r="B323" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="1">
-        <v>44113</v>
+        <v>44112</v>
       </c>
       <c r="B324" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="1">
-        <v>44114</v>
+        <v>44113</v>
       </c>
       <c r="B325" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="1">
-        <v>44115</v>
+        <v>44114</v>
       </c>
       <c r="B326" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="1">
-        <v>44116</v>
+        <v>44115</v>
       </c>
       <c r="B327" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="1">
-        <v>44117</v>
+        <v>44116</v>
       </c>
       <c r="B328" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="1">
-        <v>44118</v>
+        <v>44117</v>
       </c>
       <c r="B329" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="1">
-        <v>44119</v>
+        <v>44118</v>
       </c>
       <c r="B330" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="1">
-        <v>44120</v>
+        <v>44119</v>
       </c>
       <c r="B331" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="1">
-        <v>44121</v>
+        <v>44120</v>
       </c>
       <c r="B332" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="1">
-        <v>44122</v>
+        <v>44121</v>
       </c>
       <c r="B333" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="1">
-        <v>44123</v>
+        <v>44122</v>
       </c>
       <c r="B334" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="1">
-        <v>44124</v>
+        <v>44123</v>
       </c>
       <c r="B335" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="1">
-        <v>44125</v>
+        <v>44124</v>
       </c>
       <c r="B336" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="1">
-        <v>44126</v>
+        <v>44125</v>
       </c>
       <c r="B337" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="1">
-        <v>44127</v>
+        <v>44126</v>
       </c>
       <c r="B338" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="1">
-        <v>44128</v>
+        <v>44127</v>
       </c>
       <c r="B339" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="1">
-        <v>44129</v>
+        <v>44128</v>
       </c>
       <c r="B340" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="1">
-        <v>44130</v>
+        <v>44129</v>
       </c>
       <c r="B341" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="1">
-        <v>44131</v>
+        <v>44130</v>
       </c>
       <c r="B342" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="1">
-        <v>44132</v>
+        <v>44131</v>
       </c>
       <c r="B343" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="1">
-        <v>44133</v>
+        <v>44132</v>
       </c>
       <c r="B344" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="1">
-        <v>44134</v>
+        <v>44133</v>
       </c>
       <c r="B345" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="1">
-        <v>44135</v>
+        <v>44134</v>
       </c>
       <c r="B346" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="1">
-        <v>44136</v>
+        <v>44135</v>
       </c>
       <c r="B347" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="1">
-        <v>44137</v>
+        <v>44136</v>
       </c>
       <c r="B348" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="1">
-        <v>44138</v>
+        <v>44137</v>
       </c>
       <c r="B349" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="1">
-        <v>44139</v>
+        <v>44138</v>
       </c>
       <c r="B350" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="1">
-        <v>44140</v>
+        <v>44139</v>
       </c>
       <c r="B351" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="1">
-        <v>44141</v>
+        <v>44140</v>
       </c>
       <c r="B352" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="1">
-        <v>44142</v>
+        <v>44141</v>
       </c>
       <c r="B353" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="1">
-        <v>44143</v>
+        <v>44142</v>
       </c>
       <c r="B354" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="1">
-        <v>44144</v>
+        <v>44143</v>
       </c>
       <c r="B355" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="1">
-        <v>44145</v>
+        <v>44144</v>
       </c>
       <c r="B356" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="1">
-        <v>44146</v>
+        <v>44145</v>
       </c>
       <c r="B357" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="1">
-        <v>44147</v>
+        <v>44146</v>
       </c>
       <c r="B358" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="1">
-        <v>44148</v>
+        <v>44147</v>
       </c>
       <c r="B359" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="1">
-        <v>44149</v>
+        <v>44148</v>
       </c>
       <c r="B360" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="1">
-        <v>44150</v>
+        <v>44149</v>
       </c>
       <c r="B361" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="1">
-        <v>44151</v>
+        <v>44150</v>
       </c>
       <c r="B362" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="1">
-        <v>44152</v>
+        <v>44151</v>
       </c>
       <c r="B363" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="1">
-        <v>44153</v>
+        <v>44152</v>
       </c>
       <c r="B364" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="1">
-        <v>44154</v>
+        <v>44153</v>
       </c>
       <c r="B365" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="1">
-        <v>44155</v>
+        <v>44154</v>
       </c>
       <c r="B366" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="1">
-        <v>44156</v>
+        <v>44155</v>
       </c>
       <c r="B367" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="1">
-        <v>44157</v>
+        <v>44156</v>
       </c>
       <c r="B368" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="1">
-        <v>44158</v>
+        <v>44157</v>
       </c>
       <c r="B369" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="1">
-        <v>44159</v>
+        <v>44158</v>
       </c>
       <c r="B370" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="1">
-        <v>44160</v>
+        <v>44159</v>
       </c>
       <c r="B371" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="1">
-        <v>44161</v>
+        <v>44160</v>
       </c>
       <c r="B372" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="1">
-        <v>44162</v>
+        <v>44161</v>
       </c>
       <c r="B373" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="1">
-        <v>44163</v>
+        <v>44162</v>
       </c>
       <c r="B374" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="1">
-        <v>44164</v>
+        <v>44163</v>
       </c>
       <c r="B375" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="1">
-        <v>44165</v>
+        <v>44164</v>
       </c>
       <c r="B376" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="1">
-        <v>44166</v>
+        <v>44165</v>
       </c>
       <c r="B377" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="1">
-        <v>44167</v>
+        <v>44166</v>
       </c>
       <c r="B378" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="1">
-        <v>44168</v>
+        <v>44167</v>
       </c>
       <c r="B379" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="1">
-        <v>44169</v>
+        <v>44168</v>
       </c>
       <c r="B380" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="1">
-        <v>44170</v>
+        <v>44169</v>
       </c>
       <c r="B381" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="1">
-        <v>44171</v>
+        <v>44170</v>
       </c>
       <c r="B382" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="1">
-        <v>44172</v>
+        <v>44171</v>
       </c>
       <c r="B383" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="1">
-        <v>44173</v>
+        <v>44172</v>
       </c>
       <c r="B384" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="1">
-        <v>44174</v>
+        <v>44173</v>
       </c>
       <c r="B385" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="1">
-        <v>44175</v>
+        <v>44174</v>
       </c>
       <c r="B386" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="1">
-        <v>44176</v>
+        <v>44175</v>
       </c>
       <c r="B387" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="1">
-        <v>44177</v>
+        <v>44176</v>
       </c>
       <c r="B388" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="1">
-        <v>44178</v>
+        <v>44177</v>
       </c>
       <c r="B389" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="1">
-        <v>44179</v>
+        <v>44178</v>
       </c>
       <c r="B390" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="1">
-        <v>44180</v>
+        <v>44179</v>
       </c>
       <c r="B391" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="1">
-        <v>44181</v>
+        <v>44180</v>
       </c>
       <c r="B392" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="1">
-        <v>44182</v>
+        <v>44181</v>
       </c>
       <c r="B393" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="1">
-        <v>44183</v>
+        <v>44182</v>
       </c>
       <c r="B394" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="1">
-        <v>44184</v>
+        <v>44183</v>
       </c>
       <c r="B395" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="1">
-        <v>44185</v>
+        <v>44184</v>
       </c>
       <c r="B396" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="1">
-        <v>44186</v>
+        <v>44185</v>
       </c>
       <c r="B397" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="1">
-        <v>44187</v>
+        <v>44186</v>
       </c>
       <c r="B398" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="1">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="B399" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="1">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="B400" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="1">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="B401" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="1">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="B402" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="1">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="B403" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="1">
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="B404" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="1">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="B405" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="1">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B406" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="1">
+        <v>44195</v>
+      </c>
+      <c r="B407" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2">
+      <c r="A408" s="1">
         <v>44196</v>
       </c>
-      <c r="B407" t="s">
+      <c r="B408" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6502,7 +6517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F131"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
       <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>

--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="368">
   <si>
     <t>Дата начала</t>
   </si>
@@ -2556,7 +2556,7 @@
   <dimension ref="A1:D408"/>
   <sheetViews>
     <sheetView topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="C172" sqref="C172"/>
+      <selection activeCell="C172" sqref="C172:D172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4567,6 +4567,12 @@
       </c>
       <c r="B172" t="s">
         <v>15</v>
+      </c>
+      <c r="C172" t="s">
+        <v>329</v>
+      </c>
+      <c r="D172" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -6518,7 +6524,7 @@
   <dimension ref="A1:F131"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+      <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7299,6 +7305,9 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="30">
+      <c r="A60" s="2" t="s">
+        <v>367</v>
+      </c>
       <c r="B60" s="8" t="s">
         <v>366</v>
       </c>
@@ -7814,9 +7823,10 @@
     <hyperlink ref="A45" r:id="rId45"/>
     <hyperlink ref="A51" r:id="rId46"/>
     <hyperlink ref="A85" r:id="rId47"/>
+    <hyperlink ref="A60" r:id="rId48"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId48"/>
-  <legacyDrawing r:id="rId49"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId49"/>
+  <legacyDrawing r:id="rId50"/>
 </worksheet>
 </file>
--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="По задачам" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="368">
   <si>
     <t>Дата начала</t>
   </si>
@@ -2555,8 +2555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D408"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="C172" sqref="C172:D172"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="C173" sqref="C173:D173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4581,6 +4581,12 @@
       </c>
       <c r="B173" t="s">
         <v>9</v>
+      </c>
+      <c r="C173" t="s">
+        <v>329</v>
+      </c>
+      <c r="D173" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -6523,7 +6529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>

--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="По задачам" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="370">
   <si>
     <t>Дата начала</t>
   </si>
@@ -1253,6 +1253,12 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=OjVK055CTNI</t>
+  </si>
+  <si>
+    <t>Статьи о красоте кода</t>
+  </si>
+  <si>
+    <t>Прочитал</t>
   </si>
 </sst>
 </file>
@@ -1641,10 +1647,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2537,6 +2543,17 @@
       </c>
       <c r="C76" t="s">
         <v>366</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B77" s="1">
+        <v>43962</v>
+      </c>
+      <c r="C77" t="s">
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -2553,10 +2570,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D408"/>
+  <dimension ref="A1:D410"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="C173" sqref="C173:D173"/>
+    <sheetView topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="C176" sqref="C176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4596,1876 +4613,1900 @@
       <c r="B174" t="s">
         <v>10</v>
       </c>
+      <c r="C174" t="s">
+        <v>329</v>
+      </c>
+      <c r="D174" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="175" spans="1:4">
-      <c r="A175" s="1">
-        <v>43963</v>
-      </c>
-      <c r="B175" t="s">
-        <v>11</v>
+      <c r="A175" s="1"/>
+      <c r="C175" t="s">
+        <v>327</v>
+      </c>
+      <c r="D175" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="176" spans="1:4">
-      <c r="A176" s="1">
-        <v>43964</v>
-      </c>
-      <c r="B176" t="s">
-        <v>12</v>
+      <c r="A176" s="1"/>
+      <c r="C176" t="s">
+        <v>368</v>
+      </c>
+      <c r="D176" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="177" spans="1:2">
       <c r="A177" s="1">
-        <v>43965</v>
+        <v>43963</v>
       </c>
       <c r="B177" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="178" spans="1:2">
       <c r="A178" s="1">
-        <v>43966</v>
+        <v>43964</v>
       </c>
       <c r="B178" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="179" spans="1:2">
       <c r="A179" s="1">
-        <v>43967</v>
+        <v>43965</v>
       </c>
       <c r="B179" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="180" spans="1:2">
       <c r="A180" s="1">
-        <v>43968</v>
+        <v>43966</v>
       </c>
       <c r="B180" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="181" spans="1:2">
       <c r="A181" s="1">
-        <v>43969</v>
+        <v>43967</v>
       </c>
       <c r="B181" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="182" spans="1:2">
       <c r="A182" s="1">
-        <v>43970</v>
+        <v>43968</v>
       </c>
       <c r="B182" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="1">
-        <v>43971</v>
+        <v>43969</v>
       </c>
       <c r="B183" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="184" spans="1:2">
       <c r="A184" s="1">
-        <v>43972</v>
+        <v>43970</v>
       </c>
       <c r="B184" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="185" spans="1:2">
       <c r="A185" s="1">
-        <v>43973</v>
+        <v>43971</v>
       </c>
       <c r="B185" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="1">
-        <v>43974</v>
+        <v>43972</v>
       </c>
       <c r="B186" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="1">
-        <v>43975</v>
+        <v>43973</v>
       </c>
       <c r="B187" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="188" spans="1:2">
       <c r="A188" s="1">
-        <v>43976</v>
+        <v>43974</v>
       </c>
       <c r="B188" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="1">
-        <v>43977</v>
+        <v>43975</v>
       </c>
       <c r="B189" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="1">
-        <v>43978</v>
+        <v>43976</v>
       </c>
       <c r="B190" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="1">
-        <v>43979</v>
+        <v>43977</v>
       </c>
       <c r="B191" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="1">
-        <v>43980</v>
+        <v>43978</v>
       </c>
       <c r="B192" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="1">
-        <v>43981</v>
+        <v>43979</v>
       </c>
       <c r="B193" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="1">
-        <v>43982</v>
+        <v>43980</v>
       </c>
       <c r="B194" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="1">
-        <v>43983</v>
+        <v>43981</v>
       </c>
       <c r="B195" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="1">
-        <v>43984</v>
+        <v>43982</v>
       </c>
       <c r="B196" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="1">
-        <v>43985</v>
+        <v>43983</v>
       </c>
       <c r="B197" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="1">
-        <v>43986</v>
+        <v>43984</v>
       </c>
       <c r="B198" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="1">
-        <v>43987</v>
+        <v>43985</v>
       </c>
       <c r="B199" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="1">
-        <v>43988</v>
+        <v>43986</v>
       </c>
       <c r="B200" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="1">
-        <v>43989</v>
+        <v>43987</v>
       </c>
       <c r="B201" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="1">
-        <v>43990</v>
+        <v>43988</v>
       </c>
       <c r="B202" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="1">
-        <v>43991</v>
+        <v>43989</v>
       </c>
       <c r="B203" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="1">
-        <v>43992</v>
+        <v>43990</v>
       </c>
       <c r="B204" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="1">
-        <v>43993</v>
+        <v>43991</v>
       </c>
       <c r="B205" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="1">
-        <v>43994</v>
+        <v>43992</v>
       </c>
       <c r="B206" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="1">
-        <v>43995</v>
+        <v>43993</v>
       </c>
       <c r="B207" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="1">
-        <v>43996</v>
+        <v>43994</v>
       </c>
       <c r="B208" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="1">
-        <v>43997</v>
+        <v>43995</v>
       </c>
       <c r="B209" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="1">
-        <v>43998</v>
+        <v>43996</v>
       </c>
       <c r="B210" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="1">
-        <v>43999</v>
+        <v>43997</v>
       </c>
       <c r="B211" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="1">
-        <v>44000</v>
+        <v>43998</v>
       </c>
       <c r="B212" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="1">
-        <v>44001</v>
+        <v>43999</v>
       </c>
       <c r="B213" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="1">
-        <v>44002</v>
+        <v>44000</v>
       </c>
       <c r="B214" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="1">
-        <v>44003</v>
+        <v>44001</v>
       </c>
       <c r="B215" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="1">
-        <v>44004</v>
+        <v>44002</v>
       </c>
       <c r="B216" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="1">
-        <v>44005</v>
+        <v>44003</v>
       </c>
       <c r="B217" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="1">
-        <v>44006</v>
+        <v>44004</v>
       </c>
       <c r="B218" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="1">
-        <v>44007</v>
+        <v>44005</v>
       </c>
       <c r="B219" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="1">
-        <v>44008</v>
+        <v>44006</v>
       </c>
       <c r="B220" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="1">
-        <v>44009</v>
+        <v>44007</v>
       </c>
       <c r="B221" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="1">
-        <v>44010</v>
+        <v>44008</v>
       </c>
       <c r="B222" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="1">
-        <v>44011</v>
+        <v>44009</v>
       </c>
       <c r="B223" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="1">
-        <v>44012</v>
+        <v>44010</v>
       </c>
       <c r="B224" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="1">
-        <v>44013</v>
+        <v>44011</v>
       </c>
       <c r="B225" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="1">
-        <v>44014</v>
+        <v>44012</v>
       </c>
       <c r="B226" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="1">
-        <v>44015</v>
+        <v>44013</v>
       </c>
       <c r="B227" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="1">
-        <v>44016</v>
+        <v>44014</v>
       </c>
       <c r="B228" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="1">
-        <v>44017</v>
+        <v>44015</v>
       </c>
       <c r="B229" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="1">
-        <v>44018</v>
+        <v>44016</v>
       </c>
       <c r="B230" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="1">
-        <v>44019</v>
+        <v>44017</v>
       </c>
       <c r="B231" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="1">
-        <v>44020</v>
+        <v>44018</v>
       </c>
       <c r="B232" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="1">
-        <v>44021</v>
+        <v>44019</v>
       </c>
       <c r="B233" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="1">
-        <v>44022</v>
+        <v>44020</v>
       </c>
       <c r="B234" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="1">
-        <v>44023</v>
+        <v>44021</v>
       </c>
       <c r="B235" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="1">
-        <v>44024</v>
+        <v>44022</v>
       </c>
       <c r="B236" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="1">
-        <v>44025</v>
+        <v>44023</v>
       </c>
       <c r="B237" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="1">
-        <v>44026</v>
+        <v>44024</v>
       </c>
       <c r="B238" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="1">
-        <v>44027</v>
+        <v>44025</v>
       </c>
       <c r="B239" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="1">
-        <v>44028</v>
+        <v>44026</v>
       </c>
       <c r="B240" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="1">
-        <v>44029</v>
+        <v>44027</v>
       </c>
       <c r="B241" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="1">
-        <v>44030</v>
+        <v>44028</v>
       </c>
       <c r="B242" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="1">
-        <v>44031</v>
+        <v>44029</v>
       </c>
       <c r="B243" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="1">
-        <v>44032</v>
+        <v>44030</v>
       </c>
       <c r="B244" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="1">
-        <v>44033</v>
+        <v>44031</v>
       </c>
       <c r="B245" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="1">
-        <v>44034</v>
+        <v>44032</v>
       </c>
       <c r="B246" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="1">
-        <v>44035</v>
+        <v>44033</v>
       </c>
       <c r="B247" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="1">
-        <v>44036</v>
+        <v>44034</v>
       </c>
       <c r="B248" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="1">
-        <v>44037</v>
+        <v>44035</v>
       </c>
       <c r="B249" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="1">
-        <v>44038</v>
+        <v>44036</v>
       </c>
       <c r="B250" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="1">
-        <v>44039</v>
+        <v>44037</v>
       </c>
       <c r="B251" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="1">
-        <v>44040</v>
+        <v>44038</v>
       </c>
       <c r="B252" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="1">
-        <v>44041</v>
+        <v>44039</v>
       </c>
       <c r="B253" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="1">
-        <v>44042</v>
+        <v>44040</v>
       </c>
       <c r="B254" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="1">
-        <v>44043</v>
+        <v>44041</v>
       </c>
       <c r="B255" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="1">
-        <v>44044</v>
+        <v>44042</v>
       </c>
       <c r="B256" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="1">
-        <v>44045</v>
+        <v>44043</v>
       </c>
       <c r="B257" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="1">
-        <v>44046</v>
+        <v>44044</v>
       </c>
       <c r="B258" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="1">
-        <v>44047</v>
+        <v>44045</v>
       </c>
       <c r="B259" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="1">
-        <v>44048</v>
+        <v>44046</v>
       </c>
       <c r="B260" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="1">
-        <v>44049</v>
+        <v>44047</v>
       </c>
       <c r="B261" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="1">
-        <v>44050</v>
+        <v>44048</v>
       </c>
       <c r="B262" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="1">
-        <v>44051</v>
+        <v>44049</v>
       </c>
       <c r="B263" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="1">
-        <v>44052</v>
+        <v>44050</v>
       </c>
       <c r="B264" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="1">
-        <v>44053</v>
+        <v>44051</v>
       </c>
       <c r="B265" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="1">
-        <v>44054</v>
+        <v>44052</v>
       </c>
       <c r="B266" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="1">
-        <v>44055</v>
+        <v>44053</v>
       </c>
       <c r="B267" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="1">
-        <v>44056</v>
+        <v>44054</v>
       </c>
       <c r="B268" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="1">
-        <v>44057</v>
+        <v>44055</v>
       </c>
       <c r="B269" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="1">
-        <v>44058</v>
+        <v>44056</v>
       </c>
       <c r="B270" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="1">
-        <v>44059</v>
+        <v>44057</v>
       </c>
       <c r="B271" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="1">
-        <v>44060</v>
+        <v>44058</v>
       </c>
       <c r="B272" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="1">
-        <v>44061</v>
+        <v>44059</v>
       </c>
       <c r="B273" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="1">
-        <v>44062</v>
+        <v>44060</v>
       </c>
       <c r="B274" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="1">
-        <v>44063</v>
+        <v>44061</v>
       </c>
       <c r="B275" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="1">
-        <v>44064</v>
+        <v>44062</v>
       </c>
       <c r="B276" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="1">
-        <v>44065</v>
+        <v>44063</v>
       </c>
       <c r="B277" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="1">
-        <v>44066</v>
+        <v>44064</v>
       </c>
       <c r="B278" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="1">
-        <v>44067</v>
+        <v>44065</v>
       </c>
       <c r="B279" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="1">
-        <v>44068</v>
+        <v>44066</v>
       </c>
       <c r="B280" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="1">
-        <v>44069</v>
+        <v>44067</v>
       </c>
       <c r="B281" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="1">
-        <v>44070</v>
+        <v>44068</v>
       </c>
       <c r="B282" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="1">
-        <v>44071</v>
+        <v>44069</v>
       </c>
       <c r="B283" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="1">
-        <v>44072</v>
+        <v>44070</v>
       </c>
       <c r="B284" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="1">
-        <v>44073</v>
+        <v>44071</v>
       </c>
       <c r="B285" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="1">
-        <v>44074</v>
+        <v>44072</v>
       </c>
       <c r="B286" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="1">
-        <v>44075</v>
+        <v>44073</v>
       </c>
       <c r="B287" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="1">
-        <v>44076</v>
+        <v>44074</v>
       </c>
       <c r="B288" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="1">
-        <v>44077</v>
+        <v>44075</v>
       </c>
       <c r="B289" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="1">
-        <v>44078</v>
+        <v>44076</v>
       </c>
       <c r="B290" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="1">
-        <v>44079</v>
+        <v>44077</v>
       </c>
       <c r="B291" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="1">
-        <v>44080</v>
+        <v>44078</v>
       </c>
       <c r="B292" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="1">
-        <v>44081</v>
+        <v>44079</v>
       </c>
       <c r="B293" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="1">
-        <v>44082</v>
+        <v>44080</v>
       </c>
       <c r="B294" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="1">
-        <v>44083</v>
+        <v>44081</v>
       </c>
       <c r="B295" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="1">
-        <v>44084</v>
+        <v>44082</v>
       </c>
       <c r="B296" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="1">
-        <v>44085</v>
+        <v>44083</v>
       </c>
       <c r="B297" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="1">
-        <v>44086</v>
+        <v>44084</v>
       </c>
       <c r="B298" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="1">
-        <v>44087</v>
+        <v>44085</v>
       </c>
       <c r="B299" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="1">
-        <v>44088</v>
+        <v>44086</v>
       </c>
       <c r="B300" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="1">
-        <v>44089</v>
+        <v>44087</v>
       </c>
       <c r="B301" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="1">
-        <v>44090</v>
+        <v>44088</v>
       </c>
       <c r="B302" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="1">
-        <v>44091</v>
+        <v>44089</v>
       </c>
       <c r="B303" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="1">
-        <v>44092</v>
+        <v>44090</v>
       </c>
       <c r="B304" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="1">
-        <v>44093</v>
+        <v>44091</v>
       </c>
       <c r="B305" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="1">
-        <v>44094</v>
+        <v>44092</v>
       </c>
       <c r="B306" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="1">
-        <v>44095</v>
+        <v>44093</v>
       </c>
       <c r="B307" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="1">
-        <v>44096</v>
+        <v>44094</v>
       </c>
       <c r="B308" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="1">
-        <v>44097</v>
+        <v>44095</v>
       </c>
       <c r="B309" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="1">
-        <v>44098</v>
+        <v>44096</v>
       </c>
       <c r="B310" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="1">
-        <v>44099</v>
+        <v>44097</v>
       </c>
       <c r="B311" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="1">
-        <v>44100</v>
+        <v>44098</v>
       </c>
       <c r="B312" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="1">
-        <v>44101</v>
+        <v>44099</v>
       </c>
       <c r="B313" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="1">
-        <v>44102</v>
+        <v>44100</v>
       </c>
       <c r="B314" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="1">
-        <v>44103</v>
+        <v>44101</v>
       </c>
       <c r="B315" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="1">
-        <v>44104</v>
+        <v>44102</v>
       </c>
       <c r="B316" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="1">
-        <v>44105</v>
+        <v>44103</v>
       </c>
       <c r="B317" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="1">
-        <v>44106</v>
+        <v>44104</v>
       </c>
       <c r="B318" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="1">
-        <v>44107</v>
+        <v>44105</v>
       </c>
       <c r="B319" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="1">
-        <v>44108</v>
+        <v>44106</v>
       </c>
       <c r="B320" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="1">
-        <v>44109</v>
+        <v>44107</v>
       </c>
       <c r="B321" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="1">
-        <v>44110</v>
+        <v>44108</v>
       </c>
       <c r="B322" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="1">
-        <v>44111</v>
+        <v>44109</v>
       </c>
       <c r="B323" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="1">
-        <v>44112</v>
+        <v>44110</v>
       </c>
       <c r="B324" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="1">
-        <v>44113</v>
+        <v>44111</v>
       </c>
       <c r="B325" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="1">
-        <v>44114</v>
+        <v>44112</v>
       </c>
       <c r="B326" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="1">
-        <v>44115</v>
+        <v>44113</v>
       </c>
       <c r="B327" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="1">
-        <v>44116</v>
+        <v>44114</v>
       </c>
       <c r="B328" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="1">
-        <v>44117</v>
+        <v>44115</v>
       </c>
       <c r="B329" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="1">
-        <v>44118</v>
+        <v>44116</v>
       </c>
       <c r="B330" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="1">
-        <v>44119</v>
+        <v>44117</v>
       </c>
       <c r="B331" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="1">
-        <v>44120</v>
+        <v>44118</v>
       </c>
       <c r="B332" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="1">
-        <v>44121</v>
+        <v>44119</v>
       </c>
       <c r="B333" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="1">
-        <v>44122</v>
+        <v>44120</v>
       </c>
       <c r="B334" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="1">
-        <v>44123</v>
+        <v>44121</v>
       </c>
       <c r="B335" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="1">
-        <v>44124</v>
+        <v>44122</v>
       </c>
       <c r="B336" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="1">
-        <v>44125</v>
+        <v>44123</v>
       </c>
       <c r="B337" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="1">
-        <v>44126</v>
+        <v>44124</v>
       </c>
       <c r="B338" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="1">
-        <v>44127</v>
+        <v>44125</v>
       </c>
       <c r="B339" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="1">
-        <v>44128</v>
+        <v>44126</v>
       </c>
       <c r="B340" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="1">
-        <v>44129</v>
+        <v>44127</v>
       </c>
       <c r="B341" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="1">
-        <v>44130</v>
+        <v>44128</v>
       </c>
       <c r="B342" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="1">
-        <v>44131</v>
+        <v>44129</v>
       </c>
       <c r="B343" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="1">
-        <v>44132</v>
+        <v>44130</v>
       </c>
       <c r="B344" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="1">
-        <v>44133</v>
+        <v>44131</v>
       </c>
       <c r="B345" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="1">
-        <v>44134</v>
+        <v>44132</v>
       </c>
       <c r="B346" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="1">
-        <v>44135</v>
+        <v>44133</v>
       </c>
       <c r="B347" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="1">
-        <v>44136</v>
+        <v>44134</v>
       </c>
       <c r="B348" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="1">
-        <v>44137</v>
+        <v>44135</v>
       </c>
       <c r="B349" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="1">
-        <v>44138</v>
+        <v>44136</v>
       </c>
       <c r="B350" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="1">
-        <v>44139</v>
+        <v>44137</v>
       </c>
       <c r="B351" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="1">
-        <v>44140</v>
+        <v>44138</v>
       </c>
       <c r="B352" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="1">
-        <v>44141</v>
+        <v>44139</v>
       </c>
       <c r="B353" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="1">
-        <v>44142</v>
+        <v>44140</v>
       </c>
       <c r="B354" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="1">
-        <v>44143</v>
+        <v>44141</v>
       </c>
       <c r="B355" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="1">
-        <v>44144</v>
+        <v>44142</v>
       </c>
       <c r="B356" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="1">
-        <v>44145</v>
+        <v>44143</v>
       </c>
       <c r="B357" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="1">
-        <v>44146</v>
+        <v>44144</v>
       </c>
       <c r="B358" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="1">
-        <v>44147</v>
+        <v>44145</v>
       </c>
       <c r="B359" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="1">
-        <v>44148</v>
+        <v>44146</v>
       </c>
       <c r="B360" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="1">
-        <v>44149</v>
+        <v>44147</v>
       </c>
       <c r="B361" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="1">
-        <v>44150</v>
+        <v>44148</v>
       </c>
       <c r="B362" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="1">
-        <v>44151</v>
+        <v>44149</v>
       </c>
       <c r="B363" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="1">
-        <v>44152</v>
+        <v>44150</v>
       </c>
       <c r="B364" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="1">
-        <v>44153</v>
+        <v>44151</v>
       </c>
       <c r="B365" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="1">
-        <v>44154</v>
+        <v>44152</v>
       </c>
       <c r="B366" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="1">
-        <v>44155</v>
+        <v>44153</v>
       </c>
       <c r="B367" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="1">
-        <v>44156</v>
+        <v>44154</v>
       </c>
       <c r="B368" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="1">
-        <v>44157</v>
+        <v>44155</v>
       </c>
       <c r="B369" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="1">
-        <v>44158</v>
+        <v>44156</v>
       </c>
       <c r="B370" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="1">
-        <v>44159</v>
+        <v>44157</v>
       </c>
       <c r="B371" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="1">
-        <v>44160</v>
+        <v>44158</v>
       </c>
       <c r="B372" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="1">
-        <v>44161</v>
+        <v>44159</v>
       </c>
       <c r="B373" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="1">
-        <v>44162</v>
+        <v>44160</v>
       </c>
       <c r="B374" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="1">
-        <v>44163</v>
+        <v>44161</v>
       </c>
       <c r="B375" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="1">
-        <v>44164</v>
+        <v>44162</v>
       </c>
       <c r="B376" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="1">
-        <v>44165</v>
+        <v>44163</v>
       </c>
       <c r="B377" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="1">
-        <v>44166</v>
+        <v>44164</v>
       </c>
       <c r="B378" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="1">
-        <v>44167</v>
+        <v>44165</v>
       </c>
       <c r="B379" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="1">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="B380" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="1">
-        <v>44169</v>
+        <v>44167</v>
       </c>
       <c r="B381" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="1">
-        <v>44170</v>
+        <v>44168</v>
       </c>
       <c r="B382" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="1">
-        <v>44171</v>
+        <v>44169</v>
       </c>
       <c r="B383" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="1">
-        <v>44172</v>
+        <v>44170</v>
       </c>
       <c r="B384" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="1">
-        <v>44173</v>
+        <v>44171</v>
       </c>
       <c r="B385" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="1">
-        <v>44174</v>
+        <v>44172</v>
       </c>
       <c r="B386" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="1">
-        <v>44175</v>
+        <v>44173</v>
       </c>
       <c r="B387" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="1">
-        <v>44176</v>
+        <v>44174</v>
       </c>
       <c r="B388" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="1">
-        <v>44177</v>
+        <v>44175</v>
       </c>
       <c r="B389" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="1">
-        <v>44178</v>
+        <v>44176</v>
       </c>
       <c r="B390" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="1">
-        <v>44179</v>
+        <v>44177</v>
       </c>
       <c r="B391" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="1">
-        <v>44180</v>
+        <v>44178</v>
       </c>
       <c r="B392" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="1">
-        <v>44181</v>
+        <v>44179</v>
       </c>
       <c r="B393" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="1">
-        <v>44182</v>
+        <v>44180</v>
       </c>
       <c r="B394" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="1">
-        <v>44183</v>
+        <v>44181</v>
       </c>
       <c r="B395" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="1">
-        <v>44184</v>
+        <v>44182</v>
       </c>
       <c r="B396" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="1">
-        <v>44185</v>
+        <v>44183</v>
       </c>
       <c r="B397" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="1">
-        <v>44186</v>
+        <v>44184</v>
       </c>
       <c r="B398" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="1">
-        <v>44187</v>
+        <v>44185</v>
       </c>
       <c r="B399" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="1">
-        <v>44188</v>
+        <v>44186</v>
       </c>
       <c r="B400" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="1">
-        <v>44189</v>
+        <v>44187</v>
       </c>
       <c r="B401" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="1">
-        <v>44190</v>
+        <v>44188</v>
       </c>
       <c r="B402" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="1">
-        <v>44191</v>
+        <v>44189</v>
       </c>
       <c r="B403" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="1">
-        <v>44192</v>
+        <v>44190</v>
       </c>
       <c r="B404" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="1">
-        <v>44193</v>
+        <v>44191</v>
       </c>
       <c r="B405" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="1">
-        <v>44194</v>
+        <v>44192</v>
       </c>
       <c r="B406" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="1">
-        <v>44195</v>
+        <v>44193</v>
       </c>
       <c r="B407" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="1">
+        <v>44194</v>
+      </c>
+      <c r="B408" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2">
+      <c r="A409" s="1">
+        <v>44195</v>
+      </c>
+      <c r="B409" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2">
+      <c r="A410" s="1">
         <v>44196</v>
       </c>
-      <c r="B408" t="s">
+      <c r="B410" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6529,7 +6570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F131"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
       <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>

--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="По задачам" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="370">
   <si>
     <t>Дата начала</t>
   </si>
@@ -2570,10 +2570,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D410"/>
+  <dimension ref="A1:D411"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="C176" sqref="C176"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="C177" sqref="C177:D178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4638,1875 +4638,1890 @@
         <v>369</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
+    <row r="177" spans="1:4">
       <c r="A177" s="1">
         <v>43963</v>
       </c>
       <c r="B177" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="178" spans="1:2">
-      <c r="A178" s="1">
+      <c r="C177" t="s">
+        <v>329</v>
+      </c>
+      <c r="D177" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="1"/>
+      <c r="C178" t="s">
+        <v>327</v>
+      </c>
+      <c r="D178" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="1">
         <v>43964</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B179" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="179" spans="1:2">
-      <c r="A179" s="1">
+    <row r="180" spans="1:4">
+      <c r="A180" s="1">
         <v>43965</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B180" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="180" spans="1:2">
-      <c r="A180" s="1">
+    <row r="181" spans="1:4">
+      <c r="A181" s="1">
         <v>43966</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B181" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="181" spans="1:2">
-      <c r="A181" s="1">
+    <row r="182" spans="1:4">
+      <c r="A182" s="1">
         <v>43967</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B182" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="182" spans="1:2">
-      <c r="A182" s="1">
+    <row r="183" spans="1:4">
+      <c r="A183" s="1">
         <v>43968</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B183" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
-      <c r="A183" s="1">
+    <row r="184" spans="1:4">
+      <c r="A184" s="1">
         <v>43969</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B184" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
-      <c r="A184" s="1">
+    <row r="185" spans="1:4">
+      <c r="A185" s="1">
         <v>43970</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B185" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
-      <c r="A185" s="1">
+    <row r="186" spans="1:4">
+      <c r="A186" s="1">
         <v>43971</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B186" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
-      <c r="A186" s="1">
+    <row r="187" spans="1:4">
+      <c r="A187" s="1">
         <v>43972</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B187" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
-      <c r="A187" s="1">
+    <row r="188" spans="1:4">
+      <c r="A188" s="1">
         <v>43973</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B188" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="188" spans="1:2">
-      <c r="A188" s="1">
+    <row r="189" spans="1:4">
+      <c r="A189" s="1">
         <v>43974</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B189" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="189" spans="1:2">
-      <c r="A189" s="1">
+    <row r="190" spans="1:4">
+      <c r="A190" s="1">
         <v>43975</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B190" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="190" spans="1:2">
-      <c r="A190" s="1">
+    <row r="191" spans="1:4">
+      <c r="A191" s="1">
         <v>43976</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B191" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="1:2">
-      <c r="A191" s="1">
+    <row r="192" spans="1:4">
+      <c r="A192" s="1">
         <v>43977</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B192" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2">
-      <c r="A192" s="1">
-        <v>43978</v>
-      </c>
-      <c r="B192" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="1">
-        <v>43979</v>
+        <v>43978</v>
       </c>
       <c r="B193" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="1">
-        <v>43980</v>
+        <v>43979</v>
       </c>
       <c r="B194" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="1">
-        <v>43981</v>
+        <v>43980</v>
       </c>
       <c r="B195" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="1">
-        <v>43982</v>
+        <v>43981</v>
       </c>
       <c r="B196" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="1">
-        <v>43983</v>
+        <v>43982</v>
       </c>
       <c r="B197" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="1">
-        <v>43984</v>
+        <v>43983</v>
       </c>
       <c r="B198" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="1">
-        <v>43985</v>
+        <v>43984</v>
       </c>
       <c r="B199" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="1">
-        <v>43986</v>
+        <v>43985</v>
       </c>
       <c r="B200" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="1">
-        <v>43987</v>
+        <v>43986</v>
       </c>
       <c r="B201" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="1">
-        <v>43988</v>
+        <v>43987</v>
       </c>
       <c r="B202" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="1">
-        <v>43989</v>
+        <v>43988</v>
       </c>
       <c r="B203" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="1">
-        <v>43990</v>
+        <v>43989</v>
       </c>
       <c r="B204" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="1">
-        <v>43991</v>
+        <v>43990</v>
       </c>
       <c r="B205" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="1">
-        <v>43992</v>
+        <v>43991</v>
       </c>
       <c r="B206" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="1">
-        <v>43993</v>
+        <v>43992</v>
       </c>
       <c r="B207" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="1">
-        <v>43994</v>
+        <v>43993</v>
       </c>
       <c r="B208" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="1">
-        <v>43995</v>
+        <v>43994</v>
       </c>
       <c r="B209" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="1">
-        <v>43996</v>
+        <v>43995</v>
       </c>
       <c r="B210" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="1">
-        <v>43997</v>
+        <v>43996</v>
       </c>
       <c r="B211" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="1">
-        <v>43998</v>
+        <v>43997</v>
       </c>
       <c r="B212" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="1">
-        <v>43999</v>
+        <v>43998</v>
       </c>
       <c r="B213" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="1">
-        <v>44000</v>
+        <v>43999</v>
       </c>
       <c r="B214" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="1">
-        <v>44001</v>
+        <v>44000</v>
       </c>
       <c r="B215" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="1">
-        <v>44002</v>
+        <v>44001</v>
       </c>
       <c r="B216" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="1">
-        <v>44003</v>
+        <v>44002</v>
       </c>
       <c r="B217" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="1">
-        <v>44004</v>
+        <v>44003</v>
       </c>
       <c r="B218" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="1">
-        <v>44005</v>
+        <v>44004</v>
       </c>
       <c r="B219" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="1">
-        <v>44006</v>
+        <v>44005</v>
       </c>
       <c r="B220" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="1">
-        <v>44007</v>
+        <v>44006</v>
       </c>
       <c r="B221" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="1">
-        <v>44008</v>
+        <v>44007</v>
       </c>
       <c r="B222" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="1">
-        <v>44009</v>
+        <v>44008</v>
       </c>
       <c r="B223" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="1">
-        <v>44010</v>
+        <v>44009</v>
       </c>
       <c r="B224" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="1">
-        <v>44011</v>
+        <v>44010</v>
       </c>
       <c r="B225" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="1">
-        <v>44012</v>
+        <v>44011</v>
       </c>
       <c r="B226" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="1">
-        <v>44013</v>
+        <v>44012</v>
       </c>
       <c r="B227" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="1">
-        <v>44014</v>
+        <v>44013</v>
       </c>
       <c r="B228" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="1">
-        <v>44015</v>
+        <v>44014</v>
       </c>
       <c r="B229" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="1">
-        <v>44016</v>
+        <v>44015</v>
       </c>
       <c r="B230" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="1">
-        <v>44017</v>
+        <v>44016</v>
       </c>
       <c r="B231" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="1">
-        <v>44018</v>
+        <v>44017</v>
       </c>
       <c r="B232" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="1">
-        <v>44019</v>
+        <v>44018</v>
       </c>
       <c r="B233" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="1">
-        <v>44020</v>
+        <v>44019</v>
       </c>
       <c r="B234" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="1">
-        <v>44021</v>
+        <v>44020</v>
       </c>
       <c r="B235" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="1">
-        <v>44022</v>
+        <v>44021</v>
       </c>
       <c r="B236" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="1">
-        <v>44023</v>
+        <v>44022</v>
       </c>
       <c r="B237" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="1">
-        <v>44024</v>
+        <v>44023</v>
       </c>
       <c r="B238" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="1">
-        <v>44025</v>
+        <v>44024</v>
       </c>
       <c r="B239" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="1">
-        <v>44026</v>
+        <v>44025</v>
       </c>
       <c r="B240" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="1">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B241" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="1">
-        <v>44028</v>
+        <v>44027</v>
       </c>
       <c r="B242" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="1">
-        <v>44029</v>
+        <v>44028</v>
       </c>
       <c r="B243" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="1">
-        <v>44030</v>
+        <v>44029</v>
       </c>
       <c r="B244" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="1">
-        <v>44031</v>
+        <v>44030</v>
       </c>
       <c r="B245" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="1">
-        <v>44032</v>
+        <v>44031</v>
       </c>
       <c r="B246" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="1">
-        <v>44033</v>
+        <v>44032</v>
       </c>
       <c r="B247" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="1">
-        <v>44034</v>
+        <v>44033</v>
       </c>
       <c r="B248" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="1">
-        <v>44035</v>
+        <v>44034</v>
       </c>
       <c r="B249" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="1">
-        <v>44036</v>
+        <v>44035</v>
       </c>
       <c r="B250" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="1">
-        <v>44037</v>
+        <v>44036</v>
       </c>
       <c r="B251" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="1">
-        <v>44038</v>
+        <v>44037</v>
       </c>
       <c r="B252" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="1">
-        <v>44039</v>
+        <v>44038</v>
       </c>
       <c r="B253" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="1">
-        <v>44040</v>
+        <v>44039</v>
       </c>
       <c r="B254" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="1">
-        <v>44041</v>
+        <v>44040</v>
       </c>
       <c r="B255" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="1">
-        <v>44042</v>
+        <v>44041</v>
       </c>
       <c r="B256" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="1">
-        <v>44043</v>
+        <v>44042</v>
       </c>
       <c r="B257" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="1">
-        <v>44044</v>
+        <v>44043</v>
       </c>
       <c r="B258" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="1">
-        <v>44045</v>
+        <v>44044</v>
       </c>
       <c r="B259" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="1">
-        <v>44046</v>
+        <v>44045</v>
       </c>
       <c r="B260" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="1">
-        <v>44047</v>
+        <v>44046</v>
       </c>
       <c r="B261" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="1">
-        <v>44048</v>
+        <v>44047</v>
       </c>
       <c r="B262" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="1">
-        <v>44049</v>
+        <v>44048</v>
       </c>
       <c r="B263" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="1">
-        <v>44050</v>
+        <v>44049</v>
       </c>
       <c r="B264" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="1">
-        <v>44051</v>
+        <v>44050</v>
       </c>
       <c r="B265" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="1">
-        <v>44052</v>
+        <v>44051</v>
       </c>
       <c r="B266" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="1">
-        <v>44053</v>
+        <v>44052</v>
       </c>
       <c r="B267" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="1">
-        <v>44054</v>
+        <v>44053</v>
       </c>
       <c r="B268" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="1">
-        <v>44055</v>
+        <v>44054</v>
       </c>
       <c r="B269" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="1">
-        <v>44056</v>
+        <v>44055</v>
       </c>
       <c r="B270" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="1">
-        <v>44057</v>
+        <v>44056</v>
       </c>
       <c r="B271" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="1">
-        <v>44058</v>
+        <v>44057</v>
       </c>
       <c r="B272" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="1">
-        <v>44059</v>
+        <v>44058</v>
       </c>
       <c r="B273" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="1">
-        <v>44060</v>
+        <v>44059</v>
       </c>
       <c r="B274" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="1">
-        <v>44061</v>
+        <v>44060</v>
       </c>
       <c r="B275" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="1">
-        <v>44062</v>
+        <v>44061</v>
       </c>
       <c r="B276" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="1">
-        <v>44063</v>
+        <v>44062</v>
       </c>
       <c r="B277" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="1">
-        <v>44064</v>
+        <v>44063</v>
       </c>
       <c r="B278" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="1">
-        <v>44065</v>
+        <v>44064</v>
       </c>
       <c r="B279" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="1">
-        <v>44066</v>
+        <v>44065</v>
       </c>
       <c r="B280" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="1">
-        <v>44067</v>
+        <v>44066</v>
       </c>
       <c r="B281" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="1">
-        <v>44068</v>
+        <v>44067</v>
       </c>
       <c r="B282" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="1">
-        <v>44069</v>
+        <v>44068</v>
       </c>
       <c r="B283" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="1">
-        <v>44070</v>
+        <v>44069</v>
       </c>
       <c r="B284" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="1">
-        <v>44071</v>
+        <v>44070</v>
       </c>
       <c r="B285" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="1">
-        <v>44072</v>
+        <v>44071</v>
       </c>
       <c r="B286" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="1">
-        <v>44073</v>
+        <v>44072</v>
       </c>
       <c r="B287" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="1">
-        <v>44074</v>
+        <v>44073</v>
       </c>
       <c r="B288" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="1">
-        <v>44075</v>
+        <v>44074</v>
       </c>
       <c r="B289" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="1">
-        <v>44076</v>
+        <v>44075</v>
       </c>
       <c r="B290" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="1">
-        <v>44077</v>
+        <v>44076</v>
       </c>
       <c r="B291" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="1">
-        <v>44078</v>
+        <v>44077</v>
       </c>
       <c r="B292" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="1">
-        <v>44079</v>
+        <v>44078</v>
       </c>
       <c r="B293" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="1">
-        <v>44080</v>
+        <v>44079</v>
       </c>
       <c r="B294" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="1">
-        <v>44081</v>
+        <v>44080</v>
       </c>
       <c r="B295" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="1">
-        <v>44082</v>
+        <v>44081</v>
       </c>
       <c r="B296" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="1">
-        <v>44083</v>
+        <v>44082</v>
       </c>
       <c r="B297" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="1">
-        <v>44084</v>
+        <v>44083</v>
       </c>
       <c r="B298" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="1">
-        <v>44085</v>
+        <v>44084</v>
       </c>
       <c r="B299" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="1">
-        <v>44086</v>
+        <v>44085</v>
       </c>
       <c r="B300" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="1">
-        <v>44087</v>
+        <v>44086</v>
       </c>
       <c r="B301" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="1">
-        <v>44088</v>
+        <v>44087</v>
       </c>
       <c r="B302" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="1">
-        <v>44089</v>
+        <v>44088</v>
       </c>
       <c r="B303" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="1">
-        <v>44090</v>
+        <v>44089</v>
       </c>
       <c r="B304" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="1">
-        <v>44091</v>
+        <v>44090</v>
       </c>
       <c r="B305" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="1">
-        <v>44092</v>
+        <v>44091</v>
       </c>
       <c r="B306" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="1">
-        <v>44093</v>
+        <v>44092</v>
       </c>
       <c r="B307" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="1">
-        <v>44094</v>
+        <v>44093</v>
       </c>
       <c r="B308" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="1">
-        <v>44095</v>
+        <v>44094</v>
       </c>
       <c r="B309" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="1">
-        <v>44096</v>
+        <v>44095</v>
       </c>
       <c r="B310" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="1">
-        <v>44097</v>
+        <v>44096</v>
       </c>
       <c r="B311" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="1">
-        <v>44098</v>
+        <v>44097</v>
       </c>
       <c r="B312" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="1">
-        <v>44099</v>
+        <v>44098</v>
       </c>
       <c r="B313" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="1">
-        <v>44100</v>
+        <v>44099</v>
       </c>
       <c r="B314" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="1">
-        <v>44101</v>
+        <v>44100</v>
       </c>
       <c r="B315" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="1">
-        <v>44102</v>
+        <v>44101</v>
       </c>
       <c r="B316" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="1">
-        <v>44103</v>
+        <v>44102</v>
       </c>
       <c r="B317" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="1">
-        <v>44104</v>
+        <v>44103</v>
       </c>
       <c r="B318" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="1">
-        <v>44105</v>
+        <v>44104</v>
       </c>
       <c r="B319" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="1">
-        <v>44106</v>
+        <v>44105</v>
       </c>
       <c r="B320" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="1">
-        <v>44107</v>
+        <v>44106</v>
       </c>
       <c r="B321" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="1">
-        <v>44108</v>
+        <v>44107</v>
       </c>
       <c r="B322" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="1">
-        <v>44109</v>
+        <v>44108</v>
       </c>
       <c r="B323" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="1">
-        <v>44110</v>
+        <v>44109</v>
       </c>
       <c r="B324" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="1">
-        <v>44111</v>
+        <v>44110</v>
       </c>
       <c r="B325" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="1">
-        <v>44112</v>
+        <v>44111</v>
       </c>
       <c r="B326" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="1">
-        <v>44113</v>
+        <v>44112</v>
       </c>
       <c r="B327" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="1">
-        <v>44114</v>
+        <v>44113</v>
       </c>
       <c r="B328" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="1">
-        <v>44115</v>
+        <v>44114</v>
       </c>
       <c r="B329" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="1">
-        <v>44116</v>
+        <v>44115</v>
       </c>
       <c r="B330" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="1">
-        <v>44117</v>
+        <v>44116</v>
       </c>
       <c r="B331" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="1">
-        <v>44118</v>
+        <v>44117</v>
       </c>
       <c r="B332" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="1">
-        <v>44119</v>
+        <v>44118</v>
       </c>
       <c r="B333" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="1">
-        <v>44120</v>
+        <v>44119</v>
       </c>
       <c r="B334" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="1">
-        <v>44121</v>
+        <v>44120</v>
       </c>
       <c r="B335" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="1">
-        <v>44122</v>
+        <v>44121</v>
       </c>
       <c r="B336" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="1">
-        <v>44123</v>
+        <v>44122</v>
       </c>
       <c r="B337" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="1">
-        <v>44124</v>
+        <v>44123</v>
       </c>
       <c r="B338" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="1">
-        <v>44125</v>
+        <v>44124</v>
       </c>
       <c r="B339" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="1">
-        <v>44126</v>
+        <v>44125</v>
       </c>
       <c r="B340" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="1">
-        <v>44127</v>
+        <v>44126</v>
       </c>
       <c r="B341" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="1">
-        <v>44128</v>
+        <v>44127</v>
       </c>
       <c r="B342" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="1">
-        <v>44129</v>
+        <v>44128</v>
       </c>
       <c r="B343" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="1">
-        <v>44130</v>
+        <v>44129</v>
       </c>
       <c r="B344" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="1">
-        <v>44131</v>
+        <v>44130</v>
       </c>
       <c r="B345" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="1">
-        <v>44132</v>
+        <v>44131</v>
       </c>
       <c r="B346" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="1">
-        <v>44133</v>
+        <v>44132</v>
       </c>
       <c r="B347" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="1">
-        <v>44134</v>
+        <v>44133</v>
       </c>
       <c r="B348" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="1">
-        <v>44135</v>
+        <v>44134</v>
       </c>
       <c r="B349" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="1">
-        <v>44136</v>
+        <v>44135</v>
       </c>
       <c r="B350" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="1">
-        <v>44137</v>
+        <v>44136</v>
       </c>
       <c r="B351" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="1">
-        <v>44138</v>
+        <v>44137</v>
       </c>
       <c r="B352" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="1">
-        <v>44139</v>
+        <v>44138</v>
       </c>
       <c r="B353" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="1">
-        <v>44140</v>
+        <v>44139</v>
       </c>
       <c r="B354" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="1">
-        <v>44141</v>
+        <v>44140</v>
       </c>
       <c r="B355" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="1">
-        <v>44142</v>
+        <v>44141</v>
       </c>
       <c r="B356" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="1">
-        <v>44143</v>
+        <v>44142</v>
       </c>
       <c r="B357" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="1">
-        <v>44144</v>
+        <v>44143</v>
       </c>
       <c r="B358" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="1">
-        <v>44145</v>
+        <v>44144</v>
       </c>
       <c r="B359" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="1">
-        <v>44146</v>
+        <v>44145</v>
       </c>
       <c r="B360" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="1">
-        <v>44147</v>
+        <v>44146</v>
       </c>
       <c r="B361" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="1">
-        <v>44148</v>
+        <v>44147</v>
       </c>
       <c r="B362" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="1">
-        <v>44149</v>
+        <v>44148</v>
       </c>
       <c r="B363" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="1">
-        <v>44150</v>
+        <v>44149</v>
       </c>
       <c r="B364" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="1">
-        <v>44151</v>
+        <v>44150</v>
       </c>
       <c r="B365" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="1">
-        <v>44152</v>
+        <v>44151</v>
       </c>
       <c r="B366" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="1">
-        <v>44153</v>
+        <v>44152</v>
       </c>
       <c r="B367" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="1">
-        <v>44154</v>
+        <v>44153</v>
       </c>
       <c r="B368" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="1">
-        <v>44155</v>
+        <v>44154</v>
       </c>
       <c r="B369" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="1">
-        <v>44156</v>
+        <v>44155</v>
       </c>
       <c r="B370" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="1">
-        <v>44157</v>
+        <v>44156</v>
       </c>
       <c r="B371" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="1">
-        <v>44158</v>
+        <v>44157</v>
       </c>
       <c r="B372" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="1">
-        <v>44159</v>
+        <v>44158</v>
       </c>
       <c r="B373" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="1">
-        <v>44160</v>
+        <v>44159</v>
       </c>
       <c r="B374" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="1">
-        <v>44161</v>
+        <v>44160</v>
       </c>
       <c r="B375" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="1">
-        <v>44162</v>
+        <v>44161</v>
       </c>
       <c r="B376" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="1">
-        <v>44163</v>
+        <v>44162</v>
       </c>
       <c r="B377" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="1">
-        <v>44164</v>
+        <v>44163</v>
       </c>
       <c r="B378" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="1">
-        <v>44165</v>
+        <v>44164</v>
       </c>
       <c r="B379" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="1">
-        <v>44166</v>
+        <v>44165</v>
       </c>
       <c r="B380" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="1">
-        <v>44167</v>
+        <v>44166</v>
       </c>
       <c r="B381" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="1">
-        <v>44168</v>
+        <v>44167</v>
       </c>
       <c r="B382" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="1">
-        <v>44169</v>
+        <v>44168</v>
       </c>
       <c r="B383" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="1">
-        <v>44170</v>
+        <v>44169</v>
       </c>
       <c r="B384" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="1">
-        <v>44171</v>
+        <v>44170</v>
       </c>
       <c r="B385" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="1">
-        <v>44172</v>
+        <v>44171</v>
       </c>
       <c r="B386" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="1">
-        <v>44173</v>
+        <v>44172</v>
       </c>
       <c r="B387" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="1">
-        <v>44174</v>
+        <v>44173</v>
       </c>
       <c r="B388" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="1">
-        <v>44175</v>
+        <v>44174</v>
       </c>
       <c r="B389" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="1">
-        <v>44176</v>
+        <v>44175</v>
       </c>
       <c r="B390" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="1">
-        <v>44177</v>
+        <v>44176</v>
       </c>
       <c r="B391" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="1">
-        <v>44178</v>
+        <v>44177</v>
       </c>
       <c r="B392" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="1">
-        <v>44179</v>
+        <v>44178</v>
       </c>
       <c r="B393" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="1">
-        <v>44180</v>
+        <v>44179</v>
       </c>
       <c r="B394" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="1">
-        <v>44181</v>
+        <v>44180</v>
       </c>
       <c r="B395" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="1">
-        <v>44182</v>
+        <v>44181</v>
       </c>
       <c r="B396" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="1">
-        <v>44183</v>
+        <v>44182</v>
       </c>
       <c r="B397" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="1">
-        <v>44184</v>
+        <v>44183</v>
       </c>
       <c r="B398" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="1">
-        <v>44185</v>
+        <v>44184</v>
       </c>
       <c r="B399" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="1">
-        <v>44186</v>
+        <v>44185</v>
       </c>
       <c r="B400" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="1">
-        <v>44187</v>
+        <v>44186</v>
       </c>
       <c r="B401" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="1">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="B402" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="1">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="B403" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="1">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="B404" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="1">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="B405" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="1">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="B406" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="1">
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="B407" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="1">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="B408" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="1">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B409" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="1">
+        <v>44195</v>
+      </c>
+      <c r="B410" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2">
+      <c r="A411" s="1">
         <v>44196</v>
       </c>
-      <c r="B410" t="s">
+      <c r="B411" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6570,7 +6585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="A64" sqref="A64"/>
     </sheetView>
   </sheetViews>

--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="По задачам" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="374">
   <si>
     <t>Дата начала</t>
   </si>
@@ -1259,6 +1259,18 @@
   </si>
   <si>
     <t>Прочитал</t>
+  </si>
+  <si>
+    <t>Junior's Online Conference #2 - Java</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2F4BOzhog7A</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=c4ejEHheDBQ</t>
+  </si>
+  <si>
+    <t>Movie search. Task review</t>
   </si>
 </sst>
 </file>
@@ -1647,10 +1659,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2554,6 +2566,17 @@
       </c>
       <c r="C77" t="s">
         <v>368</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B78" s="1">
+        <v>43964</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -2570,10 +2593,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D411"/>
+  <dimension ref="A1:D412"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="C177" sqref="C177:D178"/>
+    <sheetView topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="C180" sqref="C180:D180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4668,1860 +4691,1875 @@
       <c r="B179" t="s">
         <v>12</v>
       </c>
+      <c r="C179" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D179" s="8" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="180" spans="1:4">
-      <c r="A180" s="1">
-        <v>43965</v>
-      </c>
-      <c r="B180" t="s">
-        <v>13</v>
+      <c r="A180" s="1"/>
+      <c r="C180" t="s">
+        <v>329</v>
+      </c>
+      <c r="D180" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="1">
-        <v>43966</v>
+        <v>43965</v>
       </c>
       <c r="B181" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="1">
-        <v>43967</v>
+        <v>43966</v>
       </c>
       <c r="B182" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="1">
-        <v>43968</v>
+        <v>43967</v>
       </c>
       <c r="B183" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="1">
-        <v>43969</v>
+        <v>43968</v>
       </c>
       <c r="B184" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="1">
-        <v>43970</v>
+        <v>43969</v>
       </c>
       <c r="B185" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="1">
-        <v>43971</v>
+        <v>43970</v>
       </c>
       <c r="B186" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="1">
-        <v>43972</v>
+        <v>43971</v>
       </c>
       <c r="B187" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="1">
-        <v>43973</v>
+        <v>43972</v>
       </c>
       <c r="B188" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="1">
-        <v>43974</v>
+        <v>43973</v>
       </c>
       <c r="B189" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="1">
-        <v>43975</v>
+        <v>43974</v>
       </c>
       <c r="B190" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="1">
-        <v>43976</v>
+        <v>43975</v>
       </c>
       <c r="B191" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="1">
-        <v>43977</v>
+        <v>43976</v>
       </c>
       <c r="B192" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="1">
-        <v>43978</v>
+        <v>43977</v>
       </c>
       <c r="B193" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="1">
-        <v>43979</v>
+        <v>43978</v>
       </c>
       <c r="B194" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="1">
-        <v>43980</v>
+        <v>43979</v>
       </c>
       <c r="B195" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="1">
-        <v>43981</v>
+        <v>43980</v>
       </c>
       <c r="B196" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="1">
-        <v>43982</v>
+        <v>43981</v>
       </c>
       <c r="B197" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="1">
-        <v>43983</v>
+        <v>43982</v>
       </c>
       <c r="B198" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="1">
-        <v>43984</v>
+        <v>43983</v>
       </c>
       <c r="B199" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="1">
-        <v>43985</v>
+        <v>43984</v>
       </c>
       <c r="B200" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="1">
-        <v>43986</v>
+        <v>43985</v>
       </c>
       <c r="B201" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="1">
-        <v>43987</v>
+        <v>43986</v>
       </c>
       <c r="B202" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="1">
-        <v>43988</v>
+        <v>43987</v>
       </c>
       <c r="B203" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="1">
-        <v>43989</v>
+        <v>43988</v>
       </c>
       <c r="B204" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="1">
-        <v>43990</v>
+        <v>43989</v>
       </c>
       <c r="B205" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="1">
-        <v>43991</v>
+        <v>43990</v>
       </c>
       <c r="B206" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="1">
-        <v>43992</v>
+        <v>43991</v>
       </c>
       <c r="B207" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="1">
-        <v>43993</v>
+        <v>43992</v>
       </c>
       <c r="B208" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="1">
-        <v>43994</v>
+        <v>43993</v>
       </c>
       <c r="B209" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="1">
-        <v>43995</v>
+        <v>43994</v>
       </c>
       <c r="B210" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="1">
-        <v>43996</v>
+        <v>43995</v>
       </c>
       <c r="B211" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="1">
-        <v>43997</v>
+        <v>43996</v>
       </c>
       <c r="B212" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="1">
-        <v>43998</v>
+        <v>43997</v>
       </c>
       <c r="B213" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="1">
-        <v>43999</v>
+        <v>43998</v>
       </c>
       <c r="B214" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="1">
-        <v>44000</v>
+        <v>43999</v>
       </c>
       <c r="B215" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="1">
-        <v>44001</v>
+        <v>44000</v>
       </c>
       <c r="B216" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="1">
-        <v>44002</v>
+        <v>44001</v>
       </c>
       <c r="B217" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="1">
-        <v>44003</v>
+        <v>44002</v>
       </c>
       <c r="B218" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="1">
-        <v>44004</v>
+        <v>44003</v>
       </c>
       <c r="B219" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="1">
-        <v>44005</v>
+        <v>44004</v>
       </c>
       <c r="B220" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="1">
-        <v>44006</v>
+        <v>44005</v>
       </c>
       <c r="B221" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="1">
-        <v>44007</v>
+        <v>44006</v>
       </c>
       <c r="B222" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="1">
-        <v>44008</v>
+        <v>44007</v>
       </c>
       <c r="B223" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="1">
-        <v>44009</v>
+        <v>44008</v>
       </c>
       <c r="B224" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="1">
-        <v>44010</v>
+        <v>44009</v>
       </c>
       <c r="B225" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="1">
-        <v>44011</v>
+        <v>44010</v>
       </c>
       <c r="B226" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="1">
-        <v>44012</v>
+        <v>44011</v>
       </c>
       <c r="B227" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="1">
-        <v>44013</v>
+        <v>44012</v>
       </c>
       <c r="B228" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="1">
-        <v>44014</v>
+        <v>44013</v>
       </c>
       <c r="B229" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="1">
-        <v>44015</v>
+        <v>44014</v>
       </c>
       <c r="B230" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="1">
-        <v>44016</v>
+        <v>44015</v>
       </c>
       <c r="B231" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="1">
-        <v>44017</v>
+        <v>44016</v>
       </c>
       <c r="B232" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="1">
-        <v>44018</v>
+        <v>44017</v>
       </c>
       <c r="B233" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="1">
-        <v>44019</v>
+        <v>44018</v>
       </c>
       <c r="B234" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="1">
-        <v>44020</v>
+        <v>44019</v>
       </c>
       <c r="B235" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="1">
-        <v>44021</v>
+        <v>44020</v>
       </c>
       <c r="B236" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="1">
-        <v>44022</v>
+        <v>44021</v>
       </c>
       <c r="B237" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="1">
-        <v>44023</v>
+        <v>44022</v>
       </c>
       <c r="B238" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="1">
-        <v>44024</v>
+        <v>44023</v>
       </c>
       <c r="B239" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="1">
-        <v>44025</v>
+        <v>44024</v>
       </c>
       <c r="B240" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="1">
-        <v>44026</v>
+        <v>44025</v>
       </c>
       <c r="B241" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="1">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B242" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="1">
-        <v>44028</v>
+        <v>44027</v>
       </c>
       <c r="B243" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="1">
-        <v>44029</v>
+        <v>44028</v>
       </c>
       <c r="B244" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="1">
-        <v>44030</v>
+        <v>44029</v>
       </c>
       <c r="B245" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="1">
-        <v>44031</v>
+        <v>44030</v>
       </c>
       <c r="B246" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="1">
-        <v>44032</v>
+        <v>44031</v>
       </c>
       <c r="B247" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="1">
-        <v>44033</v>
+        <v>44032</v>
       </c>
       <c r="B248" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="1">
-        <v>44034</v>
+        <v>44033</v>
       </c>
       <c r="B249" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="1">
-        <v>44035</v>
+        <v>44034</v>
       </c>
       <c r="B250" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="1">
-        <v>44036</v>
+        <v>44035</v>
       </c>
       <c r="B251" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="1">
-        <v>44037</v>
+        <v>44036</v>
       </c>
       <c r="B252" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="1">
-        <v>44038</v>
+        <v>44037</v>
       </c>
       <c r="B253" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="1">
-        <v>44039</v>
+        <v>44038</v>
       </c>
       <c r="B254" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="1">
-        <v>44040</v>
+        <v>44039</v>
       </c>
       <c r="B255" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="1">
-        <v>44041</v>
+        <v>44040</v>
       </c>
       <c r="B256" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="1">
-        <v>44042</v>
+        <v>44041</v>
       </c>
       <c r="B257" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="1">
-        <v>44043</v>
+        <v>44042</v>
       </c>
       <c r="B258" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="1">
-        <v>44044</v>
+        <v>44043</v>
       </c>
       <c r="B259" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="1">
-        <v>44045</v>
+        <v>44044</v>
       </c>
       <c r="B260" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="1">
-        <v>44046</v>
+        <v>44045</v>
       </c>
       <c r="B261" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="1">
-        <v>44047</v>
+        <v>44046</v>
       </c>
       <c r="B262" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="1">
-        <v>44048</v>
+        <v>44047</v>
       </c>
       <c r="B263" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="1">
-        <v>44049</v>
+        <v>44048</v>
       </c>
       <c r="B264" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="1">
-        <v>44050</v>
+        <v>44049</v>
       </c>
       <c r="B265" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="1">
-        <v>44051</v>
+        <v>44050</v>
       </c>
       <c r="B266" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="1">
-        <v>44052</v>
+        <v>44051</v>
       </c>
       <c r="B267" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="1">
-        <v>44053</v>
+        <v>44052</v>
       </c>
       <c r="B268" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="1">
-        <v>44054</v>
+        <v>44053</v>
       </c>
       <c r="B269" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="1">
-        <v>44055</v>
+        <v>44054</v>
       </c>
       <c r="B270" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="1">
-        <v>44056</v>
+        <v>44055</v>
       </c>
       <c r="B271" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="1">
-        <v>44057</v>
+        <v>44056</v>
       </c>
       <c r="B272" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="1">
-        <v>44058</v>
+        <v>44057</v>
       </c>
       <c r="B273" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="1">
-        <v>44059</v>
+        <v>44058</v>
       </c>
       <c r="B274" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="1">
-        <v>44060</v>
+        <v>44059</v>
       </c>
       <c r="B275" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="1">
-        <v>44061</v>
+        <v>44060</v>
       </c>
       <c r="B276" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="1">
-        <v>44062</v>
+        <v>44061</v>
       </c>
       <c r="B277" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="1">
-        <v>44063</v>
+        <v>44062</v>
       </c>
       <c r="B278" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="1">
-        <v>44064</v>
+        <v>44063</v>
       </c>
       <c r="B279" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="1">
-        <v>44065</v>
+        <v>44064</v>
       </c>
       <c r="B280" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="1">
-        <v>44066</v>
+        <v>44065</v>
       </c>
       <c r="B281" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="1">
-        <v>44067</v>
+        <v>44066</v>
       </c>
       <c r="B282" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="1">
-        <v>44068</v>
+        <v>44067</v>
       </c>
       <c r="B283" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="1">
-        <v>44069</v>
+        <v>44068</v>
       </c>
       <c r="B284" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="1">
-        <v>44070</v>
+        <v>44069</v>
       </c>
       <c r="B285" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="1">
-        <v>44071</v>
+        <v>44070</v>
       </c>
       <c r="B286" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="1">
-        <v>44072</v>
+        <v>44071</v>
       </c>
       <c r="B287" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="1">
-        <v>44073</v>
+        <v>44072</v>
       </c>
       <c r="B288" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="1">
-        <v>44074</v>
+        <v>44073</v>
       </c>
       <c r="B289" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="1">
-        <v>44075</v>
+        <v>44074</v>
       </c>
       <c r="B290" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="1">
-        <v>44076</v>
+        <v>44075</v>
       </c>
       <c r="B291" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="1">
-        <v>44077</v>
+        <v>44076</v>
       </c>
       <c r="B292" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="1">
-        <v>44078</v>
+        <v>44077</v>
       </c>
       <c r="B293" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="1">
-        <v>44079</v>
+        <v>44078</v>
       </c>
       <c r="B294" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="1">
-        <v>44080</v>
+        <v>44079</v>
       </c>
       <c r="B295" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="1">
-        <v>44081</v>
+        <v>44080</v>
       </c>
       <c r="B296" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="1">
-        <v>44082</v>
+        <v>44081</v>
       </c>
       <c r="B297" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="1">
-        <v>44083</v>
+        <v>44082</v>
       </c>
       <c r="B298" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="1">
-        <v>44084</v>
+        <v>44083</v>
       </c>
       <c r="B299" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="1">
-        <v>44085</v>
+        <v>44084</v>
       </c>
       <c r="B300" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="1">
-        <v>44086</v>
+        <v>44085</v>
       </c>
       <c r="B301" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="1">
-        <v>44087</v>
+        <v>44086</v>
       </c>
       <c r="B302" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="1">
-        <v>44088</v>
+        <v>44087</v>
       </c>
       <c r="B303" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="1">
-        <v>44089</v>
+        <v>44088</v>
       </c>
       <c r="B304" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="1">
-        <v>44090</v>
+        <v>44089</v>
       </c>
       <c r="B305" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="1">
-        <v>44091</v>
+        <v>44090</v>
       </c>
       <c r="B306" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="1">
-        <v>44092</v>
+        <v>44091</v>
       </c>
       <c r="B307" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="1">
-        <v>44093</v>
+        <v>44092</v>
       </c>
       <c r="B308" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="1">
-        <v>44094</v>
+        <v>44093</v>
       </c>
       <c r="B309" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="1">
-        <v>44095</v>
+        <v>44094</v>
       </c>
       <c r="B310" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="1">
-        <v>44096</v>
+        <v>44095</v>
       </c>
       <c r="B311" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="1">
-        <v>44097</v>
+        <v>44096</v>
       </c>
       <c r="B312" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="1">
-        <v>44098</v>
+        <v>44097</v>
       </c>
       <c r="B313" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="1">
-        <v>44099</v>
+        <v>44098</v>
       </c>
       <c r="B314" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="1">
-        <v>44100</v>
+        <v>44099</v>
       </c>
       <c r="B315" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="1">
-        <v>44101</v>
+        <v>44100</v>
       </c>
       <c r="B316" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="1">
-        <v>44102</v>
+        <v>44101</v>
       </c>
       <c r="B317" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="1">
-        <v>44103</v>
+        <v>44102</v>
       </c>
       <c r="B318" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="1">
-        <v>44104</v>
+        <v>44103</v>
       </c>
       <c r="B319" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="1">
-        <v>44105</v>
+        <v>44104</v>
       </c>
       <c r="B320" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="1">
-        <v>44106</v>
+        <v>44105</v>
       </c>
       <c r="B321" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="1">
-        <v>44107</v>
+        <v>44106</v>
       </c>
       <c r="B322" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="1">
-        <v>44108</v>
+        <v>44107</v>
       </c>
       <c r="B323" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="1">
-        <v>44109</v>
+        <v>44108</v>
       </c>
       <c r="B324" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="1">
-        <v>44110</v>
+        <v>44109</v>
       </c>
       <c r="B325" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="1">
-        <v>44111</v>
+        <v>44110</v>
       </c>
       <c r="B326" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="1">
-        <v>44112</v>
+        <v>44111</v>
       </c>
       <c r="B327" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="1">
-        <v>44113</v>
+        <v>44112</v>
       </c>
       <c r="B328" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="1">
-        <v>44114</v>
+        <v>44113</v>
       </c>
       <c r="B329" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="1">
-        <v>44115</v>
+        <v>44114</v>
       </c>
       <c r="B330" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="1">
-        <v>44116</v>
+        <v>44115</v>
       </c>
       <c r="B331" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="1">
-        <v>44117</v>
+        <v>44116</v>
       </c>
       <c r="B332" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="1">
-        <v>44118</v>
+        <v>44117</v>
       </c>
       <c r="B333" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="1">
-        <v>44119</v>
+        <v>44118</v>
       </c>
       <c r="B334" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="1">
-        <v>44120</v>
+        <v>44119</v>
       </c>
       <c r="B335" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="1">
-        <v>44121</v>
+        <v>44120</v>
       </c>
       <c r="B336" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="1">
-        <v>44122</v>
+        <v>44121</v>
       </c>
       <c r="B337" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="1">
-        <v>44123</v>
+        <v>44122</v>
       </c>
       <c r="B338" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="1">
-        <v>44124</v>
+        <v>44123</v>
       </c>
       <c r="B339" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="1">
-        <v>44125</v>
+        <v>44124</v>
       </c>
       <c r="B340" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="1">
-        <v>44126</v>
+        <v>44125</v>
       </c>
       <c r="B341" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="1">
-        <v>44127</v>
+        <v>44126</v>
       </c>
       <c r="B342" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="1">
-        <v>44128</v>
+        <v>44127</v>
       </c>
       <c r="B343" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="1">
-        <v>44129</v>
+        <v>44128</v>
       </c>
       <c r="B344" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="1">
-        <v>44130</v>
+        <v>44129</v>
       </c>
       <c r="B345" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="1">
-        <v>44131</v>
+        <v>44130</v>
       </c>
       <c r="B346" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="1">
-        <v>44132</v>
+        <v>44131</v>
       </c>
       <c r="B347" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="1">
-        <v>44133</v>
+        <v>44132</v>
       </c>
       <c r="B348" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="1">
-        <v>44134</v>
+        <v>44133</v>
       </c>
       <c r="B349" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="1">
-        <v>44135</v>
+        <v>44134</v>
       </c>
       <c r="B350" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="1">
-        <v>44136</v>
+        <v>44135</v>
       </c>
       <c r="B351" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="1">
-        <v>44137</v>
+        <v>44136</v>
       </c>
       <c r="B352" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="1">
-        <v>44138</v>
+        <v>44137</v>
       </c>
       <c r="B353" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="1">
-        <v>44139</v>
+        <v>44138</v>
       </c>
       <c r="B354" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="1">
-        <v>44140</v>
+        <v>44139</v>
       </c>
       <c r="B355" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="1">
-        <v>44141</v>
+        <v>44140</v>
       </c>
       <c r="B356" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="1">
-        <v>44142</v>
+        <v>44141</v>
       </c>
       <c r="B357" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="1">
-        <v>44143</v>
+        <v>44142</v>
       </c>
       <c r="B358" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="1">
-        <v>44144</v>
+        <v>44143</v>
       </c>
       <c r="B359" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="1">
-        <v>44145</v>
+        <v>44144</v>
       </c>
       <c r="B360" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="1">
-        <v>44146</v>
+        <v>44145</v>
       </c>
       <c r="B361" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="1">
-        <v>44147</v>
+        <v>44146</v>
       </c>
       <c r="B362" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="1">
-        <v>44148</v>
+        <v>44147</v>
       </c>
       <c r="B363" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="1">
-        <v>44149</v>
+        <v>44148</v>
       </c>
       <c r="B364" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="1">
-        <v>44150</v>
+        <v>44149</v>
       </c>
       <c r="B365" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="1">
-        <v>44151</v>
+        <v>44150</v>
       </c>
       <c r="B366" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="1">
-        <v>44152</v>
+        <v>44151</v>
       </c>
       <c r="B367" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="1">
-        <v>44153</v>
+        <v>44152</v>
       </c>
       <c r="B368" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="1">
-        <v>44154</v>
+        <v>44153</v>
       </c>
       <c r="B369" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="1">
-        <v>44155</v>
+        <v>44154</v>
       </c>
       <c r="B370" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="1">
-        <v>44156</v>
+        <v>44155</v>
       </c>
       <c r="B371" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="1">
-        <v>44157</v>
+        <v>44156</v>
       </c>
       <c r="B372" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="1">
-        <v>44158</v>
+        <v>44157</v>
       </c>
       <c r="B373" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="1">
-        <v>44159</v>
+        <v>44158</v>
       </c>
       <c r="B374" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="1">
-        <v>44160</v>
+        <v>44159</v>
       </c>
       <c r="B375" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="1">
-        <v>44161</v>
+        <v>44160</v>
       </c>
       <c r="B376" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="1">
-        <v>44162</v>
+        <v>44161</v>
       </c>
       <c r="B377" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="1">
-        <v>44163</v>
+        <v>44162</v>
       </c>
       <c r="B378" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="1">
-        <v>44164</v>
+        <v>44163</v>
       </c>
       <c r="B379" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="1">
-        <v>44165</v>
+        <v>44164</v>
       </c>
       <c r="B380" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="1">
-        <v>44166</v>
+        <v>44165</v>
       </c>
       <c r="B381" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="1">
-        <v>44167</v>
+        <v>44166</v>
       </c>
       <c r="B382" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="1">
-        <v>44168</v>
+        <v>44167</v>
       </c>
       <c r="B383" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="1">
-        <v>44169</v>
+        <v>44168</v>
       </c>
       <c r="B384" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="1">
-        <v>44170</v>
+        <v>44169</v>
       </c>
       <c r="B385" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="1">
-        <v>44171</v>
+        <v>44170</v>
       </c>
       <c r="B386" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="1">
-        <v>44172</v>
+        <v>44171</v>
       </c>
       <c r="B387" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="1">
-        <v>44173</v>
+        <v>44172</v>
       </c>
       <c r="B388" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="1">
-        <v>44174</v>
+        <v>44173</v>
       </c>
       <c r="B389" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="1">
-        <v>44175</v>
+        <v>44174</v>
       </c>
       <c r="B390" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="1">
-        <v>44176</v>
+        <v>44175</v>
       </c>
       <c r="B391" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="1">
-        <v>44177</v>
+        <v>44176</v>
       </c>
       <c r="B392" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="1">
-        <v>44178</v>
+        <v>44177</v>
       </c>
       <c r="B393" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="1">
-        <v>44179</v>
+        <v>44178</v>
       </c>
       <c r="B394" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="1">
-        <v>44180</v>
+        <v>44179</v>
       </c>
       <c r="B395" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="1">
-        <v>44181</v>
+        <v>44180</v>
       </c>
       <c r="B396" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="1">
-        <v>44182</v>
+        <v>44181</v>
       </c>
       <c r="B397" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="1">
-        <v>44183</v>
+        <v>44182</v>
       </c>
       <c r="B398" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="1">
-        <v>44184</v>
+        <v>44183</v>
       </c>
       <c r="B399" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="1">
-        <v>44185</v>
+        <v>44184</v>
       </c>
       <c r="B400" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="1">
-        <v>44186</v>
+        <v>44185</v>
       </c>
       <c r="B401" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="1">
-        <v>44187</v>
+        <v>44186</v>
       </c>
       <c r="B402" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="1">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="B403" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="1">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="B404" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="1">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="B405" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="1">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="B406" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="1">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="B407" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="1">
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="B408" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="1">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="B409" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="1">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B410" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="1">
+        <v>44195</v>
+      </c>
+      <c r="B411" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2">
+      <c r="A412" s="1">
         <v>44196</v>
       </c>
-      <c r="B411" t="s">
+      <c r="B412" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6575,9 +6613,10 @@
     <hyperlink ref="C148" r:id="rId46"/>
     <hyperlink ref="C166" r:id="rId47"/>
     <hyperlink ref="C169" r:id="rId48"/>
+    <hyperlink ref="C179" r:id="rId49"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId49"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId50"/>
 </worksheet>
 </file>
 
@@ -6585,8 +6624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F131"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A64" sqref="A64"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7377,6 +7416,31 @@
         <v>132</v>
       </c>
       <c r="D60" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="C61" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="C62" t="s">
+        <v>132</v>
+      </c>
+      <c r="D62" t="s">
         <v>286</v>
       </c>
     </row>
@@ -7886,9 +7950,11 @@
     <hyperlink ref="A51" r:id="rId46"/>
     <hyperlink ref="A85" r:id="rId47"/>
     <hyperlink ref="A60" r:id="rId48"/>
+    <hyperlink ref="A61" r:id="rId49"/>
+    <hyperlink ref="A62" r:id="rId50"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId49"/>
-  <legacyDrawing r:id="rId50"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId51"/>
+  <legacyDrawing r:id="rId52"/>
 </worksheet>
 </file>
--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="377">
   <si>
     <t>Дата начала</t>
   </si>
@@ -1271,6 +1271,15 @@
   </si>
   <si>
     <t>Movie search. Task review</t>
+  </si>
+  <si>
+    <t>Movie search. Cross-Check</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xrS60rkoG3w</t>
+  </si>
+  <si>
+    <t>Testing</t>
   </si>
 </sst>
 </file>
@@ -1659,10 +1668,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2577,6 +2586,17 @@
       </c>
       <c r="C78" s="8" t="s">
         <v>373</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1">
+        <v>43965</v>
+      </c>
+      <c r="B79" s="1">
+        <v>43965</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -2593,10 +2613,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D412"/>
+  <dimension ref="A1:D414"/>
   <sheetViews>
     <sheetView topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="C180" sqref="C180:D180"/>
+      <selection activeCell="C183" sqref="C183:D183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4714,1852 +4734,1876 @@
       <c r="B181" t="s">
         <v>13</v>
       </c>
+      <c r="C181" t="s">
+        <v>329</v>
+      </c>
+      <c r="D181" s="8" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="182" spans="1:4">
-      <c r="A182" s="1">
-        <v>43966</v>
-      </c>
-      <c r="B182" t="s">
-        <v>14</v>
+      <c r="A182" s="1"/>
+      <c r="C182" t="s">
+        <v>329</v>
+      </c>
+      <c r="D182" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="183" spans="1:4">
-      <c r="A183" s="1">
-        <v>43967</v>
-      </c>
-      <c r="B183" t="s">
-        <v>15</v>
+      <c r="A183" s="1"/>
+      <c r="C183" t="s">
+        <v>375</v>
+      </c>
+      <c r="D183" s="8" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="1">
-        <v>43968</v>
+        <v>43966</v>
       </c>
       <c r="B184" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="1">
-        <v>43969</v>
+        <v>43967</v>
       </c>
       <c r="B185" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="1">
-        <v>43970</v>
+        <v>43968</v>
       </c>
       <c r="B186" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="1">
-        <v>43971</v>
+        <v>43969</v>
       </c>
       <c r="B187" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="1">
-        <v>43972</v>
+        <v>43970</v>
       </c>
       <c r="B188" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="1">
-        <v>43973</v>
+        <v>43971</v>
       </c>
       <c r="B189" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="1">
-        <v>43974</v>
+        <v>43972</v>
       </c>
       <c r="B190" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="1">
-        <v>43975</v>
+        <v>43973</v>
       </c>
       <c r="B191" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="1">
-        <v>43976</v>
+        <v>43974</v>
       </c>
       <c r="B192" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="1">
-        <v>43977</v>
+        <v>43975</v>
       </c>
       <c r="B193" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="1">
-        <v>43978</v>
+        <v>43976</v>
       </c>
       <c r="B194" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="1">
-        <v>43979</v>
+        <v>43977</v>
       </c>
       <c r="B195" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="1">
-        <v>43980</v>
+        <v>43978</v>
       </c>
       <c r="B196" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="1">
-        <v>43981</v>
+        <v>43979</v>
       </c>
       <c r="B197" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="1">
-        <v>43982</v>
+        <v>43980</v>
       </c>
       <c r="B198" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="1">
-        <v>43983</v>
+        <v>43981</v>
       </c>
       <c r="B199" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="1">
-        <v>43984</v>
+        <v>43982</v>
       </c>
       <c r="B200" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="1">
-        <v>43985</v>
+        <v>43983</v>
       </c>
       <c r="B201" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="1">
-        <v>43986</v>
+        <v>43984</v>
       </c>
       <c r="B202" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="1">
-        <v>43987</v>
+        <v>43985</v>
       </c>
       <c r="B203" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="1">
-        <v>43988</v>
+        <v>43986</v>
       </c>
       <c r="B204" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="1">
-        <v>43989</v>
+        <v>43987</v>
       </c>
       <c r="B205" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="1">
-        <v>43990</v>
+        <v>43988</v>
       </c>
       <c r="B206" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="1">
-        <v>43991</v>
+        <v>43989</v>
       </c>
       <c r="B207" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="1">
-        <v>43992</v>
+        <v>43990</v>
       </c>
       <c r="B208" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="1">
-        <v>43993</v>
+        <v>43991</v>
       </c>
       <c r="B209" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="1">
-        <v>43994</v>
+        <v>43992</v>
       </c>
       <c r="B210" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="1">
-        <v>43995</v>
+        <v>43993</v>
       </c>
       <c r="B211" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="1">
-        <v>43996</v>
+        <v>43994</v>
       </c>
       <c r="B212" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="1">
-        <v>43997</v>
+        <v>43995</v>
       </c>
       <c r="B213" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="1">
-        <v>43998</v>
+        <v>43996</v>
       </c>
       <c r="B214" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="1">
-        <v>43999</v>
+        <v>43997</v>
       </c>
       <c r="B215" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="1">
-        <v>44000</v>
+        <v>43998</v>
       </c>
       <c r="B216" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="1">
-        <v>44001</v>
+        <v>43999</v>
       </c>
       <c r="B217" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="1">
-        <v>44002</v>
+        <v>44000</v>
       </c>
       <c r="B218" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="1">
-        <v>44003</v>
+        <v>44001</v>
       </c>
       <c r="B219" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="1">
-        <v>44004</v>
+        <v>44002</v>
       </c>
       <c r="B220" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="1">
-        <v>44005</v>
+        <v>44003</v>
       </c>
       <c r="B221" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="1">
-        <v>44006</v>
+        <v>44004</v>
       </c>
       <c r="B222" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="1">
-        <v>44007</v>
+        <v>44005</v>
       </c>
       <c r="B223" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="1">
-        <v>44008</v>
+        <v>44006</v>
       </c>
       <c r="B224" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="1">
-        <v>44009</v>
+        <v>44007</v>
       </c>
       <c r="B225" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="1">
-        <v>44010</v>
+        <v>44008</v>
       </c>
       <c r="B226" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="1">
-        <v>44011</v>
+        <v>44009</v>
       </c>
       <c r="B227" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="1">
-        <v>44012</v>
+        <v>44010</v>
       </c>
       <c r="B228" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="1">
-        <v>44013</v>
+        <v>44011</v>
       </c>
       <c r="B229" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="1">
-        <v>44014</v>
+        <v>44012</v>
       </c>
       <c r="B230" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="1">
-        <v>44015</v>
+        <v>44013</v>
       </c>
       <c r="B231" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="1">
-        <v>44016</v>
+        <v>44014</v>
       </c>
       <c r="B232" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="1">
-        <v>44017</v>
+        <v>44015</v>
       </c>
       <c r="B233" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="1">
-        <v>44018</v>
+        <v>44016</v>
       </c>
       <c r="B234" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="1">
-        <v>44019</v>
+        <v>44017</v>
       </c>
       <c r="B235" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="1">
-        <v>44020</v>
+        <v>44018</v>
       </c>
       <c r="B236" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="1">
-        <v>44021</v>
+        <v>44019</v>
       </c>
       <c r="B237" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="1">
-        <v>44022</v>
+        <v>44020</v>
       </c>
       <c r="B238" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="1">
-        <v>44023</v>
+        <v>44021</v>
       </c>
       <c r="B239" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="1">
-        <v>44024</v>
+        <v>44022</v>
       </c>
       <c r="B240" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="1">
-        <v>44025</v>
+        <v>44023</v>
       </c>
       <c r="B241" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="1">
-        <v>44026</v>
+        <v>44024</v>
       </c>
       <c r="B242" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="1">
-        <v>44027</v>
+        <v>44025</v>
       </c>
       <c r="B243" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="1">
-        <v>44028</v>
+        <v>44026</v>
       </c>
       <c r="B244" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="1">
-        <v>44029</v>
+        <v>44027</v>
       </c>
       <c r="B245" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="1">
-        <v>44030</v>
+        <v>44028</v>
       </c>
       <c r="B246" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="1">
-        <v>44031</v>
+        <v>44029</v>
       </c>
       <c r="B247" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="1">
-        <v>44032</v>
+        <v>44030</v>
       </c>
       <c r="B248" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="1">
-        <v>44033</v>
+        <v>44031</v>
       </c>
       <c r="B249" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="1">
-        <v>44034</v>
+        <v>44032</v>
       </c>
       <c r="B250" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="1">
-        <v>44035</v>
+        <v>44033</v>
       </c>
       <c r="B251" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="1">
-        <v>44036</v>
+        <v>44034</v>
       </c>
       <c r="B252" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="1">
-        <v>44037</v>
+        <v>44035</v>
       </c>
       <c r="B253" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="1">
-        <v>44038</v>
+        <v>44036</v>
       </c>
       <c r="B254" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="1">
-        <v>44039</v>
+        <v>44037</v>
       </c>
       <c r="B255" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="1">
-        <v>44040</v>
+        <v>44038</v>
       </c>
       <c r="B256" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="1">
-        <v>44041</v>
+        <v>44039</v>
       </c>
       <c r="B257" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="1">
-        <v>44042</v>
+        <v>44040</v>
       </c>
       <c r="B258" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="1">
-        <v>44043</v>
+        <v>44041</v>
       </c>
       <c r="B259" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="1">
-        <v>44044</v>
+        <v>44042</v>
       </c>
       <c r="B260" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="1">
-        <v>44045</v>
+        <v>44043</v>
       </c>
       <c r="B261" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="1">
-        <v>44046</v>
+        <v>44044</v>
       </c>
       <c r="B262" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="1">
-        <v>44047</v>
+        <v>44045</v>
       </c>
       <c r="B263" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="1">
-        <v>44048</v>
+        <v>44046</v>
       </c>
       <c r="B264" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="1">
-        <v>44049</v>
+        <v>44047</v>
       </c>
       <c r="B265" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="1">
-        <v>44050</v>
+        <v>44048</v>
       </c>
       <c r="B266" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="1">
-        <v>44051</v>
+        <v>44049</v>
       </c>
       <c r="B267" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="1">
-        <v>44052</v>
+        <v>44050</v>
       </c>
       <c r="B268" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="1">
-        <v>44053</v>
+        <v>44051</v>
       </c>
       <c r="B269" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="1">
-        <v>44054</v>
+        <v>44052</v>
       </c>
       <c r="B270" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="1">
-        <v>44055</v>
+        <v>44053</v>
       </c>
       <c r="B271" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="1">
-        <v>44056</v>
+        <v>44054</v>
       </c>
       <c r="B272" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="1">
-        <v>44057</v>
+        <v>44055</v>
       </c>
       <c r="B273" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="1">
-        <v>44058</v>
+        <v>44056</v>
       </c>
       <c r="B274" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="1">
-        <v>44059</v>
+        <v>44057</v>
       </c>
       <c r="B275" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="1">
-        <v>44060</v>
+        <v>44058</v>
       </c>
       <c r="B276" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="1">
-        <v>44061</v>
+        <v>44059</v>
       </c>
       <c r="B277" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="1">
-        <v>44062</v>
+        <v>44060</v>
       </c>
       <c r="B278" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="1">
-        <v>44063</v>
+        <v>44061</v>
       </c>
       <c r="B279" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="1">
-        <v>44064</v>
+        <v>44062</v>
       </c>
       <c r="B280" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="1">
-        <v>44065</v>
+        <v>44063</v>
       </c>
       <c r="B281" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="1">
-        <v>44066</v>
+        <v>44064</v>
       </c>
       <c r="B282" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="1">
-        <v>44067</v>
+        <v>44065</v>
       </c>
       <c r="B283" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="1">
-        <v>44068</v>
+        <v>44066</v>
       </c>
       <c r="B284" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="1">
-        <v>44069</v>
+        <v>44067</v>
       </c>
       <c r="B285" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="1">
-        <v>44070</v>
+        <v>44068</v>
       </c>
       <c r="B286" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="1">
-        <v>44071</v>
+        <v>44069</v>
       </c>
       <c r="B287" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="1">
-        <v>44072</v>
+        <v>44070</v>
       </c>
       <c r="B288" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="1">
-        <v>44073</v>
+        <v>44071</v>
       </c>
       <c r="B289" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="1">
-        <v>44074</v>
+        <v>44072</v>
       </c>
       <c r="B290" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="1">
-        <v>44075</v>
+        <v>44073</v>
       </c>
       <c r="B291" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="1">
-        <v>44076</v>
+        <v>44074</v>
       </c>
       <c r="B292" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="1">
-        <v>44077</v>
+        <v>44075</v>
       </c>
       <c r="B293" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="1">
-        <v>44078</v>
+        <v>44076</v>
       </c>
       <c r="B294" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="1">
-        <v>44079</v>
+        <v>44077</v>
       </c>
       <c r="B295" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="1">
-        <v>44080</v>
+        <v>44078</v>
       </c>
       <c r="B296" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="1">
-        <v>44081</v>
+        <v>44079</v>
       </c>
       <c r="B297" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="1">
-        <v>44082</v>
+        <v>44080</v>
       </c>
       <c r="B298" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="1">
-        <v>44083</v>
+        <v>44081</v>
       </c>
       <c r="B299" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="1">
-        <v>44084</v>
+        <v>44082</v>
       </c>
       <c r="B300" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="1">
-        <v>44085</v>
+        <v>44083</v>
       </c>
       <c r="B301" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="1">
-        <v>44086</v>
+        <v>44084</v>
       </c>
       <c r="B302" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="1">
-        <v>44087</v>
+        <v>44085</v>
       </c>
       <c r="B303" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="1">
-        <v>44088</v>
+        <v>44086</v>
       </c>
       <c r="B304" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="1">
-        <v>44089</v>
+        <v>44087</v>
       </c>
       <c r="B305" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="1">
-        <v>44090</v>
+        <v>44088</v>
       </c>
       <c r="B306" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="1">
-        <v>44091</v>
+        <v>44089</v>
       </c>
       <c r="B307" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="1">
-        <v>44092</v>
+        <v>44090</v>
       </c>
       <c r="B308" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="1">
-        <v>44093</v>
+        <v>44091</v>
       </c>
       <c r="B309" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="1">
-        <v>44094</v>
+        <v>44092</v>
       </c>
       <c r="B310" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="1">
-        <v>44095</v>
+        <v>44093</v>
       </c>
       <c r="B311" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="1">
-        <v>44096</v>
+        <v>44094</v>
       </c>
       <c r="B312" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="1">
-        <v>44097</v>
+        <v>44095</v>
       </c>
       <c r="B313" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="1">
-        <v>44098</v>
+        <v>44096</v>
       </c>
       <c r="B314" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="1">
-        <v>44099</v>
+        <v>44097</v>
       </c>
       <c r="B315" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="1">
-        <v>44100</v>
+        <v>44098</v>
       </c>
       <c r="B316" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="1">
-        <v>44101</v>
+        <v>44099</v>
       </c>
       <c r="B317" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="1">
-        <v>44102</v>
+        <v>44100</v>
       </c>
       <c r="B318" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="1">
-        <v>44103</v>
+        <v>44101</v>
       </c>
       <c r="B319" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="1">
-        <v>44104</v>
+        <v>44102</v>
       </c>
       <c r="B320" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="1">
-        <v>44105</v>
+        <v>44103</v>
       </c>
       <c r="B321" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="1">
-        <v>44106</v>
+        <v>44104</v>
       </c>
       <c r="B322" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="1">
-        <v>44107</v>
+        <v>44105</v>
       </c>
       <c r="B323" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="1">
-        <v>44108</v>
+        <v>44106</v>
       </c>
       <c r="B324" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="1">
-        <v>44109</v>
+        <v>44107</v>
       </c>
       <c r="B325" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="1">
-        <v>44110</v>
+        <v>44108</v>
       </c>
       <c r="B326" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="1">
-        <v>44111</v>
+        <v>44109</v>
       </c>
       <c r="B327" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="1">
-        <v>44112</v>
+        <v>44110</v>
       </c>
       <c r="B328" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="1">
-        <v>44113</v>
+        <v>44111</v>
       </c>
       <c r="B329" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="1">
-        <v>44114</v>
+        <v>44112</v>
       </c>
       <c r="B330" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="1">
-        <v>44115</v>
+        <v>44113</v>
       </c>
       <c r="B331" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="1">
-        <v>44116</v>
+        <v>44114</v>
       </c>
       <c r="B332" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="1">
-        <v>44117</v>
+        <v>44115</v>
       </c>
       <c r="B333" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="1">
-        <v>44118</v>
+        <v>44116</v>
       </c>
       <c r="B334" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="1">
-        <v>44119</v>
+        <v>44117</v>
       </c>
       <c r="B335" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="1">
-        <v>44120</v>
+        <v>44118</v>
       </c>
       <c r="B336" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="1">
-        <v>44121</v>
+        <v>44119</v>
       </c>
       <c r="B337" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="1">
-        <v>44122</v>
+        <v>44120</v>
       </c>
       <c r="B338" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="1">
-        <v>44123</v>
+        <v>44121</v>
       </c>
       <c r="B339" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="1">
-        <v>44124</v>
+        <v>44122</v>
       </c>
       <c r="B340" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="1">
-        <v>44125</v>
+        <v>44123</v>
       </c>
       <c r="B341" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="1">
-        <v>44126</v>
+        <v>44124</v>
       </c>
       <c r="B342" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="1">
-        <v>44127</v>
+        <v>44125</v>
       </c>
       <c r="B343" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="1">
-        <v>44128</v>
+        <v>44126</v>
       </c>
       <c r="B344" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="1">
-        <v>44129</v>
+        <v>44127</v>
       </c>
       <c r="B345" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="1">
-        <v>44130</v>
+        <v>44128</v>
       </c>
       <c r="B346" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="1">
-        <v>44131</v>
+        <v>44129</v>
       </c>
       <c r="B347" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="1">
-        <v>44132</v>
+        <v>44130</v>
       </c>
       <c r="B348" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="1">
-        <v>44133</v>
+        <v>44131</v>
       </c>
       <c r="B349" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="1">
-        <v>44134</v>
+        <v>44132</v>
       </c>
       <c r="B350" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="1">
-        <v>44135</v>
+        <v>44133</v>
       </c>
       <c r="B351" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="1">
-        <v>44136</v>
+        <v>44134</v>
       </c>
       <c r="B352" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="1">
-        <v>44137</v>
+        <v>44135</v>
       </c>
       <c r="B353" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="1">
-        <v>44138</v>
+        <v>44136</v>
       </c>
       <c r="B354" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="1">
-        <v>44139</v>
+        <v>44137</v>
       </c>
       <c r="B355" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="1">
-        <v>44140</v>
+        <v>44138</v>
       </c>
       <c r="B356" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="1">
-        <v>44141</v>
+        <v>44139</v>
       </c>
       <c r="B357" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="1">
-        <v>44142</v>
+        <v>44140</v>
       </c>
       <c r="B358" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="1">
-        <v>44143</v>
+        <v>44141</v>
       </c>
       <c r="B359" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="1">
-        <v>44144</v>
+        <v>44142</v>
       </c>
       <c r="B360" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="1">
-        <v>44145</v>
+        <v>44143</v>
       </c>
       <c r="B361" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="1">
-        <v>44146</v>
+        <v>44144</v>
       </c>
       <c r="B362" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="1">
-        <v>44147</v>
+        <v>44145</v>
       </c>
       <c r="B363" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="1">
-        <v>44148</v>
+        <v>44146</v>
       </c>
       <c r="B364" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="1">
-        <v>44149</v>
+        <v>44147</v>
       </c>
       <c r="B365" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="1">
-        <v>44150</v>
+        <v>44148</v>
       </c>
       <c r="B366" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="1">
-        <v>44151</v>
+        <v>44149</v>
       </c>
       <c r="B367" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="1">
-        <v>44152</v>
+        <v>44150</v>
       </c>
       <c r="B368" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="1">
-        <v>44153</v>
+        <v>44151</v>
       </c>
       <c r="B369" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="1">
-        <v>44154</v>
+        <v>44152</v>
       </c>
       <c r="B370" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="1">
-        <v>44155</v>
+        <v>44153</v>
       </c>
       <c r="B371" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="1">
-        <v>44156</v>
+        <v>44154</v>
       </c>
       <c r="B372" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="1">
-        <v>44157</v>
+        <v>44155</v>
       </c>
       <c r="B373" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="1">
-        <v>44158</v>
+        <v>44156</v>
       </c>
       <c r="B374" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="1">
-        <v>44159</v>
+        <v>44157</v>
       </c>
       <c r="B375" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="1">
-        <v>44160</v>
+        <v>44158</v>
       </c>
       <c r="B376" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="1">
-        <v>44161</v>
+        <v>44159</v>
       </c>
       <c r="B377" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="1">
-        <v>44162</v>
+        <v>44160</v>
       </c>
       <c r="B378" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="1">
-        <v>44163</v>
+        <v>44161</v>
       </c>
       <c r="B379" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="1">
-        <v>44164</v>
+        <v>44162</v>
       </c>
       <c r="B380" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="1">
-        <v>44165</v>
+        <v>44163</v>
       </c>
       <c r="B381" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="1">
-        <v>44166</v>
+        <v>44164</v>
       </c>
       <c r="B382" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="1">
-        <v>44167</v>
+        <v>44165</v>
       </c>
       <c r="B383" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="1">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="B384" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="1">
-        <v>44169</v>
+        <v>44167</v>
       </c>
       <c r="B385" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="1">
-        <v>44170</v>
+        <v>44168</v>
       </c>
       <c r="B386" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="1">
-        <v>44171</v>
+        <v>44169</v>
       </c>
       <c r="B387" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="1">
-        <v>44172</v>
+        <v>44170</v>
       </c>
       <c r="B388" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="1">
-        <v>44173</v>
+        <v>44171</v>
       </c>
       <c r="B389" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="1">
-        <v>44174</v>
+        <v>44172</v>
       </c>
       <c r="B390" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="1">
-        <v>44175</v>
+        <v>44173</v>
       </c>
       <c r="B391" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="1">
-        <v>44176</v>
+        <v>44174</v>
       </c>
       <c r="B392" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="1">
-        <v>44177</v>
+        <v>44175</v>
       </c>
       <c r="B393" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="1">
-        <v>44178</v>
+        <v>44176</v>
       </c>
       <c r="B394" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="1">
-        <v>44179</v>
+        <v>44177</v>
       </c>
       <c r="B395" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="1">
-        <v>44180</v>
+        <v>44178</v>
       </c>
       <c r="B396" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="1">
-        <v>44181</v>
+        <v>44179</v>
       </c>
       <c r="B397" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="1">
-        <v>44182</v>
+        <v>44180</v>
       </c>
       <c r="B398" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="1">
-        <v>44183</v>
+        <v>44181</v>
       </c>
       <c r="B399" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="1">
-        <v>44184</v>
+        <v>44182</v>
       </c>
       <c r="B400" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="1">
-        <v>44185</v>
+        <v>44183</v>
       </c>
       <c r="B401" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="1">
-        <v>44186</v>
+        <v>44184</v>
       </c>
       <c r="B402" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="1">
-        <v>44187</v>
+        <v>44185</v>
       </c>
       <c r="B403" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="1">
-        <v>44188</v>
+        <v>44186</v>
       </c>
       <c r="B404" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="1">
-        <v>44189</v>
+        <v>44187</v>
       </c>
       <c r="B405" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="1">
-        <v>44190</v>
+        <v>44188</v>
       </c>
       <c r="B406" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="1">
-        <v>44191</v>
+        <v>44189</v>
       </c>
       <c r="B407" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="1">
-        <v>44192</v>
+        <v>44190</v>
       </c>
       <c r="B408" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="1">
-        <v>44193</v>
+        <v>44191</v>
       </c>
       <c r="B409" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="1">
-        <v>44194</v>
+        <v>44192</v>
       </c>
       <c r="B410" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="1">
-        <v>44195</v>
+        <v>44193</v>
       </c>
       <c r="B411" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="1">
+        <v>44194</v>
+      </c>
+      <c r="B412" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2">
+      <c r="A413" s="1">
+        <v>44195</v>
+      </c>
+      <c r="B413" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2">
+      <c r="A414" s="1">
         <v>44196</v>
       </c>
-      <c r="B412" t="s">
+      <c r="B414" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6625,7 +6669,7 @@
   <dimension ref="A1:F131"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+      <selection activeCell="A63" sqref="A63:B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7441,6 +7485,20 @@
         <v>132</v>
       </c>
       <c r="D62" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>375</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="C63" t="s">
+        <v>132</v>
+      </c>
+      <c r="D63" t="s">
         <v>286</v>
       </c>
     </row>

--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440"/>
   </bookViews>
   <sheets>
     <sheet name="По задачам" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="381">
   <si>
     <t>Дата начала</t>
   </si>
@@ -1280,6 +1280,18 @@
   </si>
   <si>
     <t>Testing</t>
+  </si>
+  <si>
+    <t>https://andre-gl.github.io/talks-testing/</t>
+  </si>
+  <si>
+    <t>Слайды по тестированию</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qFSrImO04X8</t>
+  </si>
+  <si>
+    <t>Testing live coding</t>
   </si>
 </sst>
 </file>
@@ -1668,10 +1680,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80:B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2597,6 +2609,17 @@
       </c>
       <c r="C79" s="8" t="s">
         <v>374</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1">
+        <v>43965</v>
+      </c>
+      <c r="B80" s="1">
+        <v>43965</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -2613,10 +2636,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D414"/>
+  <dimension ref="A1:D415"/>
   <sheetViews>
     <sheetView topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="C183" sqref="C183:D183"/>
+      <selection activeCell="C187" sqref="C187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4760,1850 +4783,1859 @@
       </c>
     </row>
     <row r="184" spans="1:4">
-      <c r="A184" s="1">
-        <v>43966</v>
-      </c>
-      <c r="B184" t="s">
-        <v>14</v>
+      <c r="A184" s="1"/>
+      <c r="C184" t="s">
+        <v>379</v>
+      </c>
+      <c r="D184" s="8" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="1">
-        <v>43967</v>
+        <v>43966</v>
       </c>
       <c r="B185" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="1">
-        <v>43968</v>
+        <v>43967</v>
       </c>
       <c r="B186" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="1">
-        <v>43969</v>
+        <v>43968</v>
       </c>
       <c r="B187" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="1">
-        <v>43970</v>
+        <v>43969</v>
       </c>
       <c r="B188" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="1">
-        <v>43971</v>
+        <v>43970</v>
       </c>
       <c r="B189" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="1">
-        <v>43972</v>
+        <v>43971</v>
       </c>
       <c r="B190" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="1">
-        <v>43973</v>
+        <v>43972</v>
       </c>
       <c r="B191" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="1">
-        <v>43974</v>
+        <v>43973</v>
       </c>
       <c r="B192" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="1">
-        <v>43975</v>
+        <v>43974</v>
       </c>
       <c r="B193" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="1">
-        <v>43976</v>
+        <v>43975</v>
       </c>
       <c r="B194" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="1">
-        <v>43977</v>
+        <v>43976</v>
       </c>
       <c r="B195" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="1">
-        <v>43978</v>
+        <v>43977</v>
       </c>
       <c r="B196" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="1">
-        <v>43979</v>
+        <v>43978</v>
       </c>
       <c r="B197" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="1">
-        <v>43980</v>
+        <v>43979</v>
       </c>
       <c r="B198" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="1">
-        <v>43981</v>
+        <v>43980</v>
       </c>
       <c r="B199" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="1">
-        <v>43982</v>
+        <v>43981</v>
       </c>
       <c r="B200" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="1">
-        <v>43983</v>
+        <v>43982</v>
       </c>
       <c r="B201" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="1">
-        <v>43984</v>
+        <v>43983</v>
       </c>
       <c r="B202" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="1">
-        <v>43985</v>
+        <v>43984</v>
       </c>
       <c r="B203" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="1">
-        <v>43986</v>
+        <v>43985</v>
       </c>
       <c r="B204" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="1">
-        <v>43987</v>
+        <v>43986</v>
       </c>
       <c r="B205" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="1">
-        <v>43988</v>
+        <v>43987</v>
       </c>
       <c r="B206" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="1">
-        <v>43989</v>
+        <v>43988</v>
       </c>
       <c r="B207" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="1">
-        <v>43990</v>
+        <v>43989</v>
       </c>
       <c r="B208" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="1">
-        <v>43991</v>
+        <v>43990</v>
       </c>
       <c r="B209" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="1">
-        <v>43992</v>
+        <v>43991</v>
       </c>
       <c r="B210" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="1">
-        <v>43993</v>
+        <v>43992</v>
       </c>
       <c r="B211" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="1">
-        <v>43994</v>
+        <v>43993</v>
       </c>
       <c r="B212" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="1">
-        <v>43995</v>
+        <v>43994</v>
       </c>
       <c r="B213" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="1">
-        <v>43996</v>
+        <v>43995</v>
       </c>
       <c r="B214" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="1">
-        <v>43997</v>
+        <v>43996</v>
       </c>
       <c r="B215" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="1">
-        <v>43998</v>
+        <v>43997</v>
       </c>
       <c r="B216" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="1">
-        <v>43999</v>
+        <v>43998</v>
       </c>
       <c r="B217" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="1">
-        <v>44000</v>
+        <v>43999</v>
       </c>
       <c r="B218" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="1">
-        <v>44001</v>
+        <v>44000</v>
       </c>
       <c r="B219" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="1">
-        <v>44002</v>
+        <v>44001</v>
       </c>
       <c r="B220" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="1">
-        <v>44003</v>
+        <v>44002</v>
       </c>
       <c r="B221" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="1">
-        <v>44004</v>
+        <v>44003</v>
       </c>
       <c r="B222" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="1">
-        <v>44005</v>
+        <v>44004</v>
       </c>
       <c r="B223" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="1">
-        <v>44006</v>
+        <v>44005</v>
       </c>
       <c r="B224" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="1">
-        <v>44007</v>
+        <v>44006</v>
       </c>
       <c r="B225" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="1">
-        <v>44008</v>
+        <v>44007</v>
       </c>
       <c r="B226" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="1">
-        <v>44009</v>
+        <v>44008</v>
       </c>
       <c r="B227" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="1">
-        <v>44010</v>
+        <v>44009</v>
       </c>
       <c r="B228" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="1">
-        <v>44011</v>
+        <v>44010</v>
       </c>
       <c r="B229" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="1">
-        <v>44012</v>
+        <v>44011</v>
       </c>
       <c r="B230" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="1">
-        <v>44013</v>
+        <v>44012</v>
       </c>
       <c r="B231" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="1">
-        <v>44014</v>
+        <v>44013</v>
       </c>
       <c r="B232" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="1">
-        <v>44015</v>
+        <v>44014</v>
       </c>
       <c r="B233" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="1">
-        <v>44016</v>
+        <v>44015</v>
       </c>
       <c r="B234" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="1">
-        <v>44017</v>
+        <v>44016</v>
       </c>
       <c r="B235" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="1">
-        <v>44018</v>
+        <v>44017</v>
       </c>
       <c r="B236" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="1">
-        <v>44019</v>
+        <v>44018</v>
       </c>
       <c r="B237" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="1">
-        <v>44020</v>
+        <v>44019</v>
       </c>
       <c r="B238" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="1">
-        <v>44021</v>
+        <v>44020</v>
       </c>
       <c r="B239" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="1">
-        <v>44022</v>
+        <v>44021</v>
       </c>
       <c r="B240" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="1">
-        <v>44023</v>
+        <v>44022</v>
       </c>
       <c r="B241" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="1">
-        <v>44024</v>
+        <v>44023</v>
       </c>
       <c r="B242" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="1">
-        <v>44025</v>
+        <v>44024</v>
       </c>
       <c r="B243" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="1">
-        <v>44026</v>
+        <v>44025</v>
       </c>
       <c r="B244" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="1">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B245" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="1">
-        <v>44028</v>
+        <v>44027</v>
       </c>
       <c r="B246" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="1">
-        <v>44029</v>
+        <v>44028</v>
       </c>
       <c r="B247" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="1">
-        <v>44030</v>
+        <v>44029</v>
       </c>
       <c r="B248" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="1">
-        <v>44031</v>
+        <v>44030</v>
       </c>
       <c r="B249" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="1">
-        <v>44032</v>
+        <v>44031</v>
       </c>
       <c r="B250" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="1">
-        <v>44033</v>
+        <v>44032</v>
       </c>
       <c r="B251" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="1">
-        <v>44034</v>
+        <v>44033</v>
       </c>
       <c r="B252" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="1">
-        <v>44035</v>
+        <v>44034</v>
       </c>
       <c r="B253" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="1">
-        <v>44036</v>
+        <v>44035</v>
       </c>
       <c r="B254" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="1">
-        <v>44037</v>
+        <v>44036</v>
       </c>
       <c r="B255" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="1">
-        <v>44038</v>
+        <v>44037</v>
       </c>
       <c r="B256" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="1">
-        <v>44039</v>
+        <v>44038</v>
       </c>
       <c r="B257" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="1">
-        <v>44040</v>
+        <v>44039</v>
       </c>
       <c r="B258" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="1">
-        <v>44041</v>
+        <v>44040</v>
       </c>
       <c r="B259" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="1">
-        <v>44042</v>
+        <v>44041</v>
       </c>
       <c r="B260" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="1">
-        <v>44043</v>
+        <v>44042</v>
       </c>
       <c r="B261" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="1">
-        <v>44044</v>
+        <v>44043</v>
       </c>
       <c r="B262" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="1">
-        <v>44045</v>
+        <v>44044</v>
       </c>
       <c r="B263" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="1">
-        <v>44046</v>
+        <v>44045</v>
       </c>
       <c r="B264" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="1">
-        <v>44047</v>
+        <v>44046</v>
       </c>
       <c r="B265" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="1">
-        <v>44048</v>
+        <v>44047</v>
       </c>
       <c r="B266" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="1">
-        <v>44049</v>
+        <v>44048</v>
       </c>
       <c r="B267" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="1">
-        <v>44050</v>
+        <v>44049</v>
       </c>
       <c r="B268" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="1">
-        <v>44051</v>
+        <v>44050</v>
       </c>
       <c r="B269" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="1">
-        <v>44052</v>
+        <v>44051</v>
       </c>
       <c r="B270" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="1">
-        <v>44053</v>
+        <v>44052</v>
       </c>
       <c r="B271" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="1">
-        <v>44054</v>
+        <v>44053</v>
       </c>
       <c r="B272" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="1">
-        <v>44055</v>
+        <v>44054</v>
       </c>
       <c r="B273" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="1">
-        <v>44056</v>
+        <v>44055</v>
       </c>
       <c r="B274" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="1">
-        <v>44057</v>
+        <v>44056</v>
       </c>
       <c r="B275" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="1">
-        <v>44058</v>
+        <v>44057</v>
       </c>
       <c r="B276" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="1">
-        <v>44059</v>
+        <v>44058</v>
       </c>
       <c r="B277" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="1">
-        <v>44060</v>
+        <v>44059</v>
       </c>
       <c r="B278" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="1">
-        <v>44061</v>
+        <v>44060</v>
       </c>
       <c r="B279" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="1">
-        <v>44062</v>
+        <v>44061</v>
       </c>
       <c r="B280" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="1">
-        <v>44063</v>
+        <v>44062</v>
       </c>
       <c r="B281" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="1">
-        <v>44064</v>
+        <v>44063</v>
       </c>
       <c r="B282" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="1">
-        <v>44065</v>
+        <v>44064</v>
       </c>
       <c r="B283" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="1">
-        <v>44066</v>
+        <v>44065</v>
       </c>
       <c r="B284" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="1">
-        <v>44067</v>
+        <v>44066</v>
       </c>
       <c r="B285" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="1">
-        <v>44068</v>
+        <v>44067</v>
       </c>
       <c r="B286" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="1">
-        <v>44069</v>
+        <v>44068</v>
       </c>
       <c r="B287" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="1">
-        <v>44070</v>
+        <v>44069</v>
       </c>
       <c r="B288" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="1">
-        <v>44071</v>
+        <v>44070</v>
       </c>
       <c r="B289" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="1">
-        <v>44072</v>
+        <v>44071</v>
       </c>
       <c r="B290" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="1">
-        <v>44073</v>
+        <v>44072</v>
       </c>
       <c r="B291" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="1">
-        <v>44074</v>
+        <v>44073</v>
       </c>
       <c r="B292" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="1">
-        <v>44075</v>
+        <v>44074</v>
       </c>
       <c r="B293" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="1">
-        <v>44076</v>
+        <v>44075</v>
       </c>
       <c r="B294" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="1">
-        <v>44077</v>
+        <v>44076</v>
       </c>
       <c r="B295" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="1">
-        <v>44078</v>
+        <v>44077</v>
       </c>
       <c r="B296" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="1">
-        <v>44079</v>
+        <v>44078</v>
       </c>
       <c r="B297" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="1">
-        <v>44080</v>
+        <v>44079</v>
       </c>
       <c r="B298" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="1">
-        <v>44081</v>
+        <v>44080</v>
       </c>
       <c r="B299" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="1">
-        <v>44082</v>
+        <v>44081</v>
       </c>
       <c r="B300" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="1">
-        <v>44083</v>
+        <v>44082</v>
       </c>
       <c r="B301" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="1">
-        <v>44084</v>
+        <v>44083</v>
       </c>
       <c r="B302" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="1">
-        <v>44085</v>
+        <v>44084</v>
       </c>
       <c r="B303" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="1">
-        <v>44086</v>
+        <v>44085</v>
       </c>
       <c r="B304" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="1">
-        <v>44087</v>
+        <v>44086</v>
       </c>
       <c r="B305" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="1">
-        <v>44088</v>
+        <v>44087</v>
       </c>
       <c r="B306" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="1">
-        <v>44089</v>
+        <v>44088</v>
       </c>
       <c r="B307" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="1">
-        <v>44090</v>
+        <v>44089</v>
       </c>
       <c r="B308" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="1">
-        <v>44091</v>
+        <v>44090</v>
       </c>
       <c r="B309" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="1">
-        <v>44092</v>
+        <v>44091</v>
       </c>
       <c r="B310" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="1">
-        <v>44093</v>
+        <v>44092</v>
       </c>
       <c r="B311" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="1">
-        <v>44094</v>
+        <v>44093</v>
       </c>
       <c r="B312" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="1">
-        <v>44095</v>
+        <v>44094</v>
       </c>
       <c r="B313" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="1">
-        <v>44096</v>
+        <v>44095</v>
       </c>
       <c r="B314" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="1">
-        <v>44097</v>
+        <v>44096</v>
       </c>
       <c r="B315" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="1">
-        <v>44098</v>
+        <v>44097</v>
       </c>
       <c r="B316" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="1">
-        <v>44099</v>
+        <v>44098</v>
       </c>
       <c r="B317" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="1">
-        <v>44100</v>
+        <v>44099</v>
       </c>
       <c r="B318" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="1">
-        <v>44101</v>
+        <v>44100</v>
       </c>
       <c r="B319" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="1">
-        <v>44102</v>
+        <v>44101</v>
       </c>
       <c r="B320" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="1">
-        <v>44103</v>
+        <v>44102</v>
       </c>
       <c r="B321" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="1">
-        <v>44104</v>
+        <v>44103</v>
       </c>
       <c r="B322" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="1">
-        <v>44105</v>
+        <v>44104</v>
       </c>
       <c r="B323" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="1">
-        <v>44106</v>
+        <v>44105</v>
       </c>
       <c r="B324" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="1">
-        <v>44107</v>
+        <v>44106</v>
       </c>
       <c r="B325" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="1">
-        <v>44108</v>
+        <v>44107</v>
       </c>
       <c r="B326" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="1">
-        <v>44109</v>
+        <v>44108</v>
       </c>
       <c r="B327" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="1">
-        <v>44110</v>
+        <v>44109</v>
       </c>
       <c r="B328" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="1">
-        <v>44111</v>
+        <v>44110</v>
       </c>
       <c r="B329" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="1">
-        <v>44112</v>
+        <v>44111</v>
       </c>
       <c r="B330" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="1">
-        <v>44113</v>
+        <v>44112</v>
       </c>
       <c r="B331" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="1">
-        <v>44114</v>
+        <v>44113</v>
       </c>
       <c r="B332" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="1">
-        <v>44115</v>
+        <v>44114</v>
       </c>
       <c r="B333" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="1">
-        <v>44116</v>
+        <v>44115</v>
       </c>
       <c r="B334" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="1">
-        <v>44117</v>
+        <v>44116</v>
       </c>
       <c r="B335" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="1">
-        <v>44118</v>
+        <v>44117</v>
       </c>
       <c r="B336" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="1">
-        <v>44119</v>
+        <v>44118</v>
       </c>
       <c r="B337" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="1">
-        <v>44120</v>
+        <v>44119</v>
       </c>
       <c r="B338" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="1">
-        <v>44121</v>
+        <v>44120</v>
       </c>
       <c r="B339" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="1">
-        <v>44122</v>
+        <v>44121</v>
       </c>
       <c r="B340" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="1">
-        <v>44123</v>
+        <v>44122</v>
       </c>
       <c r="B341" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="1">
-        <v>44124</v>
+        <v>44123</v>
       </c>
       <c r="B342" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="1">
-        <v>44125</v>
+        <v>44124</v>
       </c>
       <c r="B343" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="1">
-        <v>44126</v>
+        <v>44125</v>
       </c>
       <c r="B344" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="1">
-        <v>44127</v>
+        <v>44126</v>
       </c>
       <c r="B345" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="1">
-        <v>44128</v>
+        <v>44127</v>
       </c>
       <c r="B346" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="1">
-        <v>44129</v>
+        <v>44128</v>
       </c>
       <c r="B347" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="1">
-        <v>44130</v>
+        <v>44129</v>
       </c>
       <c r="B348" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="1">
-        <v>44131</v>
+        <v>44130</v>
       </c>
       <c r="B349" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="1">
-        <v>44132</v>
+        <v>44131</v>
       </c>
       <c r="B350" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="1">
-        <v>44133</v>
+        <v>44132</v>
       </c>
       <c r="B351" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="1">
-        <v>44134</v>
+        <v>44133</v>
       </c>
       <c r="B352" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="1">
-        <v>44135</v>
+        <v>44134</v>
       </c>
       <c r="B353" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="1">
-        <v>44136</v>
+        <v>44135</v>
       </c>
       <c r="B354" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="1">
-        <v>44137</v>
+        <v>44136</v>
       </c>
       <c r="B355" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="1">
-        <v>44138</v>
+        <v>44137</v>
       </c>
       <c r="B356" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="1">
-        <v>44139</v>
+        <v>44138</v>
       </c>
       <c r="B357" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="1">
-        <v>44140</v>
+        <v>44139</v>
       </c>
       <c r="B358" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="1">
-        <v>44141</v>
+        <v>44140</v>
       </c>
       <c r="B359" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="1">
-        <v>44142</v>
+        <v>44141</v>
       </c>
       <c r="B360" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="1">
-        <v>44143</v>
+        <v>44142</v>
       </c>
       <c r="B361" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="1">
-        <v>44144</v>
+        <v>44143</v>
       </c>
       <c r="B362" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="1">
-        <v>44145</v>
+        <v>44144</v>
       </c>
       <c r="B363" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="1">
-        <v>44146</v>
+        <v>44145</v>
       </c>
       <c r="B364" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="1">
-        <v>44147</v>
+        <v>44146</v>
       </c>
       <c r="B365" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="1">
-        <v>44148</v>
+        <v>44147</v>
       </c>
       <c r="B366" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="1">
-        <v>44149</v>
+        <v>44148</v>
       </c>
       <c r="B367" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="1">
-        <v>44150</v>
+        <v>44149</v>
       </c>
       <c r="B368" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="1">
-        <v>44151</v>
+        <v>44150</v>
       </c>
       <c r="B369" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="1">
-        <v>44152</v>
+        <v>44151</v>
       </c>
       <c r="B370" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="1">
-        <v>44153</v>
+        <v>44152</v>
       </c>
       <c r="B371" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="1">
-        <v>44154</v>
+        <v>44153</v>
       </c>
       <c r="B372" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="1">
-        <v>44155</v>
+        <v>44154</v>
       </c>
       <c r="B373" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="1">
-        <v>44156</v>
+        <v>44155</v>
       </c>
       <c r="B374" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="1">
-        <v>44157</v>
+        <v>44156</v>
       </c>
       <c r="B375" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="1">
-        <v>44158</v>
+        <v>44157</v>
       </c>
       <c r="B376" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="1">
-        <v>44159</v>
+        <v>44158</v>
       </c>
       <c r="B377" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="1">
-        <v>44160</v>
+        <v>44159</v>
       </c>
       <c r="B378" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="1">
-        <v>44161</v>
+        <v>44160</v>
       </c>
       <c r="B379" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="1">
-        <v>44162</v>
+        <v>44161</v>
       </c>
       <c r="B380" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="1">
-        <v>44163</v>
+        <v>44162</v>
       </c>
       <c r="B381" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="1">
-        <v>44164</v>
+        <v>44163</v>
       </c>
       <c r="B382" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="1">
-        <v>44165</v>
+        <v>44164</v>
       </c>
       <c r="B383" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="1">
-        <v>44166</v>
+        <v>44165</v>
       </c>
       <c r="B384" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="1">
-        <v>44167</v>
+        <v>44166</v>
       </c>
       <c r="B385" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="1">
-        <v>44168</v>
+        <v>44167</v>
       </c>
       <c r="B386" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="1">
-        <v>44169</v>
+        <v>44168</v>
       </c>
       <c r="B387" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="1">
-        <v>44170</v>
+        <v>44169</v>
       </c>
       <c r="B388" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="1">
-        <v>44171</v>
+        <v>44170</v>
       </c>
       <c r="B389" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="1">
-        <v>44172</v>
+        <v>44171</v>
       </c>
       <c r="B390" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="1">
-        <v>44173</v>
+        <v>44172</v>
       </c>
       <c r="B391" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="1">
-        <v>44174</v>
+        <v>44173</v>
       </c>
       <c r="B392" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="1">
-        <v>44175</v>
+        <v>44174</v>
       </c>
       <c r="B393" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="1">
-        <v>44176</v>
+        <v>44175</v>
       </c>
       <c r="B394" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="1">
-        <v>44177</v>
+        <v>44176</v>
       </c>
       <c r="B395" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="1">
-        <v>44178</v>
+        <v>44177</v>
       </c>
       <c r="B396" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="1">
-        <v>44179</v>
+        <v>44178</v>
       </c>
       <c r="B397" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="1">
-        <v>44180</v>
+        <v>44179</v>
       </c>
       <c r="B398" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="1">
-        <v>44181</v>
+        <v>44180</v>
       </c>
       <c r="B399" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="1">
-        <v>44182</v>
+        <v>44181</v>
       </c>
       <c r="B400" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="1">
-        <v>44183</v>
+        <v>44182</v>
       </c>
       <c r="B401" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="1">
-        <v>44184</v>
+        <v>44183</v>
       </c>
       <c r="B402" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="1">
-        <v>44185</v>
+        <v>44184</v>
       </c>
       <c r="B403" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="1">
-        <v>44186</v>
+        <v>44185</v>
       </c>
       <c r="B404" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="1">
-        <v>44187</v>
+        <v>44186</v>
       </c>
       <c r="B405" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="1">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="B406" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="1">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="B407" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="1">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="B408" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="1">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="B409" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="1">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="B410" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="1">
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="B411" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="1">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="B412" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="1">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B413" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="1">
+        <v>44195</v>
+      </c>
+      <c r="B414" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2">
+      <c r="A415" s="1">
         <v>44196</v>
       </c>
-      <c r="B414" t="s">
+      <c r="B415" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6666,10 +6698,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F131"/>
+  <dimension ref="A1:F134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63:B63"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7502,6 +7534,20 @@
         <v>286</v>
       </c>
     </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>379</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="C64" t="s">
+        <v>132</v>
+      </c>
+      <c r="D64" t="s">
+        <v>286</v>
+      </c>
+    </row>
     <row r="69" spans="1:5" s="4" customFormat="1">
       <c r="A69" s="5" t="s">
         <v>36</v>
@@ -7686,150 +7732,134 @@
         <v>353</v>
       </c>
     </row>
-    <row r="87" spans="1:3" s="4" customFormat="1">
-      <c r="A87" s="5" t="s">
+    <row r="86" spans="1:3">
+      <c r="A86" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" s="4" customFormat="1">
+      <c r="A90" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="2" t="s">
+    <row r="91" spans="1:3">
+      <c r="A91" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B91" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B89" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="s">
-        <v>47</v>
-      </c>
-      <c r="B90" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
-        <v>49</v>
-      </c>
-      <c r="B91" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="2" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B92" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="2" t="s">
-        <v>82</v>
+      <c r="A93" t="s">
+        <v>47</v>
       </c>
       <c r="B93" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="B94" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="B95" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" t="s">
-        <v>93</v>
+      <c r="A96" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="B96" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>156</v>
+        <v>84</v>
       </c>
       <c r="B97" t="s">
-        <v>157</v>
+        <v>83</v>
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" t="s">
-        <v>159</v>
+      <c r="A98" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="B98" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>160</v>
+        <v>93</v>
       </c>
       <c r="B99" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="2" t="s">
-        <v>173</v>
+      <c r="A100" t="s">
+        <v>156</v>
       </c>
       <c r="B100" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="B101" t="s">
-        <v>223</v>
+        <v>158</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>289</v>
+        <v>160</v>
       </c>
       <c r="B102" t="s">
-        <v>290</v>
+        <v>161</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" t="s">
-        <v>306</v>
+      <c r="A103" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="B103" t="s">
-        <v>290</v>
+        <v>174</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>307</v>
+        <v>93</v>
       </c>
       <c r="B104" t="s">
-        <v>290</v>
+        <v>223</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="B105" t="s">
         <v>290</v>
@@ -7837,7 +7867,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B106" t="s">
         <v>290</v>
@@ -7845,130 +7875,154 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B107" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="111" spans="1:2" s="4" customFormat="1">
-      <c r="A111" s="5" t="s">
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>308</v>
+      </c>
+      <c r="B108" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>309</v>
+      </c>
+      <c r="B109" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>310</v>
+      </c>
+      <c r="B110" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" s="4" customFormat="1">
+      <c r="A114" s="5" t="s">
         <v>291</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" s="4" customFormat="1">
-      <c r="A123" s="4" t="s">
-        <v>338</v>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>339</v>
-      </c>
-      <c r="B124" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" t="s">
-        <v>340</v>
-      </c>
-      <c r="B126" t="s">
-        <v>344</v>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" s="4" customFormat="1">
+      <c r="A126" s="4" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B127" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>349</v>
-      </c>
-      <c r="B128" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
+        <v>340</v>
+      </c>
+      <c r="B129" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>341</v>
+      </c>
+      <c r="B130" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>349</v>
+      </c>
+      <c r="B131" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
-      <c r="B130" t="s">
+    <row r="133" spans="1:2">
+      <c r="B133" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
-      <c r="B131" t="s">
+    <row r="134" spans="1:2">
+      <c r="B134" t="s">
         <v>348</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A88" r:id="rId1"/>
+    <hyperlink ref="A91" r:id="rId1"/>
     <hyperlink ref="A6" r:id="rId2"/>
-    <hyperlink ref="A89" r:id="rId3"/>
+    <hyperlink ref="A92" r:id="rId3"/>
     <hyperlink ref="A7" r:id="rId4"/>
-    <hyperlink ref="A92" r:id="rId5"/>
+    <hyperlink ref="A95" r:id="rId5"/>
     <hyperlink ref="A9" r:id="rId6"/>
     <hyperlink ref="A10" r:id="rId7"/>
-    <hyperlink ref="A93" r:id="rId8"/>
-    <hyperlink ref="A95" r:id="rId9"/>
+    <hyperlink ref="A96" r:id="rId8"/>
+    <hyperlink ref="A98" r:id="rId9"/>
     <hyperlink ref="A11" r:id="rId10"/>
     <hyperlink ref="A70" r:id="rId11" location="/2"/>
     <hyperlink ref="A72" r:id="rId12"/>
@@ -7982,7 +8036,7 @@
     <hyperlink ref="A16" r:id="rId20"/>
     <hyperlink ref="A18" r:id="rId21"/>
     <hyperlink ref="A19" r:id="rId22"/>
-    <hyperlink ref="A100" r:id="rId23"/>
+    <hyperlink ref="A103" r:id="rId23"/>
     <hyperlink ref="A20" r:id="rId24"/>
     <hyperlink ref="B20" r:id="rId25" display="https://www.youtube.com/watch?v=ZAde-IJAHzo"/>
     <hyperlink ref="A23" r:id="rId26"/>
@@ -8010,9 +8064,10 @@
     <hyperlink ref="A60" r:id="rId48"/>
     <hyperlink ref="A61" r:id="rId49"/>
     <hyperlink ref="A62" r:id="rId50"/>
+    <hyperlink ref="A86" r:id="rId51"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId51"/>
-  <legacyDrawing r:id="rId52"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId52"/>
+  <legacyDrawing r:id="rId53"/>
 </worksheet>
 </file>
--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="383">
   <si>
     <t>Дата начала</t>
   </si>
@@ -1292,6 +1292,12 @@
   </si>
   <si>
     <t>Testing live coding</t>
+  </si>
+  <si>
+    <t>npm I jest --save--dev</t>
+  </si>
+  <si>
+    <t>jest</t>
   </si>
 </sst>
 </file>
@@ -1680,10 +1686,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80:B80"/>
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2619,6 +2625,17 @@
         <v>43965</v>
       </c>
       <c r="C80" s="8" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B81" s="1">
+        <v>43967</v>
+      </c>
+      <c r="C81" s="8" t="s">
         <v>380</v>
       </c>
     </row>
@@ -2639,7 +2656,7 @@
   <dimension ref="A1:D415"/>
   <sheetViews>
     <sheetView topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="C187" sqref="C187"/>
+      <selection activeCell="C186" sqref="C186:D186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4783,20 +4800,26 @@
       </c>
     </row>
     <row r="184" spans="1:4">
-      <c r="A184" s="1"/>
+      <c r="A184" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B184" t="s">
+        <v>14</v>
+      </c>
       <c r="C184" t="s">
+        <v>329</v>
+      </c>
+      <c r="D184" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="1"/>
+      <c r="C185" t="s">
         <v>379</v>
       </c>
-      <c r="D184" s="8" t="s">
+      <c r="D185" s="8" t="s">
         <v>380</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4">
-      <c r="A185" s="1">
-        <v>43966</v>
-      </c>
-      <c r="B185" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -4805,6 +4828,12 @@
       </c>
       <c r="B186" t="s">
         <v>15</v>
+      </c>
+      <c r="C186" t="s">
+        <v>329</v>
+      </c>
+      <c r="D186" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -6698,10 +6727,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F134"/>
+  <dimension ref="A1:F135"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="A131" sqref="A131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8010,6 +8039,14 @@
     <row r="134" spans="1:2">
       <c r="B134" t="s">
         <v>348</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>381</v>
+      </c>
+      <c r="B135" t="s">
+        <v>382</v>
       </c>
     </row>
   </sheetData>

--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="По задачам" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="395">
   <si>
     <t>Дата начала</t>
   </si>
@@ -1298,13 +1298,49 @@
   </si>
   <si>
     <t>jest</t>
+  </si>
+  <si>
+    <t>https://proglib.io/p/webpack-in-15/</t>
+  </si>
+  <si>
+    <t>npm run watch</t>
+  </si>
+  <si>
+    <t>npm install webpack --save-dev</t>
+  </si>
+  <si>
+    <t>"scripts": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "build": "webpack -p",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "watch": "webpack --watch"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    },</t>
+  </si>
+  <si>
+    <t>npm run build</t>
+  </si>
+  <si>
+    <t>Тест по JS</t>
+  </si>
+  <si>
+    <t>сделал</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=O462BetYst8</t>
+  </si>
+  <si>
+    <t>RS School. JavaScript Classes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1343,6 +1379,13 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1374,7 +1417,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
@@ -1390,6 +1433,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1686,10 +1730,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1787,6 +1831,9 @@
       <c r="A8" s="1">
         <v>43870</v>
       </c>
+      <c r="B8" s="1">
+        <v>43871</v>
+      </c>
       <c r="C8" t="s">
         <v>53</v>
       </c>
@@ -1795,6 +1842,9 @@
       <c r="A9" s="1">
         <v>43872</v>
       </c>
+      <c r="B9" s="1">
+        <v>43876</v>
+      </c>
       <c r="C9" t="s">
         <v>64</v>
       </c>
@@ -2147,6 +2197,9 @@
       <c r="A38" s="1">
         <v>43901</v>
       </c>
+      <c r="B38" s="1">
+        <v>43905</v>
+      </c>
       <c r="C38" t="s">
         <v>183</v>
       </c>
@@ -2491,7 +2544,9 @@
       <c r="A68" s="1">
         <v>43949</v>
       </c>
-      <c r="B68" s="1"/>
+      <c r="B68" s="1">
+        <v>43968</v>
+      </c>
       <c r="C68" t="s">
         <v>327</v>
       </c>
@@ -2500,6 +2555,9 @@
       <c r="A69" s="1">
         <v>43949</v>
       </c>
+      <c r="B69" s="1">
+        <v>43967</v>
+      </c>
       <c r="C69" t="s">
         <v>329</v>
       </c>
@@ -2637,6 +2695,28 @@
       </c>
       <c r="C81" s="8" t="s">
         <v>380</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B82" s="1">
+        <v>43967</v>
+      </c>
+      <c r="C82" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B83" s="1">
+        <v>43968</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -2653,10 +2733,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D415"/>
+  <dimension ref="A1:D417"/>
   <sheetViews>
     <sheetView topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="C186" sqref="C186:D186"/>
+      <selection activeCell="C189" sqref="C189:D189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4837,1834 +4917,1858 @@
       </c>
     </row>
     <row r="187" spans="1:4">
-      <c r="A187" s="1">
-        <v>43968</v>
-      </c>
-      <c r="B187" t="s">
-        <v>9</v>
+      <c r="A187" s="1"/>
+      <c r="C187" t="s">
+        <v>391</v>
+      </c>
+      <c r="D187" s="8" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="1">
-        <v>43969</v>
+        <v>43968</v>
       </c>
       <c r="B188" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="C188" t="s">
+        <v>393</v>
+      </c>
+      <c r="D188" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="189" spans="1:4">
-      <c r="A189" s="1">
-        <v>43970</v>
-      </c>
-      <c r="B189" t="s">
-        <v>11</v>
+      <c r="A189" s="1"/>
+      <c r="C189" t="s">
+        <v>327</v>
+      </c>
+      <c r="D189" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="1">
-        <v>43971</v>
+        <v>43969</v>
       </c>
       <c r="B190" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="1">
-        <v>43972</v>
+        <v>43970</v>
       </c>
       <c r="B191" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="1">
-        <v>43973</v>
+        <v>43971</v>
       </c>
       <c r="B192" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="1">
-        <v>43974</v>
+        <v>43972</v>
       </c>
       <c r="B193" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="1">
-        <v>43975</v>
+        <v>43973</v>
       </c>
       <c r="B194" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="1">
-        <v>43976</v>
+        <v>43974</v>
       </c>
       <c r="B195" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="1">
-        <v>43977</v>
+        <v>43975</v>
       </c>
       <c r="B196" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="1">
-        <v>43978</v>
+        <v>43976</v>
       </c>
       <c r="B197" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="1">
-        <v>43979</v>
+        <v>43977</v>
       </c>
       <c r="B198" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="1">
-        <v>43980</v>
+        <v>43978</v>
       </c>
       <c r="B199" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="1">
-        <v>43981</v>
+        <v>43979</v>
       </c>
       <c r="B200" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="1">
-        <v>43982</v>
+        <v>43980</v>
       </c>
       <c r="B201" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="1">
-        <v>43983</v>
+        <v>43981</v>
       </c>
       <c r="B202" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="1">
-        <v>43984</v>
+        <v>43982</v>
       </c>
       <c r="B203" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="1">
-        <v>43985</v>
+        <v>43983</v>
       </c>
       <c r="B204" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="1">
-        <v>43986</v>
+        <v>43984</v>
       </c>
       <c r="B205" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="1">
-        <v>43987</v>
+        <v>43985</v>
       </c>
       <c r="B206" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="1">
-        <v>43988</v>
+        <v>43986</v>
       </c>
       <c r="B207" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="1">
-        <v>43989</v>
+        <v>43987</v>
       </c>
       <c r="B208" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="1">
-        <v>43990</v>
+        <v>43988</v>
       </c>
       <c r="B209" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="1">
-        <v>43991</v>
+        <v>43989</v>
       </c>
       <c r="B210" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="1">
-        <v>43992</v>
+        <v>43990</v>
       </c>
       <c r="B211" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="1">
-        <v>43993</v>
+        <v>43991</v>
       </c>
       <c r="B212" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="1">
-        <v>43994</v>
+        <v>43992</v>
       </c>
       <c r="B213" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="1">
-        <v>43995</v>
+        <v>43993</v>
       </c>
       <c r="B214" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="1">
-        <v>43996</v>
+        <v>43994</v>
       </c>
       <c r="B215" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="1">
-        <v>43997</v>
+        <v>43995</v>
       </c>
       <c r="B216" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="1">
-        <v>43998</v>
+        <v>43996</v>
       </c>
       <c r="B217" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="1">
-        <v>43999</v>
+        <v>43997</v>
       </c>
       <c r="B218" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="1">
-        <v>44000</v>
+        <v>43998</v>
       </c>
       <c r="B219" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="1">
-        <v>44001</v>
+        <v>43999</v>
       </c>
       <c r="B220" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="1">
-        <v>44002</v>
+        <v>44000</v>
       </c>
       <c r="B221" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="1">
-        <v>44003</v>
+        <v>44001</v>
       </c>
       <c r="B222" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="1">
-        <v>44004</v>
+        <v>44002</v>
       </c>
       <c r="B223" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="1">
-        <v>44005</v>
+        <v>44003</v>
       </c>
       <c r="B224" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="1">
-        <v>44006</v>
+        <v>44004</v>
       </c>
       <c r="B225" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="1">
-        <v>44007</v>
+        <v>44005</v>
       </c>
       <c r="B226" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="1">
-        <v>44008</v>
+        <v>44006</v>
       </c>
       <c r="B227" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="1">
-        <v>44009</v>
+        <v>44007</v>
       </c>
       <c r="B228" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="1">
-        <v>44010</v>
+        <v>44008</v>
       </c>
       <c r="B229" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="1">
-        <v>44011</v>
+        <v>44009</v>
       </c>
       <c r="B230" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="1">
-        <v>44012</v>
+        <v>44010</v>
       </c>
       <c r="B231" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="1">
-        <v>44013</v>
+        <v>44011</v>
       </c>
       <c r="B232" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="1">
-        <v>44014</v>
+        <v>44012</v>
       </c>
       <c r="B233" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="1">
-        <v>44015</v>
+        <v>44013</v>
       </c>
       <c r="B234" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="1">
-        <v>44016</v>
+        <v>44014</v>
       </c>
       <c r="B235" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="1">
-        <v>44017</v>
+        <v>44015</v>
       </c>
       <c r="B236" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="1">
-        <v>44018</v>
+        <v>44016</v>
       </c>
       <c r="B237" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="1">
-        <v>44019</v>
+        <v>44017</v>
       </c>
       <c r="B238" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="1">
-        <v>44020</v>
+        <v>44018</v>
       </c>
       <c r="B239" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="1">
-        <v>44021</v>
+        <v>44019</v>
       </c>
       <c r="B240" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="1">
-        <v>44022</v>
+        <v>44020</v>
       </c>
       <c r="B241" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="1">
-        <v>44023</v>
+        <v>44021</v>
       </c>
       <c r="B242" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="1">
-        <v>44024</v>
+        <v>44022</v>
       </c>
       <c r="B243" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="1">
-        <v>44025</v>
+        <v>44023</v>
       </c>
       <c r="B244" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="1">
-        <v>44026</v>
+        <v>44024</v>
       </c>
       <c r="B245" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="1">
-        <v>44027</v>
+        <v>44025</v>
       </c>
       <c r="B246" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="1">
-        <v>44028</v>
+        <v>44026</v>
       </c>
       <c r="B247" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="1">
-        <v>44029</v>
+        <v>44027</v>
       </c>
       <c r="B248" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="1">
-        <v>44030</v>
+        <v>44028</v>
       </c>
       <c r="B249" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="1">
-        <v>44031</v>
+        <v>44029</v>
       </c>
       <c r="B250" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="1">
-        <v>44032</v>
+        <v>44030</v>
       </c>
       <c r="B251" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="1">
-        <v>44033</v>
+        <v>44031</v>
       </c>
       <c r="B252" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="1">
-        <v>44034</v>
+        <v>44032</v>
       </c>
       <c r="B253" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="1">
-        <v>44035</v>
+        <v>44033</v>
       </c>
       <c r="B254" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="1">
-        <v>44036</v>
+        <v>44034</v>
       </c>
       <c r="B255" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="1">
-        <v>44037</v>
+        <v>44035</v>
       </c>
       <c r="B256" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="1">
-        <v>44038</v>
+        <v>44036</v>
       </c>
       <c r="B257" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="1">
-        <v>44039</v>
+        <v>44037</v>
       </c>
       <c r="B258" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="1">
-        <v>44040</v>
+        <v>44038</v>
       </c>
       <c r="B259" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="1">
-        <v>44041</v>
+        <v>44039</v>
       </c>
       <c r="B260" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="1">
-        <v>44042</v>
+        <v>44040</v>
       </c>
       <c r="B261" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="1">
-        <v>44043</v>
+        <v>44041</v>
       </c>
       <c r="B262" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="1">
-        <v>44044</v>
+        <v>44042</v>
       </c>
       <c r="B263" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="1">
-        <v>44045</v>
+        <v>44043</v>
       </c>
       <c r="B264" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="1">
-        <v>44046</v>
+        <v>44044</v>
       </c>
       <c r="B265" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="1">
-        <v>44047</v>
+        <v>44045</v>
       </c>
       <c r="B266" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="1">
-        <v>44048</v>
+        <v>44046</v>
       </c>
       <c r="B267" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="1">
-        <v>44049</v>
+        <v>44047</v>
       </c>
       <c r="B268" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="1">
-        <v>44050</v>
+        <v>44048</v>
       </c>
       <c r="B269" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="1">
-        <v>44051</v>
+        <v>44049</v>
       </c>
       <c r="B270" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="1">
-        <v>44052</v>
+        <v>44050</v>
       </c>
       <c r="B271" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="1">
-        <v>44053</v>
+        <v>44051</v>
       </c>
       <c r="B272" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="1">
-        <v>44054</v>
+        <v>44052</v>
       </c>
       <c r="B273" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="1">
-        <v>44055</v>
+        <v>44053</v>
       </c>
       <c r="B274" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="1">
-        <v>44056</v>
+        <v>44054</v>
       </c>
       <c r="B275" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="1">
-        <v>44057</v>
+        <v>44055</v>
       </c>
       <c r="B276" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="1">
-        <v>44058</v>
+        <v>44056</v>
       </c>
       <c r="B277" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="1">
-        <v>44059</v>
+        <v>44057</v>
       </c>
       <c r="B278" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="1">
-        <v>44060</v>
+        <v>44058</v>
       </c>
       <c r="B279" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="1">
-        <v>44061</v>
+        <v>44059</v>
       </c>
       <c r="B280" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="1">
-        <v>44062</v>
+        <v>44060</v>
       </c>
       <c r="B281" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="1">
-        <v>44063</v>
+        <v>44061</v>
       </c>
       <c r="B282" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="1">
-        <v>44064</v>
+        <v>44062</v>
       </c>
       <c r="B283" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="1">
-        <v>44065</v>
+        <v>44063</v>
       </c>
       <c r="B284" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="1">
-        <v>44066</v>
+        <v>44064</v>
       </c>
       <c r="B285" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="1">
-        <v>44067</v>
+        <v>44065</v>
       </c>
       <c r="B286" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="1">
-        <v>44068</v>
+        <v>44066</v>
       </c>
       <c r="B287" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="1">
-        <v>44069</v>
+        <v>44067</v>
       </c>
       <c r="B288" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="1">
-        <v>44070</v>
+        <v>44068</v>
       </c>
       <c r="B289" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="1">
-        <v>44071</v>
+        <v>44069</v>
       </c>
       <c r="B290" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="1">
-        <v>44072</v>
+        <v>44070</v>
       </c>
       <c r="B291" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="1">
-        <v>44073</v>
+        <v>44071</v>
       </c>
       <c r="B292" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="1">
-        <v>44074</v>
+        <v>44072</v>
       </c>
       <c r="B293" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="1">
-        <v>44075</v>
+        <v>44073</v>
       </c>
       <c r="B294" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="1">
-        <v>44076</v>
+        <v>44074</v>
       </c>
       <c r="B295" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="1">
-        <v>44077</v>
+        <v>44075</v>
       </c>
       <c r="B296" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="1">
-        <v>44078</v>
+        <v>44076</v>
       </c>
       <c r="B297" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="1">
-        <v>44079</v>
+        <v>44077</v>
       </c>
       <c r="B298" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="1">
-        <v>44080</v>
+        <v>44078</v>
       </c>
       <c r="B299" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="1">
-        <v>44081</v>
+        <v>44079</v>
       </c>
       <c r="B300" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="1">
-        <v>44082</v>
+        <v>44080</v>
       </c>
       <c r="B301" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="1">
-        <v>44083</v>
+        <v>44081</v>
       </c>
       <c r="B302" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="1">
-        <v>44084</v>
+        <v>44082</v>
       </c>
       <c r="B303" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="1">
-        <v>44085</v>
+        <v>44083</v>
       </c>
       <c r="B304" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="1">
-        <v>44086</v>
+        <v>44084</v>
       </c>
       <c r="B305" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="1">
-        <v>44087</v>
+        <v>44085</v>
       </c>
       <c r="B306" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="1">
-        <v>44088</v>
+        <v>44086</v>
       </c>
       <c r="B307" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="1">
-        <v>44089</v>
+        <v>44087</v>
       </c>
       <c r="B308" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="1">
-        <v>44090</v>
+        <v>44088</v>
       </c>
       <c r="B309" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="1">
-        <v>44091</v>
+        <v>44089</v>
       </c>
       <c r="B310" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="1">
-        <v>44092</v>
+        <v>44090</v>
       </c>
       <c r="B311" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="1">
-        <v>44093</v>
+        <v>44091</v>
       </c>
       <c r="B312" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="1">
-        <v>44094</v>
+        <v>44092</v>
       </c>
       <c r="B313" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="1">
-        <v>44095</v>
+        <v>44093</v>
       </c>
       <c r="B314" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="1">
-        <v>44096</v>
+        <v>44094</v>
       </c>
       <c r="B315" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="1">
-        <v>44097</v>
+        <v>44095</v>
       </c>
       <c r="B316" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="1">
-        <v>44098</v>
+        <v>44096</v>
       </c>
       <c r="B317" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="1">
-        <v>44099</v>
+        <v>44097</v>
       </c>
       <c r="B318" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="1">
-        <v>44100</v>
+        <v>44098</v>
       </c>
       <c r="B319" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="1">
-        <v>44101</v>
+        <v>44099</v>
       </c>
       <c r="B320" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="1">
-        <v>44102</v>
+        <v>44100</v>
       </c>
       <c r="B321" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="1">
-        <v>44103</v>
+        <v>44101</v>
       </c>
       <c r="B322" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="1">
-        <v>44104</v>
+        <v>44102</v>
       </c>
       <c r="B323" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="1">
-        <v>44105</v>
+        <v>44103</v>
       </c>
       <c r="B324" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="1">
-        <v>44106</v>
+        <v>44104</v>
       </c>
       <c r="B325" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="1">
-        <v>44107</v>
+        <v>44105</v>
       </c>
       <c r="B326" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="1">
-        <v>44108</v>
+        <v>44106</v>
       </c>
       <c r="B327" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="1">
-        <v>44109</v>
+        <v>44107</v>
       </c>
       <c r="B328" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="1">
-        <v>44110</v>
+        <v>44108</v>
       </c>
       <c r="B329" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="1">
-        <v>44111</v>
+        <v>44109</v>
       </c>
       <c r="B330" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="1">
-        <v>44112</v>
+        <v>44110</v>
       </c>
       <c r="B331" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="1">
-        <v>44113</v>
+        <v>44111</v>
       </c>
       <c r="B332" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="1">
-        <v>44114</v>
+        <v>44112</v>
       </c>
       <c r="B333" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="1">
-        <v>44115</v>
+        <v>44113</v>
       </c>
       <c r="B334" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="1">
-        <v>44116</v>
+        <v>44114</v>
       </c>
       <c r="B335" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="1">
-        <v>44117</v>
+        <v>44115</v>
       </c>
       <c r="B336" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="1">
-        <v>44118</v>
+        <v>44116</v>
       </c>
       <c r="B337" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="1">
-        <v>44119</v>
+        <v>44117</v>
       </c>
       <c r="B338" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="1">
-        <v>44120</v>
+        <v>44118</v>
       </c>
       <c r="B339" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="1">
-        <v>44121</v>
+        <v>44119</v>
       </c>
       <c r="B340" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="1">
-        <v>44122</v>
+        <v>44120</v>
       </c>
       <c r="B341" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="1">
-        <v>44123</v>
+        <v>44121</v>
       </c>
       <c r="B342" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="1">
-        <v>44124</v>
+        <v>44122</v>
       </c>
       <c r="B343" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="1">
-        <v>44125</v>
+        <v>44123</v>
       </c>
       <c r="B344" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="1">
-        <v>44126</v>
+        <v>44124</v>
       </c>
       <c r="B345" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="1">
-        <v>44127</v>
+        <v>44125</v>
       </c>
       <c r="B346" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="1">
-        <v>44128</v>
+        <v>44126</v>
       </c>
       <c r="B347" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="1">
-        <v>44129</v>
+        <v>44127</v>
       </c>
       <c r="B348" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="1">
-        <v>44130</v>
+        <v>44128</v>
       </c>
       <c r="B349" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="1">
-        <v>44131</v>
+        <v>44129</v>
       </c>
       <c r="B350" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="1">
-        <v>44132</v>
+        <v>44130</v>
       </c>
       <c r="B351" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="1">
-        <v>44133</v>
+        <v>44131</v>
       </c>
       <c r="B352" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="1">
-        <v>44134</v>
+        <v>44132</v>
       </c>
       <c r="B353" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="1">
-        <v>44135</v>
+        <v>44133</v>
       </c>
       <c r="B354" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="1">
-        <v>44136</v>
+        <v>44134</v>
       </c>
       <c r="B355" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="1">
-        <v>44137</v>
+        <v>44135</v>
       </c>
       <c r="B356" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="1">
-        <v>44138</v>
+        <v>44136</v>
       </c>
       <c r="B357" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="1">
-        <v>44139</v>
+        <v>44137</v>
       </c>
       <c r="B358" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="1">
-        <v>44140</v>
+        <v>44138</v>
       </c>
       <c r="B359" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="1">
-        <v>44141</v>
+        <v>44139</v>
       </c>
       <c r="B360" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="1">
-        <v>44142</v>
+        <v>44140</v>
       </c>
       <c r="B361" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="1">
-        <v>44143</v>
+        <v>44141</v>
       </c>
       <c r="B362" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="1">
-        <v>44144</v>
+        <v>44142</v>
       </c>
       <c r="B363" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="1">
-        <v>44145</v>
+        <v>44143</v>
       </c>
       <c r="B364" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="1">
-        <v>44146</v>
+        <v>44144</v>
       </c>
       <c r="B365" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="1">
-        <v>44147</v>
+        <v>44145</v>
       </c>
       <c r="B366" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="1">
-        <v>44148</v>
+        <v>44146</v>
       </c>
       <c r="B367" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="1">
-        <v>44149</v>
+        <v>44147</v>
       </c>
       <c r="B368" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="1">
-        <v>44150</v>
+        <v>44148</v>
       </c>
       <c r="B369" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="1">
-        <v>44151</v>
+        <v>44149</v>
       </c>
       <c r="B370" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="1">
-        <v>44152</v>
+        <v>44150</v>
       </c>
       <c r="B371" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="1">
-        <v>44153</v>
+        <v>44151</v>
       </c>
       <c r="B372" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="1">
-        <v>44154</v>
+        <v>44152</v>
       </c>
       <c r="B373" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="1">
-        <v>44155</v>
+        <v>44153</v>
       </c>
       <c r="B374" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="1">
-        <v>44156</v>
+        <v>44154</v>
       </c>
       <c r="B375" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="1">
-        <v>44157</v>
+        <v>44155</v>
       </c>
       <c r="B376" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="1">
-        <v>44158</v>
+        <v>44156</v>
       </c>
       <c r="B377" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="1">
-        <v>44159</v>
+        <v>44157</v>
       </c>
       <c r="B378" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="1">
-        <v>44160</v>
+        <v>44158</v>
       </c>
       <c r="B379" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="1">
-        <v>44161</v>
+        <v>44159</v>
       </c>
       <c r="B380" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="1">
-        <v>44162</v>
+        <v>44160</v>
       </c>
       <c r="B381" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="1">
-        <v>44163</v>
+        <v>44161</v>
       </c>
       <c r="B382" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="1">
-        <v>44164</v>
+        <v>44162</v>
       </c>
       <c r="B383" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="1">
-        <v>44165</v>
+        <v>44163</v>
       </c>
       <c r="B384" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="1">
-        <v>44166</v>
+        <v>44164</v>
       </c>
       <c r="B385" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="1">
-        <v>44167</v>
+        <v>44165</v>
       </c>
       <c r="B386" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="1">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="B387" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="1">
-        <v>44169</v>
+        <v>44167</v>
       </c>
       <c r="B388" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="1">
-        <v>44170</v>
+        <v>44168</v>
       </c>
       <c r="B389" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="1">
-        <v>44171</v>
+        <v>44169</v>
       </c>
       <c r="B390" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="1">
-        <v>44172</v>
+        <v>44170</v>
       </c>
       <c r="B391" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="1">
-        <v>44173</v>
+        <v>44171</v>
       </c>
       <c r="B392" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="1">
-        <v>44174</v>
+        <v>44172</v>
       </c>
       <c r="B393" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="1">
-        <v>44175</v>
+        <v>44173</v>
       </c>
       <c r="B394" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="1">
-        <v>44176</v>
+        <v>44174</v>
       </c>
       <c r="B395" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="1">
-        <v>44177</v>
+        <v>44175</v>
       </c>
       <c r="B396" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="1">
-        <v>44178</v>
+        <v>44176</v>
       </c>
       <c r="B397" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="1">
-        <v>44179</v>
+        <v>44177</v>
       </c>
       <c r="B398" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="1">
-        <v>44180</v>
+        <v>44178</v>
       </c>
       <c r="B399" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="1">
-        <v>44181</v>
+        <v>44179</v>
       </c>
       <c r="B400" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="1">
-        <v>44182</v>
+        <v>44180</v>
       </c>
       <c r="B401" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="1">
-        <v>44183</v>
+        <v>44181</v>
       </c>
       <c r="B402" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="1">
-        <v>44184</v>
+        <v>44182</v>
       </c>
       <c r="B403" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="1">
-        <v>44185</v>
+        <v>44183</v>
       </c>
       <c r="B404" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="1">
-        <v>44186</v>
+        <v>44184</v>
       </c>
       <c r="B405" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="1">
-        <v>44187</v>
+        <v>44185</v>
       </c>
       <c r="B406" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="1">
-        <v>44188</v>
+        <v>44186</v>
       </c>
       <c r="B407" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="1">
-        <v>44189</v>
+        <v>44187</v>
       </c>
       <c r="B408" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="1">
-        <v>44190</v>
+        <v>44188</v>
       </c>
       <c r="B409" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="1">
-        <v>44191</v>
+        <v>44189</v>
       </c>
       <c r="B410" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="1">
-        <v>44192</v>
+        <v>44190</v>
       </c>
       <c r="B411" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="1">
-        <v>44193</v>
+        <v>44191</v>
       </c>
       <c r="B412" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="1">
-        <v>44194</v>
+        <v>44192</v>
       </c>
       <c r="B413" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="1">
-        <v>44195</v>
+        <v>44193</v>
       </c>
       <c r="B414" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="1">
+        <v>44194</v>
+      </c>
+      <c r="B415" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2">
+      <c r="A416" s="1">
+        <v>44195</v>
+      </c>
+      <c r="B416" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2">
+      <c r="A417" s="1">
         <v>44196</v>
       </c>
-      <c r="B415" t="s">
+      <c r="B417" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6727,10 +6831,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F135"/>
+  <dimension ref="A1:F139"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="A131" sqref="A131"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64:D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7577,6 +7681,20 @@
         <v>286</v>
       </c>
     </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>393</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="C65" t="s">
+        <v>132</v>
+      </c>
+      <c r="D65" t="s">
+        <v>286</v>
+      </c>
+    </row>
     <row r="69" spans="1:5" s="4" customFormat="1">
       <c r="A69" s="5" t="s">
         <v>36</v>
@@ -8002,7 +8120,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
         <v>340</v>
       </c>
@@ -8010,7 +8128,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
+    <row r="130" spans="1:3">
       <c r="A130" t="s">
         <v>341</v>
       </c>
@@ -8018,7 +8136,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:3">
       <c r="A131" t="s">
         <v>349</v>
       </c>
@@ -8026,27 +8144,62 @@
         <v>346</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
+    <row r="132" spans="1:3">
       <c r="A132" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:3">
       <c r="B133" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="134" spans="1:2">
+    <row r="134" spans="1:3">
       <c r="B134" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:3">
       <c r="A135" t="s">
         <v>381</v>
       </c>
       <c r="B135" t="s">
         <v>382</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="15.75">
+      <c r="A136" t="s">
+        <v>383</v>
+      </c>
+      <c r="B136" t="s">
+        <v>346</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="15.75">
+      <c r="B137" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="15.75">
+      <c r="B138" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="15.75">
+      <c r="B139" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>389</v>
       </c>
     </row>
   </sheetData>

--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="399">
   <si>
     <t>Дата начала</t>
   </si>
@@ -1334,6 +1334,18 @@
   </si>
   <si>
     <t>RS School. JavaScript Classes</t>
+  </si>
+  <si>
+    <t>https://kirilknysh.github.io/js-classes-talk/#/</t>
+  </si>
+  <si>
+    <t>Слайды по классам</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Ji52SxpEnxc</t>
+  </si>
+  <si>
+    <t>Friday Live Coding. Part 6</t>
   </si>
 </sst>
 </file>
@@ -1730,10 +1742,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:D83"/>
+  <dimension ref="A1:D84"/>
   <sheetViews>
     <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2717,6 +2729,17 @@
       </c>
       <c r="C83" s="8" t="s">
         <v>394</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B84" s="1">
+        <v>43969</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -2733,10 +2756,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D417"/>
+  <dimension ref="A1:D418"/>
   <sheetViews>
     <sheetView topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="C189" sqref="C189:D189"/>
+      <selection activeCell="C192" sqref="C192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4949,1826 +4972,1841 @@
       </c>
     </row>
     <row r="190" spans="1:4">
-      <c r="A190" s="1">
-        <v>43969</v>
-      </c>
-      <c r="B190" t="s">
-        <v>10</v>
+      <c r="A190" s="1"/>
+      <c r="C190" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D190" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="1">
-        <v>43970</v>
+        <v>43969</v>
       </c>
       <c r="B191" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D191" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="1">
-        <v>43971</v>
+        <v>43970</v>
       </c>
       <c r="B192" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="193" spans="1:2">
       <c r="A193" s="1">
-        <v>43972</v>
+        <v>43971</v>
       </c>
       <c r="B193" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="194" spans="1:2">
       <c r="A194" s="1">
-        <v>43973</v>
+        <v>43972</v>
       </c>
       <c r="B194" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="1">
-        <v>43974</v>
+        <v>43973</v>
       </c>
       <c r="B195" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="196" spans="1:2">
       <c r="A196" s="1">
-        <v>43975</v>
+        <v>43974</v>
       </c>
       <c r="B196" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="1">
-        <v>43976</v>
+        <v>43975</v>
       </c>
       <c r="B197" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="198" spans="1:2">
       <c r="A198" s="1">
-        <v>43977</v>
+        <v>43976</v>
       </c>
       <c r="B198" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="199" spans="1:2">
       <c r="A199" s="1">
-        <v>43978</v>
+        <v>43977</v>
       </c>
       <c r="B199" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="200" spans="1:2">
       <c r="A200" s="1">
-        <v>43979</v>
+        <v>43978</v>
       </c>
       <c r="B200" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="1">
-        <v>43980</v>
+        <v>43979</v>
       </c>
       <c r="B201" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="202" spans="1:2">
       <c r="A202" s="1">
-        <v>43981</v>
+        <v>43980</v>
       </c>
       <c r="B202" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="203" spans="1:2">
       <c r="A203" s="1">
-        <v>43982</v>
+        <v>43981</v>
       </c>
       <c r="B203" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="1">
-        <v>43983</v>
+        <v>43982</v>
       </c>
       <c r="B204" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="1">
-        <v>43984</v>
+        <v>43983</v>
       </c>
       <c r="B205" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="206" spans="1:2">
       <c r="A206" s="1">
-        <v>43985</v>
+        <v>43984</v>
       </c>
       <c r="B206" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="1">
-        <v>43986</v>
+        <v>43985</v>
       </c>
       <c r="B207" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="1">
-        <v>43987</v>
+        <v>43986</v>
       </c>
       <c r="B208" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="1">
-        <v>43988</v>
+        <v>43987</v>
       </c>
       <c r="B209" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="1">
-        <v>43989</v>
+        <v>43988</v>
       </c>
       <c r="B210" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="1">
-        <v>43990</v>
+        <v>43989</v>
       </c>
       <c r="B211" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="1">
-        <v>43991</v>
+        <v>43990</v>
       </c>
       <c r="B212" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="1">
-        <v>43992</v>
+        <v>43991</v>
       </c>
       <c r="B213" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="1">
-        <v>43993</v>
+        <v>43992</v>
       </c>
       <c r="B214" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="1">
-        <v>43994</v>
+        <v>43993</v>
       </c>
       <c r="B215" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="1">
-        <v>43995</v>
+        <v>43994</v>
       </c>
       <c r="B216" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="1">
-        <v>43996</v>
+        <v>43995</v>
       </c>
       <c r="B217" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="1">
-        <v>43997</v>
+        <v>43996</v>
       </c>
       <c r="B218" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="1">
-        <v>43998</v>
+        <v>43997</v>
       </c>
       <c r="B219" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="1">
-        <v>43999</v>
+        <v>43998</v>
       </c>
       <c r="B220" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="1">
-        <v>44000</v>
+        <v>43999</v>
       </c>
       <c r="B221" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="1">
-        <v>44001</v>
+        <v>44000</v>
       </c>
       <c r="B222" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="1">
-        <v>44002</v>
+        <v>44001</v>
       </c>
       <c r="B223" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="1">
-        <v>44003</v>
+        <v>44002</v>
       </c>
       <c r="B224" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="1">
-        <v>44004</v>
+        <v>44003</v>
       </c>
       <c r="B225" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="1">
-        <v>44005</v>
+        <v>44004</v>
       </c>
       <c r="B226" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="1">
-        <v>44006</v>
+        <v>44005</v>
       </c>
       <c r="B227" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="1">
-        <v>44007</v>
+        <v>44006</v>
       </c>
       <c r="B228" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="1">
-        <v>44008</v>
+        <v>44007</v>
       </c>
       <c r="B229" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="1">
-        <v>44009</v>
+        <v>44008</v>
       </c>
       <c r="B230" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="1">
-        <v>44010</v>
+        <v>44009</v>
       </c>
       <c r="B231" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="1">
-        <v>44011</v>
+        <v>44010</v>
       </c>
       <c r="B232" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="1">
-        <v>44012</v>
+        <v>44011</v>
       </c>
       <c r="B233" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="1">
-        <v>44013</v>
+        <v>44012</v>
       </c>
       <c r="B234" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="1">
-        <v>44014</v>
+        <v>44013</v>
       </c>
       <c r="B235" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="1">
-        <v>44015</v>
+        <v>44014</v>
       </c>
       <c r="B236" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="1">
-        <v>44016</v>
+        <v>44015</v>
       </c>
       <c r="B237" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="1">
-        <v>44017</v>
+        <v>44016</v>
       </c>
       <c r="B238" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="1">
-        <v>44018</v>
+        <v>44017</v>
       </c>
       <c r="B239" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="1">
-        <v>44019</v>
+        <v>44018</v>
       </c>
       <c r="B240" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="1">
-        <v>44020</v>
+        <v>44019</v>
       </c>
       <c r="B241" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="1">
-        <v>44021</v>
+        <v>44020</v>
       </c>
       <c r="B242" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="1">
-        <v>44022</v>
+        <v>44021</v>
       </c>
       <c r="B243" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="1">
-        <v>44023</v>
+        <v>44022</v>
       </c>
       <c r="B244" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="1">
-        <v>44024</v>
+        <v>44023</v>
       </c>
       <c r="B245" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="1">
-        <v>44025</v>
+        <v>44024</v>
       </c>
       <c r="B246" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="1">
-        <v>44026</v>
+        <v>44025</v>
       </c>
       <c r="B247" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="1">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B248" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="1">
-        <v>44028</v>
+        <v>44027</v>
       </c>
       <c r="B249" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="1">
-        <v>44029</v>
+        <v>44028</v>
       </c>
       <c r="B250" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="1">
-        <v>44030</v>
+        <v>44029</v>
       </c>
       <c r="B251" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="1">
-        <v>44031</v>
+        <v>44030</v>
       </c>
       <c r="B252" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="1">
-        <v>44032</v>
+        <v>44031</v>
       </c>
       <c r="B253" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="1">
-        <v>44033</v>
+        <v>44032</v>
       </c>
       <c r="B254" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="1">
-        <v>44034</v>
+        <v>44033</v>
       </c>
       <c r="B255" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="1">
-        <v>44035</v>
+        <v>44034</v>
       </c>
       <c r="B256" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="1">
-        <v>44036</v>
+        <v>44035</v>
       </c>
       <c r="B257" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="1">
-        <v>44037</v>
+        <v>44036</v>
       </c>
       <c r="B258" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="1">
-        <v>44038</v>
+        <v>44037</v>
       </c>
       <c r="B259" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="1">
-        <v>44039</v>
+        <v>44038</v>
       </c>
       <c r="B260" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="1">
-        <v>44040</v>
+        <v>44039</v>
       </c>
       <c r="B261" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="1">
-        <v>44041</v>
+        <v>44040</v>
       </c>
       <c r="B262" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="1">
-        <v>44042</v>
+        <v>44041</v>
       </c>
       <c r="B263" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="1">
-        <v>44043</v>
+        <v>44042</v>
       </c>
       <c r="B264" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="1">
-        <v>44044</v>
+        <v>44043</v>
       </c>
       <c r="B265" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="1">
-        <v>44045</v>
+        <v>44044</v>
       </c>
       <c r="B266" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="1">
-        <v>44046</v>
+        <v>44045</v>
       </c>
       <c r="B267" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="1">
-        <v>44047</v>
+        <v>44046</v>
       </c>
       <c r="B268" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="1">
-        <v>44048</v>
+        <v>44047</v>
       </c>
       <c r="B269" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="1">
-        <v>44049</v>
+        <v>44048</v>
       </c>
       <c r="B270" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="1">
-        <v>44050</v>
+        <v>44049</v>
       </c>
       <c r="B271" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="1">
-        <v>44051</v>
+        <v>44050</v>
       </c>
       <c r="B272" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="1">
-        <v>44052</v>
+        <v>44051</v>
       </c>
       <c r="B273" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="1">
-        <v>44053</v>
+        <v>44052</v>
       </c>
       <c r="B274" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="1">
-        <v>44054</v>
+        <v>44053</v>
       </c>
       <c r="B275" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="1">
-        <v>44055</v>
+        <v>44054</v>
       </c>
       <c r="B276" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="1">
-        <v>44056</v>
+        <v>44055</v>
       </c>
       <c r="B277" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="1">
-        <v>44057</v>
+        <v>44056</v>
       </c>
       <c r="B278" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="1">
-        <v>44058</v>
+        <v>44057</v>
       </c>
       <c r="B279" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="1">
-        <v>44059</v>
+        <v>44058</v>
       </c>
       <c r="B280" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="1">
-        <v>44060</v>
+        <v>44059</v>
       </c>
       <c r="B281" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="1">
-        <v>44061</v>
+        <v>44060</v>
       </c>
       <c r="B282" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="1">
-        <v>44062</v>
+        <v>44061</v>
       </c>
       <c r="B283" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="1">
-        <v>44063</v>
+        <v>44062</v>
       </c>
       <c r="B284" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="1">
-        <v>44064</v>
+        <v>44063</v>
       </c>
       <c r="B285" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="1">
-        <v>44065</v>
+        <v>44064</v>
       </c>
       <c r="B286" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="1">
-        <v>44066</v>
+        <v>44065</v>
       </c>
       <c r="B287" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="1">
-        <v>44067</v>
+        <v>44066</v>
       </c>
       <c r="B288" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="1">
-        <v>44068</v>
+        <v>44067</v>
       </c>
       <c r="B289" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="1">
-        <v>44069</v>
+        <v>44068</v>
       </c>
       <c r="B290" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="1">
-        <v>44070</v>
+        <v>44069</v>
       </c>
       <c r="B291" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="1">
-        <v>44071</v>
+        <v>44070</v>
       </c>
       <c r="B292" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="1">
-        <v>44072</v>
+        <v>44071</v>
       </c>
       <c r="B293" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="1">
-        <v>44073</v>
+        <v>44072</v>
       </c>
       <c r="B294" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="1">
-        <v>44074</v>
+        <v>44073</v>
       </c>
       <c r="B295" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="1">
-        <v>44075</v>
+        <v>44074</v>
       </c>
       <c r="B296" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="1">
-        <v>44076</v>
+        <v>44075</v>
       </c>
       <c r="B297" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="1">
-        <v>44077</v>
+        <v>44076</v>
       </c>
       <c r="B298" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="1">
-        <v>44078</v>
+        <v>44077</v>
       </c>
       <c r="B299" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="1">
-        <v>44079</v>
+        <v>44078</v>
       </c>
       <c r="B300" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="1">
-        <v>44080</v>
+        <v>44079</v>
       </c>
       <c r="B301" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="1">
-        <v>44081</v>
+        <v>44080</v>
       </c>
       <c r="B302" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="1">
-        <v>44082</v>
+        <v>44081</v>
       </c>
       <c r="B303" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="1">
-        <v>44083</v>
+        <v>44082</v>
       </c>
       <c r="B304" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="1">
-        <v>44084</v>
+        <v>44083</v>
       </c>
       <c r="B305" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="1">
-        <v>44085</v>
+        <v>44084</v>
       </c>
       <c r="B306" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="1">
-        <v>44086</v>
+        <v>44085</v>
       </c>
       <c r="B307" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="1">
-        <v>44087</v>
+        <v>44086</v>
       </c>
       <c r="B308" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="1">
-        <v>44088</v>
+        <v>44087</v>
       </c>
       <c r="B309" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="1">
-        <v>44089</v>
+        <v>44088</v>
       </c>
       <c r="B310" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="1">
-        <v>44090</v>
+        <v>44089</v>
       </c>
       <c r="B311" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="1">
-        <v>44091</v>
+        <v>44090</v>
       </c>
       <c r="B312" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="1">
-        <v>44092</v>
+        <v>44091</v>
       </c>
       <c r="B313" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="1">
-        <v>44093</v>
+        <v>44092</v>
       </c>
       <c r="B314" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="1">
-        <v>44094</v>
+        <v>44093</v>
       </c>
       <c r="B315" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="1">
-        <v>44095</v>
+        <v>44094</v>
       </c>
       <c r="B316" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="1">
-        <v>44096</v>
+        <v>44095</v>
       </c>
       <c r="B317" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="1">
-        <v>44097</v>
+        <v>44096</v>
       </c>
       <c r="B318" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="1">
-        <v>44098</v>
+        <v>44097</v>
       </c>
       <c r="B319" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="1">
-        <v>44099</v>
+        <v>44098</v>
       </c>
       <c r="B320" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="1">
-        <v>44100</v>
+        <v>44099</v>
       </c>
       <c r="B321" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="1">
-        <v>44101</v>
+        <v>44100</v>
       </c>
       <c r="B322" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="1">
-        <v>44102</v>
+        <v>44101</v>
       </c>
       <c r="B323" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="1">
-        <v>44103</v>
+        <v>44102</v>
       </c>
       <c r="B324" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="1">
-        <v>44104</v>
+        <v>44103</v>
       </c>
       <c r="B325" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="1">
-        <v>44105</v>
+        <v>44104</v>
       </c>
       <c r="B326" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="1">
-        <v>44106</v>
+        <v>44105</v>
       </c>
       <c r="B327" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="1">
-        <v>44107</v>
+        <v>44106</v>
       </c>
       <c r="B328" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="1">
-        <v>44108</v>
+        <v>44107</v>
       </c>
       <c r="B329" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="1">
-        <v>44109</v>
+        <v>44108</v>
       </c>
       <c r="B330" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="1">
-        <v>44110</v>
+        <v>44109</v>
       </c>
       <c r="B331" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="1">
-        <v>44111</v>
+        <v>44110</v>
       </c>
       <c r="B332" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="1">
-        <v>44112</v>
+        <v>44111</v>
       </c>
       <c r="B333" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="1">
-        <v>44113</v>
+        <v>44112</v>
       </c>
       <c r="B334" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="1">
-        <v>44114</v>
+        <v>44113</v>
       </c>
       <c r="B335" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="1">
-        <v>44115</v>
+        <v>44114</v>
       </c>
       <c r="B336" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="1">
-        <v>44116</v>
+        <v>44115</v>
       </c>
       <c r="B337" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="1">
-        <v>44117</v>
+        <v>44116</v>
       </c>
       <c r="B338" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="1">
-        <v>44118</v>
+        <v>44117</v>
       </c>
       <c r="B339" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="1">
-        <v>44119</v>
+        <v>44118</v>
       </c>
       <c r="B340" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="1">
-        <v>44120</v>
+        <v>44119</v>
       </c>
       <c r="B341" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="1">
-        <v>44121</v>
+        <v>44120</v>
       </c>
       <c r="B342" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="1">
-        <v>44122</v>
+        <v>44121</v>
       </c>
       <c r="B343" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="1">
-        <v>44123</v>
+        <v>44122</v>
       </c>
       <c r="B344" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="1">
-        <v>44124</v>
+        <v>44123</v>
       </c>
       <c r="B345" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="1">
-        <v>44125</v>
+        <v>44124</v>
       </c>
       <c r="B346" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="1">
-        <v>44126</v>
+        <v>44125</v>
       </c>
       <c r="B347" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="1">
-        <v>44127</v>
+        <v>44126</v>
       </c>
       <c r="B348" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="1">
-        <v>44128</v>
+        <v>44127</v>
       </c>
       <c r="B349" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="1">
-        <v>44129</v>
+        <v>44128</v>
       </c>
       <c r="B350" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="1">
-        <v>44130</v>
+        <v>44129</v>
       </c>
       <c r="B351" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="1">
-        <v>44131</v>
+        <v>44130</v>
       </c>
       <c r="B352" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="1">
-        <v>44132</v>
+        <v>44131</v>
       </c>
       <c r="B353" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="1">
-        <v>44133</v>
+        <v>44132</v>
       </c>
       <c r="B354" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="1">
-        <v>44134</v>
+        <v>44133</v>
       </c>
       <c r="B355" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="1">
-        <v>44135</v>
+        <v>44134</v>
       </c>
       <c r="B356" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="1">
-        <v>44136</v>
+        <v>44135</v>
       </c>
       <c r="B357" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="1">
-        <v>44137</v>
+        <v>44136</v>
       </c>
       <c r="B358" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="1">
-        <v>44138</v>
+        <v>44137</v>
       </c>
       <c r="B359" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="1">
-        <v>44139</v>
+        <v>44138</v>
       </c>
       <c r="B360" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="1">
-        <v>44140</v>
+        <v>44139</v>
       </c>
       <c r="B361" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="1">
-        <v>44141</v>
+        <v>44140</v>
       </c>
       <c r="B362" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="1">
-        <v>44142</v>
+        <v>44141</v>
       </c>
       <c r="B363" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="1">
-        <v>44143</v>
+        <v>44142</v>
       </c>
       <c r="B364" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="1">
-        <v>44144</v>
+        <v>44143</v>
       </c>
       <c r="B365" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="1">
-        <v>44145</v>
+        <v>44144</v>
       </c>
       <c r="B366" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="1">
-        <v>44146</v>
+        <v>44145</v>
       </c>
       <c r="B367" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="1">
-        <v>44147</v>
+        <v>44146</v>
       </c>
       <c r="B368" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="1">
-        <v>44148</v>
+        <v>44147</v>
       </c>
       <c r="B369" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="1">
-        <v>44149</v>
+        <v>44148</v>
       </c>
       <c r="B370" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="1">
-        <v>44150</v>
+        <v>44149</v>
       </c>
       <c r="B371" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="1">
-        <v>44151</v>
+        <v>44150</v>
       </c>
       <c r="B372" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="1">
-        <v>44152</v>
+        <v>44151</v>
       </c>
       <c r="B373" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="1">
-        <v>44153</v>
+        <v>44152</v>
       </c>
       <c r="B374" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="1">
-        <v>44154</v>
+        <v>44153</v>
       </c>
       <c r="B375" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="1">
-        <v>44155</v>
+        <v>44154</v>
       </c>
       <c r="B376" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="1">
-        <v>44156</v>
+        <v>44155</v>
       </c>
       <c r="B377" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="1">
-        <v>44157</v>
+        <v>44156</v>
       </c>
       <c r="B378" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="1">
-        <v>44158</v>
+        <v>44157</v>
       </c>
       <c r="B379" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="1">
-        <v>44159</v>
+        <v>44158</v>
       </c>
       <c r="B380" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="1">
-        <v>44160</v>
+        <v>44159</v>
       </c>
       <c r="B381" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="1">
-        <v>44161</v>
+        <v>44160</v>
       </c>
       <c r="B382" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="1">
-        <v>44162</v>
+        <v>44161</v>
       </c>
       <c r="B383" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="1">
-        <v>44163</v>
+        <v>44162</v>
       </c>
       <c r="B384" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="1">
-        <v>44164</v>
+        <v>44163</v>
       </c>
       <c r="B385" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="1">
-        <v>44165</v>
+        <v>44164</v>
       </c>
       <c r="B386" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="1">
-        <v>44166</v>
+        <v>44165</v>
       </c>
       <c r="B387" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="1">
-        <v>44167</v>
+        <v>44166</v>
       </c>
       <c r="B388" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="1">
-        <v>44168</v>
+        <v>44167</v>
       </c>
       <c r="B389" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="1">
-        <v>44169</v>
+        <v>44168</v>
       </c>
       <c r="B390" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="1">
-        <v>44170</v>
+        <v>44169</v>
       </c>
       <c r="B391" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="1">
-        <v>44171</v>
+        <v>44170</v>
       </c>
       <c r="B392" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="1">
-        <v>44172</v>
+        <v>44171</v>
       </c>
       <c r="B393" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="1">
-        <v>44173</v>
+        <v>44172</v>
       </c>
       <c r="B394" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="1">
-        <v>44174</v>
+        <v>44173</v>
       </c>
       <c r="B395" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="1">
-        <v>44175</v>
+        <v>44174</v>
       </c>
       <c r="B396" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="1">
-        <v>44176</v>
+        <v>44175</v>
       </c>
       <c r="B397" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="1">
-        <v>44177</v>
+        <v>44176</v>
       </c>
       <c r="B398" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="1">
-        <v>44178</v>
+        <v>44177</v>
       </c>
       <c r="B399" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="1">
-        <v>44179</v>
+        <v>44178</v>
       </c>
       <c r="B400" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="1">
-        <v>44180</v>
+        <v>44179</v>
       </c>
       <c r="B401" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="1">
-        <v>44181</v>
+        <v>44180</v>
       </c>
       <c r="B402" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="1">
-        <v>44182</v>
+        <v>44181</v>
       </c>
       <c r="B403" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="1">
-        <v>44183</v>
+        <v>44182</v>
       </c>
       <c r="B404" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="1">
-        <v>44184</v>
+        <v>44183</v>
       </c>
       <c r="B405" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="1">
-        <v>44185</v>
+        <v>44184</v>
       </c>
       <c r="B406" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="1">
-        <v>44186</v>
+        <v>44185</v>
       </c>
       <c r="B407" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="1">
-        <v>44187</v>
+        <v>44186</v>
       </c>
       <c r="B408" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="1">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="B409" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="1">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="B410" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="1">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="B411" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="1">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="B412" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="1">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="B413" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="1">
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="B414" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="1">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="B415" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="1">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B416" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="1">
+        <v>44195</v>
+      </c>
+      <c r="B417" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2">
+      <c r="A418" s="1">
         <v>44196</v>
       </c>
-      <c r="B417" t="s">
+      <c r="B418" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6823,9 +6861,11 @@
     <hyperlink ref="C166" r:id="rId47"/>
     <hyperlink ref="C169" r:id="rId48"/>
     <hyperlink ref="C179" r:id="rId49"/>
+    <hyperlink ref="C190" r:id="rId50"/>
+    <hyperlink ref="C191" r:id="rId51"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId50"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId52"/>
 </worksheet>
 </file>
 
@@ -6833,8 +6873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64:D65"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7695,6 +7735,20 @@
         <v>286</v>
       </c>
     </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="C66" t="s">
+        <v>132</v>
+      </c>
+      <c r="D66" t="s">
+        <v>286</v>
+      </c>
+    </row>
     <row r="69" spans="1:5" s="4" customFormat="1">
       <c r="A69" s="5" t="s">
         <v>36</v>
@@ -7885,6 +7939,14 @@
       </c>
       <c r="B86" s="8" t="s">
         <v>378</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B87" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="90" spans="1:3" s="4" customFormat="1">
@@ -8255,9 +8317,11 @@
     <hyperlink ref="A61" r:id="rId49"/>
     <hyperlink ref="A62" r:id="rId50"/>
     <hyperlink ref="A86" r:id="rId51"/>
+    <hyperlink ref="A87" r:id="rId52" location="/"/>
+    <hyperlink ref="A66" r:id="rId53"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId52"/>
-  <legacyDrawing r:id="rId53"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId54"/>
+  <legacyDrawing r:id="rId55"/>
 </worksheet>
 </file>
--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440"/>
   </bookViews>
   <sheets>
     <sheet name="По задачам" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="400">
   <si>
     <t>Дата начала</t>
   </si>
@@ -1346,6 +1346,9 @@
   </si>
   <si>
     <t>Friday Live Coding. Part 6</t>
+  </si>
+  <si>
+    <t>Presentation task</t>
   </si>
 </sst>
 </file>
@@ -1742,10 +1745,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:D84"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2740,6 +2743,14 @@
       </c>
       <c r="C84" s="8" t="s">
         <v>398</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1">
+        <v>43968</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -2756,10 +2767,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D418"/>
+  <dimension ref="A1:D419"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="C192" sqref="C192"/>
+    <sheetView topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="D193" sqref="D193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4995,1818 +5006,1833 @@
       </c>
     </row>
     <row r="192" spans="1:4">
-      <c r="A192" s="1">
+      <c r="A192" s="1"/>
+      <c r="C192" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="D192" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="1">
         <v>43970</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B193" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="193" spans="1:2">
-      <c r="A193" s="1">
+      <c r="C193" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="D193" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="1">
         <v>43971</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B194" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="194" spans="1:2">
-      <c r="A194" s="1">
+    <row r="195" spans="1:4">
+      <c r="A195" s="1">
         <v>43972</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B195" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="1:2">
-      <c r="A195" s="1">
+    <row r="196" spans="1:4">
+      <c r="A196" s="1">
         <v>43973</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B196" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="196" spans="1:2">
-      <c r="A196" s="1">
+    <row r="197" spans="1:4">
+      <c r="A197" s="1">
         <v>43974</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B197" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
-      <c r="A197" s="1">
+    <row r="198" spans="1:4">
+      <c r="A198" s="1">
         <v>43975</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B198" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
-      <c r="A198" s="1">
+    <row r="199" spans="1:4">
+      <c r="A199" s="1">
         <v>43976</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B199" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="1:2">
-      <c r="A199" s="1">
+    <row r="200" spans="1:4">
+      <c r="A200" s="1">
         <v>43977</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B200" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="200" spans="1:2">
-      <c r="A200" s="1">
+    <row r="201" spans="1:4">
+      <c r="A201" s="1">
         <v>43978</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B201" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="201" spans="1:2">
-      <c r="A201" s="1">
+    <row r="202" spans="1:4">
+      <c r="A202" s="1">
         <v>43979</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B202" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:2">
-      <c r="A202" s="1">
+    <row r="203" spans="1:4">
+      <c r="A203" s="1">
         <v>43980</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B203" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="203" spans="1:2">
-      <c r="A203" s="1">
+    <row r="204" spans="1:4">
+      <c r="A204" s="1">
         <v>43981</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B204" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="204" spans="1:2">
-      <c r="A204" s="1">
+    <row r="205" spans="1:4">
+      <c r="A205" s="1">
         <v>43982</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B205" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
-      <c r="A205" s="1">
+    <row r="206" spans="1:4">
+      <c r="A206" s="1">
         <v>43983</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B206" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:2">
-      <c r="A206" s="1">
+    <row r="207" spans="1:4">
+      <c r="A207" s="1">
         <v>43984</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B207" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="207" spans="1:2">
-      <c r="A207" s="1">
+    <row r="208" spans="1:4">
+      <c r="A208" s="1">
         <v>43985</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B208" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2">
-      <c r="A208" s="1">
-        <v>43986</v>
-      </c>
-      <c r="B208" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="1">
-        <v>43987</v>
+        <v>43986</v>
       </c>
       <c r="B209" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="1">
-        <v>43988</v>
+        <v>43987</v>
       </c>
       <c r="B210" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="1">
-        <v>43989</v>
+        <v>43988</v>
       </c>
       <c r="B211" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="1">
-        <v>43990</v>
+        <v>43989</v>
       </c>
       <c r="B212" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="1">
-        <v>43991</v>
+        <v>43990</v>
       </c>
       <c r="B213" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="1">
-        <v>43992</v>
+        <v>43991</v>
       </c>
       <c r="B214" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="1">
-        <v>43993</v>
+        <v>43992</v>
       </c>
       <c r="B215" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="1">
-        <v>43994</v>
+        <v>43993</v>
       </c>
       <c r="B216" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="1">
-        <v>43995</v>
+        <v>43994</v>
       </c>
       <c r="B217" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="1">
-        <v>43996</v>
+        <v>43995</v>
       </c>
       <c r="B218" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="1">
-        <v>43997</v>
+        <v>43996</v>
       </c>
       <c r="B219" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="1">
-        <v>43998</v>
+        <v>43997</v>
       </c>
       <c r="B220" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="1">
-        <v>43999</v>
+        <v>43998</v>
       </c>
       <c r="B221" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="1">
-        <v>44000</v>
+        <v>43999</v>
       </c>
       <c r="B222" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="1">
-        <v>44001</v>
+        <v>44000</v>
       </c>
       <c r="B223" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="1">
-        <v>44002</v>
+        <v>44001</v>
       </c>
       <c r="B224" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="1">
-        <v>44003</v>
+        <v>44002</v>
       </c>
       <c r="B225" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="1">
-        <v>44004</v>
+        <v>44003</v>
       </c>
       <c r="B226" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="1">
-        <v>44005</v>
+        <v>44004</v>
       </c>
       <c r="B227" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="1">
-        <v>44006</v>
+        <v>44005</v>
       </c>
       <c r="B228" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="1">
-        <v>44007</v>
+        <v>44006</v>
       </c>
       <c r="B229" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="1">
-        <v>44008</v>
+        <v>44007</v>
       </c>
       <c r="B230" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="1">
-        <v>44009</v>
+        <v>44008</v>
       </c>
       <c r="B231" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="1">
-        <v>44010</v>
+        <v>44009</v>
       </c>
       <c r="B232" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="1">
-        <v>44011</v>
+        <v>44010</v>
       </c>
       <c r="B233" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="1">
-        <v>44012</v>
+        <v>44011</v>
       </c>
       <c r="B234" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="1">
-        <v>44013</v>
+        <v>44012</v>
       </c>
       <c r="B235" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="1">
-        <v>44014</v>
+        <v>44013</v>
       </c>
       <c r="B236" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="1">
-        <v>44015</v>
+        <v>44014</v>
       </c>
       <c r="B237" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="1">
-        <v>44016</v>
+        <v>44015</v>
       </c>
       <c r="B238" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="1">
-        <v>44017</v>
+        <v>44016</v>
       </c>
       <c r="B239" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="1">
-        <v>44018</v>
+        <v>44017</v>
       </c>
       <c r="B240" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="1">
-        <v>44019</v>
+        <v>44018</v>
       </c>
       <c r="B241" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="1">
-        <v>44020</v>
+        <v>44019</v>
       </c>
       <c r="B242" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="1">
-        <v>44021</v>
+        <v>44020</v>
       </c>
       <c r="B243" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="1">
-        <v>44022</v>
+        <v>44021</v>
       </c>
       <c r="B244" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="1">
-        <v>44023</v>
+        <v>44022</v>
       </c>
       <c r="B245" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="1">
-        <v>44024</v>
+        <v>44023</v>
       </c>
       <c r="B246" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="1">
-        <v>44025</v>
+        <v>44024</v>
       </c>
       <c r="B247" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="1">
-        <v>44026</v>
+        <v>44025</v>
       </c>
       <c r="B248" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="1">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B249" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="1">
-        <v>44028</v>
+        <v>44027</v>
       </c>
       <c r="B250" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="1">
-        <v>44029</v>
+        <v>44028</v>
       </c>
       <c r="B251" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="1">
-        <v>44030</v>
+        <v>44029</v>
       </c>
       <c r="B252" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="1">
-        <v>44031</v>
+        <v>44030</v>
       </c>
       <c r="B253" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="1">
-        <v>44032</v>
+        <v>44031</v>
       </c>
       <c r="B254" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="1">
-        <v>44033</v>
+        <v>44032</v>
       </c>
       <c r="B255" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="1">
-        <v>44034</v>
+        <v>44033</v>
       </c>
       <c r="B256" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="1">
-        <v>44035</v>
+        <v>44034</v>
       </c>
       <c r="B257" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="1">
-        <v>44036</v>
+        <v>44035</v>
       </c>
       <c r="B258" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="1">
-        <v>44037</v>
+        <v>44036</v>
       </c>
       <c r="B259" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="1">
-        <v>44038</v>
+        <v>44037</v>
       </c>
       <c r="B260" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="1">
-        <v>44039</v>
+        <v>44038</v>
       </c>
       <c r="B261" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="1">
-        <v>44040</v>
+        <v>44039</v>
       </c>
       <c r="B262" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="1">
-        <v>44041</v>
+        <v>44040</v>
       </c>
       <c r="B263" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="1">
-        <v>44042</v>
+        <v>44041</v>
       </c>
       <c r="B264" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="1">
-        <v>44043</v>
+        <v>44042</v>
       </c>
       <c r="B265" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="1">
-        <v>44044</v>
+        <v>44043</v>
       </c>
       <c r="B266" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="1">
-        <v>44045</v>
+        <v>44044</v>
       </c>
       <c r="B267" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="1">
-        <v>44046</v>
+        <v>44045</v>
       </c>
       <c r="B268" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="1">
-        <v>44047</v>
+        <v>44046</v>
       </c>
       <c r="B269" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="1">
-        <v>44048</v>
+        <v>44047</v>
       </c>
       <c r="B270" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="1">
-        <v>44049</v>
+        <v>44048</v>
       </c>
       <c r="B271" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="1">
-        <v>44050</v>
+        <v>44049</v>
       </c>
       <c r="B272" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="1">
-        <v>44051</v>
+        <v>44050</v>
       </c>
       <c r="B273" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="1">
-        <v>44052</v>
+        <v>44051</v>
       </c>
       <c r="B274" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="1">
-        <v>44053</v>
+        <v>44052</v>
       </c>
       <c r="B275" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="1">
-        <v>44054</v>
+        <v>44053</v>
       </c>
       <c r="B276" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="1">
-        <v>44055</v>
+        <v>44054</v>
       </c>
       <c r="B277" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="1">
-        <v>44056</v>
+        <v>44055</v>
       </c>
       <c r="B278" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="1">
-        <v>44057</v>
+        <v>44056</v>
       </c>
       <c r="B279" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="1">
-        <v>44058</v>
+        <v>44057</v>
       </c>
       <c r="B280" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="1">
-        <v>44059</v>
+        <v>44058</v>
       </c>
       <c r="B281" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="1">
-        <v>44060</v>
+        <v>44059</v>
       </c>
       <c r="B282" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="1">
-        <v>44061</v>
+        <v>44060</v>
       </c>
       <c r="B283" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="1">
-        <v>44062</v>
+        <v>44061</v>
       </c>
       <c r="B284" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="1">
-        <v>44063</v>
+        <v>44062</v>
       </c>
       <c r="B285" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="1">
-        <v>44064</v>
+        <v>44063</v>
       </c>
       <c r="B286" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="1">
-        <v>44065</v>
+        <v>44064</v>
       </c>
       <c r="B287" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="1">
-        <v>44066</v>
+        <v>44065</v>
       </c>
       <c r="B288" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="1">
-        <v>44067</v>
+        <v>44066</v>
       </c>
       <c r="B289" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="1">
-        <v>44068</v>
+        <v>44067</v>
       </c>
       <c r="B290" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="1">
-        <v>44069</v>
+        <v>44068</v>
       </c>
       <c r="B291" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="1">
-        <v>44070</v>
+        <v>44069</v>
       </c>
       <c r="B292" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="1">
-        <v>44071</v>
+        <v>44070</v>
       </c>
       <c r="B293" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="1">
-        <v>44072</v>
+        <v>44071</v>
       </c>
       <c r="B294" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="1">
-        <v>44073</v>
+        <v>44072</v>
       </c>
       <c r="B295" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="1">
-        <v>44074</v>
+        <v>44073</v>
       </c>
       <c r="B296" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="1">
-        <v>44075</v>
+        <v>44074</v>
       </c>
       <c r="B297" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="1">
-        <v>44076</v>
+        <v>44075</v>
       </c>
       <c r="B298" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="1">
-        <v>44077</v>
+        <v>44076</v>
       </c>
       <c r="B299" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="1">
-        <v>44078</v>
+        <v>44077</v>
       </c>
       <c r="B300" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="1">
-        <v>44079</v>
+        <v>44078</v>
       </c>
       <c r="B301" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="1">
-        <v>44080</v>
+        <v>44079</v>
       </c>
       <c r="B302" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="1">
-        <v>44081</v>
+        <v>44080</v>
       </c>
       <c r="B303" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="1">
-        <v>44082</v>
+        <v>44081</v>
       </c>
       <c r="B304" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="1">
-        <v>44083</v>
+        <v>44082</v>
       </c>
       <c r="B305" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="1">
-        <v>44084</v>
+        <v>44083</v>
       </c>
       <c r="B306" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="1">
-        <v>44085</v>
+        <v>44084</v>
       </c>
       <c r="B307" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="1">
-        <v>44086</v>
+        <v>44085</v>
       </c>
       <c r="B308" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="1">
-        <v>44087</v>
+        <v>44086</v>
       </c>
       <c r="B309" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="1">
-        <v>44088</v>
+        <v>44087</v>
       </c>
       <c r="B310" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="1">
-        <v>44089</v>
+        <v>44088</v>
       </c>
       <c r="B311" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="1">
-        <v>44090</v>
+        <v>44089</v>
       </c>
       <c r="B312" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="1">
-        <v>44091</v>
+        <v>44090</v>
       </c>
       <c r="B313" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="1">
-        <v>44092</v>
+        <v>44091</v>
       </c>
       <c r="B314" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="1">
-        <v>44093</v>
+        <v>44092</v>
       </c>
       <c r="B315" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="1">
-        <v>44094</v>
+        <v>44093</v>
       </c>
       <c r="B316" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="1">
-        <v>44095</v>
+        <v>44094</v>
       </c>
       <c r="B317" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="1">
-        <v>44096</v>
+        <v>44095</v>
       </c>
       <c r="B318" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="1">
-        <v>44097</v>
+        <v>44096</v>
       </c>
       <c r="B319" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="1">
-        <v>44098</v>
+        <v>44097</v>
       </c>
       <c r="B320" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="1">
-        <v>44099</v>
+        <v>44098</v>
       </c>
       <c r="B321" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="1">
-        <v>44100</v>
+        <v>44099</v>
       </c>
       <c r="B322" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="1">
-        <v>44101</v>
+        <v>44100</v>
       </c>
       <c r="B323" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="1">
-        <v>44102</v>
+        <v>44101</v>
       </c>
       <c r="B324" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="1">
-        <v>44103</v>
+        <v>44102</v>
       </c>
       <c r="B325" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="1">
-        <v>44104</v>
+        <v>44103</v>
       </c>
       <c r="B326" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="1">
-        <v>44105</v>
+        <v>44104</v>
       </c>
       <c r="B327" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="1">
-        <v>44106</v>
+        <v>44105</v>
       </c>
       <c r="B328" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="1">
-        <v>44107</v>
+        <v>44106</v>
       </c>
       <c r="B329" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="1">
-        <v>44108</v>
+        <v>44107</v>
       </c>
       <c r="B330" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="1">
-        <v>44109</v>
+        <v>44108</v>
       </c>
       <c r="B331" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="1">
-        <v>44110</v>
+        <v>44109</v>
       </c>
       <c r="B332" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="1">
-        <v>44111</v>
+        <v>44110</v>
       </c>
       <c r="B333" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="1">
-        <v>44112</v>
+        <v>44111</v>
       </c>
       <c r="B334" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="1">
-        <v>44113</v>
+        <v>44112</v>
       </c>
       <c r="B335" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="1">
-        <v>44114</v>
+        <v>44113</v>
       </c>
       <c r="B336" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="1">
-        <v>44115</v>
+        <v>44114</v>
       </c>
       <c r="B337" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="1">
-        <v>44116</v>
+        <v>44115</v>
       </c>
       <c r="B338" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="1">
-        <v>44117</v>
+        <v>44116</v>
       </c>
       <c r="B339" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="1">
-        <v>44118</v>
+        <v>44117</v>
       </c>
       <c r="B340" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="1">
-        <v>44119</v>
+        <v>44118</v>
       </c>
       <c r="B341" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="1">
-        <v>44120</v>
+        <v>44119</v>
       </c>
       <c r="B342" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="1">
-        <v>44121</v>
+        <v>44120</v>
       </c>
       <c r="B343" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="1">
-        <v>44122</v>
+        <v>44121</v>
       </c>
       <c r="B344" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="1">
-        <v>44123</v>
+        <v>44122</v>
       </c>
       <c r="B345" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="1">
-        <v>44124</v>
+        <v>44123</v>
       </c>
       <c r="B346" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="1">
-        <v>44125</v>
+        <v>44124</v>
       </c>
       <c r="B347" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="1">
-        <v>44126</v>
+        <v>44125</v>
       </c>
       <c r="B348" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="1">
-        <v>44127</v>
+        <v>44126</v>
       </c>
       <c r="B349" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="1">
-        <v>44128</v>
+        <v>44127</v>
       </c>
       <c r="B350" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="1">
-        <v>44129</v>
+        <v>44128</v>
       </c>
       <c r="B351" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="1">
-        <v>44130</v>
+        <v>44129</v>
       </c>
       <c r="B352" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="1">
-        <v>44131</v>
+        <v>44130</v>
       </c>
       <c r="B353" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="1">
-        <v>44132</v>
+        <v>44131</v>
       </c>
       <c r="B354" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="1">
-        <v>44133</v>
+        <v>44132</v>
       </c>
       <c r="B355" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="1">
-        <v>44134</v>
+        <v>44133</v>
       </c>
       <c r="B356" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="1">
-        <v>44135</v>
+        <v>44134</v>
       </c>
       <c r="B357" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="1">
-        <v>44136</v>
+        <v>44135</v>
       </c>
       <c r="B358" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="1">
-        <v>44137</v>
+        <v>44136</v>
       </c>
       <c r="B359" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="1">
-        <v>44138</v>
+        <v>44137</v>
       </c>
       <c r="B360" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="1">
-        <v>44139</v>
+        <v>44138</v>
       </c>
       <c r="B361" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="1">
-        <v>44140</v>
+        <v>44139</v>
       </c>
       <c r="B362" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="1">
-        <v>44141</v>
+        <v>44140</v>
       </c>
       <c r="B363" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="1">
-        <v>44142</v>
+        <v>44141</v>
       </c>
       <c r="B364" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="1">
-        <v>44143</v>
+        <v>44142</v>
       </c>
       <c r="B365" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="1">
-        <v>44144</v>
+        <v>44143</v>
       </c>
       <c r="B366" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="1">
-        <v>44145</v>
+        <v>44144</v>
       </c>
       <c r="B367" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="1">
-        <v>44146</v>
+        <v>44145</v>
       </c>
       <c r="B368" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="1">
-        <v>44147</v>
+        <v>44146</v>
       </c>
       <c r="B369" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="1">
-        <v>44148</v>
+        <v>44147</v>
       </c>
       <c r="B370" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="1">
-        <v>44149</v>
+        <v>44148</v>
       </c>
       <c r="B371" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="1">
-        <v>44150</v>
+        <v>44149</v>
       </c>
       <c r="B372" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="1">
-        <v>44151</v>
+        <v>44150</v>
       </c>
       <c r="B373" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="1">
-        <v>44152</v>
+        <v>44151</v>
       </c>
       <c r="B374" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="1">
-        <v>44153</v>
+        <v>44152</v>
       </c>
       <c r="B375" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="1">
-        <v>44154</v>
+        <v>44153</v>
       </c>
       <c r="B376" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="1">
-        <v>44155</v>
+        <v>44154</v>
       </c>
       <c r="B377" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="1">
-        <v>44156</v>
+        <v>44155</v>
       </c>
       <c r="B378" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="1">
-        <v>44157</v>
+        <v>44156</v>
       </c>
       <c r="B379" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="1">
-        <v>44158</v>
+        <v>44157</v>
       </c>
       <c r="B380" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="1">
-        <v>44159</v>
+        <v>44158</v>
       </c>
       <c r="B381" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="1">
-        <v>44160</v>
+        <v>44159</v>
       </c>
       <c r="B382" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="1">
-        <v>44161</v>
+        <v>44160</v>
       </c>
       <c r="B383" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="1">
-        <v>44162</v>
+        <v>44161</v>
       </c>
       <c r="B384" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="1">
-        <v>44163</v>
+        <v>44162</v>
       </c>
       <c r="B385" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="1">
-        <v>44164</v>
+        <v>44163</v>
       </c>
       <c r="B386" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="1">
-        <v>44165</v>
+        <v>44164</v>
       </c>
       <c r="B387" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="1">
-        <v>44166</v>
+        <v>44165</v>
       </c>
       <c r="B388" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="1">
-        <v>44167</v>
+        <v>44166</v>
       </c>
       <c r="B389" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="1">
-        <v>44168</v>
+        <v>44167</v>
       </c>
       <c r="B390" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="1">
-        <v>44169</v>
+        <v>44168</v>
       </c>
       <c r="B391" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="1">
-        <v>44170</v>
+        <v>44169</v>
       </c>
       <c r="B392" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="1">
-        <v>44171</v>
+        <v>44170</v>
       </c>
       <c r="B393" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="1">
-        <v>44172</v>
+        <v>44171</v>
       </c>
       <c r="B394" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="1">
-        <v>44173</v>
+        <v>44172</v>
       </c>
       <c r="B395" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="1">
-        <v>44174</v>
+        <v>44173</v>
       </c>
       <c r="B396" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="1">
-        <v>44175</v>
+        <v>44174</v>
       </c>
       <c r="B397" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="1">
-        <v>44176</v>
+        <v>44175</v>
       </c>
       <c r="B398" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="1">
-        <v>44177</v>
+        <v>44176</v>
       </c>
       <c r="B399" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="1">
-        <v>44178</v>
+        <v>44177</v>
       </c>
       <c r="B400" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="1">
-        <v>44179</v>
+        <v>44178</v>
       </c>
       <c r="B401" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="1">
-        <v>44180</v>
+        <v>44179</v>
       </c>
       <c r="B402" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="1">
-        <v>44181</v>
+        <v>44180</v>
       </c>
       <c r="B403" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="1">
-        <v>44182</v>
+        <v>44181</v>
       </c>
       <c r="B404" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="1">
-        <v>44183</v>
+        <v>44182</v>
       </c>
       <c r="B405" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="1">
-        <v>44184</v>
+        <v>44183</v>
       </c>
       <c r="B406" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="1">
-        <v>44185</v>
+        <v>44184</v>
       </c>
       <c r="B407" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="1">
-        <v>44186</v>
+        <v>44185</v>
       </c>
       <c r="B408" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="1">
-        <v>44187</v>
+        <v>44186</v>
       </c>
       <c r="B409" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="1">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="B410" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="1">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="B411" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="1">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="B412" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="1">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="B413" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="1">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="B414" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="1">
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="B415" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="1">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="B416" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="1">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B417" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="1">
+        <v>44195</v>
+      </c>
+      <c r="B418" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2">
+      <c r="A419" s="1">
         <v>44196</v>
       </c>
-      <c r="B418" t="s">
+      <c r="B419" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6873,7 +6899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+    <sheetView topLeftCell="A56" workbookViewId="0">
       <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>

--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="404">
   <si>
     <t>Дата начала</t>
   </si>
@@ -1349,6 +1349,18 @@
   </si>
   <si>
     <t>Presentation task</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GU-2T7k9NfI</t>
+  </si>
+  <si>
+    <t>WHAT IS WEBPACK, HOW DOES IT WORK? | Webpack 2 Basics Tutorial</t>
+  </si>
+  <si>
+    <t>USING THE WEBPACK DEV SERVER | Webpack 2 Basics Tutorial</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HNRt0lODCQM</t>
   </si>
 </sst>
 </file>
@@ -1432,7 +1444,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
@@ -1449,6 +1461,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1745,10 +1763,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+      <selection activeCell="A87" sqref="A87:B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2753,6 +2771,28 @@
         <v>399</v>
       </c>
     </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1">
+        <v>43972</v>
+      </c>
+      <c r="B86" s="1">
+        <v>43972</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="1">
+        <v>43972</v>
+      </c>
+      <c r="B87" s="1">
+        <v>43972</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>402</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C27" r:id="rId1" display="https://www.youtube.com/watch?v=ZAde-IJAHzo"/>
@@ -2760,6 +2800,7 @@
     <hyperlink ref="C37" r:id="rId3" display="https://www.youtube.com/watch?v=ZAde-IJAHzo"/>
     <hyperlink ref="C46" r:id="rId4" display="https://www.youtube.com/watch?v=Evt0k4xnvXY"/>
     <hyperlink ref="C55" r:id="rId5" display="https://www.youtube.com/watch?v=9xlASUb9tyo"/>
+    <hyperlink ref="C86" r:id="rId6" display="https://www.youtube.com/watch?v=GU-2T7k9NfI"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2767,10 +2808,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D419"/>
+  <dimension ref="A1:D421"/>
   <sheetViews>
     <sheetView topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="D193" sqref="D193"/>
+      <selection activeCell="C203" sqref="C203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5035,6 +5076,12 @@
       <c r="B194" t="s">
         <v>12</v>
       </c>
+      <c r="C194" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="D194" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="1">
@@ -5043,1796 +5090,1820 @@
       <c r="B195" t="s">
         <v>13</v>
       </c>
+      <c r="C195" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="D195" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="196" spans="1:4">
-      <c r="A196" s="1">
-        <v>43973</v>
-      </c>
-      <c r="B196" t="s">
-        <v>14</v>
+      <c r="A196" s="1"/>
+      <c r="C196" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="D196" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="197" spans="1:4">
-      <c r="A197" s="1">
-        <v>43974</v>
-      </c>
-      <c r="B197" t="s">
-        <v>15</v>
+      <c r="A197" s="1"/>
+      <c r="C197" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="D197" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="1">
-        <v>43975</v>
+        <v>43973</v>
       </c>
       <c r="B198" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="1">
-        <v>43976</v>
+        <v>43974</v>
       </c>
       <c r="B199" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="1">
-        <v>43977</v>
+        <v>43975</v>
       </c>
       <c r="B200" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="1">
-        <v>43978</v>
+        <v>43976</v>
       </c>
       <c r="B201" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="1">
-        <v>43979</v>
+        <v>43977</v>
       </c>
       <c r="B202" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="1">
-        <v>43980</v>
+        <v>43978</v>
       </c>
       <c r="B203" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="1">
-        <v>43981</v>
+        <v>43979</v>
       </c>
       <c r="B204" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="1">
-        <v>43982</v>
+        <v>43980</v>
       </c>
       <c r="B205" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="1">
-        <v>43983</v>
+        <v>43981</v>
       </c>
       <c r="B206" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="1">
-        <v>43984</v>
+        <v>43982</v>
       </c>
       <c r="B207" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="1">
-        <v>43985</v>
+        <v>43983</v>
       </c>
       <c r="B208" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="1">
-        <v>43986</v>
+        <v>43984</v>
       </c>
       <c r="B209" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="1">
-        <v>43987</v>
+        <v>43985</v>
       </c>
       <c r="B210" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="1">
-        <v>43988</v>
+        <v>43986</v>
       </c>
       <c r="B211" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="1">
-        <v>43989</v>
+        <v>43987</v>
       </c>
       <c r="B212" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="1">
-        <v>43990</v>
+        <v>43988</v>
       </c>
       <c r="B213" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="1">
-        <v>43991</v>
+        <v>43989</v>
       </c>
       <c r="B214" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="1">
-        <v>43992</v>
+        <v>43990</v>
       </c>
       <c r="B215" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="1">
-        <v>43993</v>
+        <v>43991</v>
       </c>
       <c r="B216" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="1">
-        <v>43994</v>
+        <v>43992</v>
       </c>
       <c r="B217" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="1">
-        <v>43995</v>
+        <v>43993</v>
       </c>
       <c r="B218" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="1">
-        <v>43996</v>
+        <v>43994</v>
       </c>
       <c r="B219" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="1">
-        <v>43997</v>
+        <v>43995</v>
       </c>
       <c r="B220" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="1">
-        <v>43998</v>
+        <v>43996</v>
       </c>
       <c r="B221" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="1">
-        <v>43999</v>
+        <v>43997</v>
       </c>
       <c r="B222" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="1">
-        <v>44000</v>
+        <v>43998</v>
       </c>
       <c r="B223" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="1">
-        <v>44001</v>
+        <v>43999</v>
       </c>
       <c r="B224" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="1">
-        <v>44002</v>
+        <v>44000</v>
       </c>
       <c r="B225" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="1">
-        <v>44003</v>
+        <v>44001</v>
       </c>
       <c r="B226" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="1">
-        <v>44004</v>
+        <v>44002</v>
       </c>
       <c r="B227" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="1">
-        <v>44005</v>
+        <v>44003</v>
       </c>
       <c r="B228" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="1">
-        <v>44006</v>
+        <v>44004</v>
       </c>
       <c r="B229" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="1">
-        <v>44007</v>
+        <v>44005</v>
       </c>
       <c r="B230" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="1">
-        <v>44008</v>
+        <v>44006</v>
       </c>
       <c r="B231" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="1">
-        <v>44009</v>
+        <v>44007</v>
       </c>
       <c r="B232" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="1">
-        <v>44010</v>
+        <v>44008</v>
       </c>
       <c r="B233" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="1">
-        <v>44011</v>
+        <v>44009</v>
       </c>
       <c r="B234" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="1">
-        <v>44012</v>
+        <v>44010</v>
       </c>
       <c r="B235" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="1">
-        <v>44013</v>
+        <v>44011</v>
       </c>
       <c r="B236" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="1">
-        <v>44014</v>
+        <v>44012</v>
       </c>
       <c r="B237" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="1">
-        <v>44015</v>
+        <v>44013</v>
       </c>
       <c r="B238" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="1">
-        <v>44016</v>
+        <v>44014</v>
       </c>
       <c r="B239" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="1">
-        <v>44017</v>
+        <v>44015</v>
       </c>
       <c r="B240" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="1">
-        <v>44018</v>
+        <v>44016</v>
       </c>
       <c r="B241" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="1">
-        <v>44019</v>
+        <v>44017</v>
       </c>
       <c r="B242" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="1">
-        <v>44020</v>
+        <v>44018</v>
       </c>
       <c r="B243" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="1">
-        <v>44021</v>
+        <v>44019</v>
       </c>
       <c r="B244" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="1">
-        <v>44022</v>
+        <v>44020</v>
       </c>
       <c r="B245" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="1">
-        <v>44023</v>
+        <v>44021</v>
       </c>
       <c r="B246" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="1">
-        <v>44024</v>
+        <v>44022</v>
       </c>
       <c r="B247" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="1">
-        <v>44025</v>
+        <v>44023</v>
       </c>
       <c r="B248" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="1">
-        <v>44026</v>
+        <v>44024</v>
       </c>
       <c r="B249" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="1">
-        <v>44027</v>
+        <v>44025</v>
       </c>
       <c r="B250" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="1">
-        <v>44028</v>
+        <v>44026</v>
       </c>
       <c r="B251" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="1">
-        <v>44029</v>
+        <v>44027</v>
       </c>
       <c r="B252" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="1">
-        <v>44030</v>
+        <v>44028</v>
       </c>
       <c r="B253" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="1">
-        <v>44031</v>
+        <v>44029</v>
       </c>
       <c r="B254" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="1">
-        <v>44032</v>
+        <v>44030</v>
       </c>
       <c r="B255" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="1">
-        <v>44033</v>
+        <v>44031</v>
       </c>
       <c r="B256" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="1">
-        <v>44034</v>
+        <v>44032</v>
       </c>
       <c r="B257" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="1">
-        <v>44035</v>
+        <v>44033</v>
       </c>
       <c r="B258" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="1">
-        <v>44036</v>
+        <v>44034</v>
       </c>
       <c r="B259" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="1">
-        <v>44037</v>
+        <v>44035</v>
       </c>
       <c r="B260" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="1">
-        <v>44038</v>
+        <v>44036</v>
       </c>
       <c r="B261" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="1">
-        <v>44039</v>
+        <v>44037</v>
       </c>
       <c r="B262" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="1">
-        <v>44040</v>
+        <v>44038</v>
       </c>
       <c r="B263" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="1">
-        <v>44041</v>
+        <v>44039</v>
       </c>
       <c r="B264" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="1">
-        <v>44042</v>
+        <v>44040</v>
       </c>
       <c r="B265" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="1">
-        <v>44043</v>
+        <v>44041</v>
       </c>
       <c r="B266" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="1">
-        <v>44044</v>
+        <v>44042</v>
       </c>
       <c r="B267" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="1">
-        <v>44045</v>
+        <v>44043</v>
       </c>
       <c r="B268" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="1">
-        <v>44046</v>
+        <v>44044</v>
       </c>
       <c r="B269" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="1">
-        <v>44047</v>
+        <v>44045</v>
       </c>
       <c r="B270" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="1">
-        <v>44048</v>
+        <v>44046</v>
       </c>
       <c r="B271" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="1">
-        <v>44049</v>
+        <v>44047</v>
       </c>
       <c r="B272" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="1">
-        <v>44050</v>
+        <v>44048</v>
       </c>
       <c r="B273" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="1">
-        <v>44051</v>
+        <v>44049</v>
       </c>
       <c r="B274" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="1">
-        <v>44052</v>
+        <v>44050</v>
       </c>
       <c r="B275" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="1">
-        <v>44053</v>
+        <v>44051</v>
       </c>
       <c r="B276" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="1">
-        <v>44054</v>
+        <v>44052</v>
       </c>
       <c r="B277" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="1">
-        <v>44055</v>
+        <v>44053</v>
       </c>
       <c r="B278" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="1">
-        <v>44056</v>
+        <v>44054</v>
       </c>
       <c r="B279" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="1">
-        <v>44057</v>
+        <v>44055</v>
       </c>
       <c r="B280" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="1">
-        <v>44058</v>
+        <v>44056</v>
       </c>
       <c r="B281" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="1">
-        <v>44059</v>
+        <v>44057</v>
       </c>
       <c r="B282" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="1">
-        <v>44060</v>
+        <v>44058</v>
       </c>
       <c r="B283" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="1">
-        <v>44061</v>
+        <v>44059</v>
       </c>
       <c r="B284" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="1">
-        <v>44062</v>
+        <v>44060</v>
       </c>
       <c r="B285" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="1">
-        <v>44063</v>
+        <v>44061</v>
       </c>
       <c r="B286" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="1">
-        <v>44064</v>
+        <v>44062</v>
       </c>
       <c r="B287" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="1">
-        <v>44065</v>
+        <v>44063</v>
       </c>
       <c r="B288" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="1">
-        <v>44066</v>
+        <v>44064</v>
       </c>
       <c r="B289" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="1">
-        <v>44067</v>
+        <v>44065</v>
       </c>
       <c r="B290" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="1">
-        <v>44068</v>
+        <v>44066</v>
       </c>
       <c r="B291" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="1">
-        <v>44069</v>
+        <v>44067</v>
       </c>
       <c r="B292" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="1">
-        <v>44070</v>
+        <v>44068</v>
       </c>
       <c r="B293" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="1">
-        <v>44071</v>
+        <v>44069</v>
       </c>
       <c r="B294" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="1">
-        <v>44072</v>
+        <v>44070</v>
       </c>
       <c r="B295" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="1">
-        <v>44073</v>
+        <v>44071</v>
       </c>
       <c r="B296" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="1">
-        <v>44074</v>
+        <v>44072</v>
       </c>
       <c r="B297" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="1">
-        <v>44075</v>
+        <v>44073</v>
       </c>
       <c r="B298" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="1">
-        <v>44076</v>
+        <v>44074</v>
       </c>
       <c r="B299" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="1">
-        <v>44077</v>
+        <v>44075</v>
       </c>
       <c r="B300" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="1">
-        <v>44078</v>
+        <v>44076</v>
       </c>
       <c r="B301" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="1">
-        <v>44079</v>
+        <v>44077</v>
       </c>
       <c r="B302" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="1">
-        <v>44080</v>
+        <v>44078</v>
       </c>
       <c r="B303" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="1">
-        <v>44081</v>
+        <v>44079</v>
       </c>
       <c r="B304" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="1">
-        <v>44082</v>
+        <v>44080</v>
       </c>
       <c r="B305" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="1">
-        <v>44083</v>
+        <v>44081</v>
       </c>
       <c r="B306" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="1">
-        <v>44084</v>
+        <v>44082</v>
       </c>
       <c r="B307" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="1">
-        <v>44085</v>
+        <v>44083</v>
       </c>
       <c r="B308" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="1">
-        <v>44086</v>
+        <v>44084</v>
       </c>
       <c r="B309" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="1">
-        <v>44087</v>
+        <v>44085</v>
       </c>
       <c r="B310" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="1">
-        <v>44088</v>
+        <v>44086</v>
       </c>
       <c r="B311" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="1">
-        <v>44089</v>
+        <v>44087</v>
       </c>
       <c r="B312" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="1">
-        <v>44090</v>
+        <v>44088</v>
       </c>
       <c r="B313" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="1">
-        <v>44091</v>
+        <v>44089</v>
       </c>
       <c r="B314" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="1">
-        <v>44092</v>
+        <v>44090</v>
       </c>
       <c r="B315" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="1">
-        <v>44093</v>
+        <v>44091</v>
       </c>
       <c r="B316" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="1">
-        <v>44094</v>
+        <v>44092</v>
       </c>
       <c r="B317" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="1">
-        <v>44095</v>
+        <v>44093</v>
       </c>
       <c r="B318" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="1">
-        <v>44096</v>
+        <v>44094</v>
       </c>
       <c r="B319" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="1">
-        <v>44097</v>
+        <v>44095</v>
       </c>
       <c r="B320" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="1">
-        <v>44098</v>
+        <v>44096</v>
       </c>
       <c r="B321" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="1">
-        <v>44099</v>
+        <v>44097</v>
       </c>
       <c r="B322" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="1">
-        <v>44100</v>
+        <v>44098</v>
       </c>
       <c r="B323" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="1">
-        <v>44101</v>
+        <v>44099</v>
       </c>
       <c r="B324" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="1">
-        <v>44102</v>
+        <v>44100</v>
       </c>
       <c r="B325" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="1">
-        <v>44103</v>
+        <v>44101</v>
       </c>
       <c r="B326" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="1">
-        <v>44104</v>
+        <v>44102</v>
       </c>
       <c r="B327" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="1">
-        <v>44105</v>
+        <v>44103</v>
       </c>
       <c r="B328" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="1">
-        <v>44106</v>
+        <v>44104</v>
       </c>
       <c r="B329" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="1">
-        <v>44107</v>
+        <v>44105</v>
       </c>
       <c r="B330" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="1">
-        <v>44108</v>
+        <v>44106</v>
       </c>
       <c r="B331" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="1">
-        <v>44109</v>
+        <v>44107</v>
       </c>
       <c r="B332" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="1">
-        <v>44110</v>
+        <v>44108</v>
       </c>
       <c r="B333" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="1">
-        <v>44111</v>
+        <v>44109</v>
       </c>
       <c r="B334" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="1">
-        <v>44112</v>
+        <v>44110</v>
       </c>
       <c r="B335" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="1">
-        <v>44113</v>
+        <v>44111</v>
       </c>
       <c r="B336" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="1">
-        <v>44114</v>
+        <v>44112</v>
       </c>
       <c r="B337" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="1">
-        <v>44115</v>
+        <v>44113</v>
       </c>
       <c r="B338" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="1">
-        <v>44116</v>
+        <v>44114</v>
       </c>
       <c r="B339" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="1">
-        <v>44117</v>
+        <v>44115</v>
       </c>
       <c r="B340" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="1">
-        <v>44118</v>
+        <v>44116</v>
       </c>
       <c r="B341" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="1">
-        <v>44119</v>
+        <v>44117</v>
       </c>
       <c r="B342" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="1">
-        <v>44120</v>
+        <v>44118</v>
       </c>
       <c r="B343" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="1">
-        <v>44121</v>
+        <v>44119</v>
       </c>
       <c r="B344" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="1">
-        <v>44122</v>
+        <v>44120</v>
       </c>
       <c r="B345" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="1">
-        <v>44123</v>
+        <v>44121</v>
       </c>
       <c r="B346" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="1">
-        <v>44124</v>
+        <v>44122</v>
       </c>
       <c r="B347" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="1">
-        <v>44125</v>
+        <v>44123</v>
       </c>
       <c r="B348" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="1">
-        <v>44126</v>
+        <v>44124</v>
       </c>
       <c r="B349" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="1">
-        <v>44127</v>
+        <v>44125</v>
       </c>
       <c r="B350" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="1">
-        <v>44128</v>
+        <v>44126</v>
       </c>
       <c r="B351" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="1">
-        <v>44129</v>
+        <v>44127</v>
       </c>
       <c r="B352" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="1">
-        <v>44130</v>
+        <v>44128</v>
       </c>
       <c r="B353" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="1">
-        <v>44131</v>
+        <v>44129</v>
       </c>
       <c r="B354" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="1">
-        <v>44132</v>
+        <v>44130</v>
       </c>
       <c r="B355" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="1">
-        <v>44133</v>
+        <v>44131</v>
       </c>
       <c r="B356" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="1">
-        <v>44134</v>
+        <v>44132</v>
       </c>
       <c r="B357" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="1">
-        <v>44135</v>
+        <v>44133</v>
       </c>
       <c r="B358" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="1">
-        <v>44136</v>
+        <v>44134</v>
       </c>
       <c r="B359" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="1">
-        <v>44137</v>
+        <v>44135</v>
       </c>
       <c r="B360" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="1">
-        <v>44138</v>
+        <v>44136</v>
       </c>
       <c r="B361" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="1">
-        <v>44139</v>
+        <v>44137</v>
       </c>
       <c r="B362" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="1">
-        <v>44140</v>
+        <v>44138</v>
       </c>
       <c r="B363" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="1">
-        <v>44141</v>
+        <v>44139</v>
       </c>
       <c r="B364" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="1">
-        <v>44142</v>
+        <v>44140</v>
       </c>
       <c r="B365" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="1">
-        <v>44143</v>
+        <v>44141</v>
       </c>
       <c r="B366" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="1">
-        <v>44144</v>
+        <v>44142</v>
       </c>
       <c r="B367" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="1">
-        <v>44145</v>
+        <v>44143</v>
       </c>
       <c r="B368" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="1">
-        <v>44146</v>
+        <v>44144</v>
       </c>
       <c r="B369" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="1">
-        <v>44147</v>
+        <v>44145</v>
       </c>
       <c r="B370" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="1">
-        <v>44148</v>
+        <v>44146</v>
       </c>
       <c r="B371" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="1">
-        <v>44149</v>
+        <v>44147</v>
       </c>
       <c r="B372" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="1">
-        <v>44150</v>
+        <v>44148</v>
       </c>
       <c r="B373" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="1">
-        <v>44151</v>
+        <v>44149</v>
       </c>
       <c r="B374" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="1">
-        <v>44152</v>
+        <v>44150</v>
       </c>
       <c r="B375" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="1">
-        <v>44153</v>
+        <v>44151</v>
       </c>
       <c r="B376" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="1">
-        <v>44154</v>
+        <v>44152</v>
       </c>
       <c r="B377" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="1">
-        <v>44155</v>
+        <v>44153</v>
       </c>
       <c r="B378" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="1">
-        <v>44156</v>
+        <v>44154</v>
       </c>
       <c r="B379" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="1">
-        <v>44157</v>
+        <v>44155</v>
       </c>
       <c r="B380" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="1">
-        <v>44158</v>
+        <v>44156</v>
       </c>
       <c r="B381" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="1">
-        <v>44159</v>
+        <v>44157</v>
       </c>
       <c r="B382" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="1">
-        <v>44160</v>
+        <v>44158</v>
       </c>
       <c r="B383" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="1">
-        <v>44161</v>
+        <v>44159</v>
       </c>
       <c r="B384" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="1">
-        <v>44162</v>
+        <v>44160</v>
       </c>
       <c r="B385" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="1">
-        <v>44163</v>
+        <v>44161</v>
       </c>
       <c r="B386" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="1">
-        <v>44164</v>
+        <v>44162</v>
       </c>
       <c r="B387" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="1">
-        <v>44165</v>
+        <v>44163</v>
       </c>
       <c r="B388" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="1">
-        <v>44166</v>
+        <v>44164</v>
       </c>
       <c r="B389" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="1">
-        <v>44167</v>
+        <v>44165</v>
       </c>
       <c r="B390" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="1">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="B391" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="1">
-        <v>44169</v>
+        <v>44167</v>
       </c>
       <c r="B392" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="1">
-        <v>44170</v>
+        <v>44168</v>
       </c>
       <c r="B393" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="1">
-        <v>44171</v>
+        <v>44169</v>
       </c>
       <c r="B394" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="1">
-        <v>44172</v>
+        <v>44170</v>
       </c>
       <c r="B395" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="1">
-        <v>44173</v>
+        <v>44171</v>
       </c>
       <c r="B396" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="1">
-        <v>44174</v>
+        <v>44172</v>
       </c>
       <c r="B397" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="1">
-        <v>44175</v>
+        <v>44173</v>
       </c>
       <c r="B398" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="1">
-        <v>44176</v>
+        <v>44174</v>
       </c>
       <c r="B399" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="1">
-        <v>44177</v>
+        <v>44175</v>
       </c>
       <c r="B400" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="1">
-        <v>44178</v>
+        <v>44176</v>
       </c>
       <c r="B401" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="1">
-        <v>44179</v>
+        <v>44177</v>
       </c>
       <c r="B402" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="1">
-        <v>44180</v>
+        <v>44178</v>
       </c>
       <c r="B403" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="1">
-        <v>44181</v>
+        <v>44179</v>
       </c>
       <c r="B404" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="1">
-        <v>44182</v>
+        <v>44180</v>
       </c>
       <c r="B405" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="1">
-        <v>44183</v>
+        <v>44181</v>
       </c>
       <c r="B406" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="1">
-        <v>44184</v>
+        <v>44182</v>
       </c>
       <c r="B407" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="1">
-        <v>44185</v>
+        <v>44183</v>
       </c>
       <c r="B408" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="1">
-        <v>44186</v>
+        <v>44184</v>
       </c>
       <c r="B409" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="1">
-        <v>44187</v>
+        <v>44185</v>
       </c>
       <c r="B410" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="1">
-        <v>44188</v>
+        <v>44186</v>
       </c>
       <c r="B411" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="1">
-        <v>44189</v>
+        <v>44187</v>
       </c>
       <c r="B412" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="1">
-        <v>44190</v>
+        <v>44188</v>
       </c>
       <c r="B413" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="1">
-        <v>44191</v>
+        <v>44189</v>
       </c>
       <c r="B414" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="1">
-        <v>44192</v>
+        <v>44190</v>
       </c>
       <c r="B415" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="1">
-        <v>44193</v>
+        <v>44191</v>
       </c>
       <c r="B416" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="1">
-        <v>44194</v>
+        <v>44192</v>
       </c>
       <c r="B417" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="1">
-        <v>44195</v>
+        <v>44193</v>
       </c>
       <c r="B418" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="1">
+        <v>44194</v>
+      </c>
+      <c r="B419" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2">
+      <c r="A420" s="1">
+        <v>44195</v>
+      </c>
+      <c r="B420" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2">
+      <c r="A421" s="1">
         <v>44196</v>
       </c>
-      <c r="B419" t="s">
+      <c r="B421" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6889,18 +6960,20 @@
     <hyperlink ref="C179" r:id="rId49"/>
     <hyperlink ref="C190" r:id="rId50"/>
     <hyperlink ref="C191" r:id="rId51"/>
+    <hyperlink ref="C195" r:id="rId52"/>
+    <hyperlink ref="C197" r:id="rId53"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId52"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId54"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F139"/>
+  <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7775,358 +7848,363 @@
         <v>286</v>
       </c>
     </row>
-    <row r="69" spans="1:5" s="4" customFormat="1">
-      <c r="A69" s="5" t="s">
+    <row r="67" spans="1:5">
+      <c r="A67" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="C67" t="s">
+        <v>132</v>
+      </c>
+      <c r="D67" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="C68" t="s">
+        <v>132</v>
+      </c>
+      <c r="D68" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="2"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="2"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="2"/>
+    </row>
+    <row r="73" spans="1:5" s="4" customFormat="1">
+      <c r="A73" s="5" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B70" t="s">
-        <v>98</v>
-      </c>
-      <c r="C70" t="s">
-        <v>263</v>
-      </c>
-      <c r="D70" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B71" t="s">
-        <v>105</v>
-      </c>
-      <c r="C71" t="s">
-        <v>265</v>
-      </c>
-      <c r="D71" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B72" t="s">
-        <v>110</v>
-      </c>
-      <c r="C72" t="s">
-        <v>267</v>
-      </c>
-      <c r="D72" t="s">
-        <v>268</v>
-      </c>
-      <c r="E72" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B73" t="s">
-        <v>112</v>
-      </c>
-      <c r="C73" t="s">
-        <v>270</v>
-      </c>
-      <c r="D73" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B74" t="s">
-        <v>114</v>
+        <v>98</v>
+      </c>
+      <c r="C74" t="s">
+        <v>263</v>
+      </c>
+      <c r="D74" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B75" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C75" t="s">
-        <v>272</v>
+        <v>265</v>
+      </c>
+      <c r="D75" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B76" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="C76" t="s">
-        <v>273</v>
+        <v>267</v>
+      </c>
+      <c r="D76" t="s">
+        <v>268</v>
+      </c>
+      <c r="E76" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" t="s">
-        <v>129</v>
+      <c r="A77" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="B77" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="C77" t="s">
-        <v>274</v>
+        <v>270</v>
+      </c>
+      <c r="D77" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="B78" t="s">
-        <v>137</v>
-      </c>
-      <c r="C78" t="s">
-        <v>275</v>
+        <v>114</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="B79" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="C79" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" t="s">
-        <v>142</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>143</v>
+      <c r="A80" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B80" t="s">
+        <v>130</v>
       </c>
       <c r="C80" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="B81" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="C81" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" t="s">
-        <v>214</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>215</v>
+      <c r="A82" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B82" t="s">
+        <v>137</v>
       </c>
       <c r="C82" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" t="s">
-        <v>236</v>
+      <c r="A83" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="B83" t="s">
-        <v>237</v>
+        <v>137</v>
+      </c>
+      <c r="C83" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
+        <v>142</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C84" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>145</v>
+      </c>
+      <c r="B85" t="s">
+        <v>146</v>
+      </c>
+      <c r="C85" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>214</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C86" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>236</v>
+      </c>
+      <c r="B87" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
         <v>332</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B88" s="8" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="2" t="s">
+    <row r="89" spans="1:3">
+      <c r="A89" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B89" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="2" t="s">
+    <row r="90" spans="1:3">
+      <c r="A90" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="B90" s="8" t="s">
         <v>378</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="B87" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" s="4" customFormat="1">
-      <c r="A90" s="5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2" t="s">
-        <v>38</v>
+        <v>395</v>
       </c>
       <c r="B91" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B92" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="s">
-        <v>47</v>
-      </c>
-      <c r="B93" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" t="s">
-        <v>49</v>
-      </c>
-      <c r="B94" t="s">
-        <v>50</v>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" s="4" customFormat="1">
+      <c r="A94" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="B95" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="B96" t="s">
-        <v>83</v>
+        <v>43</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="B97" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>49</v>
+      </c>
+      <c r="B98" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B99" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B100" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B98" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
-        <v>93</v>
-      </c>
-      <c r="B99" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" t="s">
-        <v>156</v>
-      </c>
-      <c r="B100" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>159</v>
+        <v>84</v>
       </c>
       <c r="B101" t="s">
-        <v>158</v>
+        <v>83</v>
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" t="s">
-        <v>160</v>
+      <c r="A102" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="B102" t="s">
-        <v>161</v>
+        <v>86</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="2" t="s">
-        <v>173</v>
+      <c r="A103" t="s">
+        <v>93</v>
       </c>
       <c r="B103" t="s">
-        <v>174</v>
+        <v>92</v>
       </c>
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
       <c r="B104" t="s">
-        <v>223</v>
+        <v>157</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>289</v>
+        <v>159</v>
       </c>
       <c r="B105" t="s">
-        <v>290</v>
+        <v>158</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>306</v>
+        <v>160</v>
       </c>
       <c r="B106" t="s">
-        <v>290</v>
+        <v>161</v>
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" t="s">
-        <v>307</v>
+      <c r="A107" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="B107" t="s">
-        <v>290</v>
+        <v>174</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>308</v>
+        <v>93</v>
       </c>
       <c r="B108" t="s">
-        <v>290</v>
+        <v>223</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="B109" t="s">
         <v>290</v>
@@ -8134,187 +8212,219 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B110" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="114" spans="1:2" s="4" customFormat="1">
-      <c r="A114" s="5" t="s">
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>307</v>
+      </c>
+      <c r="B111" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>308</v>
+      </c>
+      <c r="B112" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>309</v>
+      </c>
+      <c r="B113" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>310</v>
+      </c>
+      <c r="B114" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" s="4" customFormat="1">
+      <c r="A118" s="5" t="s">
         <v>291</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" s="4" customFormat="1">
-      <c r="A126" s="4" t="s">
-        <v>338</v>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>339</v>
-      </c>
-      <c r="B127" t="s">
-        <v>343</v>
+        <v>278</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" t="s">
-        <v>340</v>
-      </c>
-      <c r="B129" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" t="s">
-        <v>341</v>
-      </c>
-      <c r="B130" t="s">
-        <v>345</v>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" s="4" customFormat="1">
+      <c r="A130" s="4" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="B131" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
     </row>
     <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>340</v>
+      </c>
       <c r="B133" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>341</v>
+      </c>
       <c r="B134" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
+        <v>349</v>
+      </c>
+      <c r="B135" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="B137" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="B138" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
         <v>381</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B139" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="15.75">
-      <c r="A136" t="s">
+    <row r="140" spans="1:3" ht="15.75">
+      <c r="A140" t="s">
         <v>383</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B140" t="s">
         <v>346</v>
       </c>
-      <c r="C136" s="9" t="s">
+      <c r="C140" s="9" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="15.75">
-      <c r="B137" s="9" t="s">
+    <row r="141" spans="1:3" ht="15.75">
+      <c r="B141" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="C137" s="9" t="s">
+      <c r="C141" s="9" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="15.75">
-      <c r="B138" s="9" t="s">
+    <row r="142" spans="1:3" ht="15.75">
+      <c r="B142" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C138" s="9" t="s">
+      <c r="C142" s="9" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="15.75">
-      <c r="B139" s="9" t="s">
+    <row r="143" spans="1:3" ht="15.75">
+      <c r="B143" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="C139" s="9" t="s">
+      <c r="C143" s="9" t="s">
         <v>389</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A91" r:id="rId1"/>
+    <hyperlink ref="A95" r:id="rId1"/>
     <hyperlink ref="A6" r:id="rId2"/>
-    <hyperlink ref="A92" r:id="rId3"/>
+    <hyperlink ref="A96" r:id="rId3"/>
     <hyperlink ref="A7" r:id="rId4"/>
-    <hyperlink ref="A95" r:id="rId5"/>
+    <hyperlink ref="A99" r:id="rId5"/>
     <hyperlink ref="A9" r:id="rId6"/>
     <hyperlink ref="A10" r:id="rId7"/>
-    <hyperlink ref="A96" r:id="rId8"/>
-    <hyperlink ref="A98" r:id="rId9"/>
+    <hyperlink ref="A100" r:id="rId8"/>
+    <hyperlink ref="A102" r:id="rId9"/>
     <hyperlink ref="A11" r:id="rId10"/>
-    <hyperlink ref="A70" r:id="rId11" location="/2"/>
-    <hyperlink ref="A72" r:id="rId12"/>
-    <hyperlink ref="A73" r:id="rId13"/>
-    <hyperlink ref="A74" r:id="rId14"/>
-    <hyperlink ref="A75" r:id="rId15"/>
+    <hyperlink ref="A74" r:id="rId11" location="/2"/>
+    <hyperlink ref="A76" r:id="rId12"/>
+    <hyperlink ref="A77" r:id="rId13"/>
+    <hyperlink ref="A78" r:id="rId14"/>
+    <hyperlink ref="A79" r:id="rId15"/>
     <hyperlink ref="A13" r:id="rId16"/>
     <hyperlink ref="A14" r:id="rId17"/>
-    <hyperlink ref="A78" r:id="rId18"/>
+    <hyperlink ref="A82" r:id="rId18"/>
     <hyperlink ref="A15" r:id="rId19"/>
     <hyperlink ref="A16" r:id="rId20"/>
     <hyperlink ref="A18" r:id="rId21"/>
     <hyperlink ref="A19" r:id="rId22"/>
-    <hyperlink ref="A103" r:id="rId23"/>
+    <hyperlink ref="A107" r:id="rId23"/>
     <hyperlink ref="A20" r:id="rId24"/>
     <hyperlink ref="B20" r:id="rId25" display="https://www.youtube.com/watch?v=ZAde-IJAHzo"/>
     <hyperlink ref="A23" r:id="rId26"/>
@@ -8338,16 +8448,18 @@
     <hyperlink ref="A44" r:id="rId44"/>
     <hyperlink ref="A45" r:id="rId45"/>
     <hyperlink ref="A51" r:id="rId46"/>
-    <hyperlink ref="A85" r:id="rId47"/>
+    <hyperlink ref="A89" r:id="rId47"/>
     <hyperlink ref="A60" r:id="rId48"/>
     <hyperlink ref="A61" r:id="rId49"/>
     <hyperlink ref="A62" r:id="rId50"/>
-    <hyperlink ref="A86" r:id="rId51"/>
-    <hyperlink ref="A87" r:id="rId52" location="/"/>
+    <hyperlink ref="A90" r:id="rId51"/>
+    <hyperlink ref="A91" r:id="rId52" location="/"/>
     <hyperlink ref="A66" r:id="rId53"/>
+    <hyperlink ref="A67" r:id="rId54"/>
+    <hyperlink ref="A68" r:id="rId55"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId54"/>
-  <legacyDrawing r:id="rId55"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId56"/>
+  <legacyDrawing r:id="rId57"/>
 </worksheet>
 </file>
--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="По задачам" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="407">
   <si>
     <t>Дата начала</t>
   </si>
@@ -1361,6 +1361,15 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=HNRt0lODCQM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8DDVr6wjJzQ</t>
+  </si>
+  <si>
+    <t>THE WEBPACK CORE CONCEPTS | Webpack 2 Basics Tutorial</t>
+  </si>
+  <si>
+    <t>RS School local conf</t>
   </si>
 </sst>
 </file>
@@ -1763,10 +1772,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87:B87"/>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89:B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2791,6 +2800,28 @@
       </c>
       <c r="C87" s="11" t="s">
         <v>402</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1">
+        <v>43973</v>
+      </c>
+      <c r="B88" s="1">
+        <v>43973</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="1">
+        <v>43973</v>
+      </c>
+      <c r="B89" s="1">
+        <v>43973</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -2808,10 +2839,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D421"/>
+  <dimension ref="A1:D423"/>
   <sheetViews>
-    <sheetView topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="C203" sqref="C203"/>
+    <sheetView topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="C204" sqref="C204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5122,1788 +5153,1812 @@
       <c r="B198" t="s">
         <v>14</v>
       </c>
+      <c r="C198" t="s">
+        <v>404</v>
+      </c>
+      <c r="D198" t="s">
+        <v>405</v>
+      </c>
     </row>
     <row r="199" spans="1:4">
-      <c r="A199" s="1">
-        <v>43974</v>
-      </c>
-      <c r="B199" t="s">
-        <v>15</v>
+      <c r="A199" s="1"/>
+      <c r="C199" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="D199" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="200" spans="1:4">
-      <c r="A200" s="1">
-        <v>43975</v>
-      </c>
-      <c r="B200" t="s">
-        <v>9</v>
+      <c r="A200" s="1"/>
+      <c r="C200" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="D200" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="1">
-        <v>43976</v>
+        <v>43974</v>
       </c>
       <c r="B201" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="1">
-        <v>43977</v>
+        <v>43975</v>
       </c>
       <c r="B202" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="1">
-        <v>43978</v>
+        <v>43976</v>
       </c>
       <c r="B203" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="1">
-        <v>43979</v>
+        <v>43977</v>
       </c>
       <c r="B204" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="1">
-        <v>43980</v>
+        <v>43978</v>
       </c>
       <c r="B205" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="1">
-        <v>43981</v>
+        <v>43979</v>
       </c>
       <c r="B206" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="1">
-        <v>43982</v>
+        <v>43980</v>
       </c>
       <c r="B207" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="1">
-        <v>43983</v>
+        <v>43981</v>
       </c>
       <c r="B208" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="1">
-        <v>43984</v>
+        <v>43982</v>
       </c>
       <c r="B209" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="1">
-        <v>43985</v>
+        <v>43983</v>
       </c>
       <c r="B210" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="1">
-        <v>43986</v>
+        <v>43984</v>
       </c>
       <c r="B211" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="1">
-        <v>43987</v>
+        <v>43985</v>
       </c>
       <c r="B212" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="1">
-        <v>43988</v>
+        <v>43986</v>
       </c>
       <c r="B213" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="1">
-        <v>43989</v>
+        <v>43987</v>
       </c>
       <c r="B214" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="1">
-        <v>43990</v>
+        <v>43988</v>
       </c>
       <c r="B215" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="1">
-        <v>43991</v>
+        <v>43989</v>
       </c>
       <c r="B216" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="1">
-        <v>43992</v>
+        <v>43990</v>
       </c>
       <c r="B217" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="1">
-        <v>43993</v>
+        <v>43991</v>
       </c>
       <c r="B218" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="1">
-        <v>43994</v>
+        <v>43992</v>
       </c>
       <c r="B219" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="1">
-        <v>43995</v>
+        <v>43993</v>
       </c>
       <c r="B220" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="1">
-        <v>43996</v>
+        <v>43994</v>
       </c>
       <c r="B221" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="1">
-        <v>43997</v>
+        <v>43995</v>
       </c>
       <c r="B222" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="1">
-        <v>43998</v>
+        <v>43996</v>
       </c>
       <c r="B223" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="1">
-        <v>43999</v>
+        <v>43997</v>
       </c>
       <c r="B224" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="1">
-        <v>44000</v>
+        <v>43998</v>
       </c>
       <c r="B225" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="1">
-        <v>44001</v>
+        <v>43999</v>
       </c>
       <c r="B226" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="1">
-        <v>44002</v>
+        <v>44000</v>
       </c>
       <c r="B227" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="1">
-        <v>44003</v>
+        <v>44001</v>
       </c>
       <c r="B228" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="1">
-        <v>44004</v>
+        <v>44002</v>
       </c>
       <c r="B229" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="1">
-        <v>44005</v>
+        <v>44003</v>
       </c>
       <c r="B230" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="1">
-        <v>44006</v>
+        <v>44004</v>
       </c>
       <c r="B231" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="1">
-        <v>44007</v>
+        <v>44005</v>
       </c>
       <c r="B232" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="1">
-        <v>44008</v>
+        <v>44006</v>
       </c>
       <c r="B233" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="1">
-        <v>44009</v>
+        <v>44007</v>
       </c>
       <c r="B234" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="1">
-        <v>44010</v>
+        <v>44008</v>
       </c>
       <c r="B235" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="1">
-        <v>44011</v>
+        <v>44009</v>
       </c>
       <c r="B236" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="1">
-        <v>44012</v>
+        <v>44010</v>
       </c>
       <c r="B237" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="1">
-        <v>44013</v>
+        <v>44011</v>
       </c>
       <c r="B238" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="1">
-        <v>44014</v>
+        <v>44012</v>
       </c>
       <c r="B239" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="1">
-        <v>44015</v>
+        <v>44013</v>
       </c>
       <c r="B240" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="1">
-        <v>44016</v>
+        <v>44014</v>
       </c>
       <c r="B241" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="1">
-        <v>44017</v>
+        <v>44015</v>
       </c>
       <c r="B242" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="1">
-        <v>44018</v>
+        <v>44016</v>
       </c>
       <c r="B243" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="1">
-        <v>44019</v>
+        <v>44017</v>
       </c>
       <c r="B244" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="1">
-        <v>44020</v>
+        <v>44018</v>
       </c>
       <c r="B245" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="1">
-        <v>44021</v>
+        <v>44019</v>
       </c>
       <c r="B246" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="1">
-        <v>44022</v>
+        <v>44020</v>
       </c>
       <c r="B247" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="1">
-        <v>44023</v>
+        <v>44021</v>
       </c>
       <c r="B248" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="1">
-        <v>44024</v>
+        <v>44022</v>
       </c>
       <c r="B249" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="1">
-        <v>44025</v>
+        <v>44023</v>
       </c>
       <c r="B250" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="1">
-        <v>44026</v>
+        <v>44024</v>
       </c>
       <c r="B251" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="1">
-        <v>44027</v>
+        <v>44025</v>
       </c>
       <c r="B252" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="1">
-        <v>44028</v>
+        <v>44026</v>
       </c>
       <c r="B253" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="1">
-        <v>44029</v>
+        <v>44027</v>
       </c>
       <c r="B254" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="1">
-        <v>44030</v>
+        <v>44028</v>
       </c>
       <c r="B255" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="1">
-        <v>44031</v>
+        <v>44029</v>
       </c>
       <c r="B256" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="1">
-        <v>44032</v>
+        <v>44030</v>
       </c>
       <c r="B257" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="1">
-        <v>44033</v>
+        <v>44031</v>
       </c>
       <c r="B258" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="1">
-        <v>44034</v>
+        <v>44032</v>
       </c>
       <c r="B259" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="1">
-        <v>44035</v>
+        <v>44033</v>
       </c>
       <c r="B260" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="1">
-        <v>44036</v>
+        <v>44034</v>
       </c>
       <c r="B261" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="1">
-        <v>44037</v>
+        <v>44035</v>
       </c>
       <c r="B262" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="1">
-        <v>44038</v>
+        <v>44036</v>
       </c>
       <c r="B263" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="1">
-        <v>44039</v>
+        <v>44037</v>
       </c>
       <c r="B264" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="1">
-        <v>44040</v>
+        <v>44038</v>
       </c>
       <c r="B265" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="1">
-        <v>44041</v>
+        <v>44039</v>
       </c>
       <c r="B266" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="1">
-        <v>44042</v>
+        <v>44040</v>
       </c>
       <c r="B267" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="1">
-        <v>44043</v>
+        <v>44041</v>
       </c>
       <c r="B268" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="1">
-        <v>44044</v>
+        <v>44042</v>
       </c>
       <c r="B269" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="1">
-        <v>44045</v>
+        <v>44043</v>
       </c>
       <c r="B270" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="1">
-        <v>44046</v>
+        <v>44044</v>
       </c>
       <c r="B271" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="1">
-        <v>44047</v>
+        <v>44045</v>
       </c>
       <c r="B272" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="1">
-        <v>44048</v>
+        <v>44046</v>
       </c>
       <c r="B273" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="1">
-        <v>44049</v>
+        <v>44047</v>
       </c>
       <c r="B274" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="1">
-        <v>44050</v>
+        <v>44048</v>
       </c>
       <c r="B275" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="1">
-        <v>44051</v>
+        <v>44049</v>
       </c>
       <c r="B276" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="1">
-        <v>44052</v>
+        <v>44050</v>
       </c>
       <c r="B277" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="1">
-        <v>44053</v>
+        <v>44051</v>
       </c>
       <c r="B278" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="1">
-        <v>44054</v>
+        <v>44052</v>
       </c>
       <c r="B279" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="1">
-        <v>44055</v>
+        <v>44053</v>
       </c>
       <c r="B280" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="1">
-        <v>44056</v>
+        <v>44054</v>
       </c>
       <c r="B281" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="1">
-        <v>44057</v>
+        <v>44055</v>
       </c>
       <c r="B282" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="1">
-        <v>44058</v>
+        <v>44056</v>
       </c>
       <c r="B283" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="1">
-        <v>44059</v>
+        <v>44057</v>
       </c>
       <c r="B284" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="1">
-        <v>44060</v>
+        <v>44058</v>
       </c>
       <c r="B285" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="1">
-        <v>44061</v>
+        <v>44059</v>
       </c>
       <c r="B286" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="1">
-        <v>44062</v>
+        <v>44060</v>
       </c>
       <c r="B287" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="1">
-        <v>44063</v>
+        <v>44061</v>
       </c>
       <c r="B288" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="1">
-        <v>44064</v>
+        <v>44062</v>
       </c>
       <c r="B289" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="1">
-        <v>44065</v>
+        <v>44063</v>
       </c>
       <c r="B290" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="1">
-        <v>44066</v>
+        <v>44064</v>
       </c>
       <c r="B291" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="1">
-        <v>44067</v>
+        <v>44065</v>
       </c>
       <c r="B292" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="1">
-        <v>44068</v>
+        <v>44066</v>
       </c>
       <c r="B293" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="1">
-        <v>44069</v>
+        <v>44067</v>
       </c>
       <c r="B294" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="1">
-        <v>44070</v>
+        <v>44068</v>
       </c>
       <c r="B295" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="1">
-        <v>44071</v>
+        <v>44069</v>
       </c>
       <c r="B296" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="1">
-        <v>44072</v>
+        <v>44070</v>
       </c>
       <c r="B297" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="1">
-        <v>44073</v>
+        <v>44071</v>
       </c>
       <c r="B298" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="1">
-        <v>44074</v>
+        <v>44072</v>
       </c>
       <c r="B299" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="1">
-        <v>44075</v>
+        <v>44073</v>
       </c>
       <c r="B300" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="1">
-        <v>44076</v>
+        <v>44074</v>
       </c>
       <c r="B301" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="1">
-        <v>44077</v>
+        <v>44075</v>
       </c>
       <c r="B302" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="1">
-        <v>44078</v>
+        <v>44076</v>
       </c>
       <c r="B303" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="1">
-        <v>44079</v>
+        <v>44077</v>
       </c>
       <c r="B304" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="1">
-        <v>44080</v>
+        <v>44078</v>
       </c>
       <c r="B305" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="1">
-        <v>44081</v>
+        <v>44079</v>
       </c>
       <c r="B306" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="1">
-        <v>44082</v>
+        <v>44080</v>
       </c>
       <c r="B307" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="1">
-        <v>44083</v>
+        <v>44081</v>
       </c>
       <c r="B308" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="1">
-        <v>44084</v>
+        <v>44082</v>
       </c>
       <c r="B309" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="1">
-        <v>44085</v>
+        <v>44083</v>
       </c>
       <c r="B310" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="1">
-        <v>44086</v>
+        <v>44084</v>
       </c>
       <c r="B311" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="1">
-        <v>44087</v>
+        <v>44085</v>
       </c>
       <c r="B312" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="1">
-        <v>44088</v>
+        <v>44086</v>
       </c>
       <c r="B313" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="1">
-        <v>44089</v>
+        <v>44087</v>
       </c>
       <c r="B314" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="1">
-        <v>44090</v>
+        <v>44088</v>
       </c>
       <c r="B315" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="1">
-        <v>44091</v>
+        <v>44089</v>
       </c>
       <c r="B316" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="1">
-        <v>44092</v>
+        <v>44090</v>
       </c>
       <c r="B317" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="1">
-        <v>44093</v>
+        <v>44091</v>
       </c>
       <c r="B318" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="1">
-        <v>44094</v>
+        <v>44092</v>
       </c>
       <c r="B319" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="1">
-        <v>44095</v>
+        <v>44093</v>
       </c>
       <c r="B320" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="1">
-        <v>44096</v>
+        <v>44094</v>
       </c>
       <c r="B321" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="1">
-        <v>44097</v>
+        <v>44095</v>
       </c>
       <c r="B322" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="1">
-        <v>44098</v>
+        <v>44096</v>
       </c>
       <c r="B323" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="1">
-        <v>44099</v>
+        <v>44097</v>
       </c>
       <c r="B324" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="1">
-        <v>44100</v>
+        <v>44098</v>
       </c>
       <c r="B325" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="1">
-        <v>44101</v>
+        <v>44099</v>
       </c>
       <c r="B326" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="1">
-        <v>44102</v>
+        <v>44100</v>
       </c>
       <c r="B327" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="1">
-        <v>44103</v>
+        <v>44101</v>
       </c>
       <c r="B328" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="1">
-        <v>44104</v>
+        <v>44102</v>
       </c>
       <c r="B329" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="1">
-        <v>44105</v>
+        <v>44103</v>
       </c>
       <c r="B330" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="1">
-        <v>44106</v>
+        <v>44104</v>
       </c>
       <c r="B331" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="1">
-        <v>44107</v>
+        <v>44105</v>
       </c>
       <c r="B332" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="1">
-        <v>44108</v>
+        <v>44106</v>
       </c>
       <c r="B333" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="1">
-        <v>44109</v>
+        <v>44107</v>
       </c>
       <c r="B334" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="1">
-        <v>44110</v>
+        <v>44108</v>
       </c>
       <c r="B335" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="1">
-        <v>44111</v>
+        <v>44109</v>
       </c>
       <c r="B336" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="1">
-        <v>44112</v>
+        <v>44110</v>
       </c>
       <c r="B337" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="1">
-        <v>44113</v>
+        <v>44111</v>
       </c>
       <c r="B338" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="1">
-        <v>44114</v>
+        <v>44112</v>
       </c>
       <c r="B339" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="1">
-        <v>44115</v>
+        <v>44113</v>
       </c>
       <c r="B340" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="1">
-        <v>44116</v>
+        <v>44114</v>
       </c>
       <c r="B341" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="1">
-        <v>44117</v>
+        <v>44115</v>
       </c>
       <c r="B342" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="1">
-        <v>44118</v>
+        <v>44116</v>
       </c>
       <c r="B343" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="1">
-        <v>44119</v>
+        <v>44117</v>
       </c>
       <c r="B344" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="1">
-        <v>44120</v>
+        <v>44118</v>
       </c>
       <c r="B345" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="1">
-        <v>44121</v>
+        <v>44119</v>
       </c>
       <c r="B346" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="1">
-        <v>44122</v>
+        <v>44120</v>
       </c>
       <c r="B347" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="1">
-        <v>44123</v>
+        <v>44121</v>
       </c>
       <c r="B348" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="1">
-        <v>44124</v>
+        <v>44122</v>
       </c>
       <c r="B349" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="1">
-        <v>44125</v>
+        <v>44123</v>
       </c>
       <c r="B350" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="1">
-        <v>44126</v>
+        <v>44124</v>
       </c>
       <c r="B351" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="1">
-        <v>44127</v>
+        <v>44125</v>
       </c>
       <c r="B352" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="1">
-        <v>44128</v>
+        <v>44126</v>
       </c>
       <c r="B353" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="1">
-        <v>44129</v>
+        <v>44127</v>
       </c>
       <c r="B354" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="1">
-        <v>44130</v>
+        <v>44128</v>
       </c>
       <c r="B355" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="1">
-        <v>44131</v>
+        <v>44129</v>
       </c>
       <c r="B356" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="1">
-        <v>44132</v>
+        <v>44130</v>
       </c>
       <c r="B357" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="1">
-        <v>44133</v>
+        <v>44131</v>
       </c>
       <c r="B358" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="1">
-        <v>44134</v>
+        <v>44132</v>
       </c>
       <c r="B359" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="1">
-        <v>44135</v>
+        <v>44133</v>
       </c>
       <c r="B360" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="1">
-        <v>44136</v>
+        <v>44134</v>
       </c>
       <c r="B361" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="1">
-        <v>44137</v>
+        <v>44135</v>
       </c>
       <c r="B362" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="1">
-        <v>44138</v>
+        <v>44136</v>
       </c>
       <c r="B363" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="1">
-        <v>44139</v>
+        <v>44137</v>
       </c>
       <c r="B364" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="1">
-        <v>44140</v>
+        <v>44138</v>
       </c>
       <c r="B365" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="1">
-        <v>44141</v>
+        <v>44139</v>
       </c>
       <c r="B366" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="1">
-        <v>44142</v>
+        <v>44140</v>
       </c>
       <c r="B367" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="1">
-        <v>44143</v>
+        <v>44141</v>
       </c>
       <c r="B368" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="1">
-        <v>44144</v>
+        <v>44142</v>
       </c>
       <c r="B369" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="1">
-        <v>44145</v>
+        <v>44143</v>
       </c>
       <c r="B370" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="1">
-        <v>44146</v>
+        <v>44144</v>
       </c>
       <c r="B371" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="1">
-        <v>44147</v>
+        <v>44145</v>
       </c>
       <c r="B372" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="1">
-        <v>44148</v>
+        <v>44146</v>
       </c>
       <c r="B373" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="1">
-        <v>44149</v>
+        <v>44147</v>
       </c>
       <c r="B374" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="1">
-        <v>44150</v>
+        <v>44148</v>
       </c>
       <c r="B375" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="1">
-        <v>44151</v>
+        <v>44149</v>
       </c>
       <c r="B376" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="1">
-        <v>44152</v>
+        <v>44150</v>
       </c>
       <c r="B377" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="1">
-        <v>44153</v>
+        <v>44151</v>
       </c>
       <c r="B378" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="1">
-        <v>44154</v>
+        <v>44152</v>
       </c>
       <c r="B379" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="1">
-        <v>44155</v>
+        <v>44153</v>
       </c>
       <c r="B380" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="1">
-        <v>44156</v>
+        <v>44154</v>
       </c>
       <c r="B381" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="1">
-        <v>44157</v>
+        <v>44155</v>
       </c>
       <c r="B382" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="1">
-        <v>44158</v>
+        <v>44156</v>
       </c>
       <c r="B383" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="1">
-        <v>44159</v>
+        <v>44157</v>
       </c>
       <c r="B384" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="1">
-        <v>44160</v>
+        <v>44158</v>
       </c>
       <c r="B385" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="1">
-        <v>44161</v>
+        <v>44159</v>
       </c>
       <c r="B386" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="1">
-        <v>44162</v>
+        <v>44160</v>
       </c>
       <c r="B387" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="1">
-        <v>44163</v>
+        <v>44161</v>
       </c>
       <c r="B388" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="1">
-        <v>44164</v>
+        <v>44162</v>
       </c>
       <c r="B389" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="1">
-        <v>44165</v>
+        <v>44163</v>
       </c>
       <c r="B390" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="1">
-        <v>44166</v>
+        <v>44164</v>
       </c>
       <c r="B391" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="1">
-        <v>44167</v>
+        <v>44165</v>
       </c>
       <c r="B392" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="1">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="B393" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="1">
-        <v>44169</v>
+        <v>44167</v>
       </c>
       <c r="B394" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="1">
-        <v>44170</v>
+        <v>44168</v>
       </c>
       <c r="B395" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="1">
-        <v>44171</v>
+        <v>44169</v>
       </c>
       <c r="B396" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="1">
-        <v>44172</v>
+        <v>44170</v>
       </c>
       <c r="B397" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="1">
-        <v>44173</v>
+        <v>44171</v>
       </c>
       <c r="B398" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="1">
-        <v>44174</v>
+        <v>44172</v>
       </c>
       <c r="B399" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="1">
-        <v>44175</v>
+        <v>44173</v>
       </c>
       <c r="B400" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="1">
-        <v>44176</v>
+        <v>44174</v>
       </c>
       <c r="B401" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="1">
-        <v>44177</v>
+        <v>44175</v>
       </c>
       <c r="B402" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="1">
-        <v>44178</v>
+        <v>44176</v>
       </c>
       <c r="B403" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="1">
-        <v>44179</v>
+        <v>44177</v>
       </c>
       <c r="B404" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="1">
-        <v>44180</v>
+        <v>44178</v>
       </c>
       <c r="B405" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="1">
-        <v>44181</v>
+        <v>44179</v>
       </c>
       <c r="B406" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="1">
-        <v>44182</v>
+        <v>44180</v>
       </c>
       <c r="B407" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="1">
-        <v>44183</v>
+        <v>44181</v>
       </c>
       <c r="B408" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="1">
-        <v>44184</v>
+        <v>44182</v>
       </c>
       <c r="B409" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="1">
-        <v>44185</v>
+        <v>44183</v>
       </c>
       <c r="B410" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="1">
-        <v>44186</v>
+        <v>44184</v>
       </c>
       <c r="B411" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="1">
-        <v>44187</v>
+        <v>44185</v>
       </c>
       <c r="B412" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="1">
-        <v>44188</v>
+        <v>44186</v>
       </c>
       <c r="B413" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="1">
-        <v>44189</v>
+        <v>44187</v>
       </c>
       <c r="B414" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="1">
-        <v>44190</v>
+        <v>44188</v>
       </c>
       <c r="B415" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="1">
-        <v>44191</v>
+        <v>44189</v>
       </c>
       <c r="B416" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="1">
-        <v>44192</v>
+        <v>44190</v>
       </c>
       <c r="B417" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="1">
-        <v>44193</v>
+        <v>44191</v>
       </c>
       <c r="B418" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="1">
-        <v>44194</v>
+        <v>44192</v>
       </c>
       <c r="B419" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="1">
-        <v>44195</v>
+        <v>44193</v>
       </c>
       <c r="B420" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="1">
+        <v>44194</v>
+      </c>
+      <c r="B421" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2">
+      <c r="A422" s="1">
+        <v>44195</v>
+      </c>
+      <c r="B422" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2">
+      <c r="A423" s="1">
         <v>44196</v>
       </c>
-      <c r="B421" t="s">
+      <c r="B423" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6972,7 +7027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F143"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
       <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
@@ -7877,7 +7932,18 @@
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="2"/>
+      <c r="A69" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="C69" t="s">
+        <v>132</v>
+      </c>
+      <c r="D69" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2"/>
@@ -8457,9 +8523,10 @@
     <hyperlink ref="A66" r:id="rId53"/>
     <hyperlink ref="A67" r:id="rId54"/>
     <hyperlink ref="A68" r:id="rId55"/>
+    <hyperlink ref="B69" r:id="rId56" display="https://www.youtube.com/watch?v=8DDVr6wjJzQ"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId56"/>
-  <legacyDrawing r:id="rId57"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId57"/>
+  <legacyDrawing r:id="rId58"/>
 </worksheet>
 </file>
--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1203" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="411">
   <si>
     <t>Дата начала</t>
   </si>
@@ -1370,6 +1370,18 @@
   </si>
   <si>
     <t>RS School local conf</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=H7X25hZ1Pq8</t>
+  </si>
+  <si>
+    <t>How to Become a Better Web Developer - My Thoughts</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8vnkM8JgjpU</t>
+  </si>
+  <si>
+    <t>BASIC BABEL + SCSS WORKFLOW | Webpack 2 Basics Tutorial</t>
   </si>
 </sst>
 </file>
@@ -1772,10 +1784,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89:B89"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2822,6 +2834,28 @@
       </c>
       <c r="C89" s="11" t="s">
         <v>406</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1">
+        <v>43974</v>
+      </c>
+      <c r="B90" s="1">
+        <v>43974</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="1">
+        <v>43974</v>
+      </c>
+      <c r="B91" s="1">
+        <v>43974</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>410</v>
       </c>
     </row>
   </sheetData>
@@ -2839,10 +2873,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D423"/>
+  <dimension ref="A1:D425"/>
   <sheetViews>
     <sheetView topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="C204" sqref="C204"/>
+      <selection activeCell="D202" sqref="D202:D203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5185,1780 +5219,1804 @@
       <c r="B201" t="s">
         <v>15</v>
       </c>
+      <c r="C201" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="D201" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="202" spans="1:4">
-      <c r="A202" s="1">
-        <v>43975</v>
-      </c>
-      <c r="B202" t="s">
-        <v>9</v>
+      <c r="A202" s="1"/>
+      <c r="C202" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="D202" s="8" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="203" spans="1:4">
-      <c r="A203" s="1">
-        <v>43976</v>
-      </c>
-      <c r="B203" t="s">
-        <v>10</v>
+      <c r="A203" s="1"/>
+      <c r="C203" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="D203" s="8" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="1">
-        <v>43977</v>
+        <v>43975</v>
       </c>
       <c r="B204" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="1">
-        <v>43978</v>
+        <v>43976</v>
       </c>
       <c r="B205" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="1">
-        <v>43979</v>
+        <v>43977</v>
       </c>
       <c r="B206" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="1">
-        <v>43980</v>
+        <v>43978</v>
       </c>
       <c r="B207" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="1">
-        <v>43981</v>
+        <v>43979</v>
       </c>
       <c r="B208" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="1">
-        <v>43982</v>
+        <v>43980</v>
       </c>
       <c r="B209" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="1">
-        <v>43983</v>
+        <v>43981</v>
       </c>
       <c r="B210" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="1">
-        <v>43984</v>
+        <v>43982</v>
       </c>
       <c r="B211" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="1">
-        <v>43985</v>
+        <v>43983</v>
       </c>
       <c r="B212" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="1">
-        <v>43986</v>
+        <v>43984</v>
       </c>
       <c r="B213" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="1">
-        <v>43987</v>
+        <v>43985</v>
       </c>
       <c r="B214" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="1">
-        <v>43988</v>
+        <v>43986</v>
       </c>
       <c r="B215" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="1">
-        <v>43989</v>
+        <v>43987</v>
       </c>
       <c r="B216" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="1">
-        <v>43990</v>
+        <v>43988</v>
       </c>
       <c r="B217" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="1">
-        <v>43991</v>
+        <v>43989</v>
       </c>
       <c r="B218" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="1">
-        <v>43992</v>
+        <v>43990</v>
       </c>
       <c r="B219" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="1">
-        <v>43993</v>
+        <v>43991</v>
       </c>
       <c r="B220" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="1">
-        <v>43994</v>
+        <v>43992</v>
       </c>
       <c r="B221" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="1">
-        <v>43995</v>
+        <v>43993</v>
       </c>
       <c r="B222" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="1">
-        <v>43996</v>
+        <v>43994</v>
       </c>
       <c r="B223" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="1">
-        <v>43997</v>
+        <v>43995</v>
       </c>
       <c r="B224" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="1">
-        <v>43998</v>
+        <v>43996</v>
       </c>
       <c r="B225" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="1">
-        <v>43999</v>
+        <v>43997</v>
       </c>
       <c r="B226" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="1">
-        <v>44000</v>
+        <v>43998</v>
       </c>
       <c r="B227" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="1">
-        <v>44001</v>
+        <v>43999</v>
       </c>
       <c r="B228" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="1">
-        <v>44002</v>
+        <v>44000</v>
       </c>
       <c r="B229" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="1">
-        <v>44003</v>
+        <v>44001</v>
       </c>
       <c r="B230" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="1">
-        <v>44004</v>
+        <v>44002</v>
       </c>
       <c r="B231" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="1">
-        <v>44005</v>
+        <v>44003</v>
       </c>
       <c r="B232" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="1">
-        <v>44006</v>
+        <v>44004</v>
       </c>
       <c r="B233" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="1">
-        <v>44007</v>
+        <v>44005</v>
       </c>
       <c r="B234" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="1">
-        <v>44008</v>
+        <v>44006</v>
       </c>
       <c r="B235" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="1">
-        <v>44009</v>
+        <v>44007</v>
       </c>
       <c r="B236" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="1">
-        <v>44010</v>
+        <v>44008</v>
       </c>
       <c r="B237" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="1">
-        <v>44011</v>
+        <v>44009</v>
       </c>
       <c r="B238" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="1">
-        <v>44012</v>
+        <v>44010</v>
       </c>
       <c r="B239" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="1">
-        <v>44013</v>
+        <v>44011</v>
       </c>
       <c r="B240" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="1">
-        <v>44014</v>
+        <v>44012</v>
       </c>
       <c r="B241" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="1">
-        <v>44015</v>
+        <v>44013</v>
       </c>
       <c r="B242" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="1">
-        <v>44016</v>
+        <v>44014</v>
       </c>
       <c r="B243" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="1">
-        <v>44017</v>
+        <v>44015</v>
       </c>
       <c r="B244" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="1">
-        <v>44018</v>
+        <v>44016</v>
       </c>
       <c r="B245" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="1">
-        <v>44019</v>
+        <v>44017</v>
       </c>
       <c r="B246" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="1">
-        <v>44020</v>
+        <v>44018</v>
       </c>
       <c r="B247" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="1">
-        <v>44021</v>
+        <v>44019</v>
       </c>
       <c r="B248" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="1">
-        <v>44022</v>
+        <v>44020</v>
       </c>
       <c r="B249" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="1">
-        <v>44023</v>
+        <v>44021</v>
       </c>
       <c r="B250" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="1">
-        <v>44024</v>
+        <v>44022</v>
       </c>
       <c r="B251" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="1">
-        <v>44025</v>
+        <v>44023</v>
       </c>
       <c r="B252" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="1">
-        <v>44026</v>
+        <v>44024</v>
       </c>
       <c r="B253" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="1">
-        <v>44027</v>
+        <v>44025</v>
       </c>
       <c r="B254" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="1">
-        <v>44028</v>
+        <v>44026</v>
       </c>
       <c r="B255" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="1">
-        <v>44029</v>
+        <v>44027</v>
       </c>
       <c r="B256" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="1">
-        <v>44030</v>
+        <v>44028</v>
       </c>
       <c r="B257" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="1">
-        <v>44031</v>
+        <v>44029</v>
       </c>
       <c r="B258" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="1">
-        <v>44032</v>
+        <v>44030</v>
       </c>
       <c r="B259" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="1">
-        <v>44033</v>
+        <v>44031</v>
       </c>
       <c r="B260" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="1">
-        <v>44034</v>
+        <v>44032</v>
       </c>
       <c r="B261" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="1">
-        <v>44035</v>
+        <v>44033</v>
       </c>
       <c r="B262" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="1">
-        <v>44036</v>
+        <v>44034</v>
       </c>
       <c r="B263" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="1">
-        <v>44037</v>
+        <v>44035</v>
       </c>
       <c r="B264" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="1">
-        <v>44038</v>
+        <v>44036</v>
       </c>
       <c r="B265" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="1">
-        <v>44039</v>
+        <v>44037</v>
       </c>
       <c r="B266" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="1">
-        <v>44040</v>
+        <v>44038</v>
       </c>
       <c r="B267" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="1">
-        <v>44041</v>
+        <v>44039</v>
       </c>
       <c r="B268" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="1">
-        <v>44042</v>
+        <v>44040</v>
       </c>
       <c r="B269" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="1">
-        <v>44043</v>
+        <v>44041</v>
       </c>
       <c r="B270" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="1">
-        <v>44044</v>
+        <v>44042</v>
       </c>
       <c r="B271" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="1">
-        <v>44045</v>
+        <v>44043</v>
       </c>
       <c r="B272" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="1">
-        <v>44046</v>
+        <v>44044</v>
       </c>
       <c r="B273" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="1">
-        <v>44047</v>
+        <v>44045</v>
       </c>
       <c r="B274" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="1">
-        <v>44048</v>
+        <v>44046</v>
       </c>
       <c r="B275" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="1">
-        <v>44049</v>
+        <v>44047</v>
       </c>
       <c r="B276" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="1">
-        <v>44050</v>
+        <v>44048</v>
       </c>
       <c r="B277" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="1">
-        <v>44051</v>
+        <v>44049</v>
       </c>
       <c r="B278" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="1">
-        <v>44052</v>
+        <v>44050</v>
       </c>
       <c r="B279" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="1">
-        <v>44053</v>
+        <v>44051</v>
       </c>
       <c r="B280" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="1">
-        <v>44054</v>
+        <v>44052</v>
       </c>
       <c r="B281" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="1">
-        <v>44055</v>
+        <v>44053</v>
       </c>
       <c r="B282" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="1">
-        <v>44056</v>
+        <v>44054</v>
       </c>
       <c r="B283" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="1">
-        <v>44057</v>
+        <v>44055</v>
       </c>
       <c r="B284" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="1">
-        <v>44058</v>
+        <v>44056</v>
       </c>
       <c r="B285" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="1">
-        <v>44059</v>
+        <v>44057</v>
       </c>
       <c r="B286" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="1">
-        <v>44060</v>
+        <v>44058</v>
       </c>
       <c r="B287" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="1">
-        <v>44061</v>
+        <v>44059</v>
       </c>
       <c r="B288" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="1">
-        <v>44062</v>
+        <v>44060</v>
       </c>
       <c r="B289" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="1">
-        <v>44063</v>
+        <v>44061</v>
       </c>
       <c r="B290" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="1">
-        <v>44064</v>
+        <v>44062</v>
       </c>
       <c r="B291" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="1">
-        <v>44065</v>
+        <v>44063</v>
       </c>
       <c r="B292" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="1">
-        <v>44066</v>
+        <v>44064</v>
       </c>
       <c r="B293" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="1">
-        <v>44067</v>
+        <v>44065</v>
       </c>
       <c r="B294" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="1">
-        <v>44068</v>
+        <v>44066</v>
       </c>
       <c r="B295" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="1">
-        <v>44069</v>
+        <v>44067</v>
       </c>
       <c r="B296" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="1">
-        <v>44070</v>
+        <v>44068</v>
       </c>
       <c r="B297" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="1">
-        <v>44071</v>
+        <v>44069</v>
       </c>
       <c r="B298" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="1">
-        <v>44072</v>
+        <v>44070</v>
       </c>
       <c r="B299" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="1">
-        <v>44073</v>
+        <v>44071</v>
       </c>
       <c r="B300" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="1">
-        <v>44074</v>
+        <v>44072</v>
       </c>
       <c r="B301" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="1">
-        <v>44075</v>
+        <v>44073</v>
       </c>
       <c r="B302" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="1">
-        <v>44076</v>
+        <v>44074</v>
       </c>
       <c r="B303" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="1">
-        <v>44077</v>
+        <v>44075</v>
       </c>
       <c r="B304" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="1">
-        <v>44078</v>
+        <v>44076</v>
       </c>
       <c r="B305" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="1">
-        <v>44079</v>
+        <v>44077</v>
       </c>
       <c r="B306" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="1">
-        <v>44080</v>
+        <v>44078</v>
       </c>
       <c r="B307" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="1">
-        <v>44081</v>
+        <v>44079</v>
       </c>
       <c r="B308" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="1">
-        <v>44082</v>
+        <v>44080</v>
       </c>
       <c r="B309" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="1">
-        <v>44083</v>
+        <v>44081</v>
       </c>
       <c r="B310" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="1">
-        <v>44084</v>
+        <v>44082</v>
       </c>
       <c r="B311" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="1">
-        <v>44085</v>
+        <v>44083</v>
       </c>
       <c r="B312" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="1">
-        <v>44086</v>
+        <v>44084</v>
       </c>
       <c r="B313" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="1">
-        <v>44087</v>
+        <v>44085</v>
       </c>
       <c r="B314" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="1">
-        <v>44088</v>
+        <v>44086</v>
       </c>
       <c r="B315" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="1">
-        <v>44089</v>
+        <v>44087</v>
       </c>
       <c r="B316" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="1">
-        <v>44090</v>
+        <v>44088</v>
       </c>
       <c r="B317" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="1">
-        <v>44091</v>
+        <v>44089</v>
       </c>
       <c r="B318" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="1">
-        <v>44092</v>
+        <v>44090</v>
       </c>
       <c r="B319" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="1">
-        <v>44093</v>
+        <v>44091</v>
       </c>
       <c r="B320" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="1">
-        <v>44094</v>
+        <v>44092</v>
       </c>
       <c r="B321" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="1">
-        <v>44095</v>
+        <v>44093</v>
       </c>
       <c r="B322" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="1">
-        <v>44096</v>
+        <v>44094</v>
       </c>
       <c r="B323" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="1">
-        <v>44097</v>
+        <v>44095</v>
       </c>
       <c r="B324" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="1">
-        <v>44098</v>
+        <v>44096</v>
       </c>
       <c r="B325" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="1">
-        <v>44099</v>
+        <v>44097</v>
       </c>
       <c r="B326" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="1">
-        <v>44100</v>
+        <v>44098</v>
       </c>
       <c r="B327" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="1">
-        <v>44101</v>
+        <v>44099</v>
       </c>
       <c r="B328" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="1">
-        <v>44102</v>
+        <v>44100</v>
       </c>
       <c r="B329" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="1">
-        <v>44103</v>
+        <v>44101</v>
       </c>
       <c r="B330" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="1">
-        <v>44104</v>
+        <v>44102</v>
       </c>
       <c r="B331" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="1">
-        <v>44105</v>
+        <v>44103</v>
       </c>
       <c r="B332" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="1">
-        <v>44106</v>
+        <v>44104</v>
       </c>
       <c r="B333" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="1">
-        <v>44107</v>
+        <v>44105</v>
       </c>
       <c r="B334" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="1">
-        <v>44108</v>
+        <v>44106</v>
       </c>
       <c r="B335" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="1">
-        <v>44109</v>
+        <v>44107</v>
       </c>
       <c r="B336" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="1">
-        <v>44110</v>
+        <v>44108</v>
       </c>
       <c r="B337" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="1">
-        <v>44111</v>
+        <v>44109</v>
       </c>
       <c r="B338" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="1">
-        <v>44112</v>
+        <v>44110</v>
       </c>
       <c r="B339" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="1">
-        <v>44113</v>
+        <v>44111</v>
       </c>
       <c r="B340" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="1">
-        <v>44114</v>
+        <v>44112</v>
       </c>
       <c r="B341" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="1">
-        <v>44115</v>
+        <v>44113</v>
       </c>
       <c r="B342" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="1">
-        <v>44116</v>
+        <v>44114</v>
       </c>
       <c r="B343" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="1">
-        <v>44117</v>
+        <v>44115</v>
       </c>
       <c r="B344" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="1">
-        <v>44118</v>
+        <v>44116</v>
       </c>
       <c r="B345" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="1">
-        <v>44119</v>
+        <v>44117</v>
       </c>
       <c r="B346" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="1">
-        <v>44120</v>
+        <v>44118</v>
       </c>
       <c r="B347" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="1">
-        <v>44121</v>
+        <v>44119</v>
       </c>
       <c r="B348" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="1">
-        <v>44122</v>
+        <v>44120</v>
       </c>
       <c r="B349" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="1">
-        <v>44123</v>
+        <v>44121</v>
       </c>
       <c r="B350" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="1">
-        <v>44124</v>
+        <v>44122</v>
       </c>
       <c r="B351" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="1">
-        <v>44125</v>
+        <v>44123</v>
       </c>
       <c r="B352" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="1">
-        <v>44126</v>
+        <v>44124</v>
       </c>
       <c r="B353" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="1">
-        <v>44127</v>
+        <v>44125</v>
       </c>
       <c r="B354" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="1">
-        <v>44128</v>
+        <v>44126</v>
       </c>
       <c r="B355" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="1">
-        <v>44129</v>
+        <v>44127</v>
       </c>
       <c r="B356" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="1">
-        <v>44130</v>
+        <v>44128</v>
       </c>
       <c r="B357" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="1">
-        <v>44131</v>
+        <v>44129</v>
       </c>
       <c r="B358" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="1">
-        <v>44132</v>
+        <v>44130</v>
       </c>
       <c r="B359" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="1">
-        <v>44133</v>
+        <v>44131</v>
       </c>
       <c r="B360" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="1">
-        <v>44134</v>
+        <v>44132</v>
       </c>
       <c r="B361" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="1">
-        <v>44135</v>
+        <v>44133</v>
       </c>
       <c r="B362" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="1">
-        <v>44136</v>
+        <v>44134</v>
       </c>
       <c r="B363" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="1">
-        <v>44137</v>
+        <v>44135</v>
       </c>
       <c r="B364" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="1">
-        <v>44138</v>
+        <v>44136</v>
       </c>
       <c r="B365" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="1">
-        <v>44139</v>
+        <v>44137</v>
       </c>
       <c r="B366" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="1">
-        <v>44140</v>
+        <v>44138</v>
       </c>
       <c r="B367" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="1">
-        <v>44141</v>
+        <v>44139</v>
       </c>
       <c r="B368" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="1">
-        <v>44142</v>
+        <v>44140</v>
       </c>
       <c r="B369" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="1">
-        <v>44143</v>
+        <v>44141</v>
       </c>
       <c r="B370" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="1">
-        <v>44144</v>
+        <v>44142</v>
       </c>
       <c r="B371" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="1">
-        <v>44145</v>
+        <v>44143</v>
       </c>
       <c r="B372" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="1">
-        <v>44146</v>
+        <v>44144</v>
       </c>
       <c r="B373" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="1">
-        <v>44147</v>
+        <v>44145</v>
       </c>
       <c r="B374" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="1">
-        <v>44148</v>
+        <v>44146</v>
       </c>
       <c r="B375" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="1">
-        <v>44149</v>
+        <v>44147</v>
       </c>
       <c r="B376" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="1">
-        <v>44150</v>
+        <v>44148</v>
       </c>
       <c r="B377" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="1">
-        <v>44151</v>
+        <v>44149</v>
       </c>
       <c r="B378" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="1">
-        <v>44152</v>
+        <v>44150</v>
       </c>
       <c r="B379" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="1">
-        <v>44153</v>
+        <v>44151</v>
       </c>
       <c r="B380" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="1">
-        <v>44154</v>
+        <v>44152</v>
       </c>
       <c r="B381" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="1">
-        <v>44155</v>
+        <v>44153</v>
       </c>
       <c r="B382" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="1">
-        <v>44156</v>
+        <v>44154</v>
       </c>
       <c r="B383" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="1">
-        <v>44157</v>
+        <v>44155</v>
       </c>
       <c r="B384" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="1">
-        <v>44158</v>
+        <v>44156</v>
       </c>
       <c r="B385" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="1">
-        <v>44159</v>
+        <v>44157</v>
       </c>
       <c r="B386" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="1">
-        <v>44160</v>
+        <v>44158</v>
       </c>
       <c r="B387" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="1">
-        <v>44161</v>
+        <v>44159</v>
       </c>
       <c r="B388" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="1">
-        <v>44162</v>
+        <v>44160</v>
       </c>
       <c r="B389" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="1">
-        <v>44163</v>
+        <v>44161</v>
       </c>
       <c r="B390" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="1">
-        <v>44164</v>
+        <v>44162</v>
       </c>
       <c r="B391" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="1">
-        <v>44165</v>
+        <v>44163</v>
       </c>
       <c r="B392" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="1">
-        <v>44166</v>
+        <v>44164</v>
       </c>
       <c r="B393" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="1">
-        <v>44167</v>
+        <v>44165</v>
       </c>
       <c r="B394" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="1">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="B395" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="1">
-        <v>44169</v>
+        <v>44167</v>
       </c>
       <c r="B396" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="1">
-        <v>44170</v>
+        <v>44168</v>
       </c>
       <c r="B397" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="1">
-        <v>44171</v>
+        <v>44169</v>
       </c>
       <c r="B398" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="1">
-        <v>44172</v>
+        <v>44170</v>
       </c>
       <c r="B399" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="1">
-        <v>44173</v>
+        <v>44171</v>
       </c>
       <c r="B400" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="1">
-        <v>44174</v>
+        <v>44172</v>
       </c>
       <c r="B401" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="1">
-        <v>44175</v>
+        <v>44173</v>
       </c>
       <c r="B402" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="1">
-        <v>44176</v>
+        <v>44174</v>
       </c>
       <c r="B403" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="1">
-        <v>44177</v>
+        <v>44175</v>
       </c>
       <c r="B404" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="1">
-        <v>44178</v>
+        <v>44176</v>
       </c>
       <c r="B405" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="1">
-        <v>44179</v>
+        <v>44177</v>
       </c>
       <c r="B406" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="1">
-        <v>44180</v>
+        <v>44178</v>
       </c>
       <c r="B407" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="1">
-        <v>44181</v>
+        <v>44179</v>
       </c>
       <c r="B408" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="1">
-        <v>44182</v>
+        <v>44180</v>
       </c>
       <c r="B409" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="1">
-        <v>44183</v>
+        <v>44181</v>
       </c>
       <c r="B410" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="1">
-        <v>44184</v>
+        <v>44182</v>
       </c>
       <c r="B411" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="1">
-        <v>44185</v>
+        <v>44183</v>
       </c>
       <c r="B412" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="1">
-        <v>44186</v>
+        <v>44184</v>
       </c>
       <c r="B413" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="1">
-        <v>44187</v>
+        <v>44185</v>
       </c>
       <c r="B414" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="1">
-        <v>44188</v>
+        <v>44186</v>
       </c>
       <c r="B415" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="1">
-        <v>44189</v>
+        <v>44187</v>
       </c>
       <c r="B416" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="1">
-        <v>44190</v>
+        <v>44188</v>
       </c>
       <c r="B417" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="1">
-        <v>44191</v>
+        <v>44189</v>
       </c>
       <c r="B418" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="1">
-        <v>44192</v>
+        <v>44190</v>
       </c>
       <c r="B419" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="1">
-        <v>44193</v>
+        <v>44191</v>
       </c>
       <c r="B420" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="1">
-        <v>44194</v>
+        <v>44192</v>
       </c>
       <c r="B421" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="1">
-        <v>44195</v>
+        <v>44193</v>
       </c>
       <c r="B422" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="1">
+        <v>44194</v>
+      </c>
+      <c r="B423" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2">
+      <c r="A424" s="1">
+        <v>44195</v>
+      </c>
+      <c r="B424" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2">
+      <c r="A425" s="1">
         <v>44196</v>
       </c>
-      <c r="B423" t="s">
+      <c r="B425" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7017,18 +7075,20 @@
     <hyperlink ref="C191" r:id="rId51"/>
     <hyperlink ref="C195" r:id="rId52"/>
     <hyperlink ref="C197" r:id="rId53"/>
+    <hyperlink ref="C202" r:id="rId54"/>
+    <hyperlink ref="C203" r:id="rId55"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId54"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId56"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F143"/>
+  <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7875,7 +7935,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>393</v>
       </c>
@@ -7889,7 +7949,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:4">
       <c r="A66" s="2" t="s">
         <v>397</v>
       </c>
@@ -7903,7 +7963,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:4">
       <c r="A67" s="2" t="s">
         <v>400</v>
       </c>
@@ -7917,7 +7977,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:4">
       <c r="A68" s="2" t="s">
         <v>403</v>
       </c>
@@ -7931,7 +7991,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:4">
       <c r="A69" s="2" t="s">
         <v>404</v>
       </c>
@@ -7945,552 +8005,602 @@
         <v>286</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="2"/>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="2"/>
-    </row>
-    <row r="73" spans="1:5" s="4" customFormat="1">
-      <c r="A73" s="5" t="s">
+    <row r="70" spans="1:4">
+      <c r="A70" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="D70" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="C71" t="s">
+        <v>132</v>
+      </c>
+      <c r="D71" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="2"/>
+      <c r="B72" s="8"/>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="2"/>
+      <c r="B73" s="8"/>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="2"/>
+      <c r="B74" s="8"/>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="2"/>
+      <c r="B75" s="8"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="2"/>
+      <c r="B76" s="8"/>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="2"/>
+      <c r="B77" s="8"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="2"/>
+      <c r="B78" s="8"/>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="2"/>
+    </row>
+    <row r="81" spans="1:5" s="4" customFormat="1">
+      <c r="A81" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="2" t="s">
+    <row r="82" spans="1:5">
+      <c r="A82" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B82" t="s">
         <v>98</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C82" t="s">
         <v>263</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D82" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="2" t="s">
+    <row r="83" spans="1:5">
+      <c r="A83" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B83" t="s">
         <v>105</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C83" t="s">
         <v>265</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D83" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="2" t="s">
+    <row r="84" spans="1:5">
+      <c r="A84" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B84" t="s">
         <v>110</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C84" t="s">
         <v>267</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D84" t="s">
         <v>268</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E84" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="2" t="s">
+    <row r="85" spans="1:5">
+      <c r="A85" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B85" t="s">
         <v>112</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C85" t="s">
         <v>270</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D85" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="2" t="s">
+    <row r="86" spans="1:5">
+      <c r="A86" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B86" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="2" t="s">
+    <row r="87" spans="1:5">
+      <c r="A87" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B87" t="s">
         <v>116</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C87" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="2" t="s">
+    <row r="88" spans="1:5">
+      <c r="A88" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B88" t="s">
         <v>130</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C88" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
         <v>129</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B89" t="s">
         <v>130</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C89" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="2" t="s">
+    <row r="90" spans="1:5">
+      <c r="A90" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B90" t="s">
         <v>137</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C90" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="2" t="s">
+    <row r="91" spans="1:5">
+      <c r="A91" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B91" t="s">
         <v>137</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C91" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
         <v>142</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B92" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C92" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
         <v>145</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B93" t="s">
         <v>146</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C93" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
         <v>214</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="B94" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C94" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
         <v>236</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B95" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
         <v>332</v>
       </c>
-      <c r="B88" s="8" t="s">
+      <c r="B96" s="8" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="2" t="s">
+    <row r="97" spans="1:2">
+      <c r="A97" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B97" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="2" t="s">
+    <row r="98" spans="1:2">
+      <c r="A98" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="B90" s="8" t="s">
+      <c r="B98" s="8" t="s">
         <v>378</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="B91" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" s="4" customFormat="1">
-      <c r="A94" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B95" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B96" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
-        <v>47</v>
-      </c>
-      <c r="B97" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
-        <v>49</v>
-      </c>
-      <c r="B98" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="2" t="s">
-        <v>59</v>
+        <v>395</v>
       </c>
       <c r="B99" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B100" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
-        <v>84</v>
-      </c>
-      <c r="B101" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B102" t="s">
-        <v>86</v>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" s="4" customFormat="1">
+      <c r="A102" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" t="s">
-        <v>93</v>
+      <c r="A103" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B103" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" t="s">
-        <v>156</v>
+      <c r="A104" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="B104" t="s">
-        <v>157</v>
+        <v>43</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>159</v>
+        <v>47</v>
       </c>
       <c r="B105" t="s">
-        <v>158</v>
+        <v>48</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>160</v>
+        <v>49</v>
       </c>
       <c r="B106" t="s">
-        <v>161</v>
+        <v>50</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="2" t="s">
-        <v>173</v>
+        <v>59</v>
       </c>
       <c r="B107" t="s">
-        <v>174</v>
+        <v>60</v>
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" t="s">
-        <v>93</v>
+      <c r="A108" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="B108" t="s">
-        <v>223</v>
+        <v>83</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>289</v>
+        <v>84</v>
       </c>
       <c r="B109" t="s">
-        <v>290</v>
+        <v>83</v>
       </c>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" t="s">
-        <v>306</v>
+      <c r="A110" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="B110" t="s">
-        <v>290</v>
+        <v>86</v>
       </c>
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>307</v>
+        <v>93</v>
       </c>
       <c r="B111" t="s">
-        <v>290</v>
+        <v>92</v>
       </c>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>308</v>
+        <v>156</v>
       </c>
       <c r="B112" t="s">
-        <v>290</v>
+        <v>157</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>309</v>
+        <v>159</v>
       </c>
       <c r="B113" t="s">
-        <v>290</v>
+        <v>158</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>310</v>
+        <v>160</v>
       </c>
       <c r="B114" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B115" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>93</v>
+      </c>
+      <c r="B116" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>289</v>
+      </c>
+      <c r="B117" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="118" spans="1:2" s="4" customFormat="1">
-      <c r="A118" s="5" t="s">
-        <v>291</v>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>306</v>
+      </c>
+      <c r="B118" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>279</v>
+        <v>307</v>
+      </c>
+      <c r="B119" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>308</v>
+      </c>
+      <c r="B120" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>272</v>
+        <v>309</v>
+      </c>
+      <c r="B121" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" t="s">
-        <v>277</v>
+        <v>310</v>
+      </c>
+      <c r="B122" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" s="4" customFormat="1">
+      <c r="A126" s="5" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
-      <c r="A128" t="s">
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="130" spans="1:3" s="4" customFormat="1">
-      <c r="A130" s="4" t="s">
+    <row r="138" spans="1:2" s="4" customFormat="1">
+      <c r="A138" s="4" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
-      <c r="A131" t="s">
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
         <v>339</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B139" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
-      <c r="A132" t="s">
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
-      <c r="A133" t="s">
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
         <v>340</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B141" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
-      <c r="A134" t="s">
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
         <v>341</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B142" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
-      <c r="A135" t="s">
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
         <v>349</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B143" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
-      <c r="A136" t="s">
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
-      <c r="B137" t="s">
+    <row r="145" spans="1:3">
+      <c r="B145" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
-      <c r="B138" t="s">
+    <row r="146" spans="1:3">
+      <c r="B146" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
-      <c r="A139" t="s">
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
         <v>381</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B147" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="15.75">
-      <c r="A140" t="s">
+    <row r="148" spans="1:3" ht="15.75">
+      <c r="A148" t="s">
         <v>383</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B148" t="s">
         <v>346</v>
       </c>
-      <c r="C140" s="9" t="s">
+      <c r="C148" s="9" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="15.75">
-      <c r="B141" s="9" t="s">
+    <row r="149" spans="1:3" ht="15.75">
+      <c r="B149" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="C141" s="9" t="s">
+      <c r="C149" s="9" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="15.75">
-      <c r="B142" s="9" t="s">
+    <row r="150" spans="1:3" ht="15.75">
+      <c r="B150" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C142" s="9" t="s">
+      <c r="C150" s="9" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="15.75">
-      <c r="B143" s="9" t="s">
+    <row r="151" spans="1:3" ht="15.75">
+      <c r="B151" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="C143" s="9" t="s">
+      <c r="C151" s="9" t="s">
         <v>389</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A95" r:id="rId1"/>
+    <hyperlink ref="A103" r:id="rId1"/>
     <hyperlink ref="A6" r:id="rId2"/>
-    <hyperlink ref="A96" r:id="rId3"/>
+    <hyperlink ref="A104" r:id="rId3"/>
     <hyperlink ref="A7" r:id="rId4"/>
-    <hyperlink ref="A99" r:id="rId5"/>
+    <hyperlink ref="A107" r:id="rId5"/>
     <hyperlink ref="A9" r:id="rId6"/>
     <hyperlink ref="A10" r:id="rId7"/>
-    <hyperlink ref="A100" r:id="rId8"/>
-    <hyperlink ref="A102" r:id="rId9"/>
+    <hyperlink ref="A108" r:id="rId8"/>
+    <hyperlink ref="A110" r:id="rId9"/>
     <hyperlink ref="A11" r:id="rId10"/>
-    <hyperlink ref="A74" r:id="rId11" location="/2"/>
-    <hyperlink ref="A76" r:id="rId12"/>
-    <hyperlink ref="A77" r:id="rId13"/>
-    <hyperlink ref="A78" r:id="rId14"/>
-    <hyperlink ref="A79" r:id="rId15"/>
+    <hyperlink ref="A82" r:id="rId11" location="/2"/>
+    <hyperlink ref="A84" r:id="rId12"/>
+    <hyperlink ref="A85" r:id="rId13"/>
+    <hyperlink ref="A86" r:id="rId14"/>
+    <hyperlink ref="A87" r:id="rId15"/>
     <hyperlink ref="A13" r:id="rId16"/>
     <hyperlink ref="A14" r:id="rId17"/>
-    <hyperlink ref="A82" r:id="rId18"/>
+    <hyperlink ref="A90" r:id="rId18"/>
     <hyperlink ref="A15" r:id="rId19"/>
     <hyperlink ref="A16" r:id="rId20"/>
     <hyperlink ref="A18" r:id="rId21"/>
     <hyperlink ref="A19" r:id="rId22"/>
-    <hyperlink ref="A107" r:id="rId23"/>
+    <hyperlink ref="A115" r:id="rId23"/>
     <hyperlink ref="A20" r:id="rId24"/>
     <hyperlink ref="B20" r:id="rId25" display="https://www.youtube.com/watch?v=ZAde-IJAHzo"/>
     <hyperlink ref="A23" r:id="rId26"/>
@@ -8514,19 +8624,20 @@
     <hyperlink ref="A44" r:id="rId44"/>
     <hyperlink ref="A45" r:id="rId45"/>
     <hyperlink ref="A51" r:id="rId46"/>
-    <hyperlink ref="A89" r:id="rId47"/>
+    <hyperlink ref="A97" r:id="rId47"/>
     <hyperlink ref="A60" r:id="rId48"/>
     <hyperlink ref="A61" r:id="rId49"/>
     <hyperlink ref="A62" r:id="rId50"/>
-    <hyperlink ref="A90" r:id="rId51"/>
-    <hyperlink ref="A91" r:id="rId52" location="/"/>
+    <hyperlink ref="A98" r:id="rId51"/>
+    <hyperlink ref="A99" r:id="rId52" location="/"/>
     <hyperlink ref="A66" r:id="rId53"/>
     <hyperlink ref="A67" r:id="rId54"/>
     <hyperlink ref="A68" r:id="rId55"/>
     <hyperlink ref="B69" r:id="rId56" display="https://www.youtube.com/watch?v=8DDVr6wjJzQ"/>
+    <hyperlink ref="A70" r:id="rId57"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId57"/>
-  <legacyDrawing r:id="rId58"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId58"/>
+  <legacyDrawing r:id="rId59"/>
 </worksheet>
 </file>
--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1218" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="415">
   <si>
     <t>Дата начала</t>
   </si>
@@ -1382,6 +1382,18 @@
   </si>
   <si>
     <t>BASIC BABEL + SCSS WORKFLOW | Webpack 2 Basics Tutorial</t>
+  </si>
+  <si>
+    <t>Готово )))</t>
+  </si>
+  <si>
+    <t>Fancy Weather</t>
+  </si>
+  <si>
+    <t>Стартуем</t>
+  </si>
+  <si>
+    <t>npm install -D webpack-cli</t>
   </si>
 </sst>
 </file>
@@ -1435,7 +1447,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1445,6 +1457,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1465,7 +1483,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
@@ -1488,6 +1506,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -1784,10 +1804,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D92"/>
   <sheetViews>
     <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+      <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2788,6 +2808,9 @@
       <c r="A85" s="1">
         <v>43968</v>
       </c>
+      <c r="B85" s="1">
+        <v>43974</v>
+      </c>
       <c r="C85" s="8" t="s">
         <v>399</v>
       </c>
@@ -2856,6 +2879,14 @@
       </c>
       <c r="C91" s="8" t="s">
         <v>410</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="1">
+        <v>43975</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -2876,7 +2907,7 @@
   <dimension ref="A1:D425"/>
   <sheetViews>
     <sheetView topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="D202" sqref="D202:D203"/>
+      <selection activeCell="D205" sqref="D205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5223,7 +5254,7 @@
         <v>399</v>
       </c>
       <c r="D201" t="s">
-        <v>254</v>
+        <v>411</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -5250,6 +5281,12 @@
       </c>
       <c r="B204" t="s">
         <v>9</v>
+      </c>
+      <c r="C204" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="D204" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -7085,10 +7122,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F151"/>
+  <dimension ref="A1:F152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="B151" sqref="B151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8482,7 +8519,7 @@
       </c>
     </row>
     <row r="139" spans="1:2">
-      <c r="A139" t="s">
+      <c r="A139" s="12" t="s">
         <v>339</v>
       </c>
       <c r="B139" t="s">
@@ -8490,12 +8527,12 @@
       </c>
     </row>
     <row r="140" spans="1:2">
-      <c r="A140" t="s">
+      <c r="A140" s="12" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="141" spans="1:2">
-      <c r="A141" t="s">
+      <c r="A141" s="12" t="s">
         <v>340</v>
       </c>
       <c r="B141" t="s">
@@ -8503,7 +8540,7 @@
       </c>
     </row>
     <row r="142" spans="1:2">
-      <c r="A142" t="s">
+      <c r="A142" s="12" t="s">
         <v>341</v>
       </c>
       <c r="B142" t="s">
@@ -8553,7 +8590,7 @@
       </c>
     </row>
     <row r="149" spans="1:3" ht="15.75">
-      <c r="B149" s="9" t="s">
+      <c r="B149" s="13" t="s">
         <v>385</v>
       </c>
       <c r="C149" s="9" t="s">
@@ -8561,18 +8598,24 @@
       </c>
     </row>
     <row r="150" spans="1:3" ht="15.75">
-      <c r="B150" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="C150" s="9" t="s">
-        <v>388</v>
-      </c>
+      <c r="B150" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="C150" s="9"/>
     </row>
     <row r="151" spans="1:3" ht="15.75">
       <c r="B151" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="15.75">
+      <c r="B152" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="C151" s="9" t="s">
+      <c r="C152" s="9" t="s">
         <v>389</v>
       </c>
     </row>

--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="421">
   <si>
     <t>Дата начала</t>
   </si>
@@ -1394,6 +1394,24 @@
   </si>
   <si>
     <t>npm install -D webpack-cli</t>
+  </si>
+  <si>
+    <t>Network communication (1/3)</t>
+  </si>
+  <si>
+    <t>Network communication (2/3)</t>
+  </si>
+  <si>
+    <t>Network communication (3/3)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4jA9Nea51T8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_8GoJck9O9Y</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DYR8g_kI9Xs</t>
   </si>
 </sst>
 </file>
@@ -1804,10 +1822,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:D92"/>
+  <dimension ref="A1:D93"/>
   <sheetViews>
     <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+      <selection activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2887,6 +2905,14 @@
       </c>
       <c r="C92" s="8" t="s">
         <v>412</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="1">
+        <v>43975</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -2904,10 +2930,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D425"/>
+  <dimension ref="A1:D426"/>
   <sheetViews>
     <sheetView topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="D205" sqref="D205"/>
+      <selection activeCell="C206" sqref="C206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5290,1770 +5316,1779 @@
       </c>
     </row>
     <row r="205" spans="1:4">
-      <c r="A205" s="1">
-        <v>43976</v>
-      </c>
-      <c r="B205" t="s">
-        <v>10</v>
+      <c r="A205" s="1"/>
+      <c r="C205" s="8" t="s">
+        <v>418</v>
+      </c>
+      <c r="D205" s="8" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="1">
-        <v>43977</v>
+        <v>43976</v>
       </c>
       <c r="B206" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="1">
-        <v>43978</v>
+        <v>43977</v>
       </c>
       <c r="B207" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="1">
-        <v>43979</v>
+        <v>43978</v>
       </c>
       <c r="B208" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="1">
-        <v>43980</v>
+        <v>43979</v>
       </c>
       <c r="B209" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="1">
-        <v>43981</v>
+        <v>43980</v>
       </c>
       <c r="B210" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="1">
-        <v>43982</v>
+        <v>43981</v>
       </c>
       <c r="B211" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="1">
-        <v>43983</v>
+        <v>43982</v>
       </c>
       <c r="B212" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="1">
-        <v>43984</v>
+        <v>43983</v>
       </c>
       <c r="B213" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="1">
-        <v>43985</v>
+        <v>43984</v>
       </c>
       <c r="B214" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="1">
-        <v>43986</v>
+        <v>43985</v>
       </c>
       <c r="B215" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="1">
-        <v>43987</v>
+        <v>43986</v>
       </c>
       <c r="B216" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="1">
-        <v>43988</v>
+        <v>43987</v>
       </c>
       <c r="B217" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="1">
-        <v>43989</v>
+        <v>43988</v>
       </c>
       <c r="B218" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="1">
-        <v>43990</v>
+        <v>43989</v>
       </c>
       <c r="B219" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="1">
-        <v>43991</v>
+        <v>43990</v>
       </c>
       <c r="B220" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="1">
-        <v>43992</v>
+        <v>43991</v>
       </c>
       <c r="B221" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="1">
-        <v>43993</v>
+        <v>43992</v>
       </c>
       <c r="B222" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="1">
-        <v>43994</v>
+        <v>43993</v>
       </c>
       <c r="B223" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="1">
-        <v>43995</v>
+        <v>43994</v>
       </c>
       <c r="B224" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="1">
-        <v>43996</v>
+        <v>43995</v>
       </c>
       <c r="B225" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="1">
-        <v>43997</v>
+        <v>43996</v>
       </c>
       <c r="B226" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="1">
-        <v>43998</v>
+        <v>43997</v>
       </c>
       <c r="B227" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="1">
-        <v>43999</v>
+        <v>43998</v>
       </c>
       <c r="B228" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="1">
-        <v>44000</v>
+        <v>43999</v>
       </c>
       <c r="B229" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="1">
-        <v>44001</v>
+        <v>44000</v>
       </c>
       <c r="B230" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="1">
-        <v>44002</v>
+        <v>44001</v>
       </c>
       <c r="B231" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="1">
-        <v>44003</v>
+        <v>44002</v>
       </c>
       <c r="B232" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="1">
-        <v>44004</v>
+        <v>44003</v>
       </c>
       <c r="B233" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="1">
-        <v>44005</v>
+        <v>44004</v>
       </c>
       <c r="B234" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="1">
-        <v>44006</v>
+        <v>44005</v>
       </c>
       <c r="B235" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="1">
-        <v>44007</v>
+        <v>44006</v>
       </c>
       <c r="B236" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="1">
-        <v>44008</v>
+        <v>44007</v>
       </c>
       <c r="B237" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="1">
-        <v>44009</v>
+        <v>44008</v>
       </c>
       <c r="B238" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="1">
-        <v>44010</v>
+        <v>44009</v>
       </c>
       <c r="B239" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="1">
-        <v>44011</v>
+        <v>44010</v>
       </c>
       <c r="B240" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="1">
-        <v>44012</v>
+        <v>44011</v>
       </c>
       <c r="B241" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="1">
-        <v>44013</v>
+        <v>44012</v>
       </c>
       <c r="B242" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="1">
-        <v>44014</v>
+        <v>44013</v>
       </c>
       <c r="B243" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="1">
-        <v>44015</v>
+        <v>44014</v>
       </c>
       <c r="B244" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="1">
-        <v>44016</v>
+        <v>44015</v>
       </c>
       <c r="B245" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="1">
-        <v>44017</v>
+        <v>44016</v>
       </c>
       <c r="B246" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="1">
-        <v>44018</v>
+        <v>44017</v>
       </c>
       <c r="B247" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="1">
-        <v>44019</v>
+        <v>44018</v>
       </c>
       <c r="B248" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="1">
-        <v>44020</v>
+        <v>44019</v>
       </c>
       <c r="B249" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="1">
-        <v>44021</v>
+        <v>44020</v>
       </c>
       <c r="B250" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="1">
-        <v>44022</v>
+        <v>44021</v>
       </c>
       <c r="B251" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="1">
-        <v>44023</v>
+        <v>44022</v>
       </c>
       <c r="B252" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="1">
-        <v>44024</v>
+        <v>44023</v>
       </c>
       <c r="B253" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="1">
-        <v>44025</v>
+        <v>44024</v>
       </c>
       <c r="B254" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="1">
-        <v>44026</v>
+        <v>44025</v>
       </c>
       <c r="B255" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="1">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B256" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="1">
-        <v>44028</v>
+        <v>44027</v>
       </c>
       <c r="B257" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="1">
-        <v>44029</v>
+        <v>44028</v>
       </c>
       <c r="B258" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="1">
-        <v>44030</v>
+        <v>44029</v>
       </c>
       <c r="B259" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="1">
-        <v>44031</v>
+        <v>44030</v>
       </c>
       <c r="B260" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="1">
-        <v>44032</v>
+        <v>44031</v>
       </c>
       <c r="B261" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="1">
-        <v>44033</v>
+        <v>44032</v>
       </c>
       <c r="B262" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="1">
-        <v>44034</v>
+        <v>44033</v>
       </c>
       <c r="B263" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="1">
-        <v>44035</v>
+        <v>44034</v>
       </c>
       <c r="B264" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="1">
-        <v>44036</v>
+        <v>44035</v>
       </c>
       <c r="B265" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="1">
-        <v>44037</v>
+        <v>44036</v>
       </c>
       <c r="B266" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="1">
-        <v>44038</v>
+        <v>44037</v>
       </c>
       <c r="B267" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="1">
-        <v>44039</v>
+        <v>44038</v>
       </c>
       <c r="B268" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="1">
-        <v>44040</v>
+        <v>44039</v>
       </c>
       <c r="B269" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="1">
-        <v>44041</v>
+        <v>44040</v>
       </c>
       <c r="B270" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="1">
-        <v>44042</v>
+        <v>44041</v>
       </c>
       <c r="B271" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="1">
-        <v>44043</v>
+        <v>44042</v>
       </c>
       <c r="B272" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="1">
-        <v>44044</v>
+        <v>44043</v>
       </c>
       <c r="B273" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="1">
-        <v>44045</v>
+        <v>44044</v>
       </c>
       <c r="B274" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="1">
-        <v>44046</v>
+        <v>44045</v>
       </c>
       <c r="B275" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="1">
-        <v>44047</v>
+        <v>44046</v>
       </c>
       <c r="B276" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="1">
-        <v>44048</v>
+        <v>44047</v>
       </c>
       <c r="B277" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="1">
-        <v>44049</v>
+        <v>44048</v>
       </c>
       <c r="B278" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="1">
-        <v>44050</v>
+        <v>44049</v>
       </c>
       <c r="B279" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="1">
-        <v>44051</v>
+        <v>44050</v>
       </c>
       <c r="B280" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="1">
-        <v>44052</v>
+        <v>44051</v>
       </c>
       <c r="B281" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="1">
-        <v>44053</v>
+        <v>44052</v>
       </c>
       <c r="B282" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="1">
-        <v>44054</v>
+        <v>44053</v>
       </c>
       <c r="B283" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="1">
-        <v>44055</v>
+        <v>44054</v>
       </c>
       <c r="B284" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="1">
-        <v>44056</v>
+        <v>44055</v>
       </c>
       <c r="B285" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="1">
-        <v>44057</v>
+        <v>44056</v>
       </c>
       <c r="B286" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="1">
-        <v>44058</v>
+        <v>44057</v>
       </c>
       <c r="B287" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="1">
-        <v>44059</v>
+        <v>44058</v>
       </c>
       <c r="B288" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="1">
-        <v>44060</v>
+        <v>44059</v>
       </c>
       <c r="B289" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="1">
-        <v>44061</v>
+        <v>44060</v>
       </c>
       <c r="B290" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="1">
-        <v>44062</v>
+        <v>44061</v>
       </c>
       <c r="B291" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="1">
-        <v>44063</v>
+        <v>44062</v>
       </c>
       <c r="B292" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="1">
-        <v>44064</v>
+        <v>44063</v>
       </c>
       <c r="B293" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="1">
-        <v>44065</v>
+        <v>44064</v>
       </c>
       <c r="B294" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="1">
-        <v>44066</v>
+        <v>44065</v>
       </c>
       <c r="B295" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="1">
-        <v>44067</v>
+        <v>44066</v>
       </c>
       <c r="B296" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="1">
-        <v>44068</v>
+        <v>44067</v>
       </c>
       <c r="B297" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="1">
-        <v>44069</v>
+        <v>44068</v>
       </c>
       <c r="B298" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="1">
-        <v>44070</v>
+        <v>44069</v>
       </c>
       <c r="B299" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="1">
-        <v>44071</v>
+        <v>44070</v>
       </c>
       <c r="B300" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="1">
-        <v>44072</v>
+        <v>44071</v>
       </c>
       <c r="B301" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="1">
-        <v>44073</v>
+        <v>44072</v>
       </c>
       <c r="B302" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="1">
-        <v>44074</v>
+        <v>44073</v>
       </c>
       <c r="B303" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="1">
-        <v>44075</v>
+        <v>44074</v>
       </c>
       <c r="B304" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="1">
-        <v>44076</v>
+        <v>44075</v>
       </c>
       <c r="B305" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="1">
-        <v>44077</v>
+        <v>44076</v>
       </c>
       <c r="B306" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="1">
-        <v>44078</v>
+        <v>44077</v>
       </c>
       <c r="B307" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="1">
-        <v>44079</v>
+        <v>44078</v>
       </c>
       <c r="B308" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="1">
-        <v>44080</v>
+        <v>44079</v>
       </c>
       <c r="B309" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="1">
-        <v>44081</v>
+        <v>44080</v>
       </c>
       <c r="B310" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="1">
-        <v>44082</v>
+        <v>44081</v>
       </c>
       <c r="B311" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="1">
-        <v>44083</v>
+        <v>44082</v>
       </c>
       <c r="B312" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="1">
-        <v>44084</v>
+        <v>44083</v>
       </c>
       <c r="B313" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="1">
-        <v>44085</v>
+        <v>44084</v>
       </c>
       <c r="B314" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="1">
-        <v>44086</v>
+        <v>44085</v>
       </c>
       <c r="B315" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="1">
-        <v>44087</v>
+        <v>44086</v>
       </c>
       <c r="B316" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="1">
-        <v>44088</v>
+        <v>44087</v>
       </c>
       <c r="B317" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="1">
-        <v>44089</v>
+        <v>44088</v>
       </c>
       <c r="B318" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="1">
-        <v>44090</v>
+        <v>44089</v>
       </c>
       <c r="B319" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="1">
-        <v>44091</v>
+        <v>44090</v>
       </c>
       <c r="B320" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="1">
-        <v>44092</v>
+        <v>44091</v>
       </c>
       <c r="B321" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="1">
-        <v>44093</v>
+        <v>44092</v>
       </c>
       <c r="B322" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="1">
-        <v>44094</v>
+        <v>44093</v>
       </c>
       <c r="B323" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="1">
-        <v>44095</v>
+        <v>44094</v>
       </c>
       <c r="B324" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="1">
-        <v>44096</v>
+        <v>44095</v>
       </c>
       <c r="B325" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="1">
-        <v>44097</v>
+        <v>44096</v>
       </c>
       <c r="B326" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="1">
-        <v>44098</v>
+        <v>44097</v>
       </c>
       <c r="B327" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="1">
-        <v>44099</v>
+        <v>44098</v>
       </c>
       <c r="B328" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="1">
-        <v>44100</v>
+        <v>44099</v>
       </c>
       <c r="B329" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="1">
-        <v>44101</v>
+        <v>44100</v>
       </c>
       <c r="B330" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="1">
-        <v>44102</v>
+        <v>44101</v>
       </c>
       <c r="B331" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="1">
-        <v>44103</v>
+        <v>44102</v>
       </c>
       <c r="B332" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="1">
-        <v>44104</v>
+        <v>44103</v>
       </c>
       <c r="B333" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="1">
-        <v>44105</v>
+        <v>44104</v>
       </c>
       <c r="B334" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="1">
-        <v>44106</v>
+        <v>44105</v>
       </c>
       <c r="B335" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="1">
-        <v>44107</v>
+        <v>44106</v>
       </c>
       <c r="B336" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="1">
-        <v>44108</v>
+        <v>44107</v>
       </c>
       <c r="B337" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="1">
-        <v>44109</v>
+        <v>44108</v>
       </c>
       <c r="B338" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="1">
-        <v>44110</v>
+        <v>44109</v>
       </c>
       <c r="B339" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="1">
-        <v>44111</v>
+        <v>44110</v>
       </c>
       <c r="B340" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="1">
-        <v>44112</v>
+        <v>44111</v>
       </c>
       <c r="B341" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="1">
-        <v>44113</v>
+        <v>44112</v>
       </c>
       <c r="B342" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="1">
-        <v>44114</v>
+        <v>44113</v>
       </c>
       <c r="B343" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="1">
-        <v>44115</v>
+        <v>44114</v>
       </c>
       <c r="B344" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="1">
-        <v>44116</v>
+        <v>44115</v>
       </c>
       <c r="B345" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="1">
-        <v>44117</v>
+        <v>44116</v>
       </c>
       <c r="B346" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="1">
-        <v>44118</v>
+        <v>44117</v>
       </c>
       <c r="B347" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="1">
-        <v>44119</v>
+        <v>44118</v>
       </c>
       <c r="B348" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="1">
-        <v>44120</v>
+        <v>44119</v>
       </c>
       <c r="B349" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="1">
-        <v>44121</v>
+        <v>44120</v>
       </c>
       <c r="B350" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="1">
-        <v>44122</v>
+        <v>44121</v>
       </c>
       <c r="B351" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="1">
-        <v>44123</v>
+        <v>44122</v>
       </c>
       <c r="B352" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="1">
-        <v>44124</v>
+        <v>44123</v>
       </c>
       <c r="B353" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="1">
-        <v>44125</v>
+        <v>44124</v>
       </c>
       <c r="B354" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="1">
-        <v>44126</v>
+        <v>44125</v>
       </c>
       <c r="B355" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="1">
-        <v>44127</v>
+        <v>44126</v>
       </c>
       <c r="B356" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="1">
-        <v>44128</v>
+        <v>44127</v>
       </c>
       <c r="B357" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="1">
-        <v>44129</v>
+        <v>44128</v>
       </c>
       <c r="B358" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="1">
-        <v>44130</v>
+        <v>44129</v>
       </c>
       <c r="B359" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="1">
-        <v>44131</v>
+        <v>44130</v>
       </c>
       <c r="B360" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="1">
-        <v>44132</v>
+        <v>44131</v>
       </c>
       <c r="B361" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="1">
-        <v>44133</v>
+        <v>44132</v>
       </c>
       <c r="B362" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="1">
-        <v>44134</v>
+        <v>44133</v>
       </c>
       <c r="B363" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="1">
-        <v>44135</v>
+        <v>44134</v>
       </c>
       <c r="B364" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="1">
-        <v>44136</v>
+        <v>44135</v>
       </c>
       <c r="B365" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="1">
-        <v>44137</v>
+        <v>44136</v>
       </c>
       <c r="B366" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="1">
-        <v>44138</v>
+        <v>44137</v>
       </c>
       <c r="B367" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="1">
-        <v>44139</v>
+        <v>44138</v>
       </c>
       <c r="B368" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="1">
-        <v>44140</v>
+        <v>44139</v>
       </c>
       <c r="B369" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="1">
-        <v>44141</v>
+        <v>44140</v>
       </c>
       <c r="B370" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="1">
-        <v>44142</v>
+        <v>44141</v>
       </c>
       <c r="B371" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="1">
-        <v>44143</v>
+        <v>44142</v>
       </c>
       <c r="B372" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="1">
-        <v>44144</v>
+        <v>44143</v>
       </c>
       <c r="B373" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="1">
-        <v>44145</v>
+        <v>44144</v>
       </c>
       <c r="B374" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="1">
-        <v>44146</v>
+        <v>44145</v>
       </c>
       <c r="B375" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="1">
-        <v>44147</v>
+        <v>44146</v>
       </c>
       <c r="B376" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="1">
-        <v>44148</v>
+        <v>44147</v>
       </c>
       <c r="B377" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="1">
-        <v>44149</v>
+        <v>44148</v>
       </c>
       <c r="B378" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="1">
-        <v>44150</v>
+        <v>44149</v>
       </c>
       <c r="B379" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="1">
-        <v>44151</v>
+        <v>44150</v>
       </c>
       <c r="B380" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="1">
-        <v>44152</v>
+        <v>44151</v>
       </c>
       <c r="B381" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="1">
-        <v>44153</v>
+        <v>44152</v>
       </c>
       <c r="B382" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="1">
-        <v>44154</v>
+        <v>44153</v>
       </c>
       <c r="B383" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="1">
-        <v>44155</v>
+        <v>44154</v>
       </c>
       <c r="B384" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="1">
-        <v>44156</v>
+        <v>44155</v>
       </c>
       <c r="B385" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="1">
-        <v>44157</v>
+        <v>44156</v>
       </c>
       <c r="B386" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="1">
-        <v>44158</v>
+        <v>44157</v>
       </c>
       <c r="B387" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="1">
-        <v>44159</v>
+        <v>44158</v>
       </c>
       <c r="B388" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="1">
-        <v>44160</v>
+        <v>44159</v>
       </c>
       <c r="B389" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="1">
-        <v>44161</v>
+        <v>44160</v>
       </c>
       <c r="B390" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="1">
-        <v>44162</v>
+        <v>44161</v>
       </c>
       <c r="B391" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="1">
-        <v>44163</v>
+        <v>44162</v>
       </c>
       <c r="B392" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="1">
-        <v>44164</v>
+        <v>44163</v>
       </c>
       <c r="B393" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="1">
-        <v>44165</v>
+        <v>44164</v>
       </c>
       <c r="B394" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="1">
-        <v>44166</v>
+        <v>44165</v>
       </c>
       <c r="B395" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="1">
-        <v>44167</v>
+        <v>44166</v>
       </c>
       <c r="B396" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="1">
-        <v>44168</v>
+        <v>44167</v>
       </c>
       <c r="B397" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="1">
-        <v>44169</v>
+        <v>44168</v>
       </c>
       <c r="B398" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="1">
-        <v>44170</v>
+        <v>44169</v>
       </c>
       <c r="B399" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="1">
-        <v>44171</v>
+        <v>44170</v>
       </c>
       <c r="B400" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="1">
-        <v>44172</v>
+        <v>44171</v>
       </c>
       <c r="B401" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="1">
-        <v>44173</v>
+        <v>44172</v>
       </c>
       <c r="B402" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="1">
-        <v>44174</v>
+        <v>44173</v>
       </c>
       <c r="B403" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="1">
-        <v>44175</v>
+        <v>44174</v>
       </c>
       <c r="B404" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="1">
-        <v>44176</v>
+        <v>44175</v>
       </c>
       <c r="B405" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="1">
-        <v>44177</v>
+        <v>44176</v>
       </c>
       <c r="B406" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="1">
-        <v>44178</v>
+        <v>44177</v>
       </c>
       <c r="B407" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="1">
-        <v>44179</v>
+        <v>44178</v>
       </c>
       <c r="B408" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="1">
-        <v>44180</v>
+        <v>44179</v>
       </c>
       <c r="B409" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="1">
-        <v>44181</v>
+        <v>44180</v>
       </c>
       <c r="B410" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="1">
-        <v>44182</v>
+        <v>44181</v>
       </c>
       <c r="B411" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="1">
-        <v>44183</v>
+        <v>44182</v>
       </c>
       <c r="B412" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="1">
-        <v>44184</v>
+        <v>44183</v>
       </c>
       <c r="B413" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="1">
-        <v>44185</v>
+        <v>44184</v>
       </c>
       <c r="B414" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="1">
-        <v>44186</v>
+        <v>44185</v>
       </c>
       <c r="B415" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="1">
-        <v>44187</v>
+        <v>44186</v>
       </c>
       <c r="B416" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="1">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="B417" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="1">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="B418" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="1">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="B419" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="1">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="B420" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="1">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="B421" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="1">
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="B422" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="1">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="B423" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="1">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B424" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="1">
+        <v>44195</v>
+      </c>
+      <c r="B425" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2">
+      <c r="A426" s="1">
         <v>44196</v>
       </c>
-      <c r="B425" t="s">
+      <c r="B426" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7124,8 +7159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="B151" sqref="B151"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8068,16 +8103,37 @@
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="2"/>
-      <c r="B72" s="8"/>
+      <c r="A72" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="C72" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="2"/>
-      <c r="B73" s="8"/>
+      <c r="A73" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="C73" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="2"/>
-      <c r="B74" s="8"/>
+      <c r="A74" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="C74" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2"/>
@@ -8678,9 +8734,12 @@
     <hyperlink ref="A68" r:id="rId55"/>
     <hyperlink ref="B69" r:id="rId56" display="https://www.youtube.com/watch?v=8DDVr6wjJzQ"/>
     <hyperlink ref="A70" r:id="rId57"/>
+    <hyperlink ref="A72" r:id="rId58"/>
+    <hyperlink ref="A73" r:id="rId59"/>
+    <hyperlink ref="A74" r:id="rId60"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId58"/>
-  <legacyDrawing r:id="rId59"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId61"/>
+  <legacyDrawing r:id="rId62"/>
 </worksheet>
 </file>
--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="423">
   <si>
     <t>Дата начала</t>
   </si>
@@ -1412,6 +1412,12 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=DYR8g_kI9Xs</t>
+  </si>
+  <si>
+    <t>parcel-bandler</t>
+  </si>
+  <si>
+    <t>bkeepers/dotenv</t>
   </si>
 </sst>
 </file>
@@ -1822,10 +1828,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:D93"/>
+  <dimension ref="A1:D95"/>
   <sheetViews>
     <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93"/>
+      <selection activeCell="A95" sqref="A95:B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2911,8 +2917,33 @@
       <c r="A93" s="1">
         <v>43975</v>
       </c>
+      <c r="B93" s="1">
+        <v>43975</v>
+      </c>
       <c r="C93" s="8" t="s">
         <v>415</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="1">
+        <v>43976</v>
+      </c>
+      <c r="B94" s="1">
+        <v>43976</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="1">
+        <v>43976</v>
+      </c>
+      <c r="B95" s="1">
+        <v>43976</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -2930,10 +2961,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D426"/>
+  <dimension ref="A1:D428"/>
   <sheetViews>
     <sheetView topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="C206" sqref="C206"/>
+      <selection activeCell="C208" sqref="C208:D208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5331,1764 +5362,1788 @@
       <c r="B206" t="s">
         <v>10</v>
       </c>
+      <c r="C206" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="D206" s="8" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="207" spans="1:4">
-      <c r="A207" s="1">
-        <v>43977</v>
-      </c>
-      <c r="B207" t="s">
-        <v>11</v>
+      <c r="A207" s="1"/>
+      <c r="C207" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="D207" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="208" spans="1:4">
-      <c r="A208" s="1">
-        <v>43978</v>
-      </c>
-      <c r="B208" t="s">
-        <v>12</v>
+      <c r="A208" s="1"/>
+      <c r="C208" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D208" s="8" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="209" spans="1:2">
       <c r="A209" s="1">
-        <v>43979</v>
+        <v>43977</v>
       </c>
       <c r="B209" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="1">
-        <v>43980</v>
+        <v>43978</v>
       </c>
       <c r="B210" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="1">
-        <v>43981</v>
+        <v>43979</v>
       </c>
       <c r="B211" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="1">
-        <v>43982</v>
+        <v>43980</v>
       </c>
       <c r="B212" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="1">
-        <v>43983</v>
+        <v>43981</v>
       </c>
       <c r="B213" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="214" spans="1:2">
       <c r="A214" s="1">
-        <v>43984</v>
+        <v>43982</v>
       </c>
       <c r="B214" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="215" spans="1:2">
       <c r="A215" s="1">
-        <v>43985</v>
+        <v>43983</v>
       </c>
       <c r="B215" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="1">
-        <v>43986</v>
+        <v>43984</v>
       </c>
       <c r="B216" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="217" spans="1:2">
       <c r="A217" s="1">
-        <v>43987</v>
+        <v>43985</v>
       </c>
       <c r="B217" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="218" spans="1:2">
       <c r="A218" s="1">
-        <v>43988</v>
+        <v>43986</v>
       </c>
       <c r="B218" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="219" spans="1:2">
       <c r="A219" s="1">
-        <v>43989</v>
+        <v>43987</v>
       </c>
       <c r="B219" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="220" spans="1:2">
       <c r="A220" s="1">
-        <v>43990</v>
+        <v>43988</v>
       </c>
       <c r="B220" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="221" spans="1:2">
       <c r="A221" s="1">
-        <v>43991</v>
+        <v>43989</v>
       </c>
       <c r="B221" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="222" spans="1:2">
       <c r="A222" s="1">
-        <v>43992</v>
+        <v>43990</v>
       </c>
       <c r="B222" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="223" spans="1:2">
       <c r="A223" s="1">
-        <v>43993</v>
+        <v>43991</v>
       </c>
       <c r="B223" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="1">
-        <v>43994</v>
+        <v>43992</v>
       </c>
       <c r="B224" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="1">
-        <v>43995</v>
+        <v>43993</v>
       </c>
       <c r="B225" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="1">
-        <v>43996</v>
+        <v>43994</v>
       </c>
       <c r="B226" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="1">
-        <v>43997</v>
+        <v>43995</v>
       </c>
       <c r="B227" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="1">
-        <v>43998</v>
+        <v>43996</v>
       </c>
       <c r="B228" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="1">
-        <v>43999</v>
+        <v>43997</v>
       </c>
       <c r="B229" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="1">
-        <v>44000</v>
+        <v>43998</v>
       </c>
       <c r="B230" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="1">
-        <v>44001</v>
+        <v>43999</v>
       </c>
       <c r="B231" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="1">
-        <v>44002</v>
+        <v>44000</v>
       </c>
       <c r="B232" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="1">
-        <v>44003</v>
+        <v>44001</v>
       </c>
       <c r="B233" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="1">
-        <v>44004</v>
+        <v>44002</v>
       </c>
       <c r="B234" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="1">
-        <v>44005</v>
+        <v>44003</v>
       </c>
       <c r="B235" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="1">
-        <v>44006</v>
+        <v>44004</v>
       </c>
       <c r="B236" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="1">
-        <v>44007</v>
+        <v>44005</v>
       </c>
       <c r="B237" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="1">
-        <v>44008</v>
+        <v>44006</v>
       </c>
       <c r="B238" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="1">
-        <v>44009</v>
+        <v>44007</v>
       </c>
       <c r="B239" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="1">
-        <v>44010</v>
+        <v>44008</v>
       </c>
       <c r="B240" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="1">
-        <v>44011</v>
+        <v>44009</v>
       </c>
       <c r="B241" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="1">
-        <v>44012</v>
+        <v>44010</v>
       </c>
       <c r="B242" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="1">
-        <v>44013</v>
+        <v>44011</v>
       </c>
       <c r="B243" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="1">
-        <v>44014</v>
+        <v>44012</v>
       </c>
       <c r="B244" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="1">
-        <v>44015</v>
+        <v>44013</v>
       </c>
       <c r="B245" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="1">
-        <v>44016</v>
+        <v>44014</v>
       </c>
       <c r="B246" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="1">
-        <v>44017</v>
+        <v>44015</v>
       </c>
       <c r="B247" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="1">
-        <v>44018</v>
+        <v>44016</v>
       </c>
       <c r="B248" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="1">
-        <v>44019</v>
+        <v>44017</v>
       </c>
       <c r="B249" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="1">
-        <v>44020</v>
+        <v>44018</v>
       </c>
       <c r="B250" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="1">
-        <v>44021</v>
+        <v>44019</v>
       </c>
       <c r="B251" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="1">
-        <v>44022</v>
+        <v>44020</v>
       </c>
       <c r="B252" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="1">
-        <v>44023</v>
+        <v>44021</v>
       </c>
       <c r="B253" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="1">
-        <v>44024</v>
+        <v>44022</v>
       </c>
       <c r="B254" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="1">
-        <v>44025</v>
+        <v>44023</v>
       </c>
       <c r="B255" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="1">
-        <v>44026</v>
+        <v>44024</v>
       </c>
       <c r="B256" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="1">
-        <v>44027</v>
+        <v>44025</v>
       </c>
       <c r="B257" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="1">
-        <v>44028</v>
+        <v>44026</v>
       </c>
       <c r="B258" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="1">
-        <v>44029</v>
+        <v>44027</v>
       </c>
       <c r="B259" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="1">
-        <v>44030</v>
+        <v>44028</v>
       </c>
       <c r="B260" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="1">
-        <v>44031</v>
+        <v>44029</v>
       </c>
       <c r="B261" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="1">
-        <v>44032</v>
+        <v>44030</v>
       </c>
       <c r="B262" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="1">
-        <v>44033</v>
+        <v>44031</v>
       </c>
       <c r="B263" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="1">
-        <v>44034</v>
+        <v>44032</v>
       </c>
       <c r="B264" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="1">
-        <v>44035</v>
+        <v>44033</v>
       </c>
       <c r="B265" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="1">
-        <v>44036</v>
+        <v>44034</v>
       </c>
       <c r="B266" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="1">
-        <v>44037</v>
+        <v>44035</v>
       </c>
       <c r="B267" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="1">
-        <v>44038</v>
+        <v>44036</v>
       </c>
       <c r="B268" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="1">
-        <v>44039</v>
+        <v>44037</v>
       </c>
       <c r="B269" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="1">
-        <v>44040</v>
+        <v>44038</v>
       </c>
       <c r="B270" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="1">
-        <v>44041</v>
+        <v>44039</v>
       </c>
       <c r="B271" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="1">
-        <v>44042</v>
+        <v>44040</v>
       </c>
       <c r="B272" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="1">
-        <v>44043</v>
+        <v>44041</v>
       </c>
       <c r="B273" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="1">
-        <v>44044</v>
+        <v>44042</v>
       </c>
       <c r="B274" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="1">
-        <v>44045</v>
+        <v>44043</v>
       </c>
       <c r="B275" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="1">
-        <v>44046</v>
+        <v>44044</v>
       </c>
       <c r="B276" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="1">
-        <v>44047</v>
+        <v>44045</v>
       </c>
       <c r="B277" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="1">
-        <v>44048</v>
+        <v>44046</v>
       </c>
       <c r="B278" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="1">
-        <v>44049</v>
+        <v>44047</v>
       </c>
       <c r="B279" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="1">
-        <v>44050</v>
+        <v>44048</v>
       </c>
       <c r="B280" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="1">
-        <v>44051</v>
+        <v>44049</v>
       </c>
       <c r="B281" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="1">
-        <v>44052</v>
+        <v>44050</v>
       </c>
       <c r="B282" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="1">
-        <v>44053</v>
+        <v>44051</v>
       </c>
       <c r="B283" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="1">
-        <v>44054</v>
+        <v>44052</v>
       </c>
       <c r="B284" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="1">
-        <v>44055</v>
+        <v>44053</v>
       </c>
       <c r="B285" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="1">
-        <v>44056</v>
+        <v>44054</v>
       </c>
       <c r="B286" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="1">
-        <v>44057</v>
+        <v>44055</v>
       </c>
       <c r="B287" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="1">
-        <v>44058</v>
+        <v>44056</v>
       </c>
       <c r="B288" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="1">
-        <v>44059</v>
+        <v>44057</v>
       </c>
       <c r="B289" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="1">
-        <v>44060</v>
+        <v>44058</v>
       </c>
       <c r="B290" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="1">
-        <v>44061</v>
+        <v>44059</v>
       </c>
       <c r="B291" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="1">
-        <v>44062</v>
+        <v>44060</v>
       </c>
       <c r="B292" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="1">
-        <v>44063</v>
+        <v>44061</v>
       </c>
       <c r="B293" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="1">
-        <v>44064</v>
+        <v>44062</v>
       </c>
       <c r="B294" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="1">
-        <v>44065</v>
+        <v>44063</v>
       </c>
       <c r="B295" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="1">
-        <v>44066</v>
+        <v>44064</v>
       </c>
       <c r="B296" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="1">
-        <v>44067</v>
+        <v>44065</v>
       </c>
       <c r="B297" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="1">
-        <v>44068</v>
+        <v>44066</v>
       </c>
       <c r="B298" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="1">
-        <v>44069</v>
+        <v>44067</v>
       </c>
       <c r="B299" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="1">
-        <v>44070</v>
+        <v>44068</v>
       </c>
       <c r="B300" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="1">
-        <v>44071</v>
+        <v>44069</v>
       </c>
       <c r="B301" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="1">
-        <v>44072</v>
+        <v>44070</v>
       </c>
       <c r="B302" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="1">
-        <v>44073</v>
+        <v>44071</v>
       </c>
       <c r="B303" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="1">
-        <v>44074</v>
+        <v>44072</v>
       </c>
       <c r="B304" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="1">
-        <v>44075</v>
+        <v>44073</v>
       </c>
       <c r="B305" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="1">
-        <v>44076</v>
+        <v>44074</v>
       </c>
       <c r="B306" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="1">
-        <v>44077</v>
+        <v>44075</v>
       </c>
       <c r="B307" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="1">
-        <v>44078</v>
+        <v>44076</v>
       </c>
       <c r="B308" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="1">
-        <v>44079</v>
+        <v>44077</v>
       </c>
       <c r="B309" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="1">
-        <v>44080</v>
+        <v>44078</v>
       </c>
       <c r="B310" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="1">
-        <v>44081</v>
+        <v>44079</v>
       </c>
       <c r="B311" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="1">
-        <v>44082</v>
+        <v>44080</v>
       </c>
       <c r="B312" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="1">
-        <v>44083</v>
+        <v>44081</v>
       </c>
       <c r="B313" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="1">
-        <v>44084</v>
+        <v>44082</v>
       </c>
       <c r="B314" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="1">
-        <v>44085</v>
+        <v>44083</v>
       </c>
       <c r="B315" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="1">
-        <v>44086</v>
+        <v>44084</v>
       </c>
       <c r="B316" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="1">
-        <v>44087</v>
+        <v>44085</v>
       </c>
       <c r="B317" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="1">
-        <v>44088</v>
+        <v>44086</v>
       </c>
       <c r="B318" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="1">
-        <v>44089</v>
+        <v>44087</v>
       </c>
       <c r="B319" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="1">
-        <v>44090</v>
+        <v>44088</v>
       </c>
       <c r="B320" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="1">
-        <v>44091</v>
+        <v>44089</v>
       </c>
       <c r="B321" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="1">
-        <v>44092</v>
+        <v>44090</v>
       </c>
       <c r="B322" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="1">
-        <v>44093</v>
+        <v>44091</v>
       </c>
       <c r="B323" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="1">
-        <v>44094</v>
+        <v>44092</v>
       </c>
       <c r="B324" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="1">
-        <v>44095</v>
+        <v>44093</v>
       </c>
       <c r="B325" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="1">
-        <v>44096</v>
+        <v>44094</v>
       </c>
       <c r="B326" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="1">
-        <v>44097</v>
+        <v>44095</v>
       </c>
       <c r="B327" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="1">
-        <v>44098</v>
+        <v>44096</v>
       </c>
       <c r="B328" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="1">
-        <v>44099</v>
+        <v>44097</v>
       </c>
       <c r="B329" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="1">
-        <v>44100</v>
+        <v>44098</v>
       </c>
       <c r="B330" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="1">
-        <v>44101</v>
+        <v>44099</v>
       </c>
       <c r="B331" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="1">
-        <v>44102</v>
+        <v>44100</v>
       </c>
       <c r="B332" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="1">
-        <v>44103</v>
+        <v>44101</v>
       </c>
       <c r="B333" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="1">
-        <v>44104</v>
+        <v>44102</v>
       </c>
       <c r="B334" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="1">
-        <v>44105</v>
+        <v>44103</v>
       </c>
       <c r="B335" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="1">
-        <v>44106</v>
+        <v>44104</v>
       </c>
       <c r="B336" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="1">
-        <v>44107</v>
+        <v>44105</v>
       </c>
       <c r="B337" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="1">
-        <v>44108</v>
+        <v>44106</v>
       </c>
       <c r="B338" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="1">
-        <v>44109</v>
+        <v>44107</v>
       </c>
       <c r="B339" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="1">
-        <v>44110</v>
+        <v>44108</v>
       </c>
       <c r="B340" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="1">
-        <v>44111</v>
+        <v>44109</v>
       </c>
       <c r="B341" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="1">
-        <v>44112</v>
+        <v>44110</v>
       </c>
       <c r="B342" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="1">
-        <v>44113</v>
+        <v>44111</v>
       </c>
       <c r="B343" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="1">
-        <v>44114</v>
+        <v>44112</v>
       </c>
       <c r="B344" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="1">
-        <v>44115</v>
+        <v>44113</v>
       </c>
       <c r="B345" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="1">
-        <v>44116</v>
+        <v>44114</v>
       </c>
       <c r="B346" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="1">
-        <v>44117</v>
+        <v>44115</v>
       </c>
       <c r="B347" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="1">
-        <v>44118</v>
+        <v>44116</v>
       </c>
       <c r="B348" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="1">
-        <v>44119</v>
+        <v>44117</v>
       </c>
       <c r="B349" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="1">
-        <v>44120</v>
+        <v>44118</v>
       </c>
       <c r="B350" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="1">
-        <v>44121</v>
+        <v>44119</v>
       </c>
       <c r="B351" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="1">
-        <v>44122</v>
+        <v>44120</v>
       </c>
       <c r="B352" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="1">
-        <v>44123</v>
+        <v>44121</v>
       </c>
       <c r="B353" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="1">
-        <v>44124</v>
+        <v>44122</v>
       </c>
       <c r="B354" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="1">
-        <v>44125</v>
+        <v>44123</v>
       </c>
       <c r="B355" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="1">
-        <v>44126</v>
+        <v>44124</v>
       </c>
       <c r="B356" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="1">
-        <v>44127</v>
+        <v>44125</v>
       </c>
       <c r="B357" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="1">
-        <v>44128</v>
+        <v>44126</v>
       </c>
       <c r="B358" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="1">
-        <v>44129</v>
+        <v>44127</v>
       </c>
       <c r="B359" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="1">
-        <v>44130</v>
+        <v>44128</v>
       </c>
       <c r="B360" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="1">
-        <v>44131</v>
+        <v>44129</v>
       </c>
       <c r="B361" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="1">
-        <v>44132</v>
+        <v>44130</v>
       </c>
       <c r="B362" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="1">
-        <v>44133</v>
+        <v>44131</v>
       </c>
       <c r="B363" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="1">
-        <v>44134</v>
+        <v>44132</v>
       </c>
       <c r="B364" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="1">
-        <v>44135</v>
+        <v>44133</v>
       </c>
       <c r="B365" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="1">
-        <v>44136</v>
+        <v>44134</v>
       </c>
       <c r="B366" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="1">
-        <v>44137</v>
+        <v>44135</v>
       </c>
       <c r="B367" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="1">
-        <v>44138</v>
+        <v>44136</v>
       </c>
       <c r="B368" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="1">
-        <v>44139</v>
+        <v>44137</v>
       </c>
       <c r="B369" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="1">
-        <v>44140</v>
+        <v>44138</v>
       </c>
       <c r="B370" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="1">
-        <v>44141</v>
+        <v>44139</v>
       </c>
       <c r="B371" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="1">
-        <v>44142</v>
+        <v>44140</v>
       </c>
       <c r="B372" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="1">
-        <v>44143</v>
+        <v>44141</v>
       </c>
       <c r="B373" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="1">
-        <v>44144</v>
+        <v>44142</v>
       </c>
       <c r="B374" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="1">
-        <v>44145</v>
+        <v>44143</v>
       </c>
       <c r="B375" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="1">
-        <v>44146</v>
+        <v>44144</v>
       </c>
       <c r="B376" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="1">
-        <v>44147</v>
+        <v>44145</v>
       </c>
       <c r="B377" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="1">
-        <v>44148</v>
+        <v>44146</v>
       </c>
       <c r="B378" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="1">
-        <v>44149</v>
+        <v>44147</v>
       </c>
       <c r="B379" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="1">
-        <v>44150</v>
+        <v>44148</v>
       </c>
       <c r="B380" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="1">
-        <v>44151</v>
+        <v>44149</v>
       </c>
       <c r="B381" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="1">
-        <v>44152</v>
+        <v>44150</v>
       </c>
       <c r="B382" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="1">
-        <v>44153</v>
+        <v>44151</v>
       </c>
       <c r="B383" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="1">
-        <v>44154</v>
+        <v>44152</v>
       </c>
       <c r="B384" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="1">
-        <v>44155</v>
+        <v>44153</v>
       </c>
       <c r="B385" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="1">
-        <v>44156</v>
+        <v>44154</v>
       </c>
       <c r="B386" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="1">
-        <v>44157</v>
+        <v>44155</v>
       </c>
       <c r="B387" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="1">
-        <v>44158</v>
+        <v>44156</v>
       </c>
       <c r="B388" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="1">
-        <v>44159</v>
+        <v>44157</v>
       </c>
       <c r="B389" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="1">
-        <v>44160</v>
+        <v>44158</v>
       </c>
       <c r="B390" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="1">
-        <v>44161</v>
+        <v>44159</v>
       </c>
       <c r="B391" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="1">
-        <v>44162</v>
+        <v>44160</v>
       </c>
       <c r="B392" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="1">
-        <v>44163</v>
+        <v>44161</v>
       </c>
       <c r="B393" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="1">
-        <v>44164</v>
+        <v>44162</v>
       </c>
       <c r="B394" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="1">
-        <v>44165</v>
+        <v>44163</v>
       </c>
       <c r="B395" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="1">
-        <v>44166</v>
+        <v>44164</v>
       </c>
       <c r="B396" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="1">
-        <v>44167</v>
+        <v>44165</v>
       </c>
       <c r="B397" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="1">
-        <v>44168</v>
+        <v>44166</v>
       </c>
       <c r="B398" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="1">
-        <v>44169</v>
+        <v>44167</v>
       </c>
       <c r="B399" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="1">
-        <v>44170</v>
+        <v>44168</v>
       </c>
       <c r="B400" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="1">
-        <v>44171</v>
+        <v>44169</v>
       </c>
       <c r="B401" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="1">
-        <v>44172</v>
+        <v>44170</v>
       </c>
       <c r="B402" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="1">
-        <v>44173</v>
+        <v>44171</v>
       </c>
       <c r="B403" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="1">
-        <v>44174</v>
+        <v>44172</v>
       </c>
       <c r="B404" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="1">
-        <v>44175</v>
+        <v>44173</v>
       </c>
       <c r="B405" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="1">
-        <v>44176</v>
+        <v>44174</v>
       </c>
       <c r="B406" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="1">
-        <v>44177</v>
+        <v>44175</v>
       </c>
       <c r="B407" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="1">
-        <v>44178</v>
+        <v>44176</v>
       </c>
       <c r="B408" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="1">
-        <v>44179</v>
+        <v>44177</v>
       </c>
       <c r="B409" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="1">
-        <v>44180</v>
+        <v>44178</v>
       </c>
       <c r="B410" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="1">
-        <v>44181</v>
+        <v>44179</v>
       </c>
       <c r="B411" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="1">
-        <v>44182</v>
+        <v>44180</v>
       </c>
       <c r="B412" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="1">
-        <v>44183</v>
+        <v>44181</v>
       </c>
       <c r="B413" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="1">
-        <v>44184</v>
+        <v>44182</v>
       </c>
       <c r="B414" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="1">
-        <v>44185</v>
+        <v>44183</v>
       </c>
       <c r="B415" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="1">
-        <v>44186</v>
+        <v>44184</v>
       </c>
       <c r="B416" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="1">
-        <v>44187</v>
+        <v>44185</v>
       </c>
       <c r="B417" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="1">
-        <v>44188</v>
+        <v>44186</v>
       </c>
       <c r="B418" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="1">
-        <v>44189</v>
+        <v>44187</v>
       </c>
       <c r="B419" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="1">
-        <v>44190</v>
+        <v>44188</v>
       </c>
       <c r="B420" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="1">
-        <v>44191</v>
+        <v>44189</v>
       </c>
       <c r="B421" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="1">
-        <v>44192</v>
+        <v>44190</v>
       </c>
       <c r="B422" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="1">
-        <v>44193</v>
+        <v>44191</v>
       </c>
       <c r="B423" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="1">
-        <v>44194</v>
+        <v>44192</v>
       </c>
       <c r="B424" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="1">
-        <v>44195</v>
+        <v>44193</v>
       </c>
       <c r="B425" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="1">
+        <v>44194</v>
+      </c>
+      <c r="B426" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2">
+      <c r="A427" s="1">
+        <v>44195</v>
+      </c>
+      <c r="B427" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2">
+      <c r="A428" s="1">
         <v>44196</v>
       </c>
-      <c r="B426" t="s">
+      <c r="B428" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7149,18 +7204,20 @@
     <hyperlink ref="C197" r:id="rId53"/>
     <hyperlink ref="C202" r:id="rId54"/>
     <hyperlink ref="C203" r:id="rId55"/>
+    <hyperlink ref="C206" r:id="rId56"/>
+    <hyperlink ref="C208" r:id="rId57"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId56"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId58"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F152"/>
+  <dimension ref="A1:F154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
+      <selection activeCell="A155" sqref="A155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8112,6 +8169,9 @@
       <c r="C72" t="s">
         <v>132</v>
       </c>
+      <c r="D72" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2" t="s">
@@ -8123,6 +8183,9 @@
       <c r="C73" t="s">
         <v>132</v>
       </c>
+      <c r="D73" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2" t="s">
@@ -8134,6 +8197,9 @@
       <c r="C74" t="s">
         <v>132</v>
       </c>
+      <c r="D74" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2"/>
@@ -8673,6 +8739,16 @@
       </c>
       <c r="C152" s="9" t="s">
         <v>389</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" t="s">
+        <v>422</v>
       </c>
     </row>
   </sheetData>

--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="423">
   <si>
     <t>Дата начала</t>
   </si>
@@ -2964,7 +2964,7 @@
   <dimension ref="A1:D428"/>
   <sheetViews>
     <sheetView topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="C208" sqref="C208:D208"/>
+      <selection activeCell="C209" sqref="C209:D209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5387,15 +5387,21 @@
         <v>417</v>
       </c>
     </row>
-    <row r="209" spans="1:2">
+    <row r="209" spans="1:4">
       <c r="A209" s="1">
         <v>43977</v>
       </c>
       <c r="B209" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="210" spans="1:2">
+      <c r="C209" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="D209" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
       <c r="A210" s="1">
         <v>43978</v>
       </c>
@@ -5403,7 +5409,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="211" spans="1:2">
+    <row r="211" spans="1:4">
       <c r="A211" s="1">
         <v>43979</v>
       </c>
@@ -5411,7 +5417,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="212" spans="1:2">
+    <row r="212" spans="1:4">
       <c r="A212" s="1">
         <v>43980</v>
       </c>
@@ -5419,7 +5425,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="213" spans="1:2">
+    <row r="213" spans="1:4">
       <c r="A213" s="1">
         <v>43981</v>
       </c>
@@ -5427,7 +5433,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="214" spans="1:2">
+    <row r="214" spans="1:4">
       <c r="A214" s="1">
         <v>43982</v>
       </c>
@@ -5435,7 +5441,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="215" spans="1:2">
+    <row r="215" spans="1:4">
       <c r="A215" s="1">
         <v>43983</v>
       </c>
@@ -5443,7 +5449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
+    <row r="216" spans="1:4">
       <c r="A216" s="1">
         <v>43984</v>
       </c>
@@ -5451,7 +5457,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
+    <row r="217" spans="1:4">
       <c r="A217" s="1">
         <v>43985</v>
       </c>
@@ -5459,7 +5465,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="218" spans="1:2">
+    <row r="218" spans="1:4">
       <c r="A218" s="1">
         <v>43986</v>
       </c>
@@ -5467,7 +5473,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="219" spans="1:2">
+    <row r="219" spans="1:4">
       <c r="A219" s="1">
         <v>43987</v>
       </c>
@@ -5475,7 +5481,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="220" spans="1:2">
+    <row r="220" spans="1:4">
       <c r="A220" s="1">
         <v>43988</v>
       </c>
@@ -5483,7 +5489,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="221" spans="1:2">
+    <row r="221" spans="1:4">
       <c r="A221" s="1">
         <v>43989</v>
       </c>
@@ -5491,7 +5497,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="222" spans="1:2">
+    <row r="222" spans="1:4">
       <c r="A222" s="1">
         <v>43990</v>
       </c>
@@ -5499,7 +5505,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="223" spans="1:2">
+    <row r="223" spans="1:4">
       <c r="A223" s="1">
         <v>43991</v>
       </c>
@@ -5507,7 +5513,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="224" spans="1:2">
+    <row r="224" spans="1:4">
       <c r="A224" s="1">
         <v>43992</v>
       </c>

--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440"/>
   </bookViews>
   <sheets>
     <sheet name="По задачам" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="425">
   <si>
     <t>Дата начала</t>
   </si>
@@ -1418,6 +1418,12 @@
   </si>
   <si>
     <t>bkeepers/dotenv</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RfOPNmXXfyA</t>
+  </si>
+  <si>
+    <t>Fancy Weather. Q &amp; A</t>
   </si>
 </sst>
 </file>
@@ -1828,10 +1834,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:D95"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95:B95"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2944,6 +2950,17 @@
       </c>
       <c r="C95" s="8" t="s">
         <v>417</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B96" s="1">
+        <v>43977</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>424</v>
       </c>
     </row>
   </sheetData>
@@ -2961,10 +2978,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D428"/>
+  <dimension ref="A1:D429"/>
   <sheetViews>
     <sheetView topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="C209" sqref="C209:D209"/>
+      <selection activeCell="D211" sqref="D211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5402,1754 +5419,1763 @@
       </c>
     </row>
     <row r="210" spans="1:4">
-      <c r="A210" s="1">
-        <v>43978</v>
-      </c>
-      <c r="B210" t="s">
-        <v>12</v>
+      <c r="A210" s="1"/>
+      <c r="C210" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="D210" s="8" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="1">
-        <v>43979</v>
+        <v>43978</v>
       </c>
       <c r="B211" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="1">
-        <v>43980</v>
+        <v>43979</v>
       </c>
       <c r="B212" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="1">
-        <v>43981</v>
+        <v>43980</v>
       </c>
       <c r="B213" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="1">
-        <v>43982</v>
+        <v>43981</v>
       </c>
       <c r="B214" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="1">
-        <v>43983</v>
+        <v>43982</v>
       </c>
       <c r="B215" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="1">
-        <v>43984</v>
+        <v>43983</v>
       </c>
       <c r="B216" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="1">
-        <v>43985</v>
+        <v>43984</v>
       </c>
       <c r="B217" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="1">
-        <v>43986</v>
+        <v>43985</v>
       </c>
       <c r="B218" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="1">
-        <v>43987</v>
+        <v>43986</v>
       </c>
       <c r="B219" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="1">
-        <v>43988</v>
+        <v>43987</v>
       </c>
       <c r="B220" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="1">
-        <v>43989</v>
+        <v>43988</v>
       </c>
       <c r="B221" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="1">
-        <v>43990</v>
+        <v>43989</v>
       </c>
       <c r="B222" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="1">
-        <v>43991</v>
+        <v>43990</v>
       </c>
       <c r="B223" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="1">
-        <v>43992</v>
+        <v>43991</v>
       </c>
       <c r="B224" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="1">
-        <v>43993</v>
+        <v>43992</v>
       </c>
       <c r="B225" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="1">
-        <v>43994</v>
+        <v>43993</v>
       </c>
       <c r="B226" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="1">
-        <v>43995</v>
+        <v>43994</v>
       </c>
       <c r="B227" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="1">
-        <v>43996</v>
+        <v>43995</v>
       </c>
       <c r="B228" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="1">
-        <v>43997</v>
+        <v>43996</v>
       </c>
       <c r="B229" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="1">
-        <v>43998</v>
+        <v>43997</v>
       </c>
       <c r="B230" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="1">
-        <v>43999</v>
+        <v>43998</v>
       </c>
       <c r="B231" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="1">
-        <v>44000</v>
+        <v>43999</v>
       </c>
       <c r="B232" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="1">
-        <v>44001</v>
+        <v>44000</v>
       </c>
       <c r="B233" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="1">
-        <v>44002</v>
+        <v>44001</v>
       </c>
       <c r="B234" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="1">
-        <v>44003</v>
+        <v>44002</v>
       </c>
       <c r="B235" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="1">
-        <v>44004</v>
+        <v>44003</v>
       </c>
       <c r="B236" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="1">
-        <v>44005</v>
+        <v>44004</v>
       </c>
       <c r="B237" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="1">
-        <v>44006</v>
+        <v>44005</v>
       </c>
       <c r="B238" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="1">
-        <v>44007</v>
+        <v>44006</v>
       </c>
       <c r="B239" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="1">
-        <v>44008</v>
+        <v>44007</v>
       </c>
       <c r="B240" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="1">
-        <v>44009</v>
+        <v>44008</v>
       </c>
       <c r="B241" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="1">
-        <v>44010</v>
+        <v>44009</v>
       </c>
       <c r="B242" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="1">
-        <v>44011</v>
+        <v>44010</v>
       </c>
       <c r="B243" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="1">
-        <v>44012</v>
+        <v>44011</v>
       </c>
       <c r="B244" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="1">
-        <v>44013</v>
+        <v>44012</v>
       </c>
       <c r="B245" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="1">
-        <v>44014</v>
+        <v>44013</v>
       </c>
       <c r="B246" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="1">
-        <v>44015</v>
+        <v>44014</v>
       </c>
       <c r="B247" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="1">
-        <v>44016</v>
+        <v>44015</v>
       </c>
       <c r="B248" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="1">
-        <v>44017</v>
+        <v>44016</v>
       </c>
       <c r="B249" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="1">
-        <v>44018</v>
+        <v>44017</v>
       </c>
       <c r="B250" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="251" spans="1:2">
       <c r="A251" s="1">
-        <v>44019</v>
+        <v>44018</v>
       </c>
       <c r="B251" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="252" spans="1:2">
       <c r="A252" s="1">
-        <v>44020</v>
+        <v>44019</v>
       </c>
       <c r="B252" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="253" spans="1:2">
       <c r="A253" s="1">
-        <v>44021</v>
+        <v>44020</v>
       </c>
       <c r="B253" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="254" spans="1:2">
       <c r="A254" s="1">
-        <v>44022</v>
+        <v>44021</v>
       </c>
       <c r="B254" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="255" spans="1:2">
       <c r="A255" s="1">
-        <v>44023</v>
+        <v>44022</v>
       </c>
       <c r="B255" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="256" spans="1:2">
       <c r="A256" s="1">
-        <v>44024</v>
+        <v>44023</v>
       </c>
       <c r="B256" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="257" spans="1:2">
       <c r="A257" s="1">
-        <v>44025</v>
+        <v>44024</v>
       </c>
       <c r="B257" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="258" spans="1:2">
       <c r="A258" s="1">
-        <v>44026</v>
+        <v>44025</v>
       </c>
       <c r="B258" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="259" spans="1:2">
       <c r="A259" s="1">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="B259" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="260" spans="1:2">
       <c r="A260" s="1">
-        <v>44028</v>
+        <v>44027</v>
       </c>
       <c r="B260" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="261" spans="1:2">
       <c r="A261" s="1">
-        <v>44029</v>
+        <v>44028</v>
       </c>
       <c r="B261" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="262" spans="1:2">
       <c r="A262" s="1">
-        <v>44030</v>
+        <v>44029</v>
       </c>
       <c r="B262" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="263" spans="1:2">
       <c r="A263" s="1">
-        <v>44031</v>
+        <v>44030</v>
       </c>
       <c r="B263" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="264" spans="1:2">
       <c r="A264" s="1">
-        <v>44032</v>
+        <v>44031</v>
       </c>
       <c r="B264" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="265" spans="1:2">
       <c r="A265" s="1">
-        <v>44033</v>
+        <v>44032</v>
       </c>
       <c r="B265" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="266" spans="1:2">
       <c r="A266" s="1">
-        <v>44034</v>
+        <v>44033</v>
       </c>
       <c r="B266" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="267" spans="1:2">
       <c r="A267" s="1">
-        <v>44035</v>
+        <v>44034</v>
       </c>
       <c r="B267" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="268" spans="1:2">
       <c r="A268" s="1">
-        <v>44036</v>
+        <v>44035</v>
       </c>
       <c r="B268" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="269" spans="1:2">
       <c r="A269" s="1">
-        <v>44037</v>
+        <v>44036</v>
       </c>
       <c r="B269" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="270" spans="1:2">
       <c r="A270" s="1">
-        <v>44038</v>
+        <v>44037</v>
       </c>
       <c r="B270" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="271" spans="1:2">
       <c r="A271" s="1">
-        <v>44039</v>
+        <v>44038</v>
       </c>
       <c r="B271" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="272" spans="1:2">
       <c r="A272" s="1">
-        <v>44040</v>
+        <v>44039</v>
       </c>
       <c r="B272" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="1">
-        <v>44041</v>
+        <v>44040</v>
       </c>
       <c r="B273" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="274" spans="1:2">
       <c r="A274" s="1">
-        <v>44042</v>
+        <v>44041</v>
       </c>
       <c r="B274" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="275" spans="1:2">
       <c r="A275" s="1">
-        <v>44043</v>
+        <v>44042</v>
       </c>
       <c r="B275" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="276" spans="1:2">
       <c r="A276" s="1">
-        <v>44044</v>
+        <v>44043</v>
       </c>
       <c r="B276" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="1">
-        <v>44045</v>
+        <v>44044</v>
       </c>
       <c r="B277" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="278" spans="1:2">
       <c r="A278" s="1">
-        <v>44046</v>
+        <v>44045</v>
       </c>
       <c r="B278" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="279" spans="1:2">
       <c r="A279" s="1">
-        <v>44047</v>
+        <v>44046</v>
       </c>
       <c r="B279" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="1">
-        <v>44048</v>
+        <v>44047</v>
       </c>
       <c r="B280" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="281" spans="1:2">
       <c r="A281" s="1">
-        <v>44049</v>
+        <v>44048</v>
       </c>
       <c r="B281" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="1">
-        <v>44050</v>
+        <v>44049</v>
       </c>
       <c r="B282" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="1">
-        <v>44051</v>
+        <v>44050</v>
       </c>
       <c r="B283" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="284" spans="1:2">
       <c r="A284" s="1">
-        <v>44052</v>
+        <v>44051</v>
       </c>
       <c r="B284" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="285" spans="1:2">
       <c r="A285" s="1">
-        <v>44053</v>
+        <v>44052</v>
       </c>
       <c r="B285" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="286" spans="1:2">
       <c r="A286" s="1">
-        <v>44054</v>
+        <v>44053</v>
       </c>
       <c r="B286" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="287" spans="1:2">
       <c r="A287" s="1">
-        <v>44055</v>
+        <v>44054</v>
       </c>
       <c r="B287" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="288" spans="1:2">
       <c r="A288" s="1">
-        <v>44056</v>
+        <v>44055</v>
       </c>
       <c r="B288" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="289" spans="1:2">
       <c r="A289" s="1">
-        <v>44057</v>
+        <v>44056</v>
       </c>
       <c r="B289" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="1">
-        <v>44058</v>
+        <v>44057</v>
       </c>
       <c r="B290" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="291" spans="1:2">
       <c r="A291" s="1">
-        <v>44059</v>
+        <v>44058</v>
       </c>
       <c r="B291" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="292" spans="1:2">
       <c r="A292" s="1">
-        <v>44060</v>
+        <v>44059</v>
       </c>
       <c r="B292" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="293" spans="1:2">
       <c r="A293" s="1">
-        <v>44061</v>
+        <v>44060</v>
       </c>
       <c r="B293" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="294" spans="1:2">
       <c r="A294" s="1">
-        <v>44062</v>
+        <v>44061</v>
       </c>
       <c r="B294" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="295" spans="1:2">
       <c r="A295" s="1">
-        <v>44063</v>
+        <v>44062</v>
       </c>
       <c r="B295" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="296" spans="1:2">
       <c r="A296" s="1">
-        <v>44064</v>
+        <v>44063</v>
       </c>
       <c r="B296" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="297" spans="1:2">
       <c r="A297" s="1">
-        <v>44065</v>
+        <v>44064</v>
       </c>
       <c r="B297" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="298" spans="1:2">
       <c r="A298" s="1">
-        <v>44066</v>
+        <v>44065</v>
       </c>
       <c r="B298" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="1">
-        <v>44067</v>
+        <v>44066</v>
       </c>
       <c r="B299" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="1">
-        <v>44068</v>
+        <v>44067</v>
       </c>
       <c r="B300" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="1">
-        <v>44069</v>
+        <v>44068</v>
       </c>
       <c r="B301" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="1">
-        <v>44070</v>
+        <v>44069</v>
       </c>
       <c r="B302" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="303" spans="1:2">
       <c r="A303" s="1">
-        <v>44071</v>
+        <v>44070</v>
       </c>
       <c r="B303" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="304" spans="1:2">
       <c r="A304" s="1">
-        <v>44072</v>
+        <v>44071</v>
       </c>
       <c r="B304" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="305" spans="1:2">
       <c r="A305" s="1">
-        <v>44073</v>
+        <v>44072</v>
       </c>
       <c r="B305" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="1">
-        <v>44074</v>
+        <v>44073</v>
       </c>
       <c r="B306" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="307" spans="1:2">
       <c r="A307" s="1">
-        <v>44075</v>
+        <v>44074</v>
       </c>
       <c r="B307" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="308" spans="1:2">
       <c r="A308" s="1">
-        <v>44076</v>
+        <v>44075</v>
       </c>
       <c r="B308" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="1">
-        <v>44077</v>
+        <v>44076</v>
       </c>
       <c r="B309" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="310" spans="1:2">
       <c r="A310" s="1">
-        <v>44078</v>
+        <v>44077</v>
       </c>
       <c r="B310" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="1">
-        <v>44079</v>
+        <v>44078</v>
       </c>
       <c r="B311" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="1">
-        <v>44080</v>
+        <v>44079</v>
       </c>
       <c r="B312" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="313" spans="1:2">
       <c r="A313" s="1">
-        <v>44081</v>
+        <v>44080</v>
       </c>
       <c r="B313" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="314" spans="1:2">
       <c r="A314" s="1">
-        <v>44082</v>
+        <v>44081</v>
       </c>
       <c r="B314" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="315" spans="1:2">
       <c r="A315" s="1">
-        <v>44083</v>
+        <v>44082</v>
       </c>
       <c r="B315" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" s="1">
-        <v>44084</v>
+        <v>44083</v>
       </c>
       <c r="B316" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="317" spans="1:2">
       <c r="A317" s="1">
-        <v>44085</v>
+        <v>44084</v>
       </c>
       <c r="B317" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" s="1">
-        <v>44086</v>
+        <v>44085</v>
       </c>
       <c r="B318" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="1">
-        <v>44087</v>
+        <v>44086</v>
       </c>
       <c r="B319" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="1">
-        <v>44088</v>
+        <v>44087</v>
       </c>
       <c r="B320" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="1">
-        <v>44089</v>
+        <v>44088</v>
       </c>
       <c r="B321" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="1">
-        <v>44090</v>
+        <v>44089</v>
       </c>
       <c r="B322" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="1">
-        <v>44091</v>
+        <v>44090</v>
       </c>
       <c r="B323" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" s="1">
-        <v>44092</v>
+        <v>44091</v>
       </c>
       <c r="B324" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" s="1">
-        <v>44093</v>
+        <v>44092</v>
       </c>
       <c r="B325" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="1">
-        <v>44094</v>
+        <v>44093</v>
       </c>
       <c r="B326" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" s="1">
-        <v>44095</v>
+        <v>44094</v>
       </c>
       <c r="B327" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="1">
-        <v>44096</v>
+        <v>44095</v>
       </c>
       <c r="B328" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="1">
-        <v>44097</v>
+        <v>44096</v>
       </c>
       <c r="B329" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="1">
-        <v>44098</v>
+        <v>44097</v>
       </c>
       <c r="B330" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="1">
-        <v>44099</v>
+        <v>44098</v>
       </c>
       <c r="B331" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="332" spans="1:2">
       <c r="A332" s="1">
-        <v>44100</v>
+        <v>44099</v>
       </c>
       <c r="B332" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="333" spans="1:2">
       <c r="A333" s="1">
-        <v>44101</v>
+        <v>44100</v>
       </c>
       <c r="B333" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="334" spans="1:2">
       <c r="A334" s="1">
-        <v>44102</v>
+        <v>44101</v>
       </c>
       <c r="B334" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="335" spans="1:2">
       <c r="A335" s="1">
-        <v>44103</v>
+        <v>44102</v>
       </c>
       <c r="B335" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="336" spans="1:2">
       <c r="A336" s="1">
-        <v>44104</v>
+        <v>44103</v>
       </c>
       <c r="B336" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="337" spans="1:2">
       <c r="A337" s="1">
-        <v>44105</v>
+        <v>44104</v>
       </c>
       <c r="B337" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="338" spans="1:2">
       <c r="A338" s="1">
-        <v>44106</v>
+        <v>44105</v>
       </c>
       <c r="B338" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="339" spans="1:2">
       <c r="A339" s="1">
-        <v>44107</v>
+        <v>44106</v>
       </c>
       <c r="B339" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" s="1">
-        <v>44108</v>
+        <v>44107</v>
       </c>
       <c r="B340" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="341" spans="1:2">
       <c r="A341" s="1">
-        <v>44109</v>
+        <v>44108</v>
       </c>
       <c r="B341" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="342" spans="1:2">
       <c r="A342" s="1">
-        <v>44110</v>
+        <v>44109</v>
       </c>
       <c r="B342" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" s="1">
-        <v>44111</v>
+        <v>44110</v>
       </c>
       <c r="B343" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="344" spans="1:2">
       <c r="A344" s="1">
-        <v>44112</v>
+        <v>44111</v>
       </c>
       <c r="B344" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="345" spans="1:2">
       <c r="A345" s="1">
-        <v>44113</v>
+        <v>44112</v>
       </c>
       <c r="B345" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="346" spans="1:2">
       <c r="A346" s="1">
-        <v>44114</v>
+        <v>44113</v>
       </c>
       <c r="B346" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" s="1">
-        <v>44115</v>
+        <v>44114</v>
       </c>
       <c r="B347" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="348" spans="1:2">
       <c r="A348" s="1">
-        <v>44116</v>
+        <v>44115</v>
       </c>
       <c r="B348" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="349" spans="1:2">
       <c r="A349" s="1">
-        <v>44117</v>
+        <v>44116</v>
       </c>
       <c r="B349" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="350" spans="1:2">
       <c r="A350" s="1">
-        <v>44118</v>
+        <v>44117</v>
       </c>
       <c r="B350" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="351" spans="1:2">
       <c r="A351" s="1">
-        <v>44119</v>
+        <v>44118</v>
       </c>
       <c r="B351" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="352" spans="1:2">
       <c r="A352" s="1">
-        <v>44120</v>
+        <v>44119</v>
       </c>
       <c r="B352" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="353" spans="1:2">
       <c r="A353" s="1">
-        <v>44121</v>
+        <v>44120</v>
       </c>
       <c r="B353" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="354" spans="1:2">
       <c r="A354" s="1">
-        <v>44122</v>
+        <v>44121</v>
       </c>
       <c r="B354" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="355" spans="1:2">
       <c r="A355" s="1">
-        <v>44123</v>
+        <v>44122</v>
       </c>
       <c r="B355" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="356" spans="1:2">
       <c r="A356" s="1">
-        <v>44124</v>
+        <v>44123</v>
       </c>
       <c r="B356" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="357" spans="1:2">
       <c r="A357" s="1">
-        <v>44125</v>
+        <v>44124</v>
       </c>
       <c r="B357" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="358" spans="1:2">
       <c r="A358" s="1">
-        <v>44126</v>
+        <v>44125</v>
       </c>
       <c r="B358" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="359" spans="1:2">
       <c r="A359" s="1">
-        <v>44127</v>
+        <v>44126</v>
       </c>
       <c r="B359" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" s="1">
-        <v>44128</v>
+        <v>44127</v>
       </c>
       <c r="B360" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="361" spans="1:2">
       <c r="A361" s="1">
-        <v>44129</v>
+        <v>44128</v>
       </c>
       <c r="B361" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="362" spans="1:2">
       <c r="A362" s="1">
-        <v>44130</v>
+        <v>44129</v>
       </c>
       <c r="B362" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="363" spans="1:2">
       <c r="A363" s="1">
-        <v>44131</v>
+        <v>44130</v>
       </c>
       <c r="B363" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" s="1">
-        <v>44132</v>
+        <v>44131</v>
       </c>
       <c r="B364" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="365" spans="1:2">
       <c r="A365" s="1">
-        <v>44133</v>
+        <v>44132</v>
       </c>
       <c r="B365" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="366" spans="1:2">
       <c r="A366" s="1">
-        <v>44134</v>
+        <v>44133</v>
       </c>
       <c r="B366" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="367" spans="1:2">
       <c r="A367" s="1">
-        <v>44135</v>
+        <v>44134</v>
       </c>
       <c r="B367" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" s="1">
-        <v>44136</v>
+        <v>44135</v>
       </c>
       <c r="B368" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="369" spans="1:2">
       <c r="A369" s="1">
-        <v>44137</v>
+        <v>44136</v>
       </c>
       <c r="B369" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="370" spans="1:2">
       <c r="A370" s="1">
-        <v>44138</v>
+        <v>44137</v>
       </c>
       <c r="B370" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="371" spans="1:2">
       <c r="A371" s="1">
-        <v>44139</v>
+        <v>44138</v>
       </c>
       <c r="B371" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="372" spans="1:2">
       <c r="A372" s="1">
-        <v>44140</v>
+        <v>44139</v>
       </c>
       <c r="B372" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="373" spans="1:2">
       <c r="A373" s="1">
-        <v>44141</v>
+        <v>44140</v>
       </c>
       <c r="B373" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="374" spans="1:2">
       <c r="A374" s="1">
-        <v>44142</v>
+        <v>44141</v>
       </c>
       <c r="B374" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="375" spans="1:2">
       <c r="A375" s="1">
-        <v>44143</v>
+        <v>44142</v>
       </c>
       <c r="B375" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="376" spans="1:2">
       <c r="A376" s="1">
-        <v>44144</v>
+        <v>44143</v>
       </c>
       <c r="B376" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="377" spans="1:2">
       <c r="A377" s="1">
-        <v>44145</v>
+        <v>44144</v>
       </c>
       <c r="B377" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="378" spans="1:2">
       <c r="A378" s="1">
-        <v>44146</v>
+        <v>44145</v>
       </c>
       <c r="B378" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="379" spans="1:2">
       <c r="A379" s="1">
-        <v>44147</v>
+        <v>44146</v>
       </c>
       <c r="B379" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="380" spans="1:2">
       <c r="A380" s="1">
-        <v>44148</v>
+        <v>44147</v>
       </c>
       <c r="B380" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="381" spans="1:2">
       <c r="A381" s="1">
-        <v>44149</v>
+        <v>44148</v>
       </c>
       <c r="B381" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="382" spans="1:2">
       <c r="A382" s="1">
-        <v>44150</v>
+        <v>44149</v>
       </c>
       <c r="B382" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="383" spans="1:2">
       <c r="A383" s="1">
-        <v>44151</v>
+        <v>44150</v>
       </c>
       <c r="B383" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="384" spans="1:2">
       <c r="A384" s="1">
-        <v>44152</v>
+        <v>44151</v>
       </c>
       <c r="B384" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="385" spans="1:2">
       <c r="A385" s="1">
-        <v>44153</v>
+        <v>44152</v>
       </c>
       <c r="B385" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="386" spans="1:2">
       <c r="A386" s="1">
-        <v>44154</v>
+        <v>44153</v>
       </c>
       <c r="B386" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="387" spans="1:2">
       <c r="A387" s="1">
-        <v>44155</v>
+        <v>44154</v>
       </c>
       <c r="B387" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="388" spans="1:2">
       <c r="A388" s="1">
-        <v>44156</v>
+        <v>44155</v>
       </c>
       <c r="B388" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="389" spans="1:2">
       <c r="A389" s="1">
-        <v>44157</v>
+        <v>44156</v>
       </c>
       <c r="B389" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="390" spans="1:2">
       <c r="A390" s="1">
-        <v>44158</v>
+        <v>44157</v>
       </c>
       <c r="B390" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="391" spans="1:2">
       <c r="A391" s="1">
-        <v>44159</v>
+        <v>44158</v>
       </c>
       <c r="B391" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="392" spans="1:2">
       <c r="A392" s="1">
-        <v>44160</v>
+        <v>44159</v>
       </c>
       <c r="B392" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="393" spans="1:2">
       <c r="A393" s="1">
-        <v>44161</v>
+        <v>44160</v>
       </c>
       <c r="B393" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="394" spans="1:2">
       <c r="A394" s="1">
-        <v>44162</v>
+        <v>44161</v>
       </c>
       <c r="B394" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="395" spans="1:2">
       <c r="A395" s="1">
-        <v>44163</v>
+        <v>44162</v>
       </c>
       <c r="B395" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="396" spans="1:2">
       <c r="A396" s="1">
-        <v>44164</v>
+        <v>44163</v>
       </c>
       <c r="B396" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="397" spans="1:2">
       <c r="A397" s="1">
-        <v>44165</v>
+        <v>44164</v>
       </c>
       <c r="B397" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="398" spans="1:2">
       <c r="A398" s="1">
-        <v>44166</v>
+        <v>44165</v>
       </c>
       <c r="B398" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="399" spans="1:2">
       <c r="A399" s="1">
-        <v>44167</v>
+        <v>44166</v>
       </c>
       <c r="B399" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="400" spans="1:2">
       <c r="A400" s="1">
-        <v>44168</v>
+        <v>44167</v>
       </c>
       <c r="B400" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="401" spans="1:2">
       <c r="A401" s="1">
-        <v>44169</v>
+        <v>44168</v>
       </c>
       <c r="B401" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="402" spans="1:2">
       <c r="A402" s="1">
-        <v>44170</v>
+        <v>44169</v>
       </c>
       <c r="B402" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="403" spans="1:2">
       <c r="A403" s="1">
-        <v>44171</v>
+        <v>44170</v>
       </c>
       <c r="B403" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="404" spans="1:2">
       <c r="A404" s="1">
-        <v>44172</v>
+        <v>44171</v>
       </c>
       <c r="B404" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="405" spans="1:2">
       <c r="A405" s="1">
-        <v>44173</v>
+        <v>44172</v>
       </c>
       <c r="B405" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="406" spans="1:2">
       <c r="A406" s="1">
-        <v>44174</v>
+        <v>44173</v>
       </c>
       <c r="B406" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="407" spans="1:2">
       <c r="A407" s="1">
-        <v>44175</v>
+        <v>44174</v>
       </c>
       <c r="B407" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="408" spans="1:2">
       <c r="A408" s="1">
-        <v>44176</v>
+        <v>44175</v>
       </c>
       <c r="B408" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="409" spans="1:2">
       <c r="A409" s="1">
-        <v>44177</v>
+        <v>44176</v>
       </c>
       <c r="B409" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="410" spans="1:2">
       <c r="A410" s="1">
-        <v>44178</v>
+        <v>44177</v>
       </c>
       <c r="B410" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="411" spans="1:2">
       <c r="A411" s="1">
-        <v>44179</v>
+        <v>44178</v>
       </c>
       <c r="B411" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="412" spans="1:2">
       <c r="A412" s="1">
-        <v>44180</v>
+        <v>44179</v>
       </c>
       <c r="B412" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="413" spans="1:2">
       <c r="A413" s="1">
-        <v>44181</v>
+        <v>44180</v>
       </c>
       <c r="B413" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="414" spans="1:2">
       <c r="A414" s="1">
-        <v>44182</v>
+        <v>44181</v>
       </c>
       <c r="B414" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="415" spans="1:2">
       <c r="A415" s="1">
-        <v>44183</v>
+        <v>44182</v>
       </c>
       <c r="B415" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="416" spans="1:2">
       <c r="A416" s="1">
-        <v>44184</v>
+        <v>44183</v>
       </c>
       <c r="B416" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="417" spans="1:2">
       <c r="A417" s="1">
-        <v>44185</v>
+        <v>44184</v>
       </c>
       <c r="B417" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="418" spans="1:2">
       <c r="A418" s="1">
-        <v>44186</v>
+        <v>44185</v>
       </c>
       <c r="B418" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="419" spans="1:2">
       <c r="A419" s="1">
-        <v>44187</v>
+        <v>44186</v>
       </c>
       <c r="B419" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="420" spans="1:2">
       <c r="A420" s="1">
-        <v>44188</v>
+        <v>44187</v>
       </c>
       <c r="B420" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="421" spans="1:2">
       <c r="A421" s="1">
-        <v>44189</v>
+        <v>44188</v>
       </c>
       <c r="B421" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="422" spans="1:2">
       <c r="A422" s="1">
-        <v>44190</v>
+        <v>44189</v>
       </c>
       <c r="B422" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="423" spans="1:2">
       <c r="A423" s="1">
-        <v>44191</v>
+        <v>44190</v>
       </c>
       <c r="B423" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="424" spans="1:2">
       <c r="A424" s="1">
-        <v>44192</v>
+        <v>44191</v>
       </c>
       <c r="B424" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="425" spans="1:2">
       <c r="A425" s="1">
-        <v>44193</v>
+        <v>44192</v>
       </c>
       <c r="B425" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="426" spans="1:2">
       <c r="A426" s="1">
-        <v>44194</v>
+        <v>44193</v>
       </c>
       <c r="B426" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="427" spans="1:2">
       <c r="A427" s="1">
-        <v>44195</v>
+        <v>44194</v>
       </c>
       <c r="B427" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="428" spans="1:2">
       <c r="A428" s="1">
+        <v>44195</v>
+      </c>
+      <c r="B428" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2">
+      <c r="A429" s="1">
         <v>44196</v>
       </c>
-      <c r="B428" t="s">
+      <c r="B429" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7212,9 +7238,10 @@
     <hyperlink ref="C203" r:id="rId55"/>
     <hyperlink ref="C206" r:id="rId56"/>
     <hyperlink ref="C208" r:id="rId57"/>
+    <hyperlink ref="C210" r:id="rId58"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId58"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId59"/>
 </worksheet>
 </file>
 
@@ -7222,8 +7249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="A155" sqref="A155"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8208,8 +8235,18 @@
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="2"/>
-      <c r="B75" s="8"/>
+      <c r="A75" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="C75" t="s">
+        <v>132</v>
+      </c>
+      <c r="D75" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2"/>

--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="13335" windowHeight="7440" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="По задачам" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="427">
   <si>
     <t>Дата начала</t>
   </si>
@@ -1424,6 +1424,12 @@
   </si>
   <si>
     <t>Fancy Weather. Q &amp; A</t>
+  </si>
+  <si>
+    <t>npm install mapbox-gl --save</t>
+  </si>
+  <si>
+    <t>mapbox</t>
   </si>
 </sst>
 </file>
@@ -1836,7 +1842,7 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+    <sheetView topLeftCell="A77" workbookViewId="0">
       <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
@@ -2981,7 +2987,7 @@
   <dimension ref="A1:D429"/>
   <sheetViews>
     <sheetView topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="D211" sqref="D211"/>
+      <selection activeCell="C211" sqref="C211:D211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5433,6 +5439,12 @@
       </c>
       <c r="B211" t="s">
         <v>12</v>
+      </c>
+      <c r="C211" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="D211" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -7247,10 +7259,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F154"/>
+  <dimension ref="A1:F155"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="A156" sqref="A156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8792,6 +8804,14 @@
     <row r="154" spans="1:3">
       <c r="A154" t="s">
         <v>422</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="15.75">
+      <c r="A155" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="B155" t="s">
+        <v>426</v>
       </c>
     </row>
   </sheetData>

--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="427">
   <si>
     <t>Дата начала</t>
   </si>
@@ -2987,7 +2987,7 @@
   <dimension ref="A1:D429"/>
   <sheetViews>
     <sheetView topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="C211" sqref="C211:D211"/>
+      <selection activeCell="C212" sqref="C212:D212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5453,6 +5453,12 @@
       </c>
       <c r="B212" t="s">
         <v>13</v>
+      </c>
+      <c r="C212" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="D212" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="213" spans="1:4">

--- a/My_Diary.xlsx
+++ b/My_Diary.xlsx
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="429">
   <si>
     <t>Дата начала</t>
   </si>
@@ -1430,6 +1430,12 @@
   </si>
   <si>
     <t>mapbox</t>
+  </si>
+  <si>
+    <t>JavaScript 2020Q1 Scrum</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6HGeVgLKD18</t>
   </si>
 </sst>
 </file>
@@ -1840,10 +1846,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:D96"/>
+  <dimension ref="A1:D98"/>
   <sheetViews>
     <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="C96" sqref="C96"/>
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2968,6 +2974,20 @@
       <c r="C96" s="8" t="s">
         <v>424</v>
       </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="1">
+        <v>43979</v>
+      </c>
+      <c r="B97" s="1">
+        <v>43979</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2984,10 +3004,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D429"/>
+  <dimension ref="A1:D430"/>
   <sheetViews>
     <sheetView topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="C212" sqref="C212:D212"/>
+      <selection activeCell="C215" sqref="C215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5462,1738 +5482,1747 @@
       </c>
     </row>
     <row r="213" spans="1:4">
-      <c r="A213" s="1">
-        <v>43980</v>
-      </c>
-      <c r="B213" t="s">
-        <v>14</v>
+      <c r="A213" s="1"/>
+      <c r="C213" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="D213" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="1">
-        <v>43981</v>
+        <v>43980</v>
       </c>
       <c r="B214" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="1">
-        <v>43982</v>
+        <v>43981</v>
       </c>
       <c r="B215" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="1">
-        <v>43983</v>
+        <v>43982</v>
       </c>
       <c r="B216" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="1">
-        <v>43984</v>
+        <v>43983</v>
       </c>
       <c r="B217" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="1">
-        <v>43985</v>
+        <v>43984</v>
       </c>
       <c r="B218" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="1">
-        <v>43986</v>
+        <v>43985</v>
       </c>
       <c r="B219" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="1">
-        <v>43987</v>
+        <v>43986</v>
       </c>
       <c r="B220" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="1">
-        <v>43988</v>
+        <v>43987</v>
       </c>
       <c r="B221" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="1">
-        <v>43989</v>
+        <v>43988</v>
       </c>
       <c r="B222" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="1">
-        <v>43990</v>
+        <v>43989</v>
       </c>
       <c r="B223" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="1">
-        <v>43991</v>
+        <v>43990</v>
       </c>
       <c r="B224" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="225" spans="1:2">
       <c r="A225" s="1">
-        <v>43992</v>
+        <v>43991</v>
       </c>
       <c r="B225" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="226" spans="1:2">
       <c r="A226" s="1">
-        <v>43993</v>
+        <v>43992</v>
       </c>
       <c r="B226" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="1">
-        <v>43994</v>
+        <v>43993</v>
       </c>
       <c r="B227" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="1">
-        <v>43995</v>
+        <v>43994</v>
       </c>
       <c r="B228" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="229" spans="1:2">
       <c r="A229" s="1">
-        <v>43996</v>
+        <v>43995</v>
       </c>
       <c r="B229" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="1">
-        <v>43997</v>
+        <v>43996</v>
       </c>
       <c r="B230" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="1">
-        <v>43998</v>
+        <v>43997</v>
       </c>
       <c r="B231" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="1">
-        <v>43999</v>
+        <v>43998</v>
       </c>
       <c r="B232" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="1">
-        <v>44000</v>
+        <v>43999</v>
       </c>
       <c r="B233" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="234" spans="1:2">
       <c r="A234" s="1">
-        <v>44001</v>
+        <v>44000</v>
       </c>
       <c r="B234" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="235" spans="1:2">
       <c r="A235" s="1">
-        <v>44002</v>
+        <v>44001</v>
       </c>
       <c r="B235" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="1">
-        <v>44003</v>
+        <v>44002</v>
       </c>
       <c r="B236" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="237" spans="1:2">
       <c r="A237" s="1">
-        <v>44004</v>
+        <v>44003</v>
       </c>
       <c r="B237" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="1">
-        <v>44005</v>
+        <v>44004</v>
       </c>
       <c r="B238" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="239" spans="1:2">
       <c r="A239" s="1">
-        <v>44006</v>
+        <v>44005</v>
       </c>
       <c r="B239" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="240" spans="1:2">
       <c r="A240" s="1">
-        <v>44007</v>
+        <v>44006</v>
       </c>
       <c r="B240" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="241" spans="1:2">
       <c r="A241" s="1">
-        <v>44008</v>
+        <v>44007</v>
       </c>
       <c r="B241" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="242" spans="1:2">
       <c r="A242" s="1">
-        <v>44009</v>
+        <v>44008</v>
       </c>
       <c r="B242" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="243" spans="1:2">
       <c r="A243" s="1">
-        <v>44010</v>
+        <v>44009</v>
       </c>
       <c r="B243" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="244" spans="1:2">
       <c r="A244" s="1">
-        <v>44011</v>
+        <v>44010</v>
       </c>
       <c r="B244" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="245" spans="1:2">
       <c r="A245" s="1">
-        <v>44012</v>
+        <v>44011</v>
       </c>
       <c r="B245" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="246" spans="1:2">
       <c r="A246" s="1">
-        <v>44013</v>
+        <v>44012</v>
       </c>
       <c r="B246" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="247" spans="1:2">
       <c r="A247" s="1">
-        <v>44014</v>
+        <v>44013</v>
       </c>
       <c r="B247" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="248" spans="1:2">
       <c r="A248" s="1">
-        <v>44015</v>
+        <v>44014</v>
       </c>
       <c r="B248" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="249" spans="1:2">
       <c r="A249" s="1">
-        <v>44016</v>
+        <v>44015</v>
       </c>
       <c r="B249" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="250" spans="1:2">
       <c r="A250" s="1">
-        <v>44017</v>
+        <v>44016</v>
       </c>
 